--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305"/>
   </bookViews>
   <sheets>
-    <sheet name="references-latest" sheetId="28" r:id="rId1"/>
-    <sheet name="pc-basics" sheetId="1" r:id="rId2"/>
-    <sheet name="OOPS-Fundamentals" sheetId="2" r:id="rId3"/>
-    <sheet name="variables" sheetId="3" r:id="rId4"/>
-    <sheet name="data-structure" sheetId="4" r:id="rId5"/>
-    <sheet name="methods" sheetId="5" r:id="rId6"/>
-    <sheet name="tech-terms" sheetId="6" r:id="rId7"/>
+    <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
+    <sheet name="OOPS-Fundamentals" sheetId="2" r:id="rId2"/>
+    <sheet name="variables" sheetId="3" r:id="rId3"/>
+    <sheet name="data-structure" sheetId="4" r:id="rId4"/>
+    <sheet name="methods" sheetId="5" r:id="rId5"/>
+    <sheet name="tech-terms" sheetId="6" r:id="rId6"/>
+    <sheet name="references-latest" sheetId="28" r:id="rId7"/>
     <sheet name="method-calls" sheetId="7" r:id="rId8"/>
     <sheet name="variable-scope" sheetId="8" r:id="rId9"/>
     <sheet name="references" sheetId="9" r:id="rId10"/>
@@ -11332,2436 +11332,1076 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:XFD102"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A1" t="s">
-        <v>1907</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B2" t="s">
-        <v>2755</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2226</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2752</v>
-      </c>
-      <c r="E3" s="80" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="34"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2360</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2754</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="F4" s="51">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+      <c r="F2" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+      <c r="H3" s="320" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="322"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1">
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1">
+      <c r="F6" s="4"/>
+      <c r="G6" s="323" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H6" s="324"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="323" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="324"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="323" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="324"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1">
+      <c r="D7" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="F8" s="4"/>
+      <c r="G8" s="325" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="326"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="325" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="326"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="325" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="326"/>
+      <c r="Q8" s="142"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="F9" s="4"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="253"/>
+      <c r="J9" s="254"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="253"/>
+      <c r="M9" s="254"/>
+      <c r="N9" s="254"/>
+      <c r="Q9" s="142"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="F10" s="4"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="253"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="253"/>
+      <c r="M10" s="254"/>
+      <c r="N10" s="254"/>
+      <c r="Q10" s="142"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="F11" s="4"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="253"/>
+      <c r="J11" s="254"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="253"/>
+      <c r="M11" s="254"/>
+      <c r="N11" s="254"/>
+      <c r="Q11" s="142"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="F12" s="316" t="s">
+        <v>2654</v>
+      </c>
+      <c r="G12" s="317"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="317"/>
+      <c r="J12" s="317"/>
+      <c r="K12" s="317"/>
+      <c r="L12" s="317"/>
+      <c r="M12" s="317"/>
+      <c r="N12" s="317"/>
+      <c r="Q12" s="142"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1">
+      <c r="F13" s="318"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="319"/>
+      <c r="M13" s="319"/>
+      <c r="N13" s="319"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D14" s="125" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1">
+      <c r="D15" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="F16" s="139"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="E17" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F17" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="136"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="117"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="52" t="s">
-        <v>526</v>
-      </c>
-      <c r="M4" s="52"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E5" s="50" t="s">
-        <v>551</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="L5" s="55">
+      <c r="K17" s="138"/>
+      <c r="L17" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="136"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1">
+      <c r="F18" s="141"/>
+      <c r="G18" s="136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="136"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="137" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="D19" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="139"/>
+      <c r="G19" s="136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="136"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="F20" s="140"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="18"/>
+      <c r="Q20" s="142"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="E21" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F21" s="140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1">
+      <c r="F22" s="141"/>
+      <c r="G22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="F23" s="140"/>
+      <c r="G23" s="17" t="s">
+        <v>2638</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="F24" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="52"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A6" t="s">
-        <v>428</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>552</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>2634</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="27" t="s">
-        <v>1897</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="52"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" t="s">
-        <v>2794</v>
-      </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>526</v>
-      </c>
-      <c r="M8" s="52"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B9" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="L9" s="55">
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1">
+      <c r="F25" s="141"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:17">
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>32768</v>
+      </c>
+      <c r="G32" s="51">
+        <v>128</v>
+      </c>
+      <c r="H32" s="57">
+        <v>64</v>
+      </c>
+      <c r="I32" s="57">
+        <v>32</v>
+      </c>
+      <c r="J32" s="57">
+        <v>16</v>
+      </c>
+      <c r="K32" s="57">
+        <v>8</v>
+      </c>
+      <c r="L32" s="57">
+        <v>4</v>
+      </c>
+      <c r="M32" s="57">
+        <v>2</v>
+      </c>
+      <c r="N32" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17 16384:16384">
+      <c r="A33" s="27" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17 16384:16384">
+      <c r="A34" s="251" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B34" s="132"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132" t="s">
+        <v>2640</v>
+      </c>
+      <c r="H34" s="132" t="s">
+        <v>2639</v>
+      </c>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132" t="s">
+        <v>2640</v>
+      </c>
+      <c r="N34" s="132" t="s">
+        <v>2639</v>
+      </c>
+      <c r="P34" s="163"/>
+    </row>
+    <row r="35" spans="1:17 16384:16384">
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="P35" s="57"/>
+    </row>
+    <row r="36" spans="1:17 16384:16384">
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="190"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="190"/>
+      <c r="Q36" s="190"/>
+    </row>
+    <row r="37" spans="1:17 16384:16384">
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="190"/>
+      <c r="K37" s="190"/>
+      <c r="L37" s="191"/>
+      <c r="M37" s="191"/>
+      <c r="N37" s="191"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="191"/>
+    </row>
+    <row r="38" spans="1:17 16384:16384">
+      <c r="G38" s="190"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="190"/>
+      <c r="K38" s="190"/>
+      <c r="L38" s="191"/>
+      <c r="M38" s="191"/>
+      <c r="N38" s="191"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="191"/>
+    </row>
+    <row r="39" spans="1:17 16384:16384">
+      <c r="C39">
+        <v>1024</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="XFD39" s="39" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17 16384:16384">
+      <c r="B40" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+    </row>
+    <row r="41" spans="1:17 16384:16384">
+      <c r="B41" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+    </row>
+    <row r="42" spans="1:17 16384:16384">
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+    </row>
+    <row r="43" spans="1:17 16384:16384">
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+    </row>
+    <row r="44" spans="1:17 16384:16384">
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="143"/>
+      <c r="J44" s="143"/>
+      <c r="K44" s="143"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+    </row>
+    <row r="45" spans="1:17 16384:16384">
+      <c r="B45" t="s">
+        <v>2641</v>
+      </c>
+      <c r="E45" s="39"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="143"/>
+      <c r="L45" s="143"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+    </row>
+    <row r="46" spans="1:17 16384:16384">
+      <c r="B46" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E46" s="39"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
+      <c r="K46" s="143"/>
+      <c r="L46" s="143"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+    </row>
+    <row r="47" spans="1:17 16384:16384">
+      <c r="A47" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E47" s="39"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="143"/>
+      <c r="J47" s="143"/>
+      <c r="K47" s="143"/>
+      <c r="L47" s="143"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+    </row>
+    <row r="48" spans="1:17 16384:16384">
+      <c r="E48" s="39"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="143"/>
+      <c r="K48" s="143"/>
+      <c r="L48" s="143"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="E49" s="39"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="144"/>
+      <c r="J49" s="143"/>
+      <c r="K49" s="143"/>
+      <c r="L49" s="143"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="E50" s="39"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="143"/>
+      <c r="K50" s="143"/>
+      <c r="L50" s="143"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="E51" s="39"/>
+      <c r="F51" s="143"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="143"/>
+      <c r="K51" s="143"/>
+      <c r="L51" s="143"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="E52" s="39"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="143"/>
+      <c r="K52" s="143"/>
+      <c r="L52" s="143"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="E55" s="38">
+        <v>768</v>
+      </c>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="164" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D58" s="164" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E58" s="38"/>
+      <c r="F58" s="164" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="L60" s="152"/>
+      <c r="M60" s="152"/>
+      <c r="N60" s="152"/>
+      <c r="O60" s="152"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="G61">
+        <v>11111111</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1101010101</v>
+      </c>
+      <c r="L61" s="152"/>
+      <c r="M61" s="152"/>
+      <c r="N61" s="152"/>
+      <c r="O61" s="152"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="L62" s="152"/>
+      <c r="M62" s="153"/>
+      <c r="N62" s="153"/>
+      <c r="O62" s="152"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="L63" s="152"/>
+      <c r="M63" s="152"/>
+      <c r="N63" s="152"/>
+      <c r="O63" s="152"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="L64" s="152"/>
+      <c r="M64" s="152"/>
+      <c r="N64" s="152"/>
+      <c r="O64" s="152"/>
+    </row>
+    <row r="90" spans="2:17">
+      <c r="E90" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17">
+      <c r="E91" s="51">
+        <v>128</v>
+      </c>
+      <c r="F91" s="57">
+        <v>64</v>
+      </c>
+      <c r="G91" s="57">
+        <v>32</v>
+      </c>
+      <c r="H91" s="57">
+        <v>16</v>
+      </c>
+      <c r="I91" s="57">
+        <v>8</v>
+      </c>
+      <c r="J91" s="57">
+        <v>4</v>
+      </c>
+      <c r="K91" s="57">
+        <v>2</v>
+      </c>
+      <c r="L91" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17">
+      <c r="E92" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" t="s">
+        <v>33</v>
+      </c>
+      <c r="J92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17">
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="E93" s="211"/>
+      <c r="F93" s="132">
+        <v>0</v>
+      </c>
+      <c r="G93" s="132">
+        <v>0</v>
+      </c>
+      <c r="H93" s="132">
+        <v>0</v>
+      </c>
+      <c r="I93" s="132">
+        <v>1</v>
+      </c>
+      <c r="J93" s="132">
+        <v>0</v>
+      </c>
+      <c r="K93" s="132">
+        <v>1</v>
+      </c>
+      <c r="L93" s="132">
+        <v>0</v>
+      </c>
+      <c r="M93" s="212">
         <v>10</v>
       </c>
-      <c r="M9" s="52"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B10" t="s">
-        <v>2789</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" t="s">
-        <v>2788</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51" t="s">
-        <v>2634</v>
-      </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="52"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" t="s">
-        <v>2787</v>
-      </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="52" t="s">
-        <v>561</v>
-      </c>
-      <c r="M12" s="52"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B13" t="s">
-        <v>2790</v>
-      </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" s="55">
-        <v>10</v>
-      </c>
-      <c r="M13" s="52"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" t="s">
-        <v>2799</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" t="s">
-        <v>2800</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16" t="s">
-        <v>2791</v>
-      </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="B17" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="27" t="s">
-        <v>2757</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>2795</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>2752</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>2796</v>
-      </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="34"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B18" t="s">
-        <v>2792</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36" t="s">
-        <v>2797</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>2760</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>2798</v>
-      </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="B19" t="s">
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="B20" t="s">
-        <v>2801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="B21" t="s">
-        <v>2802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A24" t="s">
-        <v>2766</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" t="s">
-        <v>2767</v>
-      </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31" t="s">
-        <v>2814</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="32"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>1435</v>
-      </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="K26" s="37" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1">
-      <c r="F27" s="33" t="s">
-        <v>2815</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>2768</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27" t="s">
-        <v>2812</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>2778</v>
-      </c>
-      <c r="K28" s="32" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B29" t="s">
-        <v>2260</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2804</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="35" t="s">
-        <v>2667</v>
-      </c>
-      <c r="K29" s="37">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B30" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2803</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="34"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27" t="s">
-        <v>2813</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>2809</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>2811</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A32" t="s">
-        <v>2772</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="35" t="s">
-        <v>2810</v>
-      </c>
-      <c r="K32" s="37">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="B33" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2805</v>
-      </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="34"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="B34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2806</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="34"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="34"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="F36" s="33"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="34"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>428</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="34"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="B38" t="s">
-        <v>2807</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="34"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1">
-      <c r="B39" t="s">
-        <v>2808</v>
-      </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="6:6" ht="15.75" thickBot="1">
-      <c r="F64" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A65" t="s">
-        <v>1907</v>
-      </c>
-      <c r="F65" s="47" t="s">
-        <v>2112</v>
-      </c>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48" t="s">
-        <v>2763</v>
-      </c>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="49"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="B66" t="s">
-        <v>2755</v>
-      </c>
-      <c r="F66" s="260" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G66" s="104" t="s">
-        <v>1989</v>
-      </c>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="74" t="s">
-        <v>2634</v>
-      </c>
-      <c r="K66" s="99"/>
-      <c r="L66" s="100"/>
-      <c r="M66" s="52"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="B67" t="s">
-        <v>2756</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2226</v>
-      </c>
-      <c r="D67" t="s">
-        <v>2752</v>
-      </c>
-      <c r="F67" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="G67" s="51">
-        <v>10</v>
-      </c>
-      <c r="H67" s="117"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="261" t="s">
-        <v>60</v>
-      </c>
-      <c r="L67" s="231" t="s">
-        <v>414</v>
-      </c>
-      <c r="M67" s="52"/>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A68" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2753</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2754</v>
-      </c>
-      <c r="F68" s="50" t="s">
-        <v>551</v>
-      </c>
-      <c r="G68" s="51" t="s">
-        <v>2762</v>
-      </c>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="262" t="s">
-        <v>180</v>
-      </c>
-      <c r="L68" s="263">
-        <v>5</v>
-      </c>
-      <c r="M68" s="52"/>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A69" t="s">
-        <v>428</v>
-      </c>
-      <c r="F69" s="50" t="s">
-        <v>552</v>
-      </c>
-      <c r="G69" s="51" t="s">
-        <v>2764</v>
-      </c>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="52"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="B70" t="s">
-        <v>2742</v>
-      </c>
-      <c r="F70" s="50"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51" t="s">
-        <v>2762</v>
-      </c>
-      <c r="K70" s="99"/>
-      <c r="L70" s="100"/>
-      <c r="M70" s="52"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="B71" t="s">
-        <v>2743</v>
-      </c>
-      <c r="F71" s="50"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="261" t="s">
-        <v>60</v>
-      </c>
-      <c r="L71" s="231" t="s">
-        <v>526</v>
-      </c>
-      <c r="M71" s="52"/>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B72" t="s">
-        <v>2744</v>
-      </c>
-      <c r="F72" s="50"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="262" t="s">
-        <v>180</v>
-      </c>
-      <c r="L72" s="263">
-        <v>10</v>
-      </c>
-      <c r="M72" s="52"/>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B73" t="s">
-        <v>2746</v>
-      </c>
-      <c r="F73" s="50"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="51"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
-      <c r="L73" s="51"/>
-      <c r="M73" s="52"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="B74" t="s">
-        <v>2745</v>
-      </c>
-      <c r="F74" s="50"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="51"/>
-      <c r="J74" s="51" t="s">
-        <v>2764</v>
-      </c>
-      <c r="K74" s="99"/>
-      <c r="L74" s="100"/>
-      <c r="M74" s="52"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="B75" t="s">
-        <v>2749</v>
-      </c>
-      <c r="F75" s="50"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="261" t="s">
-        <v>60</v>
-      </c>
-      <c r="L75" s="231" t="s">
-        <v>561</v>
-      </c>
-      <c r="M75" s="52"/>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B76" t="s">
-        <v>2747</v>
-      </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="262" t="s">
-        <v>180</v>
-      </c>
-      <c r="L76" s="263">
-        <v>5</v>
-      </c>
-      <c r="M76" s="52"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="B77" t="s">
-        <v>2748</v>
-      </c>
-      <c r="F77" s="50"/>
-      <c r="G77" s="51" t="s">
-        <v>2757</v>
-      </c>
-      <c r="H77" s="51" t="s">
-        <v>2758</v>
-      </c>
-      <c r="I77" s="51" t="s">
-        <v>2759</v>
-      </c>
-      <c r="J77" s="51"/>
-      <c r="K77" s="51"/>
-      <c r="L77" s="51"/>
-      <c r="M77" s="52"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="B78" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="51" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H78" s="51" t="s">
-        <v>2760</v>
-      </c>
-      <c r="I78" s="117" t="s">
-        <v>2761</v>
-      </c>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="52"/>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="B79" t="s">
-        <v>2750</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="51"/>
-      <c r="J79" s="51"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="51"/>
-      <c r="M79" s="52"/>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B80" t="s">
-        <v>2751</v>
-      </c>
-      <c r="F80" s="53"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="55"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" t="s">
-        <v>428</v>
-      </c>
-      <c r="F83" s="121" t="s">
-        <v>206</v>
-      </c>
-      <c r="G83" s="256" t="s">
-        <v>1435</v>
-      </c>
-      <c r="H83" s="256"/>
-      <c r="I83" s="256"/>
-      <c r="J83" s="256"/>
-      <c r="K83" s="256" t="s">
-        <v>2775</v>
-      </c>
-      <c r="L83" s="121" t="s">
-        <v>201</v>
-      </c>
-      <c r="M83" s="122" t="s">
-        <v>2776</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="B84" t="s">
-        <v>2765</v>
-      </c>
-      <c r="F84" s="186" t="s">
-        <v>2785</v>
-      </c>
-      <c r="G84" s="27" t="s">
-        <v>2775</v>
-      </c>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="123"/>
-      <c r="M84" s="124"/>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B85" t="s">
-        <v>2786</v>
-      </c>
-      <c r="F85" s="186"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="76"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" t="s">
-        <v>146</v>
-      </c>
-      <c r="F86" s="186"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27" t="s">
-        <v>2776</v>
-      </c>
-      <c r="L86" s="121" t="s">
-        <v>2777</v>
-      </c>
-      <c r="M86" s="122" t="b">
+    </row>
+    <row r="94" spans="2:17">
+      <c r="E94" s="211"/>
+      <c r="F94" s="132">
+        <v>0</v>
+      </c>
+      <c r="G94" s="132">
+        <v>0</v>
+      </c>
+      <c r="H94" s="132">
+        <v>0</v>
+      </c>
+      <c r="I94" s="132">
+        <v>0</v>
+      </c>
+      <c r="J94" s="132">
+        <v>0</v>
+      </c>
+      <c r="K94" s="132">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A87" t="s">
-        <v>2766</v>
-      </c>
-      <c r="F87" s="186"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="186" t="s">
-        <v>2778</v>
-      </c>
-      <c r="M87" s="76" t="s">
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="B88" t="s">
-        <v>2767</v>
-      </c>
-      <c r="F88" s="186"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="76"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="123" t="s">
-        <v>2781</v>
-      </c>
-      <c r="M88" s="124" t="s">
-        <v>2782</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" t="s">
-        <v>146</v>
-      </c>
-      <c r="F89" s="186"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="121"/>
-      <c r="I89" s="122"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="76"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" t="s">
-        <v>2768</v>
-      </c>
-      <c r="F90" s="186"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="186"/>
-      <c r="I90" s="76"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27" t="s">
-        <v>2779</v>
-      </c>
-      <c r="L90" s="121" t="s">
-        <v>195</v>
-      </c>
-      <c r="M90" s="122">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="B91" t="s">
-        <v>2769</v>
-      </c>
-      <c r="F91" s="186"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="123"/>
-      <c r="I91" s="124"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="123" t="s">
-        <v>196</v>
-      </c>
-      <c r="M91" s="124" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="B92" t="s">
-        <v>2770</v>
-      </c>
-      <c r="F92" s="186"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="76"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="76"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="B93" t="s">
-        <v>2771</v>
-      </c>
-      <c r="F93" s="186"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="121"/>
-      <c r="I93" s="122"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27" t="s">
-        <v>2782</v>
-      </c>
-      <c r="L93" s="121" t="s">
-        <v>2783</v>
-      </c>
-      <c r="M93" s="264">
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" t="s">
-        <v>146</v>
-      </c>
-      <c r="F94" s="186"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="123"/>
-      <c r="I94" s="124"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="123" t="s">
-        <v>2784</v>
-      </c>
-      <c r="M94" s="124">
-        <v>12312312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" t="s">
-        <v>2772</v>
-      </c>
-      <c r="F95" s="186"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="76"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="76"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="B96" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2773</v>
-      </c>
-      <c r="F96" s="186"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="121"/>
-      <c r="I96" s="264"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="76"/>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B97" t="s">
-        <v>182</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2774</v>
-      </c>
-      <c r="F97" s="123"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="265"/>
-      <c r="I97" s="120"/>
-      <c r="J97" s="257"/>
-      <c r="K97" s="257"/>
-      <c r="L97" s="257"/>
-      <c r="M97" s="124"/>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A139" t="s">
-        <v>508</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A140" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E140" s="47" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F140" s="48" t="s">
-        <v>1435</v>
-      </c>
-      <c r="G140" s="31"/>
-      <c r="H140" s="31"/>
-      <c r="I140" s="31"/>
-      <c r="J140" s="31"/>
-      <c r="K140" s="31"/>
-      <c r="L140" s="32"/>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E141" s="50" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F141" s="51">
-        <v>20</v>
-      </c>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="I141" s="47" t="s">
-        <v>1607</v>
-      </c>
-      <c r="J141" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="K141" s="27"/>
-      <c r="L141" s="34"/>
-    </row>
-    <row r="142" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A142" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E142" s="50" t="s">
-        <v>1618</v>
-      </c>
-      <c r="F142" s="51" t="b">
+      <c r="L94" s="132">
         <v>1</v>
       </c>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="J142" s="55">
-        <v>20</v>
-      </c>
-      <c r="K142" s="27"/>
-      <c r="L142" s="34"/>
-    </row>
-    <row r="143" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A143" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E143" s="50" t="s">
-        <v>1616</v>
-      </c>
-      <c r="F143" s="51" t="s">
-        <v>519</v>
-      </c>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
-      <c r="K143" s="27"/>
-      <c r="L143" s="34"/>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="A144" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E144" s="50" t="s">
-        <v>1614</v>
-      </c>
-      <c r="F144" s="51" t="s">
-        <v>553</v>
-      </c>
-      <c r="G144" s="27"/>
-      <c r="H144" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="I144" s="47" t="s">
-        <v>1607</v>
-      </c>
-      <c r="J144" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="K144" s="27"/>
-      <c r="L144" s="34"/>
-    </row>
-    <row r="145" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A145" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E145" s="50"/>
-      <c r="F145" s="51"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="J145" s="55">
-        <v>20</v>
-      </c>
-      <c r="K145" s="27"/>
-      <c r="L145" s="34"/>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E146" s="50"/>
-      <c r="F146" s="51"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-      <c r="J146" s="27"/>
-      <c r="K146" s="27"/>
-      <c r="L146" s="34"/>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E147" s="50"/>
-      <c r="F147" s="51"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="34"/>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B148" t="s">
-        <v>577</v>
-      </c>
-      <c r="E148" s="50"/>
-      <c r="F148" s="51"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="27"/>
-      <c r="K148" s="27"/>
-      <c r="L148" s="34"/>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C149" t="s">
-        <v>577</v>
-      </c>
-      <c r="E149" s="50"/>
-      <c r="F149" s="51"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="27"/>
-      <c r="L149" s="34"/>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="E150" s="50"/>
-      <c r="F150" s="51"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="27"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="27"/>
-      <c r="K150" s="27"/>
-      <c r="L150" s="34"/>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E151" s="50"/>
-      <c r="F151" s="51"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="27"/>
-      <c r="K151" s="27"/>
-      <c r="L151" s="34"/>
-    </row>
-    <row r="152" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B152" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E152" s="53"/>
-      <c r="F152" s="54"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="36"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="36"/>
-      <c r="L152" s="37"/>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="B153" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="157" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A157" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E157" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="F157" s="48" t="s">
-        <v>1435</v>
-      </c>
-      <c r="G157" s="31"/>
-      <c r="H157" s="31"/>
-      <c r="I157" s="31"/>
-      <c r="J157" s="31"/>
-      <c r="K157" s="31"/>
-      <c r="L157" s="32"/>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="B158" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E158" s="50" t="s">
-        <v>1616</v>
-      </c>
-      <c r="F158" s="51" t="s">
-        <v>519</v>
-      </c>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="I158" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="J158" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="K158" s="27"/>
-      <c r="L158" s="34"/>
-    </row>
-    <row r="159" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B159" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D159" s="127">
+      <c r="M94" s="57">
+        <v>3</v>
+      </c>
+      <c r="N94" s="163"/>
+    </row>
+    <row r="95" spans="2:17">
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57">
+        <v>1</v>
+      </c>
+      <c r="J95" s="57">
         <v>0</v>
       </c>
-      <c r="E159" s="50" t="s">
-        <v>1614</v>
-      </c>
-      <c r="F159" s="51" t="s">
-        <v>553</v>
-      </c>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="J159" s="55">
+      <c r="K95" s="57">
         <v>0</v>
       </c>
-      <c r="K159" s="27"/>
-      <c r="L159" s="34"/>
-    </row>
-    <row r="160" spans="1:12" ht="15.75" thickBot="1">
-      <c r="B160" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D160" s="127"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="51"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="K160" s="27"/>
-      <c r="L160" s="34"/>
-    </row>
-    <row r="161" spans="1:13">
-      <c r="B161" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D161" s="127">
+      <c r="L95" s="57">
+        <v>1</v>
+      </c>
+      <c r="M95" t="s">
+        <v>2350</v>
+      </c>
+      <c r="N95" s="57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17">
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
         <v>0</v>
       </c>
-      <c r="E161" s="50"/>
-      <c r="F161" s="51"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="I161" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="J161" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="K161" s="27"/>
-      <c r="L161" s="34"/>
-    </row>
-    <row r="162" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A162" t="s">
-        <v>146</v>
-      </c>
-      <c r="D162" s="127"/>
-      <c r="E162" s="50"/>
-      <c r="F162" s="51"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="J162" s="55">
-        <v>30</v>
-      </c>
-      <c r="K162" s="27"/>
-      <c r="L162" s="34"/>
-    </row>
-    <row r="163" spans="1:13">
-      <c r="A163" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D163" s="127"/>
-      <c r="E163" s="50"/>
-      <c r="F163" s="51"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="27"/>
-      <c r="K163" s="27"/>
-      <c r="L163" s="34"/>
-    </row>
-    <row r="164" spans="1:13">
-      <c r="B164" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D164" s="127"/>
-      <c r="E164" s="50"/>
-      <c r="F164" s="51"/>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="27"/>
-      <c r="J164" s="27"/>
-      <c r="K164" s="27"/>
-      <c r="L164" s="34"/>
-    </row>
-    <row r="165" spans="1:13">
-      <c r="B165" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D165" s="127"/>
-      <c r="E165" s="50"/>
-      <c r="F165" s="51"/>
-      <c r="G165" s="27"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="27"/>
-      <c r="J165" s="27"/>
-      <c r="K165" s="27"/>
-      <c r="L165" s="34"/>
-    </row>
-    <row r="166" spans="1:13">
-      <c r="B166" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D166" s="127">
-        <v>30</v>
-      </c>
-      <c r="E166" s="50"/>
-      <c r="F166" s="51"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="27"/>
-      <c r="J166" s="27"/>
-      <c r="K166" s="27"/>
-      <c r="L166" s="34"/>
-    </row>
-    <row r="167" spans="1:13">
-      <c r="A167" t="s">
-        <v>146</v>
-      </c>
-      <c r="D167" s="127"/>
-      <c r="E167" s="50"/>
-      <c r="F167" s="51"/>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="27"/>
-      <c r="K167" s="27"/>
-      <c r="L167" s="34"/>
-    </row>
-    <row r="168" spans="1:13">
-      <c r="A168" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D168" s="127"/>
-      <c r="E168" s="50"/>
-      <c r="F168" s="51"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="27"/>
-      <c r="K168" s="27"/>
-      <c r="L168" s="34"/>
-    </row>
-    <row r="169" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B169" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D169" s="127"/>
-      <c r="E169" s="53"/>
-      <c r="F169" s="54"/>
-      <c r="G169" s="36"/>
-      <c r="H169" s="36"/>
-      <c r="I169" s="36"/>
-      <c r="J169" s="36"/>
-      <c r="K169" s="36"/>
-      <c r="L169" s="37"/>
-    </row>
-    <row r="170" spans="1:13">
-      <c r="B170" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D170" s="127"/>
-    </row>
-    <row r="172" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A172" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B173" t="s">
-        <v>1634</v>
-      </c>
-      <c r="G173" s="30"/>
-      <c r="H173" s="31"/>
-      <c r="I173" s="31"/>
-      <c r="J173" s="31"/>
-      <c r="K173" s="31"/>
-      <c r="L173" s="31"/>
-      <c r="M173" s="32"/>
-    </row>
-    <row r="174" spans="1:13">
-      <c r="C174" t="s">
-        <v>1635</v>
-      </c>
-      <c r="G174" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="H174" s="27" t="s">
-        <v>1435</v>
-      </c>
-      <c r="I174" s="27"/>
-      <c r="J174" s="27" t="s">
-        <v>1646</v>
-      </c>
-      <c r="K174" s="30"/>
-      <c r="L174" s="32"/>
-      <c r="M174" s="34"/>
-    </row>
-    <row r="175" spans="1:13">
-      <c r="C175" t="s">
-        <v>1636</v>
-      </c>
-      <c r="G175" s="33" t="s">
-        <v>1643</v>
-      </c>
-      <c r="H175" s="27">
-        <v>100</v>
-      </c>
-      <c r="I175" s="27"/>
-      <c r="J175" s="27"/>
-      <c r="K175" s="50" t="s">
-        <v>1647</v>
-      </c>
-      <c r="L175" s="52">
-        <v>100</v>
-      </c>
-      <c r="M175" s="34"/>
-    </row>
-    <row r="176" spans="1:13">
-      <c r="C176" t="s">
-        <v>1637</v>
-      </c>
-      <c r="G176" s="33" t="s">
-        <v>1644</v>
-      </c>
-      <c r="H176" s="27">
-        <v>300</v>
-      </c>
-      <c r="I176" s="27"/>
-      <c r="J176" s="27"/>
-      <c r="K176" s="50" t="s">
-        <v>1648</v>
-      </c>
-      <c r="L176" s="52">
-        <v>300</v>
-      </c>
-      <c r="M176" s="34"/>
-    </row>
-    <row r="177" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C177" t="s">
-        <v>1638</v>
-      </c>
-      <c r="G177" s="33" t="s">
-        <v>1644</v>
-      </c>
-      <c r="H177" s="27">
-        <v>1000</v>
-      </c>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="53" t="s">
-        <v>1649</v>
-      </c>
-      <c r="L177" s="55">
-        <v>1000</v>
-      </c>
-      <c r="M177" s="34"/>
-    </row>
-    <row r="178" spans="1:13">
-      <c r="A178" s="146" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B178" s="146"/>
-      <c r="C178" s="56" t="s">
-        <v>1655</v>
-      </c>
-      <c r="G178" s="33" t="s">
-        <v>1645</v>
-      </c>
-      <c r="H178" s="27" t="s">
-        <v>1646</v>
-      </c>
-      <c r="I178" s="27"/>
-      <c r="J178" s="27"/>
-      <c r="K178" s="27"/>
-      <c r="L178" s="27"/>
-      <c r="M178" s="34"/>
-    </row>
-    <row r="179" spans="1:13">
-      <c r="A179" s="146" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B179" s="146"/>
-      <c r="C179" t="s">
-        <v>1658</v>
-      </c>
-      <c r="G179" s="33" t="s">
-        <v>1654</v>
-      </c>
-      <c r="H179" s="27" t="s">
-        <v>1646</v>
-      </c>
-      <c r="I179" s="27"/>
-      <c r="J179" s="27"/>
-      <c r="K179" s="27"/>
-      <c r="L179" s="27"/>
-      <c r="M179" s="34"/>
-    </row>
-    <row r="180" spans="1:13">
-      <c r="B180" t="s">
-        <v>146</v>
-      </c>
-      <c r="G180" s="33"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="27"/>
-      <c r="L180" s="27"/>
-      <c r="M180" s="34"/>
-    </row>
-    <row r="181" spans="1:13">
-      <c r="A181" t="s">
-        <v>146</v>
-      </c>
-      <c r="G181" s="33"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="27"/>
-      <c r="K181" s="27"/>
-      <c r="L181" s="27"/>
-      <c r="M181" s="34"/>
-    </row>
-    <row r="182" spans="1:13">
-      <c r="A182" t="s">
-        <v>1639</v>
-      </c>
-      <c r="G182" s="33"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
-      <c r="K182" s="27"/>
-      <c r="L182" s="27"/>
-      <c r="M182" s="34"/>
-    </row>
-    <row r="183" spans="1:13">
-      <c r="B183" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D183" t="s">
-        <v>1641</v>
-      </c>
-      <c r="G183" s="33"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="27"/>
-      <c r="K183" s="27"/>
-      <c r="L183" s="27"/>
-      <c r="M183" s="34"/>
-    </row>
-    <row r="184" spans="1:13">
-      <c r="B184" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G184" s="33"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="27"/>
-      <c r="K184" s="27"/>
-      <c r="L184" s="27"/>
-      <c r="M184" s="34"/>
-    </row>
-    <row r="185" spans="1:13">
-      <c r="A185" t="s">
-        <v>146</v>
-      </c>
-      <c r="G185" s="33"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="27"/>
-      <c r="K185" s="27"/>
-      <c r="L185" s="27"/>
-      <c r="M185" s="34"/>
-    </row>
-    <row r="186" spans="1:13" ht="15.75" thickBot="1">
-      <c r="G186" s="35"/>
-      <c r="H186" s="36"/>
-      <c r="I186" s="36"/>
-      <c r="J186" s="36"/>
-      <c r="K186" s="36"/>
-      <c r="L186" s="36"/>
-      <c r="M186" s="37"/>
-    </row>
-    <row r="187" spans="1:13">
-      <c r="B187" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13">
-      <c r="B188" t="s">
-        <v>1651</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13">
-      <c r="B189" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F189">
+    </row>
+    <row r="97" spans="5:17">
+      <c r="O97">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
-      <c r="B190" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F190">
+      <c r="P97">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:13">
-      <c r="F191">
+      <c r="Q97">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A192" t="s">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13">
-      <c r="A193" t="s">
-        <v>2285</v>
-      </c>
-      <c r="E193" s="30" t="s">
-        <v>2275</v>
-      </c>
-      <c r="F193" s="31"/>
-      <c r="G193" s="31" t="s">
-        <v>2276</v>
-      </c>
-      <c r="H193" s="31"/>
-      <c r="I193" s="31"/>
-      <c r="J193" s="31"/>
-      <c r="K193" s="31"/>
-      <c r="L193" s="31"/>
-      <c r="M193" s="32"/>
-    </row>
-    <row r="194" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A194" t="s">
-        <v>2286</v>
-      </c>
-      <c r="E194" s="214" t="s">
-        <v>206</v>
-      </c>
-      <c r="F194" s="161" t="s">
-        <v>1435</v>
-      </c>
-      <c r="G194" s="51"/>
-      <c r="H194" s="51"/>
-      <c r="I194" s="157"/>
-      <c r="J194" s="157" t="s">
-        <v>2293</v>
-      </c>
-      <c r="K194" s="157"/>
-      <c r="L194" s="157"/>
-      <c r="M194" s="52"/>
-    </row>
-    <row r="195" spans="1:13">
-      <c r="A195" t="s">
-        <v>2284</v>
-      </c>
-      <c r="E195" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="F195" s="51">
-        <v>25</v>
-      </c>
-      <c r="G195" s="51"/>
-      <c r="H195" s="51"/>
-      <c r="I195" s="157" t="s">
-        <v>415</v>
-      </c>
-      <c r="J195" s="178"/>
-      <c r="K195" s="179"/>
-      <c r="L195" s="157"/>
-      <c r="M195" s="52"/>
-    </row>
-    <row r="196" spans="1:13">
-      <c r="A196" t="s">
-        <v>2289</v>
-      </c>
-      <c r="E196" s="50" t="s">
-        <v>2142</v>
-      </c>
-      <c r="F196" s="51">
-        <v>25</v>
-      </c>
-      <c r="G196" s="51"/>
-      <c r="H196" s="51"/>
-      <c r="I196" s="157"/>
-      <c r="J196" s="215" t="s">
-        <v>60</v>
-      </c>
-      <c r="K196" s="216" t="s">
-        <v>414</v>
-      </c>
-      <c r="L196" s="157"/>
-      <c r="M196" s="52"/>
-    </row>
-    <row r="197" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A197" t="s">
-        <v>2283</v>
-      </c>
-      <c r="E197" s="50" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F197" s="51" t="s">
-        <v>1896</v>
-      </c>
-      <c r="G197" s="51"/>
-      <c r="H197" s="51"/>
-      <c r="I197" s="157"/>
-      <c r="J197" s="180" t="s">
-        <v>2281</v>
-      </c>
-      <c r="K197" s="181">
-        <v>12</v>
-      </c>
-      <c r="L197" s="157"/>
-      <c r="M197" s="52"/>
-    </row>
-    <row r="198" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A198" s="56" t="s">
-        <v>2290</v>
-      </c>
-      <c r="E198" s="50" t="s">
-        <v>1793</v>
-      </c>
-      <c r="F198" s="51" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G198" s="51"/>
-      <c r="H198" s="51"/>
-      <c r="I198" s="51"/>
-      <c r="J198" s="51"/>
-      <c r="K198" s="51"/>
-      <c r="L198" s="51"/>
-      <c r="M198" s="52"/>
-    </row>
-    <row r="199" spans="1:13">
-      <c r="A199" s="56" t="s">
-        <v>2291</v>
-      </c>
-      <c r="B199" t="s">
-        <v>2292</v>
-      </c>
-      <c r="E199" s="50"/>
-      <c r="F199" s="51"/>
-      <c r="G199" s="51"/>
-      <c r="H199" s="51"/>
-      <c r="I199" s="51" t="s">
-        <v>1896</v>
-      </c>
-      <c r="J199" s="47"/>
-      <c r="K199" s="49"/>
-      <c r="L199" s="51"/>
-      <c r="M199" s="52"/>
-    </row>
-    <row r="200" spans="1:13">
-      <c r="A200" s="56" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E200" s="50"/>
-      <c r="F200" s="51"/>
-      <c r="G200" s="51"/>
-      <c r="H200" s="51"/>
-      <c r="I200" s="51"/>
-      <c r="J200" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="K200" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="L200" s="51"/>
-      <c r="M200" s="52"/>
-    </row>
-    <row r="201" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A201" s="56" t="s">
-        <v>2294</v>
-      </c>
-      <c r="B201" s="125"/>
-      <c r="E201" s="50"/>
-      <c r="F201" s="51"/>
-      <c r="G201" s="51"/>
-      <c r="H201" s="51"/>
-      <c r="I201" s="51"/>
-      <c r="J201" s="53" t="s">
-        <v>2281</v>
-      </c>
-      <c r="K201" s="55">
-        <v>20</v>
-      </c>
-      <c r="L201" s="51"/>
-      <c r="M201" s="52"/>
-    </row>
-    <row r="202" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A202" s="125" t="s">
-        <v>2295</v>
-      </c>
-      <c r="E202" s="50"/>
-      <c r="F202" s="51"/>
-      <c r="G202" s="51"/>
-      <c r="H202" s="51"/>
-      <c r="I202" s="51"/>
-      <c r="J202" s="51"/>
-      <c r="K202" s="51"/>
-      <c r="L202" s="51"/>
-      <c r="M202" s="52"/>
-    </row>
-    <row r="203" spans="1:13">
-      <c r="A203" t="s">
-        <v>2282</v>
-      </c>
-      <c r="C203">
-        <v>30</v>
-      </c>
-      <c r="E203" s="50"/>
-      <c r="F203" s="51"/>
-      <c r="G203" s="51"/>
-      <c r="H203" s="51"/>
-      <c r="I203" s="51" t="s">
-        <v>1897</v>
-      </c>
-      <c r="J203" s="47"/>
-      <c r="K203" s="49"/>
-      <c r="L203" s="51"/>
-      <c r="M203" s="52"/>
-    </row>
-    <row r="204" spans="1:13">
-      <c r="A204" t="s">
-        <v>2287</v>
-      </c>
-      <c r="C204">
-        <v>20</v>
-      </c>
-      <c r="E204" s="50"/>
-      <c r="F204" s="51"/>
-      <c r="G204" s="51"/>
-      <c r="H204" s="51"/>
-      <c r="I204" s="51"/>
-      <c r="J204" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="K204" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="L204" s="51"/>
-      <c r="M204" s="52"/>
-    </row>
-    <row r="205" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E205" s="50"/>
-      <c r="F205" s="51"/>
-      <c r="G205" s="51"/>
-      <c r="H205" s="51"/>
-      <c r="I205" s="51"/>
-      <c r="J205" s="53" t="s">
-        <v>2281</v>
-      </c>
-      <c r="K205" s="55">
-        <v>20</v>
-      </c>
-      <c r="L205" s="51"/>
-      <c r="M205" s="52"/>
-    </row>
-    <row r="206" spans="1:13">
-      <c r="A206" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E206" s="50"/>
-      <c r="F206" s="51"/>
-      <c r="G206" s="51"/>
-      <c r="H206" s="51"/>
-      <c r="I206" s="51"/>
-      <c r="J206" s="51"/>
-      <c r="K206" s="51"/>
-      <c r="L206" s="51"/>
-      <c r="M206" s="52"/>
-    </row>
-    <row r="207" spans="1:13">
-      <c r="B207" t="s">
-        <v>358</v>
-      </c>
-      <c r="E207" s="50"/>
-      <c r="F207" s="51"/>
-      <c r="G207" s="51"/>
-      <c r="H207" s="51"/>
-      <c r="I207" s="51"/>
-      <c r="J207" s="51"/>
-      <c r="K207" s="51"/>
-      <c r="L207" s="51"/>
-      <c r="M207" s="52"/>
-    </row>
-    <row r="208" spans="1:13">
-      <c r="B208" t="s">
-        <v>2274</v>
-      </c>
-      <c r="E208" s="50"/>
-      <c r="F208" s="51"/>
-      <c r="G208" s="51"/>
-      <c r="H208" s="51"/>
-      <c r="I208" s="51"/>
-      <c r="J208" s="51"/>
-      <c r="K208" s="51"/>
-      <c r="L208" s="51"/>
-      <c r="M208" s="52"/>
-    </row>
-    <row r="209" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A209" t="s">
-        <v>146</v>
-      </c>
-      <c r="E209" s="53"/>
-      <c r="F209" s="54"/>
-      <c r="G209" s="54"/>
-      <c r="H209" s="54"/>
-      <c r="I209" s="54"/>
-      <c r="J209" s="54"/>
-      <c r="K209" s="54"/>
-      <c r="L209" s="54"/>
-      <c r="M209" s="55"/>
-    </row>
-    <row r="210" spans="1:13">
-      <c r="A210" t="s">
-        <v>432</v>
-      </c>
-      <c r="B210" t="s">
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13">
-      <c r="B211" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13">
-      <c r="B213" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13">
-      <c r="B214" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="218" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A218" t="s">
-        <v>2298</v>
-      </c>
-      <c r="E218" s="30" t="s">
-        <v>2275</v>
-      </c>
-      <c r="F218" s="31"/>
-      <c r="G218" s="31" t="s">
-        <v>2276</v>
-      </c>
-      <c r="H218" s="31"/>
-      <c r="I218" s="31"/>
-      <c r="J218" s="31"/>
-      <c r="K218" s="31"/>
-      <c r="L218" s="31"/>
-      <c r="M218" s="32"/>
-    </row>
-    <row r="219" spans="1:13">
-      <c r="A219" t="s">
-        <v>2283</v>
-      </c>
-      <c r="E219" s="214" t="s">
-        <v>206</v>
-      </c>
-      <c r="F219" s="161" t="s">
-        <v>1435</v>
-      </c>
-      <c r="G219" s="51"/>
-      <c r="H219" s="51"/>
-      <c r="I219" s="217" t="s">
-        <v>415</v>
-      </c>
-      <c r="J219" s="218"/>
-      <c r="K219" s="219"/>
-      <c r="L219" s="157"/>
-      <c r="M219" s="52"/>
-    </row>
-    <row r="220" spans="1:13">
-      <c r="A220" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E220" s="50" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F220" s="51" t="s">
-        <v>1954</v>
-      </c>
-      <c r="G220" s="51"/>
-      <c r="H220" s="51"/>
-      <c r="I220" s="217"/>
-      <c r="J220" s="220" t="s">
-        <v>60</v>
-      </c>
-      <c r="K220" s="221" t="s">
-        <v>414</v>
-      </c>
-      <c r="L220" s="157"/>
-      <c r="M220" s="52"/>
-    </row>
-    <row r="221" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A221" t="s">
-        <v>2290</v>
-      </c>
-      <c r="E221" s="50" t="s">
-        <v>1793</v>
-      </c>
-      <c r="F221" s="51" t="s">
-        <v>1896</v>
-      </c>
-      <c r="G221" s="51"/>
-      <c r="H221" s="51"/>
-      <c r="I221" s="217"/>
-      <c r="J221" s="222" t="s">
-        <v>2281</v>
-      </c>
-      <c r="K221" s="223">
-        <v>12</v>
-      </c>
-      <c r="L221" s="157"/>
-      <c r="M221" s="52"/>
-    </row>
-    <row r="222" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A222" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E222" s="50"/>
-      <c r="F222" s="51"/>
-      <c r="G222" s="51"/>
-      <c r="H222" s="51"/>
-      <c r="I222" s="51"/>
-      <c r="J222" s="51"/>
-      <c r="K222" s="51"/>
-      <c r="L222" s="157"/>
-      <c r="M222" s="52"/>
-    </row>
-    <row r="223" spans="1:13">
-      <c r="A223" t="s">
-        <v>2291</v>
-      </c>
-      <c r="E223" s="50"/>
-      <c r="F223" s="51"/>
-      <c r="G223" s="51"/>
-      <c r="H223" s="51"/>
-      <c r="I223" s="51" t="s">
-        <v>1897</v>
-      </c>
-      <c r="J223" s="47"/>
-      <c r="K223" s="49"/>
-      <c r="L223" s="51"/>
-      <c r="M223" s="52"/>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224" t="s">
-        <v>2296</v>
-      </c>
-      <c r="E224" s="50"/>
-      <c r="F224" s="51"/>
-      <c r="G224" s="51"/>
-      <c r="H224" s="51"/>
-      <c r="I224" s="51"/>
-      <c r="J224" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="K224" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="L224" s="51"/>
-      <c r="M224" s="52"/>
-    </row>
-    <row r="225" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A225" t="s">
-        <v>2297</v>
-      </c>
-      <c r="E225" s="50"/>
-      <c r="F225" s="51"/>
-      <c r="G225" s="51"/>
-      <c r="H225" s="51"/>
-      <c r="I225" s="51"/>
-      <c r="J225" s="53" t="s">
-        <v>2281</v>
-      </c>
-      <c r="K225" s="55">
-        <v>30</v>
-      </c>
-      <c r="L225" s="51"/>
-      <c r="M225" s="52"/>
-    </row>
-    <row r="226" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A226" s="56"/>
-      <c r="B226" s="125"/>
-      <c r="E226" s="50"/>
-      <c r="F226" s="51"/>
-      <c r="G226" s="51"/>
-      <c r="H226" s="51"/>
-      <c r="I226" s="51"/>
-      <c r="J226" s="51"/>
-      <c r="K226" s="51"/>
-      <c r="L226" s="51"/>
-      <c r="M226" s="52"/>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="E227" s="50"/>
-      <c r="F227" s="51"/>
-      <c r="G227" s="51"/>
-      <c r="H227" s="51"/>
-      <c r="I227" s="51" t="s">
-        <v>1896</v>
-      </c>
-      <c r="J227" s="47"/>
-      <c r="K227" s="49"/>
-      <c r="L227" s="51"/>
-      <c r="M227" s="52"/>
-    </row>
-    <row r="228" spans="1:13">
-      <c r="A228" s="125" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C228">
-        <v>20</v>
-      </c>
-      <c r="E228" s="50"/>
-      <c r="F228" s="51"/>
-      <c r="G228" s="51"/>
-      <c r="H228" s="51"/>
-      <c r="I228" s="51"/>
-      <c r="J228" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="K228" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="L228" s="51"/>
-      <c r="M228" s="52"/>
-    </row>
-    <row r="229" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A229" t="s">
-        <v>2300</v>
-      </c>
-      <c r="C229">
-        <v>20</v>
-      </c>
-      <c r="E229" s="50"/>
-      <c r="F229" s="51"/>
-      <c r="G229" s="51"/>
-      <c r="H229" s="51"/>
-      <c r="I229" s="51"/>
-      <c r="J229" s="53" t="s">
-        <v>2281</v>
-      </c>
-      <c r="K229" s="55">
-        <v>20</v>
-      </c>
-      <c r="L229" s="51"/>
-      <c r="M229" s="52"/>
-    </row>
-    <row r="230" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E230" s="50"/>
-      <c r="F230" s="51"/>
-      <c r="G230" s="51"/>
-      <c r="H230" s="51"/>
-      <c r="L230" s="51"/>
-      <c r="M230" s="52"/>
-    </row>
-    <row r="231" spans="1:13">
-      <c r="A231" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E231" s="50"/>
-      <c r="F231" s="51"/>
-      <c r="G231" s="51"/>
-      <c r="H231" s="51"/>
-      <c r="I231" s="51" t="s">
-        <v>1954</v>
-      </c>
-      <c r="J231" s="47"/>
-      <c r="K231" s="49"/>
-      <c r="L231" s="51"/>
-      <c r="M231" s="52"/>
-    </row>
-    <row r="232" spans="1:13">
-      <c r="B232" t="s">
-        <v>358</v>
-      </c>
-      <c r="E232" s="50"/>
-      <c r="F232" s="51"/>
-      <c r="G232" s="51"/>
-      <c r="H232" s="51"/>
-      <c r="I232" s="51"/>
-      <c r="J232" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="K232" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="L232" s="51"/>
-      <c r="M232" s="52"/>
-    </row>
-    <row r="233" spans="1:13" ht="15.75" thickBot="1">
-      <c r="B233" t="s">
-        <v>2274</v>
-      </c>
-      <c r="E233" s="50"/>
-      <c r="F233" s="51"/>
-      <c r="G233" s="51"/>
-      <c r="H233" s="51"/>
-      <c r="I233" s="51"/>
-      <c r="J233" s="53" t="s">
-        <v>2281</v>
-      </c>
-      <c r="K233" s="55">
-        <v>20</v>
-      </c>
-      <c r="L233" s="51"/>
-      <c r="M233" s="52"/>
-    </row>
-    <row r="234" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A234" t="s">
-        <v>146</v>
-      </c>
-      <c r="E234" s="53"/>
-      <c r="F234" s="54"/>
-      <c r="G234" s="54"/>
-      <c r="H234" s="54"/>
-      <c r="I234" s="54"/>
-      <c r="J234" s="54"/>
-      <c r="K234" s="54"/>
-      <c r="L234" s="54"/>
-      <c r="M234" s="55"/>
+    <row r="98" spans="5:17">
+      <c r="E98" t="s">
+        <v>2228</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="5:17">
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="5:17">
+      <c r="H101" t="s">
+        <v>2229</v>
+      </c>
+      <c r="I101" t="s">
+        <v>2230</v>
+      </c>
+      <c r="J101">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="5:17">
+      <c r="H102" t="s">
+        <v>2231</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F12:N13"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M8:N8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24463,1076 +23103,1370 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD102"/>
+  <dimension ref="A3:S262"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="N212" sqref="N212:N214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F2" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="320" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="322"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F6" s="4"/>
-      <c r="G6" s="323" t="s">
-        <v>1592</v>
-      </c>
-      <c r="H6" s="324"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="323" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="324"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="323" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="324"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D7" s="125" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
+    <row r="3" spans="1:18">
+      <c r="J3" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="D6" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="F8" s="4"/>
-      <c r="G8" s="325" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="326"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="325" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="326"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="325" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="326"/>
-      <c r="Q8" s="142"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="F9" s="4"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="253"/>
-      <c r="J9" s="254"/>
-      <c r="K9" s="254"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="254"/>
-      <c r="N9" s="254"/>
-      <c r="Q9" s="142"/>
+      <c r="H9" t="s">
+        <v>1605</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>1585</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="4"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="253"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="253"/>
-      <c r="M10" s="254"/>
-      <c r="N10" s="254"/>
-      <c r="Q10" s="142"/>
+      <c r="K10" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1602</v>
+      </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="F11" s="4"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="254"/>
-      <c r="K11" s="254"/>
-      <c r="L11" s="253"/>
-      <c r="M11" s="254"/>
-      <c r="N11" s="254"/>
-      <c r="Q11" s="142"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="F12" s="316" t="s">
-        <v>2654</v>
-      </c>
-      <c r="G12" s="317"/>
-      <c r="H12" s="317"/>
-      <c r="I12" s="317"/>
-      <c r="J12" s="317"/>
-      <c r="K12" s="317"/>
-      <c r="L12" s="317"/>
-      <c r="M12" s="317"/>
-      <c r="N12" s="317"/>
-      <c r="Q12" s="142"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F13" s="318"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="319"/>
-      <c r="M13" s="319"/>
-      <c r="N13" s="319"/>
+      <c r="I11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="G13" s="125" t="s">
+        <v>1827</v>
+      </c>
+      <c r="H13" s="125"/>
+      <c r="J13" s="125" t="s">
+        <v>1828</v>
+      </c>
+      <c r="M13" s="125" t="s">
+        <v>1829</v>
+      </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>2644</v>
-      </c>
-      <c r="D14" s="125" t="s">
-        <v>1591</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D15" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>1586</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>1587</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="E15">
+        <v>1010</v>
+      </c>
+      <c r="G15" s="125" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H15" s="125" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J15" s="125" t="s">
+        <v>1604</v>
+      </c>
+      <c r="M15" s="125" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13">
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13">
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13">
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13">
+      <c r="H25" t="s">
+        <v>1821</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1823</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13">
+      <c r="H26" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1824</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="K37" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="K40" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="I45" t="s">
+        <v>206</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" t="s">
+        <v>205</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="B83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="C84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="B96" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="B97" t="s">
+        <v>88</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="B98" t="s">
+        <v>89</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1835</v>
+      </c>
+      <c r="L98" t="s">
+        <v>1836</v>
+      </c>
+      <c r="N98" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1821</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="B100" t="s">
+        <v>92</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N100" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="B103" t="s">
+        <v>87</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1838</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1838</v>
+      </c>
+      <c r="P103" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="B104" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="B105" t="s">
+        <v>89</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1844</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1845</v>
+      </c>
+      <c r="P105" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="B106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="B107" t="s">
+        <v>92</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1840</v>
+      </c>
+      <c r="L107" t="s">
+        <v>1841</v>
+      </c>
+      <c r="P107" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="B108" t="s">
+        <v>94</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H108" s="29" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L108" s="29" t="s">
+        <v>1831</v>
+      </c>
+      <c r="P108" s="29" t="s">
+        <v>1832</v>
+      </c>
+      <c r="R108" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="B109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="B110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="B111" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="B112" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="B113" t="s">
+        <v>97</v>
+      </c>
+      <c r="K113" t="s">
+        <v>38</v>
+      </c>
+      <c r="M113" t="s">
+        <v>2362</v>
+      </c>
+      <c r="O113" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="B114" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="B116" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="B117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="B122" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="B123" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="B124" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="B128" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16">
+      <c r="B129" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16">
+      <c r="D130" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16">
+      <c r="D131" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16">
+      <c r="B132" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16">
+      <c r="B133" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16">
+      <c r="D139" t="s">
+        <v>2660</v>
+      </c>
+      <c r="J139" t="s">
+        <v>2661</v>
+      </c>
+      <c r="P139" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16">
+      <c r="D141" t="s">
+        <v>2645</v>
+      </c>
+      <c r="J141" t="s">
+        <v>2645</v>
+      </c>
+      <c r="P141" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16">
+      <c r="D142" t="s">
+        <v>2646</v>
+      </c>
+      <c r="J142" t="s">
+        <v>2217</v>
+      </c>
+      <c r="P142" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16">
+      <c r="D143" t="s">
+        <v>2652</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16">
+      <c r="D144" s="197" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19">
+      <c r="B145" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2656</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J145" t="s">
+        <v>2656</v>
+      </c>
+      <c r="P145" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="148" spans="2:19">
+      <c r="D148" s="197" t="s">
+        <v>2654</v>
+      </c>
+      <c r="E148" s="29"/>
+      <c r="J148" s="197" t="s">
+        <v>2655</v>
+      </c>
+      <c r="K148" s="197"/>
+      <c r="P148" s="197" t="s">
+        <v>1845</v>
+      </c>
+      <c r="Q148" s="197"/>
+    </row>
+    <row r="150" spans="2:19">
+      <c r="D150" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J150" t="s">
+        <v>2658</v>
+      </c>
+      <c r="P150" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="151" spans="2:19">
+      <c r="D151" s="108" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E151" s="108"/>
+      <c r="F151" s="108"/>
+      <c r="G151" s="108"/>
+      <c r="J151" s="108" t="s">
+        <v>2659</v>
+      </c>
+      <c r="K151" s="108"/>
+      <c r="L151" s="108"/>
+      <c r="M151" s="108"/>
+      <c r="P151" s="108" t="s">
+        <v>2659</v>
+      </c>
+      <c r="Q151" s="108"/>
+      <c r="R151" s="108"/>
+      <c r="S151" s="108"/>
+    </row>
+    <row r="153" spans="2:19">
+      <c r="B153" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="154" spans="2:19">
+      <c r="B154" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="155" spans="2:19">
+      <c r="B155" t="s">
+        <v>44</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="156" spans="2:19">
+      <c r="B156" t="s">
+        <v>45</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="207" spans="4:11">
+      <c r="D207" s="51">
+        <v>128</v>
+      </c>
+      <c r="E207" s="57">
+        <v>64</v>
+      </c>
+      <c r="F207" s="57">
+        <v>32</v>
+      </c>
+      <c r="G207" s="57">
+        <v>16</v>
+      </c>
+      <c r="H207" s="57">
         <v>8</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="F16" s="139"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="E17" t="s">
-        <v>1594</v>
-      </c>
-      <c r="F17" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="136" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="136"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="137" t="s">
+      <c r="I207" s="57">
+        <v>4</v>
+      </c>
+      <c r="J207" s="57">
+        <v>2</v>
+      </c>
+      <c r="K207" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="4:11">
+      <c r="D208" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E208" t="s">
+        <v>36</v>
+      </c>
+      <c r="F208" t="s">
+        <v>35</v>
+      </c>
+      <c r="G208" t="s">
+        <v>34</v>
+      </c>
+      <c r="H208" t="s">
+        <v>33</v>
+      </c>
+      <c r="I208" t="s">
+        <v>32</v>
+      </c>
+      <c r="J208" t="s">
+        <v>31</v>
+      </c>
+      <c r="K208" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="4:15">
+      <c r="D209" s="132" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E209" s="132" t="s">
+        <v>2639</v>
+      </c>
+      <c r="F209" s="132"/>
+      <c r="G209" s="132"/>
+      <c r="H209" s="132"/>
+      <c r="I209" s="132"/>
+      <c r="J209" s="132" t="s">
+        <v>2640</v>
+      </c>
+      <c r="K209" s="132" t="s">
+        <v>2639</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="4:15">
+      <c r="D210" s="282"/>
+      <c r="E210" s="282"/>
+      <c r="F210" s="282"/>
+      <c r="G210" s="282"/>
+      <c r="H210" s="286">
+        <v>1</v>
+      </c>
+      <c r="I210" s="286">
+        <v>1</v>
+      </c>
+      <c r="J210" s="286">
+        <v>0</v>
+      </c>
+      <c r="K210" s="286">
+        <v>0</v>
+      </c>
+      <c r="L210" s="287">
+        <v>12</v>
+      </c>
+      <c r="N210" s="74">
+        <v>0</v>
+      </c>
+      <c r="O210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="4:15">
+      <c r="D211" s="57"/>
+      <c r="E211" s="57"/>
+      <c r="F211" s="57"/>
+      <c r="G211" s="57"/>
+      <c r="H211" s="287">
+        <v>1</v>
+      </c>
+      <c r="I211" s="287">
+        <v>0</v>
+      </c>
+      <c r="J211" s="287">
+        <v>1</v>
+      </c>
+      <c r="K211" s="287">
+        <v>0</v>
+      </c>
+      <c r="L211" s="287">
         <v>10</v>
       </c>
-      <c r="K17" s="138"/>
-      <c r="L17" s="136" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="136"/>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="F18" s="141"/>
-      <c r="G18" s="136" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="136"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="137" t="s">
-        <v>1593</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="18"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="D19" s="125" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="139"/>
-      <c r="G19" s="136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="136"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="F20" s="140"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="16" t="s">
+    </row>
+    <row r="212" spans="4:15">
+      <c r="H212" s="74">
+        <v>1</v>
+      </c>
+      <c r="I212" s="74">
+        <v>0</v>
+      </c>
+      <c r="J212" s="74">
+        <v>0</v>
+      </c>
+      <c r="K212" s="74">
+        <v>0</v>
+      </c>
+      <c r="M212" t="s">
+        <v>2927</v>
+      </c>
+      <c r="N212" s="74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="4:15">
+      <c r="H213" s="74">
+        <v>1</v>
+      </c>
+      <c r="I213" s="74">
+        <v>1</v>
+      </c>
+      <c r="J213" s="74">
+        <v>1</v>
+      </c>
+      <c r="K213" s="74">
+        <v>0</v>
+      </c>
+      <c r="M213" t="s">
+        <v>2928</v>
+      </c>
+      <c r="N213" s="74">
         <v>14</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="18"/>
-      <c r="Q20" s="142"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="E21" t="s">
-        <v>1595</v>
-      </c>
-      <c r="F21" s="140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1">
-      <c r="F22" s="141"/>
-      <c r="G22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="F23" s="140"/>
-      <c r="G23" s="17" t="s">
-        <v>2638</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="F24" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1">
-      <c r="F25" s="141"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="22"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:17">
-      <c r="G30" s="26"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32">
-        <v>32768</v>
-      </c>
-      <c r="G32" s="51">
-        <v>128</v>
-      </c>
-      <c r="H32" s="57">
-        <v>64</v>
-      </c>
-      <c r="I32" s="57">
-        <v>32</v>
-      </c>
-      <c r="J32" s="57">
-        <v>16</v>
-      </c>
-      <c r="K32" s="57">
-        <v>8</v>
-      </c>
-      <c r="L32" s="57">
-        <v>4</v>
-      </c>
-      <c r="M32" s="57">
-        <v>2</v>
-      </c>
-      <c r="N32" s="57">
+    </row>
+    <row r="214" spans="4:15">
+      <c r="H214" s="74">
+        <v>0</v>
+      </c>
+      <c r="I214" s="57">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:17 16384:16384">
-      <c r="A33" s="27" t="s">
-        <v>2676</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17 16384:16384">
-      <c r="A34" s="251" t="s">
-        <v>2675</v>
-      </c>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132" t="s">
-        <v>2640</v>
-      </c>
-      <c r="H34" s="132" t="s">
-        <v>2639</v>
-      </c>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132" t="s">
-        <v>2640</v>
-      </c>
-      <c r="N34" s="132" t="s">
-        <v>2639</v>
-      </c>
-      <c r="P34" s="163"/>
-    </row>
-    <row r="35" spans="1:17 16384:16384">
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="P35" s="57"/>
-    </row>
-    <row r="36" spans="1:17 16384:16384">
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="190"/>
-      <c r="Q36" s="190"/>
-    </row>
-    <row r="37" spans="1:17 16384:16384">
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="190"/>
-      <c r="L37" s="191"/>
-      <c r="M37" s="191"/>
-      <c r="N37" s="191"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="191"/>
-    </row>
-    <row r="38" spans="1:17 16384:16384">
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="190"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="191"/>
-      <c r="M38" s="191"/>
-      <c r="N38" s="191"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="191"/>
-    </row>
-    <row r="39" spans="1:17 16384:16384">
-      <c r="C39">
-        <v>1024</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>1596</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>1596</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>1596</v>
-      </c>
-      <c r="I39" s="39" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="XFD39" s="39" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17 16384:16384">
-      <c r="B40" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-    </row>
-    <row r="41" spans="1:17 16384:16384">
-      <c r="B41" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-    </row>
-    <row r="42" spans="1:17 16384:16384">
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-    </row>
-    <row r="43" spans="1:17 16384:16384">
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-    </row>
-    <row r="44" spans="1:17 16384:16384">
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="143"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="143"/>
-      <c r="J44" s="143"/>
-      <c r="K44" s="143"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-    </row>
-    <row r="45" spans="1:17 16384:16384">
-      <c r="B45" t="s">
-        <v>2641</v>
-      </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
-      <c r="J45" s="143"/>
-      <c r="K45" s="143"/>
-      <c r="L45" s="143"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-    </row>
-    <row r="46" spans="1:17 16384:16384">
-      <c r="B46" t="s">
-        <v>2642</v>
-      </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="143"/>
-      <c r="K46" s="143"/>
-      <c r="L46" s="143"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-    </row>
-    <row r="47" spans="1:17 16384:16384">
-      <c r="A47" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2643</v>
-      </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="143"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="143"/>
-      <c r="J47" s="143"/>
-      <c r="K47" s="143"/>
-      <c r="L47" s="143"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-    </row>
-    <row r="48" spans="1:17 16384:16384">
-      <c r="E48" s="39"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="143"/>
-      <c r="K48" s="143"/>
-      <c r="L48" s="143"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="E49" s="39"/>
-      <c r="F49" s="143"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="143"/>
-      <c r="K49" s="143"/>
-      <c r="L49" s="143"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="E50" s="39"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="143"/>
-      <c r="K50" s="143"/>
-      <c r="L50" s="143"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="E51" s="39"/>
-      <c r="F51" s="143"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="143"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="143"/>
-      <c r="K51" s="143"/>
-      <c r="L51" s="143"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="E52" s="39"/>
-      <c r="F52" s="143"/>
-      <c r="G52" s="143"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="143"/>
-      <c r="K52" s="143"/>
-      <c r="L52" s="143"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="E55" s="38">
-        <v>768</v>
-      </c>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="164" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D58" s="164" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="164" t="s">
-        <v>1814</v>
-      </c>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="L60" s="152"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="152"/>
-      <c r="O60" s="152"/>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="G61">
-        <v>11111111</v>
-      </c>
-      <c r="H61">
+      <c r="J214" s="57">
+        <v>1</v>
+      </c>
+      <c r="K214" s="74">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>1101010101</v>
-      </c>
-      <c r="L61" s="152"/>
-      <c r="M61" s="152"/>
-      <c r="N61" s="152"/>
-      <c r="O61" s="152"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="L62" s="152"/>
-      <c r="M62" s="153"/>
-      <c r="N62" s="153"/>
-      <c r="O62" s="152"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="L63" s="152"/>
-      <c r="M63" s="152"/>
-      <c r="N63" s="152"/>
-      <c r="O63" s="152"/>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="L64" s="152"/>
-      <c r="M64" s="152"/>
-      <c r="N64" s="152"/>
-      <c r="O64" s="152"/>
-    </row>
-    <row r="90" spans="2:17">
-      <c r="E90" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="91" spans="2:17">
-      <c r="E91" s="51">
-        <v>128</v>
-      </c>
-      <c r="F91" s="57">
-        <v>64</v>
-      </c>
-      <c r="G91" s="57">
-        <v>32</v>
-      </c>
-      <c r="H91" s="57">
-        <v>16</v>
-      </c>
-      <c r="I91" s="57">
-        <v>8</v>
-      </c>
-      <c r="J91" s="57">
-        <v>4</v>
-      </c>
-      <c r="K91" s="57">
-        <v>2</v>
-      </c>
-      <c r="L91" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:17">
-      <c r="E92" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F92" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" t="s">
-        <v>34</v>
-      </c>
-      <c r="I92" t="s">
-        <v>33</v>
-      </c>
-      <c r="J92" t="s">
-        <v>32</v>
-      </c>
-      <c r="K92" t="s">
-        <v>31</v>
-      </c>
-      <c r="L92" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="2:17">
-      <c r="B93" t="s">
-        <v>179</v>
-      </c>
-      <c r="E93" s="211"/>
-      <c r="F93" s="132">
-        <v>0</v>
-      </c>
-      <c r="G93" s="132">
-        <v>0</v>
-      </c>
-      <c r="H93" s="132">
-        <v>0</v>
-      </c>
-      <c r="I93" s="132">
-        <v>1</v>
-      </c>
-      <c r="J93" s="132">
-        <v>0</v>
-      </c>
-      <c r="K93" s="132">
-        <v>1</v>
-      </c>
-      <c r="L93" s="132">
-        <v>0</v>
-      </c>
-      <c r="M93" s="212">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="2:17">
-      <c r="E94" s="211"/>
-      <c r="F94" s="132">
-        <v>0</v>
-      </c>
-      <c r="G94" s="132">
-        <v>0</v>
-      </c>
-      <c r="H94" s="132">
-        <v>0</v>
-      </c>
-      <c r="I94" s="132">
-        <v>0</v>
-      </c>
-      <c r="J94" s="132">
-        <v>0</v>
-      </c>
-      <c r="K94" s="132">
-        <v>1</v>
-      </c>
-      <c r="L94" s="132">
-        <v>1</v>
-      </c>
-      <c r="M94" s="57">
-        <v>3</v>
-      </c>
-      <c r="N94" s="163"/>
-    </row>
-    <row r="95" spans="2:17">
-      <c r="F95" s="57"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="57"/>
-      <c r="I95" s="57">
-        <v>1</v>
-      </c>
-      <c r="J95" s="57">
-        <v>0</v>
-      </c>
-      <c r="K95" s="57">
-        <v>0</v>
-      </c>
-      <c r="L95" s="57">
-        <v>1</v>
-      </c>
-      <c r="M95" t="s">
-        <v>2350</v>
-      </c>
-      <c r="N95" s="57">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="2:17">
-      <c r="O96">
-        <v>1</v>
-      </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="5:17">
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="5:17">
-      <c r="E98" t="s">
-        <v>2228</v>
-      </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="5:17">
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>1</v>
-      </c>
-      <c r="Q99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="5:17">
-      <c r="H101" t="s">
-        <v>2229</v>
-      </c>
-      <c r="I101" t="s">
-        <v>2230</v>
-      </c>
-      <c r="J101">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="5:17">
-      <c r="H102" t="s">
-        <v>2231</v>
-      </c>
+      <c r="M214" t="s">
+        <v>2929</v>
+      </c>
+      <c r="N214" s="74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="4:15">
+      <c r="N217" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="246" spans="3:14" ht="15.75" thickBot="1"/>
+    <row r="247" spans="3:14">
+      <c r="G247" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H247" s="31"/>
+      <c r="I247" s="31"/>
+      <c r="J247" s="31"/>
+      <c r="K247" s="31"/>
+      <c r="L247" s="31"/>
+      <c r="M247" s="31"/>
+      <c r="N247" s="32"/>
+    </row>
+    <row r="248" spans="3:14">
+      <c r="G248" s="33"/>
+      <c r="H248" s="27"/>
+      <c r="I248" s="27"/>
+      <c r="J248" s="27"/>
+      <c r="K248" s="27"/>
+      <c r="L248" s="27"/>
+      <c r="M248" s="27"/>
+      <c r="N248" s="34"/>
+    </row>
+    <row r="249" spans="3:14">
+      <c r="G249" s="33"/>
+      <c r="H249" s="143" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I249" s="27"/>
+      <c r="J249" s="27"/>
+      <c r="K249" s="154" t="s">
+        <v>1681</v>
+      </c>
+      <c r="L249" s="27"/>
+      <c r="M249" s="27"/>
+      <c r="N249" s="34"/>
+    </row>
+    <row r="250" spans="3:14">
+      <c r="G250" s="33"/>
+      <c r="H250" s="27"/>
+      <c r="I250" s="27"/>
+      <c r="J250" s="27"/>
+      <c r="K250" s="27"/>
+      <c r="L250" s="27"/>
+      <c r="M250" s="27"/>
+      <c r="N250" s="34"/>
+    </row>
+    <row r="251" spans="3:14">
+      <c r="G251" s="33"/>
+      <c r="H251" s="27"/>
+      <c r="I251" s="27"/>
+      <c r="J251" s="27"/>
+      <c r="K251" s="27"/>
+      <c r="L251" s="27"/>
+      <c r="M251" s="27"/>
+      <c r="N251" s="34"/>
+    </row>
+    <row r="252" spans="3:14">
+      <c r="E252" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G252" s="33"/>
+      <c r="H252" s="143" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I252" s="27"/>
+      <c r="J252" s="27"/>
+      <c r="K252" s="154" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L252" s="27"/>
+      <c r="M252" s="27"/>
+      <c r="N252" s="34"/>
+    </row>
+    <row r="253" spans="3:14">
+      <c r="C253" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G253" s="33"/>
+      <c r="H253" s="27"/>
+      <c r="I253" s="27"/>
+      <c r="J253" s="27"/>
+      <c r="K253" s="27"/>
+      <c r="L253" s="27"/>
+      <c r="M253" s="27"/>
+      <c r="N253" s="34"/>
+    </row>
+    <row r="254" spans="3:14">
+      <c r="G254" s="33"/>
+      <c r="H254" s="27"/>
+      <c r="I254" s="27"/>
+      <c r="J254" s="27"/>
+      <c r="K254" s="154" t="s">
+        <v>1683</v>
+      </c>
+      <c r="L254" s="27"/>
+      <c r="M254" s="27"/>
+      <c r="N254" s="34"/>
+    </row>
+    <row r="255" spans="3:14">
+      <c r="C255" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G255" s="33"/>
+      <c r="H255" s="143" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I255" s="27"/>
+      <c r="J255" s="27"/>
+      <c r="K255" s="27"/>
+      <c r="L255" s="27"/>
+      <c r="M255" s="27"/>
+      <c r="N255" s="34"/>
+    </row>
+    <row r="256" spans="3:14">
+      <c r="G256" s="33"/>
+      <c r="H256" s="27"/>
+      <c r="I256" s="27"/>
+      <c r="J256" s="27"/>
+      <c r="K256" s="27"/>
+      <c r="L256" s="27"/>
+      <c r="M256" s="27"/>
+      <c r="N256" s="34"/>
+    </row>
+    <row r="257" spans="7:14">
+      <c r="G257" s="33"/>
+      <c r="H257" s="27"/>
+      <c r="I257" s="27"/>
+      <c r="J257" s="27"/>
+      <c r="K257" s="27"/>
+      <c r="L257" s="27"/>
+      <c r="M257" s="27"/>
+      <c r="N257" s="34"/>
+    </row>
+    <row r="258" spans="7:14">
+      <c r="G258" s="33"/>
+      <c r="H258" s="143" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I258" s="27"/>
+      <c r="J258" s="27"/>
+      <c r="K258" s="27"/>
+      <c r="L258" s="27"/>
+      <c r="M258" s="27"/>
+      <c r="N258" s="34"/>
+    </row>
+    <row r="259" spans="7:14">
+      <c r="G259" s="33"/>
+      <c r="H259" s="27"/>
+      <c r="I259" s="27"/>
+      <c r="J259" s="27"/>
+      <c r="K259" s="27"/>
+      <c r="L259" s="27"/>
+      <c r="M259" s="27"/>
+      <c r="N259" s="34"/>
+    </row>
+    <row r="260" spans="7:14">
+      <c r="G260" s="33"/>
+      <c r="H260" s="27"/>
+      <c r="I260" s="27"/>
+      <c r="J260" s="27"/>
+      <c r="K260" s="27"/>
+      <c r="L260" s="27"/>
+      <c r="M260" s="27"/>
+      <c r="N260" s="34"/>
+    </row>
+    <row r="261" spans="7:14">
+      <c r="G261" s="33"/>
+      <c r="H261" s="27"/>
+      <c r="I261" s="27"/>
+      <c r="J261" s="27"/>
+      <c r="K261" s="27"/>
+      <c r="L261" s="27"/>
+      <c r="M261" s="27"/>
+      <c r="N261" s="34"/>
+    </row>
+    <row r="262" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G262" s="35" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H262" s="36"/>
+      <c r="I262" s="36" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J262" s="36"/>
+      <c r="K262" s="36"/>
+      <c r="L262" s="36"/>
+      <c r="M262" s="36"/>
+      <c r="N262" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F12:N13"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M8:N8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45259,1375 +44193,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:S262"/>
-  <sheetViews>
-    <sheetView topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="N212" sqref="N212:N214"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="1:18">
-      <c r="J3" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1599</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="D6" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="H9" t="s">
-        <v>1605</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="K10" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="I11" t="s">
-        <v>1606</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="G13" s="125" t="s">
-        <v>1827</v>
-      </c>
-      <c r="H13" s="125"/>
-      <c r="J13" s="125" t="s">
-        <v>1828</v>
-      </c>
-      <c r="M13" s="125" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>1584</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>1586</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>1587</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="E15">
-        <v>1010</v>
-      </c>
-      <c r="G15" s="125" t="s">
-        <v>1589</v>
-      </c>
-      <c r="H15" s="125" t="s">
-        <v>1590</v>
-      </c>
-      <c r="J15" s="125" t="s">
-        <v>1604</v>
-      </c>
-      <c r="M15" s="125" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="17" spans="8:13">
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="8:13">
-      <c r="H19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="8:13">
-      <c r="H21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="8:13">
-      <c r="H25" t="s">
-        <v>1821</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1823</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="26" spans="8:13">
-      <c r="H26" t="s">
-        <v>1822</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1824</v>
-      </c>
-      <c r="M26" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="E36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="K37" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="K40" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="I45" t="s">
-        <v>206</v>
-      </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="I46" t="s">
-        <v>205</v>
-      </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" t="s">
-        <v>59</v>
-      </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q49" s="10"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="B50" t="s">
-        <v>60</v>
-      </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="B51" t="s">
-        <v>61</v>
-      </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" t="s">
-        <v>62</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" t="s">
-        <v>65</v>
-      </c>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" t="s">
-        <v>66</v>
-      </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" t="s">
-        <v>67</v>
-      </c>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="B60" t="s">
-        <v>68</v>
-      </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="B61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="B62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="C63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="B66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="B67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="B68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="C69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="B72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="B73" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="B74" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="C75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="C76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="B81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="B82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="B83" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="C84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="B89" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="B90" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="B91" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="B92" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="B96" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
-      <c r="B97" t="s">
-        <v>88</v>
-      </c>
-      <c r="L97" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
-      <c r="B98" t="s">
-        <v>89</v>
-      </c>
-      <c r="J98" t="s">
-        <v>1835</v>
-      </c>
-      <c r="L98" t="s">
-        <v>1836</v>
-      </c>
-      <c r="N98" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
-      <c r="B99" t="s">
-        <v>90</v>
-      </c>
-      <c r="J99" t="s">
-        <v>1821</v>
-      </c>
-      <c r="L99" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
-      <c r="B100" t="s">
-        <v>92</v>
-      </c>
-      <c r="L100" t="s">
-        <v>1838</v>
-      </c>
-      <c r="N100" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
-      <c r="A102" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
-      <c r="B103" t="s">
-        <v>87</v>
-      </c>
-      <c r="H103" t="s">
-        <v>1838</v>
-      </c>
-      <c r="L103" t="s">
-        <v>1838</v>
-      </c>
-      <c r="P103" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="B104" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
-      <c r="B105" t="s">
-        <v>89</v>
-      </c>
-      <c r="F105" t="s">
-        <v>1843</v>
-      </c>
-      <c r="H105" t="s">
-        <v>1844</v>
-      </c>
-      <c r="L105" t="s">
-        <v>1845</v>
-      </c>
-      <c r="P105" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
-      <c r="B106" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
-      <c r="B107" t="s">
-        <v>92</v>
-      </c>
-      <c r="H107" t="s">
-        <v>1840</v>
-      </c>
-      <c r="L107" t="s">
-        <v>1841</v>
-      </c>
-      <c r="P107" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
-      <c r="B108" t="s">
-        <v>94</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1834</v>
-      </c>
-      <c r="H108" s="29" t="s">
-        <v>1605</v>
-      </c>
-      <c r="L108" s="29" t="s">
-        <v>1831</v>
-      </c>
-      <c r="P108" s="29" t="s">
-        <v>1832</v>
-      </c>
-      <c r="R108" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
-      <c r="B109" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
-      <c r="B110" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
-      <c r="B111" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18">
-      <c r="B112" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="B113" t="s">
-        <v>97</v>
-      </c>
-      <c r="K113" t="s">
-        <v>38</v>
-      </c>
-      <c r="M113" t="s">
-        <v>2362</v>
-      </c>
-      <c r="O113" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="B114" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="B116" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="B117" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="B122" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="B123" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="B124" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="B128" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="129" spans="2:16">
-      <c r="B129" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="130" spans="2:16">
-      <c r="D130" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="131" spans="2:16">
-      <c r="D131" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="132" spans="2:16">
-      <c r="B132" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="133" spans="2:16">
-      <c r="B133" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="139" spans="2:16">
-      <c r="D139" t="s">
-        <v>2660</v>
-      </c>
-      <c r="J139" t="s">
-        <v>2661</v>
-      </c>
-      <c r="P139" t="s">
-        <v>2662</v>
-      </c>
-    </row>
-    <row r="141" spans="2:16">
-      <c r="D141" t="s">
-        <v>2645</v>
-      </c>
-      <c r="J141" t="s">
-        <v>2645</v>
-      </c>
-      <c r="P141" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="142" spans="2:16">
-      <c r="D142" t="s">
-        <v>2646</v>
-      </c>
-      <c r="J142" t="s">
-        <v>2217</v>
-      </c>
-      <c r="P142" t="s">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="143" spans="2:16">
-      <c r="D143" t="s">
-        <v>2652</v>
-      </c>
-      <c r="G143" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="144" spans="2:16">
-      <c r="D144" s="197" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="145" spans="2:19">
-      <c r="B145" t="s">
-        <v>2653</v>
-      </c>
-      <c r="D145" t="s">
-        <v>2656</v>
-      </c>
-      <c r="G145" t="s">
-        <v>1606</v>
-      </c>
-      <c r="J145" t="s">
-        <v>2656</v>
-      </c>
-      <c r="P145" t="s">
-        <v>2656</v>
-      </c>
-    </row>
-    <row r="148" spans="2:19">
-      <c r="D148" s="197" t="s">
-        <v>2654</v>
-      </c>
-      <c r="E148" s="29"/>
-      <c r="J148" s="197" t="s">
-        <v>2655</v>
-      </c>
-      <c r="K148" s="197"/>
-      <c r="P148" s="197" t="s">
-        <v>1845</v>
-      </c>
-      <c r="Q148" s="197"/>
-    </row>
-    <row r="150" spans="2:19">
-      <c r="D150" t="s">
-        <v>2657</v>
-      </c>
-      <c r="J150" t="s">
-        <v>2658</v>
-      </c>
-      <c r="P150" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="151" spans="2:19">
-      <c r="D151" s="108" t="s">
-        <v>2659</v>
-      </c>
-      <c r="E151" s="108"/>
-      <c r="F151" s="108"/>
-      <c r="G151" s="108"/>
-      <c r="J151" s="108" t="s">
-        <v>2659</v>
-      </c>
-      <c r="K151" s="108"/>
-      <c r="L151" s="108"/>
-      <c r="M151" s="108"/>
-      <c r="P151" s="108" t="s">
-        <v>2659</v>
-      </c>
-      <c r="Q151" s="108"/>
-      <c r="R151" s="108"/>
-      <c r="S151" s="108"/>
-    </row>
-    <row r="153" spans="2:19">
-      <c r="B153" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="154" spans="2:19">
-      <c r="B154" t="s">
-        <v>2648</v>
-      </c>
-      <c r="D154" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="155" spans="2:19">
-      <c r="B155" t="s">
-        <v>44</v>
-      </c>
-      <c r="D155" t="s">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="156" spans="2:19">
-      <c r="B156" t="s">
-        <v>45</v>
-      </c>
-      <c r="D156" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="207" spans="4:11">
-      <c r="D207" s="51">
-        <v>128</v>
-      </c>
-      <c r="E207" s="57">
-        <v>64</v>
-      </c>
-      <c r="F207" s="57">
-        <v>32</v>
-      </c>
-      <c r="G207" s="57">
-        <v>16</v>
-      </c>
-      <c r="H207" s="57">
-        <v>8</v>
-      </c>
-      <c r="I207" s="57">
-        <v>4</v>
-      </c>
-      <c r="J207" s="57">
-        <v>2</v>
-      </c>
-      <c r="K207" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="4:11">
-      <c r="D208" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E208" t="s">
-        <v>36</v>
-      </c>
-      <c r="F208" t="s">
-        <v>35</v>
-      </c>
-      <c r="G208" t="s">
-        <v>34</v>
-      </c>
-      <c r="H208" t="s">
-        <v>33</v>
-      </c>
-      <c r="I208" t="s">
-        <v>32</v>
-      </c>
-      <c r="J208" t="s">
-        <v>31</v>
-      </c>
-      <c r="K208" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="209" spans="4:15">
-      <c r="D209" s="132" t="s">
-        <v>2640</v>
-      </c>
-      <c r="E209" s="132" t="s">
-        <v>2639</v>
-      </c>
-      <c r="F209" s="132"/>
-      <c r="G209" s="132"/>
-      <c r="H209" s="132"/>
-      <c r="I209" s="132"/>
-      <c r="J209" s="132" t="s">
-        <v>2640</v>
-      </c>
-      <c r="K209" s="132" t="s">
-        <v>2639</v>
-      </c>
-      <c r="N209">
-        <v>1</v>
-      </c>
-      <c r="O209" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="4:15">
-      <c r="D210" s="282"/>
-      <c r="E210" s="282"/>
-      <c r="F210" s="282"/>
-      <c r="G210" s="282"/>
-      <c r="H210" s="286">
-        <v>1</v>
-      </c>
-      <c r="I210" s="286">
-        <v>1</v>
-      </c>
-      <c r="J210" s="286">
-        <v>0</v>
-      </c>
-      <c r="K210" s="286">
-        <v>0</v>
-      </c>
-      <c r="L210" s="287">
-        <v>12</v>
-      </c>
-      <c r="N210" s="74">
-        <v>0</v>
-      </c>
-      <c r="O210" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="4:15">
-      <c r="D211" s="57"/>
-      <c r="E211" s="57"/>
-      <c r="F211" s="57"/>
-      <c r="G211" s="57"/>
-      <c r="H211" s="287">
-        <v>1</v>
-      </c>
-      <c r="I211" s="287">
-        <v>0</v>
-      </c>
-      <c r="J211" s="287">
-        <v>1</v>
-      </c>
-      <c r="K211" s="287">
-        <v>0</v>
-      </c>
-      <c r="L211" s="287">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="4:15">
-      <c r="H212" s="74">
-        <v>1</v>
-      </c>
-      <c r="I212" s="74">
-        <v>0</v>
-      </c>
-      <c r="J212" s="74">
-        <v>0</v>
-      </c>
-      <c r="K212" s="74">
-        <v>0</v>
-      </c>
-      <c r="M212" t="s">
-        <v>2927</v>
-      </c>
-      <c r="N212" s="74">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="4:15">
-      <c r="H213" s="74">
-        <v>1</v>
-      </c>
-      <c r="I213" s="74">
-        <v>1</v>
-      </c>
-      <c r="J213" s="74">
-        <v>1</v>
-      </c>
-      <c r="K213" s="74">
-        <v>0</v>
-      </c>
-      <c r="M213" t="s">
-        <v>2928</v>
-      </c>
-      <c r="N213" s="74">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="4:15">
-      <c r="H214" s="74">
-        <v>0</v>
-      </c>
-      <c r="I214" s="57">
-        <v>1</v>
-      </c>
-      <c r="J214" s="57">
-        <v>1</v>
-      </c>
-      <c r="K214" s="74">
-        <v>0</v>
-      </c>
-      <c r="M214" t="s">
-        <v>2929</v>
-      </c>
-      <c r="N214" s="74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="4:15">
-      <c r="N217" t="s">
-        <v>2930</v>
-      </c>
-    </row>
-    <row r="246" spans="3:14" ht="15.75" thickBot="1"/>
-    <row r="247" spans="3:14">
-      <c r="G247" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H247" s="31"/>
-      <c r="I247" s="31"/>
-      <c r="J247" s="31"/>
-      <c r="K247" s="31"/>
-      <c r="L247" s="31"/>
-      <c r="M247" s="31"/>
-      <c r="N247" s="32"/>
-    </row>
-    <row r="248" spans="3:14">
-      <c r="G248" s="33"/>
-      <c r="H248" s="27"/>
-      <c r="I248" s="27"/>
-      <c r="J248" s="27"/>
-      <c r="K248" s="27"/>
-      <c r="L248" s="27"/>
-      <c r="M248" s="27"/>
-      <c r="N248" s="34"/>
-    </row>
-    <row r="249" spans="3:14">
-      <c r="G249" s="33"/>
-      <c r="H249" s="143" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I249" s="27"/>
-      <c r="J249" s="27"/>
-      <c r="K249" s="154" t="s">
-        <v>1681</v>
-      </c>
-      <c r="L249" s="27"/>
-      <c r="M249" s="27"/>
-      <c r="N249" s="34"/>
-    </row>
-    <row r="250" spans="3:14">
-      <c r="G250" s="33"/>
-      <c r="H250" s="27"/>
-      <c r="I250" s="27"/>
-      <c r="J250" s="27"/>
-      <c r="K250" s="27"/>
-      <c r="L250" s="27"/>
-      <c r="M250" s="27"/>
-      <c r="N250" s="34"/>
-    </row>
-    <row r="251" spans="3:14">
-      <c r="G251" s="33"/>
-      <c r="H251" s="27"/>
-      <c r="I251" s="27"/>
-      <c r="J251" s="27"/>
-      <c r="K251" s="27"/>
-      <c r="L251" s="27"/>
-      <c r="M251" s="27"/>
-      <c r="N251" s="34"/>
-    </row>
-    <row r="252" spans="3:14">
-      <c r="E252" t="s">
-        <v>1688</v>
-      </c>
-      <c r="G252" s="33"/>
-      <c r="H252" s="143" t="s">
-        <v>1678</v>
-      </c>
-      <c r="I252" s="27"/>
-      <c r="J252" s="27"/>
-      <c r="K252" s="154" t="s">
-        <v>1682</v>
-      </c>
-      <c r="L252" s="27"/>
-      <c r="M252" s="27"/>
-      <c r="N252" s="34"/>
-    </row>
-    <row r="253" spans="3:14">
-      <c r="C253" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E253" t="s">
-        <v>1689</v>
-      </c>
-      <c r="G253" s="33"/>
-      <c r="H253" s="27"/>
-      <c r="I253" s="27"/>
-      <c r="J253" s="27"/>
-      <c r="K253" s="27"/>
-      <c r="L253" s="27"/>
-      <c r="M253" s="27"/>
-      <c r="N253" s="34"/>
-    </row>
-    <row r="254" spans="3:14">
-      <c r="G254" s="33"/>
-      <c r="H254" s="27"/>
-      <c r="I254" s="27"/>
-      <c r="J254" s="27"/>
-      <c r="K254" s="154" t="s">
-        <v>1683</v>
-      </c>
-      <c r="L254" s="27"/>
-      <c r="M254" s="27"/>
-      <c r="N254" s="34"/>
-    </row>
-    <row r="255" spans="3:14">
-      <c r="C255" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E255" t="s">
-        <v>1690</v>
-      </c>
-      <c r="G255" s="33"/>
-      <c r="H255" s="143" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I255" s="27"/>
-      <c r="J255" s="27"/>
-      <c r="K255" s="27"/>
-      <c r="L255" s="27"/>
-      <c r="M255" s="27"/>
-      <c r="N255" s="34"/>
-    </row>
-    <row r="256" spans="3:14">
-      <c r="G256" s="33"/>
-      <c r="H256" s="27"/>
-      <c r="I256" s="27"/>
-      <c r="J256" s="27"/>
-      <c r="K256" s="27"/>
-      <c r="L256" s="27"/>
-      <c r="M256" s="27"/>
-      <c r="N256" s="34"/>
-    </row>
-    <row r="257" spans="7:14">
-      <c r="G257" s="33"/>
-      <c r="H257" s="27"/>
-      <c r="I257" s="27"/>
-      <c r="J257" s="27"/>
-      <c r="K257" s="27"/>
-      <c r="L257" s="27"/>
-      <c r="M257" s="27"/>
-      <c r="N257" s="34"/>
-    </row>
-    <row r="258" spans="7:14">
-      <c r="G258" s="33"/>
-      <c r="H258" s="143" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I258" s="27"/>
-      <c r="J258" s="27"/>
-      <c r="K258" s="27"/>
-      <c r="L258" s="27"/>
-      <c r="M258" s="27"/>
-      <c r="N258" s="34"/>
-    </row>
-    <row r="259" spans="7:14">
-      <c r="G259" s="33"/>
-      <c r="H259" s="27"/>
-      <c r="I259" s="27"/>
-      <c r="J259" s="27"/>
-      <c r="K259" s="27"/>
-      <c r="L259" s="27"/>
-      <c r="M259" s="27"/>
-      <c r="N259" s="34"/>
-    </row>
-    <row r="260" spans="7:14">
-      <c r="G260" s="33"/>
-      <c r="H260" s="27"/>
-      <c r="I260" s="27"/>
-      <c r="J260" s="27"/>
-      <c r="K260" s="27"/>
-      <c r="L260" s="27"/>
-      <c r="M260" s="27"/>
-      <c r="N260" s="34"/>
-    </row>
-    <row r="261" spans="7:14">
-      <c r="G261" s="33"/>
-      <c r="H261" s="27"/>
-      <c r="I261" s="27"/>
-      <c r="J261" s="27"/>
-      <c r="K261" s="27"/>
-      <c r="L261" s="27"/>
-      <c r="M261" s="27"/>
-      <c r="N261" s="34"/>
-    </row>
-    <row r="262" spans="7:14" ht="15.75" thickBot="1">
-      <c r="G262" s="35" t="s">
-        <v>1684</v>
-      </c>
-      <c r="H262" s="36"/>
-      <c r="I262" s="36" t="s">
-        <v>1687</v>
-      </c>
-      <c r="J262" s="36"/>
-      <c r="K262" s="36"/>
-      <c r="L262" s="36"/>
-      <c r="M262" s="36"/>
-      <c r="N262" s="37"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R294"/>
   <sheetViews>
     <sheetView topLeftCell="A273" workbookViewId="0">
@@ -48256,11 +45821,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:E37"/>
     </sheetView>
   </sheetViews>
@@ -48816,7 +46381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q107"/>
   <sheetViews>
@@ -49415,7 +46980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
@@ -49513,6 +47078,2441 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M234"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2752</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="51">
+        <v>10</v>
+      </c>
+      <c r="G4" s="117"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>526</v>
+      </c>
+      <c r="M4" s="52"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E5" s="50" t="s">
+        <v>551</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="G5" s="117"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" s="55">
+        <v>20</v>
+      </c>
+      <c r="M5" s="52"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>552</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>2634</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="27" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>526</v>
+      </c>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B9" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" s="55">
+        <v>10</v>
+      </c>
+      <c r="M9" s="52"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B10" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51" t="s">
+        <v>2634</v>
+      </c>
+      <c r="K11" s="47"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="52"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>561</v>
+      </c>
+      <c r="M12" s="52"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B13" t="s">
+        <v>2790</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" s="55">
+        <v>10</v>
+      </c>
+      <c r="M13" s="52"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" t="s">
+        <v>2800</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" t="s">
+        <v>2791</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="52"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="27" t="s">
+        <v>2757</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>2795</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>2752</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>2796</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B18" t="s">
+        <v>2792</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36" t="s">
+        <v>2797</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>2760</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>2798</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A24" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" t="s">
+        <v>2767</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31" t="s">
+        <v>2814</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1">
+      <c r="F27" s="33" t="s">
+        <v>2815</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>2768</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27" t="s">
+        <v>2812</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>2778</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B29" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2804</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="35" t="s">
+        <v>2667</v>
+      </c>
+      <c r="K29" s="37">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>2809</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A32" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="35" t="s">
+        <v>2810</v>
+      </c>
+      <c r="K32" s="37">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="34"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="34"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="34"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="F36" s="33"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>428</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="34"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="34"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
+      <c r="B39" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="15.75" thickBot="1">
+      <c r="F64" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A65" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F65" s="47" t="s">
+        <v>2112</v>
+      </c>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="49"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="B66" t="s">
+        <v>2755</v>
+      </c>
+      <c r="F66" s="260" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G66" s="104" t="s">
+        <v>1989</v>
+      </c>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="74" t="s">
+        <v>2634</v>
+      </c>
+      <c r="K66" s="99"/>
+      <c r="L66" s="100"/>
+      <c r="M66" s="52"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="B67" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2752</v>
+      </c>
+      <c r="F67" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="G67" s="51">
+        <v>10</v>
+      </c>
+      <c r="H67" s="117"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="261" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67" s="231" t="s">
+        <v>414</v>
+      </c>
+      <c r="M67" s="52"/>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F68" s="50" t="s">
+        <v>551</v>
+      </c>
+      <c r="G68" s="51" t="s">
+        <v>2762</v>
+      </c>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="262" t="s">
+        <v>180</v>
+      </c>
+      <c r="L68" s="263">
+        <v>5</v>
+      </c>
+      <c r="M68" s="52"/>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A69" t="s">
+        <v>428</v>
+      </c>
+      <c r="F69" s="50" t="s">
+        <v>552</v>
+      </c>
+      <c r="G69" s="51" t="s">
+        <v>2764</v>
+      </c>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="52"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="B70" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F70" s="50"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51" t="s">
+        <v>2762</v>
+      </c>
+      <c r="K70" s="99"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="52"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="B71" t="s">
+        <v>2743</v>
+      </c>
+      <c r="F71" s="50"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="261" t="s">
+        <v>60</v>
+      </c>
+      <c r="L71" s="231" t="s">
+        <v>526</v>
+      </c>
+      <c r="M71" s="52"/>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B72" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F72" s="50"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="262" t="s">
+        <v>180</v>
+      </c>
+      <c r="L72" s="263">
+        <v>10</v>
+      </c>
+      <c r="M72" s="52"/>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B73" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F73" s="50"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="52"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="B74" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F74" s="50"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51" t="s">
+        <v>2764</v>
+      </c>
+      <c r="K74" s="99"/>
+      <c r="L74" s="100"/>
+      <c r="M74" s="52"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="B75" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F75" s="50"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="261" t="s">
+        <v>60</v>
+      </c>
+      <c r="L75" s="231" t="s">
+        <v>561</v>
+      </c>
+      <c r="M75" s="52"/>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B76" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F76" s="50"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="262" t="s">
+        <v>180</v>
+      </c>
+      <c r="L76" s="263">
+        <v>5</v>
+      </c>
+      <c r="M76" s="52"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="B77" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F77" s="50"/>
+      <c r="G77" s="51" t="s">
+        <v>2757</v>
+      </c>
+      <c r="H77" s="51" t="s">
+        <v>2758</v>
+      </c>
+      <c r="I77" s="51" t="s">
+        <v>2759</v>
+      </c>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="52"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="B78" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F78" s="50"/>
+      <c r="G78" s="51" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H78" s="51" t="s">
+        <v>2760</v>
+      </c>
+      <c r="I78" s="117" t="s">
+        <v>2761</v>
+      </c>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="52"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="B79" t="s">
+        <v>2750</v>
+      </c>
+      <c r="F79" s="50"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="52"/>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B80" t="s">
+        <v>2751</v>
+      </c>
+      <c r="F80" s="53"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="55"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>428</v>
+      </c>
+      <c r="F83" s="121" t="s">
+        <v>206</v>
+      </c>
+      <c r="G83" s="256" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H83" s="256"/>
+      <c r="I83" s="256"/>
+      <c r="J83" s="256"/>
+      <c r="K83" s="256" t="s">
+        <v>2775</v>
+      </c>
+      <c r="L83" s="121" t="s">
+        <v>201</v>
+      </c>
+      <c r="M83" s="122" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="B84" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F84" s="186" t="s">
+        <v>2785</v>
+      </c>
+      <c r="G84" s="27" t="s">
+        <v>2775</v>
+      </c>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="123"/>
+      <c r="M84" s="124"/>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B85" t="s">
+        <v>2786</v>
+      </c>
+      <c r="F85" s="186"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="76"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" s="186"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27" t="s">
+        <v>2776</v>
+      </c>
+      <c r="L86" s="121" t="s">
+        <v>2777</v>
+      </c>
+      <c r="M86" s="122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A87" t="s">
+        <v>2766</v>
+      </c>
+      <c r="F87" s="186"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="186" t="s">
+        <v>2778</v>
+      </c>
+      <c r="M87" s="76" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="B88" t="s">
+        <v>2767</v>
+      </c>
+      <c r="F88" s="186"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="76"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="123" t="s">
+        <v>2781</v>
+      </c>
+      <c r="M88" s="124" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>146</v>
+      </c>
+      <c r="F89" s="186"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="121"/>
+      <c r="I89" s="122"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="76"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>2768</v>
+      </c>
+      <c r="F90" s="186"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="186"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27" t="s">
+        <v>2779</v>
+      </c>
+      <c r="L90" s="121" t="s">
+        <v>195</v>
+      </c>
+      <c r="M90" s="122">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="B91" t="s">
+        <v>2769</v>
+      </c>
+      <c r="F91" s="186"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="123"/>
+      <c r="I91" s="124"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="123" t="s">
+        <v>196</v>
+      </c>
+      <c r="M91" s="124" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="B92" t="s">
+        <v>2770</v>
+      </c>
+      <c r="F92" s="186"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="76"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="B93" t="s">
+        <v>2771</v>
+      </c>
+      <c r="F93" s="186"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="121"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27" t="s">
+        <v>2782</v>
+      </c>
+      <c r="L93" s="121" t="s">
+        <v>2783</v>
+      </c>
+      <c r="M93" s="264">
+        <v>44542</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" t="s">
+        <v>146</v>
+      </c>
+      <c r="F94" s="186"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="123"/>
+      <c r="I94" s="124"/>
+      <c r="J94" s="27"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="123" t="s">
+        <v>2784</v>
+      </c>
+      <c r="M94" s="124">
+        <v>12312312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F95" s="186"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="76"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F96" s="186"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="121"/>
+      <c r="I96" s="264"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="76"/>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2774</v>
+      </c>
+      <c r="F97" s="123"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="265"/>
+      <c r="I97" s="120"/>
+      <c r="J97" s="257"/>
+      <c r="K97" s="257"/>
+      <c r="L97" s="257"/>
+      <c r="M97" s="124"/>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A139" t="s">
+        <v>508</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A140" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E140" s="47" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F140" s="48" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="31"/>
+      <c r="K140" s="31"/>
+      <c r="L140" s="32"/>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E141" s="50" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F141" s="51">
+        <v>20</v>
+      </c>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="I141" s="47" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J141" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="K141" s="27"/>
+      <c r="L141" s="34"/>
+    </row>
+    <row r="142" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A142" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E142" s="50" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F142" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="J142" s="55">
+        <v>20</v>
+      </c>
+      <c r="K142" s="27"/>
+      <c r="L142" s="34"/>
+    </row>
+    <row r="143" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A143" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E143" s="50" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F143" s="51" t="s">
+        <v>519</v>
+      </c>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="K143" s="27"/>
+      <c r="L143" s="34"/>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E144" s="50" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F144" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="I144" s="47" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J144" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="K144" s="27"/>
+      <c r="L144" s="34"/>
+    </row>
+    <row r="145" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A145" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E145" s="50"/>
+      <c r="F145" s="51"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="J145" s="55">
+        <v>20</v>
+      </c>
+      <c r="K145" s="27"/>
+      <c r="L145" s="34"/>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E146" s="50"/>
+      <c r="F146" s="51"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="27"/>
+      <c r="K146" s="27"/>
+      <c r="L146" s="34"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E147" s="50"/>
+      <c r="F147" s="51"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="27"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="34"/>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B148" t="s">
+        <v>577</v>
+      </c>
+      <c r="E148" s="50"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="27"/>
+      <c r="K148" s="27"/>
+      <c r="L148" s="34"/>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C149" t="s">
+        <v>577</v>
+      </c>
+      <c r="E149" s="50"/>
+      <c r="F149" s="51"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="34"/>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="E150" s="50"/>
+      <c r="F150" s="51"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="27"/>
+      <c r="K150" s="27"/>
+      <c r="L150" s="34"/>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E151" s="50"/>
+      <c r="F151" s="51"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="27"/>
+      <c r="K151" s="27"/>
+      <c r="L151" s="34"/>
+    </row>
+    <row r="152" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B152" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E152" s="53"/>
+      <c r="F152" s="54"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="36"/>
+      <c r="J152" s="36"/>
+      <c r="K152" s="36"/>
+      <c r="L152" s="37"/>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="B153" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="157" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A157" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E157" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F157" s="48" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G157" s="31"/>
+      <c r="H157" s="31"/>
+      <c r="I157" s="31"/>
+      <c r="J157" s="31"/>
+      <c r="K157" s="31"/>
+      <c r="L157" s="32"/>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="B158" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E158" s="50" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F158" s="51" t="s">
+        <v>519</v>
+      </c>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="I158" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="J158" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="K158" s="27"/>
+      <c r="L158" s="34"/>
+    </row>
+    <row r="159" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B159" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D159" s="127">
+        <v>0</v>
+      </c>
+      <c r="E159" s="50" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F159" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="J159" s="55">
+        <v>0</v>
+      </c>
+      <c r="K159" s="27"/>
+      <c r="L159" s="34"/>
+    </row>
+    <row r="160" spans="1:12" ht="15.75" thickBot="1">
+      <c r="B160" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D160" s="127"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="51"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="K160" s="27"/>
+      <c r="L160" s="34"/>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="B161" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D161" s="127">
+        <v>0</v>
+      </c>
+      <c r="E161" s="50"/>
+      <c r="F161" s="51"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="I161" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="J161" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="K161" s="27"/>
+      <c r="L161" s="34"/>
+    </row>
+    <row r="162" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A162" t="s">
+        <v>146</v>
+      </c>
+      <c r="D162" s="127"/>
+      <c r="E162" s="50"/>
+      <c r="F162" s="51"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="J162" s="55">
+        <v>30</v>
+      </c>
+      <c r="K162" s="27"/>
+      <c r="L162" s="34"/>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D163" s="127"/>
+      <c r="E163" s="50"/>
+      <c r="F163" s="51"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="27"/>
+      <c r="L163" s="34"/>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="B164" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D164" s="127"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="51"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="27"/>
+      <c r="K164" s="27"/>
+      <c r="L164" s="34"/>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="B165" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D165" s="127"/>
+      <c r="E165" s="50"/>
+      <c r="F165" s="51"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="27"/>
+      <c r="K165" s="27"/>
+      <c r="L165" s="34"/>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="B166" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D166" s="127">
+        <v>30</v>
+      </c>
+      <c r="E166" s="50"/>
+      <c r="F166" s="51"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="27"/>
+      <c r="K166" s="27"/>
+      <c r="L166" s="34"/>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" t="s">
+        <v>146</v>
+      </c>
+      <c r="D167" s="127"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="51"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="27"/>
+      <c r="K167" s="27"/>
+      <c r="L167" s="34"/>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D168" s="127"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="51"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="27"/>
+      <c r="L168" s="34"/>
+    </row>
+    <row r="169" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B169" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D169" s="127"/>
+      <c r="E169" s="53"/>
+      <c r="F169" s="54"/>
+      <c r="G169" s="36"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="36"/>
+      <c r="J169" s="36"/>
+      <c r="K169" s="36"/>
+      <c r="L169" s="37"/>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="B170" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D170" s="127"/>
+    </row>
+    <row r="172" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A172" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B173" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G173" s="30"/>
+      <c r="H173" s="31"/>
+      <c r="I173" s="31"/>
+      <c r="J173" s="31"/>
+      <c r="K173" s="31"/>
+      <c r="L173" s="31"/>
+      <c r="M173" s="32"/>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="C174" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G174" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="H174" s="27" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I174" s="27"/>
+      <c r="J174" s="27" t="s">
+        <v>1646</v>
+      </c>
+      <c r="K174" s="30"/>
+      <c r="L174" s="32"/>
+      <c r="M174" s="34"/>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="C175" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G175" s="33" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H175" s="27">
+        <v>100</v>
+      </c>
+      <c r="I175" s="27"/>
+      <c r="J175" s="27"/>
+      <c r="K175" s="50" t="s">
+        <v>1647</v>
+      </c>
+      <c r="L175" s="52">
+        <v>100</v>
+      </c>
+      <c r="M175" s="34"/>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="C176" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G176" s="33" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H176" s="27">
+        <v>300</v>
+      </c>
+      <c r="I176" s="27"/>
+      <c r="J176" s="27"/>
+      <c r="K176" s="50" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L176" s="52">
+        <v>300</v>
+      </c>
+      <c r="M176" s="34"/>
+    </row>
+    <row r="177" spans="1:13" ht="15.75" thickBot="1">
+      <c r="C177" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G177" s="33" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H177" s="27">
+        <v>1000</v>
+      </c>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
+      <c r="K177" s="53" t="s">
+        <v>1649</v>
+      </c>
+      <c r="L177" s="55">
+        <v>1000</v>
+      </c>
+      <c r="M177" s="34"/>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="146" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B178" s="146"/>
+      <c r="C178" s="56" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G178" s="33" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H178" s="27" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I178" s="27"/>
+      <c r="J178" s="27"/>
+      <c r="K178" s="27"/>
+      <c r="L178" s="27"/>
+      <c r="M178" s="34"/>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="146" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B179" s="146"/>
+      <c r="C179" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G179" s="33" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H179" s="27" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I179" s="27"/>
+      <c r="J179" s="27"/>
+      <c r="K179" s="27"/>
+      <c r="L179" s="27"/>
+      <c r="M179" s="34"/>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="B180" t="s">
+        <v>146</v>
+      </c>
+      <c r="G180" s="33"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
+      <c r="K180" s="27"/>
+      <c r="L180" s="27"/>
+      <c r="M180" s="34"/>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" t="s">
+        <v>146</v>
+      </c>
+      <c r="G181" s="33"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="27"/>
+      <c r="K181" s="27"/>
+      <c r="L181" s="27"/>
+      <c r="M181" s="34"/>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G182" s="33"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="27"/>
+      <c r="K182" s="27"/>
+      <c r="L182" s="27"/>
+      <c r="M182" s="34"/>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="B183" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G183" s="33"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="27"/>
+      <c r="K183" s="27"/>
+      <c r="L183" s="27"/>
+      <c r="M183" s="34"/>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="B184" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G184" s="33"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="27"/>
+      <c r="K184" s="27"/>
+      <c r="L184" s="27"/>
+      <c r="M184" s="34"/>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185" t="s">
+        <v>146</v>
+      </c>
+      <c r="G185" s="33"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="27"/>
+      <c r="K185" s="27"/>
+      <c r="L185" s="27"/>
+      <c r="M185" s="34"/>
+    </row>
+    <row r="186" spans="1:13" ht="15.75" thickBot="1">
+      <c r="G186" s="35"/>
+      <c r="H186" s="36"/>
+      <c r="I186" s="36"/>
+      <c r="J186" s="36"/>
+      <c r="K186" s="36"/>
+      <c r="L186" s="36"/>
+      <c r="M186" s="37"/>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="B187" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="B188" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="B189" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
+      <c r="B190" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A192" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
+      <c r="A193" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E193" s="30" t="s">
+        <v>2275</v>
+      </c>
+      <c r="F193" s="31"/>
+      <c r="G193" s="31" t="s">
+        <v>2276</v>
+      </c>
+      <c r="H193" s="31"/>
+      <c r="I193" s="31"/>
+      <c r="J193" s="31"/>
+      <c r="K193" s="31"/>
+      <c r="L193" s="31"/>
+      <c r="M193" s="32"/>
+    </row>
+    <row r="194" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A194" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E194" s="214" t="s">
+        <v>206</v>
+      </c>
+      <c r="F194" s="161" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G194" s="51"/>
+      <c r="H194" s="51"/>
+      <c r="I194" s="157"/>
+      <c r="J194" s="157" t="s">
+        <v>2293</v>
+      </c>
+      <c r="K194" s="157"/>
+      <c r="L194" s="157"/>
+      <c r="M194" s="52"/>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E195" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F195" s="51">
+        <v>25</v>
+      </c>
+      <c r="G195" s="51"/>
+      <c r="H195" s="51"/>
+      <c r="I195" s="157" t="s">
+        <v>415</v>
+      </c>
+      <c r="J195" s="178"/>
+      <c r="K195" s="179"/>
+      <c r="L195" s="157"/>
+      <c r="M195" s="52"/>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E196" s="50" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F196" s="51">
+        <v>25</v>
+      </c>
+      <c r="G196" s="51"/>
+      <c r="H196" s="51"/>
+      <c r="I196" s="157"/>
+      <c r="J196" s="215" t="s">
+        <v>60</v>
+      </c>
+      <c r="K196" s="216" t="s">
+        <v>414</v>
+      </c>
+      <c r="L196" s="157"/>
+      <c r="M196" s="52"/>
+    </row>
+    <row r="197" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A197" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E197" s="50" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F197" s="51" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G197" s="51"/>
+      <c r="H197" s="51"/>
+      <c r="I197" s="157"/>
+      <c r="J197" s="180" t="s">
+        <v>2281</v>
+      </c>
+      <c r="K197" s="181">
+        <v>12</v>
+      </c>
+      <c r="L197" s="157"/>
+      <c r="M197" s="52"/>
+    </row>
+    <row r="198" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A198" s="56" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E198" s="50" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F198" s="51" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G198" s="51"/>
+      <c r="H198" s="51"/>
+      <c r="I198" s="51"/>
+      <c r="J198" s="51"/>
+      <c r="K198" s="51"/>
+      <c r="L198" s="51"/>
+      <c r="M198" s="52"/>
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" s="56" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2292</v>
+      </c>
+      <c r="E199" s="50"/>
+      <c r="F199" s="51"/>
+      <c r="G199" s="51"/>
+      <c r="H199" s="51"/>
+      <c r="I199" s="51" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J199" s="47"/>
+      <c r="K199" s="49"/>
+      <c r="L199" s="51"/>
+      <c r="M199" s="52"/>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="A200" s="56" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E200" s="50"/>
+      <c r="F200" s="51"/>
+      <c r="G200" s="51"/>
+      <c r="H200" s="51"/>
+      <c r="I200" s="51"/>
+      <c r="J200" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K200" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="L200" s="51"/>
+      <c r="M200" s="52"/>
+    </row>
+    <row r="201" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A201" s="56" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B201" s="125"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="51"/>
+      <c r="G201" s="51"/>
+      <c r="H201" s="51"/>
+      <c r="I201" s="51"/>
+      <c r="J201" s="53" t="s">
+        <v>2281</v>
+      </c>
+      <c r="K201" s="55">
+        <v>20</v>
+      </c>
+      <c r="L201" s="51"/>
+      <c r="M201" s="52"/>
+    </row>
+    <row r="202" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A202" s="125" t="s">
+        <v>2295</v>
+      </c>
+      <c r="E202" s="50"/>
+      <c r="F202" s="51"/>
+      <c r="G202" s="51"/>
+      <c r="H202" s="51"/>
+      <c r="I202" s="51"/>
+      <c r="J202" s="51"/>
+      <c r="K202" s="51"/>
+      <c r="L202" s="51"/>
+      <c r="M202" s="52"/>
+    </row>
+    <row r="203" spans="1:13">
+      <c r="A203" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C203">
+        <v>30</v>
+      </c>
+      <c r="E203" s="50"/>
+      <c r="F203" s="51"/>
+      <c r="G203" s="51"/>
+      <c r="H203" s="51"/>
+      <c r="I203" s="51" t="s">
+        <v>1897</v>
+      </c>
+      <c r="J203" s="47"/>
+      <c r="K203" s="49"/>
+      <c r="L203" s="51"/>
+      <c r="M203" s="52"/>
+    </row>
+    <row r="204" spans="1:13">
+      <c r="A204" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C204">
+        <v>20</v>
+      </c>
+      <c r="E204" s="50"/>
+      <c r="F204" s="51"/>
+      <c r="G204" s="51"/>
+      <c r="H204" s="51"/>
+      <c r="I204" s="51"/>
+      <c r="J204" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K204" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="L204" s="51"/>
+      <c r="M204" s="52"/>
+    </row>
+    <row r="205" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E205" s="50"/>
+      <c r="F205" s="51"/>
+      <c r="G205" s="51"/>
+      <c r="H205" s="51"/>
+      <c r="I205" s="51"/>
+      <c r="J205" s="53" t="s">
+        <v>2281</v>
+      </c>
+      <c r="K205" s="55">
+        <v>20</v>
+      </c>
+      <c r="L205" s="51"/>
+      <c r="M205" s="52"/>
+    </row>
+    <row r="206" spans="1:13">
+      <c r="A206" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E206" s="50"/>
+      <c r="F206" s="51"/>
+      <c r="G206" s="51"/>
+      <c r="H206" s="51"/>
+      <c r="I206" s="51"/>
+      <c r="J206" s="51"/>
+      <c r="K206" s="51"/>
+      <c r="L206" s="51"/>
+      <c r="M206" s="52"/>
+    </row>
+    <row r="207" spans="1:13">
+      <c r="B207" t="s">
+        <v>358</v>
+      </c>
+      <c r="E207" s="50"/>
+      <c r="F207" s="51"/>
+      <c r="G207" s="51"/>
+      <c r="H207" s="51"/>
+      <c r="I207" s="51"/>
+      <c r="J207" s="51"/>
+      <c r="K207" s="51"/>
+      <c r="L207" s="51"/>
+      <c r="M207" s="52"/>
+    </row>
+    <row r="208" spans="1:13">
+      <c r="B208" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E208" s="50"/>
+      <c r="F208" s="51"/>
+      <c r="G208" s="51"/>
+      <c r="H208" s="51"/>
+      <c r="I208" s="51"/>
+      <c r="J208" s="51"/>
+      <c r="K208" s="51"/>
+      <c r="L208" s="51"/>
+      <c r="M208" s="52"/>
+    </row>
+    <row r="209" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A209" t="s">
+        <v>146</v>
+      </c>
+      <c r="E209" s="53"/>
+      <c r="F209" s="54"/>
+      <c r="G209" s="54"/>
+      <c r="H209" s="54"/>
+      <c r="I209" s="54"/>
+      <c r="J209" s="54"/>
+      <c r="K209" s="54"/>
+      <c r="L209" s="54"/>
+      <c r="M209" s="55"/>
+    </row>
+    <row r="210" spans="1:13">
+      <c r="A210" t="s">
+        <v>432</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
+      <c r="B211" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
+      <c r="B213" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
+      <c r="B214" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="218" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A218" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E218" s="30" t="s">
+        <v>2275</v>
+      </c>
+      <c r="F218" s="31"/>
+      <c r="G218" s="31" t="s">
+        <v>2276</v>
+      </c>
+      <c r="H218" s="31"/>
+      <c r="I218" s="31"/>
+      <c r="J218" s="31"/>
+      <c r="K218" s="31"/>
+      <c r="L218" s="31"/>
+      <c r="M218" s="32"/>
+    </row>
+    <row r="219" spans="1:13">
+      <c r="A219" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E219" s="214" t="s">
+        <v>206</v>
+      </c>
+      <c r="F219" s="161" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G219" s="51"/>
+      <c r="H219" s="51"/>
+      <c r="I219" s="217" t="s">
+        <v>415</v>
+      </c>
+      <c r="J219" s="218"/>
+      <c r="K219" s="219"/>
+      <c r="L219" s="157"/>
+      <c r="M219" s="52"/>
+    </row>
+    <row r="220" spans="1:13">
+      <c r="A220" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E220" s="50" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F220" s="51" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G220" s="51"/>
+      <c r="H220" s="51"/>
+      <c r="I220" s="217"/>
+      <c r="J220" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="K220" s="221" t="s">
+        <v>414</v>
+      </c>
+      <c r="L220" s="157"/>
+      <c r="M220" s="52"/>
+    </row>
+    <row r="221" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A221" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E221" s="50" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F221" s="51" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G221" s="51"/>
+      <c r="H221" s="51"/>
+      <c r="I221" s="217"/>
+      <c r="J221" s="222" t="s">
+        <v>2281</v>
+      </c>
+      <c r="K221" s="223">
+        <v>12</v>
+      </c>
+      <c r="L221" s="157"/>
+      <c r="M221" s="52"/>
+    </row>
+    <row r="222" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A222" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E222" s="50"/>
+      <c r="F222" s="51"/>
+      <c r="G222" s="51"/>
+      <c r="H222" s="51"/>
+      <c r="I222" s="51"/>
+      <c r="J222" s="51"/>
+      <c r="K222" s="51"/>
+      <c r="L222" s="157"/>
+      <c r="M222" s="52"/>
+    </row>
+    <row r="223" spans="1:13">
+      <c r="A223" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E223" s="50"/>
+      <c r="F223" s="51"/>
+      <c r="G223" s="51"/>
+      <c r="H223" s="51"/>
+      <c r="I223" s="51" t="s">
+        <v>1897</v>
+      </c>
+      <c r="J223" s="47"/>
+      <c r="K223" s="49"/>
+      <c r="L223" s="51"/>
+      <c r="M223" s="52"/>
+    </row>
+    <row r="224" spans="1:13">
+      <c r="A224" t="s">
+        <v>2296</v>
+      </c>
+      <c r="E224" s="50"/>
+      <c r="F224" s="51"/>
+      <c r="G224" s="51"/>
+      <c r="H224" s="51"/>
+      <c r="I224" s="51"/>
+      <c r="J224" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K224" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="L224" s="51"/>
+      <c r="M224" s="52"/>
+    </row>
+    <row r="225" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A225" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E225" s="50"/>
+      <c r="F225" s="51"/>
+      <c r="G225" s="51"/>
+      <c r="H225" s="51"/>
+      <c r="I225" s="51"/>
+      <c r="J225" s="53" t="s">
+        <v>2281</v>
+      </c>
+      <c r="K225" s="55">
+        <v>30</v>
+      </c>
+      <c r="L225" s="51"/>
+      <c r="M225" s="52"/>
+    </row>
+    <row r="226" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A226" s="56"/>
+      <c r="B226" s="125"/>
+      <c r="E226" s="50"/>
+      <c r="F226" s="51"/>
+      <c r="G226" s="51"/>
+      <c r="H226" s="51"/>
+      <c r="I226" s="51"/>
+      <c r="J226" s="51"/>
+      <c r="K226" s="51"/>
+      <c r="L226" s="51"/>
+      <c r="M226" s="52"/>
+    </row>
+    <row r="227" spans="1:13">
+      <c r="E227" s="50"/>
+      <c r="F227" s="51"/>
+      <c r="G227" s="51"/>
+      <c r="H227" s="51"/>
+      <c r="I227" s="51" t="s">
+        <v>1896</v>
+      </c>
+      <c r="J227" s="47"/>
+      <c r="K227" s="49"/>
+      <c r="L227" s="51"/>
+      <c r="M227" s="52"/>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="A228" s="125" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C228">
+        <v>20</v>
+      </c>
+      <c r="E228" s="50"/>
+      <c r="F228" s="51"/>
+      <c r="G228" s="51"/>
+      <c r="H228" s="51"/>
+      <c r="I228" s="51"/>
+      <c r="J228" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K228" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="L228" s="51"/>
+      <c r="M228" s="52"/>
+    </row>
+    <row r="229" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A229" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C229">
+        <v>20</v>
+      </c>
+      <c r="E229" s="50"/>
+      <c r="F229" s="51"/>
+      <c r="G229" s="51"/>
+      <c r="H229" s="51"/>
+      <c r="I229" s="51"/>
+      <c r="J229" s="53" t="s">
+        <v>2281</v>
+      </c>
+      <c r="K229" s="55">
+        <v>20</v>
+      </c>
+      <c r="L229" s="51"/>
+      <c r="M229" s="52"/>
+    </row>
+    <row r="230" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E230" s="50"/>
+      <c r="F230" s="51"/>
+      <c r="G230" s="51"/>
+      <c r="H230" s="51"/>
+      <c r="L230" s="51"/>
+      <c r="M230" s="52"/>
+    </row>
+    <row r="231" spans="1:13">
+      <c r="A231" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E231" s="50"/>
+      <c r="F231" s="51"/>
+      <c r="G231" s="51"/>
+      <c r="H231" s="51"/>
+      <c r="I231" s="51" t="s">
+        <v>1954</v>
+      </c>
+      <c r="J231" s="47"/>
+      <c r="K231" s="49"/>
+      <c r="L231" s="51"/>
+      <c r="M231" s="52"/>
+    </row>
+    <row r="232" spans="1:13">
+      <c r="B232" t="s">
+        <v>358</v>
+      </c>
+      <c r="E232" s="50"/>
+      <c r="F232" s="51"/>
+      <c r="G232" s="51"/>
+      <c r="H232" s="51"/>
+      <c r="I232" s="51"/>
+      <c r="J232" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K232" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="L232" s="51"/>
+      <c r="M232" s="52"/>
+    </row>
+    <row r="233" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B233" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E233" s="50"/>
+      <c r="F233" s="51"/>
+      <c r="G233" s="51"/>
+      <c r="H233" s="51"/>
+      <c r="I233" s="51"/>
+      <c r="J233" s="53" t="s">
+        <v>2281</v>
+      </c>
+      <c r="K233" s="55">
+        <v>20</v>
+      </c>
+      <c r="L233" s="51"/>
+      <c r="M233" s="52"/>
+    </row>
+    <row r="234" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A234" t="s">
+        <v>146</v>
+      </c>
+      <c r="E234" s="53"/>
+      <c r="F234" s="54"/>
+      <c r="G234" s="54"/>
+      <c r="H234" s="54"/>
+      <c r="I234" s="54"/>
+      <c r="J234" s="54"/>
+      <c r="K234" s="54"/>
+      <c r="L234" s="54"/>
+      <c r="M234" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5940" uniqueCount="3150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5973" uniqueCount="3179">
   <si>
     <t>USER</t>
   </si>
@@ -9756,6 +9756,93 @@
   </si>
   <si>
     <t>restu.customer.creditcard.number</t>
+  </si>
+  <si>
+    <t>Firmware</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>1 , 2</t>
+  </si>
+  <si>
+    <t>Light-weight</t>
+  </si>
+  <si>
+    <t>heavy-weight</t>
+  </si>
+  <si>
+    <t>Realtime application usage</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>1 or 0</t>
+  </si>
+  <si>
+    <t>kilo Byte</t>
+  </si>
+  <si>
+    <t>1024 Bytes</t>
+  </si>
+  <si>
+    <t>Mega Byte</t>
+  </si>
+  <si>
+    <t>1024 KB</t>
+  </si>
+  <si>
+    <t>2 ^ 10</t>
+  </si>
+  <si>
+    <t>Giga byte</t>
+  </si>
+  <si>
+    <t>1024 MB</t>
+  </si>
+  <si>
+    <t>Terra Byte</t>
+  </si>
+  <si>
+    <t>1024 GB</t>
+  </si>
+  <si>
+    <t>2 X 2 X 2</t>
+  </si>
+  <si>
+    <t>8 bit</t>
+  </si>
+  <si>
+    <t>7 bit</t>
+  </si>
+  <si>
+    <t>6 bit</t>
+  </si>
+  <si>
+    <t>5 bit</t>
+  </si>
+  <si>
+    <t>4 bit</t>
+  </si>
+  <si>
+    <t>3 bit</t>
+  </si>
+  <si>
+    <t>2 bytes = 16 bits</t>
+  </si>
+  <si>
+    <t>video = moving picture</t>
   </si>
 </sst>
 </file>
@@ -9865,7 +9952,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9983,6 +10070,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10342,7 +10435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11038,6 +11131,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11332,20 +11434,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD102"/>
+  <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1">
+      <c r="E1" t="s">
+        <v>3156</v>
+      </c>
       <c r="F1" t="s">
         <v>27</v>
       </c>
@@ -11375,6 +11482,9 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
+      <c r="E5" t="s">
+        <v>3157</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
@@ -11449,349 +11559,475 @@
       <c r="Q9" s="142"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="4"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="253"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="253"/>
-      <c r="M10" s="254"/>
-      <c r="N10" s="254"/>
+      <c r="F10" s="316" t="s">
+        <v>2654</v>
+      </c>
+      <c r="G10" s="317"/>
+      <c r="H10" s="317"/>
+      <c r="I10" s="317"/>
+      <c r="J10" s="317"/>
+      <c r="K10" s="317"/>
+      <c r="L10" s="317"/>
+      <c r="M10" s="317"/>
+      <c r="N10" s="317"/>
       <c r="Q10" s="142"/>
     </row>
-    <row r="11" spans="1:18">
-      <c r="F11" s="4"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="253"/>
-      <c r="J11" s="254"/>
-      <c r="K11" s="254"/>
-      <c r="L11" s="253"/>
-      <c r="M11" s="254"/>
-      <c r="N11" s="254"/>
-      <c r="Q11" s="142"/>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1">
+      <c r="F11" s="318"/>
+      <c r="G11" s="319"/>
+      <c r="H11" s="319"/>
+      <c r="I11" s="319"/>
+      <c r="J11" s="319"/>
+      <c r="K11" s="319"/>
+      <c r="L11" s="319"/>
+      <c r="M11" s="319"/>
+      <c r="N11" s="319"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="F12" s="316" t="s">
-        <v>2654</v>
-      </c>
-      <c r="G12" s="317"/>
-      <c r="H12" s="317"/>
-      <c r="I12" s="317"/>
-      <c r="J12" s="317"/>
-      <c r="K12" s="317"/>
-      <c r="L12" s="317"/>
-      <c r="M12" s="317"/>
-      <c r="N12" s="317"/>
-      <c r="Q12" s="142"/>
+      <c r="A12" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D12" s="125" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F13" s="318"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="319"/>
-      <c r="M13" s="319"/>
-      <c r="N13" s="319"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>2644</v>
-      </c>
-      <c r="D14" s="125" t="s">
-        <v>1591</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1">
-      <c r="D15" s="125" t="s">
+      <c r="D13" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E13" t="s">
         <v>1676</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1">
+      <c r="D14" s="125"/>
+      <c r="F14" s="339" t="s">
+        <v>3150</v>
+      </c>
+      <c r="G14" s="340"/>
+      <c r="H14" s="340"/>
+      <c r="I14" s="340"/>
+      <c r="J14" s="340"/>
+      <c r="K14" s="340"/>
+      <c r="L14" s="340"/>
+      <c r="M14" s="340"/>
+      <c r="N14" s="341"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="F15" s="139"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="F16" s="139"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="E17" t="s">
+      <c r="E16" t="s">
         <v>1594</v>
       </c>
-      <c r="F17" s="140" t="s">
+      <c r="F16" s="140" t="s">
         <v>22</v>
       </c>
+      <c r="G16" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="136"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="138"/>
+      <c r="L16" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="136"/>
+      <c r="N16" s="18"/>
+      <c r="P16" t="s">
+        <v>3151</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>3153</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1">
+      <c r="F17" s="141"/>
       <c r="G17" s="136" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H17" s="136"/>
       <c r="I17" s="18"/>
       <c r="J17" s="137" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="138"/>
-      <c r="L17" s="136" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="136"/>
+        <v>1593</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="F18" s="141"/>
+    <row r="18" spans="1:18">
+      <c r="D18" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="139"/>
       <c r="G18" s="136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="136"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="137" t="s">
-        <v>1593</v>
-      </c>
+      <c r="J18" s="16"/>
       <c r="K18" s="18"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="1:17">
-      <c r="D19" s="125" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="139"/>
-      <c r="G19" s="136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="136"/>
+    <row r="19" spans="1:18">
+      <c r="F19" s="140"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="16"/>
+      <c r="J19" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="M19" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="F20" s="140"/>
-      <c r="G20" s="19"/>
+      <c r="P19" t="s">
+        <v>3152</v>
+      </c>
+      <c r="Q19" s="142" t="s">
+        <v>3154</v>
+      </c>
+      <c r="R19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="E20" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F20" s="140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="J20" s="16"/>
       <c r="K20" s="18"/>
       <c r="L20" s="17"/>
-      <c r="M20" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="M20" s="17"/>
       <c r="N20" s="18"/>
-      <c r="Q20" s="142"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="E21" t="s">
-        <v>1595</v>
-      </c>
-      <c r="F21" s="140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="17"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1">
+      <c r="F21" s="141"/>
+      <c r="G21" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="K21" s="18"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1">
-      <c r="F22" s="141"/>
+      <c r="P21" t="s">
+        <v>3155</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="F22" s="140"/>
       <c r="G22" s="17" t="s">
-        <v>17</v>
+        <v>2638</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
       <c r="J22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="1:17">
-      <c r="F23" s="140"/>
+    <row r="23" spans="1:18">
+      <c r="E23" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F23" s="140" t="s">
+        <v>24</v>
+      </c>
       <c r="G23" s="17" t="s">
-        <v>2638</v>
+        <v>20</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
-      <c r="J23" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="J23" s="16"/>
       <c r="K23" s="18"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:17">
-      <c r="F24" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1">
-      <c r="F25" s="141"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="22"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:17">
-      <c r="G30" s="26"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32">
-        <v>32768</v>
-      </c>
-      <c r="G32" s="51">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1">
+      <c r="F24" s="141"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="J25" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="F27" t="s">
+        <v>3159</v>
+      </c>
+      <c r="G27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3161</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3163</v>
+      </c>
+      <c r="J27" t="s">
+        <v>3166</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="F28" s="142" t="s">
+        <v>3160</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2721</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3164</v>
+      </c>
+      <c r="J28" t="s">
+        <v>3167</v>
+      </c>
+      <c r="K28" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="G29" s="27" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="D30" t="s">
+        <v>3165</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="K30" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>8192</v>
+      </c>
+      <c r="B31">
+        <v>4096</v>
+      </c>
+      <c r="C31">
+        <v>2048</v>
+      </c>
+      <c r="D31">
+        <v>1024</v>
+      </c>
+      <c r="E31">
+        <v>512</v>
+      </c>
+      <c r="F31">
+        <v>256</v>
+      </c>
+      <c r="G31" s="51">
         <v>128</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H31" s="57">
         <v>64</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I31" s="57">
         <v>32</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J31" s="57">
         <v>16</v>
       </c>
-      <c r="K32" s="57">
+      <c r="K31" s="57">
         <v>8</v>
       </c>
-      <c r="L32" s="57">
+      <c r="L31" s="57">
         <v>4</v>
       </c>
-      <c r="M32" s="57">
+      <c r="M31" s="57">
         <v>2</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N31" s="57">
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="27" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="33" spans="1:17 16384:16384">
-      <c r="A33" s="27" t="s">
-        <v>2676</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" t="s">
-        <v>30</v>
-      </c>
+      <c r="A33" s="251" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132" t="s">
+        <v>3171</v>
+      </c>
+      <c r="H33" s="132" t="s">
+        <v>3172</v>
+      </c>
+      <c r="I33" s="132" t="s">
+        <v>3173</v>
+      </c>
+      <c r="J33" s="132" t="s">
+        <v>3174</v>
+      </c>
+      <c r="K33" s="132" t="s">
+        <v>3175</v>
+      </c>
+      <c r="L33" s="132" t="s">
+        <v>3176</v>
+      </c>
+      <c r="M33" s="132" t="s">
+        <v>2640</v>
+      </c>
+      <c r="N33" s="132" t="s">
+        <v>2639</v>
+      </c>
+      <c r="P33" s="163"/>
     </row>
     <row r="34" spans="1:17 16384:16384">
-      <c r="A34" s="251" t="s">
-        <v>2675</v>
-      </c>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132" t="s">
-        <v>2640</v>
-      </c>
-      <c r="H34" s="132" t="s">
-        <v>2639</v>
-      </c>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132" t="s">
-        <v>2640</v>
-      </c>
-      <c r="N34" s="132" t="s">
-        <v>2639</v>
-      </c>
-      <c r="P34" s="163"/>
+      <c r="G34" s="145">
+        <v>0</v>
+      </c>
+      <c r="H34" s="145">
+        <v>1</v>
+      </c>
+      <c r="I34" s="145">
+        <v>1</v>
+      </c>
+      <c r="J34" s="145">
+        <v>0</v>
+      </c>
+      <c r="K34" s="145">
+        <v>0</v>
+      </c>
+      <c r="L34" s="145">
+        <v>1</v>
+      </c>
+      <c r="M34" s="145">
+        <v>0</v>
+      </c>
+      <c r="N34" s="145">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>100</v>
+      </c>
+      <c r="P34" s="57"/>
     </row>
     <row r="35" spans="1:17 16384:16384">
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="P35" s="57"/>
+      <c r="C35" t="s">
+        <v>3178</v>
+      </c>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
+      <c r="K35" s="190"/>
+      <c r="L35" s="190"/>
+      <c r="M35" s="190"/>
+      <c r="N35" s="190"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="190"/>
+      <c r="Q35" s="190"/>
     </row>
     <row r="36" spans="1:17 16384:16384">
       <c r="G36" s="190"/>
@@ -11799,12 +12035,12 @@
       <c r="I36" s="190"/>
       <c r="J36" s="190"/>
       <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
+      <c r="L36" s="191"/>
+      <c r="M36" s="191"/>
+      <c r="N36" s="191"/>
       <c r="O36" s="111"/>
-      <c r="P36" s="190"/>
-      <c r="Q36" s="190"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="191"/>
     </row>
     <row r="37" spans="1:17 16384:16384">
       <c r="G37" s="190"/>
@@ -11820,50 +12056,53 @@
       <c r="Q37" s="191"/>
     </row>
     <row r="38" spans="1:17 16384:16384">
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="190"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="191"/>
-      <c r="M38" s="191"/>
-      <c r="N38" s="191"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="191"/>
+      <c r="C38">
+        <v>1024</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="XFD38" s="39" t="s">
+        <v>1596</v>
+      </c>
     </row>
     <row r="39" spans="1:17 16384:16384">
-      <c r="C39">
-        <v>1024</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>1596</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>1596</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>1596</v>
-      </c>
-      <c r="I39" s="39" t="s">
-        <v>1596</v>
-      </c>
+      <c r="B39" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
       <c r="L39" s="39"/>
       <c r="M39" s="39"/>
       <c r="N39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="XFD39" s="39" t="s">
-        <v>1596</v>
-      </c>
     </row>
     <row r="40" spans="1:17 16384:16384">
       <c r="B40" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="39"/>
@@ -11878,14 +12117,11 @@
       <c r="O40" s="39"/>
     </row>
     <row r="41" spans="1:17 16384:16384">
-      <c r="B41" t="s">
-        <v>1597</v>
-      </c>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
+      <c r="I41" s="143"/>
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
       <c r="L41" s="39"/>
@@ -11897,9 +12133,9 @@
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
+      <c r="H42" s="143"/>
       <c r="I42" s="143"/>
-      <c r="J42" s="39"/>
+      <c r="J42" s="143"/>
       <c r="K42" s="39"/>
       <c r="L42" s="39"/>
       <c r="M42" s="39"/>
@@ -11909,32 +12145,35 @@
     <row r="43" spans="1:17 16384:16384">
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
+      <c r="G43" s="143"/>
       <c r="H43" s="143"/>
       <c r="I43" s="143"/>
       <c r="J43" s="143"/>
-      <c r="K43" s="39"/>
+      <c r="K43" s="143"/>
       <c r="L43" s="39"/>
       <c r="M43" s="39"/>
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
     </row>
     <row r="44" spans="1:17 16384:16384">
+      <c r="B44" t="s">
+        <v>2641</v>
+      </c>
       <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
+      <c r="F44" s="143"/>
       <c r="G44" s="143"/>
       <c r="H44" s="143"/>
       <c r="I44" s="143"/>
       <c r="J44" s="143"/>
       <c r="K44" s="143"/>
-      <c r="L44" s="39"/>
+      <c r="L44" s="143"/>
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
       <c r="O44" s="39"/>
     </row>
     <row r="45" spans="1:17 16384:16384">
       <c r="B45" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="143"/>
@@ -11949,8 +12188,11 @@
       <c r="O45" s="39"/>
     </row>
     <row r="46" spans="1:17 16384:16384">
+      <c r="A46" t="s">
+        <v>1813</v>
+      </c>
       <c r="B46" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="143"/>
@@ -11965,17 +12207,11 @@
       <c r="O46" s="39"/>
     </row>
     <row r="47" spans="1:17 16384:16384">
-      <c r="A47" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2643</v>
-      </c>
       <c r="E47" s="39"/>
       <c r="F47" s="143"/>
       <c r="G47" s="143"/>
       <c r="H47" s="143"/>
-      <c r="I47" s="143"/>
+      <c r="I47" s="144"/>
       <c r="J47" s="143"/>
       <c r="K47" s="143"/>
       <c r="L47" s="143"/>
@@ -12037,13 +12273,13 @@
     </row>
     <row r="52" spans="1:15">
       <c r="E52" s="39"/>
-      <c r="F52" s="143"/>
-      <c r="G52" s="143"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="143"/>
-      <c r="K52" s="143"/>
-      <c r="L52" s="143"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
       <c r="M52" s="39"/>
       <c r="N52" s="39"/>
       <c r="O52" s="39"/>
@@ -12062,22 +12298,22 @@
       <c r="O53" s="39"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
+      <c r="E54" s="38">
+        <v>768</v>
+      </c>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="E55" s="38">
-        <v>768</v>
-      </c>
+      <c r="E55" s="38"/>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
@@ -12103,8 +12339,16 @@
       <c r="O56" s="38"/>
     </row>
     <row r="57" spans="1:15">
+      <c r="A57" s="164" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D57" s="164" t="s">
+        <v>1814</v>
+      </c>
       <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
+      <c r="F57" s="164" t="s">
+        <v>1814</v>
+      </c>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
@@ -12116,16 +12360,8 @@
       <c r="O57" s="38"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="164" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D58" s="164" t="s">
-        <v>1814</v>
-      </c>
       <c r="E58" s="38"/>
-      <c r="F58" s="164" t="s">
-        <v>1814</v>
-      </c>
+      <c r="F58" s="38"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
@@ -12137,43 +12373,36 @@
       <c r="O58" s="38"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
+      <c r="L59" s="152"/>
+      <c r="M59" s="152"/>
+      <c r="N59" s="152"/>
+      <c r="O59" s="152"/>
     </row>
     <row r="60" spans="1:15">
+      <c r="G60">
+        <v>11111111</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1101010101</v>
+      </c>
       <c r="L60" s="152"/>
       <c r="M60" s="152"/>
       <c r="N60" s="152"/>
       <c r="O60" s="152"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="G61">
-        <v>11111111</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>1101010101</v>
-      </c>
       <c r="L61" s="152"/>
-      <c r="M61" s="152"/>
-      <c r="N61" s="152"/>
+      <c r="M61" s="153"/>
+      <c r="N61" s="153"/>
       <c r="O61" s="152"/>
     </row>
     <row r="62" spans="1:15">
       <c r="L62" s="152"/>
-      <c r="M62" s="153"/>
-      <c r="N62" s="153"/>
+      <c r="M62" s="152"/>
+      <c r="N62" s="152"/>
       <c r="O62" s="152"/>
     </row>
     <row r="63" spans="1:15">
@@ -12182,73 +12411,94 @@
       <c r="N63" s="152"/>
       <c r="O63" s="152"/>
     </row>
-    <row r="64" spans="1:15">
-      <c r="L64" s="152"/>
-      <c r="M64" s="152"/>
-      <c r="N64" s="152"/>
-      <c r="O64" s="152"/>
+    <row r="89" spans="2:17">
+      <c r="E89" t="s">
+        <v>2227</v>
+      </c>
     </row>
     <row r="90" spans="2:17">
-      <c r="E90" t="s">
-        <v>2227</v>
+      <c r="E90" s="51">
+        <v>128</v>
+      </c>
+      <c r="F90" s="57">
+        <v>64</v>
+      </c>
+      <c r="G90" s="57">
+        <v>32</v>
+      </c>
+      <c r="H90" s="57">
+        <v>16</v>
+      </c>
+      <c r="I90" s="57">
+        <v>8</v>
+      </c>
+      <c r="J90" s="57">
+        <v>4</v>
+      </c>
+      <c r="K90" s="57">
+        <v>2</v>
+      </c>
+      <c r="L90" s="57">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="2:17">
-      <c r="E91" s="51">
-        <v>128</v>
-      </c>
-      <c r="F91" s="57">
-        <v>64</v>
-      </c>
-      <c r="G91" s="57">
+      <c r="E91" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" t="s">
+        <v>33</v>
+      </c>
+      <c r="J91" t="s">
         <v>32</v>
       </c>
-      <c r="H91" s="57">
-        <v>16</v>
-      </c>
-      <c r="I91" s="57">
-        <v>8</v>
-      </c>
-      <c r="J91" s="57">
-        <v>4</v>
-      </c>
-      <c r="K91" s="57">
-        <v>2</v>
-      </c>
-      <c r="L91" s="57">
+      <c r="K91" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17">
+      <c r="B92" t="s">
+        <v>179</v>
+      </c>
+      <c r="E92" s="211"/>
+      <c r="F92" s="132">
+        <v>0</v>
+      </c>
+      <c r="G92" s="132">
+        <v>0</v>
+      </c>
+      <c r="H92" s="132">
+        <v>0</v>
+      </c>
+      <c r="I92" s="132">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:17">
-      <c r="E92" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F92" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" t="s">
-        <v>34</v>
-      </c>
-      <c r="I92" t="s">
-        <v>33</v>
-      </c>
-      <c r="J92" t="s">
-        <v>32</v>
-      </c>
-      <c r="K92" t="s">
-        <v>31</v>
-      </c>
-      <c r="L92" t="s">
-        <v>30</v>
+      <c r="J92" s="132">
+        <v>0</v>
+      </c>
+      <c r="K92" s="132">
+        <v>1</v>
+      </c>
+      <c r="L92" s="132">
+        <v>0</v>
+      </c>
+      <c r="M92" s="212">
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="2:17">
-      <c r="B93" t="s">
-        <v>179</v>
-      </c>
       <c r="E93" s="211"/>
       <c r="F93" s="132">
         <v>0</v>
@@ -12260,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="132">
         <v>0</v>
@@ -12269,129 +12519,103 @@
         <v>1</v>
       </c>
       <c r="L93" s="132">
+        <v>1</v>
+      </c>
+      <c r="M93" s="57">
+        <v>3</v>
+      </c>
+      <c r="N93" s="163"/>
+    </row>
+    <row r="94" spans="2:17">
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57">
+        <v>1</v>
+      </c>
+      <c r="J94" s="57">
         <v>0</v>
       </c>
-      <c r="M93" s="212">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="2:17">
-      <c r="E94" s="211"/>
-      <c r="F94" s="132">
+      <c r="K94" s="57">
         <v>0</v>
       </c>
-      <c r="G94" s="132">
+      <c r="L94" s="57">
+        <v>1</v>
+      </c>
+      <c r="M94" t="s">
+        <v>2350</v>
+      </c>
+      <c r="N94" s="57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17">
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
         <v>0</v>
-      </c>
-      <c r="H94" s="132">
-        <v>0</v>
-      </c>
-      <c r="I94" s="132">
-        <v>0</v>
-      </c>
-      <c r="J94" s="132">
-        <v>0</v>
-      </c>
-      <c r="K94" s="132">
-        <v>1</v>
-      </c>
-      <c r="L94" s="132">
-        <v>1</v>
-      </c>
-      <c r="M94" s="57">
-        <v>3</v>
-      </c>
-      <c r="N94" s="163"/>
-    </row>
-    <row r="95" spans="2:17">
-      <c r="F95" s="57"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="57"/>
-      <c r="I95" s="57">
-        <v>1</v>
-      </c>
-      <c r="J95" s="57">
-        <v>0</v>
-      </c>
-      <c r="K95" s="57">
-        <v>0</v>
-      </c>
-      <c r="L95" s="57">
-        <v>1</v>
-      </c>
-      <c r="M95" t="s">
-        <v>2350</v>
-      </c>
-      <c r="N95" s="57">
-        <v>9</v>
       </c>
     </row>
     <row r="96" spans="2:17">
       <c r="O96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="5:17">
+      <c r="E97" t="s">
+        <v>2228</v>
+      </c>
       <c r="O97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="5:17">
+      <c r="O98">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="5:17">
-      <c r="E98" t="s">
-        <v>2228</v>
-      </c>
-      <c r="O98">
+      <c r="P98">
         <v>1</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
       </c>
       <c r="Q98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="5:17">
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>1</v>
-      </c>
-      <c r="Q99">
-        <v>1</v>
+    <row r="100" spans="5:17">
+      <c r="H100" t="s">
+        <v>2229</v>
+      </c>
+      <c r="I100" t="s">
+        <v>2230</v>
+      </c>
+      <c r="J100">
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="5:17">
       <c r="H101" t="s">
-        <v>2229</v>
-      </c>
-      <c r="I101" t="s">
-        <v>2230</v>
-      </c>
-      <c r="J101">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="5:17">
-      <c r="H102" t="s">
         <v>2231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F12:N13"/>
+  <mergeCells count="9">
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F10:N11"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="J6:K6"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6022" uniqueCount="3208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="3240">
   <si>
     <t>USER</t>
   </si>
@@ -9930,6 +9930,102 @@
   </si>
   <si>
     <t>1 for negative</t>
+  </si>
+  <si>
+    <t>Restautrant</t>
+  </si>
+  <si>
+    <t>HAS-A</t>
+  </si>
+  <si>
+    <t>openingTime</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>What is the data-type of value you would store</t>
+  </si>
+  <si>
+    <t>Simple/Primitive data type = single valued information</t>
+  </si>
+  <si>
+    <t>fraction number = float, double</t>
+  </si>
+  <si>
+    <t>1 character = char</t>
+  </si>
+  <si>
+    <t>Yes/no answer = boolean</t>
+  </si>
+  <si>
+    <t>Complex/Object data type = has sub information</t>
+  </si>
+  <si>
+    <t>group of characters = String</t>
+  </si>
+  <si>
+    <t>complex = create another program &lt;anotherprogram&gt; (has-a exercise)</t>
+  </si>
+  <si>
+    <t>anotherprogram attribute_name=new anotherprogram();</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>byte,short,int,long</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>ingredients</t>
+  </si>
+  <si>
+    <t>Cust</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>cardNum</t>
+  </si>
+  <si>
+    <t>expDate</t>
+  </si>
+  <si>
+    <t>Addr</t>
+  </si>
+  <si>
+    <t>streetNum</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>holidays</t>
+  </si>
+  <si>
+    <t>has-a</t>
+  </si>
+  <si>
+    <t>does-A</t>
+  </si>
+  <si>
+    <t>does-a</t>
+  </si>
+  <si>
+    <t>placeOrder</t>
+  </si>
+  <si>
+    <t>makePayment</t>
   </si>
 </sst>
 </file>
@@ -11161,6 +11257,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11235,15 +11340,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11542,7 +11638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A34" sqref="A33:L34"/>
     </sheetView>
   </sheetViews>
@@ -11578,13 +11674,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="322" t="s">
+      <c r="H3" s="325" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="323"/>
-      <c r="J3" s="323"/>
-      <c r="K3" s="323"/>
-      <c r="L3" s="324"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="327"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
@@ -11605,20 +11701,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="325" t="s">
+      <c r="G6" s="328" t="s">
         <v>1590</v>
       </c>
-      <c r="H6" s="326"/>
+      <c r="H6" s="329"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="325" t="s">
+      <c r="J6" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="326"/>
+      <c r="K6" s="329"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="325" t="s">
+      <c r="M6" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="326"/>
+      <c r="N6" s="329"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="125" t="s">
@@ -11636,20 +11732,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="327" t="s">
+      <c r="G8" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="328"/>
+      <c r="H8" s="331"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="327" t="s">
+      <c r="J8" s="330" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="328"/>
+      <c r="K8" s="331"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="327" t="s">
+      <c r="M8" s="330" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="328"/>
+      <c r="N8" s="331"/>
       <c r="Q8" s="142"/>
     </row>
     <row r="9" spans="1:18">
@@ -11665,29 +11761,29 @@
       <c r="Q9" s="142"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="318" t="s">
+      <c r="F10" s="321" t="s">
         <v>2652</v>
       </c>
-      <c r="G10" s="319"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="319"/>
-      <c r="J10" s="319"/>
-      <c r="K10" s="319"/>
-      <c r="L10" s="319"/>
-      <c r="M10" s="319"/>
-      <c r="N10" s="319"/>
+      <c r="G10" s="322"/>
+      <c r="H10" s="322"/>
+      <c r="I10" s="322"/>
+      <c r="J10" s="322"/>
+      <c r="K10" s="322"/>
+      <c r="L10" s="322"/>
+      <c r="M10" s="322"/>
+      <c r="N10" s="322"/>
       <c r="Q10" s="142"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="320"/>
-      <c r="G11" s="321"/>
-      <c r="H11" s="321"/>
-      <c r="I11" s="321"/>
-      <c r="J11" s="321"/>
-      <c r="K11" s="321"/>
-      <c r="L11" s="321"/>
-      <c r="M11" s="321"/>
-      <c r="N11" s="321"/>
+      <c r="F11" s="323"/>
+      <c r="G11" s="324"/>
+      <c r="H11" s="324"/>
+      <c r="I11" s="324"/>
+      <c r="J11" s="324"/>
+      <c r="K11" s="324"/>
+      <c r="L11" s="324"/>
+      <c r="M11" s="324"/>
+      <c r="N11" s="324"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -11729,17 +11825,17 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
       <c r="D14" s="125"/>
-      <c r="F14" s="315" t="s">
+      <c r="F14" s="318" t="s">
         <v>3147</v>
       </c>
-      <c r="G14" s="316"/>
-      <c r="H14" s="316"/>
-      <c r="I14" s="316"/>
-      <c r="J14" s="316"/>
-      <c r="K14" s="316"/>
-      <c r="L14" s="316"/>
-      <c r="M14" s="316"/>
-      <c r="N14" s="317"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="319"/>
+      <c r="I14" s="319"/>
+      <c r="J14" s="319"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
+      <c r="M14" s="319"/>
+      <c r="N14" s="320"/>
     </row>
     <row r="15" spans="1:18">
       <c r="F15" s="139"/>
@@ -12042,7 +12138,7 @@
       <c r="D33" s="74"/>
       <c r="E33" s="74"/>
       <c r="F33" s="74"/>
-      <c r="G33" s="342" t="s">
+      <c r="G33" s="316" t="s">
         <v>3167</v>
       </c>
       <c r="H33" s="132" t="s">
@@ -12075,28 +12171,28 @@
       <c r="G34" s="145">
         <v>0</v>
       </c>
-      <c r="H34" s="343">
+      <c r="H34" s="317">
         <v>1</v>
       </c>
-      <c r="I34" s="343">
+      <c r="I34" s="317">
         <v>1</v>
       </c>
-      <c r="J34" s="343">
+      <c r="J34" s="317">
         <v>1</v>
       </c>
-      <c r="K34" s="343">
+      <c r="K34" s="317">
         <v>1</v>
       </c>
-      <c r="L34" s="343">
+      <c r="L34" s="317">
         <v>1</v>
       </c>
-      <c r="M34" s="343">
+      <c r="M34" s="317">
         <v>1</v>
       </c>
-      <c r="N34" s="343">
+      <c r="N34" s="317">
         <v>1</v>
       </c>
-      <c r="P34" s="341" t="s">
+      <c r="P34" s="315" t="s">
         <v>3203</v>
       </c>
     </row>
@@ -25088,7 +25184,7 @@
       </c>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
-      <c r="N3" s="333" t="s">
+      <c r="N3" s="336" t="s">
         <v>2980</v>
       </c>
       <c r="O3" s="51"/>
@@ -25117,7 +25213,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="50"/>
       <c r="M4" s="51"/>
-      <c r="N4" s="334"/>
+      <c r="N4" s="337"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -25143,7 +25239,7 @@
       <c r="M5" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="N5" s="334"/>
+      <c r="N5" s="337"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -25165,7 +25261,7 @@
       <c r="M6" s="54">
         <v>12345</v>
       </c>
-      <c r="N6" s="334"/>
+      <c r="N6" s="337"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -25183,7 +25279,7 @@
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
-      <c r="N7" s="334"/>
+      <c r="N7" s="337"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -25203,7 +25299,7 @@
       </c>
       <c r="L8" s="47"/>
       <c r="M8" s="48"/>
-      <c r="N8" s="334"/>
+      <c r="N8" s="337"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -25221,7 +25317,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="50"/>
       <c r="M9" s="51"/>
-      <c r="N9" s="334"/>
+      <c r="N9" s="337"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -25238,7 +25334,7 @@
       <c r="M10" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="N10" s="334"/>
+      <c r="N10" s="337"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
@@ -25258,7 +25354,7 @@
       <c r="M11" s="54">
         <v>12346</v>
       </c>
-      <c r="N11" s="335"/>
+      <c r="N11" s="338"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
@@ -37588,24 +37684,24 @@
     <row r="17" spans="1:14" s="108" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="336" t="s">
+      <c r="B22" s="339" t="s">
         <v>1251</v>
       </c>
-      <c r="C22" s="336"/>
+      <c r="C22" s="339"/>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
-      <c r="F22" s="336" t="s">
+      <c r="F22" s="339" t="s">
         <v>1355</v>
       </c>
-      <c r="G22" s="336"/>
-      <c r="H22" s="336"/>
+      <c r="G22" s="339"/>
+      <c r="H22" s="339"/>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="336" t="s">
+      <c r="K22" s="339" t="s">
         <v>1253</v>
       </c>
-      <c r="L22" s="336"/>
-      <c r="M22" s="336"/>
+      <c r="L22" s="339"/>
+      <c r="M22" s="339"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -40163,35 +40259,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="338" t="s">
+      <c r="B8" s="341" t="s">
         <v>3070</v>
       </c>
-      <c r="C8" s="338"/>
-      <c r="F8" s="338" t="s">
+      <c r="C8" s="341"/>
+      <c r="F8" s="341" t="s">
         <v>3071</v>
       </c>
-      <c r="G8" s="338"/>
-      <c r="I8" s="338" t="s">
+      <c r="G8" s="341"/>
+      <c r="I8" s="341" t="s">
         <v>3071</v>
       </c>
-      <c r="J8" s="338"/>
+      <c r="J8" s="341"/>
       <c r="M8" s="249" t="s">
         <v>3128</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="338" t="s">
+      <c r="F9" s="341" t="s">
         <v>3072</v>
       </c>
-      <c r="G9" s="338"/>
-      <c r="I9" s="338" t="s">
+      <c r="G9" s="341"/>
+      <c r="I9" s="341" t="s">
         <v>3073</v>
       </c>
-      <c r="J9" s="338"/>
-      <c r="M9" s="339" t="s">
+      <c r="J9" s="341"/>
+      <c r="M9" s="342" t="s">
         <v>3071</v>
       </c>
-      <c r="N9" s="339"/>
+      <c r="N9" s="342"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="314" t="s">
@@ -40200,19 +40296,19 @@
       <c r="N10" s="314"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="337" t="s">
+      <c r="E11" s="340" t="s">
         <v>3075</v>
       </c>
-      <c r="F11" s="337"/>
-      <c r="G11" s="337"/>
-      <c r="H11" s="337"/>
-      <c r="I11" s="337"/>
-      <c r="J11" s="337"/>
-      <c r="K11" s="337"/>
-      <c r="L11" s="337"/>
-      <c r="M11" s="337"/>
-      <c r="N11" s="337"/>
-      <c r="O11" s="337"/>
+      <c r="F11" s="340"/>
+      <c r="G11" s="340"/>
+      <c r="H11" s="340"/>
+      <c r="I11" s="340"/>
+      <c r="J11" s="340"/>
+      <c r="K11" s="340"/>
+      <c r="L11" s="340"/>
+      <c r="M11" s="340"/>
+      <c r="N11" s="340"/>
+      <c r="O11" s="340"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -43972,11 +44068,11 @@
       <c r="L6" s="43" t="s">
         <v>1527</v>
       </c>
-      <c r="M6" s="340" t="s">
+      <c r="M6" s="343" t="s">
         <v>1528</v>
       </c>
-      <c r="N6" s="340"/>
-      <c r="O6" s="340"/>
+      <c r="N6" s="343"/>
+      <c r="O6" s="343"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -44742,12 +44838,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R294"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="G293" sqref="G293"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
@@ -45101,22 +45198,22 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="4:11">
+    <row r="81" spans="1:16">
       <c r="D81" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="4:11">
+    <row r="84" spans="1:16">
       <c r="D84" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="4:11">
+    <row r="87" spans="1:16">
       <c r="D87" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="4:11">
+    <row r="88" spans="1:16">
       <c r="D88" t="s">
         <v>177</v>
       </c>
@@ -45127,7 +45224,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="4:11">
+    <row r="89" spans="1:16">
       <c r="D89" t="s">
         <v>180</v>
       </c>
@@ -45139,6 +45236,346 @@
       </c>
       <c r="J89" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:16">
+      <c r="B92" s="30" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C92" s="31"/>
+      <c r="D92" s="32"/>
+      <c r="F92" s="30" t="s">
+        <v>3221</v>
+      </c>
+      <c r="G92" s="31"/>
+      <c r="H92" s="32"/>
+      <c r="J92" s="30" t="s">
+        <v>3224</v>
+      </c>
+      <c r="K92" s="31"/>
+      <c r="L92" s="32"/>
+      <c r="N92" s="30" t="s">
+        <v>3226</v>
+      </c>
+      <c r="O92" s="31"/>
+      <c r="P92" s="32"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="B93" s="33" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D93" s="34"/>
+      <c r="F93" s="33" t="s">
+        <v>3235</v>
+      </c>
+      <c r="G93" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H93" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J93" s="33"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="34"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="34"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" s="34"/>
+      <c r="F94" s="33" t="s">
+        <v>3235</v>
+      </c>
+      <c r="G94" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H94" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="J94" s="33" t="s">
+        <v>3235</v>
+      </c>
+      <c r="K94" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="L94" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="N94" s="33" t="s">
+        <v>3235</v>
+      </c>
+      <c r="O94" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P94" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="B95" s="33" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D95" s="34"/>
+      <c r="F95" s="33" t="s">
+        <v>3235</v>
+      </c>
+      <c r="G95" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H95" s="34" t="s">
+        <v>3222</v>
+      </c>
+      <c r="J95" s="33" t="s">
+        <v>3235</v>
+      </c>
+      <c r="K95" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="L95" s="34" t="s">
+        <v>3225</v>
+      </c>
+      <c r="N95" s="33" t="s">
+        <v>3235</v>
+      </c>
+      <c r="O95" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="P95" s="34" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="B96" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D96" s="34"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="34"/>
+      <c r="J96" s="33" t="s">
+        <v>3235</v>
+      </c>
+      <c r="K96" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="L96" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N96" s="33" t="s">
+        <v>3235</v>
+      </c>
+      <c r="O96" s="27" t="s">
+        <v>3228</v>
+      </c>
+      <c r="P96" s="34" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="B97" s="33" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C97" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" s="34"/>
+      <c r="F97" s="33" t="s">
+        <v>3236</v>
+      </c>
+      <c r="G97" s="38" t="s">
+        <v>3234</v>
+      </c>
+      <c r="H97" s="34"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="34"/>
+      <c r="N97" s="33" t="s">
+        <v>3235</v>
+      </c>
+      <c r="O97" s="38" t="s">
+        <v>3231</v>
+      </c>
+      <c r="P97" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B98" s="35" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="37"/>
+      <c r="F98" s="35" t="s">
+        <v>3236</v>
+      </c>
+      <c r="G98" s="36" t="s">
+        <v>3233</v>
+      </c>
+      <c r="H98" s="37"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="37"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="37"/>
+    </row>
+    <row r="99" spans="1:16" ht="15.75" thickBot="1">
+      <c r="N99" s="84" t="s">
+        <v>3237</v>
+      </c>
+      <c r="O99" s="38" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>3228</v>
+      </c>
+      <c r="G100" s="31"/>
+      <c r="H100" s="32"/>
+      <c r="J100" s="30" t="s">
+        <v>3231</v>
+      </c>
+      <c r="K100" s="31"/>
+      <c r="L100" s="32"/>
+      <c r="N100" s="84" t="s">
+        <v>3237</v>
+      </c>
+      <c r="O100" s="38" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F101" s="33"/>
+      <c r="G101" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="H101" s="34" t="s">
+        <v>3229</v>
+      </c>
+      <c r="J101" s="33"/>
+      <c r="K101" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="L101" s="34" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="B102" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3223</v>
+      </c>
+      <c r="F102" s="33"/>
+      <c r="G102" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H102" s="34" t="s">
+        <v>3230</v>
+      </c>
+      <c r="I102" s="40"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="L102" s="34" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B103" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F103" s="35"/>
+      <c r="G103" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="H103" s="37" t="s">
+        <v>2671</v>
+      </c>
+      <c r="J103" s="33"/>
+      <c r="K103" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="L103" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="J104" s="33"/>
+      <c r="K104" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="L104" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="15.75" thickBot="1">
+      <c r="J105" s="35"/>
+      <c r="K105" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="L105" s="37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="B106" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="B107" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="B110" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="B111" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="C112" t="s">
+        <v>3220</v>
       </c>
     </row>
     <row r="184" spans="3:14">
@@ -46047,7 +46484,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="329" t="s">
+      <c r="G269" s="332" t="s">
         <v>2736</v>
       </c>
       <c r="I269" s="56" t="s">
@@ -46068,7 +46505,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="330"/>
+      <c r="G270" s="333"/>
       <c r="I270" s="170" t="s">
         <v>2732</v>
       </c>
@@ -50086,23 +50523,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="332" t="s">
+      <c r="A1" s="335" t="s">
         <v>2815</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="I1" s="332" t="s">
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="I1" s="335" t="s">
         <v>2827</v>
       </c>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
-      <c r="N1" s="332"/>
-      <c r="O1" s="332"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -50258,28 +50695,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="325" t="s">
+      <c r="A12" s="328" t="s">
         <v>2829</v>
       </c>
-      <c r="B12" s="331"/>
-      <c r="C12" s="331"/>
-      <c r="D12" s="331"/>
-      <c r="E12" s="331"/>
-      <c r="F12" s="331"/>
-      <c r="G12" s="331"/>
-      <c r="H12" s="326"/>
-      <c r="I12" s="325" t="s">
+      <c r="B12" s="334"/>
+      <c r="C12" s="334"/>
+      <c r="D12" s="334"/>
+      <c r="E12" s="334"/>
+      <c r="F12" s="334"/>
+      <c r="G12" s="334"/>
+      <c r="H12" s="329"/>
+      <c r="I12" s="328" t="s">
         <v>2829</v>
       </c>
-      <c r="J12" s="331"/>
-      <c r="K12" s="331"/>
-      <c r="L12" s="331"/>
-      <c r="M12" s="331"/>
-      <c r="N12" s="331"/>
-      <c r="O12" s="331"/>
-      <c r="P12" s="331"/>
-      <c r="Q12" s="331"/>
-      <c r="R12" s="326"/>
+      <c r="J12" s="334"/>
+      <c r="K12" s="334"/>
+      <c r="L12" s="334"/>
+      <c r="M12" s="334"/>
+      <c r="N12" s="334"/>
+      <c r="O12" s="334"/>
+      <c r="P12" s="334"/>
+      <c r="Q12" s="334"/>
+      <c r="R12" s="329"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -50507,14 +50944,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="332" t="s">
+      <c r="A24" s="335" t="s">
         <v>2815</v>
       </c>
-      <c r="B24" s="332"/>
-      <c r="C24" s="332"/>
-      <c r="D24" s="332"/>
-      <c r="E24" s="332"/>
-      <c r="F24" s="332"/>
+      <c r="B24" s="335"/>
+      <c r="C24" s="335"/>
+      <c r="D24" s="335"/>
+      <c r="E24" s="335"/>
+      <c r="F24" s="335"/>
       <c r="H24" s="272" t="s">
         <v>2827</v>
       </c>
@@ -50524,11 +50961,11 @@
       <c r="L24" s="272"/>
       <c r="M24" s="272"/>
       <c r="N24" s="272"/>
-      <c r="P24" s="332" t="s">
+      <c r="P24" s="335" t="s">
         <v>2868</v>
       </c>
-      <c r="Q24" s="332"/>
-      <c r="R24" s="332"/>
+      <c r="Q24" s="335"/>
+      <c r="R24" s="335"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -50768,28 +51205,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="325" t="s">
+      <c r="A35" s="328" t="s">
         <v>2869</v>
       </c>
-      <c r="B35" s="331"/>
-      <c r="C35" s="331"/>
-      <c r="D35" s="331"/>
-      <c r="E35" s="331"/>
-      <c r="F35" s="331"/>
-      <c r="G35" s="331"/>
-      <c r="H35" s="326"/>
-      <c r="I35" s="325" t="s">
+      <c r="B35" s="334"/>
+      <c r="C35" s="334"/>
+      <c r="D35" s="334"/>
+      <c r="E35" s="334"/>
+      <c r="F35" s="334"/>
+      <c r="G35" s="334"/>
+      <c r="H35" s="329"/>
+      <c r="I35" s="328" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="331"/>
-      <c r="K35" s="331"/>
-      <c r="L35" s="331"/>
-      <c r="M35" s="331"/>
-      <c r="N35" s="331"/>
-      <c r="O35" s="331"/>
-      <c r="P35" s="331"/>
-      <c r="Q35" s="331"/>
-      <c r="R35" s="326"/>
+      <c r="J35" s="334"/>
+      <c r="K35" s="334"/>
+      <c r="L35" s="334"/>
+      <c r="M35" s="334"/>
+      <c r="N35" s="334"/>
+      <c r="O35" s="334"/>
+      <c r="P35" s="334"/>
+      <c r="Q35" s="334"/>
+      <c r="R35" s="329"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="3240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="3250">
   <si>
     <t>USER</t>
   </si>
@@ -10026,6 +10026,36 @@
   </si>
   <si>
     <t>makePayment</t>
+  </si>
+  <si>
+    <t>FB machine</t>
+  </si>
+  <si>
+    <t>nj</t>
+  </si>
+  <si>
+    <t>sfo</t>
+  </si>
+  <si>
+    <t>MEMORY</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Static data</t>
+  </si>
+  <si>
+    <t>4 billion</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>META</t>
   </si>
 </sst>
 </file>
@@ -10631,7 +10661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11342,6 +11372,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -44838,8 +44880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:C98"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45578,6 +45620,568 @@
         <v>3220</v>
       </c>
     </row>
+    <row r="119" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="120" spans="2:13" ht="15.75" thickBot="1">
+      <c r="E120" s="30" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="31"/>
+      <c r="K120" s="31"/>
+      <c r="L120" s="31"/>
+      <c r="M120" s="32"/>
+    </row>
+    <row r="121" spans="2:13">
+      <c r="E121" s="33"/>
+      <c r="F121" s="27" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G121" s="30"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="344" t="s">
+        <v>3245</v>
+      </c>
+      <c r="J121" s="344" t="s">
+        <v>3249</v>
+      </c>
+      <c r="K121" s="27"/>
+      <c r="L121" s="27"/>
+      <c r="M121" s="34"/>
+    </row>
+    <row r="122" spans="2:13">
+      <c r="E122" s="33"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H122" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="I122" s="337"/>
+      <c r="J122" s="337"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="34"/>
+    </row>
+    <row r="123" spans="2:13">
+      <c r="E123" s="33"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H123" s="27">
+        <v>19</v>
+      </c>
+      <c r="I123" s="337"/>
+      <c r="J123" s="337"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="34"/>
+    </row>
+    <row r="124" spans="2:13" ht="15.75" thickBot="1">
+      <c r="E124" s="33"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H124" s="36" t="s">
+        <v>2160</v>
+      </c>
+      <c r="I124" s="337"/>
+      <c r="J124" s="337"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="34"/>
+    </row>
+    <row r="125" spans="2:13">
+      <c r="E125" s="33"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="337"/>
+      <c r="J125" s="337"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
+      <c r="M125" s="34"/>
+    </row>
+    <row r="126" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B126" t="s">
+        <v>3247</v>
+      </c>
+      <c r="E126" s="33"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="337"/>
+      <c r="J126" s="337"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="34"/>
+    </row>
+    <row r="127" spans="2:13">
+      <c r="E127" s="33"/>
+      <c r="F127" s="27" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G127" s="30"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="337"/>
+      <c r="J127" s="337"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="34"/>
+    </row>
+    <row r="128" spans="2:13">
+      <c r="E128" s="33"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H128" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="I128" s="337"/>
+      <c r="J128" s="337"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="34"/>
+    </row>
+    <row r="129" spans="5:13">
+      <c r="E129" s="33"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H129" s="27">
+        <v>20</v>
+      </c>
+      <c r="I129" s="337"/>
+      <c r="J129" s="337"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="27"/>
+      <c r="M129" s="34"/>
+    </row>
+    <row r="130" spans="5:13" ht="15.75" thickBot="1">
+      <c r="E130" s="33"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H130" s="36" t="s">
+        <v>3241</v>
+      </c>
+      <c r="I130" s="337"/>
+      <c r="J130" s="337"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="27"/>
+      <c r="M130" s="34"/>
+    </row>
+    <row r="131" spans="5:13" ht="15.75" thickBot="1">
+      <c r="E131" s="33"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="337"/>
+      <c r="J131" s="337"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="27"/>
+      <c r="M131" s="34"/>
+    </row>
+    <row r="132" spans="5:13">
+      <c r="E132" s="33"/>
+      <c r="F132" s="27" t="s">
+        <v>3095</v>
+      </c>
+      <c r="G132" s="30"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="337"/>
+      <c r="J132" s="337"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="34"/>
+    </row>
+    <row r="133" spans="5:13">
+      <c r="E133" s="33"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H133" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="I133" s="337"/>
+      <c r="J133" s="337"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="27"/>
+      <c r="M133" s="34"/>
+    </row>
+    <row r="134" spans="5:13">
+      <c r="E134" s="33"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H134" s="27">
+        <v>18</v>
+      </c>
+      <c r="I134" s="337"/>
+      <c r="J134" s="337"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="27"/>
+      <c r="M134" s="34"/>
+    </row>
+    <row r="135" spans="5:13" ht="15.75" thickBot="1">
+      <c r="E135" s="33"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H135" s="36" t="s">
+        <v>3242</v>
+      </c>
+      <c r="I135" s="338"/>
+      <c r="J135" s="338"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="27"/>
+      <c r="M135" s="34"/>
+    </row>
+    <row r="136" spans="5:13">
+      <c r="E136" s="33"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="27"/>
+      <c r="K136" s="27"/>
+      <c r="L136" s="27"/>
+      <c r="M136" s="34"/>
+    </row>
+    <row r="137" spans="5:13">
+      <c r="E137" s="33"/>
+      <c r="F137" s="27" t="s">
+        <v>3244</v>
+      </c>
+      <c r="G137" s="38" t="s">
+        <v>3243</v>
+      </c>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27" t="s">
+        <v>3246</v>
+      </c>
+      <c r="J137" s="27"/>
+      <c r="K137" s="27"/>
+      <c r="L137" s="27"/>
+      <c r="M137" s="34"/>
+    </row>
+    <row r="138" spans="5:13">
+      <c r="E138" s="33"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="27"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="34"/>
+    </row>
+    <row r="139" spans="5:13" ht="15.75" thickBot="1">
+      <c r="E139" s="35"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="36"/>
+      <c r="K139" s="36"/>
+      <c r="L139" s="36"/>
+      <c r="M139" s="37"/>
+    </row>
+    <row r="145" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="146" spans="2:13" ht="15.75" thickBot="1">
+      <c r="E146" s="30" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="31"/>
+      <c r="L146" s="31"/>
+      <c r="M146" s="32"/>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="E147" s="33"/>
+      <c r="F147" s="27" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G147" s="30" t="s">
+        <v>2398</v>
+      </c>
+      <c r="H147" s="31" t="s">
+        <v>3248</v>
+      </c>
+      <c r="I147" s="345"/>
+      <c r="J147" s="345"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="27"/>
+      <c r="M147" s="34"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="E148" s="33"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H148" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="I148" s="346"/>
+      <c r="J148" s="346"/>
+      <c r="K148" s="27"/>
+      <c r="L148" s="27"/>
+      <c r="M148" s="34"/>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="E149" s="33"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H149" s="27">
+        <v>19</v>
+      </c>
+      <c r="I149" s="346"/>
+      <c r="J149" s="346"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="27"/>
+      <c r="M149" s="34"/>
+    </row>
+    <row r="150" spans="2:13" ht="15.75" thickBot="1">
+      <c r="E150" s="33"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H150" s="36" t="s">
+        <v>2160</v>
+      </c>
+      <c r="I150" s="346"/>
+      <c r="J150" s="346"/>
+      <c r="K150" s="27"/>
+      <c r="L150" s="27"/>
+      <c r="M150" s="34"/>
+    </row>
+    <row r="151" spans="2:13">
+      <c r="E151" s="33"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="346"/>
+      <c r="J151" s="346"/>
+      <c r="K151" s="27"/>
+      <c r="L151" s="27"/>
+      <c r="M151" s="34"/>
+    </row>
+    <row r="152" spans="2:13" ht="15.75" thickBot="1">
+      <c r="E152" s="33"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="346"/>
+      <c r="J152" s="346"/>
+      <c r="K152" s="27"/>
+      <c r="L152" s="27"/>
+      <c r="M152" s="34"/>
+    </row>
+    <row r="153" spans="2:13">
+      <c r="E153" s="33"/>
+      <c r="F153" s="27" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G153" s="30" t="s">
+        <v>2398</v>
+      </c>
+      <c r="H153" s="31" t="s">
+        <v>3248</v>
+      </c>
+      <c r="I153" s="346"/>
+      <c r="J153" s="346"/>
+      <c r="K153" s="27"/>
+      <c r="L153" s="27"/>
+      <c r="M153" s="34"/>
+    </row>
+    <row r="154" spans="2:13">
+      <c r="B154" t="s">
+        <v>3247</v>
+      </c>
+      <c r="E154" s="33"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H154" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="I154" s="346"/>
+      <c r="J154" s="346"/>
+      <c r="K154" s="27"/>
+      <c r="L154" s="27"/>
+      <c r="M154" s="34"/>
+    </row>
+    <row r="155" spans="2:13">
+      <c r="E155" s="33"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H155" s="27">
+        <v>20</v>
+      </c>
+      <c r="I155" s="346"/>
+      <c r="J155" s="346"/>
+      <c r="K155" s="27"/>
+      <c r="L155" s="27"/>
+      <c r="M155" s="34"/>
+    </row>
+    <row r="156" spans="2:13" ht="15.75" thickBot="1">
+      <c r="E156" s="33"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H156" s="36" t="s">
+        <v>3241</v>
+      </c>
+      <c r="I156" s="346"/>
+      <c r="J156" s="346"/>
+      <c r="K156" s="27"/>
+      <c r="L156" s="27"/>
+      <c r="M156" s="34"/>
+    </row>
+    <row r="157" spans="2:13" ht="15.75" thickBot="1">
+      <c r="E157" s="33"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="346"/>
+      <c r="J157" s="346"/>
+      <c r="K157" s="27"/>
+      <c r="L157" s="27"/>
+      <c r="M157" s="34"/>
+    </row>
+    <row r="158" spans="2:13">
+      <c r="E158" s="33"/>
+      <c r="F158" s="27" t="s">
+        <v>3095</v>
+      </c>
+      <c r="G158" s="30" t="s">
+        <v>2398</v>
+      </c>
+      <c r="H158" s="31" t="s">
+        <v>3248</v>
+      </c>
+      <c r="I158" s="346"/>
+      <c r="J158" s="346"/>
+      <c r="K158" s="27"/>
+      <c r="L158" s="27"/>
+      <c r="M158" s="34"/>
+    </row>
+    <row r="159" spans="2:13">
+      <c r="E159" s="33"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H159" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="I159" s="346"/>
+      <c r="J159" s="346"/>
+      <c r="K159" s="27"/>
+      <c r="L159" s="27"/>
+      <c r="M159" s="34"/>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="E160" s="33"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H160" s="27">
+        <v>18</v>
+      </c>
+      <c r="I160" s="346"/>
+      <c r="J160" s="346"/>
+      <c r="K160" s="27"/>
+      <c r="L160" s="27"/>
+      <c r="M160" s="34"/>
+    </row>
+    <row r="161" spans="5:13" ht="15.75" thickBot="1">
+      <c r="E161" s="33"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H161" s="36" t="s">
+        <v>3242</v>
+      </c>
+      <c r="I161" s="347"/>
+      <c r="J161" s="347"/>
+      <c r="K161" s="27"/>
+      <c r="L161" s="27"/>
+      <c r="M161" s="34"/>
+    </row>
+    <row r="162" spans="5:13">
+      <c r="E162" s="33"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="27"/>
+      <c r="K162" s="27"/>
+      <c r="L162" s="27"/>
+      <c r="M162" s="34"/>
+    </row>
+    <row r="163" spans="5:13">
+      <c r="E163" s="33"/>
+      <c r="F163" s="27" t="s">
+        <v>3244</v>
+      </c>
+      <c r="G163" s="38" t="s">
+        <v>3243</v>
+      </c>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="27"/>
+      <c r="L163" s="27"/>
+      <c r="M163" s="34"/>
+    </row>
+    <row r="164" spans="5:13">
+      <c r="E164" s="33"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="27"/>
+      <c r="K164" s="27"/>
+      <c r="L164" s="27"/>
+      <c r="M164" s="34"/>
+    </row>
+    <row r="165" spans="5:13" ht="15.75" thickBot="1">
+      <c r="E165" s="35"/>
+      <c r="F165" s="36"/>
+      <c r="G165" s="36"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="36"/>
+      <c r="J165" s="36"/>
+      <c r="K165" s="36"/>
+      <c r="L165" s="36"/>
+      <c r="M165" s="37"/>
+    </row>
     <row r="184" spans="3:14">
       <c r="C184" t="s">
         <v>2661</v>
@@ -46797,8 +47401,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="G269:G270"/>
+    <mergeCell ref="I121:I135"/>
+    <mergeCell ref="J121:J135"/>
+    <mergeCell ref="I147:I161"/>
+    <mergeCell ref="J147:J161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -14,34 +14,35 @@
     <sheet name="methods" sheetId="5" r:id="rId5"/>
     <sheet name="tech-terms" sheetId="6" r:id="rId6"/>
     <sheet name="references-latest" sheetId="28" r:id="rId7"/>
-    <sheet name="method-calls" sheetId="7" r:id="rId8"/>
-    <sheet name="variable-scope" sheetId="8" r:id="rId9"/>
-    <sheet name="references" sheetId="9" r:id="rId10"/>
-    <sheet name="pass-by-value" sheetId="10" r:id="rId11"/>
-    <sheet name="operator" sheetId="11" r:id="rId12"/>
-    <sheet name="control-flow" sheetId="12" r:id="rId13"/>
-    <sheet name="constructor" sheetId="13" r:id="rId14"/>
-    <sheet name="in-heritance" sheetId="14" r:id="rId15"/>
-    <sheet name="practice" sheetId="15" r:id="rId16"/>
-    <sheet name="interface-abstract" sheetId="16" r:id="rId17"/>
-    <sheet name="inheritance-access-priv-dto" sheetId="17" r:id="rId18"/>
-    <sheet name="poly-final" sheetId="18" r:id="rId19"/>
-    <sheet name="static" sheetId="19" r:id="rId20"/>
-    <sheet name="array" sheetId="20" r:id="rId21"/>
-    <sheet name="String" sheetId="21" r:id="rId22"/>
-    <sheet name="exception_handling" sheetId="22" r:id="rId23"/>
-    <sheet name="threads" sheetId="23" r:id="rId24"/>
-    <sheet name="collection" sheetId="24" r:id="rId25"/>
-    <sheet name="collection2" sheetId="25" r:id="rId26"/>
-    <sheet name="col-unique" sheetId="26" r:id="rId27"/>
-    <sheet name="file" sheetId="27" r:id="rId28"/>
+    <sheet name="program-communication" sheetId="29" r:id="rId8"/>
+    <sheet name="method-calls" sheetId="7" r:id="rId9"/>
+    <sheet name="variable-scope" sheetId="8" r:id="rId10"/>
+    <sheet name="references" sheetId="9" r:id="rId11"/>
+    <sheet name="pass-by-value" sheetId="10" r:id="rId12"/>
+    <sheet name="operator" sheetId="11" r:id="rId13"/>
+    <sheet name="control-flow" sheetId="12" r:id="rId14"/>
+    <sheet name="constructor" sheetId="13" r:id="rId15"/>
+    <sheet name="in-heritance" sheetId="14" r:id="rId16"/>
+    <sheet name="practice" sheetId="15" r:id="rId17"/>
+    <sheet name="interface-abstract" sheetId="16" r:id="rId18"/>
+    <sheet name="inheritance-access-priv-dto" sheetId="17" r:id="rId19"/>
+    <sheet name="poly-final" sheetId="18" r:id="rId20"/>
+    <sheet name="static" sheetId="19" r:id="rId21"/>
+    <sheet name="array" sheetId="20" r:id="rId22"/>
+    <sheet name="String" sheetId="21" r:id="rId23"/>
+    <sheet name="exception_handling" sheetId="22" r:id="rId24"/>
+    <sheet name="threads" sheetId="23" r:id="rId25"/>
+    <sheet name="collection" sheetId="24" r:id="rId26"/>
+    <sheet name="collection2" sheetId="25" r:id="rId27"/>
+    <sheet name="col-unique" sheetId="26" r:id="rId28"/>
+    <sheet name="file" sheetId="27" r:id="rId29"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="3250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6205" uniqueCount="3276">
   <si>
     <t>USER</t>
   </si>
@@ -10056,6 +10057,85 @@
   </si>
   <si>
     <t>META</t>
+  </si>
+  <si>
+    <t>applyLoan()</t>
+  </si>
+  <si>
+    <t>LoanOfficer</t>
+  </si>
+  <si>
+    <t>loanOfficer</t>
+  </si>
+  <si>
+    <t>BankManager</t>
+  </si>
+  <si>
+    <t>branchManager</t>
+  </si>
+  <si>
+    <t>creditScore</t>
+  </si>
+  <si>
+    <t>if(credit score is greater than 700</t>
+  </si>
+  <si>
+    <t>verifyLoan(  credit score)</t>
+  </si>
+  <si>
+    <t>processLoan(salary , creditscore, loan, years)</t>
+  </si>
+  <si>
+    <t>check with Bank manager</t>
+  </si>
+  <si>
+    <t>processLoan(salary,creditscore
+, 100000,30)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>if(salary is greater than salaryMinimum)</t>
+  </si>
+  <si>
+    <t>loanSalaryMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessing information (variables) and actions (methods ):  </t>
+  </si>
+  <si>
+    <t>within same class : direct access</t>
+  </si>
+  <si>
+    <t>outside class : create reference to the other program</t>
+  </si>
+  <si>
+    <t>Communication between 2 programs</t>
+  </si>
+  <si>
+    <t>1) create reference to other program</t>
+  </si>
+  <si>
+    <t>2) call methods of the other program</t>
+  </si>
+  <si>
+    <t>MODULAR</t>
+  </si>
+  <si>
+    <t>Reference : LoanOfficer lo=new LoanOfficer();</t>
+  </si>
+  <si>
+    <t>lo = reference variable</t>
+  </si>
+  <si>
+    <t>using reference variableand dot operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> u can access variable and methods from LoanOfficer program</t>
   </si>
 </sst>
 </file>
@@ -10661,7 +10741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11344,6 +11424,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11352,12 +11450,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11372,18 +11464,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13092,6 +13200,439 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D3:H121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="4:6">
+      <c r="D3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="D4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="E7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="E8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="E10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="F11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="E21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="E22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="E28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="E29" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="E40" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="E46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8">
+      <c r="D51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8">
+      <c r="E52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8">
+      <c r="F53" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8">
+      <c r="G54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8">
+      <c r="G56" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8">
+      <c r="G57" t="s">
+        <v>371</v>
+      </c>
+      <c r="H57" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8">
+      <c r="G58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8">
+      <c r="G60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8">
+      <c r="G62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8">
+      <c r="F63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8">
+      <c r="E64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7">
+      <c r="D66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7">
+      <c r="D68" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7">
+      <c r="D69" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7">
+      <c r="D70" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7">
+      <c r="D75" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7">
+      <c r="E76" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7">
+      <c r="E77" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7">
+      <c r="F78" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7">
+      <c r="G79" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7">
+      <c r="F80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="E81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="D83" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5">
+      <c r="D88" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5">
+      <c r="D91" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5">
+      <c r="D92" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5">
+      <c r="D93" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5">
+      <c r="D96" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5">
+      <c r="D101" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5">
+      <c r="E102" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5">
+      <c r="D103" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5">
+      <c r="E104" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5">
+      <c r="D105" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5">
+      <c r="E106" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5">
+      <c r="E107" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5">
+      <c r="E108" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5">
+      <c r="E111" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5">
+      <c r="D112" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6">
+      <c r="E113" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6">
+      <c r="E114" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6">
+      <c r="F115" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6">
+      <c r="F116" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6">
+      <c r="F117" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6">
+      <c r="F119" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6">
+      <c r="E120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6">
+      <c r="D121" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T200"/>
   <sheetViews>
     <sheetView topLeftCell="A178" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -15634,7 +16175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P157"/>
   <sheetViews>
@@ -17672,7 +18213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:C67"/>
   <sheetViews>
@@ -17935,7 +18476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
@@ -19270,7 +19811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P229"/>
   <sheetViews>
@@ -20833,7 +21374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V272"/>
   <sheetViews>
@@ -22469,7 +23010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E3:E15"/>
   <sheetViews>
@@ -22539,7 +23080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N91"/>
   <sheetViews>
@@ -22986,7 +23527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C105"/>
   <sheetViews>
@@ -23464,321 +24005,6 @@
     <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>943</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G93"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G94"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="B42" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="B61" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="B69" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="C70" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="B71" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="G91" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="B93" t="s">
-        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -25156,6 +25382,321 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="C70" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="G91" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="B93" t="s">
+        <v>992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R293"/>
   <sheetViews>
@@ -25226,7 +25767,7 @@
       </c>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
-      <c r="N3" s="336" t="s">
+      <c r="N3" s="342" t="s">
         <v>2980</v>
       </c>
       <c r="O3" s="51"/>
@@ -25255,7 +25796,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="50"/>
       <c r="M4" s="51"/>
-      <c r="N4" s="337"/>
+      <c r="N4" s="335"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -25281,7 +25822,7 @@
       <c r="M5" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="N5" s="337"/>
+      <c r="N5" s="335"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -25303,7 +25844,7 @@
       <c r="M6" s="54">
         <v>12345</v>
       </c>
-      <c r="N6" s="337"/>
+      <c r="N6" s="335"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -25321,7 +25862,7 @@
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
-      <c r="N7" s="337"/>
+      <c r="N7" s="335"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -25341,7 +25882,7 @@
       </c>
       <c r="L8" s="47"/>
       <c r="M8" s="48"/>
-      <c r="N8" s="337"/>
+      <c r="N8" s="335"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -25359,7 +25900,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="50"/>
       <c r="M9" s="51"/>
-      <c r="N9" s="337"/>
+      <c r="N9" s="335"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -25376,7 +25917,7 @@
       <c r="M10" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="N10" s="337"/>
+      <c r="N10" s="335"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
@@ -25396,7 +25937,7 @@
       <c r="M11" s="54">
         <v>12346</v>
       </c>
-      <c r="N11" s="338"/>
+      <c r="N11" s="336"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
@@ -28719,7 +29260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P284"/>
   <sheetViews>
@@ -31731,7 +32272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O366"/>
   <sheetViews>
@@ -35362,7 +35903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W353"/>
   <sheetViews>
@@ -37577,7 +38118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:P245"/>
   <sheetViews>
@@ -37726,24 +38267,24 @@
     <row r="17" spans="1:14" s="108" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="339" t="s">
+      <c r="B22" s="343" t="s">
         <v>1251</v>
       </c>
-      <c r="C22" s="339"/>
+      <c r="C22" s="343"/>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
-      <c r="F22" s="339" t="s">
+      <c r="F22" s="343" t="s">
         <v>1355</v>
       </c>
-      <c r="G22" s="339"/>
-      <c r="H22" s="339"/>
+      <c r="G22" s="343"/>
+      <c r="H22" s="343"/>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="339" t="s">
+      <c r="K22" s="343" t="s">
         <v>1253</v>
       </c>
-      <c r="L22" s="339"/>
-      <c r="M22" s="339"/>
+      <c r="L22" s="343"/>
+      <c r="M22" s="343"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -40127,7 +40668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF304"/>
   <sheetViews>
@@ -40301,35 +40842,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="341" t="s">
+      <c r="B8" s="345" t="s">
         <v>3070</v>
       </c>
-      <c r="C8" s="341"/>
-      <c r="F8" s="341" t="s">
+      <c r="C8" s="345"/>
+      <c r="F8" s="345" t="s">
         <v>3071</v>
       </c>
-      <c r="G8" s="341"/>
-      <c r="I8" s="341" t="s">
+      <c r="G8" s="345"/>
+      <c r="I8" s="345" t="s">
         <v>3071</v>
       </c>
-      <c r="J8" s="341"/>
+      <c r="J8" s="345"/>
       <c r="M8" s="249" t="s">
         <v>3128</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="341" t="s">
+      <c r="F9" s="345" t="s">
         <v>3072</v>
       </c>
-      <c r="G9" s="341"/>
-      <c r="I9" s="341" t="s">
+      <c r="G9" s="345"/>
+      <c r="I9" s="345" t="s">
         <v>3073</v>
       </c>
-      <c r="J9" s="341"/>
-      <c r="M9" s="342" t="s">
+      <c r="J9" s="345"/>
+      <c r="M9" s="346" t="s">
         <v>3071</v>
       </c>
-      <c r="N9" s="342"/>
+      <c r="N9" s="346"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="314" t="s">
@@ -40338,19 +40879,19 @@
       <c r="N10" s="314"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="340" t="s">
+      <c r="E11" s="344" t="s">
         <v>3075</v>
       </c>
-      <c r="F11" s="340"/>
-      <c r="G11" s="340"/>
-      <c r="H11" s="340"/>
-      <c r="I11" s="340"/>
-      <c r="J11" s="340"/>
-      <c r="K11" s="340"/>
-      <c r="L11" s="340"/>
-      <c r="M11" s="340"/>
-      <c r="N11" s="340"/>
-      <c r="O11" s="340"/>
+      <c r="F11" s="344"/>
+      <c r="G11" s="344"/>
+      <c r="H11" s="344"/>
+      <c r="I11" s="344"/>
+      <c r="J11" s="344"/>
+      <c r="K11" s="344"/>
+      <c r="L11" s="344"/>
+      <c r="M11" s="344"/>
+      <c r="N11" s="344"/>
+      <c r="O11" s="344"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -43650,7 +44191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:U125"/>
   <sheetViews>
@@ -43973,7 +44514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S54"/>
   <sheetViews>
@@ -44110,11 +44651,11 @@
       <c r="L6" s="43" t="s">
         <v>1527</v>
       </c>
-      <c r="M6" s="343" t="s">
+      <c r="M6" s="347" t="s">
         <v>1528</v>
       </c>
-      <c r="N6" s="343"/>
-      <c r="O6" s="343"/>
+      <c r="N6" s="347"/>
+      <c r="O6" s="347"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -44522,7 +45063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L85"/>
   <sheetViews>
@@ -44880,8 +45421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121:J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45641,10 +46182,10 @@
       </c>
       <c r="G121" s="30"/>
       <c r="H121" s="31"/>
-      <c r="I121" s="344" t="s">
+      <c r="I121" s="334" t="s">
         <v>3245</v>
       </c>
-      <c r="J121" s="344" t="s">
+      <c r="J121" s="334" t="s">
         <v>3249</v>
       </c>
       <c r="K121" s="27"/>
@@ -45660,8 +46201,8 @@
       <c r="H122" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="I122" s="337"/>
-      <c r="J122" s="337"/>
+      <c r="I122" s="335"/>
+      <c r="J122" s="335"/>
       <c r="K122" s="27"/>
       <c r="L122" s="27"/>
       <c r="M122" s="34"/>
@@ -45675,8 +46216,8 @@
       <c r="H123" s="27">
         <v>19</v>
       </c>
-      <c r="I123" s="337"/>
-      <c r="J123" s="337"/>
+      <c r="I123" s="335"/>
+      <c r="J123" s="335"/>
       <c r="K123" s="27"/>
       <c r="L123" s="27"/>
       <c r="M123" s="34"/>
@@ -45690,8 +46231,8 @@
       <c r="H124" s="36" t="s">
         <v>2160</v>
       </c>
-      <c r="I124" s="337"/>
-      <c r="J124" s="337"/>
+      <c r="I124" s="335"/>
+      <c r="J124" s="335"/>
       <c r="K124" s="27"/>
       <c r="L124" s="27"/>
       <c r="M124" s="34"/>
@@ -45701,8 +46242,8 @@
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
-      <c r="I125" s="337"/>
-      <c r="J125" s="337"/>
+      <c r="I125" s="335"/>
+      <c r="J125" s="335"/>
       <c r="K125" s="27"/>
       <c r="L125" s="27"/>
       <c r="M125" s="34"/>
@@ -45715,8 +46256,8 @@
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
-      <c r="I126" s="337"/>
-      <c r="J126" s="337"/>
+      <c r="I126" s="335"/>
+      <c r="J126" s="335"/>
       <c r="K126" s="27"/>
       <c r="L126" s="27"/>
       <c r="M126" s="34"/>
@@ -45728,8 +46269,8 @@
       </c>
       <c r="G127" s="30"/>
       <c r="H127" s="31"/>
-      <c r="I127" s="337"/>
-      <c r="J127" s="337"/>
+      <c r="I127" s="335"/>
+      <c r="J127" s="335"/>
       <c r="K127" s="27"/>
       <c r="L127" s="27"/>
       <c r="M127" s="34"/>
@@ -45743,8 +46284,8 @@
       <c r="H128" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I128" s="337"/>
-      <c r="J128" s="337"/>
+      <c r="I128" s="335"/>
+      <c r="J128" s="335"/>
       <c r="K128" s="27"/>
       <c r="L128" s="27"/>
       <c r="M128" s="34"/>
@@ -45758,8 +46299,8 @@
       <c r="H129" s="27">
         <v>20</v>
       </c>
-      <c r="I129" s="337"/>
-      <c r="J129" s="337"/>
+      <c r="I129" s="335"/>
+      <c r="J129" s="335"/>
       <c r="K129" s="27"/>
       <c r="L129" s="27"/>
       <c r="M129" s="34"/>
@@ -45773,8 +46314,8 @@
       <c r="H130" s="36" t="s">
         <v>3241</v>
       </c>
-      <c r="I130" s="337"/>
-      <c r="J130" s="337"/>
+      <c r="I130" s="335"/>
+      <c r="J130" s="335"/>
       <c r="K130" s="27"/>
       <c r="L130" s="27"/>
       <c r="M130" s="34"/>
@@ -45784,8 +46325,8 @@
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
-      <c r="I131" s="337"/>
-      <c r="J131" s="337"/>
+      <c r="I131" s="335"/>
+      <c r="J131" s="335"/>
       <c r="K131" s="27"/>
       <c r="L131" s="27"/>
       <c r="M131" s="34"/>
@@ -45797,8 +46338,8 @@
       </c>
       <c r="G132" s="30"/>
       <c r="H132" s="31"/>
-      <c r="I132" s="337"/>
-      <c r="J132" s="337"/>
+      <c r="I132" s="335"/>
+      <c r="J132" s="335"/>
       <c r="K132" s="27"/>
       <c r="L132" s="27"/>
       <c r="M132" s="34"/>
@@ -45812,8 +46353,8 @@
       <c r="H133" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I133" s="337"/>
-      <c r="J133" s="337"/>
+      <c r="I133" s="335"/>
+      <c r="J133" s="335"/>
       <c r="K133" s="27"/>
       <c r="L133" s="27"/>
       <c r="M133" s="34"/>
@@ -45827,8 +46368,8 @@
       <c r="H134" s="27">
         <v>18</v>
       </c>
-      <c r="I134" s="337"/>
-      <c r="J134" s="337"/>
+      <c r="I134" s="335"/>
+      <c r="J134" s="335"/>
       <c r="K134" s="27"/>
       <c r="L134" s="27"/>
       <c r="M134" s="34"/>
@@ -45842,8 +46383,8 @@
       <c r="H135" s="36" t="s">
         <v>3242</v>
       </c>
-      <c r="I135" s="338"/>
-      <c r="J135" s="338"/>
+      <c r="I135" s="336"/>
+      <c r="J135" s="336"/>
       <c r="K135" s="27"/>
       <c r="L135" s="27"/>
       <c r="M135" s="34"/>
@@ -45923,8 +46464,8 @@
       <c r="H147" s="31" t="s">
         <v>3248</v>
       </c>
-      <c r="I147" s="345"/>
-      <c r="J147" s="345"/>
+      <c r="I147" s="337"/>
+      <c r="J147" s="337"/>
       <c r="K147" s="27"/>
       <c r="L147" s="27"/>
       <c r="M147" s="34"/>
@@ -45938,8 +46479,8 @@
       <c r="H148" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I148" s="346"/>
-      <c r="J148" s="346"/>
+      <c r="I148" s="338"/>
+      <c r="J148" s="338"/>
       <c r="K148" s="27"/>
       <c r="L148" s="27"/>
       <c r="M148" s="34"/>
@@ -45953,8 +46494,8 @@
       <c r="H149" s="27">
         <v>19</v>
       </c>
-      <c r="I149" s="346"/>
-      <c r="J149" s="346"/>
+      <c r="I149" s="338"/>
+      <c r="J149" s="338"/>
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
       <c r="M149" s="34"/>
@@ -45968,8 +46509,8 @@
       <c r="H150" s="36" t="s">
         <v>2160</v>
       </c>
-      <c r="I150" s="346"/>
-      <c r="J150" s="346"/>
+      <c r="I150" s="338"/>
+      <c r="J150" s="338"/>
       <c r="K150" s="27"/>
       <c r="L150" s="27"/>
       <c r="M150" s="34"/>
@@ -45979,8 +46520,8 @@
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
-      <c r="I151" s="346"/>
-      <c r="J151" s="346"/>
+      <c r="I151" s="338"/>
+      <c r="J151" s="338"/>
       <c r="K151" s="27"/>
       <c r="L151" s="27"/>
       <c r="M151" s="34"/>
@@ -45990,8 +46531,8 @@
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
-      <c r="I152" s="346"/>
-      <c r="J152" s="346"/>
+      <c r="I152" s="338"/>
+      <c r="J152" s="338"/>
       <c r="K152" s="27"/>
       <c r="L152" s="27"/>
       <c r="M152" s="34"/>
@@ -46007,8 +46548,8 @@
       <c r="H153" s="31" t="s">
         <v>3248</v>
       </c>
-      <c r="I153" s="346"/>
-      <c r="J153" s="346"/>
+      <c r="I153" s="338"/>
+      <c r="J153" s="338"/>
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
       <c r="M153" s="34"/>
@@ -46025,8 +46566,8 @@
       <c r="H154" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I154" s="346"/>
-      <c r="J154" s="346"/>
+      <c r="I154" s="338"/>
+      <c r="J154" s="338"/>
       <c r="K154" s="27"/>
       <c r="L154" s="27"/>
       <c r="M154" s="34"/>
@@ -46040,8 +46581,8 @@
       <c r="H155" s="27">
         <v>20</v>
       </c>
-      <c r="I155" s="346"/>
-      <c r="J155" s="346"/>
+      <c r="I155" s="338"/>
+      <c r="J155" s="338"/>
       <c r="K155" s="27"/>
       <c r="L155" s="27"/>
       <c r="M155" s="34"/>
@@ -46055,8 +46596,8 @@
       <c r="H156" s="36" t="s">
         <v>3241</v>
       </c>
-      <c r="I156" s="346"/>
-      <c r="J156" s="346"/>
+      <c r="I156" s="338"/>
+      <c r="J156" s="338"/>
       <c r="K156" s="27"/>
       <c r="L156" s="27"/>
       <c r="M156" s="34"/>
@@ -46066,8 +46607,8 @@
       <c r="F157" s="27"/>
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
-      <c r="I157" s="346"/>
-      <c r="J157" s="346"/>
+      <c r="I157" s="338"/>
+      <c r="J157" s="338"/>
       <c r="K157" s="27"/>
       <c r="L157" s="27"/>
       <c r="M157" s="34"/>
@@ -46083,8 +46624,8 @@
       <c r="H158" s="31" t="s">
         <v>3248</v>
       </c>
-      <c r="I158" s="346"/>
-      <c r="J158" s="346"/>
+      <c r="I158" s="338"/>
+      <c r="J158" s="338"/>
       <c r="K158" s="27"/>
       <c r="L158" s="27"/>
       <c r="M158" s="34"/>
@@ -46098,8 +46639,8 @@
       <c r="H159" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I159" s="346"/>
-      <c r="J159" s="346"/>
+      <c r="I159" s="338"/>
+      <c r="J159" s="338"/>
       <c r="K159" s="27"/>
       <c r="L159" s="27"/>
       <c r="M159" s="34"/>
@@ -46113,8 +46654,8 @@
       <c r="H160" s="27">
         <v>18</v>
       </c>
-      <c r="I160" s="346"/>
-      <c r="J160" s="346"/>
+      <c r="I160" s="338"/>
+      <c r="J160" s="338"/>
       <c r="K160" s="27"/>
       <c r="L160" s="27"/>
       <c r="M160" s="34"/>
@@ -46128,8 +46669,8 @@
       <c r="H161" s="36" t="s">
         <v>3242</v>
       </c>
-      <c r="I161" s="347"/>
-      <c r="J161" s="347"/>
+      <c r="I161" s="339"/>
+      <c r="J161" s="339"/>
       <c r="K161" s="27"/>
       <c r="L161" s="27"/>
       <c r="M161" s="34"/>
@@ -51110,10 +51651,375 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:13">
+      <c r="B2" s="350" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C2" s="351"/>
+      <c r="D2" s="352"/>
+      <c r="F2" s="350" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G2" s="351"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="352"/>
+      <c r="K2" s="350" t="s">
+        <v>3253</v>
+      </c>
+      <c r="L2" s="351"/>
+      <c r="M2" s="352"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="353"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="355"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="354"/>
+      <c r="H3" s="354"/>
+      <c r="I3" s="355"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="354"/>
+      <c r="M3" s="355"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="353"/>
+      <c r="C4" s="354"/>
+      <c r="D4" s="355"/>
+      <c r="F4" s="353"/>
+      <c r="G4" s="354"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="355"/>
+      <c r="K4" s="353"/>
+      <c r="L4" s="354"/>
+      <c r="M4" s="355"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="356" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="41">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="80"/>
+      <c r="G5" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="K5" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="356"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="80"/>
+      <c r="G6" s="39" t="s">
+        <v>3222</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>3252</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="K6" s="80" t="s">
+        <v>3222</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>3254</v>
+      </c>
+      <c r="M6" s="41"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="356"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="39" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D7" s="41">
+        <v>750</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="34"/>
+      <c r="K7" s="80" t="s">
+        <v>3264</v>
+      </c>
+      <c r="L7" s="39">
+        <v>50000</v>
+      </c>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="33"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="34"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="34"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="356" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="348" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C9" s="143"/>
+      <c r="D9" s="258"/>
+      <c r="F9" s="348" t="s">
+        <v>3258</v>
+      </c>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="258"/>
+      <c r="K9" s="348" t="s">
+        <v>3257</v>
+      </c>
+      <c r="L9" s="143"/>
+      <c r="M9" s="258"/>
+    </row>
+    <row r="10" spans="1:13" ht="30.75" customHeight="1">
+      <c r="A10" s="356"/>
+      <c r="B10" s="348"/>
+      <c r="C10" s="349" t="s">
+        <v>3260</v>
+      </c>
+      <c r="D10" s="258"/>
+      <c r="E10" t="s">
+        <v>3262</v>
+      </c>
+      <c r="F10" s="348"/>
+      <c r="G10" s="143" t="s">
+        <v>3263</v>
+      </c>
+      <c r="H10" s="258"/>
+      <c r="I10" s="258"/>
+      <c r="K10" s="348"/>
+      <c r="L10" s="143" t="s">
+        <v>3256</v>
+      </c>
+      <c r="M10" s="258"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="356"/>
+      <c r="B11" s="348"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="258"/>
+      <c r="F11" s="348"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="258" t="s">
+        <v>3259</v>
+      </c>
+      <c r="I11" s="258"/>
+      <c r="J11" t="s">
+        <v>3261</v>
+      </c>
+      <c r="K11" s="348"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="258" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="356"/>
+      <c r="B12" s="348"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="258"/>
+      <c r="F12" s="348"/>
+      <c r="G12" s="143" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="258"/>
+      <c r="I12" s="258"/>
+      <c r="K12" s="348"/>
+      <c r="L12" s="143" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" s="258"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="33"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="34"/>
+      <c r="F13" s="348"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="258" t="s">
+        <v>2210</v>
+      </c>
+      <c r="I13" s="258"/>
+      <c r="K13" s="348"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="258" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="87"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>3267</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3271</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="H19" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>3268</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>3269</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+      <c r="D24" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="43"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B27" s="43"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="34"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B28" s="43"/>
+      <c r="D28" s="357"/>
+      <c r="E28" s="358"/>
+      <c r="F28" s="359"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B29" s="43"/>
+      <c r="D29" s="357"/>
+      <c r="E29" s="358"/>
+      <c r="F29" s="359"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B30" s="43"/>
+      <c r="D30" s="357"/>
+      <c r="E30" s="358"/>
+      <c r="F30" s="359"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="43"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="D32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="F2:I4"/>
+    <mergeCell ref="K2:M4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R411"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51131,23 +52037,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="341" t="s">
         <v>2815</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="I1" s="335" t="s">
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="I1" s="341" t="s">
         <v>2827</v>
       </c>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
+      <c r="N1" s="341"/>
+      <c r="O1" s="341"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -51306,24 +52212,24 @@
       <c r="A12" s="328" t="s">
         <v>2829</v>
       </c>
-      <c r="B12" s="334"/>
-      <c r="C12" s="334"/>
-      <c r="D12" s="334"/>
-      <c r="E12" s="334"/>
-      <c r="F12" s="334"/>
-      <c r="G12" s="334"/>
+      <c r="B12" s="340"/>
+      <c r="C12" s="340"/>
+      <c r="D12" s="340"/>
+      <c r="E12" s="340"/>
+      <c r="F12" s="340"/>
+      <c r="G12" s="340"/>
       <c r="H12" s="329"/>
       <c r="I12" s="328" t="s">
         <v>2829</v>
       </c>
-      <c r="J12" s="334"/>
-      <c r="K12" s="334"/>
-      <c r="L12" s="334"/>
-      <c r="M12" s="334"/>
-      <c r="N12" s="334"/>
-      <c r="O12" s="334"/>
-      <c r="P12" s="334"/>
-      <c r="Q12" s="334"/>
+      <c r="J12" s="340"/>
+      <c r="K12" s="340"/>
+      <c r="L12" s="340"/>
+      <c r="M12" s="340"/>
+      <c r="N12" s="340"/>
+      <c r="O12" s="340"/>
+      <c r="P12" s="340"/>
+      <c r="Q12" s="340"/>
       <c r="R12" s="329"/>
     </row>
     <row r="13" spans="1:18">
@@ -51552,14 +52458,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="335" t="s">
+      <c r="A24" s="341" t="s">
         <v>2815</v>
       </c>
-      <c r="B24" s="335"/>
-      <c r="C24" s="335"/>
-      <c r="D24" s="335"/>
-      <c r="E24" s="335"/>
-      <c r="F24" s="335"/>
+      <c r="B24" s="341"/>
+      <c r="C24" s="341"/>
+      <c r="D24" s="341"/>
+      <c r="E24" s="341"/>
+      <c r="F24" s="341"/>
       <c r="H24" s="272" t="s">
         <v>2827</v>
       </c>
@@ -51569,11 +52475,11 @@
       <c r="L24" s="272"/>
       <c r="M24" s="272"/>
       <c r="N24" s="272"/>
-      <c r="P24" s="335" t="s">
+      <c r="P24" s="341" t="s">
         <v>2868</v>
       </c>
-      <c r="Q24" s="335"/>
-      <c r="R24" s="335"/>
+      <c r="Q24" s="341"/>
+      <c r="R24" s="341"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -51816,24 +52722,24 @@
       <c r="A35" s="328" t="s">
         <v>2869</v>
       </c>
-      <c r="B35" s="334"/>
-      <c r="C35" s="334"/>
-      <c r="D35" s="334"/>
-      <c r="E35" s="334"/>
-      <c r="F35" s="334"/>
-      <c r="G35" s="334"/>
+      <c r="B35" s="340"/>
+      <c r="C35" s="340"/>
+      <c r="D35" s="340"/>
+      <c r="E35" s="340"/>
+      <c r="F35" s="340"/>
+      <c r="G35" s="340"/>
       <c r="H35" s="329"/>
       <c r="I35" s="328" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="334"/>
-      <c r="K35" s="334"/>
-      <c r="L35" s="334"/>
-      <c r="M35" s="334"/>
-      <c r="N35" s="334"/>
-      <c r="O35" s="334"/>
-      <c r="P35" s="334"/>
-      <c r="Q35" s="334"/>
+      <c r="J35" s="340"/>
+      <c r="K35" s="340"/>
+      <c r="L35" s="340"/>
+      <c r="M35" s="340"/>
+      <c r="N35" s="340"/>
+      <c r="O35" s="340"/>
+      <c r="P35" s="340"/>
+      <c r="Q35" s="340"/>
       <c r="R35" s="329"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
@@ -55375,437 +56281,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:H121"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="4:6">
-      <c r="D3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6">
-      <c r="D4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6">
-      <c r="D6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="E7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6">
-      <c r="E8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6">
-      <c r="E10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="F11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6">
-      <c r="E12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6">
-      <c r="D14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="D15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="E21" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="E22" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="E28" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5">
-      <c r="E29" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5">
-      <c r="E31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5">
-      <c r="D32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="E40" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5">
-      <c r="D41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="D42" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="D43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5">
-      <c r="D44" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5">
-      <c r="D45" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5">
-      <c r="E46" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="D47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5">
-      <c r="D48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8">
-      <c r="D51" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8">
-      <c r="E52" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8">
-      <c r="F53" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8">
-      <c r="G54" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8">
-      <c r="G56" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8">
-      <c r="G57" t="s">
-        <v>371</v>
-      </c>
-      <c r="H57" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8">
-      <c r="G58" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8">
-      <c r="G60" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="62" spans="4:8">
-      <c r="G62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" spans="4:8">
-      <c r="F63" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="4:8">
-      <c r="E64" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="4:7">
-      <c r="D66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="4:7">
-      <c r="D68" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="69" spans="4:7">
-      <c r="D69" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="70" spans="4:7">
-      <c r="D70" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="75" spans="4:7">
-      <c r="D75" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="76" spans="4:7">
-      <c r="E76" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="77" spans="4:7">
-      <c r="E77" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="78" spans="4:7">
-      <c r="F78" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="79" spans="4:7">
-      <c r="G79" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="80" spans="4:7">
-      <c r="F80" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="4:5">
-      <c r="E81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5">
-      <c r="D82" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5">
-      <c r="D83" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5">
-      <c r="D88" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="91" spans="4:5">
-      <c r="D91" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="92" spans="4:5">
-      <c r="D92" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="93" spans="4:5">
-      <c r="D93" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="96" spans="4:5">
-      <c r="D96" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="101" spans="4:5">
-      <c r="D101" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="102" spans="4:5">
-      <c r="E102" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="103" spans="4:5">
-      <c r="D103" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="104" spans="4:5">
-      <c r="E104" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="105" spans="4:5">
-      <c r="D105" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="106" spans="4:5">
-      <c r="E106" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="107" spans="4:5">
-      <c r="E107" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="108" spans="4:5">
-      <c r="E108" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="111" spans="4:5">
-      <c r="E111" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="112" spans="4:5">
-      <c r="D112" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6">
-      <c r="E113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6">
-      <c r="E114" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6">
-      <c r="F115" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6">
-      <c r="F116" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6">
-      <c r="F117" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6">
-      <c r="F119" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6">
-      <c r="E120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6">
-      <c r="D121" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6035" uniqueCount="3196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6040" uniqueCount="3200">
   <si>
     <t>USER</t>
   </si>
@@ -8649,18 +8649,6 @@
     <t>per=m3.test(per,a);</t>
   </si>
   <si>
-    <t>12 &amp; 10</t>
-  </si>
-  <si>
-    <t>12 | 10</t>
-  </si>
-  <si>
-    <t>12 ^ 10</t>
-  </si>
-  <si>
-    <t>exclusive or</t>
-  </si>
-  <si>
     <t>Control flow</t>
   </si>
   <si>
@@ -9873,6 +9861,30 @@
   </si>
   <si>
     <t>BANK Locker</t>
+  </si>
+  <si>
+    <t>x==a</t>
+  </si>
+  <si>
+    <t>they are same but different addresses</t>
+  </si>
+  <si>
+    <t>p2==p3</t>
+  </si>
+  <si>
+    <t>5 &amp; 7</t>
+  </si>
+  <si>
+    <t>5 | 7</t>
+  </si>
+  <si>
+    <t>= 5</t>
+  </si>
+  <si>
+    <t>=7</t>
+  </si>
+  <si>
+    <t>5^ 7</t>
   </si>
 </sst>
 </file>
@@ -11111,6 +11123,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11177,6 +11218,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11220,38 +11264,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11563,7 +11575,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1">
       <c r="E1" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -11584,18 +11596,18 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="321" t="s">
+      <c r="H3" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="323"/>
+      <c r="I3" s="339"/>
+      <c r="J3" s="339"/>
+      <c r="K3" s="339"/>
+      <c r="L3" s="340"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
       <c r="E5" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -11611,20 +11623,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="324" t="s">
+      <c r="G6" s="341" t="s">
         <v>1590</v>
       </c>
-      <c r="H6" s="325"/>
+      <c r="H6" s="342"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="324" t="s">
+      <c r="J6" s="341" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="325"/>
+      <c r="K6" s="342"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="324" t="s">
+      <c r="M6" s="341" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="325"/>
+      <c r="N6" s="342"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="125" t="s">
@@ -11642,20 +11654,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="326" t="s">
+      <c r="G8" s="343" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="327"/>
+      <c r="H8" s="344"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="326" t="s">
+      <c r="J8" s="343" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="327"/>
+      <c r="K8" s="344"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="326" t="s">
+      <c r="M8" s="343" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="327"/>
+      <c r="N8" s="344"/>
       <c r="Q8" s="142"/>
     </row>
     <row r="9" spans="1:18">
@@ -11671,29 +11683,29 @@
       <c r="Q9" s="142"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="317" t="s">
+      <c r="F10" s="334" t="s">
         <v>2586</v>
       </c>
-      <c r="G10" s="318"/>
-      <c r="H10" s="318"/>
-      <c r="I10" s="318"/>
-      <c r="J10" s="318"/>
-      <c r="K10" s="318"/>
-      <c r="L10" s="318"/>
-      <c r="M10" s="318"/>
-      <c r="N10" s="318"/>
+      <c r="G10" s="335"/>
+      <c r="H10" s="335"/>
+      <c r="I10" s="335"/>
+      <c r="J10" s="335"/>
+      <c r="K10" s="335"/>
+      <c r="L10" s="335"/>
+      <c r="M10" s="335"/>
+      <c r="N10" s="335"/>
       <c r="Q10" s="142"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="319"/>
-      <c r="G11" s="320"/>
-      <c r="H11" s="320"/>
-      <c r="I11" s="320"/>
-      <c r="J11" s="320"/>
-      <c r="K11" s="320"/>
-      <c r="L11" s="320"/>
-      <c r="M11" s="320"/>
-      <c r="N11" s="320"/>
+      <c r="F11" s="336"/>
+      <c r="G11" s="337"/>
+      <c r="H11" s="337"/>
+      <c r="I11" s="337"/>
+      <c r="J11" s="337"/>
+      <c r="K11" s="337"/>
+      <c r="L11" s="337"/>
+      <c r="M11" s="337"/>
+      <c r="N11" s="337"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -11735,17 +11747,17 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
       <c r="D14" s="125"/>
-      <c r="F14" s="314" t="s">
-        <v>3011</v>
-      </c>
-      <c r="G14" s="315"/>
-      <c r="H14" s="315"/>
-      <c r="I14" s="315"/>
-      <c r="J14" s="315"/>
-      <c r="K14" s="315"/>
-      <c r="L14" s="315"/>
-      <c r="M14" s="315"/>
-      <c r="N14" s="316"/>
+      <c r="F14" s="331" t="s">
+        <v>3007</v>
+      </c>
+      <c r="G14" s="332"/>
+      <c r="H14" s="332"/>
+      <c r="I14" s="332"/>
+      <c r="J14" s="332"/>
+      <c r="K14" s="332"/>
+      <c r="L14" s="332"/>
+      <c r="M14" s="332"/>
+      <c r="N14" s="333"/>
     </row>
     <row r="15" spans="1:18">
       <c r="F15" s="139"/>
@@ -11780,10 +11792,10 @@
       <c r="M16" s="136"/>
       <c r="N16" s="18"/>
       <c r="P16" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="Q16" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="R16" t="s">
         <v>1131</v>
@@ -11835,10 +11847,10 @@
       </c>
       <c r="N19" s="18"/>
       <c r="P19" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="Q19" s="142" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="R19" t="s">
         <v>15</v>
@@ -11875,7 +11887,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
       <c r="P21" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="Q21" t="s">
         <v>2022</v>
@@ -11889,7 +11901,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
       <c r="J22" s="16" t="s">
-        <v>3039</v>
+        <v>3035</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="17"/>
@@ -11909,7 +11921,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
       <c r="J23" s="16" t="s">
-        <v>3040</v>
+        <v>3036</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="17"/>
@@ -11922,7 +11934,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
       <c r="J24" s="20" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="21"/>
@@ -11931,58 +11943,58 @@
     </row>
     <row r="25" spans="1:18">
       <c r="J25" t="s">
-        <v>3019</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="F27" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="G27" t="s">
         <v>177</v>
       </c>
       <c r="H27" t="s">
+        <v>3018</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3020</v>
+      </c>
+      <c r="J27" t="s">
         <v>3022</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>3024</v>
-      </c>
-      <c r="J27" t="s">
-        <v>3026</v>
-      </c>
-      <c r="K27" t="s">
-        <v>3028</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="F28" s="142" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="G28" t="s">
         <v>2652</v>
       </c>
       <c r="H28" t="s">
+        <v>3019</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3021</v>
+      </c>
+      <c r="J28" t="s">
         <v>3023</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>3025</v>
-      </c>
-      <c r="J28" t="s">
-        <v>3027</v>
-      </c>
-      <c r="K28" t="s">
-        <v>3029</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="G29" s="27" t="s">
-        <v>3037</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="G30" s="27"/>
       <c r="K30" t="s">
-        <v>3030</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -12049,22 +12061,22 @@
       <c r="E33" s="74"/>
       <c r="F33" s="74"/>
       <c r="G33" s="307" t="s">
+        <v>3027</v>
+      </c>
+      <c r="H33" s="132" t="s">
+        <v>3028</v>
+      </c>
+      <c r="I33" s="132" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J33" s="132" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K33" s="132" t="s">
         <v>3031</v>
       </c>
-      <c r="H33" s="132" t="s">
+      <c r="L33" s="132" t="s">
         <v>3032</v>
-      </c>
-      <c r="I33" s="132" t="s">
-        <v>3033</v>
-      </c>
-      <c r="J33" s="132" t="s">
-        <v>3034</v>
-      </c>
-      <c r="K33" s="132" t="s">
-        <v>3035</v>
-      </c>
-      <c r="L33" s="132" t="s">
-        <v>3036</v>
       </c>
       <c r="M33" s="132" t="s">
         <v>2572</v>
@@ -12076,7 +12088,7 @@
     </row>
     <row r="34" spans="1:17 16384:16384">
       <c r="E34" t="s">
-        <v>3068</v>
+        <v>3064</v>
       </c>
       <c r="G34" s="145">
         <v>0</v>
@@ -12103,15 +12115,15 @@
         <v>1</v>
       </c>
       <c r="P34" s="306" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="35" spans="1:17 16384:16384">
       <c r="C35" t="s">
-        <v>3038</v>
+        <v>3034</v>
       </c>
       <c r="G35" s="189" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="H35" s="189"/>
       <c r="I35" s="189"/>
@@ -12126,7 +12138,7 @@
     </row>
     <row r="36" spans="1:17 16384:16384">
       <c r="G36" s="189" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="H36" s="189"/>
       <c r="I36" s="189"/>
@@ -12141,7 +12153,7 @@
     </row>
     <row r="37" spans="1:17 16384:16384">
       <c r="G37" s="189" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="H37" s="189"/>
       <c r="I37" s="189"/>
@@ -12512,30 +12524,30 @@
     </row>
     <row r="68" spans="1:15">
       <c r="C68" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="G68" t="s">
-        <v>3044</v>
+        <v>3040</v>
       </c>
       <c r="K68" t="s">
-        <v>3043</v>
+        <v>3039</v>
       </c>
       <c r="O68" t="s">
-        <v>3042</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="C69" t="s">
-        <v>3046</v>
+        <v>3042</v>
       </c>
       <c r="G69" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="K69" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="O69" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -12555,7 +12567,7 @@
     <row r="71" spans="1:15">
       <c r="A71" s="185"/>
       <c r="B71" s="27" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="C71" s="76"/>
       <c r="E71" s="185"/>
@@ -12587,25 +12599,25 @@
     <row r="73" spans="1:15">
       <c r="A73" s="185"/>
       <c r="B73" s="27" t="s">
-        <v>3049</v>
+        <v>3045</v>
       </c>
       <c r="C73" s="76"/>
       <c r="E73" s="185" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="F73" s="27" t="s">
         <v>1604</v>
       </c>
       <c r="G73" s="76"/>
       <c r="I73" s="185" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="J73" s="27" t="s">
         <v>1604</v>
       </c>
       <c r="K73" s="76"/>
       <c r="M73" s="185" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="N73" s="27" t="s">
         <v>1604</v>
@@ -12619,21 +12631,21 @@
       </c>
       <c r="C74" s="76"/>
       <c r="E74" s="185" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="F74" s="39" t="s">
         <v>2586</v>
       </c>
       <c r="G74" s="76"/>
       <c r="I74" s="185" t="s">
-        <v>3058</v>
+        <v>3054</v>
       </c>
       <c r="J74" s="39" t="s">
         <v>1801</v>
       </c>
       <c r="K74" s="76"/>
       <c r="M74" s="185" t="s">
-        <v>3063</v>
+        <v>3059</v>
       </c>
       <c r="N74" s="39" t="s">
         <v>1800</v>
@@ -12645,21 +12657,21 @@
       <c r="B75" s="27"/>
       <c r="C75" s="76"/>
       <c r="E75" s="185" t="s">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="F75" s="27" t="s">
         <v>2589</v>
       </c>
       <c r="G75" s="76"/>
       <c r="I75" s="185" t="s">
-        <v>3059</v>
+        <v>3055</v>
       </c>
       <c r="J75" s="27" t="s">
         <v>2621</v>
       </c>
       <c r="K75" s="76"/>
       <c r="M75" s="185" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="N75" s="27" t="s">
         <v>1796</v>
@@ -12669,28 +12681,28 @@
     <row r="76" spans="1:15">
       <c r="A76" s="185"/>
       <c r="B76" s="38" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="C76" s="76"/>
       <c r="E76" s="185" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="F76" s="27" t="s">
         <v>1790</v>
       </c>
       <c r="G76" s="76"/>
       <c r="I76" s="185" t="s">
-        <v>3060</v>
+        <v>3056</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="K76" s="76"/>
       <c r="M76" s="185" t="s">
-        <v>3061</v>
+        <v>3057</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="O76" s="76"/>
     </row>
@@ -12710,23 +12722,23 @@
     </row>
     <row r="79" spans="1:15">
       <c r="E79" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="83" spans="2:17">
       <c r="C83" t="s">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="E83" t="s">
         <v>1792</v>
       </c>
       <c r="G83" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="84" spans="2:17">
       <c r="C84" t="s">
-        <v>3065</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="86" spans="2:17">
@@ -18294,7 +18306,7 @@
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57" t="s">
-        <v>2792</v>
+        <v>2788</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
@@ -18380,7 +18392,7 @@
         <v>576</v>
       </c>
       <c r="E7" s="127" t="s">
-        <v>2793</v>
+        <v>2789</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>589</v>
@@ -18471,7 +18483,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="127" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="61" t="s">
@@ -18588,7 +18600,7 @@
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="127" t="s">
-        <v>2799</v>
+        <v>2795</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>581</v>
@@ -18648,7 +18660,7 @@
         <v>1615</v>
       </c>
       <c r="I18" s="279" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
       <c r="J18" s="57"/>
       <c r="K18" s="57" t="s">
@@ -18676,7 +18688,7 @@
       <c r="G19" s="146"/>
       <c r="H19" s="149"/>
       <c r="I19" s="279" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
       <c r="J19" s="57"/>
       <c r="K19" s="67" t="s">
@@ -18701,7 +18713,7 @@
         <v>585</v>
       </c>
       <c r="F20" s="127" t="s">
-        <v>2796</v>
+        <v>2792</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="64" t="s">
@@ -18725,7 +18737,7 @@
         <v>586</v>
       </c>
       <c r="F21" s="127" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="65" t="s">
@@ -18749,7 +18761,7 @@
         <v>586</v>
       </c>
       <c r="D22" s="278" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
       <c r="E22" s="57" t="s">
         <v>575</v>
@@ -19603,7 +19615,7 @@
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="27" t="s">
-        <v>2805</v>
+        <v>2801</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>1433</v>
@@ -19656,7 +19668,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="B6" t="s">
-        <v>2800</v>
+        <v>2796</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="38" t="s">
@@ -19674,7 +19686,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="C7" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="27"/>
@@ -19746,7 +19758,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2802</v>
+        <v>2798</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="27"/>
@@ -19764,7 +19776,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" t="s">
-        <v>2803</v>
+        <v>2799</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="27"/>
@@ -19778,7 +19790,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>2804</v>
+        <v>2800</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="27"/>
@@ -21146,10 +21158,10 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="H2" t="s">
-        <v>2808</v>
+        <v>2804</v>
       </c>
       <c r="I2" t="s">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="J2" t="s">
         <v>761</v>
@@ -21157,17 +21169,17 @@
     </row>
     <row r="4" spans="2:13">
       <c r="H4" t="s">
-        <v>2810</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="H5" t="s">
-        <v>2811</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="H6" s="56" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
@@ -21179,12 +21191,12 @@
       <c r="D9" s="289"/>
       <c r="F9" s="30"/>
       <c r="G9" s="79" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
       <c r="H9" s="32"/>
       <c r="K9" s="287"/>
       <c r="L9" s="290" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
       <c r="M9" s="289"/>
     </row>
@@ -21226,13 +21238,13 @@
       <c r="C13" s="27"/>
       <c r="D13" s="34"/>
       <c r="E13" t="s">
-        <v>2816</v>
+        <v>2812</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="27"/>
       <c r="H13" s="34"/>
       <c r="J13" s="280" t="s">
-        <v>2817</v>
+        <v>2813</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="27"/>
@@ -21240,25 +21252,25 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="33" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="34" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="34" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="34" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -21275,17 +21287,17 @@
     <row r="16" spans="2:13">
       <c r="B16" s="33"/>
       <c r="C16" s="27" t="s">
-        <v>2815</v>
+        <v>2811</v>
       </c>
       <c r="D16" s="34"/>
       <c r="F16" s="33"/>
       <c r="G16" s="27" t="s">
-        <v>2815</v>
+        <v>2811</v>
       </c>
       <c r="H16" s="34"/>
       <c r="K16" s="33"/>
       <c r="L16" s="27" t="s">
-        <v>2815</v>
+        <v>2811</v>
       </c>
       <c r="M16" s="34"/>
     </row>
@@ -21371,7 +21383,7 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" t="s">
-        <v>2806</v>
+        <v>2802</v>
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="27" t="s">
@@ -21654,16 +21666,16 @@
     </row>
     <row r="78" spans="2:21">
       <c r="B78" t="s">
-        <v>2818</v>
+        <v>2814</v>
       </c>
       <c r="C78" t="s">
         <v>2675</v>
       </c>
       <c r="D78" t="s">
-        <v>2819</v>
+        <v>2815</v>
       </c>
       <c r="E78" t="s">
-        <v>2820</v>
+        <v>2816</v>
       </c>
       <c r="F78" t="s">
         <v>223</v>
@@ -21680,7 +21692,7 @@
     </row>
     <row r="79" spans="2:21">
       <c r="F79" t="s">
-        <v>2821</v>
+        <v>2817</v>
       </c>
       <c r="I79" t="s">
         <v>144</v>
@@ -21691,16 +21703,16 @@
     </row>
     <row r="80" spans="2:21">
       <c r="B80" t="s">
-        <v>2818</v>
+        <v>2814</v>
       </c>
       <c r="C80" t="s">
         <v>2675</v>
       </c>
       <c r="D80" t="s">
-        <v>2819</v>
+        <v>2815</v>
       </c>
       <c r="E80" t="s">
-        <v>2819</v>
+        <v>2815</v>
       </c>
       <c r="N80" t="s">
         <v>144</v>
@@ -21708,12 +21720,12 @@
     </row>
     <row r="81" spans="2:10">
       <c r="F81" t="s">
-        <v>2822</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="F82" t="s">
-        <v>2823</v>
+        <v>2819</v>
       </c>
       <c r="J82" t="s">
         <v>748</v>
@@ -21721,31 +21733,31 @@
     </row>
     <row r="83" spans="2:10">
       <c r="B83" t="s">
-        <v>2818</v>
+        <v>2814</v>
       </c>
       <c r="C83" t="s">
         <v>2675</v>
       </c>
       <c r="D83" t="s">
-        <v>2827</v>
+        <v>2823</v>
       </c>
       <c r="E83" t="s">
-        <v>2824</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="84" spans="2:10">
       <c r="F84" t="s">
-        <v>2825</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="85" spans="2:10">
       <c r="F85" t="s">
-        <v>2826</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="J87" t="s">
         <v>751</v>
@@ -23776,8 +23788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:S262"/>
   <sheetViews>
-    <sheetView topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="N212" sqref="N212:N214"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="M215" sqref="M215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24802,7 +24814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="4:15">
+    <row r="209" spans="4:14">
       <c r="D209" s="132" t="s">
         <v>2572</v>
       </c>
@@ -24819,21 +24831,13 @@
       <c r="K209" s="132" t="s">
         <v>2571</v>
       </c>
-      <c r="N209">
-        <v>1</v>
-      </c>
-      <c r="O209" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="4:15">
+    </row>
+    <row r="210" spans="4:14">
       <c r="D210" s="272"/>
       <c r="E210" s="272"/>
       <c r="F210" s="272"/>
       <c r="G210" s="272"/>
-      <c r="H210" s="276">
-        <v>1</v>
-      </c>
+      <c r="H210" s="276"/>
       <c r="I210" s="276">
         <v>1</v>
       </c>
@@ -24841,63 +24845,53 @@
         <v>0</v>
       </c>
       <c r="K210" s="276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L210" s="277">
-        <v>12</v>
-      </c>
-      <c r="N210" s="74">
-        <v>0</v>
-      </c>
-      <c r="O210" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="4:15">
+        <v>5</v>
+      </c>
+      <c r="N210" s="74"/>
+    </row>
+    <row r="211" spans="4:14">
       <c r="D211" s="57"/>
       <c r="E211" s="57"/>
       <c r="F211" s="57"/>
       <c r="G211" s="57"/>
-      <c r="H211" s="277">
+      <c r="H211" s="277"/>
+      <c r="I211" s="277">
         <v>1</v>
-      </c>
-      <c r="I211" s="277">
-        <v>0</v>
       </c>
       <c r="J211" s="277">
         <v>1</v>
       </c>
       <c r="K211" s="277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211" s="277">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="4:15">
-      <c r="H212" s="74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="4:14">
+      <c r="H212" s="74"/>
+      <c r="I212" s="74">
         <v>1</v>
-      </c>
-      <c r="I212" s="74">
-        <v>0</v>
       </c>
       <c r="J212" s="74">
         <v>0</v>
       </c>
       <c r="K212" s="74">
-        <v>0</v>
-      </c>
-      <c r="M212" t="s">
-        <v>2788</v>
-      </c>
-      <c r="N212" s="74">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="4:15">
-      <c r="H213" s="74">
         <v>1</v>
       </c>
+      <c r="L212" t="s">
+        <v>3195</v>
+      </c>
+      <c r="M212" s="163" t="s">
+        <v>3197</v>
+      </c>
+      <c r="N212" s="74"/>
+    </row>
+    <row r="213" spans="4:14">
+      <c r="H213" s="74"/>
       <c r="I213" s="74">
         <v>1</v>
       </c>
@@ -24905,21 +24899,20 @@
         <v>1</v>
       </c>
       <c r="K213" s="74">
+        <v>1</v>
+      </c>
+      <c r="L213" t="s">
+        <v>3196</v>
+      </c>
+      <c r="M213" s="163" t="s">
+        <v>3198</v>
+      </c>
+      <c r="N213" s="74"/>
+    </row>
+    <row r="214" spans="4:14">
+      <c r="H214" s="74"/>
+      <c r="I214" s="57">
         <v>0</v>
-      </c>
-      <c r="M213" t="s">
-        <v>2789</v>
-      </c>
-      <c r="N213" s="74">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="4:15">
-      <c r="H214" s="74">
-        <v>0</v>
-      </c>
-      <c r="I214" s="57">
-        <v>1</v>
       </c>
       <c r="J214" s="57">
         <v>1</v>
@@ -24927,17 +24920,14 @@
       <c r="K214" s="74">
         <v>0</v>
       </c>
-      <c r="M214" t="s">
-        <v>2790</v>
-      </c>
-      <c r="N214" s="74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="4:15">
-      <c r="N217" t="s">
-        <v>2791</v>
-      </c>
+      <c r="L214" t="s">
+        <v>3199</v>
+      </c>
+      <c r="M214">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="N214" s="74"/>
     </row>
     <row r="246" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="247" spans="3:14">
@@ -25477,15 +25467,15 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1" s="96" t="s">
-        <v>2829</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
       <c r="A2" s="96" t="s">
-        <v>2840</v>
+        <v>2836</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>2838</v>
+        <v>2834</v>
       </c>
       <c r="C2" s="96"/>
       <c r="E2" s="57" t="s">
@@ -25505,14 +25495,14 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="96" t="s">
-        <v>2839</v>
+        <v>2835</v>
       </c>
       <c r="B3" s="96" t="s">
         <v>460</v>
       </c>
       <c r="C3" s="96"/>
       <c r="E3" s="57" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
       <c r="G3" s="50"/>
       <c r="H3" s="51" t="s">
@@ -25527,8 +25517,8 @@
       </c>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
-      <c r="N3" s="345" t="s">
-        <v>2844</v>
+      <c r="N3" s="363" t="s">
+        <v>2840</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
@@ -25536,18 +25526,18 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="96" t="s">
-        <v>2839</v>
+        <v>2835</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>2830</v>
+        <v>2826</v>
       </c>
       <c r="C4" s="96"/>
       <c r="E4" s="57" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="51" t="s">
-        <v>2835</v>
+        <v>2831</v>
       </c>
       <c r="I4" s="51" t="s">
         <v>413</v>
@@ -25556,7 +25546,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="50"/>
       <c r="M4" s="51"/>
-      <c r="N4" s="331"/>
+      <c r="N4" s="348"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -25564,12 +25554,12 @@
     <row r="5" spans="1:17">
       <c r="A5" s="96"/>
       <c r="B5" s="96" t="s">
-        <v>2831</v>
+        <v>2827</v>
       </c>
       <c r="C5" s="96"/>
       <c r="G5" s="50"/>
       <c r="H5" s="51" t="s">
-        <v>2837</v>
+        <v>2833</v>
       </c>
       <c r="I5" s="51" t="s">
         <v>1909</v>
@@ -25582,7 +25572,7 @@
       <c r="M5" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="N5" s="331"/>
+      <c r="N5" s="348"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -25599,12 +25589,12 @@
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
       <c r="L6" s="53" t="s">
-        <v>2836</v>
+        <v>2832</v>
       </c>
       <c r="M6" s="54">
         <v>12345</v>
       </c>
-      <c r="N6" s="331"/>
+      <c r="N6" s="348"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -25613,7 +25603,7 @@
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96" t="s">
-        <v>2832</v>
+        <v>2828</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="51"/>
@@ -25622,7 +25612,7 @@
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
-      <c r="N7" s="331"/>
+      <c r="N7" s="348"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -25642,7 +25632,7 @@
       </c>
       <c r="L8" s="47"/>
       <c r="M8" s="48"/>
-      <c r="N8" s="331"/>
+      <c r="N8" s="348"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -25660,7 +25650,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="50"/>
       <c r="M9" s="51"/>
-      <c r="N9" s="331"/>
+      <c r="N9" s="348"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -25677,14 +25667,14 @@
       <c r="M10" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="N10" s="331"/>
+      <c r="N10" s="348"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
       <c r="C11" s="57" t="s">
-        <v>2833</v>
+        <v>2829</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="51"/>
@@ -25692,19 +25682,19 @@
       <c r="J11" s="51"/>
       <c r="K11" s="51"/>
       <c r="L11" s="53" t="s">
-        <v>2836</v>
+        <v>2832</v>
       </c>
       <c r="M11" s="54">
         <v>12346</v>
       </c>
-      <c r="N11" s="332"/>
+      <c r="N11" s="349"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
     </row>
     <row r="12" spans="1:17">
       <c r="C12" s="57" t="s">
-        <v>2834</v>
+        <v>2830</v>
       </c>
       <c r="G12" s="50"/>
       <c r="H12" s="51"/>
@@ -25720,7 +25710,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="57" t="s">
-        <v>2841</v>
+        <v>2837</v>
       </c>
       <c r="G13" s="50"/>
       <c r="H13" s="51"/>
@@ -25736,7 +25726,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="57" t="s">
-        <v>2842</v>
+        <v>2838</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>2676</v>
@@ -25755,7 +25745,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="57" t="s">
-        <v>2843</v>
+        <v>2839</v>
       </c>
       <c r="D15" s="57" t="s">
         <v>2676</v>
@@ -25787,7 +25777,7 @@
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="57" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
       <c r="G17" s="50"/>
       <c r="H17" s="51"/>
@@ -25803,7 +25793,7 @@
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="57" t="s">
-        <v>2847</v>
+        <v>2843</v>
       </c>
       <c r="D18" s="57" t="s">
         <v>559</v>
@@ -25822,7 +25812,7 @@
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="57" t="s">
-        <v>2848</v>
+        <v>2844</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>524</v>
@@ -29037,10 +29027,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>2849</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>2853</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>413</v>
@@ -29055,10 +29045,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="A2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>2850</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>2854</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>1909</v>
@@ -29075,10 +29065,10 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" t="s">
+        <v>2847</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>2851</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>2855</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>2566</v>
@@ -29091,7 +29081,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="G4" s="33" t="s">
-        <v>2858</v>
+        <v>2854</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>417</v>
@@ -29119,7 +29109,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="G6" s="33" t="s">
-        <v>2856</v>
+        <v>2852</v>
       </c>
       <c r="H6" s="292">
         <v>0</v>
@@ -29134,7 +29124,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2852</v>
+        <v>2848</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="292">
@@ -29152,10 +29142,10 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" t="s">
-        <v>2859</v>
+        <v>2855</v>
       </c>
       <c r="D8" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="292">
@@ -29175,7 +29165,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2860</v>
+        <v>2856</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="292">
@@ -29191,7 +29181,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>2861</v>
+        <v>2857</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="292">
@@ -29207,7 +29197,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
@@ -29219,7 +29209,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2857</v>
+        <v>2853</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="27"/>
@@ -29240,7 +29230,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
-        <v>2863</v>
+        <v>2859</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="27"/>
@@ -29252,7 +29242,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" t="s">
-        <v>2864</v>
+        <v>2860</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="27"/>
@@ -29291,7 +29281,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>2866</v>
+        <v>2862</v>
       </c>
       <c r="E22" t="s">
         <v>1872</v>
@@ -29299,7 +29289,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57">
@@ -29341,10 +29331,10 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
       <c r="D29" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="E29" s="129">
         <v>0</v>
@@ -29353,7 +29343,7 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="I29" s="129">
         <v>0</v>
@@ -29364,7 +29354,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
       <c r="E30" s="129">
         <v>1</v>
@@ -29381,7 +29371,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="E31" s="129">
         <v>2</v>
@@ -29398,7 +29388,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
       <c r="E32" s="129">
         <v>3</v>
@@ -29415,7 +29405,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
       <c r="E33" s="129">
         <v>4</v>
@@ -29432,15 +29422,15 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="E35" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1"/>
@@ -32081,7 +32071,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
       <c r="F4" s="50" t="s">
         <v>549</v>
@@ -32099,7 +32089,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
       <c r="F5" s="50" t="s">
         <v>550</v>
@@ -32139,7 +32129,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
       <c r="F7" s="50" t="s">
         <v>1141</v>
@@ -32174,10 +32164,10 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" t="s">
-        <v>2907</v>
+        <v>2903</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>2673</v>
@@ -32240,7 +32230,7 @@
       <c r="J12" s="27"/>
       <c r="K12" s="33"/>
       <c r="L12" s="38" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
@@ -32277,18 +32267,18 @@
     </row>
     <row r="17" spans="1:15">
       <c r="G17" t="s">
+        <v>2879</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2882</v>
+      </c>
+      <c r="K17" t="s">
         <v>2883</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2886</v>
-      </c>
-      <c r="K17" t="s">
-        <v>2887</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="K18" s="56" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="56"/>
@@ -32297,7 +32287,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
@@ -32315,7 +32305,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="27"/>
@@ -32323,7 +32313,7 @@
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="294" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="32"/>
@@ -32331,13 +32321,13 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="C23" s="50" t="s">
         <v>549</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
@@ -32346,14 +32336,14 @@
         <v>1866</v>
       </c>
       <c r="I23" s="244" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>2891</v>
+        <v>2887</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>2126</v>
@@ -32375,7 +32365,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1">
       <c r="A25" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="38"/>
@@ -32398,7 +32388,7 @@
         <v>413</v>
       </c>
       <c r="F26" s="298" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="295" t="s">
@@ -32420,14 +32410,14 @@
         <v>2568</v>
       </c>
       <c r="I27" s="244" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="38"/>
@@ -32435,27 +32425,27 @@
       <c r="F28" s="38"/>
       <c r="G28" s="27"/>
       <c r="H28" s="295" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="I28" s="243" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="27"/>
       <c r="H29" s="295" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="I29" s="244" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
@@ -32470,7 +32460,7 @@
       <c r="F30" s="38"/>
       <c r="G30" s="27"/>
       <c r="H30" s="295" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
       <c r="I30" s="244"/>
       <c r="J30" s="34"/>
@@ -32484,7 +32474,7 @@
       <c r="F31" s="38"/>
       <c r="G31" s="27"/>
       <c r="H31" s="295" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="I31" s="243"/>
       <c r="J31" s="34"/>
@@ -32519,7 +32509,7 @@
     </row>
     <row r="36" spans="2:15">
       <c r="B36" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="37" spans="2:15">
@@ -37745,7 +37735,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="B333" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
       <c r="F333" s="33"/>
       <c r="G333" s="27" t="s">
@@ -37828,7 +37818,7 @@
     </row>
     <row r="340" spans="2:12">
       <c r="B340" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="D340" t="s">
         <v>412</v>
@@ -37843,7 +37833,7 @@
     </row>
     <row r="341" spans="2:12">
       <c r="B341" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
       <c r="F341" s="33"/>
       <c r="G341" s="27"/>
@@ -37913,59 +37903,59 @@
     </row>
     <row r="4" spans="2:13">
       <c r="C4" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="I4" t="s">
-        <v>2924</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="C5" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="I5" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
       <c r="K5" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="G6" t="s">
-        <v>2923</v>
+        <v>2919</v>
       </c>
       <c r="K6" t="s">
-        <v>2922</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="G7" s="43"/>
       <c r="I7" s="43" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="C8" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="G8" s="43"/>
       <c r="I8" s="43" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="K8" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -37977,7 +37967,7 @@
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -37998,7 +37988,7 @@
     <row r="11" spans="2:13">
       <c r="G11" s="43"/>
       <c r="I11" s="43" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
       <c r="K11" t="s">
         <v>2145</v>
@@ -38021,30 +38011,30 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="108" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="346" t="s">
+      <c r="B22" s="364" t="s">
         <v>1251</v>
       </c>
-      <c r="C22" s="346"/>
+      <c r="C22" s="364"/>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
-      <c r="F22" s="346" t="s">
+      <c r="F22" s="364" t="s">
         <v>1355</v>
       </c>
-      <c r="G22" s="346"/>
-      <c r="H22" s="346"/>
+      <c r="G22" s="364"/>
+      <c r="H22" s="364"/>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="346" t="s">
+      <c r="K22" s="364" t="s">
         <v>1253</v>
       </c>
-      <c r="L22" s="346"/>
-      <c r="M22" s="346"/>
+      <c r="L22" s="364"/>
+      <c r="M22" s="364"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -38066,7 +38056,7 @@
     <row r="24" spans="1:14">
       <c r="A24" s="106"/>
       <c r="B24" s="84" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="106"/>
@@ -38124,7 +38114,7 @@
       <c r="J26" s="106"/>
       <c r="K26" s="84"/>
       <c r="L26" s="175" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="M26" s="75"/>
       <c r="N26" s="106"/>
@@ -38132,7 +38122,7 @@
     <row r="27" spans="1:14">
       <c r="A27" s="106"/>
       <c r="B27" s="84" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="106"/>
@@ -38146,7 +38136,7 @@
       <c r="J27" s="106"/>
       <c r="K27" s="84"/>
       <c r="L27" s="175" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="M27" s="75"/>
       <c r="N27" s="106"/>
@@ -38154,7 +38144,7 @@
     <row r="28" spans="1:14">
       <c r="A28" s="106"/>
       <c r="B28" s="300" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="106"/>
@@ -38168,7 +38158,7 @@
       <c r="J28" s="106"/>
       <c r="K28" s="84"/>
       <c r="L28" s="175" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="M28" s="75"/>
       <c r="N28" s="106"/>
@@ -38176,7 +38166,7 @@
     <row r="29" spans="1:14">
       <c r="A29" s="106"/>
       <c r="B29" s="300" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="106"/>
@@ -38212,7 +38202,7 @@
       <c r="J30" s="106"/>
       <c r="K30" s="84"/>
       <c r="L30" s="243" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="M30" s="75"/>
       <c r="N30" s="106"/>
@@ -38220,7 +38210,7 @@
     <row r="31" spans="1:14" s="108" customFormat="1">
       <c r="A31" s="106"/>
       <c r="B31" s="84" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="106"/>
@@ -38250,7 +38240,7 @@
       <c r="J32" s="106"/>
       <c r="K32" s="84"/>
       <c r="L32" s="243" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="M32" s="75"/>
       <c r="N32" s="106"/>
@@ -38286,7 +38276,7 @@
       <c r="J34" s="106"/>
       <c r="K34" s="84"/>
       <c r="L34" s="175" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="M34" s="75"/>
       <c r="N34" s="106"/>
@@ -38304,7 +38294,7 @@
       <c r="J35" s="106"/>
       <c r="K35" s="84"/>
       <c r="L35" s="175" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="M35" s="75"/>
       <c r="N35" s="106"/>
@@ -38360,10 +38350,10 @@
     </row>
     <row r="40" spans="1:16">
       <c r="F40" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="H40" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="L40" s="241"/>
       <c r="P40" t="s">
@@ -40449,13 +40439,13 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="B1" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="C1" t="s">
         <v>2272</v>
       </c>
       <c r="F1" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="G1" t="s">
         <v>2272</v>
@@ -40469,7 +40459,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="B2" s="293">
         <v>0</v>
@@ -40595,84 +40585,84 @@
     </row>
     <row r="7" spans="1:31">
       <c r="M7" s="245" t="s">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="348" t="s">
-        <v>2934</v>
-      </c>
-      <c r="C8" s="348"/>
-      <c r="F8" s="348" t="s">
-        <v>2935</v>
-      </c>
-      <c r="G8" s="348"/>
-      <c r="I8" s="348" t="s">
-        <v>2935</v>
-      </c>
-      <c r="J8" s="348"/>
+      <c r="B8" s="366" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C8" s="366"/>
+      <c r="F8" s="366" t="s">
+        <v>2931</v>
+      </c>
+      <c r="G8" s="366"/>
+      <c r="I8" s="366" t="s">
+        <v>2931</v>
+      </c>
+      <c r="J8" s="366"/>
       <c r="M8" s="245" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="348" t="s">
-        <v>2936</v>
-      </c>
-      <c r="G9" s="348"/>
-      <c r="I9" s="348" t="s">
-        <v>2937</v>
-      </c>
-      <c r="J9" s="348"/>
-      <c r="M9" s="349" t="s">
-        <v>2935</v>
-      </c>
-      <c r="N9" s="349"/>
+      <c r="F9" s="366" t="s">
+        <v>2932</v>
+      </c>
+      <c r="G9" s="366"/>
+      <c r="I9" s="366" t="s">
+        <v>2933</v>
+      </c>
+      <c r="J9" s="366"/>
+      <c r="M9" s="367" t="s">
+        <v>2931</v>
+      </c>
+      <c r="N9" s="367"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="305" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
       <c r="N10" s="305"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="347" t="s">
-        <v>2939</v>
-      </c>
-      <c r="F11" s="347"/>
-      <c r="G11" s="347"/>
-      <c r="H11" s="347"/>
-      <c r="I11" s="347"/>
-      <c r="J11" s="347"/>
-      <c r="K11" s="347"/>
-      <c r="L11" s="347"/>
-      <c r="M11" s="347"/>
-      <c r="N11" s="347"/>
-      <c r="O11" s="347"/>
+      <c r="E11" s="365" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F11" s="365"/>
+      <c r="G11" s="365"/>
+      <c r="H11" s="365"/>
+      <c r="I11" s="365"/>
+      <c r="J11" s="365"/>
+      <c r="K11" s="365"/>
+      <c r="L11" s="365"/>
+      <c r="M11" s="365"/>
+      <c r="N11" s="365"/>
+      <c r="O11" s="365"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2938</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2939</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2940</v>
+      </c>
+      <c r="L13" t="s">
         <v>2941</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2942</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J13" t="s">
-        <v>2944</v>
-      </c>
-      <c r="L13" t="s">
-        <v>2945</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -40804,10 +40794,10 @@
     </row>
     <row r="19" spans="1:32">
       <c r="C19" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
       <c r="F19" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="L19" s="27"/>
       <c r="M19" s="43"/>
@@ -40846,7 +40836,7 @@
         <v>412</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
       <c r="M20" s="174"/>
       <c r="N20" s="27"/>
@@ -41015,7 +41005,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="F26" s="56" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="G26" s="56"/>
       <c r="M26" s="27"/>
@@ -41040,7 +41030,7 @@
     </row>
     <row r="27" spans="1:32">
       <c r="H27" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
@@ -41064,10 +41054,10 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -41091,7 +41081,7 @@
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="43" t="s">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
@@ -41115,16 +41105,16 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1">
       <c r="E30" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
       <c r="G30" s="159" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="I30" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
       <c r="K30" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -41149,7 +41139,7 @@
     <row r="31" spans="1:32">
       <c r="E31" s="26"/>
       <c r="G31" s="43" t="s">
-        <v>2954</v>
+        <v>2950</v>
       </c>
       <c r="I31" s="26"/>
       <c r="K31" s="26"/>
@@ -41175,13 +41165,13 @@
     </row>
     <row r="32" spans="1:32">
       <c r="E32" s="303" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="G32" s="43" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="I32" s="303" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="K32" s="303"/>
       <c r="M32" s="27"/>
@@ -41210,7 +41200,7 @@
     <row r="33" spans="1:32">
       <c r="E33" s="303"/>
       <c r="G33" s="43" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
       <c r="I33" s="303"/>
       <c r="K33" s="303"/>
@@ -41240,7 +41230,7 @@
     <row r="34" spans="1:32">
       <c r="E34" s="303"/>
       <c r="G34" s="43" t="s">
-        <v>2957</v>
+        <v>2953</v>
       </c>
       <c r="I34" s="303"/>
       <c r="K34" s="303"/>
@@ -41267,7 +41257,7 @@
     <row r="35" spans="1:32" ht="15.75" thickBot="1">
       <c r="E35" s="212"/>
       <c r="G35" s="43" t="s">
-        <v>2958</v>
+        <v>2954</v>
       </c>
       <c r="I35" s="212"/>
       <c r="K35" s="212"/>
@@ -41314,7 +41304,7 @@
     </row>
     <row r="37" spans="1:32">
       <c r="C37" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -41338,12 +41328,12 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="40" spans="1:32">
       <c r="M40" t="s">
-        <v>2970</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -41421,7 +41411,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>2967</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -41461,7 +41451,7 @@
         <v>99999999</v>
       </c>
       <c r="E45" s="131" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="G45">
         <v>99999999</v>
@@ -41481,7 +41471,7 @@
         <v>10000000</v>
       </c>
       <c r="C46" s="131" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="D46">
         <v>10000000</v>
@@ -41490,7 +41480,7 @@
         <v>10000000</v>
       </c>
       <c r="H46" s="131" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="I46">
         <v>10000000</v>
@@ -41501,15 +41491,15 @@
     </row>
     <row r="47" spans="1:32">
       <c r="J47" s="131" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="48" spans="1:32">
       <c r="C48" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="H48" t="s">
-        <v>2966</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -41673,7 +41663,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="56" t="s">
-        <v>2968</v>
+        <v>2964</v>
       </c>
       <c r="B62" s="56"/>
       <c r="N62" s="27"/>
@@ -41795,7 +41785,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="56" t="s">
-        <v>2969</v>
+        <v>2965</v>
       </c>
       <c r="B69" s="56"/>
       <c r="N69" s="27"/>
@@ -41870,10 +41860,10 @@
         <v>1866</v>
       </c>
       <c r="C72" s="196" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="E72" s="196" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="F72" t="s">
         <v>2442</v>
@@ -41916,7 +41906,7 @@
         <v>1866</v>
       </c>
       <c r="D75" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="E75" s="196" t="s">
         <v>2442</v>
@@ -41924,7 +41914,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="B77" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="C77" t="s">
         <v>2265</v>
@@ -41938,7 +41928,7 @@
         <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -41949,7 +41939,7 @@
         <v>80</v>
       </c>
       <c r="F79" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -41960,7 +41950,7 @@
         <v>20</v>
       </c>
       <c r="L80" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="81" spans="2:12">
@@ -41974,7 +41964,7 @@
         <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="K81" t="s">
         <v>48</v>
@@ -41987,7 +41977,7 @@
       <c r="B82" s="299"/>
       <c r="C82" s="299"/>
       <c r="F82" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="L82" s="299" t="s">
         <v>524</v>
@@ -42003,7 +41993,7 @@
     </row>
     <row r="84" spans="2:12">
       <c r="G84" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="L84" s="299" t="s">
         <v>1716</v>
@@ -42014,7 +42004,7 @@
         <v>49</v>
       </c>
       <c r="G85" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="L85">
         <v>50</v>
@@ -43970,7 +43960,7 @@
   <sheetData>
     <row r="2" spans="1:21">
       <c r="A2" s="27" t="s">
-        <v>2971</v>
+        <v>2967</v>
       </c>
       <c r="E2" s="121" t="s">
         <v>549</v>
@@ -43986,7 +43976,7 @@
         <v>413</v>
       </c>
       <c r="L2" s="121" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="M2" s="122" t="s">
         <v>1153</v>
@@ -43994,7 +43984,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="27" t="s">
-        <v>2972</v>
+        <v>2968</v>
       </c>
       <c r="E3" s="185" t="s">
         <v>550</v>
@@ -44012,7 +44002,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="27" t="s">
-        <v>2973</v>
+        <v>2969</v>
       </c>
       <c r="E4" s="185" t="s">
         <v>710</v>
@@ -44025,7 +44015,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="117" t="s">
-        <v>2974</v>
+        <v>2970</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="185" t="s">
@@ -44040,10 +44030,10 @@
         <v>1909</v>
       </c>
       <c r="L5" s="121" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="M5" s="122" t="s">
-        <v>2976</v>
+        <v>2972</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -44065,7 +44055,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="27" t="s">
-        <v>2978</v>
+        <v>2974</v>
       </c>
       <c r="E7" s="185"/>
       <c r="K7" s="117"/>
@@ -44083,10 +44073,10 @@
         <v>2567</v>
       </c>
       <c r="L8" s="121" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="M8" s="122" t="s">
-        <v>2977</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -44125,7 +44115,7 @@
         <v>2566</v>
       </c>
       <c r="L11" s="121" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="M11" s="122" t="s">
         <v>1153</v>
@@ -44134,7 +44124,7 @@
     <row r="12" spans="1:21">
       <c r="E12" s="185"/>
       <c r="G12" s="27" t="s">
-        <v>2981</v>
+        <v>2977</v>
       </c>
       <c r="K12" s="117"/>
       <c r="L12" s="123" t="s">
@@ -44146,45 +44136,45 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="38" t="s">
-        <v>2980</v>
+        <v>2976</v>
       </c>
       <c r="E13" s="185" t="s">
         <v>2364</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>2979</v>
+        <v>2975</v>
       </c>
       <c r="G13" s="132">
         <v>1</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>2988</v>
+        <v>2984</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="38" t="s">
-        <v>2983</v>
+        <v>2979</v>
       </c>
       <c r="C14" s="267" t="s">
-        <v>2982</v>
+        <v>2978</v>
       </c>
       <c r="E14" s="185"/>
       <c r="G14" s="132">
         <v>2</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="I14" s="43"/>
       <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="38" t="s">
-        <v>2984</v>
+        <v>2980</v>
       </c>
       <c r="E15" s="185"/>
       <c r="G15" s="132"/>
@@ -44194,7 +44184,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="38" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="E16" s="123"/>
       <c r="F16" s="252"/>
@@ -44208,7 +44198,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="38" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
       <c r="C17" s="27">
         <f>1</f>
@@ -44217,7 +44207,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="38" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -44411,11 +44401,11 @@
       <c r="L6" s="43" t="s">
         <v>1527</v>
       </c>
-      <c r="M6" s="350" t="s">
+      <c r="M6" s="368" t="s">
         <v>1528</v>
       </c>
-      <c r="N6" s="350"/>
-      <c r="O6" s="350"/>
+      <c r="N6" s="368"/>
+      <c r="O6" s="368"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -45584,36 +45574,36 @@
     <row r="91" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="92" spans="1:16">
       <c r="B92" s="30" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="C92" s="31"/>
       <c r="D92" s="32"/>
       <c r="F92" s="30" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="G92" s="31"/>
       <c r="H92" s="32"/>
       <c r="J92" s="30" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="K92" s="31"/>
       <c r="L92" s="32"/>
       <c r="N92" s="30" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="O92" s="31"/>
       <c r="P92" s="32"/>
     </row>
     <row r="93" spans="1:16">
       <c r="B93" s="33" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>3075</v>
+        <v>3071</v>
       </c>
       <c r="D93" s="34"/>
       <c r="F93" s="33" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="G93" s="27" t="s">
         <v>180</v>
@@ -45630,7 +45620,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>180</v>
@@ -45640,7 +45630,7 @@
       </c>
       <c r="D94" s="34"/>
       <c r="F94" s="33" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="G94" s="27" t="s">
         <v>184</v>
@@ -45649,7 +45639,7 @@
         <v>200</v>
       </c>
       <c r="J94" s="33" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="K94" s="27" t="s">
         <v>180</v>
@@ -45658,7 +45648,7 @@
         <v>58</v>
       </c>
       <c r="N94" s="33" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="O94" s="27" t="s">
         <v>180</v>
@@ -45669,38 +45659,38 @@
     </row>
     <row r="95" spans="1:16">
       <c r="B95" s="33" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="C95" s="27" t="s">
         <v>2144</v>
       </c>
       <c r="D95" s="34"/>
       <c r="F95" s="33" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="G95" s="27" t="s">
         <v>180</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="J95" s="33" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="K95" s="27" t="s">
         <v>180</v>
       </c>
       <c r="L95" s="34" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="N95" s="33" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="O95" s="27" t="s">
         <v>188</v>
       </c>
       <c r="P95" s="34" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -45708,14 +45698,14 @@
         <v>180</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="D96" s="34"/>
       <c r="F96" s="33"/>
       <c r="G96" s="27"/>
       <c r="H96" s="34"/>
       <c r="J96" s="33" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="K96" s="27" t="s">
         <v>185</v>
@@ -45724,10 +45714,10 @@
         <v>59</v>
       </c>
       <c r="N96" s="33" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="O96" s="27" t="s">
-        <v>3092</v>
+        <v>3088</v>
       </c>
       <c r="P96" s="34" t="s">
         <v>2600</v>
@@ -45735,27 +45725,27 @@
     </row>
     <row r="97" spans="1:16">
       <c r="B97" s="33" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="C97" s="38" t="s">
         <v>199</v>
       </c>
       <c r="D97" s="34"/>
       <c r="F97" s="33" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="H97" s="34"/>
       <c r="J97" s="33"/>
       <c r="K97" s="27"/>
       <c r="L97" s="34"/>
       <c r="N97" s="33" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="O97" s="38" t="s">
-        <v>3095</v>
+        <v>3091</v>
       </c>
       <c r="P97" s="34" t="s">
         <v>183</v>
@@ -45763,17 +45753,17 @@
     </row>
     <row r="98" spans="1:16" ht="15.75" thickBot="1">
       <c r="B98" s="35" t="s">
-        <v>3095</v>
+        <v>3091</v>
       </c>
       <c r="C98" s="36" t="s">
         <v>183</v>
       </c>
       <c r="D98" s="37"/>
       <c r="F98" s="35" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>3097</v>
+        <v>3093</v>
       </c>
       <c r="H98" s="37"/>
       <c r="J98" s="35"/>
@@ -45785,43 +45775,43 @@
     </row>
     <row r="99" spans="1:16" ht="15.75" thickBot="1">
       <c r="N99" s="84" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="O99" s="38" t="s">
-        <v>3102</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>3076</v>
+        <v>3072</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>3092</v>
+        <v>3088</v>
       </c>
       <c r="G100" s="31"/>
       <c r="H100" s="32"/>
       <c r="J100" s="30" t="s">
-        <v>3095</v>
+        <v>3091</v>
       </c>
       <c r="K100" s="31"/>
       <c r="L100" s="32"/>
       <c r="N100" s="84" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="O100" s="38" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="27" t="s">
         <v>188</v>
       </c>
       <c r="H101" s="34" t="s">
-        <v>3093</v>
+        <v>3089</v>
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="27" t="s">
@@ -45836,14 +45826,14 @@
         <v>2223</v>
       </c>
       <c r="C102" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="27" t="s">
         <v>180</v>
       </c>
       <c r="H102" s="34" t="s">
-        <v>3094</v>
+        <v>3090</v>
       </c>
       <c r="I102" s="40"/>
       <c r="J102" s="33"/>
@@ -45851,12 +45841,12 @@
         <v>184</v>
       </c>
       <c r="L102" s="34" t="s">
-        <v>3096</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="15.75" thickBot="1">
       <c r="B103" t="s">
-        <v>3078</v>
+        <v>3074</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="36" t="s">
@@ -45893,38 +45883,38 @@
     </row>
     <row r="106" spans="1:16">
       <c r="B106" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="B107" t="s">
-        <v>3080</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="B110" t="s">
-        <v>3082</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="B111" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="C112" t="s">
-        <v>3084</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="119" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="120" spans="2:13" ht="15.75" thickBot="1">
       <c r="E120" s="30" t="s">
-        <v>3104</v>
+        <v>3100</v>
       </c>
       <c r="F120" s="31"/>
       <c r="G120" s="31"/>
@@ -45942,11 +45932,11 @@
       </c>
       <c r="G121" s="30"/>
       <c r="H121" s="31"/>
-      <c r="I121" s="330" t="s">
+      <c r="I121" s="347" t="s">
+        <v>3105</v>
+      </c>
+      <c r="J121" s="347" t="s">
         <v>3109</v>
-      </c>
-      <c r="J121" s="330" t="s">
-        <v>3113</v>
       </c>
       <c r="K121" s="27"/>
       <c r="L121" s="27"/>
@@ -45961,8 +45951,8 @@
       <c r="H122" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="I122" s="331"/>
-      <c r="J122" s="331"/>
+      <c r="I122" s="348"/>
+      <c r="J122" s="348"/>
       <c r="K122" s="27"/>
       <c r="L122" s="27"/>
       <c r="M122" s="34"/>
@@ -45976,8 +45966,8 @@
       <c r="H123" s="27">
         <v>19</v>
       </c>
-      <c r="I123" s="331"/>
-      <c r="J123" s="331"/>
+      <c r="I123" s="348"/>
+      <c r="J123" s="348"/>
       <c r="K123" s="27"/>
       <c r="L123" s="27"/>
       <c r="M123" s="34"/>
@@ -45991,8 +45981,8 @@
       <c r="H124" s="36" t="s">
         <v>2117</v>
       </c>
-      <c r="I124" s="331"/>
-      <c r="J124" s="331"/>
+      <c r="I124" s="348"/>
+      <c r="J124" s="348"/>
       <c r="K124" s="27"/>
       <c r="L124" s="27"/>
       <c r="M124" s="34"/>
@@ -46002,22 +45992,22 @@
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
-      <c r="I125" s="331"/>
-      <c r="J125" s="331"/>
+      <c r="I125" s="348"/>
+      <c r="J125" s="348"/>
       <c r="K125" s="27"/>
       <c r="L125" s="27"/>
       <c r="M125" s="34"/>
     </row>
     <row r="126" spans="2:13" ht="15.75" thickBot="1">
       <c r="B126" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="E126" s="33"/>
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
-      <c r="I126" s="331"/>
-      <c r="J126" s="331"/>
+      <c r="I126" s="348"/>
+      <c r="J126" s="348"/>
       <c r="K126" s="27"/>
       <c r="L126" s="27"/>
       <c r="M126" s="34"/>
@@ -46025,12 +46015,12 @@
     <row r="127" spans="2:13">
       <c r="E127" s="33"/>
       <c r="F127" s="27" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
       <c r="G127" s="30"/>
       <c r="H127" s="31"/>
-      <c r="I127" s="331"/>
-      <c r="J127" s="331"/>
+      <c r="I127" s="348"/>
+      <c r="J127" s="348"/>
       <c r="K127" s="27"/>
       <c r="L127" s="27"/>
       <c r="M127" s="34"/>
@@ -46044,8 +46034,8 @@
       <c r="H128" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I128" s="331"/>
-      <c r="J128" s="331"/>
+      <c r="I128" s="348"/>
+      <c r="J128" s="348"/>
       <c r="K128" s="27"/>
       <c r="L128" s="27"/>
       <c r="M128" s="34"/>
@@ -46059,8 +46049,8 @@
       <c r="H129" s="27">
         <v>20</v>
       </c>
-      <c r="I129" s="331"/>
-      <c r="J129" s="331"/>
+      <c r="I129" s="348"/>
+      <c r="J129" s="348"/>
       <c r="K129" s="27"/>
       <c r="L129" s="27"/>
       <c r="M129" s="34"/>
@@ -46072,10 +46062,10 @@
         <v>194</v>
       </c>
       <c r="H130" s="36" t="s">
-        <v>3105</v>
-      </c>
-      <c r="I130" s="331"/>
-      <c r="J130" s="331"/>
+        <v>3101</v>
+      </c>
+      <c r="I130" s="348"/>
+      <c r="J130" s="348"/>
       <c r="K130" s="27"/>
       <c r="L130" s="27"/>
       <c r="M130" s="34"/>
@@ -46085,8 +46075,8 @@
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
-      <c r="I131" s="331"/>
-      <c r="J131" s="331"/>
+      <c r="I131" s="348"/>
+      <c r="J131" s="348"/>
       <c r="K131" s="27"/>
       <c r="L131" s="27"/>
       <c r="M131" s="34"/>
@@ -46094,12 +46084,12 @@
     <row r="132" spans="5:13">
       <c r="E132" s="33"/>
       <c r="F132" s="27" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="G132" s="30"/>
       <c r="H132" s="31"/>
-      <c r="I132" s="331"/>
-      <c r="J132" s="331"/>
+      <c r="I132" s="348"/>
+      <c r="J132" s="348"/>
       <c r="K132" s="27"/>
       <c r="L132" s="27"/>
       <c r="M132" s="34"/>
@@ -46113,8 +46103,8 @@
       <c r="H133" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I133" s="331"/>
-      <c r="J133" s="331"/>
+      <c r="I133" s="348"/>
+      <c r="J133" s="348"/>
       <c r="K133" s="27"/>
       <c r="L133" s="27"/>
       <c r="M133" s="34"/>
@@ -46128,8 +46118,8 @@
       <c r="H134" s="27">
         <v>18</v>
       </c>
-      <c r="I134" s="331"/>
-      <c r="J134" s="331"/>
+      <c r="I134" s="348"/>
+      <c r="J134" s="348"/>
       <c r="K134" s="27"/>
       <c r="L134" s="27"/>
       <c r="M134" s="34"/>
@@ -46141,10 +46131,10 @@
         <v>194</v>
       </c>
       <c r="H135" s="36" t="s">
-        <v>3106</v>
-      </c>
-      <c r="I135" s="332"/>
-      <c r="J135" s="332"/>
+        <v>3102</v>
+      </c>
+      <c r="I135" s="349"/>
+      <c r="J135" s="349"/>
       <c r="K135" s="27"/>
       <c r="L135" s="27"/>
       <c r="M135" s="34"/>
@@ -46163,14 +46153,14 @@
     <row r="137" spans="5:13">
       <c r="E137" s="33"/>
       <c r="F137" s="27" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="G137" s="38" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="27" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="J137" s="27"/>
       <c r="K137" s="27"/>
@@ -46202,7 +46192,7 @@
     <row r="145" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="146" spans="2:13" ht="15.75" thickBot="1">
       <c r="E146" s="30" t="s">
-        <v>3104</v>
+        <v>3100</v>
       </c>
       <c r="F146" s="31"/>
       <c r="G146" s="31"/>
@@ -46222,10 +46212,10 @@
         <v>2332</v>
       </c>
       <c r="H147" s="31" t="s">
-        <v>3112</v>
-      </c>
-      <c r="I147" s="333"/>
-      <c r="J147" s="333"/>
+        <v>3108</v>
+      </c>
+      <c r="I147" s="350"/>
+      <c r="J147" s="350"/>
       <c r="K147" s="27"/>
       <c r="L147" s="27"/>
       <c r="M147" s="34"/>
@@ -46239,8 +46229,8 @@
       <c r="H148" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I148" s="334"/>
-      <c r="J148" s="334"/>
+      <c r="I148" s="351"/>
+      <c r="J148" s="351"/>
       <c r="K148" s="27"/>
       <c r="L148" s="27"/>
       <c r="M148" s="34"/>
@@ -46254,8 +46244,8 @@
       <c r="H149" s="27">
         <v>19</v>
       </c>
-      <c r="I149" s="334"/>
-      <c r="J149" s="334"/>
+      <c r="I149" s="351"/>
+      <c r="J149" s="351"/>
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
       <c r="M149" s="34"/>
@@ -46269,8 +46259,8 @@
       <c r="H150" s="36" t="s">
         <v>2117</v>
       </c>
-      <c r="I150" s="334"/>
-      <c r="J150" s="334"/>
+      <c r="I150" s="351"/>
+      <c r="J150" s="351"/>
       <c r="K150" s="27"/>
       <c r="L150" s="27"/>
       <c r="M150" s="34"/>
@@ -46280,8 +46270,8 @@
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
-      <c r="I151" s="334"/>
-      <c r="J151" s="334"/>
+      <c r="I151" s="351"/>
+      <c r="J151" s="351"/>
       <c r="K151" s="27"/>
       <c r="L151" s="27"/>
       <c r="M151" s="34"/>
@@ -46291,8 +46281,8 @@
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
-      <c r="I152" s="334"/>
-      <c r="J152" s="334"/>
+      <c r="I152" s="351"/>
+      <c r="J152" s="351"/>
       <c r="K152" s="27"/>
       <c r="L152" s="27"/>
       <c r="M152" s="34"/>
@@ -46300,23 +46290,23 @@
     <row r="153" spans="2:13">
       <c r="E153" s="33"/>
       <c r="F153" s="27" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
       <c r="G153" s="30" t="s">
         <v>2332</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>3112</v>
-      </c>
-      <c r="I153" s="334"/>
-      <c r="J153" s="334"/>
+        <v>3108</v>
+      </c>
+      <c r="I153" s="351"/>
+      <c r="J153" s="351"/>
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
       <c r="M153" s="34"/>
     </row>
     <row r="154" spans="2:13">
       <c r="B154" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="E154" s="33"/>
       <c r="F154" s="27"/>
@@ -46326,8 +46316,8 @@
       <c r="H154" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I154" s="334"/>
-      <c r="J154" s="334"/>
+      <c r="I154" s="351"/>
+      <c r="J154" s="351"/>
       <c r="K154" s="27"/>
       <c r="L154" s="27"/>
       <c r="M154" s="34"/>
@@ -46341,8 +46331,8 @@
       <c r="H155" s="27">
         <v>20</v>
       </c>
-      <c r="I155" s="334"/>
-      <c r="J155" s="334"/>
+      <c r="I155" s="351"/>
+      <c r="J155" s="351"/>
       <c r="K155" s="27"/>
       <c r="L155" s="27"/>
       <c r="M155" s="34"/>
@@ -46354,10 +46344,10 @@
         <v>194</v>
       </c>
       <c r="H156" s="36" t="s">
-        <v>3105</v>
-      </c>
-      <c r="I156" s="334"/>
-      <c r="J156" s="334"/>
+        <v>3101</v>
+      </c>
+      <c r="I156" s="351"/>
+      <c r="J156" s="351"/>
       <c r="K156" s="27"/>
       <c r="L156" s="27"/>
       <c r="M156" s="34"/>
@@ -46367,8 +46357,8 @@
       <c r="F157" s="27"/>
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
-      <c r="I157" s="334"/>
-      <c r="J157" s="334"/>
+      <c r="I157" s="351"/>
+      <c r="J157" s="351"/>
       <c r="K157" s="27"/>
       <c r="L157" s="27"/>
       <c r="M157" s="34"/>
@@ -46376,16 +46366,16 @@
     <row r="158" spans="2:13">
       <c r="E158" s="33"/>
       <c r="F158" s="27" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="G158" s="30" t="s">
         <v>2332</v>
       </c>
       <c r="H158" s="31" t="s">
-        <v>3112</v>
-      </c>
-      <c r="I158" s="334"/>
-      <c r="J158" s="334"/>
+        <v>3108</v>
+      </c>
+      <c r="I158" s="351"/>
+      <c r="J158" s="351"/>
       <c r="K158" s="27"/>
       <c r="L158" s="27"/>
       <c r="M158" s="34"/>
@@ -46399,8 +46389,8 @@
       <c r="H159" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I159" s="334"/>
-      <c r="J159" s="334"/>
+      <c r="I159" s="351"/>
+      <c r="J159" s="351"/>
       <c r="K159" s="27"/>
       <c r="L159" s="27"/>
       <c r="M159" s="34"/>
@@ -46414,8 +46404,8 @@
       <c r="H160" s="27">
         <v>18</v>
       </c>
-      <c r="I160" s="334"/>
-      <c r="J160" s="334"/>
+      <c r="I160" s="351"/>
+      <c r="J160" s="351"/>
       <c r="K160" s="27"/>
       <c r="L160" s="27"/>
       <c r="M160" s="34"/>
@@ -46427,10 +46417,10 @@
         <v>194</v>
       </c>
       <c r="H161" s="36" t="s">
-        <v>3106</v>
-      </c>
-      <c r="I161" s="335"/>
-      <c r="J161" s="335"/>
+        <v>3102</v>
+      </c>
+      <c r="I161" s="352"/>
+      <c r="J161" s="352"/>
       <c r="K161" s="27"/>
       <c r="L161" s="27"/>
       <c r="M161" s="34"/>
@@ -46449,10 +46439,10 @@
     <row r="163" spans="5:13">
       <c r="E163" s="33"/>
       <c r="F163" s="27" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="G163" s="38" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
@@ -47389,7 +47379,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="328" t="s">
+      <c r="G269" s="345" t="s">
         <v>2670</v>
       </c>
       <c r="I269" s="56" t="s">
@@ -47410,7 +47400,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="329"/>
+      <c r="G270" s="346"/>
       <c r="I270" s="169" t="s">
         <v>2666</v>
       </c>
@@ -48077,7 +48067,7 @@
     <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>2221</v>
@@ -48092,7 +48082,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="B31" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="27" t="s">
@@ -48117,7 +48107,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="B32" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="27" t="s">
@@ -48142,7 +48132,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="C33" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="27" t="s">
@@ -48167,7 +48157,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="C34" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="D34" t="s">
         <v>366</v>
@@ -48192,7 +48182,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="D35" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="36"/>
@@ -48210,23 +48200,23 @@
     </row>
     <row r="36" spans="1:15">
       <c r="D36" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="C37" t="s">
         <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="B39" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="C39" s="40"/>
     </row>
@@ -48978,8 +48968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48992,28 +48982,28 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>3140</v>
-      </c>
-      <c r="E2" s="326" t="s">
-        <v>3148</v>
-      </c>
-      <c r="F2" s="351"/>
-      <c r="G2" s="351"/>
-      <c r="H2" s="351"/>
-      <c r="I2" s="351"/>
-      <c r="J2" s="351"/>
-      <c r="K2" s="351"/>
-      <c r="L2" s="351"/>
-      <c r="M2" s="327"/>
+        <v>3136</v>
+      </c>
+      <c r="E2" s="343" t="s">
+        <v>3144</v>
+      </c>
+      <c r="F2" s="353"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="353"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="353"/>
+      <c r="M2" s="344"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -49022,10 +49012,10 @@
       <c r="C3" t="s">
         <v>2665</v>
       </c>
-      <c r="E3" s="352" t="s">
+      <c r="E3" s="314" t="s">
         <v>1611</v>
       </c>
-      <c r="F3" s="353" t="s">
+      <c r="F3" s="315" t="s">
         <v>2265</v>
       </c>
       <c r="G3" s="27"/>
@@ -49038,7 +49028,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>402</v>
@@ -49075,7 +49065,7 @@
         <v>1896</v>
       </c>
       <c r="K5" s="117" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="L5" s="51"/>
       <c r="M5" s="52"/>
@@ -49096,7 +49086,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="117" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="L6" s="51"/>
       <c r="M6" s="52"/>
@@ -49120,10 +49110,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="D8" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="51"/>
@@ -49139,7 +49129,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
@@ -49157,10 +49147,10 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="C10" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="51"/>
@@ -49178,7 +49168,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="51"/>
@@ -49192,7 +49182,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="51"/>
@@ -49206,13 +49196,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>402</v>
       </c>
       <c r="F13" s="117" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
@@ -49224,10 +49214,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="E14" s="50" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="F14" s="117" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
@@ -49250,7 +49240,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="E16" s="116" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -49263,10 +49253,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -49282,7 +49272,7 @@
         <v>430</v>
       </c>
       <c r="B18" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
@@ -49297,19 +49287,19 @@
     <row r="22" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>3140</v>
-      </c>
-      <c r="E23" s="326" t="s">
-        <v>3148</v>
-      </c>
-      <c r="F23" s="351"/>
-      <c r="G23" s="351"/>
-      <c r="H23" s="351"/>
-      <c r="I23" s="351"/>
-      <c r="J23" s="351"/>
-      <c r="K23" s="351"/>
-      <c r="L23" s="351"/>
-      <c r="M23" s="327"/>
+        <v>3136</v>
+      </c>
+      <c r="E23" s="343" t="s">
+        <v>3144</v>
+      </c>
+      <c r="F23" s="353"/>
+      <c r="G23" s="353"/>
+      <c r="H23" s="353"/>
+      <c r="I23" s="353"/>
+      <c r="J23" s="353"/>
+      <c r="K23" s="353"/>
+      <c r="L23" s="353"/>
+      <c r="M23" s="344"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="B24" t="s">
@@ -49318,10 +49308,10 @@
       <c r="C24" t="s">
         <v>2665</v>
       </c>
-      <c r="E24" s="352" t="s">
+      <c r="E24" s="314" t="s">
         <v>1611</v>
       </c>
-      <c r="F24" s="353" t="s">
+      <c r="F24" s="315" t="s">
         <v>2265</v>
       </c>
       <c r="G24" s="27"/>
@@ -49334,7 +49324,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="B25" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="E25" s="50" t="s">
         <v>402</v>
@@ -49349,7 +49339,7 @@
       <c r="I25" s="177"/>
       <c r="J25" s="178"/>
       <c r="K25" s="51" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="L25" s="51"/>
       <c r="M25" s="52"/>
@@ -49373,7 +49363,7 @@
         <v>1617</v>
       </c>
       <c r="K26" s="117" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="L26" s="51"/>
       <c r="M26" s="52"/>
@@ -49394,7 +49384,7 @@
         <v>5</v>
       </c>
       <c r="K27" s="117" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="L27" s="51"/>
       <c r="M27" s="52"/>
@@ -49415,7 +49405,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="E29" s="50"/>
       <c r="F29" s="51"/>
@@ -49433,7 +49423,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="E30" s="50"/>
       <c r="F30" s="51"/>
@@ -49447,13 +49437,13 @@
       </c>
       <c r="K30" s="51"/>
       <c r="L30" s="51" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="M30" s="52"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
       <c r="A31" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31" s="51"/>
@@ -49467,7 +49457,7 @@
       </c>
       <c r="K31" s="51"/>
       <c r="L31" s="51" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="M31" s="52"/>
     </row>
@@ -49484,7 +49474,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -49498,7 +49488,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="117"/>
@@ -49512,15 +49502,15 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="E35" s="50"/>
       <c r="F35" s="117" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="G35" s="51"/>
       <c r="H35" s="117" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="I35" s="51"/>
       <c r="J35" s="51"/>
@@ -49541,11 +49531,11 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="E37" s="116"/>
       <c r="F37" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
@@ -49556,7 +49546,7 @@
     <row r="38" spans="1:13">
       <c r="E38" s="33"/>
       <c r="F38" s="27" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -49583,19 +49573,19 @@
     <row r="41" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>3140</v>
-      </c>
-      <c r="E42" s="326" t="s">
-        <v>3148</v>
-      </c>
-      <c r="F42" s="351"/>
-      <c r="G42" s="351"/>
-      <c r="H42" s="351"/>
-      <c r="I42" s="351"/>
-      <c r="J42" s="351"/>
-      <c r="K42" s="351"/>
-      <c r="L42" s="351"/>
-      <c r="M42" s="327"/>
+        <v>3136</v>
+      </c>
+      <c r="E42" s="343" t="s">
+        <v>3144</v>
+      </c>
+      <c r="F42" s="353"/>
+      <c r="G42" s="353"/>
+      <c r="H42" s="353"/>
+      <c r="I42" s="353"/>
+      <c r="J42" s="353"/>
+      <c r="K42" s="353"/>
+      <c r="L42" s="353"/>
+      <c r="M42" s="344"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -49604,10 +49594,10 @@
       <c r="C43" t="s">
         <v>2665</v>
       </c>
-      <c r="E43" s="352" t="s">
+      <c r="E43" s="314" t="s">
         <v>1611</v>
       </c>
-      <c r="F43" s="353" t="s">
+      <c r="F43" s="315" t="s">
         <v>2265</v>
       </c>
       <c r="G43" s="27"/>
@@ -49620,7 +49610,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="B44" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="E44" s="50" t="s">
         <v>402</v>
@@ -49684,7 +49674,7 @@
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1">
       <c r="A47" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="E47" s="50"/>
       <c r="F47" s="51"/>
@@ -49698,7 +49688,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="E48" s="50"/>
       <c r="F48" s="51"/>
@@ -49714,7 +49704,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="E49" s="50"/>
       <c r="F49" s="51"/>
@@ -49732,7 +49722,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1">
       <c r="A50" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="E50" s="50"/>
       <c r="F50" s="51"/>
@@ -49750,7 +49740,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" thickBot="1">
       <c r="A51" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="51"/>
@@ -49764,7 +49754,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="E52" s="50"/>
       <c r="F52" s="51"/>
@@ -49798,7 +49788,7 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" thickBot="1">
       <c r="A54" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="E54" s="50"/>
       <c r="F54" s="117"/>
@@ -49816,7 +49806,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="E55" s="50"/>
       <c r="F55" s="51"/>
@@ -49838,7 +49828,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="C57" t="s">
         <v>1617</v>
@@ -49855,7 +49845,7 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" thickBot="1">
       <c r="A58" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="C58" t="s">
         <v>417</v>
@@ -49872,18 +49862,18 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -49891,32 +49881,32 @@
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="64" spans="1:15" ht="23.25">
-      <c r="A64" s="366" t="s">
-        <v>3179</v>
-      </c>
-      <c r="B64" s="366"/>
-      <c r="C64" s="366"/>
-      <c r="D64" s="366"/>
-      <c r="G64" s="326" t="s">
-        <v>3148</v>
-      </c>
-      <c r="H64" s="351"/>
-      <c r="I64" s="351"/>
-      <c r="J64" s="351"/>
-      <c r="K64" s="351"/>
-      <c r="L64" s="351"/>
-      <c r="M64" s="351"/>
-      <c r="N64" s="351"/>
-      <c r="O64" s="327"/>
+      <c r="A64" s="328" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B64" s="328"/>
+      <c r="C64" s="328"/>
+      <c r="D64" s="328"/>
+      <c r="G64" s="343" t="s">
+        <v>3144</v>
+      </c>
+      <c r="H64" s="353"/>
+      <c r="I64" s="353"/>
+      <c r="J64" s="353"/>
+      <c r="K64" s="353"/>
+      <c r="L64" s="353"/>
+      <c r="M64" s="353"/>
+      <c r="N64" s="353"/>
+      <c r="O64" s="344"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" thickBot="1">
       <c r="B65" t="s">
         <v>1662</v>
       </c>
-      <c r="G65" s="352" t="s">
+      <c r="G65" s="314" t="s">
         <v>1611</v>
       </c>
-      <c r="H65" s="365" t="s">
+      <c r="H65" s="327" t="s">
         <v>2265</v>
       </c>
       <c r="I65" s="27"/>
@@ -49929,7 +49919,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="B66" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="G66" s="50" t="s">
         <v>1260</v>
@@ -49938,23 +49928,23 @@
         <v>1866</v>
       </c>
       <c r="I66" s="117"/>
-      <c r="J66" s="354" t="s">
+      <c r="J66" s="316" t="s">
         <v>1866</v>
       </c>
-      <c r="K66" s="355"/>
-      <c r="L66" s="356"/>
-      <c r="M66" s="354"/>
+      <c r="K66" s="317"/>
+      <c r="L66" s="318"/>
+      <c r="M66" s="316"/>
       <c r="N66" s="51"/>
       <c r="O66" s="52"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="368"/>
-      <c r="B67" s="368" t="s">
-        <v>3180</v>
-      </c>
-      <c r="C67" s="368"/>
-      <c r="D67" s="368" t="s">
-        <v>3191</v>
+      <c r="A67" s="330"/>
+      <c r="B67" s="330" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C67" s="330"/>
+      <c r="D67" s="330" t="s">
+        <v>3187</v>
       </c>
       <c r="G67" s="50" t="s">
         <v>536</v>
@@ -49963,24 +49953,24 @@
         <v>20</v>
       </c>
       <c r="I67" s="117"/>
-      <c r="J67" s="354"/>
+      <c r="J67" s="316"/>
       <c r="K67" s="50" t="s">
         <v>58</v>
       </c>
       <c r="L67" s="52" t="s">
         <v>1896</v>
       </c>
-      <c r="M67" s="362"/>
+      <c r="M67" s="324"/>
       <c r="N67" s="51"/>
       <c r="O67" s="52"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="368" t="s">
+      <c r="A68" s="330" t="s">
         <v>144</v>
       </c>
-      <c r="B68" s="368"/>
-      <c r="C68" s="368"/>
-      <c r="D68" s="368"/>
+      <c r="B68" s="330"/>
+      <c r="C68" s="330"/>
+      <c r="D68" s="330"/>
       <c r="G68" s="50" t="s">
         <v>1762</v>
       </c>
@@ -49988,24 +49978,24 @@
         <v>1866</v>
       </c>
       <c r="I68" s="51"/>
-      <c r="J68" s="354"/>
+      <c r="J68" s="316"/>
       <c r="K68" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="L68" s="357">
+      <c r="L68" s="319">
         <v>0</v>
       </c>
-      <c r="M68" s="362"/>
+      <c r="M68" s="324"/>
       <c r="N68" s="51"/>
       <c r="O68" s="52"/>
     </row>
     <row r="69" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A69" s="368" t="s">
-        <v>3181</v>
-      </c>
-      <c r="B69" s="368"/>
-      <c r="C69" s="368"/>
-      <c r="D69" s="368"/>
+      <c r="A69" s="330" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B69" s="330"/>
+      <c r="C69" s="330"/>
+      <c r="D69" s="330"/>
       <c r="E69" t="s">
         <v>2479</v>
       </c>
@@ -50016,10 +50006,10 @@
         <v>20</v>
       </c>
       <c r="I69" s="51"/>
-      <c r="J69" s="354"/>
-      <c r="K69" s="358"/>
-      <c r="L69" s="363"/>
-      <c r="M69" s="364"/>
+      <c r="J69" s="316"/>
+      <c r="K69" s="320"/>
+      <c r="L69" s="325"/>
+      <c r="M69" s="326"/>
       <c r="N69" s="27"/>
       <c r="O69" s="52"/>
     </row>
@@ -50034,16 +50024,16 @@
         <v>2442</v>
       </c>
       <c r="I70" s="51"/>
-      <c r="J70" s="354"/>
-      <c r="K70" s="354"/>
-      <c r="L70" s="354"/>
-      <c r="M70" s="354"/>
+      <c r="J70" s="316"/>
+      <c r="K70" s="316"/>
+      <c r="L70" s="316"/>
+      <c r="M70" s="316"/>
       <c r="N70" s="51"/>
       <c r="O70" s="52"/>
     </row>
     <row r="71" spans="1:15">
       <c r="B71" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="G71" s="50" t="s">
         <v>403</v>
@@ -50055,15 +50045,15 @@
       <c r="J71" s="51" t="s">
         <v>2442</v>
       </c>
-      <c r="K71" s="355"/>
-      <c r="L71" s="356"/>
-      <c r="M71" s="354"/>
+      <c r="K71" s="317"/>
+      <c r="L71" s="318"/>
+      <c r="M71" s="316"/>
       <c r="N71" s="51"/>
       <c r="O71" s="52"/>
     </row>
     <row r="72" spans="1:15">
       <c r="B72" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="G72" s="50" t="s">
         <v>2300</v>
@@ -50072,24 +50062,24 @@
         <v>2442</v>
       </c>
       <c r="I72" s="51"/>
-      <c r="J72" s="354"/>
+      <c r="J72" s="316"/>
       <c r="K72" s="50" t="s">
         <v>58</v>
       </c>
       <c r="L72" s="52" t="s">
-        <v>1910</v>
-      </c>
-      <c r="M72" s="354"/>
+        <v>1896</v>
+      </c>
+      <c r="M72" s="316"/>
       <c r="N72" s="51"/>
       <c r="O72" s="52"/>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" s="56" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="C73" s="56"/>
       <c r="E73" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="G73" s="50" t="s">
         <v>405</v>
@@ -50098,14 +50088,14 @@
         <v>30</v>
       </c>
       <c r="I73" s="51"/>
-      <c r="J73" s="354"/>
+      <c r="J73" s="316"/>
       <c r="K73" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="L73" s="357">
+      <c r="L73" s="319">
         <v>0</v>
       </c>
-      <c r="M73" s="354"/>
+      <c r="M73" s="316"/>
       <c r="N73" s="51"/>
       <c r="O73" s="52"/>
     </row>
@@ -50117,15 +50107,15 @@
       <c r="H74" s="51"/>
       <c r="I74" s="51"/>
       <c r="J74" s="51"/>
-      <c r="K74" s="358"/>
-      <c r="L74" s="363"/>
+      <c r="K74" s="320"/>
+      <c r="L74" s="325"/>
       <c r="M74" s="51"/>
       <c r="N74" s="51"/>
       <c r="O74" s="52"/>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="56" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -50148,7 +50138,7 @@
       </c>
       <c r="G76" s="50"/>
       <c r="H76" s="117" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="I76" s="51"/>
       <c r="J76" s="117"/>
@@ -50160,11 +50150,11 @@
     </row>
     <row r="77" spans="1:15">
       <c r="B77" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="G77" s="50"/>
       <c r="H77" s="117" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="I77" s="51"/>
       <c r="J77" s="51"/>
@@ -50189,7 +50179,7 @@
     <row r="79" spans="1:15">
       <c r="G79" s="33"/>
       <c r="H79" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="I79" s="27"/>
       <c r="J79" s="27"/>
@@ -50201,12 +50191,18 @@
     </row>
     <row r="80" spans="1:15" ht="15.75" thickBot="1">
       <c r="A80" t="s">
-        <v>3185</v>
+        <v>3181</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3192</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="255"/>
       <c r="H80" s="36" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
@@ -50220,16 +50216,31 @@
       <c r="A81" t="s">
         <v>306</v>
       </c>
+      <c r="D81" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3193</v>
+      </c>
     </row>
     <row r="82" spans="1:15" ht="28.5">
-      <c r="A82" s="367" t="s">
-        <v>3186</v>
-      </c>
-      <c r="B82" s="367"/>
+      <c r="A82" s="329" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B82" s="329"/>
+      <c r="D82" t="s">
+        <v>3194</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="C83" t="s">
         <v>1896</v>
@@ -50246,7 +50257,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -50317,7 +50328,7 @@
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="L89" s="27"/>
       <c r="M89" s="27"/>
@@ -50374,7 +50385,7 @@
       </c>
       <c r="H92" s="33"/>
       <c r="I92" s="27" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="J92" s="27"/>
       <c r="K92" s="34"/>
@@ -50396,7 +50407,7 @@
       <c r="J93" s="27"/>
       <c r="K93" s="34"/>
       <c r="L93" s="27"/>
-      <c r="M93" s="359"/>
+      <c r="M93" s="321"/>
       <c r="N93" s="27"/>
       <c r="O93" s="27"/>
     </row>
@@ -50447,7 +50458,7 @@
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
-      <c r="I96" s="359"/>
+      <c r="I96" s="321"/>
       <c r="J96" s="27"/>
       <c r="K96" s="27"/>
       <c r="L96" s="27"/>
@@ -51833,8 +51844,8 @@
       <c r="O177" s="27"/>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="360"/>
-      <c r="B178" s="360"/>
+      <c r="A178" s="322"/>
+      <c r="B178" s="322"/>
       <c r="C178" s="174"/>
       <c r="D178" s="27"/>
       <c r="E178" s="27"/>
@@ -51850,8 +51861,8 @@
       <c r="O178" s="27"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="360"/>
-      <c r="B179" s="360"/>
+      <c r="A179" s="322"/>
+      <c r="B179" s="322"/>
       <c r="C179" s="27"/>
       <c r="D179" s="27"/>
       <c r="E179" s="27"/>
@@ -52225,7 +52236,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="174"/>
-      <c r="B201" s="361"/>
+      <c r="B201" s="323"/>
       <c r="C201" s="27"/>
       <c r="D201" s="27"/>
       <c r="E201" s="51"/>
@@ -52241,7 +52252,7 @@
       <c r="O201" s="27"/>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="361"/>
+      <c r="A202" s="323"/>
       <c r="B202" s="27"/>
       <c r="C202" s="27"/>
       <c r="D202" s="27"/>
@@ -52650,7 +52661,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="174"/>
-      <c r="B226" s="361"/>
+      <c r="B226" s="323"/>
       <c r="C226" s="27"/>
       <c r="D226" s="27"/>
       <c r="E226" s="51"/>
@@ -52683,7 +52694,7 @@
       <c r="O227" s="27"/>
     </row>
     <row r="228" spans="1:15">
-      <c r="A228" s="361"/>
+      <c r="A228" s="323"/>
       <c r="B228" s="27"/>
       <c r="C228" s="27"/>
       <c r="D228" s="27"/>
@@ -52831,49 +52842,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="336" t="s">
+      <c r="B2" s="354" t="s">
         <v>2486</v>
       </c>
-      <c r="C2" s="337"/>
-      <c r="D2" s="338"/>
-      <c r="F2" s="336" t="s">
-        <v>3115</v>
-      </c>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="338"/>
-      <c r="K2" s="336" t="s">
-        <v>3117</v>
-      </c>
-      <c r="L2" s="337"/>
-      <c r="M2" s="338"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="356"/>
+      <c r="F2" s="354" t="s">
+        <v>3111</v>
+      </c>
+      <c r="G2" s="355"/>
+      <c r="H2" s="355"/>
+      <c r="I2" s="356"/>
+      <c r="K2" s="354" t="s">
+        <v>3113</v>
+      </c>
+      <c r="L2" s="355"/>
+      <c r="M2" s="356"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="339"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="341"/>
-      <c r="F3" s="339"/>
-      <c r="G3" s="340"/>
-      <c r="H3" s="340"/>
-      <c r="I3" s="341"/>
-      <c r="K3" s="339"/>
-      <c r="L3" s="340"/>
-      <c r="M3" s="341"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="359"/>
+      <c r="F3" s="357"/>
+      <c r="G3" s="358"/>
+      <c r="H3" s="358"/>
+      <c r="I3" s="359"/>
+      <c r="K3" s="357"/>
+      <c r="L3" s="358"/>
+      <c r="M3" s="359"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="339"/>
-      <c r="C4" s="340"/>
-      <c r="D4" s="341"/>
-      <c r="F4" s="339"/>
-      <c r="G4" s="340"/>
-      <c r="H4" s="340"/>
-      <c r="I4" s="341"/>
-      <c r="K4" s="339"/>
-      <c r="L4" s="340"/>
-      <c r="M4" s="341"/>
+      <c r="B4" s="357"/>
+      <c r="C4" s="358"/>
+      <c r="D4" s="359"/>
+      <c r="F4" s="357"/>
+      <c r="G4" s="358"/>
+      <c r="H4" s="358"/>
+      <c r="I4" s="359"/>
+      <c r="K4" s="357"/>
+      <c r="L4" s="358"/>
+      <c r="M4" s="359"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="342" t="s">
+      <c r="A5" s="360" t="s">
         <v>2271</v>
       </c>
       <c r="B5" s="80"/>
@@ -52900,7 +52911,7 @@
       <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="342"/>
+      <c r="A6" s="360"/>
       <c r="B6" s="80"/>
       <c r="C6" s="39" t="s">
         <v>58</v>
@@ -52910,25 +52921,25 @@
       </c>
       <c r="F6" s="80"/>
       <c r="G6" s="39" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="I6" s="41"/>
       <c r="K6" s="80" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="342"/>
+      <c r="A7" s="360"/>
       <c r="B7" s="80"/>
       <c r="C7" s="39" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="D7" s="41">
         <v>750</v>
@@ -52938,7 +52949,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="34"/>
       <c r="K7" s="80" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="L7" s="39">
         <v>50000</v>
@@ -52958,61 +52969,61 @@
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="342" t="s">
+      <c r="A9" s="360" t="s">
         <v>203</v>
       </c>
       <c r="B9" s="309" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="C9" s="143"/>
       <c r="D9" s="254"/>
       <c r="F9" s="309" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="G9" s="143"/>
       <c r="H9" s="143"/>
       <c r="I9" s="254"/>
       <c r="K9" s="309" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="L9" s="143"/>
       <c r="M9" s="254"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="342"/>
+      <c r="A10" s="360"/>
       <c r="B10" s="309"/>
       <c r="C10" s="310" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="D10" s="254"/>
       <c r="E10" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="F10" s="309"/>
       <c r="G10" s="143" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="H10" s="254"/>
       <c r="I10" s="254"/>
       <c r="K10" s="309"/>
       <c r="L10" s="143" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="M10" s="254"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="342"/>
+      <c r="A11" s="360"/>
       <c r="B11" s="309"/>
       <c r="C11" s="143"/>
       <c r="D11" s="254"/>
       <c r="F11" s="309"/>
       <c r="G11" s="143"/>
       <c r="H11" s="254" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="I11" s="254"/>
       <c r="J11" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="K11" s="309"/>
       <c r="L11" s="143"/>
@@ -53021,7 +53032,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="342"/>
+      <c r="A12" s="360"/>
       <c r="B12" s="309"/>
       <c r="C12" s="143"/>
       <c r="D12" s="254"/>
@@ -53067,49 +53078,49 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
+        <v>3127</v>
+      </c>
+      <c r="F18" t="s">
         <v>3131</v>
       </c>
-      <c r="F18" t="s">
-        <v>3135</v>
-      </c>
       <c r="H18" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="H19" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="H20" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="H21" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1">
@@ -53201,23 +53212,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="362" t="s">
         <v>2679</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
-      <c r="I1" s="344" t="s">
+      <c r="B1" s="362"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="I1" s="362" t="s">
         <v>2691</v>
       </c>
-      <c r="J1" s="344"/>
-      <c r="K1" s="344"/>
-      <c r="L1" s="344"/>
-      <c r="M1" s="344"/>
-      <c r="N1" s="344"/>
-      <c r="O1" s="344"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
+      <c r="N1" s="362"/>
+      <c r="O1" s="362"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -53373,28 +53384,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="324" t="s">
+      <c r="A12" s="341" t="s">
         <v>2693</v>
       </c>
-      <c r="B12" s="343"/>
-      <c r="C12" s="343"/>
-      <c r="D12" s="343"/>
-      <c r="E12" s="343"/>
-      <c r="F12" s="343"/>
-      <c r="G12" s="343"/>
-      <c r="H12" s="325"/>
-      <c r="I12" s="324" t="s">
+      <c r="B12" s="361"/>
+      <c r="C12" s="361"/>
+      <c r="D12" s="361"/>
+      <c r="E12" s="361"/>
+      <c r="F12" s="361"/>
+      <c r="G12" s="361"/>
+      <c r="H12" s="342"/>
+      <c r="I12" s="341" t="s">
         <v>2693</v>
       </c>
-      <c r="J12" s="343"/>
-      <c r="K12" s="343"/>
-      <c r="L12" s="343"/>
-      <c r="M12" s="343"/>
-      <c r="N12" s="343"/>
-      <c r="O12" s="343"/>
-      <c r="P12" s="343"/>
-      <c r="Q12" s="343"/>
-      <c r="R12" s="325"/>
+      <c r="J12" s="361"/>
+      <c r="K12" s="361"/>
+      <c r="L12" s="361"/>
+      <c r="M12" s="361"/>
+      <c r="N12" s="361"/>
+      <c r="O12" s="361"/>
+      <c r="P12" s="361"/>
+      <c r="Q12" s="361"/>
+      <c r="R12" s="342"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -53622,14 +53633,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="344" t="s">
+      <c r="A24" s="362" t="s">
         <v>2679</v>
       </c>
-      <c r="B24" s="344"/>
-      <c r="C24" s="344"/>
-      <c r="D24" s="344"/>
-      <c r="E24" s="344"/>
-      <c r="F24" s="344"/>
+      <c r="B24" s="362"/>
+      <c r="C24" s="362"/>
+      <c r="D24" s="362"/>
+      <c r="E24" s="362"/>
+      <c r="F24" s="362"/>
       <c r="H24" s="263" t="s">
         <v>2691</v>
       </c>
@@ -53639,11 +53650,11 @@
       <c r="L24" s="263"/>
       <c r="M24" s="263"/>
       <c r="N24" s="263"/>
-      <c r="P24" s="344" t="s">
+      <c r="P24" s="362" t="s">
         <v>2732</v>
       </c>
-      <c r="Q24" s="344"/>
-      <c r="R24" s="344"/>
+      <c r="Q24" s="362"/>
+      <c r="R24" s="362"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -53883,28 +53894,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="324" t="s">
+      <c r="A35" s="341" t="s">
         <v>2733</v>
       </c>
-      <c r="B35" s="343"/>
-      <c r="C35" s="343"/>
-      <c r="D35" s="343"/>
-      <c r="E35" s="343"/>
-      <c r="F35" s="343"/>
-      <c r="G35" s="343"/>
-      <c r="H35" s="325"/>
-      <c r="I35" s="324" t="s">
+      <c r="B35" s="361"/>
+      <c r="C35" s="361"/>
+      <c r="D35" s="361"/>
+      <c r="E35" s="361"/>
+      <c r="F35" s="361"/>
+      <c r="G35" s="361"/>
+      <c r="H35" s="342"/>
+      <c r="I35" s="341" t="s">
         <v>1131</v>
       </c>
-      <c r="J35" s="343"/>
-      <c r="K35" s="343"/>
-      <c r="L35" s="343"/>
-      <c r="M35" s="343"/>
-      <c r="N35" s="343"/>
-      <c r="O35" s="343"/>
-      <c r="P35" s="343"/>
-      <c r="Q35" s="343"/>
-      <c r="R35" s="325"/>
+      <c r="J35" s="361"/>
+      <c r="K35" s="361"/>
+      <c r="L35" s="361"/>
+      <c r="M35" s="361"/>
+      <c r="N35" s="361"/>
+      <c r="O35" s="361"/>
+      <c r="P35" s="361"/>
+      <c r="Q35" s="361"/>
+      <c r="R35" s="342"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6040" uniqueCount="3200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6050" uniqueCount="3207">
   <si>
     <t>USER</t>
   </si>
@@ -9886,12 +9886,33 @@
   <si>
     <t>5^ 7</t>
   </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if( email id is valid ) </t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>sysout(" please enter valid email");</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>asd@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10006,6 +10027,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="22">
@@ -10501,10 +10529,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11264,8 +11296,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -18252,8 +18286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18500,7 +18534,9 @@
       <c r="A12" s="65" t="s">
         <v>635</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="57" t="s">
+        <v>2775</v>
+      </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
@@ -18889,73 +18925,100 @@
       <c r="E32" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="H32" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I32" s="369" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="H33" t="s">
+        <v>3201</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="I34" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="H37" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="H38" s="57" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="H39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="H40" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>653</v>
       </c>
@@ -18966,12 +19029,12 @@
         <v>642</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>644</v>
       </c>
@@ -19578,8 +19641,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I32" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23788,7 +23854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:S262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+    <sheetView topLeftCell="A201" workbookViewId="0">
       <selection activeCell="M215" sqref="M215"/>
     </sheetView>
   </sheetViews>

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5915" uniqueCount="3151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5921" uniqueCount="3153">
   <si>
     <t>USER</t>
   </si>
@@ -9739,6 +9739,12 @@
   </si>
   <si>
     <t>Confused</t>
+  </si>
+  <si>
+    <t>((IphoneX) i3) . faceRecog();</t>
+  </si>
+  <si>
+    <t>Typecasting</t>
   </si>
 </sst>
 </file>
@@ -9835,13 +9841,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -9868,8 +9867,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9993,6 +9999,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10353,12 +10365,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10930,7 +10942,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10950,7 +10961,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10998,10 +11009,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11114,13 +11132,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11454,13 +11469,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="336" t="s">
+      <c r="H3" s="338" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337"/>
-      <c r="K3" s="337"/>
-      <c r="L3" s="338"/>
+      <c r="I3" s="339"/>
+      <c r="J3" s="339"/>
+      <c r="K3" s="339"/>
+      <c r="L3" s="340"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
@@ -11481,20 +11496,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="339" t="s">
+      <c r="G6" s="341" t="s">
         <v>1572</v>
       </c>
-      <c r="H6" s="340"/>
+      <c r="H6" s="342"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="339" t="s">
+      <c r="J6" s="341" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="340"/>
+      <c r="K6" s="342"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="339" t="s">
+      <c r="M6" s="341" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="340"/>
+      <c r="N6" s="342"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="125" t="s">
@@ -11512,20 +11527,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="341" t="s">
+      <c r="G8" s="343" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="342"/>
+      <c r="H8" s="344"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="341" t="s">
+      <c r="J8" s="343" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="342"/>
+      <c r="K8" s="344"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="341" t="s">
+      <c r="M8" s="343" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="342"/>
+      <c r="N8" s="344"/>
       <c r="Q8" s="142"/>
     </row>
     <row r="9" spans="1:18">
@@ -11541,29 +11556,29 @@
       <c r="Q9" s="142"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="332" t="s">
+      <c r="F10" s="334" t="s">
         <v>2505</v>
       </c>
-      <c r="G10" s="333"/>
-      <c r="H10" s="333"/>
-      <c r="I10" s="333"/>
-      <c r="J10" s="333"/>
-      <c r="K10" s="333"/>
-      <c r="L10" s="333"/>
-      <c r="M10" s="333"/>
-      <c r="N10" s="333"/>
+      <c r="G10" s="335"/>
+      <c r="H10" s="335"/>
+      <c r="I10" s="335"/>
+      <c r="J10" s="335"/>
+      <c r="K10" s="335"/>
+      <c r="L10" s="335"/>
+      <c r="M10" s="335"/>
+      <c r="N10" s="335"/>
       <c r="Q10" s="142"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="334"/>
-      <c r="G11" s="335"/>
-      <c r="H11" s="335"/>
-      <c r="I11" s="335"/>
-      <c r="J11" s="335"/>
-      <c r="K11" s="335"/>
-      <c r="L11" s="335"/>
-      <c r="M11" s="335"/>
-      <c r="N11" s="335"/>
+      <c r="F11" s="336"/>
+      <c r="G11" s="337"/>
+      <c r="H11" s="337"/>
+      <c r="I11" s="337"/>
+      <c r="J11" s="337"/>
+      <c r="K11" s="337"/>
+      <c r="L11" s="337"/>
+      <c r="M11" s="337"/>
+      <c r="N11" s="337"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -11605,17 +11620,17 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
       <c r="D14" s="125"/>
-      <c r="F14" s="329" t="s">
+      <c r="F14" s="331" t="s">
         <v>2920</v>
       </c>
-      <c r="G14" s="330"/>
-      <c r="H14" s="330"/>
-      <c r="I14" s="330"/>
-      <c r="J14" s="330"/>
-      <c r="K14" s="330"/>
-      <c r="L14" s="330"/>
-      <c r="M14" s="330"/>
-      <c r="N14" s="331"/>
+      <c r="G14" s="332"/>
+      <c r="H14" s="332"/>
+      <c r="I14" s="332"/>
+      <c r="J14" s="332"/>
+      <c r="K14" s="332"/>
+      <c r="L14" s="332"/>
+      <c r="M14" s="332"/>
+      <c r="N14" s="333"/>
     </row>
     <row r="15" spans="1:18">
       <c r="F15" s="139"/>
@@ -11918,7 +11933,7 @@
       <c r="D33" s="74"/>
       <c r="E33" s="74"/>
       <c r="F33" s="74"/>
-      <c r="G33" s="304" t="s">
+      <c r="G33" s="303" t="s">
         <v>2940</v>
       </c>
       <c r="H33" s="132" t="s">
@@ -11951,28 +11966,28 @@
       <c r="G34" s="145">
         <v>0</v>
       </c>
-      <c r="H34" s="305">
+      <c r="H34" s="304">
         <v>1</v>
       </c>
-      <c r="I34" s="305">
+      <c r="I34" s="304">
         <v>1</v>
       </c>
-      <c r="J34" s="305">
+      <c r="J34" s="304">
         <v>1</v>
       </c>
-      <c r="K34" s="305">
+      <c r="K34" s="304">
         <v>1</v>
       </c>
-      <c r="L34" s="305">
+      <c r="L34" s="304">
         <v>1</v>
       </c>
-      <c r="M34" s="305">
+      <c r="M34" s="304">
         <v>1</v>
       </c>
-      <c r="N34" s="305">
+      <c r="N34" s="304">
         <v>1</v>
       </c>
-      <c r="P34" s="303" t="s">
+      <c r="P34" s="302" t="s">
         <v>2976</v>
       </c>
     </row>
@@ -18752,7 +18767,7 @@
       <c r="H32" t="s">
         <v>3113</v>
       </c>
-      <c r="I32" s="328" t="s">
+      <c r="I32" s="327" t="s">
         <v>3119</v>
       </c>
     </row>
@@ -19564,10 +19579,10 @@
       <c r="J5" s="158" t="s">
         <v>2283</v>
       </c>
-      <c r="K5" s="368" t="s">
+      <c r="K5" s="329" t="s">
         <v>3134</v>
       </c>
-      <c r="L5" s="369"/>
+      <c r="L5" s="330"/>
       <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
@@ -19617,10 +19632,10 @@
       <c r="J9" s="158" t="s">
         <v>2283</v>
       </c>
-      <c r="K9" s="368" t="s">
+      <c r="K9" s="329" t="s">
         <v>3135</v>
       </c>
-      <c r="L9" s="369"/>
+      <c r="L9" s="330"/>
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1">
@@ -19669,10 +19684,10 @@
       <c r="J13" s="158" t="s">
         <v>2283</v>
       </c>
-      <c r="K13" s="368" t="s">
+      <c r="K13" s="329" t="s">
         <v>3135</v>
       </c>
-      <c r="L13" s="369"/>
+      <c r="L13" s="330"/>
       <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14">
@@ -20096,7 +20111,7 @@
       <c r="H224" s="38"/>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="367"/>
+      <c r="A229" s="328"/>
       <c r="B229" s="39"/>
       <c r="C229" s="39"/>
     </row>
@@ -20110,7 +20125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -20338,13 +20353,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V272"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:18">
       <c r="H2" t="s">
         <v>2717</v>
       </c>
@@ -20355,25 +20370,34 @@
         <v>743</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:18">
       <c r="H4" t="s">
         <v>2719</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:18">
       <c r="H5" t="s">
         <v>2720</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:18">
       <c r="H6" s="56" t="s">
         <v>2721</v>
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1"/>
-    <row r="9" spans="2:13">
+    <row r="7" spans="2:18">
+      <c r="Q7" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" thickBot="1">
+      <c r="Q8" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
       <c r="B9" s="284"/>
       <c r="C9" s="285"/>
       <c r="D9" s="286"/>
@@ -20382,13 +20406,18 @@
         <v>2716</v>
       </c>
       <c r="H9" s="32"/>
-      <c r="K9" s="284"/>
-      <c r="L9" s="287" t="s">
+      <c r="K9" s="370"/>
+      <c r="L9" s="371" t="s">
         <v>2716</v>
       </c>
-      <c r="M9" s="286"/>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="M9" s="372"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="369" t="s">
+        <v>2716</v>
+      </c>
+      <c r="R9" s="83"/>
+    </row>
+    <row r="10" spans="2:18">
       <c r="B10" s="33"/>
       <c r="C10" s="27"/>
       <c r="D10" s="34"/>
@@ -20398,8 +20427,11 @@
       <c r="K10" s="33"/>
       <c r="L10" s="27"/>
       <c r="M10" s="34"/>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="P10" s="33"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="2:18">
       <c r="B11" s="33"/>
       <c r="C11" s="27"/>
       <c r="D11" s="34"/>
@@ -20409,8 +20441,11 @@
       <c r="K11" s="33"/>
       <c r="L11" s="27"/>
       <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="2:13">
+      <c r="P11" s="33"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="2:18">
       <c r="B12" s="33"/>
       <c r="C12" s="27"/>
       <c r="D12" s="34"/>
@@ -20420,8 +20455,11 @@
       <c r="K12" s="33"/>
       <c r="L12" s="27"/>
       <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="P12" s="33"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="2:18">
       <c r="B13" s="33"/>
       <c r="C13" s="27"/>
       <c r="D13" s="34"/>
@@ -20437,8 +20475,11 @@
       <c r="K13" s="33"/>
       <c r="L13" s="27"/>
       <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="2:13">
+      <c r="P13" s="33"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="2:18">
       <c r="B14" s="33" t="s">
         <v>2722</v>
       </c>
@@ -20460,8 +20501,15 @@
       <c r="M14" s="34" t="s">
         <v>2723</v>
       </c>
-    </row>
-    <row r="15" spans="2:13">
+      <c r="P14" s="33" t="s">
+        <v>2722</v>
+      </c>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="34" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
       <c r="B15" s="33"/>
       <c r="C15" s="27"/>
       <c r="D15" s="34"/>
@@ -20471,8 +20519,11 @@
       <c r="K15" s="33"/>
       <c r="L15" s="27"/>
       <c r="M15" s="34"/>
-    </row>
-    <row r="16" spans="2:13">
+      <c r="P15" s="33"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="2:18">
       <c r="B16" s="33"/>
       <c r="C16" s="27" t="s">
         <v>2724</v>
@@ -20488,8 +20539,13 @@
         <v>2724</v>
       </c>
       <c r="M16" s="34"/>
-    </row>
-    <row r="17" spans="2:13">
+      <c r="P16" s="33"/>
+      <c r="Q16" s="27" t="s">
+        <v>2724</v>
+      </c>
+      <c r="R16" s="34"/>
+    </row>
+    <row r="17" spans="2:18">
       <c r="B17" s="278"/>
       <c r="C17" s="279"/>
       <c r="D17" s="280"/>
@@ -20499,8 +20555,11 @@
       <c r="K17" s="278"/>
       <c r="L17" s="279"/>
       <c r="M17" s="280"/>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1">
+      <c r="P17" s="278"/>
+      <c r="Q17" s="279"/>
+      <c r="R17" s="280"/>
+    </row>
+    <row r="18" spans="2:18" ht="15.75" thickBot="1">
       <c r="B18" s="281"/>
       <c r="C18" s="282"/>
       <c r="D18" s="283"/>
@@ -20510,10 +20569,13 @@
       <c r="K18" s="281"/>
       <c r="L18" s="282"/>
       <c r="M18" s="283"/>
-    </row>
-    <row r="19" spans="2:13">
+      <c r="P18" s="281"/>
+      <c r="Q18" s="282"/>
+      <c r="R18" s="283"/>
+    </row>
+    <row r="19" spans="2:18">
       <c r="C19" t="s">
-        <v>1489</v>
+        <v>744</v>
       </c>
       <c r="G19" t="s">
         <v>743</v>
@@ -24705,7 +24767,7 @@
       </c>
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
-      <c r="N3" s="361" t="s">
+      <c r="N3" s="363" t="s">
         <v>2753</v>
       </c>
       <c r="O3" s="51"/>
@@ -24734,7 +24796,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="50"/>
       <c r="M4" s="51"/>
-      <c r="N4" s="346"/>
+      <c r="N4" s="348"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -24760,7 +24822,7 @@
       <c r="M5" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="N5" s="346"/>
+      <c r="N5" s="348"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -24782,7 +24844,7 @@
       <c r="M6" s="54">
         <v>12345</v>
       </c>
-      <c r="N6" s="346"/>
+      <c r="N6" s="348"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -24800,7 +24862,7 @@
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
-      <c r="N7" s="346"/>
+      <c r="N7" s="348"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -24820,7 +24882,7 @@
       </c>
       <c r="L8" s="47"/>
       <c r="M8" s="48"/>
-      <c r="N8" s="346"/>
+      <c r="N8" s="348"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -24838,7 +24900,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="50"/>
       <c r="M9" s="51"/>
-      <c r="N9" s="346"/>
+      <c r="N9" s="348"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -24855,7 +24917,7 @@
       <c r="M10" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="N10" s="346"/>
+      <c r="N10" s="348"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
@@ -24875,7 +24937,7 @@
       <c r="M11" s="54">
         <v>12346</v>
       </c>
-      <c r="N11" s="347"/>
+      <c r="N11" s="349"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
@@ -28005,7 +28067,7 @@
       <c r="N284" s="49">
         <v>10</v>
       </c>
-      <c r="O284" s="288" t="s">
+      <c r="O284" s="287" t="s">
         <v>2488</v>
       </c>
       <c r="P284" s="51"/>
@@ -28030,7 +28092,7 @@
       <c r="L285" s="51"/>
       <c r="M285" s="53"/>
       <c r="N285" s="55"/>
-      <c r="O285" s="288"/>
+      <c r="O285" s="287"/>
       <c r="P285" s="51"/>
       <c r="Q285" s="52"/>
     </row>
@@ -28053,7 +28115,7 @@
       <c r="L286" s="51"/>
       <c r="M286" s="51"/>
       <c r="N286" s="51"/>
-      <c r="O286" s="288"/>
+      <c r="O286" s="287"/>
       <c r="P286" s="51"/>
       <c r="Q286" s="52"/>
     </row>
@@ -28076,7 +28138,7 @@
       <c r="N287" s="49">
         <v>10</v>
       </c>
-      <c r="O287" s="288"/>
+      <c r="O287" s="287"/>
       <c r="P287" s="51"/>
       <c r="Q287" s="52"/>
     </row>
@@ -28093,7 +28155,7 @@
       <c r="L288" s="51"/>
       <c r="M288" s="53"/>
       <c r="N288" s="55"/>
-      <c r="O288" s="288"/>
+      <c r="O288" s="287"/>
       <c r="P288" s="51"/>
       <c r="Q288" s="52"/>
     </row>
@@ -28112,7 +28174,7 @@
       <c r="L289" s="51"/>
       <c r="M289" s="51"/>
       <c r="N289" s="51"/>
-      <c r="O289" s="288"/>
+      <c r="O289" s="287"/>
       <c r="P289" s="51"/>
       <c r="Q289" s="52"/>
     </row>
@@ -28137,7 +28199,7 @@
       <c r="N290" s="49">
         <v>10</v>
       </c>
-      <c r="O290" s="288"/>
+      <c r="O290" s="287"/>
       <c r="P290" s="51"/>
       <c r="Q290" s="52"/>
     </row>
@@ -28156,7 +28218,7 @@
       <c r="L291" s="51"/>
       <c r="M291" s="53"/>
       <c r="N291" s="55"/>
-      <c r="O291" s="288"/>
+      <c r="O291" s="287"/>
       <c r="P291" s="51"/>
       <c r="Q291" s="52"/>
     </row>
@@ -28299,7 +28361,7 @@
       <c r="G6" s="33" t="s">
         <v>2765</v>
       </c>
-      <c r="H6" s="289">
+      <c r="H6" s="288">
         <v>0</v>
       </c>
       <c r="I6" s="27" t="s">
@@ -28315,7 +28377,7 @@
         <v>2761</v>
       </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="289">
+      <c r="H7" s="288">
         <v>1</v>
       </c>
       <c r="I7" s="27" t="s">
@@ -28336,7 +28398,7 @@
         <v>2774</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="289">
+      <c r="H8" s="288">
         <v>2</v>
       </c>
       <c r="I8" s="27" t="s">
@@ -28356,7 +28418,7 @@
         <v>2769</v>
       </c>
       <c r="G9" s="33"/>
-      <c r="H9" s="289">
+      <c r="H9" s="288">
         <v>3</v>
       </c>
       <c r="I9" s="27" t="s">
@@ -28372,7 +28434,7 @@
         <v>2770</v>
       </c>
       <c r="G10" s="33"/>
-      <c r="H10" s="289">
+      <c r="H10" s="288">
         <v>4</v>
       </c>
       <c r="I10" s="27" t="s">
@@ -28491,14 +28553,14 @@
       <c r="E24" s="57">
         <v>0</v>
       </c>
-      <c r="F24" s="289"/>
-      <c r="G24" s="289"/>
+      <c r="F24" s="288"/>
+      <c r="G24" s="288"/>
     </row>
     <row r="25" spans="1:13">
       <c r="E25" s="57">
         <v>1</v>
       </c>
-      <c r="F25" s="289"/>
+      <c r="F25" s="288"/>
       <c r="G25" s="132">
         <v>234</v>
       </c>
@@ -28507,15 +28569,15 @@
       <c r="E26" s="57">
         <v>2</v>
       </c>
-      <c r="F26" s="289"/>
-      <c r="G26" s="289"/>
+      <c r="F26" s="288"/>
+      <c r="G26" s="288"/>
     </row>
     <row r="27" spans="1:13">
       <c r="E27" s="57">
         <v>3</v>
       </c>
-      <c r="F27" s="289"/>
-      <c r="G27" s="289"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="288"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
@@ -28527,7 +28589,7 @@
       <c r="E29" s="129">
         <v>0</v>
       </c>
-      <c r="F29" s="289">
+      <c r="F29" s="288">
         <v>10</v>
       </c>
       <c r="H29" t="s">
@@ -28536,7 +28598,7 @@
       <c r="I29" s="129">
         <v>0</v>
       </c>
-      <c r="J29" s="289">
+      <c r="J29" s="288">
         <v>0</v>
       </c>
     </row>
@@ -28547,13 +28609,13 @@
       <c r="E30" s="129">
         <v>1</v>
       </c>
-      <c r="F30" s="289">
+      <c r="F30" s="288">
         <v>20</v>
       </c>
       <c r="I30" s="129">
         <v>1</v>
       </c>
-      <c r="J30" s="289">
+      <c r="J30" s="288">
         <v>0</v>
       </c>
     </row>
@@ -28564,13 +28626,13 @@
       <c r="E31" s="129">
         <v>2</v>
       </c>
-      <c r="F31" s="289">
+      <c r="F31" s="288">
         <v>30</v>
       </c>
       <c r="I31" s="129">
         <v>2</v>
       </c>
-      <c r="J31" s="289">
+      <c r="J31" s="288">
         <v>20</v>
       </c>
     </row>
@@ -28581,13 +28643,13 @@
       <c r="E32" s="129">
         <v>3</v>
       </c>
-      <c r="F32" s="289">
+      <c r="F32" s="288">
         <v>40</v>
       </c>
       <c r="I32" s="129">
         <v>3</v>
       </c>
-      <c r="J32" s="289">
+      <c r="J32" s="288">
         <v>30</v>
       </c>
     </row>
@@ -28598,13 +28660,13 @@
       <c r="E33" s="129">
         <v>4</v>
       </c>
-      <c r="F33" s="289">
+      <c r="F33" s="288">
         <v>50</v>
       </c>
       <c r="I33" s="129">
         <v>4</v>
       </c>
-      <c r="J33" s="289">
+      <c r="J33" s="288">
         <v>40</v>
       </c>
     </row>
@@ -31250,7 +31312,7 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="291" t="s">
+      <c r="K3" s="290" t="s">
         <v>1114</v>
       </c>
       <c r="L3" s="31"/>
@@ -31500,7 +31562,7 @@
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="291" t="s">
+      <c r="H22" s="290" t="s">
         <v>2809</v>
       </c>
       <c r="I22" s="31"/>
@@ -31520,7 +31582,7 @@
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="292" t="s">
+      <c r="H23" s="291" t="s">
         <v>1802</v>
       </c>
       <c r="I23" s="241" t="s">
@@ -31542,7 +31604,7 @@
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="27"/>
-      <c r="H24" s="292" t="s">
+      <c r="H24" s="291" t="s">
         <v>2361</v>
       </c>
       <c r="I24" s="241" t="s">
@@ -31560,7 +31622,7 @@
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="292" t="s">
+      <c r="H25" s="291" t="s">
         <v>2362</v>
       </c>
       <c r="I25" s="241" t="s">
@@ -31575,11 +31637,11 @@
       <c r="E26" s="38" t="s">
         <v>413</v>
       </c>
-      <c r="F26" s="295" t="s">
+      <c r="F26" s="294" t="s">
         <v>2812</v>
       </c>
       <c r="G26" s="27"/>
-      <c r="H26" s="292" t="s">
+      <c r="H26" s="291" t="s">
         <v>2377</v>
       </c>
       <c r="I26" s="240" t="s">
@@ -31594,7 +31656,7 @@
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="292" t="s">
+      <c r="H27" s="291" t="s">
         <v>2487</v>
       </c>
       <c r="I27" s="241" t="s">
@@ -31612,7 +31674,7 @@
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="292" t="s">
+      <c r="H28" s="291" t="s">
         <v>2805</v>
       </c>
       <c r="I28" s="240" t="s">
@@ -31629,7 +31691,7 @@
       <c r="D29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="292" t="s">
+      <c r="H29" s="291" t="s">
         <v>2806</v>
       </c>
       <c r="I29" s="241" t="s">
@@ -31647,7 +31709,7 @@
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="292" t="s">
+      <c r="H30" s="291" t="s">
         <v>2807</v>
       </c>
       <c r="I30" s="241"/>
@@ -31661,7 +31723,7 @@
       <c r="C31" s="50"/>
       <c r="F31" s="38"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="292" t="s">
+      <c r="H31" s="291" t="s">
         <v>2808</v>
       </c>
       <c r="I31" s="240"/>
@@ -31674,8 +31736,8 @@
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
-      <c r="H32" s="293"/>
-      <c r="I32" s="294"/>
+      <c r="H32" s="292"/>
+      <c r="I32" s="293"/>
       <c r="J32" s="37"/>
       <c r="K32" s="34"/>
     </row>
@@ -37205,24 +37267,24 @@
     <row r="17" spans="1:14" s="108" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="362" t="s">
+      <c r="B22" s="364" t="s">
         <v>1233</v>
       </c>
-      <c r="C22" s="362"/>
+      <c r="C22" s="364"/>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
-      <c r="F22" s="362" t="s">
+      <c r="F22" s="364" t="s">
         <v>1337</v>
       </c>
-      <c r="G22" s="362"/>
-      <c r="H22" s="362"/>
+      <c r="G22" s="364"/>
+      <c r="H22" s="364"/>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="362" t="s">
+      <c r="K22" s="364" t="s">
         <v>1235</v>
       </c>
-      <c r="L22" s="362"/>
-      <c r="M22" s="362"/>
+      <c r="L22" s="364"/>
+      <c r="M22" s="364"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -37331,7 +37393,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="106"/>
-      <c r="B28" s="297" t="s">
+      <c r="B28" s="296" t="s">
         <v>2837</v>
       </c>
       <c r="C28" s="75"/>
@@ -37353,7 +37415,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="106"/>
-      <c r="B29" s="297" t="s">
+      <c r="B29" s="296" t="s">
         <v>2838</v>
       </c>
       <c r="C29" s="75"/>
@@ -37530,7 +37592,7 @@
       <c r="G39" s="36"/>
       <c r="H39" s="37"/>
       <c r="K39" s="35"/>
-      <c r="L39" s="294"/>
+      <c r="L39" s="293"/>
       <c r="M39" s="37"/>
       <c r="P39" t="s">
         <v>1238</v>
@@ -39649,19 +39711,19 @@
       <c r="A2" t="s">
         <v>2841</v>
       </c>
-      <c r="B2" s="290">
+      <c r="B2" s="289">
         <v>0</v>
       </c>
-      <c r="C2" s="290" t="s">
+      <c r="C2" s="289" t="s">
         <v>412</v>
       </c>
       <c r="E2" t="s">
         <v>1380</v>
       </c>
-      <c r="F2" s="290">
+      <c r="F2" s="289">
         <v>0</v>
       </c>
-      <c r="G2" s="290" t="s">
+      <c r="G2" s="289" t="s">
         <v>412</v>
       </c>
       <c r="I2" t="s">
@@ -39674,102 +39736,102 @@
       <c r="L2" t="s">
         <v>1404</v>
       </c>
-      <c r="M2" s="290" t="s">
+      <c r="M2" s="289" t="s">
         <v>412</v>
       </c>
-      <c r="N2" s="290">
+      <c r="N2" s="289">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:31">
-      <c r="B3" s="290">
+      <c r="B3" s="289">
         <v>1</v>
       </c>
-      <c r="C3" s="290" t="s">
+      <c r="C3" s="289" t="s">
         <v>524</v>
       </c>
-      <c r="F3" s="290">
+      <c r="F3" s="289">
         <v>1</v>
       </c>
-      <c r="G3" s="290" t="s">
+      <c r="G3" s="289" t="s">
         <v>524</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>524</v>
       </c>
       <c r="K3" s="43"/>
-      <c r="M3" s="290" t="s">
+      <c r="M3" s="289" t="s">
         <v>524</v>
       </c>
-      <c r="N3" s="290">
+      <c r="N3" s="289">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:31">
-      <c r="B4" s="290">
+      <c r="B4" s="289">
         <v>2</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="289" t="s">
         <v>559</v>
       </c>
-      <c r="F4" s="290">
+      <c r="F4" s="289">
         <v>2</v>
       </c>
-      <c r="G4" s="290" t="s">
+      <c r="G4" s="289" t="s">
         <v>559</v>
       </c>
       <c r="J4" s="43" t="s">
         <v>559</v>
       </c>
       <c r="K4" s="43"/>
-      <c r="M4" s="290" t="s">
+      <c r="M4" s="289" t="s">
         <v>559</v>
       </c>
-      <c r="N4" s="290">
+      <c r="N4" s="289">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:31">
-      <c r="B5" s="290">
+      <c r="B5" s="289">
         <v>3</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="289" t="s">
         <v>412</v>
       </c>
-      <c r="F5" s="290">
+      <c r="F5" s="289">
         <v>3</v>
       </c>
-      <c r="G5" s="290" t="s">
+      <c r="G5" s="289" t="s">
         <v>412</v>
       </c>
       <c r="J5" s="43" t="s">
         <v>1689</v>
       </c>
       <c r="K5" s="43"/>
-      <c r="M5" s="290" t="s">
+      <c r="M5" s="289" t="s">
         <v>1689</v>
       </c>
-      <c r="N5" s="290">
+      <c r="N5" s="289">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:31">
-      <c r="B6" s="290">
+      <c r="B6" s="289">
         <v>4</v>
       </c>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="289" t="s">
         <v>1689</v>
       </c>
-      <c r="F6" s="290">
+      <c r="F6" s="289">
         <v>4</v>
       </c>
-      <c r="G6" s="290" t="s">
+      <c r="G6" s="289" t="s">
         <v>1689</v>
       </c>
       <c r="J6" s="43"/>
       <c r="K6" s="43"/>
-      <c r="M6" s="290"/>
-      <c r="N6" s="290"/>
+      <c r="M6" s="289"/>
+      <c r="N6" s="289"/>
     </row>
     <row r="7" spans="1:31">
       <c r="M7" s="242" t="s">
@@ -39780,56 +39842,56 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="364" t="s">
+      <c r="B8" s="366" t="s">
         <v>2843</v>
       </c>
-      <c r="C8" s="364"/>
-      <c r="F8" s="364" t="s">
+      <c r="C8" s="366"/>
+      <c r="F8" s="366" t="s">
         <v>2844</v>
       </c>
-      <c r="G8" s="364"/>
-      <c r="I8" s="364" t="s">
+      <c r="G8" s="366"/>
+      <c r="I8" s="366" t="s">
         <v>2844</v>
       </c>
-      <c r="J8" s="364"/>
+      <c r="J8" s="366"/>
       <c r="M8" s="242" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="364" t="s">
+      <c r="F9" s="366" t="s">
         <v>2845</v>
       </c>
-      <c r="G9" s="364"/>
-      <c r="I9" s="364" t="s">
+      <c r="G9" s="366"/>
+      <c r="I9" s="366" t="s">
         <v>2846</v>
       </c>
-      <c r="J9" s="364"/>
-      <c r="M9" s="365" t="s">
+      <c r="J9" s="366"/>
+      <c r="M9" s="367" t="s">
         <v>2844</v>
       </c>
-      <c r="N9" s="365"/>
+      <c r="N9" s="367"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="M10" s="302" t="s">
+      <c r="M10" s="301" t="s">
         <v>2847</v>
       </c>
-      <c r="N10" s="302"/>
+      <c r="N10" s="301"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="363" t="s">
+      <c r="E11" s="365" t="s">
         <v>2848</v>
       </c>
-      <c r="F11" s="363"/>
-      <c r="G11" s="363"/>
-      <c r="H11" s="363"/>
-      <c r="I11" s="363"/>
-      <c r="J11" s="363"/>
-      <c r="K11" s="363"/>
-      <c r="L11" s="363"/>
-      <c r="M11" s="363"/>
-      <c r="N11" s="363"/>
-      <c r="O11" s="363"/>
+      <c r="F11" s="365"/>
+      <c r="G11" s="365"/>
+      <c r="H11" s="365"/>
+      <c r="I11" s="365"/>
+      <c r="J11" s="365"/>
+      <c r="K11" s="365"/>
+      <c r="L11" s="365"/>
+      <c r="M11" s="365"/>
+      <c r="N11" s="365"/>
+      <c r="O11" s="365"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -39870,7 +39932,7 @@
       <c r="J14" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="L14" s="299" t="s">
+      <c r="L14" s="298" t="s">
         <v>412</v>
       </c>
       <c r="M14" s="43" t="s">
@@ -39892,7 +39954,7 @@
       <c r="J15" s="43" t="s">
         <v>524</v>
       </c>
-      <c r="L15" s="299" t="s">
+      <c r="L15" s="298" t="s">
         <v>524</v>
       </c>
       <c r="M15" s="43" t="s">
@@ -39912,7 +39974,7 @@
       <c r="J16" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="L16" s="299" t="s">
+      <c r="L16" s="298" t="s">
         <v>559</v>
       </c>
       <c r="M16" s="43" t="s">
@@ -40008,7 +40070,7 @@
       <c r="AE19" s="27"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="C20" s="298" t="s">
+      <c r="C20" s="297" t="s">
         <v>412</v>
       </c>
       <c r="D20" s="43" t="s">
@@ -40047,7 +40109,7 @@
       <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="C21" s="298" t="s">
+      <c r="C21" s="297" t="s">
         <v>524</v>
       </c>
       <c r="D21" s="43" t="s">
@@ -40083,7 +40145,7 @@
       <c r="AE21" s="27"/>
     </row>
     <row r="22" spans="1:32">
-      <c r="C22" s="298" t="s">
+      <c r="C22" s="297" t="s">
         <v>559</v>
       </c>
       <c r="D22" s="43" t="s">
@@ -40352,16 +40414,16 @@
       <c r="AE31" s="27"/>
     </row>
     <row r="32" spans="1:32">
-      <c r="E32" s="300" t="s">
+      <c r="E32" s="299" t="s">
         <v>2862</v>
       </c>
       <c r="G32" s="43" t="s">
         <v>2864</v>
       </c>
-      <c r="I32" s="300" t="s">
+      <c r="I32" s="299" t="s">
         <v>2862</v>
       </c>
-      <c r="K32" s="300"/>
+      <c r="K32" s="299"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
@@ -40386,12 +40448,12 @@
       </c>
     </row>
     <row r="33" spans="1:32">
-      <c r="E33" s="300"/>
+      <c r="E33" s="299"/>
       <c r="G33" s="43" t="s">
         <v>2865</v>
       </c>
-      <c r="I33" s="300"/>
-      <c r="K33" s="300"/>
+      <c r="I33" s="299"/>
+      <c r="K33" s="299"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
       <c r="O33" s="27"/>
@@ -40416,12 +40478,12 @@
       </c>
     </row>
     <row r="34" spans="1:32">
-      <c r="E34" s="300"/>
+      <c r="E34" s="299"/>
       <c r="G34" s="43" t="s">
         <v>2866</v>
       </c>
-      <c r="I34" s="300"/>
-      <c r="K34" s="300"/>
+      <c r="I34" s="299"/>
+      <c r="K34" s="299"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
@@ -41109,10 +41171,10 @@
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="B78" s="296" t="s">
+      <c r="B78" s="295" t="s">
         <v>412</v>
       </c>
-      <c r="C78" s="296">
+      <c r="C78" s="295">
         <v>50</v>
       </c>
       <c r="F78" t="s">
@@ -41120,10 +41182,10 @@
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="B79" s="296" t="s">
+      <c r="B79" s="295" t="s">
         <v>524</v>
       </c>
-      <c r="C79" s="296">
+      <c r="C79" s="295">
         <v>80</v>
       </c>
       <c r="F79" t="s">
@@ -41131,10 +41193,10 @@
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="B80" s="296" t="s">
+      <c r="B80" s="295" t="s">
         <v>559</v>
       </c>
-      <c r="C80" s="296">
+      <c r="C80" s="295">
         <v>20</v>
       </c>
       <c r="L80" t="s">
@@ -41142,10 +41204,10 @@
       </c>
     </row>
     <row r="81" spans="2:12">
-      <c r="B81" s="296" t="s">
+      <c r="B81" s="295" t="s">
         <v>1689</v>
       </c>
-      <c r="C81" s="296">
+      <c r="C81" s="295">
         <v>80</v>
       </c>
       <c r="E81" s="125" t="s">
@@ -41157,17 +41219,17 @@
       <c r="K81" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="296" t="s">
+      <c r="L81" s="295" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="82" spans="2:12">
-      <c r="B82" s="296"/>
-      <c r="C82" s="296"/>
+      <c r="B82" s="295"/>
+      <c r="C82" s="295"/>
       <c r="F82" t="s">
         <v>2906</v>
       </c>
-      <c r="L82" s="296" t="s">
+      <c r="L82" s="295" t="s">
         <v>524</v>
       </c>
     </row>
@@ -41175,7 +41237,7 @@
       <c r="F83" t="s">
         <v>366</v>
       </c>
-      <c r="L83" s="296" t="s">
+      <c r="L83" s="295" t="s">
         <v>559</v>
       </c>
     </row>
@@ -41183,7 +41245,7 @@
       <c r="G84" t="s">
         <v>2907</v>
       </c>
-      <c r="L84" s="296" t="s">
+      <c r="L84" s="295" t="s">
         <v>1689</v>
       </c>
     </row>
@@ -43160,7 +43222,7 @@
       <c r="H2" s="248"/>
       <c r="I2" s="248"/>
       <c r="J2" s="248"/>
-      <c r="K2" s="301" t="s">
+      <c r="K2" s="300" t="s">
         <v>413</v>
       </c>
       <c r="L2" s="121" t="s">
@@ -43589,11 +43651,11 @@
       <c r="L6" s="43" t="s">
         <v>1509</v>
       </c>
-      <c r="M6" s="366" t="s">
+      <c r="M6" s="368" t="s">
         <v>1510</v>
       </c>
-      <c r="N6" s="366"/>
-      <c r="O6" s="366"/>
+      <c r="N6" s="368"/>
+      <c r="O6" s="368"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -44766,10 +44828,10 @@
       </c>
       <c r="G121" s="30"/>
       <c r="H121" s="31"/>
-      <c r="I121" s="345" t="s">
+      <c r="I121" s="347" t="s">
         <v>3018</v>
       </c>
-      <c r="J121" s="345" t="s">
+      <c r="J121" s="347" t="s">
         <v>3022</v>
       </c>
       <c r="K121" s="27"/>
@@ -44785,8 +44847,8 @@
       <c r="H122" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="I122" s="346"/>
-      <c r="J122" s="346"/>
+      <c r="I122" s="348"/>
+      <c r="J122" s="348"/>
       <c r="K122" s="27"/>
       <c r="L122" s="27"/>
       <c r="M122" s="34"/>
@@ -44800,8 +44862,8 @@
       <c r="H123" s="27">
         <v>19</v>
       </c>
-      <c r="I123" s="346"/>
-      <c r="J123" s="346"/>
+      <c r="I123" s="348"/>
+      <c r="J123" s="348"/>
       <c r="K123" s="27"/>
       <c r="L123" s="27"/>
       <c r="M123" s="34"/>
@@ -44815,8 +44877,8 @@
       <c r="H124" s="36" t="s">
         <v>2036</v>
       </c>
-      <c r="I124" s="346"/>
-      <c r="J124" s="346"/>
+      <c r="I124" s="348"/>
+      <c r="J124" s="348"/>
       <c r="K124" s="27"/>
       <c r="L124" s="27"/>
       <c r="M124" s="34"/>
@@ -44826,8 +44888,8 @@
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
-      <c r="I125" s="346"/>
-      <c r="J125" s="346"/>
+      <c r="I125" s="348"/>
+      <c r="J125" s="348"/>
       <c r="K125" s="27"/>
       <c r="L125" s="27"/>
       <c r="M125" s="34"/>
@@ -44840,8 +44902,8 @@
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
-      <c r="I126" s="346"/>
-      <c r="J126" s="346"/>
+      <c r="I126" s="348"/>
+      <c r="J126" s="348"/>
       <c r="K126" s="27"/>
       <c r="L126" s="27"/>
       <c r="M126" s="34"/>
@@ -44853,8 +44915,8 @@
       </c>
       <c r="G127" s="30"/>
       <c r="H127" s="31"/>
-      <c r="I127" s="346"/>
-      <c r="J127" s="346"/>
+      <c r="I127" s="348"/>
+      <c r="J127" s="348"/>
       <c r="K127" s="27"/>
       <c r="L127" s="27"/>
       <c r="M127" s="34"/>
@@ -44868,8 +44930,8 @@
       <c r="H128" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I128" s="346"/>
-      <c r="J128" s="346"/>
+      <c r="I128" s="348"/>
+      <c r="J128" s="348"/>
       <c r="K128" s="27"/>
       <c r="L128" s="27"/>
       <c r="M128" s="34"/>
@@ -44883,8 +44945,8 @@
       <c r="H129" s="27">
         <v>20</v>
       </c>
-      <c r="I129" s="346"/>
-      <c r="J129" s="346"/>
+      <c r="I129" s="348"/>
+      <c r="J129" s="348"/>
       <c r="K129" s="27"/>
       <c r="L129" s="27"/>
       <c r="M129" s="34"/>
@@ -44898,8 +44960,8 @@
       <c r="H130" s="36" t="s">
         <v>3014</v>
       </c>
-      <c r="I130" s="346"/>
-      <c r="J130" s="346"/>
+      <c r="I130" s="348"/>
+      <c r="J130" s="348"/>
       <c r="K130" s="27"/>
       <c r="L130" s="27"/>
       <c r="M130" s="34"/>
@@ -44909,8 +44971,8 @@
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
-      <c r="I131" s="346"/>
-      <c r="J131" s="346"/>
+      <c r="I131" s="348"/>
+      <c r="J131" s="348"/>
       <c r="K131" s="27"/>
       <c r="L131" s="27"/>
       <c r="M131" s="34"/>
@@ -44922,8 +44984,8 @@
       </c>
       <c r="G132" s="30"/>
       <c r="H132" s="31"/>
-      <c r="I132" s="346"/>
-      <c r="J132" s="346"/>
+      <c r="I132" s="348"/>
+      <c r="J132" s="348"/>
       <c r="K132" s="27"/>
       <c r="L132" s="27"/>
       <c r="M132" s="34"/>
@@ -44937,8 +44999,8 @@
       <c r="H133" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I133" s="346"/>
-      <c r="J133" s="346"/>
+      <c r="I133" s="348"/>
+      <c r="J133" s="348"/>
       <c r="K133" s="27"/>
       <c r="L133" s="27"/>
       <c r="M133" s="34"/>
@@ -44952,8 +45014,8 @@
       <c r="H134" s="27">
         <v>18</v>
       </c>
-      <c r="I134" s="346"/>
-      <c r="J134" s="346"/>
+      <c r="I134" s="348"/>
+      <c r="J134" s="348"/>
       <c r="K134" s="27"/>
       <c r="L134" s="27"/>
       <c r="M134" s="34"/>
@@ -44967,8 +45029,8 @@
       <c r="H135" s="36" t="s">
         <v>3015</v>
       </c>
-      <c r="I135" s="347"/>
-      <c r="J135" s="347"/>
+      <c r="I135" s="349"/>
+      <c r="J135" s="349"/>
       <c r="K135" s="27"/>
       <c r="L135" s="27"/>
       <c r="M135" s="34"/>
@@ -45048,8 +45110,8 @@
       <c r="H147" s="31" t="s">
         <v>3021</v>
       </c>
-      <c r="I147" s="348"/>
-      <c r="J147" s="348"/>
+      <c r="I147" s="350"/>
+      <c r="J147" s="350"/>
       <c r="K147" s="27"/>
       <c r="L147" s="27"/>
       <c r="M147" s="34"/>
@@ -45063,8 +45125,8 @@
       <c r="H148" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I148" s="349"/>
-      <c r="J148" s="349"/>
+      <c r="I148" s="351"/>
+      <c r="J148" s="351"/>
       <c r="K148" s="27"/>
       <c r="L148" s="27"/>
       <c r="M148" s="34"/>
@@ -45078,8 +45140,8 @@
       <c r="H149" s="27">
         <v>19</v>
       </c>
-      <c r="I149" s="349"/>
-      <c r="J149" s="349"/>
+      <c r="I149" s="351"/>
+      <c r="J149" s="351"/>
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
       <c r="M149" s="34"/>
@@ -45093,8 +45155,8 @@
       <c r="H150" s="36" t="s">
         <v>2036</v>
       </c>
-      <c r="I150" s="349"/>
-      <c r="J150" s="349"/>
+      <c r="I150" s="351"/>
+      <c r="J150" s="351"/>
       <c r="K150" s="27"/>
       <c r="L150" s="27"/>
       <c r="M150" s="34"/>
@@ -45104,8 +45166,8 @@
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
-      <c r="I151" s="349"/>
-      <c r="J151" s="349"/>
+      <c r="I151" s="351"/>
+      <c r="J151" s="351"/>
       <c r="K151" s="27"/>
       <c r="L151" s="27"/>
       <c r="M151" s="34"/>
@@ -45115,8 +45177,8 @@
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
-      <c r="I152" s="349"/>
-      <c r="J152" s="349"/>
+      <c r="I152" s="351"/>
+      <c r="J152" s="351"/>
       <c r="K152" s="27"/>
       <c r="L152" s="27"/>
       <c r="M152" s="34"/>
@@ -45132,8 +45194,8 @@
       <c r="H153" s="31" t="s">
         <v>3021</v>
       </c>
-      <c r="I153" s="349"/>
-      <c r="J153" s="349"/>
+      <c r="I153" s="351"/>
+      <c r="J153" s="351"/>
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
       <c r="M153" s="34"/>
@@ -45150,8 +45212,8 @@
       <c r="H154" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I154" s="349"/>
-      <c r="J154" s="349"/>
+      <c r="I154" s="351"/>
+      <c r="J154" s="351"/>
       <c r="K154" s="27"/>
       <c r="L154" s="27"/>
       <c r="M154" s="34"/>
@@ -45165,8 +45227,8 @@
       <c r="H155" s="27">
         <v>20</v>
       </c>
-      <c r="I155" s="349"/>
-      <c r="J155" s="349"/>
+      <c r="I155" s="351"/>
+      <c r="J155" s="351"/>
       <c r="K155" s="27"/>
       <c r="L155" s="27"/>
       <c r="M155" s="34"/>
@@ -45180,8 +45242,8 @@
       <c r="H156" s="36" t="s">
         <v>3014</v>
       </c>
-      <c r="I156" s="349"/>
-      <c r="J156" s="349"/>
+      <c r="I156" s="351"/>
+      <c r="J156" s="351"/>
       <c r="K156" s="27"/>
       <c r="L156" s="27"/>
       <c r="M156" s="34"/>
@@ -45191,8 +45253,8 @@
       <c r="F157" s="27"/>
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
-      <c r="I157" s="349"/>
-      <c r="J157" s="349"/>
+      <c r="I157" s="351"/>
+      <c r="J157" s="351"/>
       <c r="K157" s="27"/>
       <c r="L157" s="27"/>
       <c r="M157" s="34"/>
@@ -45208,8 +45270,8 @@
       <c r="H158" s="31" t="s">
         <v>3021</v>
       </c>
-      <c r="I158" s="349"/>
-      <c r="J158" s="349"/>
+      <c r="I158" s="351"/>
+      <c r="J158" s="351"/>
       <c r="K158" s="27"/>
       <c r="L158" s="27"/>
       <c r="M158" s="34"/>
@@ -45223,8 +45285,8 @@
       <c r="H159" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I159" s="349"/>
-      <c r="J159" s="349"/>
+      <c r="I159" s="351"/>
+      <c r="J159" s="351"/>
       <c r="K159" s="27"/>
       <c r="L159" s="27"/>
       <c r="M159" s="34"/>
@@ -45238,8 +45300,8 @@
       <c r="H160" s="27">
         <v>18</v>
       </c>
-      <c r="I160" s="349"/>
-      <c r="J160" s="349"/>
+      <c r="I160" s="351"/>
+      <c r="J160" s="351"/>
       <c r="K160" s="27"/>
       <c r="L160" s="27"/>
       <c r="M160" s="34"/>
@@ -45253,8 +45315,8 @@
       <c r="H161" s="36" t="s">
         <v>3015</v>
       </c>
-      <c r="I161" s="350"/>
-      <c r="J161" s="350"/>
+      <c r="I161" s="352"/>
+      <c r="J161" s="352"/>
       <c r="K161" s="27"/>
       <c r="L161" s="27"/>
       <c r="M161" s="34"/>
@@ -46213,7 +46275,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="343" t="s">
+      <c r="G269" s="345" t="s">
         <v>2589</v>
       </c>
       <c r="I269" s="56" t="s">
@@ -46234,7 +46296,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="344"/>
+      <c r="G270" s="346"/>
       <c r="I270" s="167" t="s">
         <v>2585</v>
       </c>
@@ -48181,17 +48243,17 @@
       <c r="A2" t="s">
         <v>3049</v>
       </c>
-      <c r="E2" s="341" t="s">
+      <c r="E2" s="343" t="s">
         <v>3057</v>
       </c>
-      <c r="F2" s="351"/>
-      <c r="G2" s="351"/>
-      <c r="H2" s="351"/>
-      <c r="I2" s="351"/>
-      <c r="J2" s="351"/>
-      <c r="K2" s="351"/>
-      <c r="L2" s="351"/>
-      <c r="M2" s="342"/>
+      <c r="F2" s="353"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="353"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="353"/>
+      <c r="M2" s="344"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -48200,10 +48262,10 @@
       <c r="C3" t="s">
         <v>2584</v>
       </c>
-      <c r="E3" s="311" t="s">
+      <c r="E3" s="310" t="s">
         <v>1593</v>
       </c>
-      <c r="F3" s="312" t="s">
+      <c r="F3" s="311" t="s">
         <v>2184</v>
       </c>
       <c r="G3" s="27"/>
@@ -48477,17 +48539,17 @@
       <c r="A23" t="s">
         <v>3049</v>
       </c>
-      <c r="E23" s="341" t="s">
+      <c r="E23" s="343" t="s">
         <v>3057</v>
       </c>
-      <c r="F23" s="351"/>
-      <c r="G23" s="351"/>
-      <c r="H23" s="351"/>
-      <c r="I23" s="351"/>
-      <c r="J23" s="351"/>
-      <c r="K23" s="351"/>
-      <c r="L23" s="351"/>
-      <c r="M23" s="342"/>
+      <c r="F23" s="353"/>
+      <c r="G23" s="353"/>
+      <c r="H23" s="353"/>
+      <c r="I23" s="353"/>
+      <c r="J23" s="353"/>
+      <c r="K23" s="353"/>
+      <c r="L23" s="353"/>
+      <c r="M23" s="344"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="B24" t="s">
@@ -48496,10 +48558,10 @@
       <c r="C24" t="s">
         <v>2584</v>
       </c>
-      <c r="E24" s="311" t="s">
+      <c r="E24" s="310" t="s">
         <v>1593</v>
       </c>
-      <c r="F24" s="312" t="s">
+      <c r="F24" s="311" t="s">
         <v>2184</v>
       </c>
       <c r="G24" s="27"/>
@@ -48763,17 +48825,17 @@
       <c r="A42" t="s">
         <v>3049</v>
       </c>
-      <c r="E42" s="341" t="s">
+      <c r="E42" s="343" t="s">
         <v>3057</v>
       </c>
-      <c r="F42" s="351"/>
-      <c r="G42" s="351"/>
-      <c r="H42" s="351"/>
-      <c r="I42" s="351"/>
-      <c r="J42" s="351"/>
-      <c r="K42" s="351"/>
-      <c r="L42" s="351"/>
-      <c r="M42" s="342"/>
+      <c r="F42" s="353"/>
+      <c r="G42" s="353"/>
+      <c r="H42" s="353"/>
+      <c r="I42" s="353"/>
+      <c r="J42" s="353"/>
+      <c r="K42" s="353"/>
+      <c r="L42" s="353"/>
+      <c r="M42" s="344"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -48782,10 +48844,10 @@
       <c r="C43" t="s">
         <v>2584</v>
       </c>
-      <c r="E43" s="311" t="s">
+      <c r="E43" s="310" t="s">
         <v>1593</v>
       </c>
-      <c r="F43" s="312" t="s">
+      <c r="F43" s="311" t="s">
         <v>2184</v>
       </c>
       <c r="G43" s="27"/>
@@ -49069,32 +49131,32 @@
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="64" spans="1:15" ht="23.25">
-      <c r="A64" s="325" t="s">
+      <c r="A64" s="324" t="s">
         <v>3088</v>
       </c>
-      <c r="B64" s="325"/>
-      <c r="C64" s="325"/>
-      <c r="D64" s="325"/>
-      <c r="G64" s="341" t="s">
+      <c r="B64" s="324"/>
+      <c r="C64" s="324"/>
+      <c r="D64" s="324"/>
+      <c r="G64" s="343" t="s">
         <v>3057</v>
       </c>
-      <c r="H64" s="351"/>
-      <c r="I64" s="351"/>
-      <c r="J64" s="351"/>
-      <c r="K64" s="351"/>
-      <c r="L64" s="351"/>
-      <c r="M64" s="351"/>
-      <c r="N64" s="351"/>
-      <c r="O64" s="342"/>
+      <c r="H64" s="353"/>
+      <c r="I64" s="353"/>
+      <c r="J64" s="353"/>
+      <c r="K64" s="353"/>
+      <c r="L64" s="353"/>
+      <c r="M64" s="353"/>
+      <c r="N64" s="353"/>
+      <c r="O64" s="344"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" thickBot="1">
       <c r="B65" t="s">
         <v>1635</v>
       </c>
-      <c r="G65" s="311" t="s">
+      <c r="G65" s="310" t="s">
         <v>1593</v>
       </c>
-      <c r="H65" s="324" t="s">
+      <c r="H65" s="323" t="s">
         <v>2184</v>
       </c>
       <c r="I65" s="27"/>
@@ -49116,22 +49178,22 @@
         <v>1802</v>
       </c>
       <c r="I66" s="117"/>
-      <c r="J66" s="313" t="s">
+      <c r="J66" s="312" t="s">
         <v>1802</v>
       </c>
-      <c r="K66" s="314"/>
-      <c r="L66" s="315"/>
-      <c r="M66" s="313"/>
+      <c r="K66" s="313"/>
+      <c r="L66" s="314"/>
+      <c r="M66" s="312"/>
       <c r="N66" s="51"/>
       <c r="O66" s="52"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="327"/>
-      <c r="B67" s="327" t="s">
+      <c r="A67" s="326"/>
+      <c r="B67" s="326" t="s">
         <v>3089</v>
       </c>
-      <c r="C67" s="327"/>
-      <c r="D67" s="327" t="s">
+      <c r="C67" s="326"/>
+      <c r="D67" s="326" t="s">
         <v>3100</v>
       </c>
       <c r="G67" s="50" t="s">
@@ -49141,24 +49203,24 @@
         <v>20</v>
       </c>
       <c r="I67" s="117"/>
-      <c r="J67" s="313"/>
+      <c r="J67" s="312"/>
       <c r="K67" s="50" t="s">
         <v>58</v>
       </c>
       <c r="L67" s="52" t="s">
         <v>1832</v>
       </c>
-      <c r="M67" s="321"/>
+      <c r="M67" s="320"/>
       <c r="N67" s="51"/>
       <c r="O67" s="52"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="327" t="s">
+      <c r="A68" s="326" t="s">
         <v>144</v>
       </c>
-      <c r="B68" s="327"/>
-      <c r="C68" s="327"/>
-      <c r="D68" s="327"/>
+      <c r="B68" s="326"/>
+      <c r="C68" s="326"/>
+      <c r="D68" s="326"/>
       <c r="G68" s="50" t="s">
         <v>1735</v>
       </c>
@@ -49166,24 +49228,24 @@
         <v>1802</v>
       </c>
       <c r="I68" s="51"/>
-      <c r="J68" s="313"/>
+      <c r="J68" s="312"/>
       <c r="K68" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="L68" s="316">
+      <c r="L68" s="315">
         <v>0</v>
       </c>
-      <c r="M68" s="321"/>
+      <c r="M68" s="320"/>
       <c r="N68" s="51"/>
       <c r="O68" s="52"/>
     </row>
     <row r="69" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A69" s="327" t="s">
+      <c r="A69" s="326" t="s">
         <v>3090</v>
       </c>
-      <c r="B69" s="327"/>
-      <c r="C69" s="327"/>
-      <c r="D69" s="327"/>
+      <c r="B69" s="326"/>
+      <c r="C69" s="326"/>
+      <c r="D69" s="326"/>
       <c r="E69" t="s">
         <v>2398</v>
       </c>
@@ -49194,10 +49256,10 @@
         <v>20</v>
       </c>
       <c r="I69" s="51"/>
-      <c r="J69" s="313"/>
-      <c r="K69" s="317"/>
-      <c r="L69" s="322"/>
-      <c r="M69" s="323"/>
+      <c r="J69" s="312"/>
+      <c r="K69" s="316"/>
+      <c r="L69" s="321"/>
+      <c r="M69" s="322"/>
       <c r="N69" s="27"/>
       <c r="O69" s="52"/>
     </row>
@@ -49212,10 +49274,10 @@
         <v>2361</v>
       </c>
       <c r="I70" s="51"/>
-      <c r="J70" s="313"/>
-      <c r="K70" s="313"/>
-      <c r="L70" s="313"/>
-      <c r="M70" s="313"/>
+      <c r="J70" s="312"/>
+      <c r="K70" s="312"/>
+      <c r="L70" s="312"/>
+      <c r="M70" s="312"/>
       <c r="N70" s="51"/>
       <c r="O70" s="52"/>
     </row>
@@ -49233,9 +49295,9 @@
       <c r="J71" s="51" t="s">
         <v>2361</v>
       </c>
-      <c r="K71" s="314"/>
-      <c r="L71" s="315"/>
-      <c r="M71" s="313"/>
+      <c r="K71" s="313"/>
+      <c r="L71" s="314"/>
+      <c r="M71" s="312"/>
       <c r="N71" s="51"/>
       <c r="O71" s="52"/>
     </row>
@@ -49250,14 +49312,14 @@
         <v>2361</v>
       </c>
       <c r="I72" s="51"/>
-      <c r="J72" s="313"/>
+      <c r="J72" s="312"/>
       <c r="K72" s="50" t="s">
         <v>58</v>
       </c>
       <c r="L72" s="52" t="s">
         <v>1832</v>
       </c>
-      <c r="M72" s="313"/>
+      <c r="M72" s="312"/>
       <c r="N72" s="51"/>
       <c r="O72" s="52"/>
     </row>
@@ -49276,14 +49338,14 @@
         <v>30</v>
       </c>
       <c r="I73" s="51"/>
-      <c r="J73" s="313"/>
+      <c r="J73" s="312"/>
       <c r="K73" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="L73" s="316">
+      <c r="L73" s="315">
         <v>0</v>
       </c>
-      <c r="M73" s="313"/>
+      <c r="M73" s="312"/>
       <c r="N73" s="51"/>
       <c r="O73" s="52"/>
     </row>
@@ -49295,8 +49357,8 @@
       <c r="H74" s="51"/>
       <c r="I74" s="51"/>
       <c r="J74" s="51"/>
-      <c r="K74" s="317"/>
-      <c r="L74" s="322"/>
+      <c r="K74" s="316"/>
+      <c r="L74" s="321"/>
       <c r="M74" s="51"/>
       <c r="N74" s="51"/>
       <c r="O74" s="52"/>
@@ -49415,10 +49477,10 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="28.5">
-      <c r="A82" s="326" t="s">
+      <c r="A82" s="325" t="s">
         <v>3095</v>
       </c>
-      <c r="B82" s="326"/>
+      <c r="B82" s="325"/>
       <c r="D82" t="s">
         <v>3107</v>
       </c>
@@ -49595,7 +49657,7 @@
       <c r="J93" s="27"/>
       <c r="K93" s="34"/>
       <c r="L93" s="27"/>
-      <c r="M93" s="318"/>
+      <c r="M93" s="317"/>
       <c r="N93" s="27"/>
       <c r="O93" s="27"/>
     </row>
@@ -49646,7 +49708,7 @@
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
-      <c r="I96" s="318"/>
+      <c r="I96" s="317"/>
       <c r="J96" s="27"/>
       <c r="K96" s="27"/>
       <c r="L96" s="27"/>
@@ -51032,8 +51094,8 @@
       <c r="O177" s="27"/>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="319"/>
-      <c r="B178" s="319"/>
+      <c r="A178" s="318"/>
+      <c r="B178" s="318"/>
       <c r="C178" s="172"/>
       <c r="D178" s="27"/>
       <c r="E178" s="27"/>
@@ -51049,8 +51111,8 @@
       <c r="O178" s="27"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="319"/>
-      <c r="B179" s="319"/>
+      <c r="A179" s="318"/>
+      <c r="B179" s="318"/>
       <c r="C179" s="27"/>
       <c r="D179" s="27"/>
       <c r="E179" s="27"/>
@@ -51424,7 +51486,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="172"/>
-      <c r="B201" s="320"/>
+      <c r="B201" s="319"/>
       <c r="C201" s="27"/>
       <c r="D201" s="27"/>
       <c r="E201" s="51"/>
@@ -51440,7 +51502,7 @@
       <c r="O201" s="27"/>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="320"/>
+      <c r="A202" s="319"/>
       <c r="B202" s="27"/>
       <c r="C202" s="27"/>
       <c r="D202" s="27"/>
@@ -51849,7 +51911,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="172"/>
-      <c r="B226" s="320"/>
+      <c r="B226" s="319"/>
       <c r="C226" s="27"/>
       <c r="D226" s="27"/>
       <c r="E226" s="51"/>
@@ -51882,7 +51944,7 @@
       <c r="O227" s="27"/>
     </row>
     <row r="228" spans="1:15">
-      <c r="A228" s="320"/>
+      <c r="A228" s="319"/>
       <c r="B228" s="27"/>
       <c r="C228" s="27"/>
       <c r="D228" s="27"/>
@@ -52030,49 +52092,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="352" t="s">
+      <c r="B2" s="354" t="s">
         <v>2405</v>
       </c>
-      <c r="C2" s="353"/>
-      <c r="D2" s="354"/>
-      <c r="F2" s="352" t="s">
+      <c r="C2" s="355"/>
+      <c r="D2" s="356"/>
+      <c r="F2" s="354" t="s">
         <v>3024</v>
       </c>
-      <c r="G2" s="353"/>
-      <c r="H2" s="353"/>
-      <c r="I2" s="354"/>
-      <c r="K2" s="352" t="s">
+      <c r="G2" s="355"/>
+      <c r="H2" s="355"/>
+      <c r="I2" s="356"/>
+      <c r="K2" s="354" t="s">
         <v>3026</v>
       </c>
-      <c r="L2" s="353"/>
-      <c r="M2" s="354"/>
+      <c r="L2" s="355"/>
+      <c r="M2" s="356"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="355"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="357"/>
-      <c r="F3" s="355"/>
-      <c r="G3" s="356"/>
-      <c r="H3" s="356"/>
-      <c r="I3" s="357"/>
-      <c r="K3" s="355"/>
-      <c r="L3" s="356"/>
-      <c r="M3" s="357"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="359"/>
+      <c r="F3" s="357"/>
+      <c r="G3" s="358"/>
+      <c r="H3" s="358"/>
+      <c r="I3" s="359"/>
+      <c r="K3" s="357"/>
+      <c r="L3" s="358"/>
+      <c r="M3" s="359"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="355"/>
-      <c r="C4" s="356"/>
-      <c r="D4" s="357"/>
-      <c r="F4" s="355"/>
-      <c r="G4" s="356"/>
-      <c r="H4" s="356"/>
-      <c r="I4" s="357"/>
-      <c r="K4" s="355"/>
-      <c r="L4" s="356"/>
-      <c r="M4" s="357"/>
+      <c r="B4" s="357"/>
+      <c r="C4" s="358"/>
+      <c r="D4" s="359"/>
+      <c r="F4" s="357"/>
+      <c r="G4" s="358"/>
+      <c r="H4" s="358"/>
+      <c r="I4" s="359"/>
+      <c r="K4" s="357"/>
+      <c r="L4" s="358"/>
+      <c r="M4" s="359"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="360" t="s">
         <v>2190</v>
       </c>
       <c r="B5" s="80"/>
@@ -52099,7 +52161,7 @@
       <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="358"/>
+      <c r="A6" s="360"/>
       <c r="B6" s="80"/>
       <c r="C6" s="39" t="s">
         <v>58</v>
@@ -52124,7 +52186,7 @@
       <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="358"/>
+      <c r="A7" s="360"/>
       <c r="B7" s="80"/>
       <c r="C7" s="39" t="s">
         <v>3028</v>
@@ -52157,54 +52219,54 @@
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="358" t="s">
+      <c r="A9" s="360" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="306" t="s">
+      <c r="B9" s="305" t="s">
         <v>3023</v>
       </c>
       <c r="C9" s="143"/>
       <c r="D9" s="251"/>
-      <c r="F9" s="306" t="s">
+      <c r="F9" s="305" t="s">
         <v>3031</v>
       </c>
       <c r="G9" s="143"/>
       <c r="H9" s="143"/>
       <c r="I9" s="251"/>
-      <c r="K9" s="306" t="s">
+      <c r="K9" s="305" t="s">
         <v>3030</v>
       </c>
       <c r="L9" s="143"/>
       <c r="M9" s="251"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="358"/>
-      <c r="B10" s="306"/>
-      <c r="C10" s="307" t="s">
+      <c r="A10" s="360"/>
+      <c r="B10" s="305"/>
+      <c r="C10" s="306" t="s">
         <v>3033</v>
       </c>
       <c r="D10" s="251"/>
       <c r="E10" t="s">
         <v>3035</v>
       </c>
-      <c r="F10" s="306"/>
+      <c r="F10" s="305"/>
       <c r="G10" s="143" t="s">
         <v>3036</v>
       </c>
       <c r="H10" s="251"/>
       <c r="I10" s="251"/>
-      <c r="K10" s="306"/>
+      <c r="K10" s="305"/>
       <c r="L10" s="143" t="s">
         <v>3029</v>
       </c>
       <c r="M10" s="251"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="358"/>
-      <c r="B11" s="306"/>
+      <c r="A11" s="360"/>
+      <c r="B11" s="305"/>
       <c r="C11" s="143"/>
       <c r="D11" s="251"/>
-      <c r="F11" s="306"/>
+      <c r="F11" s="305"/>
       <c r="G11" s="143"/>
       <c r="H11" s="251" t="s">
         <v>3032</v>
@@ -52213,24 +52275,24 @@
       <c r="J11" t="s">
         <v>3034</v>
       </c>
-      <c r="K11" s="306"/>
+      <c r="K11" s="305"/>
       <c r="L11" s="143"/>
       <c r="M11" s="251" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="358"/>
-      <c r="B12" s="306"/>
+      <c r="A12" s="360"/>
+      <c r="B12" s="305"/>
       <c r="C12" s="143"/>
       <c r="D12" s="251"/>
-      <c r="F12" s="306"/>
+      <c r="F12" s="305"/>
       <c r="G12" s="143" t="s">
         <v>137</v>
       </c>
       <c r="H12" s="251"/>
       <c r="I12" s="251"/>
-      <c r="K12" s="306"/>
+      <c r="K12" s="305"/>
       <c r="L12" s="143" t="s">
         <v>137</v>
       </c>
@@ -52240,13 +52302,13 @@
       <c r="B13" s="33"/>
       <c r="C13" s="27"/>
       <c r="D13" s="34"/>
-      <c r="F13" s="306"/>
+      <c r="F13" s="305"/>
       <c r="G13" s="143"/>
       <c r="H13" s="251" t="s">
         <v>2086</v>
       </c>
       <c r="I13" s="251"/>
-      <c r="K13" s="306"/>
+      <c r="K13" s="305"/>
       <c r="L13" s="143"/>
       <c r="M13" s="251" t="s">
         <v>2086</v>
@@ -52335,21 +52397,21 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="B28" s="43"/>
-      <c r="D28" s="308"/>
-      <c r="E28" s="309"/>
-      <c r="F28" s="310"/>
+      <c r="D28" s="307"/>
+      <c r="E28" s="308"/>
+      <c r="F28" s="309"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="B29" s="43"/>
-      <c r="D29" s="308"/>
-      <c r="E29" s="309"/>
-      <c r="F29" s="310"/>
+      <c r="D29" s="307"/>
+      <c r="E29" s="308"/>
+      <c r="F29" s="309"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="B30" s="43"/>
-      <c r="D30" s="308"/>
-      <c r="E30" s="309"/>
-      <c r="F30" s="310"/>
+      <c r="D30" s="307"/>
+      <c r="E30" s="308"/>
+      <c r="F30" s="309"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="43"/>
@@ -52400,23 +52462,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="362" t="s">
         <v>2598</v>
       </c>
-      <c r="B1" s="360"/>
-      <c r="C1" s="360"/>
-      <c r="D1" s="360"/>
-      <c r="E1" s="360"/>
-      <c r="F1" s="360"/>
-      <c r="I1" s="360" t="s">
+      <c r="B1" s="362"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="I1" s="362" t="s">
         <v>2610</v>
       </c>
-      <c r="J1" s="360"/>
-      <c r="K1" s="360"/>
-      <c r="L1" s="360"/>
-      <c r="M1" s="360"/>
-      <c r="N1" s="360"/>
-      <c r="O1" s="360"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="362"/>
+      <c r="M1" s="362"/>
+      <c r="N1" s="362"/>
+      <c r="O1" s="362"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -52572,28 +52634,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="339" t="s">
+      <c r="A12" s="341" t="s">
         <v>2612</v>
       </c>
-      <c r="B12" s="359"/>
-      <c r="C12" s="359"/>
-      <c r="D12" s="359"/>
-      <c r="E12" s="359"/>
-      <c r="F12" s="359"/>
-      <c r="G12" s="359"/>
-      <c r="H12" s="340"/>
-      <c r="I12" s="339" t="s">
+      <c r="B12" s="361"/>
+      <c r="C12" s="361"/>
+      <c r="D12" s="361"/>
+      <c r="E12" s="361"/>
+      <c r="F12" s="361"/>
+      <c r="G12" s="361"/>
+      <c r="H12" s="342"/>
+      <c r="I12" s="341" t="s">
         <v>2612</v>
       </c>
-      <c r="J12" s="359"/>
-      <c r="K12" s="359"/>
-      <c r="L12" s="359"/>
-      <c r="M12" s="359"/>
-      <c r="N12" s="359"/>
-      <c r="O12" s="359"/>
-      <c r="P12" s="359"/>
-      <c r="Q12" s="359"/>
-      <c r="R12" s="340"/>
+      <c r="J12" s="361"/>
+      <c r="K12" s="361"/>
+      <c r="L12" s="361"/>
+      <c r="M12" s="361"/>
+      <c r="N12" s="361"/>
+      <c r="O12" s="361"/>
+      <c r="P12" s="361"/>
+      <c r="Q12" s="361"/>
+      <c r="R12" s="342"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -52821,14 +52883,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="360" t="s">
+      <c r="A24" s="362" t="s">
         <v>2598</v>
       </c>
-      <c r="B24" s="360"/>
-      <c r="C24" s="360"/>
-      <c r="D24" s="360"/>
-      <c r="E24" s="360"/>
-      <c r="F24" s="360"/>
+      <c r="B24" s="362"/>
+      <c r="C24" s="362"/>
+      <c r="D24" s="362"/>
+      <c r="E24" s="362"/>
+      <c r="F24" s="362"/>
       <c r="H24" s="260" t="s">
         <v>2610</v>
       </c>
@@ -52838,11 +52900,11 @@
       <c r="L24" s="260"/>
       <c r="M24" s="260"/>
       <c r="N24" s="260"/>
-      <c r="P24" s="360" t="s">
+      <c r="P24" s="362" t="s">
         <v>2651</v>
       </c>
-      <c r="Q24" s="360"/>
-      <c r="R24" s="360"/>
+      <c r="Q24" s="362"/>
+      <c r="R24" s="362"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -53082,28 +53144,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="339" t="s">
+      <c r="A35" s="341" t="s">
         <v>2652</v>
       </c>
-      <c r="B35" s="359"/>
-      <c r="C35" s="359"/>
-      <c r="D35" s="359"/>
-      <c r="E35" s="359"/>
-      <c r="F35" s="359"/>
-      <c r="G35" s="359"/>
-      <c r="H35" s="340"/>
-      <c r="I35" s="339" t="s">
+      <c r="B35" s="361"/>
+      <c r="C35" s="361"/>
+      <c r="D35" s="361"/>
+      <c r="E35" s="361"/>
+      <c r="F35" s="361"/>
+      <c r="G35" s="361"/>
+      <c r="H35" s="342"/>
+      <c r="I35" s="341" t="s">
         <v>1113</v>
       </c>
-      <c r="J35" s="359"/>
-      <c r="K35" s="359"/>
-      <c r="L35" s="359"/>
-      <c r="M35" s="359"/>
-      <c r="N35" s="359"/>
-      <c r="O35" s="359"/>
-      <c r="P35" s="359"/>
-      <c r="Q35" s="359"/>
-      <c r="R35" s="340"/>
+      <c r="J35" s="361"/>
+      <c r="K35" s="361"/>
+      <c r="L35" s="361"/>
+      <c r="M35" s="361"/>
+      <c r="N35" s="361"/>
+      <c r="O35" s="361"/>
+      <c r="P35" s="361"/>
+      <c r="Q35" s="361"/>
+      <c r="R35" s="342"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="16" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5675" uniqueCount="3026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5712" uniqueCount="3043">
   <si>
     <t>USER</t>
   </si>
@@ -9365,6 +9365,57 @@
   </si>
   <si>
     <t>System.arraycopy(num3, 1, num4, 0, 4);</t>
+  </si>
+  <si>
+    <t>public class FacebookCustomer {</t>
+  </si>
+  <si>
+    <t>String school;</t>
+  </si>
+  <si>
+    <t>String messages;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacebookCustomer fbc1=new FacebookCustomer(); </t>
+  </si>
+  <si>
+    <t>FacebookCustomer fbc2;</t>
+  </si>
+  <si>
+    <t>fbc1</t>
+  </si>
+  <si>
+    <t>fbc2</t>
+  </si>
+  <si>
+    <t>sysout(fbc1.name);</t>
+  </si>
+  <si>
+    <t>sysout(fbc2.name);</t>
+  </si>
+  <si>
+    <t>NULLPOINTEREXCEPTION</t>
+  </si>
+  <si>
+    <t>using dot on a null variable</t>
+  </si>
+  <si>
+    <t>sysout(fbc1.school.toString());</t>
+  </si>
+  <si>
+    <t>fbc1 is null</t>
+  </si>
+  <si>
+    <t>fbc1 has school.. Is this null</t>
+  </si>
+  <si>
+    <t>THROWABLE</t>
+  </si>
+  <si>
+    <t>RUNTIME EXCEPTION</t>
+  </si>
+  <si>
+    <t>NULLPOINTER Exception</t>
   </si>
 </sst>
 </file>
@@ -10652,6 +10703,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10762,13 +10820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11068,8 +11119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:K24"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11104,13 +11155,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="344" t="s">
+      <c r="H3" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="346"/>
+      <c r="I3" s="348"/>
+      <c r="J3" s="348"/>
+      <c r="K3" s="348"/>
+      <c r="L3" s="349"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
@@ -11131,20 +11182,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="347" t="s">
+      <c r="G6" s="350" t="s">
         <v>1509</v>
       </c>
-      <c r="H6" s="348"/>
+      <c r="H6" s="351"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="347" t="s">
+      <c r="J6" s="350" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="348"/>
+      <c r="K6" s="351"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="347" t="s">
+      <c r="M6" s="350" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="348"/>
+      <c r="N6" s="351"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="125" t="s">
@@ -11162,20 +11213,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="349" t="s">
+      <c r="G8" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="350"/>
+      <c r="H8" s="353"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="349" t="s">
+      <c r="J8" s="352" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="350"/>
+      <c r="K8" s="353"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="349" t="s">
+      <c r="M8" s="352" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="350"/>
+      <c r="N8" s="353"/>
       <c r="Q8" s="142"/>
     </row>
     <row r="9" spans="1:18">
@@ -11191,29 +11242,29 @@
       <c r="Q9" s="142"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="340" t="s">
+      <c r="F10" s="343" t="s">
         <v>2328</v>
       </c>
-      <c r="G10" s="341"/>
-      <c r="H10" s="341"/>
-      <c r="I10" s="341"/>
-      <c r="J10" s="341"/>
-      <c r="K10" s="341"/>
-      <c r="L10" s="341"/>
-      <c r="M10" s="341"/>
-      <c r="N10" s="341"/>
+      <c r="G10" s="344"/>
+      <c r="H10" s="344"/>
+      <c r="I10" s="344"/>
+      <c r="J10" s="344"/>
+      <c r="K10" s="344"/>
+      <c r="L10" s="344"/>
+      <c r="M10" s="344"/>
+      <c r="N10" s="344"/>
       <c r="Q10" s="142"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="342"/>
-      <c r="G11" s="343"/>
-      <c r="H11" s="343"/>
-      <c r="I11" s="343"/>
-      <c r="J11" s="343"/>
-      <c r="K11" s="343"/>
-      <c r="L11" s="343"/>
-      <c r="M11" s="343"/>
-      <c r="N11" s="343"/>
+      <c r="F11" s="345"/>
+      <c r="G11" s="346"/>
+      <c r="H11" s="346"/>
+      <c r="I11" s="346"/>
+      <c r="J11" s="346"/>
+      <c r="K11" s="346"/>
+      <c r="L11" s="346"/>
+      <c r="M11" s="346"/>
+      <c r="N11" s="346"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -11255,17 +11306,17 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
       <c r="D14" s="125"/>
-      <c r="F14" s="337" t="s">
+      <c r="F14" s="340" t="s">
         <v>2701</v>
       </c>
-      <c r="G14" s="338"/>
-      <c r="H14" s="338"/>
-      <c r="I14" s="338"/>
-      <c r="J14" s="338"/>
-      <c r="K14" s="338"/>
-      <c r="L14" s="338"/>
-      <c r="M14" s="338"/>
-      <c r="N14" s="339"/>
+      <c r="G14" s="341"/>
+      <c r="H14" s="341"/>
+      <c r="I14" s="341"/>
+      <c r="J14" s="341"/>
+      <c r="K14" s="341"/>
+      <c r="L14" s="341"/>
+      <c r="M14" s="341"/>
+      <c r="N14" s="342"/>
     </row>
     <row r="15" spans="1:18">
       <c r="F15" s="139"/>
@@ -24408,7 +24459,7 @@
       <c r="K3" s="99"/>
       <c r="L3" s="332"/>
       <c r="M3" s="100"/>
-      <c r="N3" s="369" t="s">
+      <c r="N3" s="372" t="s">
         <v>2954</v>
       </c>
       <c r="O3" s="51"/>
@@ -24441,7 +24492,7 @@
         <v>1008</v>
       </c>
       <c r="M4" s="219"/>
-      <c r="N4" s="369"/>
+      <c r="N4" s="372"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -24458,7 +24509,7 @@
         <v>12345</v>
       </c>
       <c r="M5" s="336"/>
-      <c r="N5" s="369"/>
+      <c r="N5" s="372"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -24476,7 +24527,7 @@
       <c r="K6" s="74"/>
       <c r="L6" s="74"/>
       <c r="M6" s="74"/>
-      <c r="N6" s="369"/>
+      <c r="N6" s="372"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -24500,7 +24551,7 @@
       <c r="K7" s="99"/>
       <c r="L7" s="332"/>
       <c r="M7" s="100"/>
-      <c r="N7" s="369"/>
+      <c r="N7" s="372"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -24522,7 +24573,7 @@
         <v>524</v>
       </c>
       <c r="M8" s="219"/>
-      <c r="N8" s="369"/>
+      <c r="N8" s="372"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -24544,7 +24595,7 @@
         <v>12346</v>
       </c>
       <c r="M9" s="336"/>
-      <c r="N9" s="369"/>
+      <c r="N9" s="372"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -24562,7 +24613,7 @@
       <c r="K10" s="74"/>
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
-      <c r="N10" s="369"/>
+      <c r="N10" s="372"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
@@ -24580,7 +24631,7 @@
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
       <c r="M11" s="74"/>
-      <c r="N11" s="369"/>
+      <c r="N11" s="372"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
@@ -24596,7 +24647,7 @@
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
       <c r="M12" s="74"/>
-      <c r="N12" s="369"/>
+      <c r="N12" s="372"/>
       <c r="O12" s="51"/>
       <c r="P12" s="51"/>
       <c r="Q12" s="52"/>
@@ -24609,7 +24660,7 @@
       <c r="K13" s="51"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
-      <c r="N13" s="369"/>
+      <c r="N13" s="372"/>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
       <c r="Q13" s="52"/>
@@ -24630,7 +24681,7 @@
       <c r="K14" s="99"/>
       <c r="L14" s="332"/>
       <c r="M14" s="100"/>
-      <c r="N14" s="369"/>
+      <c r="N14" s="372"/>
       <c r="O14" s="51"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="52"/>
@@ -24653,7 +24704,7 @@
         <v>559</v>
       </c>
       <c r="M15" s="219"/>
-      <c r="N15" s="369"/>
+      <c r="N15" s="372"/>
       <c r="O15" s="51"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="52"/>
@@ -24673,7 +24724,7 @@
         <v>123123</v>
       </c>
       <c r="M16" s="336"/>
-      <c r="N16" s="369"/>
+      <c r="N16" s="372"/>
       <c r="O16" s="51"/>
       <c r="P16" s="51"/>
       <c r="Q16" s="52"/>
@@ -28460,8 +28511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93:G93"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29976,7 +30027,7 @@
       <c r="H88" s="38">
         <v>0</v>
       </c>
-      <c r="I88" s="377">
+      <c r="I88" s="339">
         <v>33</v>
       </c>
       <c r="J88" s="38"/>
@@ -29996,7 +30047,7 @@
       <c r="E89" s="38">
         <v>1</v>
       </c>
-      <c r="F89" s="377">
+      <c r="F89" s="339">
         <v>33</v>
       </c>
       <c r="G89" s="38"/>
@@ -31795,7 +31846,7 @@
       <c r="H187" s="38"/>
       <c r="I187" s="38"/>
       <c r="J187" s="74"/>
-      <c r="K187" s="375"/>
+      <c r="K187" s="337"/>
       <c r="L187" s="74"/>
       <c r="M187" s="74"/>
       <c r="N187" s="74"/>
@@ -31815,7 +31866,7 @@
       <c r="J188" s="74"/>
       <c r="K188" s="74"/>
       <c r="L188" s="74"/>
-      <c r="M188" s="375"/>
+      <c r="M188" s="337"/>
       <c r="N188" s="74"/>
       <c r="O188" s="74"/>
       <c r="P188" s="38"/>
@@ -32494,8 +32545,8 @@
       <c r="E226" s="38"/>
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
-      <c r="H226" s="376"/>
-      <c r="I226" s="376"/>
+      <c r="H226" s="338"/>
+      <c r="I226" s="338"/>
       <c r="J226" s="38"/>
       <c r="K226" s="38"/>
       <c r="L226" s="38"/>
@@ -37207,8 +37258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W353"/>
   <sheetViews>
-    <sheetView topLeftCell="A329" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F343" sqref="F343"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37276,7 +37327,9 @@
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="L5" s="29" t="s">
+        <v>3040</v>
+      </c>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
@@ -37307,7 +37360,9 @@
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="L9" s="29" t="s">
+        <v>2986</v>
+      </c>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
@@ -37333,7 +37388,9 @@
     <row r="13" spans="1:20">
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="L13" s="29" t="s">
+        <v>3041</v>
+      </c>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
@@ -37344,7 +37401,9 @@
       <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="L16" s="29"/>
+      <c r="L16" s="29" t="s">
+        <v>3042</v>
+      </c>
       <c r="M16" s="59"/>
       <c r="N16" s="29"/>
     </row>
@@ -38509,7 +38568,192 @@
       <c r="S199" s="36"/>
       <c r="T199" s="37"/>
     </row>
-    <row r="223" spans="7:7">
+    <row r="203" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="204" spans="1:20">
+      <c r="A204" t="s">
+        <v>3026</v>
+      </c>
+      <c r="F204" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G204" s="31" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H204" s="31"/>
+      <c r="I204" s="31"/>
+      <c r="J204" s="32"/>
+    </row>
+    <row r="205" spans="1:20">
+      <c r="B205" t="s">
+        <v>356</v>
+      </c>
+      <c r="F205" s="33" t="s">
+        <v>3031</v>
+      </c>
+      <c r="G205" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="H205" s="27"/>
+      <c r="I205" s="27"/>
+      <c r="J205" s="34"/>
+    </row>
+    <row r="206" spans="1:20">
+      <c r="B206" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F206" s="33" t="s">
+        <v>3032</v>
+      </c>
+      <c r="G206" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="H206" s="27"/>
+      <c r="I206" s="27"/>
+      <c r="J206" s="34"/>
+    </row>
+    <row r="207" spans="1:20">
+      <c r="B207" t="s">
+        <v>3027</v>
+      </c>
+      <c r="F207" s="33"/>
+      <c r="G207" s="27"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="27"/>
+      <c r="J207" s="34"/>
+    </row>
+    <row r="208" spans="1:20" ht="15.75" thickBot="1">
+      <c r="B208" t="s">
+        <v>3028</v>
+      </c>
+      <c r="F208" s="33"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="27"/>
+      <c r="I208" s="27"/>
+      <c r="J208" s="34"/>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" t="s">
+        <v>144</v>
+      </c>
+      <c r="F209" s="33"/>
+      <c r="G209" s="27"/>
+      <c r="H209" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="I209" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="J209" s="115" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="F210" s="33"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="J210" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" t="s">
+        <v>3029</v>
+      </c>
+      <c r="F211" s="33"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27"/>
+      <c r="I211" s="116" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J211" s="112" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A212" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F212" s="33"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="27"/>
+      <c r="I212" s="158" t="s">
+        <v>2982</v>
+      </c>
+      <c r="J212" s="324" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="F213" s="33"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="34"/>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D214" t="s">
+        <v>412</v>
+      </c>
+      <c r="F214" s="33"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="27"/>
+      <c r="J214" s="34"/>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D215" t="s">
+        <v>3035</v>
+      </c>
+      <c r="F215" s="33"/>
+      <c r="G215" s="27"/>
+      <c r="H215" s="27"/>
+      <c r="I215" s="27"/>
+      <c r="J215" s="34"/>
+    </row>
+    <row r="216" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A216" s="125" t="s">
+        <v>3036</v>
+      </c>
+      <c r="F216" s="35"/>
+      <c r="G216" s="36"/>
+      <c r="H216" s="36"/>
+      <c r="I216" s="36"/>
+      <c r="J216" s="37"/>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D217" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B218" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="G223" t="s">
         <v>1848</v>
       </c>
@@ -39567,24 +39811,24 @@
     <row r="17" spans="1:14" s="108" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="370" t="s">
+      <c r="B22" s="373" t="s">
         <v>1170</v>
       </c>
-      <c r="C22" s="370"/>
+      <c r="C22" s="373"/>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
-      <c r="F22" s="370" t="s">
+      <c r="F22" s="373" t="s">
         <v>1274</v>
       </c>
-      <c r="G22" s="370"/>
-      <c r="H22" s="370"/>
+      <c r="G22" s="373"/>
+      <c r="H22" s="373"/>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="370" t="s">
+      <c r="K22" s="373" t="s">
         <v>1172</v>
       </c>
-      <c r="L22" s="370"/>
-      <c r="M22" s="370"/>
+      <c r="L22" s="373"/>
+      <c r="M22" s="373"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -42142,35 +42386,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="372" t="s">
+      <c r="B8" s="375" t="s">
         <v>2624</v>
       </c>
-      <c r="C8" s="372"/>
-      <c r="F8" s="372" t="s">
+      <c r="C8" s="375"/>
+      <c r="F8" s="375" t="s">
         <v>2625</v>
       </c>
-      <c r="G8" s="372"/>
-      <c r="I8" s="372" t="s">
+      <c r="G8" s="375"/>
+      <c r="I8" s="375" t="s">
         <v>2625</v>
       </c>
-      <c r="J8" s="372"/>
+      <c r="J8" s="375"/>
       <c r="M8" s="237" t="s">
         <v>2682</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="372" t="s">
+      <c r="F9" s="375" t="s">
         <v>2626</v>
       </c>
-      <c r="G9" s="372"/>
-      <c r="I9" s="372" t="s">
+      <c r="G9" s="375"/>
+      <c r="I9" s="375" t="s">
         <v>2627</v>
       </c>
-      <c r="J9" s="372"/>
-      <c r="M9" s="373" t="s">
+      <c r="J9" s="375"/>
+      <c r="M9" s="376" t="s">
         <v>2625</v>
       </c>
-      <c r="N9" s="373"/>
+      <c r="N9" s="376"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="295" t="s">
@@ -42179,19 +42423,19 @@
       <c r="N10" s="295"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="371" t="s">
+      <c r="E11" s="374" t="s">
         <v>2629</v>
       </c>
-      <c r="F11" s="371"/>
-      <c r="G11" s="371"/>
-      <c r="H11" s="371"/>
-      <c r="I11" s="371"/>
-      <c r="J11" s="371"/>
-      <c r="K11" s="371"/>
-      <c r="L11" s="371"/>
-      <c r="M11" s="371"/>
-      <c r="N11" s="371"/>
-      <c r="O11" s="371"/>
+      <c r="F11" s="374"/>
+      <c r="G11" s="374"/>
+      <c r="H11" s="374"/>
+      <c r="I11" s="374"/>
+      <c r="J11" s="374"/>
+      <c r="K11" s="374"/>
+      <c r="L11" s="374"/>
+      <c r="M11" s="374"/>
+      <c r="N11" s="374"/>
+      <c r="O11" s="374"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
@@ -45951,11 +46195,11 @@
       <c r="L6" s="43" t="s">
         <v>1446</v>
       </c>
-      <c r="M6" s="374" t="s">
+      <c r="M6" s="377" t="s">
         <v>1447</v>
       </c>
-      <c r="N6" s="374"/>
-      <c r="O6" s="374"/>
+      <c r="N6" s="377"/>
+      <c r="O6" s="377"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -47128,10 +47372,10 @@
       </c>
       <c r="G121" s="30"/>
       <c r="H121" s="31"/>
-      <c r="I121" s="353" t="s">
+      <c r="I121" s="356" t="s">
         <v>2799</v>
       </c>
-      <c r="J121" s="353" t="s">
+      <c r="J121" s="356" t="s">
         <v>2803</v>
       </c>
       <c r="K121" s="27"/>
@@ -47147,8 +47391,8 @@
       <c r="H122" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="I122" s="354"/>
-      <c r="J122" s="354"/>
+      <c r="I122" s="357"/>
+      <c r="J122" s="357"/>
       <c r="K122" s="27"/>
       <c r="L122" s="27"/>
       <c r="M122" s="34"/>
@@ -47162,8 +47406,8 @@
       <c r="H123" s="27">
         <v>19</v>
       </c>
-      <c r="I123" s="354"/>
-      <c r="J123" s="354"/>
+      <c r="I123" s="357"/>
+      <c r="J123" s="357"/>
       <c r="K123" s="27"/>
       <c r="L123" s="27"/>
       <c r="M123" s="34"/>
@@ -47177,8 +47421,8 @@
       <c r="H124" s="36" t="s">
         <v>1898</v>
       </c>
-      <c r="I124" s="354"/>
-      <c r="J124" s="354"/>
+      <c r="I124" s="357"/>
+      <c r="J124" s="357"/>
       <c r="K124" s="27"/>
       <c r="L124" s="27"/>
       <c r="M124" s="34"/>
@@ -47188,8 +47432,8 @@
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
-      <c r="I125" s="354"/>
-      <c r="J125" s="354"/>
+      <c r="I125" s="357"/>
+      <c r="J125" s="357"/>
       <c r="K125" s="27"/>
       <c r="L125" s="27"/>
       <c r="M125" s="34"/>
@@ -47202,8 +47446,8 @@
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
-      <c r="I126" s="354"/>
-      <c r="J126" s="354"/>
+      <c r="I126" s="357"/>
+      <c r="J126" s="357"/>
       <c r="K126" s="27"/>
       <c r="L126" s="27"/>
       <c r="M126" s="34"/>
@@ -47215,8 +47459,8 @@
       </c>
       <c r="G127" s="30"/>
       <c r="H127" s="31"/>
-      <c r="I127" s="354"/>
-      <c r="J127" s="354"/>
+      <c r="I127" s="357"/>
+      <c r="J127" s="357"/>
       <c r="K127" s="27"/>
       <c r="L127" s="27"/>
       <c r="M127" s="34"/>
@@ -47230,8 +47474,8 @@
       <c r="H128" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I128" s="354"/>
-      <c r="J128" s="354"/>
+      <c r="I128" s="357"/>
+      <c r="J128" s="357"/>
       <c r="K128" s="27"/>
       <c r="L128" s="27"/>
       <c r="M128" s="34"/>
@@ -47245,8 +47489,8 @@
       <c r="H129" s="27">
         <v>20</v>
       </c>
-      <c r="I129" s="354"/>
-      <c r="J129" s="354"/>
+      <c r="I129" s="357"/>
+      <c r="J129" s="357"/>
       <c r="K129" s="27"/>
       <c r="L129" s="27"/>
       <c r="M129" s="34"/>
@@ -47260,8 +47504,8 @@
       <c r="H130" s="36" t="s">
         <v>2795</v>
       </c>
-      <c r="I130" s="354"/>
-      <c r="J130" s="354"/>
+      <c r="I130" s="357"/>
+      <c r="J130" s="357"/>
       <c r="K130" s="27"/>
       <c r="L130" s="27"/>
       <c r="M130" s="34"/>
@@ -47271,8 +47515,8 @@
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
-      <c r="I131" s="354"/>
-      <c r="J131" s="354"/>
+      <c r="I131" s="357"/>
+      <c r="J131" s="357"/>
       <c r="K131" s="27"/>
       <c r="L131" s="27"/>
       <c r="M131" s="34"/>
@@ -47284,8 +47528,8 @@
       </c>
       <c r="G132" s="30"/>
       <c r="H132" s="31"/>
-      <c r="I132" s="354"/>
-      <c r="J132" s="354"/>
+      <c r="I132" s="357"/>
+      <c r="J132" s="357"/>
       <c r="K132" s="27"/>
       <c r="L132" s="27"/>
       <c r="M132" s="34"/>
@@ -47299,8 +47543,8 @@
       <c r="H133" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I133" s="354"/>
-      <c r="J133" s="354"/>
+      <c r="I133" s="357"/>
+      <c r="J133" s="357"/>
       <c r="K133" s="27"/>
       <c r="L133" s="27"/>
       <c r="M133" s="34"/>
@@ -47314,8 +47558,8 @@
       <c r="H134" s="27">
         <v>18</v>
       </c>
-      <c r="I134" s="354"/>
-      <c r="J134" s="354"/>
+      <c r="I134" s="357"/>
+      <c r="J134" s="357"/>
       <c r="K134" s="27"/>
       <c r="L134" s="27"/>
       <c r="M134" s="34"/>
@@ -47329,8 +47573,8 @@
       <c r="H135" s="36" t="s">
         <v>2796</v>
       </c>
-      <c r="I135" s="355"/>
-      <c r="J135" s="355"/>
+      <c r="I135" s="358"/>
+      <c r="J135" s="358"/>
       <c r="K135" s="27"/>
       <c r="L135" s="27"/>
       <c r="M135" s="34"/>
@@ -47410,8 +47654,8 @@
       <c r="H147" s="31" t="s">
         <v>2802</v>
       </c>
-      <c r="I147" s="356"/>
-      <c r="J147" s="356"/>
+      <c r="I147" s="359"/>
+      <c r="J147" s="359"/>
       <c r="K147" s="27"/>
       <c r="L147" s="27"/>
       <c r="M147" s="34"/>
@@ -47425,8 +47669,8 @@
       <c r="H148" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I148" s="357"/>
-      <c r="J148" s="357"/>
+      <c r="I148" s="360"/>
+      <c r="J148" s="360"/>
       <c r="K148" s="27"/>
       <c r="L148" s="27"/>
       <c r="M148" s="34"/>
@@ -47440,8 +47684,8 @@
       <c r="H149" s="27">
         <v>19</v>
       </c>
-      <c r="I149" s="357"/>
-      <c r="J149" s="357"/>
+      <c r="I149" s="360"/>
+      <c r="J149" s="360"/>
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
       <c r="M149" s="34"/>
@@ -47455,8 +47699,8 @@
       <c r="H150" s="36" t="s">
         <v>1898</v>
       </c>
-      <c r="I150" s="357"/>
-      <c r="J150" s="357"/>
+      <c r="I150" s="360"/>
+      <c r="J150" s="360"/>
       <c r="K150" s="27"/>
       <c r="L150" s="27"/>
       <c r="M150" s="34"/>
@@ -47466,8 +47710,8 @@
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
-      <c r="I151" s="357"/>
-      <c r="J151" s="357"/>
+      <c r="I151" s="360"/>
+      <c r="J151" s="360"/>
       <c r="K151" s="27"/>
       <c r="L151" s="27"/>
       <c r="M151" s="34"/>
@@ -47477,8 +47721,8 @@
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
-      <c r="I152" s="357"/>
-      <c r="J152" s="357"/>
+      <c r="I152" s="360"/>
+      <c r="J152" s="360"/>
       <c r="K152" s="27"/>
       <c r="L152" s="27"/>
       <c r="M152" s="34"/>
@@ -47494,8 +47738,8 @@
       <c r="H153" s="31" t="s">
         <v>2802</v>
       </c>
-      <c r="I153" s="357"/>
-      <c r="J153" s="357"/>
+      <c r="I153" s="360"/>
+      <c r="J153" s="360"/>
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
       <c r="M153" s="34"/>
@@ -47512,8 +47756,8 @@
       <c r="H154" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I154" s="357"/>
-      <c r="J154" s="357"/>
+      <c r="I154" s="360"/>
+      <c r="J154" s="360"/>
       <c r="K154" s="27"/>
       <c r="L154" s="27"/>
       <c r="M154" s="34"/>
@@ -47527,8 +47771,8 @@
       <c r="H155" s="27">
         <v>20</v>
       </c>
-      <c r="I155" s="357"/>
-      <c r="J155" s="357"/>
+      <c r="I155" s="360"/>
+      <c r="J155" s="360"/>
       <c r="K155" s="27"/>
       <c r="L155" s="27"/>
       <c r="M155" s="34"/>
@@ -47542,8 +47786,8 @@
       <c r="H156" s="36" t="s">
         <v>2795</v>
       </c>
-      <c r="I156" s="357"/>
-      <c r="J156" s="357"/>
+      <c r="I156" s="360"/>
+      <c r="J156" s="360"/>
       <c r="K156" s="27"/>
       <c r="L156" s="27"/>
       <c r="M156" s="34"/>
@@ -47553,8 +47797,8 @@
       <c r="F157" s="27"/>
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
-      <c r="I157" s="357"/>
-      <c r="J157" s="357"/>
+      <c r="I157" s="360"/>
+      <c r="J157" s="360"/>
       <c r="K157" s="27"/>
       <c r="L157" s="27"/>
       <c r="M157" s="34"/>
@@ -47570,8 +47814,8 @@
       <c r="H158" s="31" t="s">
         <v>2802</v>
       </c>
-      <c r="I158" s="357"/>
-      <c r="J158" s="357"/>
+      <c r="I158" s="360"/>
+      <c r="J158" s="360"/>
       <c r="K158" s="27"/>
       <c r="L158" s="27"/>
       <c r="M158" s="34"/>
@@ -47585,8 +47829,8 @@
       <c r="H159" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I159" s="357"/>
-      <c r="J159" s="357"/>
+      <c r="I159" s="360"/>
+      <c r="J159" s="360"/>
       <c r="K159" s="27"/>
       <c r="L159" s="27"/>
       <c r="M159" s="34"/>
@@ -47600,8 +47844,8 @@
       <c r="H160" s="27">
         <v>18</v>
       </c>
-      <c r="I160" s="357"/>
-      <c r="J160" s="357"/>
+      <c r="I160" s="360"/>
+      <c r="J160" s="360"/>
       <c r="K160" s="27"/>
       <c r="L160" s="27"/>
       <c r="M160" s="34"/>
@@ -47615,8 +47859,8 @@
       <c r="H161" s="36" t="s">
         <v>2796</v>
       </c>
-      <c r="I161" s="358"/>
-      <c r="J161" s="358"/>
+      <c r="I161" s="361"/>
+      <c r="J161" s="361"/>
       <c r="K161" s="27"/>
       <c r="L161" s="27"/>
       <c r="M161" s="34"/>
@@ -48575,7 +48819,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="351" t="s">
+      <c r="G269" s="354" t="s">
         <v>2412</v>
       </c>
       <c r="I269" s="56" t="s">
@@ -48596,7 +48840,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="352"/>
+      <c r="G270" s="355"/>
       <c r="I270" s="165" t="s">
         <v>2408</v>
       </c>
@@ -50543,17 +50787,17 @@
       <c r="A2" t="s">
         <v>2830</v>
       </c>
-      <c r="E2" s="349" t="s">
+      <c r="E2" s="352" t="s">
         <v>2838</v>
       </c>
-      <c r="F2" s="359"/>
-      <c r="G2" s="359"/>
-      <c r="H2" s="359"/>
-      <c r="I2" s="359"/>
-      <c r="J2" s="359"/>
-      <c r="K2" s="359"/>
-      <c r="L2" s="359"/>
-      <c r="M2" s="350"/>
+      <c r="F2" s="362"/>
+      <c r="G2" s="362"/>
+      <c r="H2" s="362"/>
+      <c r="I2" s="362"/>
+      <c r="J2" s="362"/>
+      <c r="K2" s="362"/>
+      <c r="L2" s="362"/>
+      <c r="M2" s="353"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -50839,17 +51083,17 @@
       <c r="A23" t="s">
         <v>2830</v>
       </c>
-      <c r="E23" s="349" t="s">
+      <c r="E23" s="352" t="s">
         <v>2838</v>
       </c>
-      <c r="F23" s="359"/>
-      <c r="G23" s="359"/>
-      <c r="H23" s="359"/>
-      <c r="I23" s="359"/>
-      <c r="J23" s="359"/>
-      <c r="K23" s="359"/>
-      <c r="L23" s="359"/>
-      <c r="M23" s="350"/>
+      <c r="F23" s="362"/>
+      <c r="G23" s="362"/>
+      <c r="H23" s="362"/>
+      <c r="I23" s="362"/>
+      <c r="J23" s="362"/>
+      <c r="K23" s="362"/>
+      <c r="L23" s="362"/>
+      <c r="M23" s="353"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="B24" t="s">
@@ -51125,17 +51369,17 @@
       <c r="A42" t="s">
         <v>2830</v>
       </c>
-      <c r="E42" s="349" t="s">
+      <c r="E42" s="352" t="s">
         <v>2838</v>
       </c>
-      <c r="F42" s="359"/>
-      <c r="G42" s="359"/>
-      <c r="H42" s="359"/>
-      <c r="I42" s="359"/>
-      <c r="J42" s="359"/>
-      <c r="K42" s="359"/>
-      <c r="L42" s="359"/>
-      <c r="M42" s="350"/>
+      <c r="F42" s="362"/>
+      <c r="G42" s="362"/>
+      <c r="H42" s="362"/>
+      <c r="I42" s="362"/>
+      <c r="J42" s="362"/>
+      <c r="K42" s="362"/>
+      <c r="L42" s="362"/>
+      <c r="M42" s="353"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -51437,17 +51681,17 @@
       <c r="B64" s="318"/>
       <c r="C64" s="318"/>
       <c r="D64" s="318"/>
-      <c r="G64" s="349" t="s">
+      <c r="G64" s="352" t="s">
         <v>2838</v>
       </c>
-      <c r="H64" s="359"/>
-      <c r="I64" s="359"/>
-      <c r="J64" s="359"/>
-      <c r="K64" s="359"/>
-      <c r="L64" s="359"/>
-      <c r="M64" s="359"/>
-      <c r="N64" s="359"/>
-      <c r="O64" s="350"/>
+      <c r="H64" s="362"/>
+      <c r="I64" s="362"/>
+      <c r="J64" s="362"/>
+      <c r="K64" s="362"/>
+      <c r="L64" s="362"/>
+      <c r="M64" s="362"/>
+      <c r="N64" s="362"/>
+      <c r="O64" s="353"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" thickBot="1">
       <c r="B65" t="s">
@@ -54392,49 +54636,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="360" t="s">
+      <c r="B2" s="363" t="s">
         <v>2228</v>
       </c>
-      <c r="C2" s="361"/>
-      <c r="D2" s="362"/>
-      <c r="F2" s="360" t="s">
+      <c r="C2" s="364"/>
+      <c r="D2" s="365"/>
+      <c r="F2" s="363" t="s">
         <v>2805</v>
       </c>
-      <c r="G2" s="361"/>
-      <c r="H2" s="361"/>
-      <c r="I2" s="362"/>
-      <c r="K2" s="360" t="s">
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="365"/>
+      <c r="K2" s="363" t="s">
         <v>2807</v>
       </c>
-      <c r="L2" s="361"/>
-      <c r="M2" s="362"/>
+      <c r="L2" s="364"/>
+      <c r="M2" s="365"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="363"/>
-      <c r="C3" s="364"/>
-      <c r="D3" s="365"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="364"/>
-      <c r="H3" s="364"/>
-      <c r="I3" s="365"/>
-      <c r="K3" s="363"/>
-      <c r="L3" s="364"/>
-      <c r="M3" s="365"/>
+      <c r="B3" s="366"/>
+      <c r="C3" s="367"/>
+      <c r="D3" s="368"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="367"/>
+      <c r="H3" s="367"/>
+      <c r="I3" s="368"/>
+      <c r="K3" s="366"/>
+      <c r="L3" s="367"/>
+      <c r="M3" s="368"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="363"/>
-      <c r="C4" s="364"/>
-      <c r="D4" s="365"/>
-      <c r="F4" s="363"/>
-      <c r="G4" s="364"/>
-      <c r="H4" s="364"/>
-      <c r="I4" s="365"/>
-      <c r="K4" s="363"/>
-      <c r="L4" s="364"/>
-      <c r="M4" s="365"/>
+      <c r="B4" s="366"/>
+      <c r="C4" s="367"/>
+      <c r="D4" s="368"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="367"/>
+      <c r="H4" s="367"/>
+      <c r="I4" s="368"/>
+      <c r="K4" s="366"/>
+      <c r="L4" s="367"/>
+      <c r="M4" s="368"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="366" t="s">
+      <c r="A5" s="369" t="s">
         <v>2052</v>
       </c>
       <c r="B5" s="80"/>
@@ -54461,7 +54705,7 @@
       <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="366"/>
+      <c r="A6" s="369"/>
       <c r="B6" s="80"/>
       <c r="C6" s="39" t="s">
         <v>58</v>
@@ -54486,7 +54730,7 @@
       <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="366"/>
+      <c r="A7" s="369"/>
       <c r="B7" s="80"/>
       <c r="C7" s="39" t="s">
         <v>2809</v>
@@ -54519,7 +54763,7 @@
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="366" t="s">
+      <c r="A9" s="369" t="s">
         <v>203</v>
       </c>
       <c r="B9" s="299" t="s">
@@ -54540,7 +54784,7 @@
       <c r="M9" s="246"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="366"/>
+      <c r="A10" s="369"/>
       <c r="B10" s="299"/>
       <c r="C10" s="300" t="s">
         <v>2814</v>
@@ -54562,7 +54806,7 @@
       <c r="M10" s="246"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="366"/>
+      <c r="A11" s="369"/>
       <c r="B11" s="299"/>
       <c r="C11" s="143"/>
       <c r="D11" s="246"/>
@@ -54582,7 +54826,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="366"/>
+      <c r="A12" s="369"/>
       <c r="B12" s="299"/>
       <c r="C12" s="143"/>
       <c r="D12" s="246"/>
@@ -54762,23 +55006,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="371" t="s">
         <v>2420</v>
       </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="I1" s="368" t="s">
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="I1" s="371" t="s">
         <v>2432</v>
       </c>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
-      <c r="N1" s="368"/>
-      <c r="O1" s="368"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
+      <c r="M1" s="371"/>
+      <c r="N1" s="371"/>
+      <c r="O1" s="371"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -54934,28 +55178,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="347" t="s">
+      <c r="A12" s="350" t="s">
         <v>2434</v>
       </c>
-      <c r="B12" s="367"/>
-      <c r="C12" s="367"/>
-      <c r="D12" s="367"/>
-      <c r="E12" s="367"/>
-      <c r="F12" s="367"/>
-      <c r="G12" s="367"/>
-      <c r="H12" s="348"/>
-      <c r="I12" s="347" t="s">
+      <c r="B12" s="370"/>
+      <c r="C12" s="370"/>
+      <c r="D12" s="370"/>
+      <c r="E12" s="370"/>
+      <c r="F12" s="370"/>
+      <c r="G12" s="370"/>
+      <c r="H12" s="351"/>
+      <c r="I12" s="350" t="s">
         <v>2434</v>
       </c>
-      <c r="J12" s="367"/>
-      <c r="K12" s="367"/>
-      <c r="L12" s="367"/>
-      <c r="M12" s="367"/>
-      <c r="N12" s="367"/>
-      <c r="O12" s="367"/>
-      <c r="P12" s="367"/>
-      <c r="Q12" s="367"/>
-      <c r="R12" s="348"/>
+      <c r="J12" s="370"/>
+      <c r="K12" s="370"/>
+      <c r="L12" s="370"/>
+      <c r="M12" s="370"/>
+      <c r="N12" s="370"/>
+      <c r="O12" s="370"/>
+      <c r="P12" s="370"/>
+      <c r="Q12" s="370"/>
+      <c r="R12" s="351"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -55183,14 +55427,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="368" t="s">
+      <c r="A24" s="371" t="s">
         <v>2420</v>
       </c>
-      <c r="B24" s="368"/>
-      <c r="C24" s="368"/>
-      <c r="D24" s="368"/>
-      <c r="E24" s="368"/>
-      <c r="F24" s="368"/>
+      <c r="B24" s="371"/>
+      <c r="C24" s="371"/>
+      <c r="D24" s="371"/>
+      <c r="E24" s="371"/>
+      <c r="F24" s="371"/>
       <c r="H24" s="255" t="s">
         <v>2432</v>
       </c>
@@ -55200,11 +55444,11 @@
       <c r="L24" s="255"/>
       <c r="M24" s="255"/>
       <c r="N24" s="255"/>
-      <c r="P24" s="368" t="s">
+      <c r="P24" s="371" t="s">
         <v>2473</v>
       </c>
-      <c r="Q24" s="368"/>
-      <c r="R24" s="368"/>
+      <c r="Q24" s="371"/>
+      <c r="R24" s="371"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -55444,28 +55688,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="347" t="s">
+      <c r="A35" s="350" t="s">
         <v>2474</v>
       </c>
-      <c r="B35" s="367"/>
-      <c r="C35" s="367"/>
-      <c r="D35" s="367"/>
-      <c r="E35" s="367"/>
-      <c r="F35" s="367"/>
-      <c r="G35" s="367"/>
-      <c r="H35" s="348"/>
-      <c r="I35" s="347" t="s">
+      <c r="B35" s="370"/>
+      <c r="C35" s="370"/>
+      <c r="D35" s="370"/>
+      <c r="E35" s="370"/>
+      <c r="F35" s="370"/>
+      <c r="G35" s="370"/>
+      <c r="H35" s="351"/>
+      <c r="I35" s="350" t="s">
         <v>1050</v>
       </c>
-      <c r="J35" s="367"/>
-      <c r="K35" s="367"/>
-      <c r="L35" s="367"/>
-      <c r="M35" s="367"/>
-      <c r="N35" s="367"/>
-      <c r="O35" s="367"/>
-      <c r="P35" s="367"/>
-      <c r="Q35" s="367"/>
-      <c r="R35" s="348"/>
+      <c r="J35" s="370"/>
+      <c r="K35" s="370"/>
+      <c r="L35" s="370"/>
+      <c r="M35" s="370"/>
+      <c r="N35" s="370"/>
+      <c r="O35" s="370"/>
+      <c r="P35" s="370"/>
+      <c r="Q35" s="370"/>
+      <c r="R35" s="351"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="18" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="7305" firstSheet="19" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="pc-basics" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5325" uniqueCount="2862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5339" uniqueCount="2875">
   <si>
     <t>USER</t>
   </si>
@@ -7345,42 +7345,12 @@
     <t>#ggg</t>
   </si>
   <si>
-    <t>powerpoint</t>
-  </si>
-  <si>
-    <t>zoom</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>excel</t>
-  </si>
-  <si>
-    <t>spring tool</t>
-  </si>
-  <si>
-    <t>java programs</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>first come first serve</t>
-  </si>
-  <si>
     <t xml:space="preserve">  v </t>
   </si>
   <si>
-    <t>nano seccond</t>
-  </si>
-  <si>
     <t>Billonth of a sec</t>
   </si>
   <si>
-    <t>1/10 sec</t>
-  </si>
-  <si>
     <t>propulsion engine</t>
   </si>
   <si>
@@ -7394,9 +7364,6 @@
   </si>
   <si>
     <t>active Queue</t>
-  </si>
-  <si>
-    <t>Runnable stage</t>
   </si>
   <si>
     <t>produce 10</t>
@@ -8873,6 +8840,78 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>DEFAULT PROCESSING</t>
+  </si>
+  <si>
+    <t>DRIVING</t>
+  </si>
+  <si>
+    <t>BRAIN</t>
+  </si>
+  <si>
+    <t>LISTENING MUSIC</t>
+  </si>
+  <si>
+    <t>TALKING PASSENGER</t>
+  </si>
+  <si>
+    <t>MULTI-TASKING</t>
+  </si>
+  <si>
+    <t>Central Processing Unit</t>
+  </si>
+  <si>
+    <t>INTERNET</t>
+  </si>
+  <si>
+    <t>ZOOM</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>SWITCH BTW EACH TASK</t>
+  </si>
+  <si>
+    <t>AT A VERYVERY HIGH SPEED</t>
+  </si>
+  <si>
+    <t>1 MILLIONTH OF SEC</t>
+  </si>
+  <si>
+    <t>EYE - REGISTER DIFERENT 1/10 OF SEC</t>
+  </si>
+  <si>
+    <t>FREQUENCY = 2 GHZ</t>
+  </si>
+  <si>
+    <t>MY LAPTOP</t>
+  </si>
+  <si>
+    <t>1 sec</t>
+  </si>
+  <si>
+    <t>ProgramC</t>
+  </si>
+  <si>
+    <t>ProgramD</t>
+  </si>
+  <si>
+    <t>programE</t>
+  </si>
+  <si>
+    <t>ProgramF</t>
+  </si>
+  <si>
+    <t>CPU time - time receivd for the program to work on</t>
+  </si>
+  <si>
+    <t>programA ( 10 sec)</t>
+  </si>
+  <si>
+    <t>programB (1 sec)</t>
   </si>
 </sst>
 </file>
@@ -9498,7 +9537,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="381">
+  <cellXfs count="382">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10158,6 +10197,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10270,27 +10331,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10604,7 +10646,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1">
       <c r="E1" t="s">
-        <v>2462</v>
+        <v>2451</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -10625,18 +10667,18 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="340" t="s">
+      <c r="H3" s="350" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="342"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="351"/>
+      <c r="K3" s="351"/>
+      <c r="L3" s="352"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
       <c r="E5" t="s">
-        <v>2463</v>
+        <v>2452</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -10652,20 +10694,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="343" t="s">
+      <c r="G6" s="353" t="s">
         <v>1437</v>
       </c>
-      <c r="H6" s="344"/>
+      <c r="H6" s="354"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="343" t="s">
+      <c r="J6" s="353" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="344"/>
+      <c r="K6" s="354"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="343" t="s">
+      <c r="M6" s="353" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="344"/>
+      <c r="N6" s="354"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="123" t="s">
@@ -10683,20 +10725,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="345" t="s">
+      <c r="G8" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="346"/>
+      <c r="H8" s="356"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="345" t="s">
+      <c r="J8" s="355" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="346"/>
+      <c r="K8" s="356"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="345" t="s">
+      <c r="M8" s="355" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="346"/>
+      <c r="N8" s="356"/>
       <c r="Q8" s="140"/>
     </row>
     <row r="9" spans="1:18">
@@ -10712,29 +10754,29 @@
       <c r="Q9" s="140"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="336" t="s">
+      <c r="F10" s="346" t="s">
         <v>2108</v>
       </c>
-      <c r="G10" s="337"/>
-      <c r="H10" s="337"/>
-      <c r="I10" s="337"/>
-      <c r="J10" s="337"/>
-      <c r="K10" s="337"/>
-      <c r="L10" s="337"/>
-      <c r="M10" s="337"/>
-      <c r="N10" s="337"/>
+      <c r="G10" s="347"/>
+      <c r="H10" s="347"/>
+      <c r="I10" s="347"/>
+      <c r="J10" s="347"/>
+      <c r="K10" s="347"/>
+      <c r="L10" s="347"/>
+      <c r="M10" s="347"/>
+      <c r="N10" s="347"/>
       <c r="Q10" s="140"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="338"/>
-      <c r="G11" s="339"/>
-      <c r="H11" s="339"/>
-      <c r="I11" s="339"/>
-      <c r="J11" s="339"/>
-      <c r="K11" s="339"/>
-      <c r="L11" s="339"/>
-      <c r="M11" s="339"/>
-      <c r="N11" s="339"/>
+      <c r="F11" s="348"/>
+      <c r="G11" s="349"/>
+      <c r="H11" s="349"/>
+      <c r="I11" s="349"/>
+      <c r="J11" s="349"/>
+      <c r="K11" s="349"/>
+      <c r="L11" s="349"/>
+      <c r="M11" s="349"/>
+      <c r="N11" s="349"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -10776,17 +10818,17 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
       <c r="D14" s="123"/>
-      <c r="F14" s="333" t="s">
-        <v>2456</v>
-      </c>
-      <c r="G14" s="334"/>
-      <c r="H14" s="334"/>
-      <c r="I14" s="334"/>
-      <c r="J14" s="334"/>
-      <c r="K14" s="334"/>
-      <c r="L14" s="334"/>
-      <c r="M14" s="334"/>
-      <c r="N14" s="335"/>
+      <c r="F14" s="343" t="s">
+        <v>2445</v>
+      </c>
+      <c r="G14" s="344"/>
+      <c r="H14" s="344"/>
+      <c r="I14" s="344"/>
+      <c r="J14" s="344"/>
+      <c r="K14" s="344"/>
+      <c r="L14" s="344"/>
+      <c r="M14" s="344"/>
+      <c r="N14" s="345"/>
     </row>
     <row r="15" spans="1:18">
       <c r="F15" s="137"/>
@@ -10821,10 +10863,10 @@
       <c r="M16" s="134"/>
       <c r="N16" s="18"/>
       <c r="P16" t="s">
-        <v>2457</v>
+        <v>2446</v>
       </c>
       <c r="Q16" t="s">
-        <v>2459</v>
+        <v>2448</v>
       </c>
       <c r="R16" t="s">
         <v>1048</v>
@@ -10876,10 +10918,10 @@
       </c>
       <c r="N19" s="18"/>
       <c r="P19" t="s">
-        <v>2458</v>
+        <v>2447</v>
       </c>
       <c r="Q19" s="140" t="s">
-        <v>2460</v>
+        <v>2449</v>
       </c>
       <c r="R19" t="s">
         <v>15</v>
@@ -10916,7 +10958,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
       <c r="P21" t="s">
-        <v>2461</v>
+        <v>2450</v>
       </c>
       <c r="Q21" t="s">
         <v>1729</v>
@@ -10930,7 +10972,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
       <c r="J22" s="16" t="s">
-        <v>2484</v>
+        <v>2473</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="17"/>
@@ -10950,7 +10992,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
       <c r="J23" s="16" t="s">
-        <v>2485</v>
+        <v>2474</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="17"/>
@@ -10963,7 +11005,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
       <c r="J24" s="20" t="s">
-        <v>2486</v>
+        <v>2475</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="21"/>
@@ -10972,58 +11014,58 @@
     </row>
     <row r="25" spans="1:18">
       <c r="J25" t="s">
-        <v>2464</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="F27" t="s">
-        <v>2465</v>
+        <v>2454</v>
       </c>
       <c r="G27" t="s">
         <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>2467</v>
+        <v>2456</v>
       </c>
       <c r="I27" t="s">
-        <v>2469</v>
+        <v>2458</v>
       </c>
       <c r="J27" t="s">
-        <v>2471</v>
+        <v>2460</v>
       </c>
       <c r="K27" t="s">
-        <v>2473</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="F28" s="140" t="s">
-        <v>2466</v>
+        <v>2455</v>
       </c>
       <c r="G28" t="s">
         <v>2174</v>
       </c>
       <c r="H28" t="s">
-        <v>2468</v>
+        <v>2457</v>
       </c>
       <c r="I28" t="s">
-        <v>2470</v>
+        <v>2459</v>
       </c>
       <c r="J28" t="s">
-        <v>2472</v>
+        <v>2461</v>
       </c>
       <c r="K28" t="s">
-        <v>2474</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="G29" s="27" t="s">
-        <v>2482</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="G30" s="27"/>
       <c r="K30" t="s">
-        <v>2475</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -11090,22 +11132,22 @@
       <c r="E33" s="74"/>
       <c r="F33" s="74"/>
       <c r="G33" s="290" t="s">
-        <v>2476</v>
+        <v>2465</v>
       </c>
       <c r="H33" s="130" t="s">
-        <v>2477</v>
+        <v>2466</v>
       </c>
       <c r="I33" s="130" t="s">
-        <v>2478</v>
+        <v>2467</v>
       </c>
       <c r="J33" s="130" t="s">
-        <v>2479</v>
+        <v>2468</v>
       </c>
       <c r="K33" s="130" t="s">
-        <v>2480</v>
+        <v>2469</v>
       </c>
       <c r="L33" s="130" t="s">
-        <v>2481</v>
+        <v>2470</v>
       </c>
       <c r="M33" s="130" t="s">
         <v>2094</v>
@@ -11117,7 +11159,7 @@
     </row>
     <row r="34" spans="1:17 16384:16384">
       <c r="E34" t="s">
-        <v>2513</v>
+        <v>2502</v>
       </c>
       <c r="G34" s="143">
         <v>0</v>
@@ -11144,15 +11186,15 @@
         <v>1</v>
       </c>
       <c r="P34" s="289" t="s">
-        <v>2512</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="35" spans="1:17 16384:16384">
       <c r="C35" t="s">
-        <v>2483</v>
+        <v>2472</v>
       </c>
       <c r="G35" s="181" t="s">
-        <v>2514</v>
+        <v>2503</v>
       </c>
       <c r="H35" s="181"/>
       <c r="I35" s="181"/>
@@ -11167,7 +11209,7 @@
     </row>
     <row r="36" spans="1:17 16384:16384">
       <c r="G36" s="181" t="s">
-        <v>2515</v>
+        <v>2504</v>
       </c>
       <c r="H36" s="181"/>
       <c r="I36" s="181"/>
@@ -11182,7 +11224,7 @@
     </row>
     <row r="37" spans="1:17 16384:16384">
       <c r="G37" s="181" t="s">
-        <v>2516</v>
+        <v>2505</v>
       </c>
       <c r="H37" s="181"/>
       <c r="I37" s="181"/>
@@ -11553,30 +11595,30 @@
     </row>
     <row r="68" spans="1:15">
       <c r="C68" t="s">
-        <v>2490</v>
+        <v>2479</v>
       </c>
       <c r="G68" t="s">
-        <v>2489</v>
+        <v>2478</v>
       </c>
       <c r="K68" t="s">
-        <v>2488</v>
+        <v>2477</v>
       </c>
       <c r="O68" t="s">
-        <v>2487</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="C69" t="s">
-        <v>2491</v>
+        <v>2480</v>
       </c>
       <c r="G69" t="s">
-        <v>2492</v>
+        <v>2481</v>
       </c>
       <c r="K69" t="s">
-        <v>2492</v>
+        <v>2481</v>
       </c>
       <c r="O69" t="s">
-        <v>2492</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -11596,7 +11638,7 @@
     <row r="71" spans="1:15">
       <c r="A71" s="177"/>
       <c r="B71" s="27" t="s">
-        <v>2493</v>
+        <v>2482</v>
       </c>
       <c r="C71" s="76"/>
       <c r="E71" s="177"/>
@@ -11628,25 +11670,25 @@
     <row r="73" spans="1:15">
       <c r="A73" s="177"/>
       <c r="B73" s="27" t="s">
-        <v>2494</v>
+        <v>2483</v>
       </c>
       <c r="C73" s="76"/>
       <c r="E73" s="177" t="s">
-        <v>2501</v>
+        <v>2490</v>
       </c>
       <c r="F73" s="27" t="s">
         <v>1451</v>
       </c>
       <c r="G73" s="76"/>
       <c r="I73" s="177" t="s">
-        <v>2501</v>
+        <v>2490</v>
       </c>
       <c r="J73" s="27" t="s">
         <v>1451</v>
       </c>
       <c r="K73" s="76"/>
       <c r="M73" s="177" t="s">
-        <v>2501</v>
+        <v>2490</v>
       </c>
       <c r="N73" s="27" t="s">
         <v>1451</v>
@@ -11660,21 +11702,21 @@
       </c>
       <c r="C74" s="76"/>
       <c r="E74" s="177" t="s">
-        <v>2499</v>
+        <v>2488</v>
       </c>
       <c r="F74" s="39" t="s">
         <v>2108</v>
       </c>
       <c r="G74" s="76"/>
       <c r="I74" s="177" t="s">
-        <v>2503</v>
+        <v>2492</v>
       </c>
       <c r="J74" s="39" t="s">
         <v>1608</v>
       </c>
       <c r="K74" s="76"/>
       <c r="M74" s="177" t="s">
-        <v>2508</v>
+        <v>2497</v>
       </c>
       <c r="N74" s="39" t="s">
         <v>1607</v>
@@ -11686,21 +11728,21 @@
       <c r="B75" s="27"/>
       <c r="C75" s="76"/>
       <c r="E75" s="177" t="s">
-        <v>2502</v>
+        <v>2491</v>
       </c>
       <c r="F75" s="27" t="s">
         <v>2111</v>
       </c>
       <c r="G75" s="76"/>
       <c r="I75" s="177" t="s">
-        <v>2504</v>
+        <v>2493</v>
       </c>
       <c r="J75" s="27" t="s">
         <v>2143</v>
       </c>
       <c r="K75" s="76"/>
       <c r="M75" s="177" t="s">
-        <v>2507</v>
+        <v>2496</v>
       </c>
       <c r="N75" s="27" t="s">
         <v>1603</v>
@@ -11710,28 +11752,28 @@
     <row r="76" spans="1:15">
       <c r="A76" s="177"/>
       <c r="B76" s="38" t="s">
-        <v>2495</v>
+        <v>2484</v>
       </c>
       <c r="C76" s="76"/>
       <c r="E76" s="177" t="s">
-        <v>2500</v>
+        <v>2489</v>
       </c>
       <c r="F76" s="27" t="s">
         <v>1597</v>
       </c>
       <c r="G76" s="76"/>
       <c r="I76" s="177" t="s">
-        <v>2505</v>
+        <v>2494</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>2496</v>
+        <v>2485</v>
       </c>
       <c r="K76" s="76"/>
       <c r="M76" s="177" t="s">
-        <v>2506</v>
+        <v>2495</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>2497</v>
+        <v>2486</v>
       </c>
       <c r="O76" s="76"/>
     </row>
@@ -11751,23 +11793,23 @@
     </row>
     <row r="79" spans="1:15">
       <c r="E79" t="s">
-        <v>2498</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="83" spans="2:17">
       <c r="C83" t="s">
-        <v>2509</v>
+        <v>2498</v>
       </c>
       <c r="E83" t="s">
         <v>1599</v>
       </c>
       <c r="G83" t="s">
-        <v>2511</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="84" spans="2:17">
       <c r="C84" t="s">
-        <v>2510</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="86" spans="2:17">
@@ -17281,8 +17323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17921,10 +17963,10 @@
         <v>642</v>
       </c>
       <c r="H32" t="s">
-        <v>2649</v>
+        <v>2638</v>
       </c>
       <c r="I32" s="314" t="s">
-        <v>2655</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -17932,10 +17974,10 @@
         <v>643</v>
       </c>
       <c r="H33" t="s">
-        <v>2650</v>
+        <v>2639</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>2654</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -17961,7 +18003,7 @@
         <v>646</v>
       </c>
       <c r="H37" t="s">
-        <v>2651</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -17969,7 +18011,7 @@
         <v>647</v>
       </c>
       <c r="H38" s="57" t="s">
-        <v>2652</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -17985,7 +18027,7 @@
         <v>649</v>
       </c>
       <c r="H40" t="s">
-        <v>2653</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -18663,7 +18705,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="27" t="s">
-        <v>2656</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1">
@@ -18686,7 +18728,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="27" t="s">
-        <v>2657</v>
+        <v>2646</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>1645</v>
@@ -18708,7 +18750,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="27" t="s">
-        <v>2658</v>
+        <v>2647</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>1646</v>
@@ -18736,14 +18778,14 @@
         <v>1987</v>
       </c>
       <c r="K5" s="316" t="s">
-        <v>2670</v>
+        <v>2659</v>
       </c>
       <c r="L5" s="317"/>
       <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="B6" s="27" t="s">
-        <v>2662</v>
+        <v>2651</v>
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="38"/>
@@ -18768,7 +18810,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="C8" s="27" t="s">
-        <v>2663</v>
+        <v>2652</v>
       </c>
       <c r="F8" s="33"/>
       <c r="J8" s="114" t="s">
@@ -18782,14 +18824,14 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="C9" s="27" t="s">
-        <v>2664</v>
+        <v>2653</v>
       </c>
       <c r="F9" s="33"/>
       <c r="J9" s="156" t="s">
         <v>1987</v>
       </c>
       <c r="K9" s="316" t="s">
-        <v>2671</v>
+        <v>2660</v>
       </c>
       <c r="L9" s="317"/>
       <c r="N9" s="34"/>
@@ -18803,7 +18845,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="27" t="s">
-        <v>2665</v>
+        <v>2654</v>
       </c>
       <c r="F11" s="33"/>
       <c r="I11" s="27" t="s">
@@ -18834,14 +18876,14 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="C13" s="27" t="s">
-        <v>2663</v>
+        <v>2652</v>
       </c>
       <c r="F13" s="33"/>
       <c r="J13" s="156" t="s">
         <v>1987</v>
       </c>
       <c r="K13" s="316" t="s">
-        <v>2671</v>
+        <v>2660</v>
       </c>
       <c r="L13" s="317"/>
       <c r="N13" s="34"/>
@@ -18855,7 +18897,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="27" t="s">
-        <v>2666</v>
+        <v>2655</v>
       </c>
       <c r="F15" s="33"/>
       <c r="N15" s="34"/>
@@ -18883,7 +18925,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1">
       <c r="A19" s="27" t="s">
-        <v>2667</v>
+        <v>2656</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="36"/>
@@ -18897,25 +18939,25 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="27" t="s">
-        <v>2668</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="27" t="s">
-        <v>2669</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="27" t="s">
-        <v>2659</v>
+        <v>2648</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>2660</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="D27" s="27" t="s">
-        <v>2661</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="119" spans="6:12">
@@ -19328,13 +19370,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="D5" s="33" t="s">
-        <v>2683</v>
+        <v>2672</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="34"/>
       <c r="K5" s="195" t="s">
-        <v>2683</v>
+        <v>2672</v>
       </c>
       <c r="L5" s="167"/>
       <c r="M5" s="167"/>
@@ -19343,20 +19385,20 @@
     <row r="6" spans="1:14">
       <c r="D6" s="33"/>
       <c r="E6" s="27" t="s">
-        <v>2685</v>
+        <v>2674</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="34"/>
       <c r="K6" s="195"/>
       <c r="L6" s="167" t="s">
-        <v>2684</v>
+        <v>2673</v>
       </c>
       <c r="M6" s="167"/>
       <c r="N6" s="196"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>2681</v>
+        <v>2670</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="27"/>
@@ -19369,7 +19411,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>2682</v>
+        <v>2671</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="27"/>
@@ -19392,17 +19434,17 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>2673</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="H12" t="s">
-        <v>2686</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>2676</v>
+        <v>2665</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>713</v>
@@ -19421,10 +19463,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" t="s">
-        <v>2674</v>
+        <v>2663</v>
       </c>
       <c r="D15" t="s">
-        <v>2677</v>
+        <v>2666</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>933</v>
@@ -19436,7 +19478,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="D16" t="s">
-        <v>2678</v>
+        <v>2667</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="27"/>
@@ -19444,15 +19486,15 @@
       <c r="J16" s="27"/>
       <c r="K16" s="34"/>
       <c r="N16" t="s">
-        <v>2672</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" t="s">
-        <v>2675</v>
+        <v>2664</v>
       </c>
       <c r="D17" t="s">
-        <v>2679</v>
+        <v>2668</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="27"/>
@@ -19488,7 +19530,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>2680</v>
+        <v>2669</v>
       </c>
       <c r="D26" t="s">
         <v>1989</v>
@@ -19545,12 +19587,12 @@
     </row>
     <row r="7" spans="2:18">
       <c r="Q7" t="s">
-        <v>2688</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1">
       <c r="Q8" t="s">
-        <v>2687</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -22804,10 +22846,10 @@
         <v>1</v>
       </c>
       <c r="L212" t="s">
-        <v>2644</v>
+        <v>2633</v>
       </c>
       <c r="M212" s="161" t="s">
-        <v>2646</v>
+        <v>2635</v>
       </c>
       <c r="N212" s="74"/>
     </row>
@@ -22823,10 +22865,10 @@
         <v>1</v>
       </c>
       <c r="L213" t="s">
-        <v>2645</v>
+        <v>2634</v>
       </c>
       <c r="M213" s="161" t="s">
-        <v>2647</v>
+        <v>2636</v>
       </c>
       <c r="N213" s="74"/>
     </row>
@@ -22842,7 +22884,7 @@
         <v>0</v>
       </c>
       <c r="L214" t="s">
-        <v>2648</v>
+        <v>2637</v>
       </c>
       <c r="M214">
         <f>2</f>
@@ -23883,11 +23925,11 @@
         <v>986</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>2689</v>
+        <v>2678</v>
       </c>
       <c r="C2" s="96"/>
       <c r="E2" s="57" t="s">
-        <v>2696</v>
+        <v>2685</v>
       </c>
       <c r="G2" s="322" t="s">
         <v>204</v>
@@ -23907,17 +23949,17 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="96" t="s">
-        <v>2701</v>
+        <v>2690</v>
       </c>
       <c r="B3" s="96" t="s">
         <v>460</v>
       </c>
       <c r="C3" s="96"/>
       <c r="E3" s="57" t="s">
-        <v>2695</v>
+        <v>2684</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>2691</v>
+        <v>2680</v>
       </c>
       <c r="H3" s="74" t="s">
         <v>413</v>
@@ -23929,8 +23971,8 @@
       <c r="K3" s="99"/>
       <c r="L3" s="325"/>
       <c r="M3" s="100"/>
-      <c r="N3" s="365" t="s">
-        <v>2709</v>
+      <c r="N3" s="375" t="s">
+        <v>2698</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
@@ -23938,17 +23980,17 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="96" t="s">
-        <v>2701</v>
+        <v>2690</v>
       </c>
       <c r="B4" s="96" t="s">
         <v>2340</v>
       </c>
       <c r="C4" s="96"/>
       <c r="E4" s="57" t="s">
-        <v>2695</v>
+        <v>2684</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>2692</v>
+        <v>2681</v>
       </c>
       <c r="H4" s="74" t="s">
         <v>1650</v>
@@ -23962,7 +24004,7 @@
         <v>1008</v>
       </c>
       <c r="M4" s="216"/>
-      <c r="N4" s="365"/>
+      <c r="N4" s="375"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -23973,13 +24015,13 @@
       <c r="I5" s="74"/>
       <c r="J5" s="74"/>
       <c r="K5" s="327" t="s">
-        <v>2690</v>
+        <v>2679</v>
       </c>
       <c r="L5" s="328">
         <v>12345</v>
       </c>
       <c r="M5" s="329"/>
-      <c r="N5" s="365"/>
+      <c r="N5" s="375"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -23997,7 +24039,7 @@
       <c r="K6" s="74"/>
       <c r="L6" s="74"/>
       <c r="M6" s="74"/>
-      <c r="N6" s="365"/>
+      <c r="N6" s="375"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -24009,7 +24051,7 @@
         <v>1322</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>2694</v>
+        <v>2683</v>
       </c>
       <c r="H7" s="74" t="s">
         <v>2088</v>
@@ -24021,7 +24063,7 @@
       <c r="K7" s="99"/>
       <c r="L7" s="325"/>
       <c r="M7" s="100"/>
-      <c r="N7" s="365"/>
+      <c r="N7" s="375"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -24043,7 +24085,7 @@
         <v>524</v>
       </c>
       <c r="M8" s="216"/>
-      <c r="N8" s="365"/>
+      <c r="N8" s="375"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -24059,13 +24101,13 @@
       <c r="I9" s="74"/>
       <c r="J9" s="74"/>
       <c r="K9" s="327" t="s">
-        <v>2690</v>
+        <v>2679</v>
       </c>
       <c r="L9" s="328">
         <v>12346</v>
       </c>
       <c r="M9" s="329"/>
-      <c r="N9" s="365"/>
+      <c r="N9" s="375"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -24083,7 +24125,7 @@
       <c r="K10" s="74"/>
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
-      <c r="N10" s="365"/>
+      <c r="N10" s="375"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
@@ -24096,12 +24138,12 @@
       <c r="H11" s="74"/>
       <c r="I11" s="74"/>
       <c r="J11" s="74" t="s">
-        <v>2693</v>
+        <v>2682</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
       <c r="M11" s="74"/>
-      <c r="N11" s="365"/>
+      <c r="N11" s="375"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
@@ -24117,7 +24159,7 @@
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
       <c r="M12" s="74"/>
-      <c r="N12" s="365"/>
+      <c r="N12" s="375"/>
       <c r="O12" s="51"/>
       <c r="P12" s="51"/>
       <c r="Q12" s="52"/>
@@ -24130,17 +24172,17 @@
       <c r="K13" s="51"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
-      <c r="N13" s="365"/>
+      <c r="N13" s="375"/>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
       <c r="Q13" s="52"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="96" t="s">
-        <v>2702</v>
+        <v>2691</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>2711</v>
+        <v>2700</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="51"/>
@@ -24151,17 +24193,17 @@
       <c r="K14" s="99"/>
       <c r="L14" s="325"/>
       <c r="M14" s="100"/>
-      <c r="N14" s="365"/>
+      <c r="N14" s="375"/>
       <c r="O14" s="51"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="52"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="96" t="s">
-        <v>2703</v>
+        <v>2692</v>
       </c>
       <c r="C15" s="96" t="s">
-        <v>2710</v>
+        <v>2699</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="51"/>
@@ -24174,27 +24216,27 @@
         <v>559</v>
       </c>
       <c r="M15" s="216"/>
-      <c r="N15" s="365"/>
+      <c r="N15" s="375"/>
       <c r="O15" s="51"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
       <c r="A16" s="96" t="s">
-        <v>2712</v>
+        <v>2701</v>
       </c>
       <c r="G16" s="50"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
       <c r="J16" s="74"/>
       <c r="K16" s="327" t="s">
-        <v>2690</v>
+        <v>2679</v>
       </c>
       <c r="L16" s="328">
         <v>123123</v>
       </c>
       <c r="M16" s="329"/>
-      <c r="N16" s="365"/>
+      <c r="N16" s="375"/>
       <c r="O16" s="51"/>
       <c r="P16" s="51"/>
       <c r="Q16" s="52"/>
@@ -24214,7 +24256,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="96" t="s">
-        <v>2704</v>
+        <v>2693</v>
       </c>
       <c r="D18" s="57" t="s">
         <v>1008</v>
@@ -24233,7 +24275,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="96" t="s">
-        <v>2705</v>
+        <v>2694</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>524</v>
@@ -24252,10 +24294,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="96" t="s">
-        <v>2706</v>
+        <v>2695</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>2708</v>
+        <v>2697</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="51"/>
@@ -24271,10 +24313,10 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1">
       <c r="A21" s="96" t="s">
-        <v>2707</v>
+        <v>2696</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>2708</v>
+        <v>2697</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="54"/>
@@ -24290,32 +24332,32 @@
     </row>
     <row r="23" spans="1:17">
       <c r="C23" s="57" t="s">
-        <v>2697</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="C24" s="57" t="s">
-        <v>2698</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="57" t="s">
-        <v>2699</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="C27" s="57" t="s">
-        <v>2700</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1">
       <c r="C28" s="57" t="s">
-        <v>2719</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1">
       <c r="A29" s="57" t="s">
-        <v>2718</v>
+        <v>2707</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="48"/>
@@ -24328,7 +24370,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="96" t="s">
-        <v>2713</v>
+        <v>2702</v>
       </c>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -24349,7 +24391,7 @@
     <row r="31" spans="1:17">
       <c r="A31" s="96"/>
       <c r="B31" s="96" t="s">
-        <v>2720</v>
+        <v>2709</v>
       </c>
       <c r="C31" s="96"/>
       <c r="D31" s="96"/>
@@ -24366,7 +24408,7 @@
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96" t="s">
-        <v>2714</v>
+        <v>2703</v>
       </c>
       <c r="D32" s="96"/>
       <c r="G32" s="50"/>
@@ -24397,7 +24439,7 @@
     <row r="34" spans="1:14" ht="15.75" thickBot="1">
       <c r="A34" s="96"/>
       <c r="B34" s="96" t="s">
-        <v>2721</v>
+        <v>2710</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
@@ -24414,7 +24456,7 @@
       <c r="A35" s="96"/>
       <c r="B35" s="96"/>
       <c r="C35" s="96" t="s">
-        <v>2715</v>
+        <v>2704</v>
       </c>
       <c r="D35" s="96"/>
       <c r="G35" s="50"/>
@@ -24457,7 +24499,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="96" t="s">
-        <v>2716</v>
+        <v>2705</v>
       </c>
       <c r="B38" s="96"/>
       <c r="C38" s="96"/>
@@ -24505,7 +24547,7 @@
       <c r="A41" s="96"/>
       <c r="B41" s="96"/>
       <c r="C41" s="96" t="s">
-        <v>2722</v>
+        <v>2711</v>
       </c>
       <c r="D41" s="96"/>
       <c r="G41" s="50"/>
@@ -24535,7 +24577,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="96" t="s">
-        <v>2717</v>
+        <v>2706</v>
       </c>
       <c r="B43" s="96"/>
       <c r="C43" s="96"/>
@@ -24583,7 +24625,7 @@
       <c r="A46" s="96"/>
       <c r="B46" s="96"/>
       <c r="C46" s="96" t="s">
-        <v>2723</v>
+        <v>2712</v>
       </c>
       <c r="D46" s="96"/>
       <c r="G46" s="50"/>
@@ -27762,7 +27804,7 @@
     <row r="318" spans="2:12">
       <c r="B318" s="47"/>
       <c r="C318" s="48" t="s">
-        <v>2725</v>
+        <v>2714</v>
       </c>
       <c r="D318" s="48"/>
       <c r="E318" s="48"/>
@@ -27770,7 +27812,7 @@
       <c r="G318" s="48"/>
       <c r="H318" s="48"/>
       <c r="I318" s="48" t="s">
-        <v>2593</v>
+        <v>2582</v>
       </c>
       <c r="J318" s="48"/>
       <c r="K318" s="48"/>
@@ -27924,11 +27966,11 @@
       <c r="C330" s="51"/>
       <c r="D330" s="51"/>
       <c r="E330" s="51" t="s">
-        <v>2724</v>
+        <v>2713</v>
       </c>
       <c r="F330" s="51"/>
       <c r="G330" s="51" t="s">
-        <v>2726</v>
+        <v>2715</v>
       </c>
       <c r="H330" s="51"/>
       <c r="I330" s="51"/>
@@ -27956,7 +27998,7 @@
       <c r="E332" s="54"/>
       <c r="F332" s="54"/>
       <c r="G332" s="54" t="s">
-        <v>2727</v>
+        <v>2716</v>
       </c>
       <c r="H332" s="54"/>
       <c r="I332" s="54"/>
@@ -27966,7 +28008,7 @@
     </row>
     <row r="333" spans="2:12">
       <c r="G333" s="57" t="s">
-        <v>2728</v>
+        <v>2717</v>
       </c>
     </row>
   </sheetData>
@@ -27995,7 +28037,7 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2742</v>
+        <v>2731</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
@@ -28029,7 +28071,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="G4" s="33" t="s">
-        <v>2729</v>
+        <v>2718</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>413</v>
@@ -28046,7 +28088,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2736</v>
+        <v>2725</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="38"/>
@@ -28062,7 +28104,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>2730</v>
+        <v>2719</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="27"/>
@@ -28078,7 +28120,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2731</v>
+        <v>2720</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="51"/>
@@ -28094,7 +28136,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2732</v>
+        <v>2721</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="51"/>
@@ -28106,7 +28148,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2733</v>
+        <v>2722</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="51"/>
@@ -28127,10 +28169,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>2734</v>
+        <v>2723</v>
       </c>
       <c r="D11" t="s">
-        <v>2735</v>
+        <v>2724</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="51"/>
@@ -28164,10 +28206,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2734</v>
+        <v>2723</v>
       </c>
       <c r="D13" t="s">
-        <v>2738</v>
+        <v>2727</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="27"/>
@@ -28183,17 +28225,17 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" t="s">
-        <v>2739</v>
+        <v>2728</v>
       </c>
       <c r="D14" t="s">
-        <v>2735</v>
+        <v>2724</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="35" t="s">
-        <v>2737</v>
+        <v>2726</v>
       </c>
       <c r="L14" s="37" t="s">
         <v>417</v>
@@ -28202,10 +28244,10 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" t="s">
-        <v>2740</v>
+        <v>2729</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>2741</v>
+        <v>2730</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="27"/>
@@ -28232,7 +28274,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>2743</v>
+        <v>2732</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="27"/>
@@ -28265,7 +28307,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="35" t="s">
-        <v>2737</v>
+        <v>2726</v>
       </c>
       <c r="L19" s="37" t="s">
         <v>417</v>
@@ -28275,17 +28317,17 @@
     <row r="23" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>2742</v>
+        <v>2731</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31" t="s">
-        <v>2378</v>
+        <v>2367</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>2533</v>
+        <v>2522</v>
       </c>
       <c r="M24" s="32"/>
     </row>
@@ -28313,7 +28355,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="G26" s="33" t="s">
-        <v>2729</v>
+        <v>2718</v>
       </c>
       <c r="H26" s="27" t="s">
         <v>413</v>
@@ -28330,7 +28372,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>2744</v>
+        <v>2733</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="38"/>
@@ -28346,7 +28388,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="B28" t="s">
-        <v>2745</v>
+        <v>2734</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="27"/>
@@ -28378,7 +28420,7 @@
         <v>1018</v>
       </c>
       <c r="B30" t="s">
-        <v>2746</v>
+        <v>2735</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="51"/>
@@ -28442,7 +28484,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="B35" t="s">
-        <v>2747</v>
+        <v>2736</v>
       </c>
       <c r="D35" t="s">
         <v>683</v>
@@ -28468,7 +28510,7 @@
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="35" t="s">
-        <v>2737</v>
+        <v>2726</v>
       </c>
       <c r="L36" s="37" t="s">
         <v>417</v>
@@ -28487,7 +28529,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="B38" t="s">
-        <v>2748</v>
+        <v>2737</v>
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="27"/>
@@ -28535,7 +28577,7 @@
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="35" t="s">
-        <v>2737</v>
+        <v>2726</v>
       </c>
       <c r="L41" s="37" t="s">
         <v>417</v>
@@ -28598,7 +28640,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="38" t="s">
-        <v>2749</v>
+        <v>2738</v>
       </c>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
@@ -28640,13 +28682,13 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="38" t="s">
-        <v>2751</v>
+        <v>2740</v>
       </c>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="84" t="s">
-        <v>2750</v>
+        <v>2739</v>
       </c>
       <c r="F48" s="38" t="s">
         <v>413</v>
@@ -28664,7 +28706,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="38" t="s">
-        <v>2752</v>
+        <v>2741</v>
       </c>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
@@ -28960,7 +29002,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75" thickBot="1">
       <c r="A64" s="38" t="s">
-        <v>2758</v>
+        <v>2747</v>
       </c>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -28981,7 +29023,7 @@
     <row r="65" spans="1:16">
       <c r="A65" s="38"/>
       <c r="B65" s="38" t="s">
-        <v>2763</v>
+        <v>2752</v>
       </c>
       <c r="D65" s="74"/>
       <c r="E65" s="38"/>
@@ -29011,11 +29053,11 @@
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
       <c r="D66" s="74" t="s">
-        <v>2761</v>
+        <v>2750</v>
       </c>
       <c r="E66" s="38"/>
       <c r="G66" s="84" t="s">
-        <v>2756</v>
+        <v>2745</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>413</v>
@@ -29037,7 +29079,7 @@
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38" t="s">
-        <v>2755</v>
+        <v>2744</v>
       </c>
       <c r="D67" s="74"/>
       <c r="G67" s="84"/>
@@ -29099,7 +29141,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="38" t="s">
-        <v>2763</v>
+        <v>2752</v>
       </c>
       <c r="C70" s="74"/>
       <c r="D70" s="38"/>
@@ -29112,11 +29154,11 @@
         <v>2088</v>
       </c>
       <c r="I70" s="129" t="s">
-        <v>2766</v>
+        <v>2755</v>
       </c>
       <c r="J70" s="38"/>
       <c r="K70" s="38" t="s">
-        <v>2766</v>
+        <v>2755</v>
       </c>
       <c r="L70" s="81" t="s">
         <v>58</v>
@@ -29130,7 +29172,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="38" t="s">
-        <v>2753</v>
+        <v>2742</v>
       </c>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
@@ -29156,7 +29198,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1">
       <c r="A72" s="38" t="s">
-        <v>2757</v>
+        <v>2746</v>
       </c>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
@@ -29185,7 +29227,7 @@
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
       <c r="D73" s="74" t="s">
-        <v>2761</v>
+        <v>2750</v>
       </c>
       <c r="E73" s="38"/>
       <c r="G73" s="84"/>
@@ -29204,7 +29246,7 @@
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
       <c r="D74" s="74" t="s">
-        <v>2762</v>
+        <v>2751</v>
       </c>
       <c r="E74" s="38"/>
       <c r="G74" s="84"/>
@@ -29223,7 +29265,7 @@
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
       <c r="D75" s="74" t="s">
-        <v>2754</v>
+        <v>2743</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
@@ -29247,22 +29289,22 @@
       <c r="F76" s="38"/>
       <c r="G76" s="84"/>
       <c r="H76" s="38" t="s">
-        <v>2768</v>
+        <v>2757</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>2769</v>
+        <v>2758</v>
       </c>
       <c r="J76" s="38" t="s">
-        <v>2770</v>
+        <v>2759</v>
       </c>
       <c r="K76" s="38" t="s">
-        <v>2771</v>
+        <v>2760</v>
       </c>
       <c r="L76" s="38" t="s">
-        <v>2772</v>
+        <v>2761</v>
       </c>
       <c r="M76" s="38" t="s">
-        <v>2773</v>
+        <v>2762</v>
       </c>
       <c r="N76" s="38"/>
       <c r="O76" s="38"/>
@@ -29273,7 +29315,7 @@
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
       <c r="D77" s="74" t="s">
-        <v>2759</v>
+        <v>2748</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
@@ -29310,7 +29352,7 @@
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38" t="s">
-        <v>2760</v>
+        <v>2749</v>
       </c>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -29349,7 +29391,7 @@
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
       <c r="D81" s="38" t="s">
-        <v>2764</v>
+        <v>2753</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
@@ -29386,7 +29428,7 @@
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38" t="s">
-        <v>2765</v>
+        <v>2754</v>
       </c>
       <c r="D83" s="38"/>
       <c r="E83" s="38"/>
@@ -29407,7 +29449,7 @@
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
       <c r="D84" s="38" t="s">
-        <v>2767</v>
+        <v>2756</v>
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
@@ -29465,12 +29507,12 @@
       <c r="D87" s="38"/>
       <c r="E87" s="38"/>
       <c r="F87" s="39" t="s">
-        <v>2777</v>
+        <v>2766</v>
       </c>
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
       <c r="I87" s="141" t="s">
-        <v>2778</v>
+        <v>2767</v>
       </c>
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
@@ -29482,7 +29524,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="39" t="s">
-        <v>2774</v>
+        <v>2763</v>
       </c>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
@@ -29510,7 +29552,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="141" t="s">
-        <v>2775</v>
+        <v>2764</v>
       </c>
       <c r="B89" s="38"/>
       <c r="D89" s="38"/>
@@ -29537,7 +29579,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="38" t="s">
-        <v>2776</v>
+        <v>2765</v>
       </c>
       <c r="B90" s="38"/>
       <c r="D90" s="38"/>
@@ -29578,7 +29620,7 @@
         <v>18</v>
       </c>
       <c r="J91" s="38" t="s">
-        <v>2741</v>
+        <v>2730</v>
       </c>
       <c r="K91" s="38"/>
       <c r="L91" s="38"/>
@@ -29614,7 +29656,7 @@
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
       <c r="D93" s="38" t="s">
-        <v>2780</v>
+        <v>2769</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
@@ -29634,7 +29676,7 @@
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
       <c r="D94" s="38" t="s">
-        <v>2779</v>
+        <v>2768</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
@@ -33097,8 +33139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33115,31 +33157,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="E1" s="38" t="s">
-        <v>2798</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="38" t="s">
-        <v>2800</v>
-      </c>
-      <c r="E2" s="373" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E2" s="335" t="s">
         <v>1458</v>
       </c>
-      <c r="F2" s="374" t="s">
+      <c r="F2" s="336" t="s">
         <v>1902</v>
       </c>
       <c r="G2" s="82"/>
       <c r="H2" s="82"/>
       <c r="I2" s="82"/>
       <c r="J2" s="81" t="s">
-        <v>2799</v>
+        <v>2788</v>
       </c>
       <c r="K2" s="82"/>
       <c r="L2" s="83"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="B3" s="38" t="s">
-        <v>2802</v>
+        <v>2791</v>
       </c>
       <c r="E3" s="84" t="s">
         <v>1868</v>
@@ -33153,7 +33195,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="B4" s="38" t="s">
-        <v>2801</v>
+        <v>2790</v>
       </c>
       <c r="E4" s="84" t="s">
         <v>466</v>
@@ -33180,7 +33222,7 @@
         <v>2090</v>
       </c>
       <c r="J5" s="84"/>
-      <c r="L5" s="372"/>
+      <c r="L5" s="334"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="E6" s="84" t="s">
@@ -33194,10 +33236,10 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="38" t="s">
-        <v>2803</v>
+        <v>2792</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>2805</v>
+        <v>2794</v>
       </c>
       <c r="E7" s="84" t="s">
         <v>1767</v>
@@ -33215,14 +33257,14 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="38" t="s">
-        <v>2804</v>
+        <v>2793</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>1897</v>
       </c>
       <c r="E8" s="84"/>
       <c r="J8" s="84"/>
-      <c r="L8" s="372"/>
+      <c r="L8" s="334"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="38" t="s">
@@ -33242,7 +33284,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="38" t="s">
-        <v>2808</v>
+        <v>2797</v>
       </c>
       <c r="E10" s="84"/>
       <c r="J10" s="84"/>
@@ -33250,16 +33292,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="38" t="s">
-        <v>2809</v>
+        <v>2798</v>
       </c>
       <c r="E11" s="84"/>
       <c r="F11" s="74" t="s">
         <v>413</v>
       </c>
-      <c r="G11" s="375" t="s">
+      <c r="G11" s="337" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="376">
+      <c r="H11" s="338">
         <v>7</v>
       </c>
       <c r="J11" s="84"/>
@@ -33268,10 +33310,10 @@
     <row r="12" spans="1:12">
       <c r="E12" s="84"/>
       <c r="F12" s="74"/>
-      <c r="G12" s="377" t="s">
+      <c r="G12" s="339" t="s">
         <v>190</v>
       </c>
-      <c r="H12" s="378">
+      <c r="H12" s="340">
         <v>1</v>
       </c>
       <c r="J12" s="84"/>
@@ -33279,10 +33321,10 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="38" t="s">
-        <v>2810</v>
+        <v>2799</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>2811</v>
+        <v>2800</v>
       </c>
       <c r="E13" s="84"/>
       <c r="F13" s="74"/>
@@ -33293,7 +33335,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="38" t="s">
-        <v>2812</v>
+        <v>2801</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>1648</v>
@@ -33315,15 +33357,15 @@
     </row>
     <row r="16" spans="1:12">
       <c r="J16" s="38" t="s">
-        <v>2806</v>
+        <v>2795</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>2807</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="38" t="s">
-        <v>2813</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1">
@@ -33335,7 +33377,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="38" t="s">
-        <v>2814</v>
+        <v>2803</v>
       </c>
       <c r="E19" s="81" t="s">
         <v>204</v>
@@ -33355,7 +33397,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" s="38" t="s">
-        <v>2815</v>
+        <v>2804</v>
       </c>
       <c r="E20" s="84" t="s">
         <v>1645</v>
@@ -33368,7 +33410,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="38" t="s">
-        <v>2816</v>
+        <v>2805</v>
       </c>
       <c r="E21" s="84" t="s">
         <v>1646</v>
@@ -33387,10 +33429,10 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="38" t="s">
-        <v>2817</v>
+        <v>2806</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>2821</v>
+        <v>2810</v>
       </c>
       <c r="H22" s="298"/>
       <c r="J22" s="84"/>
@@ -33398,11 +33440,11 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="38" t="s">
-        <v>2818</v>
+        <v>2807</v>
       </c>
       <c r="C23" s="74"/>
       <c r="E23" s="84" t="s">
-        <v>2822</v>
+        <v>2811</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>1632</v>
@@ -33414,10 +33456,10 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1">
       <c r="A24" s="38" t="s">
-        <v>2819</v>
+        <v>2808</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>2823</v>
+        <v>2812</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>2004</v>
@@ -33429,11 +33471,11 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1">
       <c r="A25" s="38" t="s">
-        <v>2820</v>
+        <v>2809</v>
       </c>
       <c r="C25" s="74"/>
       <c r="E25" s="84" t="s">
-        <v>2821</v>
+        <v>2810</v>
       </c>
       <c r="H25" s="231"/>
       <c r="I25" s="231"/>
@@ -33449,7 +33491,7 @@
     <row r="26" spans="1:15">
       <c r="C26" s="74"/>
       <c r="E26" s="84" t="s">
-        <v>2824</v>
+        <v>2813</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>2004</v>
@@ -33461,7 +33503,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1">
       <c r="A27" s="38" t="s">
-        <v>2825</v>
+        <v>2814</v>
       </c>
       <c r="C27" s="74"/>
       <c r="E27" s="84"/>
@@ -33494,7 +33536,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="38" t="s">
-        <v>2826</v>
+        <v>2815</v>
       </c>
       <c r="C30" s="74"/>
       <c r="E30" s="84"/>
@@ -33505,7 +33547,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="38" t="s">
-        <v>2827</v>
+        <v>2816</v>
       </c>
       <c r="C31" s="74"/>
       <c r="E31" s="84"/>
@@ -33516,14 +33558,14 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1">
       <c r="A32" s="38" t="s">
-        <v>2828</v>
+        <v>2817</v>
       </c>
       <c r="C32" s="74"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="86"/>
-      <c r="H32" s="379"/>
-      <c r="I32" s="379"/>
+      <c r="H32" s="341"/>
+      <c r="I32" s="341"/>
       <c r="J32" s="85"/>
       <c r="K32" s="86"/>
       <c r="L32" s="86"/>
@@ -33534,7 +33576,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="38" t="s">
-        <v>2829</v>
+        <v>2818</v>
       </c>
       <c r="E34" s="81" t="s">
         <v>204</v>
@@ -33554,7 +33596,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="A35" s="38" t="s">
-        <v>2830</v>
+        <v>2819</v>
       </c>
       <c r="E35" s="84" t="s">
         <v>402</v>
@@ -33567,7 +33609,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1">
       <c r="A36" s="38" t="s">
-        <v>2831</v>
+        <v>2820</v>
       </c>
       <c r="E36" s="84" t="s">
         <v>403</v>
@@ -33586,7 +33628,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="38" t="s">
-        <v>2832</v>
+        <v>2821</v>
       </c>
       <c r="E37" s="84" t="s">
         <v>405</v>
@@ -33597,7 +33639,7 @@
       <c r="J37" s="84"/>
       <c r="K37" s="168"/>
       <c r="L37" s="168"/>
-      <c r="M37" s="372"/>
+      <c r="M37" s="334"/>
       <c r="N37" s="168"/>
       <c r="O37" s="168"/>
     </row>
@@ -33635,12 +33677,12 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" thickBot="1">
       <c r="A41" s="38" t="s">
-        <v>2833</v>
+        <v>2822</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="E41" s="380" t="s">
+      <c r="E41" s="342" t="s">
         <v>2351</v>
       </c>
       <c r="F41" s="281" t="s">
@@ -33651,7 +33693,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" thickBot="1">
       <c r="A42" s="38" t="s">
-        <v>2834</v>
+        <v>2823</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>412</v>
@@ -33662,9 +33704,9 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" thickBot="1">
       <c r="B43" s="38" t="s">
-        <v>2838</v>
-      </c>
-      <c r="E43" s="380" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E43" s="342" t="s">
         <v>2352</v>
       </c>
       <c r="F43" s="281" t="s">
@@ -33675,7 +33717,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="38" t="s">
-        <v>2837</v>
+        <v>2826</v>
       </c>
       <c r="C44" s="38" t="b">
         <v>1</v>
@@ -33686,7 +33728,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" thickBot="1">
       <c r="B45" s="38" t="s">
-        <v>2836</v>
+        <v>2825</v>
       </c>
       <c r="E45" s="85"/>
       <c r="F45" s="86"/>
@@ -33705,7 +33747,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" thickBot="1">
       <c r="B47" s="38" t="s">
-        <v>2835</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -33727,10 +33769,10 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="38" t="s">
-        <v>2839</v>
+        <v>2828</v>
       </c>
       <c r="E49" s="84" t="s">
-        <v>2649</v>
+        <v>2638</v>
       </c>
       <c r="F49" s="38" t="s">
         <v>2090</v>
@@ -33740,16 +33782,16 @@
         <v>1632</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>2845</v>
+        <v>2834</v>
       </c>
       <c r="M49" s="75"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="38" t="s">
-        <v>2841</v>
+        <v>2830</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>2846</v>
+        <v>2835</v>
       </c>
       <c r="E50" s="84"/>
       <c r="J50" s="84"/>
@@ -33757,16 +33799,16 @@
         <v>2004</v>
       </c>
       <c r="L50" s="38" t="s">
-        <v>2846</v>
+        <v>2835</v>
       </c>
       <c r="M50" s="75"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="38" t="s">
-        <v>2842</v>
+        <v>2831</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>2847</v>
+        <v>2836</v>
       </c>
       <c r="E51" s="84"/>
       <c r="J51" s="84"/>
@@ -33774,13 +33816,13 @@
         <v>2005</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>2847</v>
+        <v>2836</v>
       </c>
       <c r="M51" s="75"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="38" t="s">
-        <v>2843</v>
+        <v>2832</v>
       </c>
       <c r="E52" s="84"/>
       <c r="J52" s="84"/>
@@ -33788,26 +33830,26 @@
         <v>2006</v>
       </c>
       <c r="L52" s="38" t="s">
-        <v>2848</v>
+        <v>2837</v>
       </c>
       <c r="M52" s="75"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="38" t="s">
-        <v>2844</v>
+        <v>2833</v>
       </c>
       <c r="E53" s="84" t="s">
-        <v>2649</v>
+        <v>2638</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>2857</v>
+        <v>2846</v>
       </c>
       <c r="J53" s="84"/>
       <c r="K53" s="38" t="s">
         <v>2090</v>
       </c>
       <c r="L53" s="38" t="s">
-        <v>2849</v>
+        <v>2838</v>
       </c>
       <c r="M53" s="75"/>
     </row>
@@ -33818,7 +33860,7 @@
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
       <c r="A55" s="38" t="s">
-        <v>2852</v>
+        <v>2841</v>
       </c>
       <c r="E55" s="84"/>
       <c r="J55" s="84"/>
@@ -33826,20 +33868,20 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
       <c r="A56" s="38" t="s">
-        <v>2853</v>
+        <v>2842</v>
       </c>
       <c r="E56" s="326" t="s">
-        <v>2858</v>
+        <v>2847</v>
       </c>
       <c r="F56" s="281" t="s">
-        <v>2849</v>
+        <v>2838</v>
       </c>
       <c r="J56" s="84"/>
       <c r="M56" s="75"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="38" t="s">
-        <v>2854</v>
+        <v>2843</v>
       </c>
       <c r="E57" s="84"/>
       <c r="J57" s="84"/>
@@ -33847,7 +33889,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="38" t="s">
-        <v>2855</v>
+        <v>2844</v>
       </c>
       <c r="E58" s="84"/>
       <c r="J58" s="84"/>
@@ -33855,7 +33897,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
       <c r="A59" s="38" t="s">
-        <v>2856</v>
+        <v>2845</v>
       </c>
       <c r="E59" s="85"/>
       <c r="F59" s="86"/>
@@ -33869,12 +33911,12 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="38" t="s">
-        <v>2850</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="38" t="s">
-        <v>2851</v>
+        <v>2840</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>1649</v>
@@ -33887,7 +33929,7 @@
     </row>
     <row r="65" spans="4:8">
       <c r="D65" s="38" t="s">
-        <v>2840</v>
+        <v>2829</v>
       </c>
       <c r="G65" s="129">
         <v>0</v>
@@ -33901,7 +33943,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="129" t="s">
-        <v>2859</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="67" spans="4:8">
@@ -33909,7 +33951,7 @@
         <v>2</v>
       </c>
       <c r="H67" s="129" t="s">
-        <v>2860</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="68" spans="4:8">
@@ -33917,7 +33959,7 @@
         <v>3</v>
       </c>
       <c r="H68" s="129" t="s">
-        <v>2861</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="82" spans="6:7">
@@ -34095,7 +34137,7 @@
       <c r="N229" s="74"/>
     </row>
     <row r="240" spans="7:14">
-      <c r="I240" s="371"/>
+      <c r="I240" s="333"/>
     </row>
     <row r="246" spans="4:9">
       <c r="D246" s="168"/>
@@ -34235,7 +34277,7 @@
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29" t="s">
-        <v>2795</v>
+        <v>2784</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
@@ -34268,7 +34310,7 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>2741</v>
+        <v>2730</v>
       </c>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
@@ -34296,7 +34338,7 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29" t="s">
-        <v>2796</v>
+        <v>2785</v>
       </c>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
@@ -34309,7 +34351,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="L16" s="29" t="s">
-        <v>2797</v>
+        <v>2786</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="29"/>
@@ -35478,7 +35520,7 @@
     <row r="203" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="204" spans="1:20">
       <c r="A204" t="s">
-        <v>2781</v>
+        <v>2770</v>
       </c>
       <c r="F204" s="30" t="s">
         <v>204</v>
@@ -35495,7 +35537,7 @@
         <v>356</v>
       </c>
       <c r="F205" s="33" t="s">
-        <v>2786</v>
+        <v>2775</v>
       </c>
       <c r="G205" s="27" t="s">
         <v>413</v>
@@ -35509,7 +35551,7 @@
         <v>1547</v>
       </c>
       <c r="F206" s="33" t="s">
-        <v>2787</v>
+        <v>2776</v>
       </c>
       <c r="G206" s="27" t="s">
         <v>417</v>
@@ -35520,7 +35562,7 @@
     </row>
     <row r="207" spans="1:20">
       <c r="B207" t="s">
-        <v>2782</v>
+        <v>2771</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="27"/>
@@ -35530,7 +35572,7 @@
     </row>
     <row r="208" spans="1:20" ht="15.75" thickBot="1">
       <c r="B208" t="s">
-        <v>2783</v>
+        <v>2772</v>
       </c>
       <c r="F208" s="33"/>
       <c r="G208" s="27"/>
@@ -35567,7 +35609,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>2784</v>
+        <v>2773</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="27"/>
@@ -35581,13 +35623,13 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" thickBot="1">
       <c r="A212" t="s">
-        <v>2785</v>
+        <v>2774</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="27"/>
       <c r="H212" s="27"/>
       <c r="I212" s="156" t="s">
-        <v>2737</v>
+        <v>2726</v>
       </c>
       <c r="J212" s="317" t="s">
         <v>417</v>
@@ -35602,7 +35644,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>2788</v>
+        <v>2777</v>
       </c>
       <c r="D214" t="s">
         <v>412</v>
@@ -35615,10 +35657,10 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>2789</v>
+        <v>2778</v>
       </c>
       <c r="D215" t="s">
-        <v>2790</v>
+        <v>2779</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="27"/>
@@ -35628,7 +35670,7 @@
     </row>
     <row r="216" spans="1:10" ht="15.75" thickBot="1">
       <c r="A216" s="123" t="s">
-        <v>2791</v>
+        <v>2780</v>
       </c>
       <c r="F216" s="35"/>
       <c r="G216" s="36"/>
@@ -35638,15 +35680,15 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>2792</v>
+        <v>2781</v>
       </c>
       <c r="D217" t="s">
-        <v>2790</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>2793</v>
+        <v>2782</v>
       </c>
       <c r="B218" t="s">
         <v>575</v>
@@ -35654,7 +35696,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>2794</v>
+        <v>2783</v>
       </c>
       <c r="D219" t="s">
         <v>1834</v>
@@ -36571,23 +36613,33 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:P245"/>
+  <dimension ref="A2:P245"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:H39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:13">
+      <c r="D2" s="381" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+    </row>
     <row r="3" spans="2:13">
       <c r="D3" s="43" t="s">
         <v>1191</v>
@@ -36604,107 +36656,83 @@
     </row>
     <row r="4" spans="2:13">
       <c r="C4" t="s">
-        <v>2362</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>2356</v>
+        <v>2867</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>2873</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>2357</v>
+        <v>2874</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>2354</v>
+        <v>2868</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>2355</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2369</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="C5" t="s">
-        <v>2363</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2370</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="G6" t="s">
-        <v>2368</v>
+      <c r="D6" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2359</v>
       </c>
       <c r="K6" t="s">
-        <v>2367</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="G7" s="43"/>
-      <c r="I7" s="43" t="s">
-        <v>2358</v>
+      <c r="D7" s="129" t="s">
+        <v>2870</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" t="s">
-        <v>2364</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="I8" s="43" t="s">
-        <v>2359</v>
+      <c r="D8" s="43" t="s">
+        <v>2871</v>
       </c>
       <c r="K8" t="s">
-        <v>2365</v>
+        <v>2355</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="G9" s="43"/>
-      <c r="I9" s="129" t="s">
-        <v>2</v>
-      </c>
       <c r="K9" t="s">
-        <v>2366</v>
+        <v>2356</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="G10" s="43"/>
-      <c r="I10" s="129" t="s">
-        <v>4</v>
+      <c r="D10" t="s">
+        <v>2872</v>
       </c>
       <c r="K10" t="s">
         <v>1781</v>
       </c>
       <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="K11" t="s">
+        <v>1782</v>
+      </c>
+      <c r="M11">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
-      <c r="G11" s="43"/>
-      <c r="I11" s="43" t="s">
-        <v>2353</v>
-      </c>
-      <c r="K11" t="s">
+    <row r="12" spans="2:13">
+      <c r="K12" t="s">
         <v>1783</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="G12" s="43"/>
-      <c r="I12" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1782</v>
       </c>
       <c r="M12">
         <v>4</v>
@@ -36712,30 +36740,30 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" t="s">
-        <v>2361</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="108" customFormat="1"/>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="366" t="s">
+      <c r="B22" s="376" t="s">
         <v>1101</v>
       </c>
-      <c r="C22" s="366"/>
+      <c r="C22" s="376"/>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
-      <c r="F22" s="366" t="s">
+      <c r="F22" s="376" t="s">
         <v>1204</v>
       </c>
-      <c r="G22" s="366"/>
-      <c r="H22" s="366"/>
+      <c r="G22" s="376"/>
+      <c r="H22" s="376"/>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="366" t="s">
+      <c r="K22" s="376" t="s">
         <v>1103</v>
       </c>
-      <c r="L22" s="366"/>
-      <c r="M22" s="366"/>
+      <c r="L22" s="376"/>
+      <c r="M22" s="376"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -36757,7 +36785,7 @@
     <row r="24" spans="1:14">
       <c r="A24" s="106"/>
       <c r="B24" s="84" t="s">
-        <v>2371</v>
+        <v>2360</v>
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="106"/>
@@ -36815,7 +36843,7 @@
       <c r="J26" s="106"/>
       <c r="K26" s="84"/>
       <c r="L26" s="168" t="s">
-        <v>2372</v>
+        <v>2361</v>
       </c>
       <c r="M26" s="75"/>
       <c r="N26" s="106"/>
@@ -36823,7 +36851,7 @@
     <row r="27" spans="1:14">
       <c r="A27" s="106"/>
       <c r="B27" s="84" t="s">
-        <v>2371</v>
+        <v>2360</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="106"/>
@@ -36837,7 +36865,7 @@
       <c r="J27" s="106"/>
       <c r="K27" s="84"/>
       <c r="L27" s="168" t="s">
-        <v>2373</v>
+        <v>2362</v>
       </c>
       <c r="M27" s="75"/>
       <c r="N27" s="106"/>
@@ -36845,7 +36873,7 @@
     <row r="28" spans="1:14">
       <c r="A28" s="106"/>
       <c r="B28" s="283" t="s">
-        <v>2373</v>
+        <v>2362</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="106"/>
@@ -36859,7 +36887,7 @@
       <c r="J28" s="106"/>
       <c r="K28" s="84"/>
       <c r="L28" s="168" t="s">
-        <v>2374</v>
+        <v>2363</v>
       </c>
       <c r="M28" s="75"/>
       <c r="N28" s="106"/>
@@ -36867,7 +36895,7 @@
     <row r="29" spans="1:14">
       <c r="A29" s="106"/>
       <c r="B29" s="283" t="s">
-        <v>2374</v>
+        <v>2363</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="106"/>
@@ -36903,7 +36931,7 @@
       <c r="J30" s="106"/>
       <c r="K30" s="84"/>
       <c r="L30" s="231" t="s">
-        <v>2372</v>
+        <v>2361</v>
       </c>
       <c r="M30" s="75"/>
       <c r="N30" s="106"/>
@@ -36911,7 +36939,7 @@
     <row r="31" spans="1:14" s="108" customFormat="1">
       <c r="A31" s="106"/>
       <c r="B31" s="84" t="s">
-        <v>2371</v>
+        <v>2360</v>
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="106"/>
@@ -36941,7 +36969,7 @@
       <c r="J32" s="106"/>
       <c r="K32" s="84"/>
       <c r="L32" s="231" t="s">
-        <v>2372</v>
+        <v>2361</v>
       </c>
       <c r="M32" s="75"/>
       <c r="N32" s="106"/>
@@ -36977,7 +37005,7 @@
       <c r="J34" s="106"/>
       <c r="K34" s="84"/>
       <c r="L34" s="168" t="s">
-        <v>2373</v>
+        <v>2362</v>
       </c>
       <c r="M34" s="75"/>
       <c r="N34" s="106"/>
@@ -36995,7 +37023,7 @@
       <c r="J35" s="106"/>
       <c r="K35" s="84"/>
       <c r="L35" s="168" t="s">
-        <v>2374</v>
+        <v>2363</v>
       </c>
       <c r="M35" s="75"/>
       <c r="N35" s="106"/>
@@ -37051,22 +37079,33 @@
     </row>
     <row r="40" spans="1:16">
       <c r="F40" t="s">
-        <v>2375</v>
+        <v>2364</v>
       </c>
       <c r="H40" t="s">
-        <v>2376</v>
+        <v>2365</v>
       </c>
       <c r="L40" s="230"/>
       <c r="P40" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="50" spans="2:13">
+    <row r="49" spans="1:13">
+      <c r="B49" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="D50" t="s">
+        <v>2865</v>
+      </c>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="1:13">
+      <c r="B51" t="s">
+        <v>2851</v>
+      </c>
       <c r="G51" t="s">
         <v>1173</v>
       </c>
@@ -37079,7 +37118,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="1:13">
       <c r="I52" s="186" t="s">
         <v>1770</v>
       </c>
@@ -37089,7 +37128,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="1:13">
       <c r="B53" t="s">
         <v>1099</v>
       </c>
@@ -37100,7 +37139,10 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="1:13">
+      <c r="D54" t="s">
+        <v>2861</v>
+      </c>
       <c r="G54" t="s">
         <v>1174</v>
       </c>
@@ -37113,33 +37155,63 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="1:13">
+      <c r="D55" t="s">
+        <v>2862</v>
+      </c>
       <c r="I55" s="186" t="s">
         <v>1772</v>
       </c>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="1:13">
+      <c r="B56" s="380" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C56" s="380"/>
       <c r="I56" s="186" t="s">
         <v>1773</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C57" s="381" t="s">
+        <v>2853</v>
+      </c>
       <c r="I57" s="187" t="s">
         <v>1774</v>
       </c>
       <c r="J57" s="187"/>
       <c r="K57" s="29"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C58" s="381"/>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C59" s="381"/>
       <c r="G59" t="s">
         <v>1175</v>
       </c>
@@ -37149,33 +37221,54 @@
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="1:13">
       <c r="I60" s="186" t="s">
         <v>1775</v>
       </c>
       <c r="J60" s="186"/>
       <c r="K60" s="29"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="1:13">
+      <c r="B61" s="380" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C61" s="380"/>
       <c r="I61" s="186" t="s">
         <v>1773</v>
       </c>
       <c r="J61" s="186"/>
       <c r="K61" s="29"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="1:13">
+      <c r="B62" s="43" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C62" s="381" t="s">
+        <v>15</v>
+      </c>
       <c r="I62" s="186" t="s">
         <v>1776</v>
       </c>
       <c r="J62" s="186"/>
       <c r="K62" s="29"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="1:13">
+      <c r="B63" s="43" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C63" s="381"/>
+      <c r="D63" t="s">
+        <v>2857</v>
+      </c>
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="1:13">
+      <c r="B64" s="43" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C64" s="381"/>
       <c r="G64" t="s">
         <v>1098</v>
       </c>
@@ -39109,10 +39202,15 @@
       <c r="J245" s="157"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D2:G2"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="K22:M22"/>
     <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39140,13 +39238,13 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="B1" t="s">
-        <v>2378</v>
+        <v>2367</v>
       </c>
       <c r="C1" t="s">
         <v>1909</v>
       </c>
       <c r="F1" t="s">
-        <v>2378</v>
+        <v>2367</v>
       </c>
       <c r="G1" t="s">
         <v>1909</v>
@@ -39160,7 +39258,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>2377</v>
+        <v>2366</v>
       </c>
       <c r="B2" s="279">
         <v>0</v>
@@ -39286,84 +39384,84 @@
     </row>
     <row r="7" spans="1:31">
       <c r="M7" s="233" t="s">
-        <v>2436</v>
+        <v>2425</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="368" t="s">
-        <v>2379</v>
-      </c>
-      <c r="C8" s="368"/>
-      <c r="F8" s="368" t="s">
-        <v>2380</v>
-      </c>
-      <c r="G8" s="368"/>
-      <c r="I8" s="368" t="s">
-        <v>2380</v>
-      </c>
-      <c r="J8" s="368"/>
+      <c r="B8" s="378" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C8" s="378"/>
+      <c r="F8" s="378" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G8" s="378"/>
+      <c r="I8" s="378" t="s">
+        <v>2369</v>
+      </c>
+      <c r="J8" s="378"/>
       <c r="M8" s="233" t="s">
-        <v>2437</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="368" t="s">
-        <v>2381</v>
-      </c>
-      <c r="G9" s="368"/>
-      <c r="I9" s="368" t="s">
-        <v>2382</v>
-      </c>
-      <c r="J9" s="368"/>
-      <c r="M9" s="369" t="s">
-        <v>2380</v>
-      </c>
-      <c r="N9" s="369"/>
+      <c r="F9" s="378" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G9" s="378"/>
+      <c r="I9" s="378" t="s">
+        <v>2371</v>
+      </c>
+      <c r="J9" s="378"/>
+      <c r="M9" s="379" t="s">
+        <v>2369</v>
+      </c>
+      <c r="N9" s="379"/>
     </row>
     <row r="10" spans="1:31">
       <c r="M10" s="288" t="s">
-        <v>2383</v>
+        <v>2372</v>
       </c>
       <c r="N10" s="288"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="367" t="s">
-        <v>2384</v>
-      </c>
-      <c r="F11" s="367"/>
-      <c r="G11" s="367"/>
-      <c r="H11" s="367"/>
-      <c r="I11" s="367"/>
-      <c r="J11" s="367"/>
-      <c r="K11" s="367"/>
-      <c r="L11" s="367"/>
-      <c r="M11" s="367"/>
-      <c r="N11" s="367"/>
-      <c r="O11" s="367"/>
+      <c r="E11" s="377" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F11" s="377"/>
+      <c r="G11" s="377"/>
+      <c r="H11" s="377"/>
+      <c r="I11" s="377"/>
+      <c r="J11" s="377"/>
+      <c r="K11" s="377"/>
+      <c r="L11" s="377"/>
+      <c r="M11" s="377"/>
+      <c r="N11" s="377"/>
+      <c r="O11" s="377"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>2385</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>2386</v>
+        <v>2375</v>
       </c>
       <c r="F13" t="s">
-        <v>2387</v>
+        <v>2376</v>
       </c>
       <c r="H13" t="s">
-        <v>2388</v>
+        <v>2377</v>
       </c>
       <c r="J13" t="s">
-        <v>2389</v>
+        <v>2378</v>
       </c>
       <c r="L13" t="s">
-        <v>2390</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -39495,10 +39593,10 @@
     </row>
     <row r="19" spans="1:32">
       <c r="C19" t="s">
-        <v>2391</v>
+        <v>2380</v>
       </c>
       <c r="F19" t="s">
-        <v>2392</v>
+        <v>2381</v>
       </c>
       <c r="L19" s="27"/>
       <c r="M19" s="43"/>
@@ -39537,7 +39635,7 @@
         <v>412</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>2393</v>
+        <v>2382</v>
       </c>
       <c r="M20" s="167"/>
       <c r="N20" s="27"/>
@@ -39706,7 +39804,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="F26" s="56" t="s">
-        <v>2394</v>
+        <v>2383</v>
       </c>
       <c r="G26" s="56"/>
       <c r="M26" s="27"/>
@@ -39731,7 +39829,7 @@
     </row>
     <row r="27" spans="1:32">
       <c r="H27" t="s">
-        <v>2408</v>
+        <v>2397</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
@@ -39755,10 +39853,10 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>2395</v>
+        <v>2384</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>2396</v>
+        <v>2385</v>
       </c>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -39782,7 +39880,7 @@
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="43" t="s">
-        <v>2397</v>
+        <v>2386</v>
       </c>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
@@ -39806,16 +39904,16 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1">
       <c r="E30" t="s">
-        <v>2406</v>
+        <v>2395</v>
       </c>
       <c r="G30" s="157" t="s">
-        <v>2398</v>
+        <v>2387</v>
       </c>
       <c r="I30" t="s">
-        <v>2405</v>
+        <v>2394</v>
       </c>
       <c r="K30" t="s">
-        <v>2404</v>
+        <v>2393</v>
       </c>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -39840,7 +39938,7 @@
     <row r="31" spans="1:32">
       <c r="E31" s="26"/>
       <c r="G31" s="43" t="s">
-        <v>2399</v>
+        <v>2388</v>
       </c>
       <c r="I31" s="26"/>
       <c r="K31" s="26"/>
@@ -39866,13 +39964,13 @@
     </row>
     <row r="32" spans="1:32">
       <c r="E32" s="286" t="s">
-        <v>2398</v>
+        <v>2387</v>
       </c>
       <c r="G32" s="43" t="s">
-        <v>2400</v>
+        <v>2389</v>
       </c>
       <c r="I32" s="286" t="s">
-        <v>2398</v>
+        <v>2387</v>
       </c>
       <c r="K32" s="286"/>
       <c r="M32" s="27"/>
@@ -39901,7 +39999,7 @@
     <row r="33" spans="1:32">
       <c r="E33" s="286"/>
       <c r="G33" s="43" t="s">
-        <v>2401</v>
+        <v>2390</v>
       </c>
       <c r="I33" s="286"/>
       <c r="K33" s="286"/>
@@ -39931,7 +40029,7 @@
     <row r="34" spans="1:32">
       <c r="E34" s="286"/>
       <c r="G34" s="43" t="s">
-        <v>2402</v>
+        <v>2391</v>
       </c>
       <c r="I34" s="286"/>
       <c r="K34" s="286"/>
@@ -39958,7 +40056,7 @@
     <row r="35" spans="1:32" ht="15.75" thickBot="1">
       <c r="E35" s="202"/>
       <c r="G35" s="43" t="s">
-        <v>2403</v>
+        <v>2392</v>
       </c>
       <c r="I35" s="202"/>
       <c r="K35" s="202"/>
@@ -40005,7 +40103,7 @@
     </row>
     <row r="37" spans="1:32">
       <c r="C37" t="s">
-        <v>2407</v>
+        <v>2396</v>
       </c>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -40029,12 +40127,12 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>2409</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="40" spans="1:32">
       <c r="M40" t="s">
-        <v>2415</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -40112,7 +40210,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>2412</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -40152,7 +40250,7 @@
         <v>99999999</v>
       </c>
       <c r="E45" s="129" t="s">
-        <v>2410</v>
+        <v>2399</v>
       </c>
       <c r="G45">
         <v>99999999</v>
@@ -40172,7 +40270,7 @@
         <v>10000000</v>
       </c>
       <c r="C46" s="129" t="s">
-        <v>2410</v>
+        <v>2399</v>
       </c>
       <c r="D46">
         <v>10000000</v>
@@ -40181,7 +40279,7 @@
         <v>10000000</v>
       </c>
       <c r="H46" s="129" t="s">
-        <v>2410</v>
+        <v>2399</v>
       </c>
       <c r="I46">
         <v>10000000</v>
@@ -40192,15 +40290,15 @@
     </row>
     <row r="47" spans="1:32">
       <c r="J47" s="129" t="s">
-        <v>2410</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="48" spans="1:32">
       <c r="C48" t="s">
-        <v>2392</v>
+        <v>2381</v>
       </c>
       <c r="H48" t="s">
-        <v>2411</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -40364,7 +40462,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="56" t="s">
-        <v>2413</v>
+        <v>2402</v>
       </c>
       <c r="B62" s="56"/>
       <c r="N62" s="27"/>
@@ -40486,7 +40584,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="56" t="s">
-        <v>2414</v>
+        <v>2403</v>
       </c>
       <c r="B69" s="56"/>
       <c r="N69" s="27"/>
@@ -40615,7 +40713,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="B77" t="s">
-        <v>2438</v>
+        <v>2427</v>
       </c>
       <c r="C77" t="s">
         <v>1902</v>
@@ -40629,7 +40727,7 @@
         <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>2439</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -40640,7 +40738,7 @@
         <v>80</v>
       </c>
       <c r="F79" t="s">
-        <v>2440</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -40651,7 +40749,7 @@
         <v>20</v>
       </c>
       <c r="L80" t="s">
-        <v>2445</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="81" spans="2:12">
@@ -40665,7 +40763,7 @@
         <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>2441</v>
+        <v>2430</v>
       </c>
       <c r="K81" t="s">
         <v>48</v>
@@ -40678,7 +40776,7 @@
       <c r="B82" s="282"/>
       <c r="C82" s="282"/>
       <c r="F82" t="s">
-        <v>2442</v>
+        <v>2431</v>
       </c>
       <c r="L82" s="282" t="s">
         <v>524</v>
@@ -40694,7 +40792,7 @@
     </row>
     <row r="84" spans="2:12">
       <c r="G84" t="s">
-        <v>2443</v>
+        <v>2432</v>
       </c>
       <c r="L84" s="282" t="s">
         <v>1535</v>
@@ -40705,7 +40803,7 @@
         <v>49</v>
       </c>
       <c r="G85" t="s">
-        <v>2444</v>
+        <v>2433</v>
       </c>
       <c r="L85">
         <v>50</v>
@@ -42661,7 +42759,7 @@
   <sheetData>
     <row r="2" spans="1:21">
       <c r="A2" s="27" t="s">
-        <v>2416</v>
+        <v>2405</v>
       </c>
       <c r="E2" s="119" t="s">
         <v>549</v>
@@ -42677,7 +42775,7 @@
         <v>413</v>
       </c>
       <c r="L2" s="119" t="s">
-        <v>2420</v>
+        <v>2409</v>
       </c>
       <c r="M2" s="120" t="s">
         <v>1056</v>
@@ -42685,7 +42783,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="27" t="s">
-        <v>2417</v>
+        <v>2406</v>
       </c>
       <c r="E3" s="177" t="s">
         <v>550</v>
@@ -42703,7 +42801,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="27" t="s">
-        <v>2418</v>
+        <v>2407</v>
       </c>
       <c r="E4" s="177" t="s">
         <v>706</v>
@@ -42716,7 +42814,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="115" t="s">
-        <v>2419</v>
+        <v>2408</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="177" t="s">
@@ -42731,10 +42829,10 @@
         <v>1650</v>
       </c>
       <c r="L5" s="119" t="s">
-        <v>2420</v>
+        <v>2409</v>
       </c>
       <c r="M5" s="120" t="s">
-        <v>2421</v>
+        <v>2410</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -42756,7 +42854,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="27" t="s">
-        <v>2423</v>
+        <v>2412</v>
       </c>
       <c r="E7" s="177"/>
       <c r="K7" s="115"/>
@@ -42774,10 +42872,10 @@
         <v>2089</v>
       </c>
       <c r="L8" s="119" t="s">
-        <v>2420</v>
+        <v>2409</v>
       </c>
       <c r="M8" s="120" t="s">
-        <v>2422</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -42816,7 +42914,7 @@
         <v>2088</v>
       </c>
       <c r="L11" s="119" t="s">
-        <v>2420</v>
+        <v>2409</v>
       </c>
       <c r="M11" s="120" t="s">
         <v>1056</v>
@@ -42825,7 +42923,7 @@
     <row r="12" spans="1:21">
       <c r="E12" s="177"/>
       <c r="G12" s="27" t="s">
-        <v>2426</v>
+        <v>2415</v>
       </c>
       <c r="K12" s="115"/>
       <c r="L12" s="121" t="s">
@@ -42837,45 +42935,45 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="38" t="s">
-        <v>2425</v>
+        <v>2414</v>
       </c>
       <c r="E13" s="177" t="s">
         <v>1987</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>2424</v>
+        <v>2413</v>
       </c>
       <c r="G13" s="130">
         <v>1</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>2433</v>
+        <v>2422</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>2434</v>
+        <v>2423</v>
       </c>
       <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="38" t="s">
-        <v>2428</v>
+        <v>2417</v>
       </c>
       <c r="C14" s="255" t="s">
-        <v>2427</v>
+        <v>2416</v>
       </c>
       <c r="E14" s="177"/>
       <c r="G14" s="130">
         <v>2</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>2435</v>
+        <v>2424</v>
       </c>
       <c r="I14" s="43"/>
       <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="38" t="s">
-        <v>2429</v>
+        <v>2418</v>
       </c>
       <c r="E15" s="177"/>
       <c r="G15" s="130"/>
@@ -42885,7 +42983,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="38" t="s">
-        <v>2430</v>
+        <v>2419</v>
       </c>
       <c r="E16" s="121"/>
       <c r="F16" s="240"/>
@@ -42899,7 +42997,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="38" t="s">
-        <v>2431</v>
+        <v>2420</v>
       </c>
       <c r="C17" s="27">
         <f>1</f>
@@ -42908,7 +43006,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="38" t="s">
-        <v>2432</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -43102,11 +43200,11 @@
       <c r="L6" s="43" t="s">
         <v>1374</v>
       </c>
-      <c r="M6" s="370" t="s">
+      <c r="M6" s="380" t="s">
         <v>1375</v>
       </c>
-      <c r="N6" s="370"/>
-      <c r="O6" s="370"/>
+      <c r="N6" s="380"/>
+      <c r="O6" s="380"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -43921,36 +44019,36 @@
     <row r="91" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="92" spans="1:16">
       <c r="B92" s="30" t="s">
-        <v>2517</v>
+        <v>2506</v>
       </c>
       <c r="C92" s="31"/>
       <c r="D92" s="32"/>
       <c r="F92" s="30" t="s">
-        <v>2530</v>
+        <v>2519</v>
       </c>
       <c r="G92" s="31"/>
       <c r="H92" s="32"/>
       <c r="J92" s="30" t="s">
-        <v>2533</v>
+        <v>2522</v>
       </c>
       <c r="K92" s="31"/>
       <c r="L92" s="32"/>
       <c r="N92" s="30" t="s">
-        <v>2535</v>
+        <v>2524</v>
       </c>
       <c r="O92" s="31"/>
       <c r="P92" s="32"/>
     </row>
     <row r="93" spans="1:16">
       <c r="B93" s="33" t="s">
-        <v>2530</v>
+        <v>2519</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>2520</v>
+        <v>2509</v>
       </c>
       <c r="D93" s="34"/>
       <c r="F93" s="33" t="s">
-        <v>2544</v>
+        <v>2533</v>
       </c>
       <c r="G93" s="27" t="s">
         <v>180</v>
@@ -43967,7 +44065,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>2518</v>
+        <v>2507</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>180</v>
@@ -43977,7 +44075,7 @@
       </c>
       <c r="D94" s="34"/>
       <c r="F94" s="33" t="s">
-        <v>2544</v>
+        <v>2533</v>
       </c>
       <c r="G94" s="27" t="s">
         <v>184</v>
@@ -43986,7 +44084,7 @@
         <v>200</v>
       </c>
       <c r="J94" s="33" t="s">
-        <v>2544</v>
+        <v>2533</v>
       </c>
       <c r="K94" s="27" t="s">
         <v>180</v>
@@ -43995,7 +44093,7 @@
         <v>58</v>
       </c>
       <c r="N94" s="33" t="s">
-        <v>2544</v>
+        <v>2533</v>
       </c>
       <c r="O94" s="27" t="s">
         <v>180</v>
@@ -44006,38 +44104,38 @@
     </row>
     <row r="95" spans="1:16">
       <c r="B95" s="33" t="s">
-        <v>2533</v>
+        <v>2522</v>
       </c>
       <c r="C95" s="27" t="s">
         <v>1782</v>
       </c>
       <c r="D95" s="34"/>
       <c r="F95" s="33" t="s">
-        <v>2544</v>
+        <v>2533</v>
       </c>
       <c r="G95" s="27" t="s">
         <v>180</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>2531</v>
+        <v>2520</v>
       </c>
       <c r="J95" s="33" t="s">
-        <v>2544</v>
+        <v>2533</v>
       </c>
       <c r="K95" s="27" t="s">
         <v>180</v>
       </c>
       <c r="L95" s="34" t="s">
-        <v>2534</v>
+        <v>2523</v>
       </c>
       <c r="N95" s="33" t="s">
-        <v>2544</v>
+        <v>2533</v>
       </c>
       <c r="O95" s="27" t="s">
         <v>188</v>
       </c>
       <c r="P95" s="34" t="s">
-        <v>2536</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -44045,14 +44143,14 @@
         <v>180</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>2519</v>
+        <v>2508</v>
       </c>
       <c r="D96" s="34"/>
       <c r="F96" s="33"/>
       <c r="G96" s="27"/>
       <c r="H96" s="34"/>
       <c r="J96" s="33" t="s">
-        <v>2544</v>
+        <v>2533</v>
       </c>
       <c r="K96" s="27" t="s">
         <v>185</v>
@@ -44061,10 +44159,10 @@
         <v>59</v>
       </c>
       <c r="N96" s="33" t="s">
-        <v>2544</v>
+        <v>2533</v>
       </c>
       <c r="O96" s="27" t="s">
-        <v>2537</v>
+        <v>2526</v>
       </c>
       <c r="P96" s="34" t="s">
         <v>2122</v>
@@ -44072,27 +44170,27 @@
     </row>
     <row r="97" spans="1:16">
       <c r="B97" s="33" t="s">
-        <v>2535</v>
+        <v>2524</v>
       </c>
       <c r="C97" s="38" t="s">
         <v>199</v>
       </c>
       <c r="D97" s="34"/>
       <c r="F97" s="33" t="s">
-        <v>2545</v>
+        <v>2534</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>2543</v>
+        <v>2532</v>
       </c>
       <c r="H97" s="34"/>
       <c r="J97" s="33"/>
       <c r="K97" s="27"/>
       <c r="L97" s="34"/>
       <c r="N97" s="33" t="s">
-        <v>2544</v>
+        <v>2533</v>
       </c>
       <c r="O97" s="38" t="s">
-        <v>2540</v>
+        <v>2529</v>
       </c>
       <c r="P97" s="34" t="s">
         <v>183</v>
@@ -44100,17 +44198,17 @@
     </row>
     <row r="98" spans="1:16" ht="15.75" thickBot="1">
       <c r="B98" s="35" t="s">
-        <v>2540</v>
+        <v>2529</v>
       </c>
       <c r="C98" s="36" t="s">
         <v>183</v>
       </c>
       <c r="D98" s="37"/>
       <c r="F98" s="35" t="s">
-        <v>2545</v>
+        <v>2534</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>2542</v>
+        <v>2531</v>
       </c>
       <c r="H98" s="37"/>
       <c r="J98" s="35"/>
@@ -44122,43 +44220,43 @@
     </row>
     <row r="99" spans="1:16" ht="15.75" thickBot="1">
       <c r="N99" s="84" t="s">
-        <v>2546</v>
+        <v>2535</v>
       </c>
       <c r="O99" s="38" t="s">
-        <v>2547</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>2521</v>
+        <v>2510</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>2537</v>
+        <v>2526</v>
       </c>
       <c r="G100" s="31"/>
       <c r="H100" s="32"/>
       <c r="J100" s="30" t="s">
-        <v>2540</v>
+        <v>2529</v>
       </c>
       <c r="K100" s="31"/>
       <c r="L100" s="32"/>
       <c r="N100" s="84" t="s">
-        <v>2546</v>
+        <v>2535</v>
       </c>
       <c r="O100" s="38" t="s">
-        <v>2548</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>2522</v>
+        <v>2511</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="27" t="s">
         <v>188</v>
       </c>
       <c r="H101" s="34" t="s">
-        <v>2538</v>
+        <v>2527</v>
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="27" t="s">
@@ -44173,14 +44271,14 @@
         <v>1861</v>
       </c>
       <c r="C102" t="s">
-        <v>2532</v>
+        <v>2521</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="27" t="s">
         <v>180</v>
       </c>
       <c r="H102" s="34" t="s">
-        <v>2539</v>
+        <v>2528</v>
       </c>
       <c r="I102" s="40"/>
       <c r="J102" s="33"/>
@@ -44188,12 +44286,12 @@
         <v>184</v>
       </c>
       <c r="L102" s="34" t="s">
-        <v>2541</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="15.75" thickBot="1">
       <c r="B103" t="s">
-        <v>2523</v>
+        <v>2512</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="36" t="s">
@@ -44230,38 +44328,38 @@
     </row>
     <row r="106" spans="1:16">
       <c r="B106" t="s">
-        <v>2524</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="B107" t="s">
-        <v>2525</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>2526</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="B110" t="s">
-        <v>2527</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="B111" t="s">
-        <v>2528</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="C112" t="s">
-        <v>2529</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="119" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="120" spans="2:13" ht="15.75" thickBot="1">
       <c r="E120" s="30" t="s">
-        <v>2549</v>
+        <v>2538</v>
       </c>
       <c r="F120" s="31"/>
       <c r="G120" s="31"/>
@@ -44279,11 +44377,11 @@
       </c>
       <c r="G121" s="30"/>
       <c r="H121" s="31"/>
-      <c r="I121" s="349" t="s">
-        <v>2554</v>
-      </c>
-      <c r="J121" s="349" t="s">
-        <v>2558</v>
+      <c r="I121" s="359" t="s">
+        <v>2543</v>
+      </c>
+      <c r="J121" s="359" t="s">
+        <v>2547</v>
       </c>
       <c r="K121" s="27"/>
       <c r="L121" s="27"/>
@@ -44298,8 +44396,8 @@
       <c r="H122" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="I122" s="350"/>
-      <c r="J122" s="350"/>
+      <c r="I122" s="360"/>
+      <c r="J122" s="360"/>
       <c r="K122" s="27"/>
       <c r="L122" s="27"/>
       <c r="M122" s="34"/>
@@ -44313,8 +44411,8 @@
       <c r="H123" s="27">
         <v>19</v>
       </c>
-      <c r="I123" s="350"/>
-      <c r="J123" s="350"/>
+      <c r="I123" s="360"/>
+      <c r="J123" s="360"/>
       <c r="K123" s="27"/>
       <c r="L123" s="27"/>
       <c r="M123" s="34"/>
@@ -44328,8 +44426,8 @@
       <c r="H124" s="36" t="s">
         <v>1769</v>
       </c>
-      <c r="I124" s="350"/>
-      <c r="J124" s="350"/>
+      <c r="I124" s="360"/>
+      <c r="J124" s="360"/>
       <c r="K124" s="27"/>
       <c r="L124" s="27"/>
       <c r="M124" s="34"/>
@@ -44339,22 +44437,22 @@
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
-      <c r="I125" s="350"/>
-      <c r="J125" s="350"/>
+      <c r="I125" s="360"/>
+      <c r="J125" s="360"/>
       <c r="K125" s="27"/>
       <c r="L125" s="27"/>
       <c r="M125" s="34"/>
     </row>
     <row r="126" spans="2:13" ht="15.75" thickBot="1">
       <c r="B126" t="s">
-        <v>2556</v>
+        <v>2545</v>
       </c>
       <c r="E126" s="33"/>
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
-      <c r="I126" s="350"/>
-      <c r="J126" s="350"/>
+      <c r="I126" s="360"/>
+      <c r="J126" s="360"/>
       <c r="K126" s="27"/>
       <c r="L126" s="27"/>
       <c r="M126" s="34"/>
@@ -44362,12 +44460,12 @@
     <row r="127" spans="2:13">
       <c r="E127" s="33"/>
       <c r="F127" s="27" t="s">
-        <v>2405</v>
+        <v>2394</v>
       </c>
       <c r="G127" s="30"/>
       <c r="H127" s="31"/>
-      <c r="I127" s="350"/>
-      <c r="J127" s="350"/>
+      <c r="I127" s="360"/>
+      <c r="J127" s="360"/>
       <c r="K127" s="27"/>
       <c r="L127" s="27"/>
       <c r="M127" s="34"/>
@@ -44381,8 +44479,8 @@
       <c r="H128" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I128" s="350"/>
-      <c r="J128" s="350"/>
+      <c r="I128" s="360"/>
+      <c r="J128" s="360"/>
       <c r="K128" s="27"/>
       <c r="L128" s="27"/>
       <c r="M128" s="34"/>
@@ -44396,8 +44494,8 @@
       <c r="H129" s="27">
         <v>20</v>
       </c>
-      <c r="I129" s="350"/>
-      <c r="J129" s="350"/>
+      <c r="I129" s="360"/>
+      <c r="J129" s="360"/>
       <c r="K129" s="27"/>
       <c r="L129" s="27"/>
       <c r="M129" s="34"/>
@@ -44409,10 +44507,10 @@
         <v>194</v>
       </c>
       <c r="H130" s="36" t="s">
-        <v>2550</v>
-      </c>
-      <c r="I130" s="350"/>
-      <c r="J130" s="350"/>
+        <v>2539</v>
+      </c>
+      <c r="I130" s="360"/>
+      <c r="J130" s="360"/>
       <c r="K130" s="27"/>
       <c r="L130" s="27"/>
       <c r="M130" s="34"/>
@@ -44422,8 +44520,8 @@
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
-      <c r="I131" s="350"/>
-      <c r="J131" s="350"/>
+      <c r="I131" s="360"/>
+      <c r="J131" s="360"/>
       <c r="K131" s="27"/>
       <c r="L131" s="27"/>
       <c r="M131" s="34"/>
@@ -44431,12 +44529,12 @@
     <row r="132" spans="5:13">
       <c r="E132" s="33"/>
       <c r="F132" s="27" t="s">
-        <v>2404</v>
+        <v>2393</v>
       </c>
       <c r="G132" s="30"/>
       <c r="H132" s="31"/>
-      <c r="I132" s="350"/>
-      <c r="J132" s="350"/>
+      <c r="I132" s="360"/>
+      <c r="J132" s="360"/>
       <c r="K132" s="27"/>
       <c r="L132" s="27"/>
       <c r="M132" s="34"/>
@@ -44450,8 +44548,8 @@
       <c r="H133" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I133" s="350"/>
-      <c r="J133" s="350"/>
+      <c r="I133" s="360"/>
+      <c r="J133" s="360"/>
       <c r="K133" s="27"/>
       <c r="L133" s="27"/>
       <c r="M133" s="34"/>
@@ -44465,8 +44563,8 @@
       <c r="H134" s="27">
         <v>18</v>
       </c>
-      <c r="I134" s="350"/>
-      <c r="J134" s="350"/>
+      <c r="I134" s="360"/>
+      <c r="J134" s="360"/>
       <c r="K134" s="27"/>
       <c r="L134" s="27"/>
       <c r="M134" s="34"/>
@@ -44478,10 +44576,10 @@
         <v>194</v>
       </c>
       <c r="H135" s="36" t="s">
-        <v>2551</v>
-      </c>
-      <c r="I135" s="351"/>
-      <c r="J135" s="351"/>
+        <v>2540</v>
+      </c>
+      <c r="I135" s="361"/>
+      <c r="J135" s="361"/>
       <c r="K135" s="27"/>
       <c r="L135" s="27"/>
       <c r="M135" s="34"/>
@@ -44500,14 +44598,14 @@
     <row r="137" spans="5:13">
       <c r="E137" s="33"/>
       <c r="F137" s="27" t="s">
-        <v>2553</v>
+        <v>2542</v>
       </c>
       <c r="G137" s="38" t="s">
-        <v>2552</v>
+        <v>2541</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="27" t="s">
-        <v>2555</v>
+        <v>2544</v>
       </c>
       <c r="J137" s="27"/>
       <c r="K137" s="27"/>
@@ -44539,7 +44637,7 @@
     <row r="145" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="146" spans="2:13" ht="15.75" thickBot="1">
       <c r="E146" s="30" t="s">
-        <v>2549</v>
+        <v>2538</v>
       </c>
       <c r="F146" s="31"/>
       <c r="G146" s="31"/>
@@ -44559,10 +44657,10 @@
         <v>1969</v>
       </c>
       <c r="H147" s="31" t="s">
-        <v>2557</v>
-      </c>
-      <c r="I147" s="352"/>
-      <c r="J147" s="352"/>
+        <v>2546</v>
+      </c>
+      <c r="I147" s="362"/>
+      <c r="J147" s="362"/>
       <c r="K147" s="27"/>
       <c r="L147" s="27"/>
       <c r="M147" s="34"/>
@@ -44576,8 +44674,8 @@
       <c r="H148" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I148" s="353"/>
-      <c r="J148" s="353"/>
+      <c r="I148" s="363"/>
+      <c r="J148" s="363"/>
       <c r="K148" s="27"/>
       <c r="L148" s="27"/>
       <c r="M148" s="34"/>
@@ -44591,8 +44689,8 @@
       <c r="H149" s="27">
         <v>19</v>
       </c>
-      <c r="I149" s="353"/>
-      <c r="J149" s="353"/>
+      <c r="I149" s="363"/>
+      <c r="J149" s="363"/>
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
       <c r="M149" s="34"/>
@@ -44606,8 +44704,8 @@
       <c r="H150" s="36" t="s">
         <v>1769</v>
       </c>
-      <c r="I150" s="353"/>
-      <c r="J150" s="353"/>
+      <c r="I150" s="363"/>
+      <c r="J150" s="363"/>
       <c r="K150" s="27"/>
       <c r="L150" s="27"/>
       <c r="M150" s="34"/>
@@ -44617,8 +44715,8 @@
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
-      <c r="I151" s="353"/>
-      <c r="J151" s="353"/>
+      <c r="I151" s="363"/>
+      <c r="J151" s="363"/>
       <c r="K151" s="27"/>
       <c r="L151" s="27"/>
       <c r="M151" s="34"/>
@@ -44628,8 +44726,8 @@
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
-      <c r="I152" s="353"/>
-      <c r="J152" s="353"/>
+      <c r="I152" s="363"/>
+      <c r="J152" s="363"/>
       <c r="K152" s="27"/>
       <c r="L152" s="27"/>
       <c r="M152" s="34"/>
@@ -44637,23 +44735,23 @@
     <row r="153" spans="2:13">
       <c r="E153" s="33"/>
       <c r="F153" s="27" t="s">
-        <v>2405</v>
+        <v>2394</v>
       </c>
       <c r="G153" s="30" t="s">
         <v>1969</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>2557</v>
-      </c>
-      <c r="I153" s="353"/>
-      <c r="J153" s="353"/>
+        <v>2546</v>
+      </c>
+      <c r="I153" s="363"/>
+      <c r="J153" s="363"/>
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
       <c r="M153" s="34"/>
     </row>
     <row r="154" spans="2:13">
       <c r="B154" t="s">
-        <v>2556</v>
+        <v>2545</v>
       </c>
       <c r="E154" s="33"/>
       <c r="F154" s="27"/>
@@ -44663,8 +44761,8 @@
       <c r="H154" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I154" s="353"/>
-      <c r="J154" s="353"/>
+      <c r="I154" s="363"/>
+      <c r="J154" s="363"/>
       <c r="K154" s="27"/>
       <c r="L154" s="27"/>
       <c r="M154" s="34"/>
@@ -44678,8 +44776,8 @@
       <c r="H155" s="27">
         <v>20</v>
       </c>
-      <c r="I155" s="353"/>
-      <c r="J155" s="353"/>
+      <c r="I155" s="363"/>
+      <c r="J155" s="363"/>
       <c r="K155" s="27"/>
       <c r="L155" s="27"/>
       <c r="M155" s="34"/>
@@ -44691,10 +44789,10 @@
         <v>194</v>
       </c>
       <c r="H156" s="36" t="s">
-        <v>2550</v>
-      </c>
-      <c r="I156" s="353"/>
-      <c r="J156" s="353"/>
+        <v>2539</v>
+      </c>
+      <c r="I156" s="363"/>
+      <c r="J156" s="363"/>
       <c r="K156" s="27"/>
       <c r="L156" s="27"/>
       <c r="M156" s="34"/>
@@ -44704,8 +44802,8 @@
       <c r="F157" s="27"/>
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
-      <c r="I157" s="353"/>
-      <c r="J157" s="353"/>
+      <c r="I157" s="363"/>
+      <c r="J157" s="363"/>
       <c r="K157" s="27"/>
       <c r="L157" s="27"/>
       <c r="M157" s="34"/>
@@ -44713,16 +44811,16 @@
     <row r="158" spans="2:13">
       <c r="E158" s="33"/>
       <c r="F158" s="27" t="s">
-        <v>2404</v>
+        <v>2393</v>
       </c>
       <c r="G158" s="30" t="s">
         <v>1969</v>
       </c>
       <c r="H158" s="31" t="s">
-        <v>2557</v>
-      </c>
-      <c r="I158" s="353"/>
-      <c r="J158" s="353"/>
+        <v>2546</v>
+      </c>
+      <c r="I158" s="363"/>
+      <c r="J158" s="363"/>
       <c r="K158" s="27"/>
       <c r="L158" s="27"/>
       <c r="M158" s="34"/>
@@ -44736,8 +44834,8 @@
       <c r="H159" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I159" s="353"/>
-      <c r="J159" s="353"/>
+      <c r="I159" s="363"/>
+      <c r="J159" s="363"/>
       <c r="K159" s="27"/>
       <c r="L159" s="27"/>
       <c r="M159" s="34"/>
@@ -44751,8 +44849,8 @@
       <c r="H160" s="27">
         <v>18</v>
       </c>
-      <c r="I160" s="353"/>
-      <c r="J160" s="353"/>
+      <c r="I160" s="363"/>
+      <c r="J160" s="363"/>
       <c r="K160" s="27"/>
       <c r="L160" s="27"/>
       <c r="M160" s="34"/>
@@ -44764,10 +44862,10 @@
         <v>194</v>
       </c>
       <c r="H161" s="36" t="s">
-        <v>2551</v>
-      </c>
-      <c r="I161" s="354"/>
-      <c r="J161" s="354"/>
+        <v>2540</v>
+      </c>
+      <c r="I161" s="364"/>
+      <c r="J161" s="364"/>
       <c r="K161" s="27"/>
       <c r="L161" s="27"/>
       <c r="M161" s="34"/>
@@ -44786,10 +44884,10 @@
     <row r="163" spans="5:13">
       <c r="E163" s="33"/>
       <c r="F163" s="27" t="s">
-        <v>2553</v>
+        <v>2542</v>
       </c>
       <c r="G163" s="38" t="s">
-        <v>2552</v>
+        <v>2541</v>
       </c>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
@@ -45726,7 +45824,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="347" t="s">
+      <c r="G269" s="357" t="s">
         <v>2192</v>
       </c>
       <c r="I269" s="56" t="s">
@@ -45747,7 +45845,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="348"/>
+      <c r="G270" s="358"/>
       <c r="I270" s="163" t="s">
         <v>2188</v>
       </c>
@@ -46768,7 +46866,7 @@
     <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>2446</v>
+        <v>2435</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>1859</v>
@@ -46783,7 +46881,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="B31" t="s">
-        <v>2448</v>
+        <v>2437</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="27" t="s">
@@ -46808,7 +46906,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="B32" t="s">
-        <v>2449</v>
+        <v>2438</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="27" t="s">
@@ -46833,7 +46931,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="C33" t="s">
-        <v>2454</v>
+        <v>2443</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="27" t="s">
@@ -46858,7 +46956,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="C34" t="s">
-        <v>2450</v>
+        <v>2439</v>
       </c>
       <c r="D34" t="s">
         <v>366</v>
@@ -46883,7 +46981,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="D35" t="s">
-        <v>2452</v>
+        <v>2441</v>
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="36"/>
@@ -46901,23 +46999,23 @@
     </row>
     <row r="36" spans="1:15">
       <c r="D36" t="s">
-        <v>2453</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>2447</v>
+        <v>2436</v>
       </c>
       <c r="C37" t="s">
         <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>2451</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="B39" t="s">
-        <v>2455</v>
+        <v>2444</v>
       </c>
       <c r="C39" s="40"/>
     </row>
@@ -47683,28 +47781,28 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>2594</v>
+        <v>2583</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" t="s">
-        <v>2596</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2585</v>
-      </c>
-      <c r="E2" s="345" t="s">
-        <v>2593</v>
-      </c>
-      <c r="F2" s="355"/>
-      <c r="G2" s="355"/>
-      <c r="H2" s="355"/>
-      <c r="I2" s="355"/>
-      <c r="J2" s="355"/>
-      <c r="K2" s="355"/>
-      <c r="L2" s="355"/>
-      <c r="M2" s="346"/>
+        <v>2574</v>
+      </c>
+      <c r="E2" s="355" t="s">
+        <v>2582</v>
+      </c>
+      <c r="F2" s="365"/>
+      <c r="G2" s="365"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
+      <c r="K2" s="365"/>
+      <c r="L2" s="365"/>
+      <c r="M2" s="356"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -47729,7 +47827,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" t="s">
-        <v>2586</v>
+        <v>2575</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>402</v>
@@ -47766,7 +47864,7 @@
         <v>1644</v>
       </c>
       <c r="K5" s="115" t="s">
-        <v>2597</v>
+        <v>2586</v>
       </c>
       <c r="L5" s="51"/>
       <c r="M5" s="52"/>
@@ -47787,7 +47885,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="115" t="s">
-        <v>2598</v>
+        <v>2587</v>
       </c>
       <c r="L6" s="51"/>
       <c r="M6" s="52"/>
@@ -47811,10 +47909,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2587</v>
+        <v>2576</v>
       </c>
       <c r="D8" t="s">
-        <v>2595</v>
+        <v>2584</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="51"/>
@@ -47830,7 +47928,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2588</v>
+        <v>2577</v>
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
@@ -47848,10 +47946,10 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" t="s">
-        <v>2589</v>
+        <v>2578</v>
       </c>
       <c r="C10" t="s">
-        <v>2606</v>
+        <v>2595</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="51"/>
@@ -47869,7 +47967,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>2590</v>
+        <v>2579</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="51"/>
@@ -47883,7 +47981,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2591</v>
+        <v>2580</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="51"/>
@@ -47897,13 +47995,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2592</v>
+        <v>2581</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>402</v>
       </c>
       <c r="F13" s="115" t="s">
-        <v>2605</v>
+        <v>2594</v>
       </c>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
@@ -47915,10 +48013,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="E14" s="50" t="s">
-        <v>2603</v>
+        <v>2592</v>
       </c>
       <c r="F14" s="115" t="s">
-        <v>2604</v>
+        <v>2593</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
@@ -47941,7 +48039,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="E16" s="114" t="s">
-        <v>2599</v>
+        <v>2588</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -47954,10 +48052,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>2601</v>
+        <v>2590</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>2600</v>
+        <v>2589</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -47973,7 +48071,7 @@
         <v>430</v>
       </c>
       <c r="B18" t="s">
-        <v>2602</v>
+        <v>2591</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
@@ -47988,19 +48086,19 @@
     <row r="22" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>2585</v>
-      </c>
-      <c r="E23" s="345" t="s">
-        <v>2593</v>
-      </c>
-      <c r="F23" s="355"/>
-      <c r="G23" s="355"/>
-      <c r="H23" s="355"/>
-      <c r="I23" s="355"/>
-      <c r="J23" s="355"/>
-      <c r="K23" s="355"/>
-      <c r="L23" s="355"/>
-      <c r="M23" s="346"/>
+        <v>2574</v>
+      </c>
+      <c r="E23" s="355" t="s">
+        <v>2582</v>
+      </c>
+      <c r="F23" s="365"/>
+      <c r="G23" s="365"/>
+      <c r="H23" s="365"/>
+      <c r="I23" s="365"/>
+      <c r="J23" s="365"/>
+      <c r="K23" s="365"/>
+      <c r="L23" s="365"/>
+      <c r="M23" s="356"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="B24" t="s">
@@ -48025,7 +48123,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="B25" t="s">
-        <v>2586</v>
+        <v>2575</v>
       </c>
       <c r="E25" s="50" t="s">
         <v>402</v>
@@ -48040,7 +48138,7 @@
       <c r="I25" s="169"/>
       <c r="J25" s="170"/>
       <c r="K25" s="51" t="s">
-        <v>2612</v>
+        <v>2601</v>
       </c>
       <c r="L25" s="51"/>
       <c r="M25" s="52"/>
@@ -48064,7 +48162,7 @@
         <v>1464</v>
       </c>
       <c r="K26" s="115" t="s">
-        <v>2613</v>
+        <v>2602</v>
       </c>
       <c r="L26" s="51"/>
       <c r="M26" s="52"/>
@@ -48085,7 +48183,7 @@
         <v>5</v>
       </c>
       <c r="K27" s="115" t="s">
-        <v>2614</v>
+        <v>2603</v>
       </c>
       <c r="L27" s="51"/>
       <c r="M27" s="52"/>
@@ -48106,7 +48204,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>2587</v>
+        <v>2576</v>
       </c>
       <c r="E29" s="50"/>
       <c r="F29" s="51"/>
@@ -48124,7 +48222,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>2589</v>
+        <v>2578</v>
       </c>
       <c r="E30" s="50"/>
       <c r="F30" s="51"/>
@@ -48138,13 +48236,13 @@
       </c>
       <c r="K30" s="51"/>
       <c r="L30" s="51" t="s">
-        <v>2615</v>
+        <v>2604</v>
       </c>
       <c r="M30" s="52"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
       <c r="A31" t="s">
-        <v>2590</v>
+        <v>2579</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31" s="51"/>
@@ -48158,7 +48256,7 @@
       </c>
       <c r="K31" s="51"/>
       <c r="L31" s="51" t="s">
-        <v>2616</v>
+        <v>2605</v>
       </c>
       <c r="M31" s="52"/>
     </row>
@@ -48175,7 +48273,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>2588</v>
+        <v>2577</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -48189,7 +48287,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>2591</v>
+        <v>2580</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="115"/>
@@ -48203,15 +48301,15 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>2610</v>
+        <v>2599</v>
       </c>
       <c r="E35" s="50"/>
       <c r="F35" s="115" t="s">
-        <v>2608</v>
+        <v>2597</v>
       </c>
       <c r="G35" s="51"/>
       <c r="H35" s="115" t="s">
-        <v>2609</v>
+        <v>2598</v>
       </c>
       <c r="I35" s="51"/>
       <c r="J35" s="51"/>
@@ -48232,11 +48330,11 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>2607</v>
+        <v>2596</v>
       </c>
       <c r="E37" s="114"/>
       <c r="F37" t="s">
-        <v>2610</v>
+        <v>2599</v>
       </c>
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
@@ -48247,7 +48345,7 @@
     <row r="38" spans="1:13">
       <c r="E38" s="33"/>
       <c r="F38" s="27" t="s">
-        <v>2611</v>
+        <v>2600</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -48274,19 +48372,19 @@
     <row r="41" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>2585</v>
-      </c>
-      <c r="E42" s="345" t="s">
-        <v>2593</v>
-      </c>
-      <c r="F42" s="355"/>
-      <c r="G42" s="355"/>
-      <c r="H42" s="355"/>
-      <c r="I42" s="355"/>
-      <c r="J42" s="355"/>
-      <c r="K42" s="355"/>
-      <c r="L42" s="355"/>
-      <c r="M42" s="346"/>
+        <v>2574</v>
+      </c>
+      <c r="E42" s="355" t="s">
+        <v>2582</v>
+      </c>
+      <c r="F42" s="365"/>
+      <c r="G42" s="365"/>
+      <c r="H42" s="365"/>
+      <c r="I42" s="365"/>
+      <c r="J42" s="365"/>
+      <c r="K42" s="365"/>
+      <c r="L42" s="365"/>
+      <c r="M42" s="356"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -48311,7 +48409,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="B44" t="s">
-        <v>2586</v>
+        <v>2575</v>
       </c>
       <c r="E44" s="50" t="s">
         <v>402</v>
@@ -48375,7 +48473,7 @@
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1">
       <c r="A47" t="s">
-        <v>2587</v>
+        <v>2576</v>
       </c>
       <c r="E47" s="50"/>
       <c r="F47" s="51"/>
@@ -48389,7 +48487,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>2589</v>
+        <v>2578</v>
       </c>
       <c r="E48" s="50"/>
       <c r="F48" s="51"/>
@@ -48405,7 +48503,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>2590</v>
+        <v>2579</v>
       </c>
       <c r="E49" s="50"/>
       <c r="F49" s="51"/>
@@ -48423,7 +48521,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1">
       <c r="A50" t="s">
-        <v>2588</v>
+        <v>2577</v>
       </c>
       <c r="E50" s="50"/>
       <c r="F50" s="51"/>
@@ -48441,7 +48539,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" thickBot="1">
       <c r="A51" t="s">
-        <v>2591</v>
+        <v>2580</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="51"/>
@@ -48455,7 +48553,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>2610</v>
+        <v>2599</v>
       </c>
       <c r="E52" s="50"/>
       <c r="F52" s="51"/>
@@ -48489,7 +48587,7 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" thickBot="1">
       <c r="A54" t="s">
-        <v>2617</v>
+        <v>2606</v>
       </c>
       <c r="E54" s="50"/>
       <c r="F54" s="115"/>
@@ -48507,7 +48605,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>2623</v>
+        <v>2612</v>
       </c>
       <c r="E55" s="50"/>
       <c r="F55" s="51"/>
@@ -48529,7 +48627,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>2618</v>
+        <v>2607</v>
       </c>
       <c r="C57" t="s">
         <v>1464</v>
@@ -48546,7 +48644,7 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" thickBot="1">
       <c r="A58" t="s">
-        <v>2619</v>
+        <v>2608</v>
       </c>
       <c r="C58" t="s">
         <v>417</v>
@@ -48563,18 +48661,18 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>2620</v>
+        <v>2609</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>2622</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>2621</v>
+        <v>2610</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -48583,22 +48681,22 @@
     <row r="63" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="64" spans="1:15" ht="23.25">
       <c r="A64" s="311" t="s">
-        <v>2624</v>
+        <v>2613</v>
       </c>
       <c r="B64" s="311"/>
       <c r="C64" s="311"/>
       <c r="D64" s="311"/>
-      <c r="G64" s="345" t="s">
-        <v>2593</v>
-      </c>
-      <c r="H64" s="355"/>
-      <c r="I64" s="355"/>
-      <c r="J64" s="355"/>
-      <c r="K64" s="355"/>
-      <c r="L64" s="355"/>
-      <c r="M64" s="355"/>
-      <c r="N64" s="355"/>
-      <c r="O64" s="346"/>
+      <c r="G64" s="355" t="s">
+        <v>2582</v>
+      </c>
+      <c r="H64" s="365"/>
+      <c r="I64" s="365"/>
+      <c r="J64" s="365"/>
+      <c r="K64" s="365"/>
+      <c r="L64" s="365"/>
+      <c r="M64" s="365"/>
+      <c r="N64" s="365"/>
+      <c r="O64" s="356"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" thickBot="1">
       <c r="B65" t="s">
@@ -48620,7 +48718,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="B66" t="s">
-        <v>2589</v>
+        <v>2578</v>
       </c>
       <c r="G66" s="50" t="s">
         <v>1110</v>
@@ -48641,11 +48739,11 @@
     <row r="67" spans="1:15">
       <c r="A67" s="313"/>
       <c r="B67" s="313" t="s">
-        <v>2625</v>
+        <v>2614</v>
       </c>
       <c r="C67" s="313"/>
       <c r="D67" s="313" t="s">
-        <v>2636</v>
+        <v>2625</v>
       </c>
       <c r="G67" s="50" t="s">
         <v>536</v>
@@ -48692,7 +48790,7 @@
     </row>
     <row r="69" spans="1:15" ht="15.75" thickBot="1">
       <c r="A69" s="313" t="s">
-        <v>2626</v>
+        <v>2615</v>
       </c>
       <c r="B69" s="313"/>
       <c r="C69" s="313"/>
@@ -48734,7 +48832,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="B71" t="s">
-        <v>2617</v>
+        <v>2606</v>
       </c>
       <c r="G71" s="50" t="s">
         <v>403</v>
@@ -48754,7 +48852,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="B72" t="s">
-        <v>2591</v>
+        <v>2580</v>
       </c>
       <c r="G72" s="50" t="s">
         <v>1937</v>
@@ -48776,11 +48874,11 @@
     </row>
     <row r="73" spans="1:15">
       <c r="B73" s="56" t="s">
-        <v>2627</v>
+        <v>2616</v>
       </c>
       <c r="C73" s="56"/>
       <c r="E73" t="s">
-        <v>2636</v>
+        <v>2625</v>
       </c>
       <c r="G73" s="50" t="s">
         <v>405</v>
@@ -48816,7 +48914,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="56" t="s">
-        <v>2628</v>
+        <v>2617</v>
       </c>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -48839,7 +48937,7 @@
       </c>
       <c r="G76" s="50"/>
       <c r="H76" s="115" t="s">
-        <v>2632</v>
+        <v>2621</v>
       </c>
       <c r="I76" s="51"/>
       <c r="J76" s="115"/>
@@ -48851,11 +48949,11 @@
     </row>
     <row r="77" spans="1:15">
       <c r="B77" t="s">
-        <v>2629</v>
+        <v>2618</v>
       </c>
       <c r="G77" s="50"/>
       <c r="H77" s="115" t="s">
-        <v>2633</v>
+        <v>2622</v>
       </c>
       <c r="I77" s="51"/>
       <c r="J77" s="51"/>
@@ -48880,7 +48978,7 @@
     <row r="79" spans="1:15">
       <c r="G79" s="33"/>
       <c r="H79" t="s">
-        <v>2634</v>
+        <v>2623</v>
       </c>
       <c r="I79" s="27"/>
       <c r="J79" s="27"/>
@@ -48892,10 +48990,10 @@
     </row>
     <row r="80" spans="1:15" ht="15.75" thickBot="1">
       <c r="A80" t="s">
+        <v>2619</v>
+      </c>
+      <c r="D80" t="s">
         <v>2630</v>
-      </c>
-      <c r="D80" t="s">
-        <v>2641</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -48903,7 +49001,7 @@
       <c r="F80" s="51"/>
       <c r="G80" s="243"/>
       <c r="H80" s="36" t="s">
-        <v>2635</v>
+        <v>2624</v>
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
@@ -48924,16 +49022,16 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>2642</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="28.5">
       <c r="A82" s="312" t="s">
-        <v>2631</v>
+        <v>2620</v>
       </c>
       <c r="B82" s="312"/>
       <c r="D82" t="s">
-        <v>2643</v>
+        <v>2632</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -48941,7 +49039,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>2637</v>
+        <v>2626</v>
       </c>
       <c r="C83" t="s">
         <v>1644</v>
@@ -48958,7 +49056,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>2638</v>
+        <v>2627</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -49029,7 +49127,7 @@
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" t="s">
-        <v>2640</v>
+        <v>2629</v>
       </c>
       <c r="L89" s="27"/>
       <c r="M89" s="27"/>
@@ -49086,7 +49184,7 @@
       </c>
       <c r="H92" s="33"/>
       <c r="I92" s="27" t="s">
-        <v>2639</v>
+        <v>2628</v>
       </c>
       <c r="J92" s="27"/>
       <c r="K92" s="34"/>
@@ -51543,49 +51641,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="356" t="s">
+      <c r="B2" s="366" t="s">
         <v>2029</v>
       </c>
-      <c r="C2" s="357"/>
-      <c r="D2" s="358"/>
-      <c r="F2" s="356" t="s">
-        <v>2560</v>
-      </c>
-      <c r="G2" s="357"/>
-      <c r="H2" s="357"/>
-      <c r="I2" s="358"/>
-      <c r="K2" s="356" t="s">
-        <v>2562</v>
-      </c>
-      <c r="L2" s="357"/>
-      <c r="M2" s="358"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="368"/>
+      <c r="F2" s="366" t="s">
+        <v>2549</v>
+      </c>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="368"/>
+      <c r="K2" s="366" t="s">
+        <v>2551</v>
+      </c>
+      <c r="L2" s="367"/>
+      <c r="M2" s="368"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="359"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="361"/>
-      <c r="F3" s="359"/>
-      <c r="G3" s="360"/>
-      <c r="H3" s="360"/>
-      <c r="I3" s="361"/>
-      <c r="K3" s="359"/>
-      <c r="L3" s="360"/>
-      <c r="M3" s="361"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="371"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
+      <c r="I3" s="371"/>
+      <c r="K3" s="369"/>
+      <c r="L3" s="370"/>
+      <c r="M3" s="371"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="359"/>
-      <c r="C4" s="360"/>
-      <c r="D4" s="361"/>
-      <c r="F4" s="359"/>
-      <c r="G4" s="360"/>
-      <c r="H4" s="360"/>
-      <c r="I4" s="361"/>
-      <c r="K4" s="359"/>
-      <c r="L4" s="360"/>
-      <c r="M4" s="361"/>
+      <c r="B4" s="369"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="371"/>
+      <c r="F4" s="369"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="371"/>
+      <c r="K4" s="369"/>
+      <c r="L4" s="370"/>
+      <c r="M4" s="371"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="362" t="s">
+      <c r="A5" s="372" t="s">
         <v>1908</v>
       </c>
       <c r="B5" s="80"/>
@@ -51612,7 +51710,7 @@
       <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="362"/>
+      <c r="A6" s="372"/>
       <c r="B6" s="80"/>
       <c r="C6" s="39" t="s">
         <v>58</v>
@@ -51622,25 +51720,25 @@
       </c>
       <c r="F6" s="80"/>
       <c r="G6" s="39" t="s">
-        <v>2531</v>
+        <v>2520</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>2561</v>
+        <v>2550</v>
       </c>
       <c r="I6" s="41"/>
       <c r="K6" s="80" t="s">
-        <v>2531</v>
+        <v>2520</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>2563</v>
+        <v>2552</v>
       </c>
       <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="362"/>
+      <c r="A7" s="372"/>
       <c r="B7" s="80"/>
       <c r="C7" s="39" t="s">
-        <v>2564</v>
+        <v>2553</v>
       </c>
       <c r="D7" s="41">
         <v>750</v>
@@ -51650,7 +51748,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="34"/>
       <c r="K7" s="80" t="s">
-        <v>2573</v>
+        <v>2562</v>
       </c>
       <c r="L7" s="39">
         <v>50000</v>
@@ -51670,61 +51768,61 @@
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="362" t="s">
+      <c r="A9" s="372" t="s">
         <v>203</v>
       </c>
       <c r="B9" s="292" t="s">
-        <v>2559</v>
+        <v>2548</v>
       </c>
       <c r="C9" s="141"/>
       <c r="D9" s="242"/>
       <c r="F9" s="292" t="s">
-        <v>2567</v>
+        <v>2556</v>
       </c>
       <c r="G9" s="141"/>
       <c r="H9" s="141"/>
       <c r="I9" s="242"/>
       <c r="K9" s="292" t="s">
-        <v>2566</v>
+        <v>2555</v>
       </c>
       <c r="L9" s="141"/>
       <c r="M9" s="242"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="362"/>
+      <c r="A10" s="372"/>
       <c r="B10" s="292"/>
       <c r="C10" s="293" t="s">
-        <v>2569</v>
+        <v>2558</v>
       </c>
       <c r="D10" s="242"/>
       <c r="E10" t="s">
-        <v>2571</v>
+        <v>2560</v>
       </c>
       <c r="F10" s="292"/>
       <c r="G10" s="141" t="s">
-        <v>2572</v>
+        <v>2561</v>
       </c>
       <c r="H10" s="242"/>
       <c r="I10" s="242"/>
       <c r="K10" s="292"/>
       <c r="L10" s="141" t="s">
-        <v>2565</v>
+        <v>2554</v>
       </c>
       <c r="M10" s="242"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="362"/>
+      <c r="A11" s="372"/>
       <c r="B11" s="292"/>
       <c r="C11" s="141"/>
       <c r="D11" s="242"/>
       <c r="F11" s="292"/>
       <c r="G11" s="141"/>
       <c r="H11" s="242" t="s">
-        <v>2568</v>
+        <v>2557</v>
       </c>
       <c r="I11" s="242"/>
       <c r="J11" t="s">
-        <v>2570</v>
+        <v>2559</v>
       </c>
       <c r="K11" s="292"/>
       <c r="L11" s="141"/>
@@ -51733,7 +51831,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="362"/>
+      <c r="A12" s="372"/>
       <c r="B12" s="292"/>
       <c r="C12" s="141"/>
       <c r="D12" s="242"/>
@@ -51779,49 +51877,49 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>2574</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>2575</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>2576</v>
+        <v>2565</v>
       </c>
       <c r="F18" t="s">
-        <v>2580</v>
+        <v>2569</v>
       </c>
       <c r="H18" t="s">
-        <v>2581</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="H19" t="s">
-        <v>2582</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>2577</v>
+        <v>2566</v>
       </c>
       <c r="H20" t="s">
-        <v>2583</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>2578</v>
+        <v>2567</v>
       </c>
       <c r="H21" t="s">
-        <v>2584</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>2579</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1">
@@ -51895,7 +51993,7 @@
   <dimension ref="A1:R411"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:Q20"/>
+      <selection activeCell="I12" sqref="I12:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51913,23 +52011,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="364" t="s">
+      <c r="A1" s="374" t="s">
         <v>2199</v>
       </c>
-      <c r="B1" s="364"/>
-      <c r="C1" s="364"/>
-      <c r="D1" s="364"/>
-      <c r="E1" s="364"/>
-      <c r="F1" s="364"/>
-      <c r="I1" s="364" t="s">
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="I1" s="374" t="s">
         <v>2211</v>
       </c>
-      <c r="J1" s="364"/>
-      <c r="K1" s="364"/>
-      <c r="L1" s="364"/>
-      <c r="M1" s="364"/>
-      <c r="N1" s="364"/>
-      <c r="O1" s="364"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
+      <c r="N1" s="374"/>
+      <c r="O1" s="374"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -52085,28 +52183,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="343" t="s">
+      <c r="A12" s="353" t="s">
         <v>2213</v>
       </c>
-      <c r="B12" s="363"/>
-      <c r="C12" s="363"/>
-      <c r="D12" s="363"/>
-      <c r="E12" s="363"/>
-      <c r="F12" s="363"/>
-      <c r="G12" s="363"/>
-      <c r="H12" s="344"/>
-      <c r="I12" s="343" t="s">
+      <c r="B12" s="373"/>
+      <c r="C12" s="373"/>
+      <c r="D12" s="373"/>
+      <c r="E12" s="373"/>
+      <c r="F12" s="373"/>
+      <c r="G12" s="373"/>
+      <c r="H12" s="354"/>
+      <c r="I12" s="353" t="s">
         <v>2213</v>
       </c>
-      <c r="J12" s="363"/>
-      <c r="K12" s="363"/>
-      <c r="L12" s="363"/>
-      <c r="M12" s="363"/>
-      <c r="N12" s="363"/>
-      <c r="O12" s="363"/>
-      <c r="P12" s="363"/>
-      <c r="Q12" s="363"/>
-      <c r="R12" s="344"/>
+      <c r="J12" s="373"/>
+      <c r="K12" s="373"/>
+      <c r="L12" s="373"/>
+      <c r="M12" s="373"/>
+      <c r="N12" s="373"/>
+      <c r="O12" s="373"/>
+      <c r="P12" s="373"/>
+      <c r="Q12" s="373"/>
+      <c r="R12" s="354"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -52334,14 +52432,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="364" t="s">
+      <c r="A24" s="374" t="s">
         <v>2199</v>
       </c>
-      <c r="B24" s="364"/>
-      <c r="C24" s="364"/>
-      <c r="D24" s="364"/>
-      <c r="E24" s="364"/>
-      <c r="F24" s="364"/>
+      <c r="B24" s="374"/>
+      <c r="C24" s="374"/>
+      <c r="D24" s="374"/>
+      <c r="E24" s="374"/>
+      <c r="F24" s="374"/>
       <c r="H24" s="251" t="s">
         <v>2211</v>
       </c>
@@ -52351,11 +52449,11 @@
       <c r="L24" s="251"/>
       <c r="M24" s="251"/>
       <c r="N24" s="251"/>
-      <c r="P24" s="364" t="s">
+      <c r="P24" s="374" t="s">
         <v>2252</v>
       </c>
-      <c r="Q24" s="364"/>
-      <c r="R24" s="364"/>
+      <c r="Q24" s="374"/>
+      <c r="R24" s="374"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -52595,28 +52693,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="343" t="s">
+      <c r="A35" s="353" t="s">
         <v>2253</v>
       </c>
-      <c r="B35" s="363"/>
-      <c r="C35" s="363"/>
-      <c r="D35" s="363"/>
-      <c r="E35" s="363"/>
-      <c r="F35" s="363"/>
-      <c r="G35" s="363"/>
-      <c r="H35" s="344"/>
-      <c r="I35" s="343" t="s">
+      <c r="B35" s="373"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="373"/>
+      <c r="E35" s="373"/>
+      <c r="F35" s="373"/>
+      <c r="G35" s="373"/>
+      <c r="H35" s="354"/>
+      <c r="I35" s="353" t="s">
         <v>1048</v>
       </c>
-      <c r="J35" s="363"/>
-      <c r="K35" s="363"/>
-      <c r="L35" s="363"/>
-      <c r="M35" s="363"/>
-      <c r="N35" s="363"/>
-      <c r="O35" s="363"/>
-      <c r="P35" s="363"/>
-      <c r="Q35" s="363"/>
-      <c r="R35" s="344"/>
+      <c r="J35" s="373"/>
+      <c r="K35" s="373"/>
+      <c r="L35" s="373"/>
+      <c r="M35" s="373"/>
+      <c r="N35" s="373"/>
+      <c r="O35" s="373"/>
+      <c r="P35" s="373"/>
+      <c r="Q35" s="373"/>
+      <c r="R35" s="354"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5339" uniqueCount="2875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5358" uniqueCount="2891">
   <si>
     <t>USER</t>
   </si>
@@ -7372,9 +7372,6 @@
     <t>buy 3</t>
   </si>
   <si>
-    <t>NOTIFY</t>
-  </si>
-  <si>
     <t>WAIT</t>
   </si>
   <si>
@@ -8912,6 +8909,57 @@
   </si>
   <si>
     <t>programB (1 sec)</t>
+  </si>
+  <si>
+    <t>Producer-Consumer Problem</t>
+  </si>
+  <si>
+    <t>Apple Producer</t>
+  </si>
+  <si>
+    <t>Apple Consumer</t>
+  </si>
+  <si>
+    <t>buy 1</t>
+  </si>
+  <si>
+    <t>Producer cannot indefintely produce - if there is no consumer DEMAND</t>
+  </si>
+  <si>
+    <t>IPOD - music player</t>
+  </si>
+  <si>
+    <t>Consumer cannot indefinetly consume, if there is no SUPPLY</t>
+  </si>
+  <si>
+    <t>buy 2</t>
+  </si>
+  <si>
+    <t>OUT OF STOCK</t>
+  </si>
+  <si>
+    <t>BUY 2</t>
+  </si>
+  <si>
+    <t>WAKES UP</t>
+  </si>
+  <si>
+    <t>NOTIFY customer</t>
+  </si>
+  <si>
+    <t>NOTIFY producer</t>
+  </si>
+  <si>
+    <t>WAKE UP</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>WAIT ( LOCKED OUT )</t>
   </si>
 </sst>
 </file>
@@ -9537,7 +9585,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="383">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10096,12 +10144,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -10318,6 +10364,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10328,12 +10380,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10646,7 +10695,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1">
       <c r="E1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -10667,18 +10716,18 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="348" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="351"/>
-      <c r="J3" s="351"/>
-      <c r="K3" s="351"/>
-      <c r="L3" s="352"/>
+      <c r="I3" s="349"/>
+      <c r="J3" s="349"/>
+      <c r="K3" s="349"/>
+      <c r="L3" s="350"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
       <c r="E5" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -10694,20 +10743,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="353" t="s">
+      <c r="G6" s="351" t="s">
         <v>1437</v>
       </c>
-      <c r="H6" s="354"/>
+      <c r="H6" s="352"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="353" t="s">
+      <c r="J6" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="354"/>
+      <c r="K6" s="352"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="353" t="s">
+      <c r="M6" s="351" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="354"/>
+      <c r="N6" s="352"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="123" t="s">
@@ -10725,20 +10774,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="355" t="s">
+      <c r="G8" s="353" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="356"/>
+      <c r="H8" s="354"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="355" t="s">
+      <c r="J8" s="353" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="356"/>
+      <c r="K8" s="354"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="355" t="s">
+      <c r="M8" s="353" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="356"/>
+      <c r="N8" s="354"/>
       <c r="Q8" s="140"/>
     </row>
     <row r="9" spans="1:18">
@@ -10754,29 +10803,29 @@
       <c r="Q9" s="140"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="346" t="s">
+      <c r="F10" s="344" t="s">
         <v>2108</v>
       </c>
-      <c r="G10" s="347"/>
-      <c r="H10" s="347"/>
-      <c r="I10" s="347"/>
-      <c r="J10" s="347"/>
-      <c r="K10" s="347"/>
-      <c r="L10" s="347"/>
-      <c r="M10" s="347"/>
-      <c r="N10" s="347"/>
+      <c r="G10" s="345"/>
+      <c r="H10" s="345"/>
+      <c r="I10" s="345"/>
+      <c r="J10" s="345"/>
+      <c r="K10" s="345"/>
+      <c r="L10" s="345"/>
+      <c r="M10" s="345"/>
+      <c r="N10" s="345"/>
       <c r="Q10" s="140"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="348"/>
-      <c r="G11" s="349"/>
-      <c r="H11" s="349"/>
-      <c r="I11" s="349"/>
-      <c r="J11" s="349"/>
-      <c r="K11" s="349"/>
-      <c r="L11" s="349"/>
-      <c r="M11" s="349"/>
-      <c r="N11" s="349"/>
+      <c r="F11" s="346"/>
+      <c r="G11" s="347"/>
+      <c r="H11" s="347"/>
+      <c r="I11" s="347"/>
+      <c r="J11" s="347"/>
+      <c r="K11" s="347"/>
+      <c r="L11" s="347"/>
+      <c r="M11" s="347"/>
+      <c r="N11" s="347"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -10818,17 +10867,17 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
       <c r="D14" s="123"/>
-      <c r="F14" s="343" t="s">
-        <v>2445</v>
-      </c>
-      <c r="G14" s="344"/>
-      <c r="H14" s="344"/>
-      <c r="I14" s="344"/>
-      <c r="J14" s="344"/>
-      <c r="K14" s="344"/>
-      <c r="L14" s="344"/>
-      <c r="M14" s="344"/>
-      <c r="N14" s="345"/>
+      <c r="F14" s="341" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G14" s="342"/>
+      <c r="H14" s="342"/>
+      <c r="I14" s="342"/>
+      <c r="J14" s="342"/>
+      <c r="K14" s="342"/>
+      <c r="L14" s="342"/>
+      <c r="M14" s="342"/>
+      <c r="N14" s="343"/>
     </row>
     <row r="15" spans="1:18">
       <c r="F15" s="137"/>
@@ -10863,10 +10912,10 @@
       <c r="M16" s="134"/>
       <c r="N16" s="18"/>
       <c r="P16" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="Q16" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="R16" t="s">
         <v>1048</v>
@@ -10918,10 +10967,10 @@
       </c>
       <c r="N19" s="18"/>
       <c r="P19" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="Q19" s="140" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="R19" t="s">
         <v>15</v>
@@ -10958,7 +11007,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
       <c r="P21" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="Q21" t="s">
         <v>1729</v>
@@ -10972,7 +11021,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
       <c r="J22" s="16" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="17"/>
@@ -10992,7 +11041,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
       <c r="J23" s="16" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="17"/>
@@ -11005,7 +11054,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
       <c r="J24" s="20" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="21"/>
@@ -11014,58 +11063,58 @@
     </row>
     <row r="25" spans="1:18">
       <c r="J25" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="F27" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="G27" t="s">
         <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="I27" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="J27" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="K27" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="F28" s="140" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="G28" t="s">
         <v>2174</v>
       </c>
       <c r="H28" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="I28" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="J28" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="K28" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="G29" s="27" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="G30" s="27"/>
       <c r="K30" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -11131,23 +11180,23 @@
       <c r="D33" s="74"/>
       <c r="E33" s="74"/>
       <c r="F33" s="74"/>
-      <c r="G33" s="290" t="s">
+      <c r="G33" s="288" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H33" s="130" t="s">
         <v>2465</v>
       </c>
-      <c r="H33" s="130" t="s">
+      <c r="I33" s="130" t="s">
         <v>2466</v>
       </c>
-      <c r="I33" s="130" t="s">
+      <c r="J33" s="130" t="s">
         <v>2467</v>
       </c>
-      <c r="J33" s="130" t="s">
+      <c r="K33" s="130" t="s">
         <v>2468</v>
       </c>
-      <c r="K33" s="130" t="s">
+      <c r="L33" s="130" t="s">
         <v>2469</v>
-      </c>
-      <c r="L33" s="130" t="s">
-        <v>2470</v>
       </c>
       <c r="M33" s="130" t="s">
         <v>2094</v>
@@ -11159,42 +11208,42 @@
     </row>
     <row r="34" spans="1:17 16384:16384">
       <c r="E34" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="G34" s="143">
         <v>0</v>
       </c>
-      <c r="H34" s="291">
+      <c r="H34" s="289">
         <v>1</v>
       </c>
-      <c r="I34" s="291">
+      <c r="I34" s="289">
         <v>1</v>
       </c>
-      <c r="J34" s="291">
+      <c r="J34" s="289">
         <v>1</v>
       </c>
-      <c r="K34" s="291">
+      <c r="K34" s="289">
         <v>1</v>
       </c>
-      <c r="L34" s="291">
+      <c r="L34" s="289">
         <v>1</v>
       </c>
-      <c r="M34" s="291">
+      <c r="M34" s="289">
         <v>1</v>
       </c>
-      <c r="N34" s="291">
+      <c r="N34" s="289">
         <v>1</v>
       </c>
-      <c r="P34" s="289" t="s">
-        <v>2501</v>
+      <c r="P34" s="287" t="s">
+        <v>2500</v>
       </c>
     </row>
     <row r="35" spans="1:17 16384:16384">
       <c r="C35" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="G35" s="181" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="H35" s="181"/>
       <c r="I35" s="181"/>
@@ -11209,7 +11258,7 @@
     </row>
     <row r="36" spans="1:17 16384:16384">
       <c r="G36" s="181" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="H36" s="181"/>
       <c r="I36" s="181"/>
@@ -11224,7 +11273,7 @@
     </row>
     <row r="37" spans="1:17 16384:16384">
       <c r="G37" s="181" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="H37" s="181"/>
       <c r="I37" s="181"/>
@@ -11595,30 +11644,30 @@
     </row>
     <row r="68" spans="1:15">
       <c r="C68" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="G68" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="K68" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="O68" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="C69" t="s">
+        <v>2479</v>
+      </c>
+      <c r="G69" t="s">
         <v>2480</v>
       </c>
-      <c r="G69" t="s">
-        <v>2481</v>
-      </c>
       <c r="K69" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="O69" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -11638,7 +11687,7 @@
     <row r="71" spans="1:15">
       <c r="A71" s="177"/>
       <c r="B71" s="27" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="C71" s="76"/>
       <c r="E71" s="177"/>
@@ -11670,25 +11719,25 @@
     <row r="73" spans="1:15">
       <c r="A73" s="177"/>
       <c r="B73" s="27" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="C73" s="76"/>
       <c r="E73" s="177" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="F73" s="27" t="s">
         <v>1451</v>
       </c>
       <c r="G73" s="76"/>
       <c r="I73" s="177" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="J73" s="27" t="s">
         <v>1451</v>
       </c>
       <c r="K73" s="76"/>
       <c r="M73" s="177" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="N73" s="27" t="s">
         <v>1451</v>
@@ -11702,21 +11751,21 @@
       </c>
       <c r="C74" s="76"/>
       <c r="E74" s="177" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="F74" s="39" t="s">
         <v>2108</v>
       </c>
       <c r="G74" s="76"/>
       <c r="I74" s="177" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="J74" s="39" t="s">
         <v>1608</v>
       </c>
       <c r="K74" s="76"/>
       <c r="M74" s="177" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="N74" s="39" t="s">
         <v>1607</v>
@@ -11728,21 +11777,21 @@
       <c r="B75" s="27"/>
       <c r="C75" s="76"/>
       <c r="E75" s="177" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="F75" s="27" t="s">
         <v>2111</v>
       </c>
       <c r="G75" s="76"/>
       <c r="I75" s="177" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="J75" s="27" t="s">
         <v>2143</v>
       </c>
       <c r="K75" s="76"/>
       <c r="M75" s="177" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="N75" s="27" t="s">
         <v>1603</v>
@@ -11752,28 +11801,28 @@
     <row r="76" spans="1:15">
       <c r="A76" s="177"/>
       <c r="B76" s="38" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="C76" s="76"/>
       <c r="E76" s="177" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="F76" s="27" t="s">
         <v>1597</v>
       </c>
       <c r="G76" s="76"/>
       <c r="I76" s="177" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="K76" s="76"/>
       <c r="M76" s="177" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="O76" s="76"/>
     </row>
@@ -11793,23 +11842,23 @@
     </row>
     <row r="79" spans="1:15">
       <c r="E79" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="83" spans="2:17">
       <c r="C83" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="E83" t="s">
         <v>1599</v>
       </c>
       <c r="G83" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="84" spans="2:17">
       <c r="C84" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="86" spans="2:17">
@@ -17963,10 +18012,10 @@
         <v>642</v>
       </c>
       <c r="H32" t="s">
-        <v>2638</v>
-      </c>
-      <c r="I32" s="314" t="s">
-        <v>2644</v>
+        <v>2637</v>
+      </c>
+      <c r="I32" s="312" t="s">
+        <v>2643</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -17974,10 +18023,10 @@
         <v>643</v>
       </c>
       <c r="H33" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -18003,7 +18052,7 @@
         <v>646</v>
       </c>
       <c r="H37" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -18011,7 +18060,7 @@
         <v>647</v>
       </c>
       <c r="H38" s="57" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -18027,7 +18076,7 @@
         <v>649</v>
       </c>
       <c r="H40" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -18705,7 +18754,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="27" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1">
@@ -18728,7 +18777,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="27" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>1645</v>
@@ -18750,7 +18799,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="27" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>1646</v>
@@ -18777,15 +18826,15 @@
       <c r="J5" s="156" t="s">
         <v>1987</v>
       </c>
-      <c r="K5" s="316" t="s">
-        <v>2659</v>
-      </c>
-      <c r="L5" s="317"/>
+      <c r="K5" s="314" t="s">
+        <v>2658</v>
+      </c>
+      <c r="L5" s="315"/>
       <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="B6" s="27" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="38"/>
@@ -18810,7 +18859,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="C8" s="27" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="F8" s="33"/>
       <c r="J8" s="114" t="s">
@@ -18824,16 +18873,16 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="C9" s="27" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="F9" s="33"/>
       <c r="J9" s="156" t="s">
         <v>1987</v>
       </c>
-      <c r="K9" s="316" t="s">
-        <v>2660</v>
-      </c>
-      <c r="L9" s="317"/>
+      <c r="K9" s="314" t="s">
+        <v>2659</v>
+      </c>
+      <c r="L9" s="315"/>
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1">
@@ -18845,7 +18894,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="27" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="F11" s="33"/>
       <c r="I11" s="27" t="s">
@@ -18876,16 +18925,16 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="C13" s="27" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="F13" s="33"/>
       <c r="J13" s="156" t="s">
         <v>1987</v>
       </c>
-      <c r="K13" s="316" t="s">
-        <v>2660</v>
-      </c>
-      <c r="L13" s="317"/>
+      <c r="K13" s="314" t="s">
+        <v>2659</v>
+      </c>
+      <c r="L13" s="315"/>
       <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14">
@@ -18897,7 +18946,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="27" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="F15" s="33"/>
       <c r="N15" s="34"/>
@@ -18925,7 +18974,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1">
       <c r="A19" s="27" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="36"/>
@@ -18939,25 +18988,25 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="27" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="27" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="27" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>2648</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>2649</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="D27" s="27" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="119" spans="6:12">
@@ -19309,7 +19358,7 @@
       <c r="H224" s="38"/>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="315"/>
+      <c r="A229" s="313"/>
       <c r="B229" s="39"/>
       <c r="C229" s="39"/>
     </row>
@@ -19370,13 +19419,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="D5" s="33" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="34"/>
       <c r="K5" s="195" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="L5" s="167"/>
       <c r="M5" s="167"/>
@@ -19385,20 +19434,20 @@
     <row r="6" spans="1:14">
       <c r="D6" s="33"/>
       <c r="E6" s="27" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="34"/>
       <c r="K6" s="195"/>
       <c r="L6" s="167" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="M6" s="167"/>
       <c r="N6" s="196"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="27"/>
@@ -19411,7 +19460,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="27"/>
@@ -19434,17 +19483,17 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="H12" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>713</v>
@@ -19463,10 +19512,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="D15" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>933</v>
@@ -19478,7 +19527,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="D16" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="27"/>
@@ -19486,15 +19535,15 @@
       <c r="J16" s="27"/>
       <c r="K16" s="34"/>
       <c r="N16" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D17" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="27"/>
@@ -19530,7 +19579,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D26" t="s">
         <v>1989</v>
@@ -19587,12 +19636,12 @@
     </row>
     <row r="7" spans="2:18">
       <c r="Q7" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1">
       <c r="Q8" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -19604,13 +19653,13 @@
         <v>2317</v>
       </c>
       <c r="H9" s="32"/>
-      <c r="K9" s="319"/>
-      <c r="L9" s="320" t="s">
+      <c r="K9" s="317"/>
+      <c r="L9" s="318" t="s">
         <v>2317</v>
       </c>
-      <c r="M9" s="321"/>
+      <c r="M9" s="319"/>
       <c r="P9" s="81"/>
-      <c r="Q9" s="318" t="s">
+      <c r="Q9" s="316" t="s">
         <v>2317</v>
       </c>
       <c r="R9" s="83"/>
@@ -22846,10 +22895,10 @@
         <v>1</v>
       </c>
       <c r="L212" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="M212" s="161" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="N212" s="74"/>
     </row>
@@ -22865,10 +22914,10 @@
         <v>1</v>
       </c>
       <c r="L213" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="M213" s="161" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="N213" s="74"/>
     </row>
@@ -22884,7 +22933,7 @@
         <v>0</v>
       </c>
       <c r="L214" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="M214">
         <f>2</f>
@@ -23925,16 +23974,16 @@
         <v>986</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="C2" s="96"/>
       <c r="E2" s="57" t="s">
-        <v>2685</v>
-      </c>
-      <c r="G2" s="322" t="s">
+        <v>2684</v>
+      </c>
+      <c r="G2" s="320" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="323" t="s">
+      <c r="H2" s="321" t="s">
         <v>1282</v>
       </c>
       <c r="I2" s="48"/>
@@ -23949,17 +23998,17 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="96" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="B3" s="96" t="s">
         <v>460</v>
       </c>
       <c r="C3" s="96"/>
       <c r="E3" s="57" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="H3" s="74" t="s">
         <v>413</v>
@@ -23969,10 +24018,10 @@
         <v>413</v>
       </c>
       <c r="K3" s="99"/>
-      <c r="L3" s="325"/>
+      <c r="L3" s="323"/>
       <c r="M3" s="100"/>
-      <c r="N3" s="375" t="s">
-        <v>2698</v>
+      <c r="N3" s="373" t="s">
+        <v>2697</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
@@ -23980,31 +24029,31 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="96" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="B4" s="96" t="s">
         <v>2340</v>
       </c>
       <c r="C4" s="96"/>
       <c r="E4" s="57" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="H4" s="74" t="s">
         <v>1650</v>
       </c>
       <c r="I4" s="74"/>
       <c r="J4" s="74"/>
-      <c r="K4" s="326" t="s">
+      <c r="K4" s="324" t="s">
         <v>58</v>
       </c>
       <c r="L4" s="74" t="s">
         <v>1008</v>
       </c>
       <c r="M4" s="216"/>
-      <c r="N4" s="375"/>
+      <c r="N4" s="373"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -24014,14 +24063,14 @@
       <c r="H5" s="74"/>
       <c r="I5" s="74"/>
       <c r="J5" s="74"/>
-      <c r="K5" s="327" t="s">
-        <v>2679</v>
-      </c>
-      <c r="L5" s="328">
+      <c r="K5" s="325" t="s">
+        <v>2678</v>
+      </c>
+      <c r="L5" s="326">
         <v>12345</v>
       </c>
-      <c r="M5" s="329"/>
-      <c r="N5" s="375"/>
+      <c r="M5" s="327"/>
+      <c r="N5" s="373"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -24039,7 +24088,7 @@
       <c r="K6" s="74"/>
       <c r="L6" s="74"/>
       <c r="M6" s="74"/>
-      <c r="N6" s="375"/>
+      <c r="N6" s="373"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -24051,7 +24100,7 @@
         <v>1322</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="H7" s="74" t="s">
         <v>2088</v>
@@ -24061,9 +24110,9 @@
         <v>1650</v>
       </c>
       <c r="K7" s="99"/>
-      <c r="L7" s="325"/>
+      <c r="L7" s="323"/>
       <c r="M7" s="100"/>
-      <c r="N7" s="375"/>
+      <c r="N7" s="373"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -24078,14 +24127,14 @@
       <c r="H8" s="74"/>
       <c r="I8" s="74"/>
       <c r="J8" s="74"/>
-      <c r="K8" s="326" t="s">
+      <c r="K8" s="324" t="s">
         <v>58</v>
       </c>
       <c r="L8" s="74" t="s">
         <v>524</v>
       </c>
       <c r="M8" s="216"/>
-      <c r="N8" s="375"/>
+      <c r="N8" s="373"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -24100,14 +24149,14 @@
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
       <c r="J9" s="74"/>
-      <c r="K9" s="327" t="s">
-        <v>2679</v>
-      </c>
-      <c r="L9" s="328">
+      <c r="K9" s="325" t="s">
+        <v>2678</v>
+      </c>
+      <c r="L9" s="326">
         <v>12346</v>
       </c>
-      <c r="M9" s="329"/>
-      <c r="N9" s="375"/>
+      <c r="M9" s="327"/>
+      <c r="N9" s="373"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -24125,7 +24174,7 @@
       <c r="K10" s="74"/>
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
-      <c r="N10" s="375"/>
+      <c r="N10" s="373"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
@@ -24138,12 +24187,12 @@
       <c r="H11" s="74"/>
       <c r="I11" s="74"/>
       <c r="J11" s="74" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
       <c r="M11" s="74"/>
-      <c r="N11" s="375"/>
+      <c r="N11" s="373"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
@@ -24159,7 +24208,7 @@
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
       <c r="M12" s="74"/>
-      <c r="N12" s="375"/>
+      <c r="N12" s="373"/>
       <c r="O12" s="51"/>
       <c r="P12" s="51"/>
       <c r="Q12" s="52"/>
@@ -24172,17 +24221,17 @@
       <c r="K13" s="51"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
-      <c r="N13" s="375"/>
+      <c r="N13" s="373"/>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
       <c r="Q13" s="52"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="96" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="51"/>
@@ -24191,52 +24240,52 @@
         <v>2088</v>
       </c>
       <c r="K14" s="99"/>
-      <c r="L14" s="325"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="100"/>
-      <c r="N14" s="375"/>
+      <c r="N14" s="373"/>
       <c r="O14" s="51"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="52"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="96" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="C15" s="96" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
       <c r="J15" s="74"/>
-      <c r="K15" s="326" t="s">
+      <c r="K15" s="324" t="s">
         <v>58</v>
       </c>
       <c r="L15" s="74" t="s">
         <v>559</v>
       </c>
       <c r="M15" s="216"/>
-      <c r="N15" s="375"/>
+      <c r="N15" s="373"/>
       <c r="O15" s="51"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
       <c r="A16" s="96" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="G16" s="50"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
       <c r="J16" s="74"/>
-      <c r="K16" s="327" t="s">
-        <v>2679</v>
-      </c>
-      <c r="L16" s="328">
+      <c r="K16" s="325" t="s">
+        <v>2678</v>
+      </c>
+      <c r="L16" s="326">
         <v>123123</v>
       </c>
-      <c r="M16" s="329"/>
-      <c r="N16" s="375"/>
+      <c r="M16" s="327"/>
+      <c r="N16" s="373"/>
       <c r="O16" s="51"/>
       <c r="P16" s="51"/>
       <c r="Q16" s="52"/>
@@ -24256,7 +24305,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="96" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="D18" s="57" t="s">
         <v>1008</v>
@@ -24275,7 +24324,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="96" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>524</v>
@@ -24294,10 +24343,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="96" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="51"/>
@@ -24313,10 +24362,10 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1">
       <c r="A21" s="96" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D21" s="57" t="s">
         <v>2696</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>2697</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="54"/>
@@ -24332,32 +24381,32 @@
     </row>
     <row r="23" spans="1:17">
       <c r="C23" s="57" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="C24" s="57" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="57" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="C27" s="57" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1">
       <c r="C28" s="57" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1">
       <c r="A29" s="57" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="48"/>
@@ -24370,7 +24419,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="96" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -24391,7 +24440,7 @@
     <row r="31" spans="1:17">
       <c r="A31" s="96"/>
       <c r="B31" s="96" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="C31" s="96"/>
       <c r="D31" s="96"/>
@@ -24408,7 +24457,7 @@
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D32" s="96"/>
       <c r="G32" s="50"/>
@@ -24439,7 +24488,7 @@
     <row r="34" spans="1:14" ht="15.75" thickBot="1">
       <c r="A34" s="96"/>
       <c r="B34" s="96" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
@@ -24456,7 +24505,7 @@
       <c r="A35" s="96"/>
       <c r="B35" s="96"/>
       <c r="C35" s="96" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D35" s="96"/>
       <c r="G35" s="50"/>
@@ -24499,7 +24548,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="96" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B38" s="96"/>
       <c r="C38" s="96"/>
@@ -24547,7 +24596,7 @@
       <c r="A41" s="96"/>
       <c r="B41" s="96"/>
       <c r="C41" s="96" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D41" s="96"/>
       <c r="G41" s="50"/>
@@ -24577,7 +24626,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="96" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B43" s="96"/>
       <c r="C43" s="96"/>
@@ -24625,7 +24674,7 @@
       <c r="A46" s="96"/>
       <c r="B46" s="96"/>
       <c r="C46" s="96" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D46" s="96"/>
       <c r="G46" s="50"/>
@@ -27804,7 +27853,7 @@
     <row r="318" spans="2:12">
       <c r="B318" s="47"/>
       <c r="C318" s="48" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="D318" s="48"/>
       <c r="E318" s="48"/>
@@ -27812,7 +27861,7 @@
       <c r="G318" s="48"/>
       <c r="H318" s="48"/>
       <c r="I318" s="48" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="J318" s="48"/>
       <c r="K318" s="48"/>
@@ -27966,11 +28015,11 @@
       <c r="C330" s="51"/>
       <c r="D330" s="51"/>
       <c r="E330" s="51" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="F330" s="51"/>
       <c r="G330" s="51" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="H330" s="51"/>
       <c r="I330" s="51"/>
@@ -27998,7 +28047,7 @@
       <c r="E332" s="54"/>
       <c r="F332" s="54"/>
       <c r="G332" s="54" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="H332" s="54"/>
       <c r="I332" s="54"/>
@@ -28008,7 +28057,7 @@
     </row>
     <row r="333" spans="2:12">
       <c r="G333" s="57" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
   </sheetData>
@@ -28037,7 +28086,7 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
@@ -28061,7 +28110,7 @@
       <c r="J3" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="K3" s="324">
+      <c r="K3" s="322">
         <v>0</v>
       </c>
       <c r="L3" s="27" t="s">
@@ -28071,14 +28120,14 @@
     </row>
     <row r="4" spans="1:13">
       <c r="G4" s="33" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>413</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
-      <c r="K4" s="324">
+      <c r="K4" s="322">
         <v>1</v>
       </c>
       <c r="L4" s="27" t="s">
@@ -28088,13 +28137,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="38"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
-      <c r="K5" s="324">
+      <c r="K5" s="322">
         <v>2</v>
       </c>
       <c r="L5" s="27" t="s">
@@ -28104,13 +28153,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="324">
+      <c r="K6" s="322">
         <v>3</v>
       </c>
       <c r="L6" s="27" t="s">
@@ -28120,13 +28169,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="51"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
-      <c r="K7" s="324">
+      <c r="K7" s="322">
         <v>4</v>
       </c>
       <c r="L7" s="38" t="s">
@@ -28136,7 +28185,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="51"/>
@@ -28148,7 +28197,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="51"/>
@@ -28169,10 +28218,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D11" t="s">
         <v>2723</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2724</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="51"/>
@@ -28206,10 +28255,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="D13" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="27"/>
@@ -28225,17 +28274,17 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D14" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="35" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="L14" s="37" t="s">
         <v>417</v>
@@ -28244,10 +28293,10 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D15" s="56" t="s">
         <v>2729</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>2730</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="27"/>
@@ -28274,7 +28323,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="27"/>
@@ -28307,7 +28356,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="35" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="L19" s="37" t="s">
         <v>417</v>
@@ -28317,17 +28366,17 @@
     <row r="23" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="M24" s="32"/>
     </row>
@@ -28345,7 +28394,7 @@
       <c r="J25" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="K25" s="324">
+      <c r="K25" s="322">
         <v>0</v>
       </c>
       <c r="L25" s="27" t="s">
@@ -28355,14 +28404,14 @@
     </row>
     <row r="26" spans="1:13">
       <c r="G26" s="33" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="H26" s="27" t="s">
         <v>413</v>
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
-      <c r="K26" s="324">
+      <c r="K26" s="322">
         <v>1</v>
       </c>
       <c r="L26" s="27" t="s">
@@ -28372,13 +28421,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="38"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
-      <c r="K27" s="324">
+      <c r="K27" s="322">
         <v>2</v>
       </c>
       <c r="L27" s="27" t="s">
@@ -28388,13 +28437,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="B28" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
-      <c r="K28" s="324">
+      <c r="K28" s="322">
         <v>3</v>
       </c>
       <c r="L28" s="27" t="s">
@@ -28407,7 +28456,7 @@
       <c r="H29" s="51"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
-      <c r="K29" s="324">
+      <c r="K29" s="322">
         <v>4</v>
       </c>
       <c r="L29" s="38" t="s">
@@ -28420,7 +28469,7 @@
         <v>1018</v>
       </c>
       <c r="B30" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="51"/>
@@ -28484,7 +28533,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="B35" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="D35" t="s">
         <v>683</v>
@@ -28510,7 +28559,7 @@
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="35" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="L36" s="37" t="s">
         <v>417</v>
@@ -28529,7 +28578,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="B38" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="27"/>
@@ -28577,7 +28626,7 @@
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="35" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="L41" s="37" t="s">
         <v>417</v>
@@ -28640,14 +28689,14 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="38" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="81"/>
       <c r="F46" s="82"/>
-      <c r="G46" s="325"/>
+      <c r="G46" s="323"/>
       <c r="H46" s="82"/>
       <c r="I46" s="82"/>
       <c r="J46" s="82"/>
@@ -28682,13 +28731,13 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="38" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="84" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="F48" s="38" t="s">
         <v>413</v>
@@ -28706,7 +28755,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="38" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
@@ -29002,7 +29051,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75" thickBot="1">
       <c r="A64" s="38" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -29023,7 +29072,7 @@
     <row r="65" spans="1:16">
       <c r="A65" s="38"/>
       <c r="B65" s="38" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="D65" s="74"/>
       <c r="E65" s="38"/>
@@ -29053,11 +29102,11 @@
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
       <c r="D66" s="74" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="E66" s="38"/>
       <c r="G66" s="84" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>413</v>
@@ -29079,7 +29128,7 @@
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="D67" s="74"/>
       <c r="G67" s="84"/>
@@ -29141,7 +29190,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="38" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C70" s="74"/>
       <c r="D70" s="38"/>
@@ -29154,11 +29203,11 @@
         <v>2088</v>
       </c>
       <c r="I70" s="129" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="J70" s="38"/>
       <c r="K70" s="38" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="L70" s="81" t="s">
         <v>58</v>
@@ -29172,7 +29221,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="38" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
@@ -29198,7 +29247,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1">
       <c r="A72" s="38" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
@@ -29227,7 +29276,7 @@
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
       <c r="D73" s="74" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="E73" s="38"/>
       <c r="G73" s="84"/>
@@ -29246,7 +29295,7 @@
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
       <c r="D74" s="74" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="E74" s="38"/>
       <c r="G74" s="84"/>
@@ -29265,7 +29314,7 @@
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
       <c r="D75" s="74" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
@@ -29289,22 +29338,22 @@
       <c r="F76" s="38"/>
       <c r="G76" s="84"/>
       <c r="H76" s="38" t="s">
+        <v>2756</v>
+      </c>
+      <c r="I76" s="38" t="s">
         <v>2757</v>
       </c>
-      <c r="I76" s="38" t="s">
+      <c r="J76" s="38" t="s">
         <v>2758</v>
       </c>
-      <c r="J76" s="38" t="s">
+      <c r="K76" s="38" t="s">
         <v>2759</v>
       </c>
-      <c r="K76" s="38" t="s">
+      <c r="L76" s="38" t="s">
         <v>2760</v>
       </c>
-      <c r="L76" s="38" t="s">
+      <c r="M76" s="38" t="s">
         <v>2761</v>
-      </c>
-      <c r="M76" s="38" t="s">
-        <v>2762</v>
       </c>
       <c r="N76" s="38"/>
       <c r="O76" s="38"/>
@@ -29315,7 +29364,7 @@
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
       <c r="D77" s="74" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
@@ -29352,7 +29401,7 @@
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -29391,7 +29440,7 @@
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
       <c r="D81" s="38" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
@@ -29428,7 +29477,7 @@
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D83" s="38"/>
       <c r="E83" s="38"/>
@@ -29449,7 +29498,7 @@
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
       <c r="D84" s="38" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
@@ -29507,12 +29556,12 @@
       <c r="D87" s="38"/>
       <c r="E87" s="38"/>
       <c r="F87" s="39" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
       <c r="I87" s="141" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
@@ -29524,7 +29573,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="39" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
@@ -29539,7 +29588,7 @@
       <c r="H88" s="38">
         <v>0</v>
       </c>
-      <c r="I88" s="332">
+      <c r="I88" s="330">
         <v>33</v>
       </c>
       <c r="J88" s="38"/>
@@ -29552,14 +29601,14 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="141" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="B89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38">
         <v>1</v>
       </c>
-      <c r="F89" s="332">
+      <c r="F89" s="330">
         <v>33</v>
       </c>
       <c r="G89" s="38"/>
@@ -29579,7 +29628,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="38" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B90" s="38"/>
       <c r="D90" s="38"/>
@@ -29620,7 +29669,7 @@
         <v>18</v>
       </c>
       <c r="J91" s="38" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="K91" s="38"/>
       <c r="L91" s="38"/>
@@ -29656,7 +29705,7 @@
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
       <c r="D93" s="38" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
@@ -29676,7 +29725,7 @@
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
       <c r="D94" s="38" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
@@ -31358,7 +31407,7 @@
       <c r="H187" s="38"/>
       <c r="I187" s="38"/>
       <c r="J187" s="74"/>
-      <c r="K187" s="330"/>
+      <c r="K187" s="328"/>
       <c r="L187" s="74"/>
       <c r="M187" s="74"/>
       <c r="N187" s="74"/>
@@ -31378,7 +31427,7 @@
       <c r="J188" s="74"/>
       <c r="K188" s="74"/>
       <c r="L188" s="74"/>
-      <c r="M188" s="330"/>
+      <c r="M188" s="328"/>
       <c r="N188" s="74"/>
       <c r="O188" s="74"/>
       <c r="P188" s="38"/>
@@ -32057,8 +32106,8 @@
       <c r="E226" s="38"/>
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
-      <c r="H226" s="331"/>
-      <c r="I226" s="331"/>
+      <c r="H226" s="329"/>
+      <c r="I226" s="329"/>
       <c r="J226" s="38"/>
       <c r="K226" s="38"/>
       <c r="L226" s="38"/>
@@ -33157,31 +33206,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="E1" s="38" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="38" t="s">
-        <v>2789</v>
-      </c>
-      <c r="E2" s="335" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E2" s="333" t="s">
         <v>1458</v>
       </c>
-      <c r="F2" s="336" t="s">
+      <c r="F2" s="334" t="s">
         <v>1902</v>
       </c>
       <c r="G2" s="82"/>
       <c r="H2" s="82"/>
       <c r="I2" s="82"/>
       <c r="J2" s="81" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="K2" s="82"/>
       <c r="L2" s="83"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="B3" s="38" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="E3" s="84" t="s">
         <v>1868</v>
@@ -33190,12 +33239,12 @@
         <v>100.34</v>
       </c>
       <c r="J3" s="84"/>
-      <c r="K3" s="298"/>
+      <c r="K3" s="296"/>
       <c r="L3" s="75"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="B4" s="38" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="E4" s="84" t="s">
         <v>466</v>
@@ -33206,7 +33255,7 @@
       <c r="J4" s="84" t="s">
         <v>2088</v>
       </c>
-      <c r="K4" s="281" t="s">
+      <c r="K4" s="280" t="s">
         <v>412</v>
       </c>
       <c r="L4" s="75"/>
@@ -33222,7 +33271,7 @@
         <v>2090</v>
       </c>
       <c r="J5" s="84"/>
-      <c r="L5" s="334"/>
+      <c r="L5" s="332"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="E6" s="84" t="s">
@@ -33236,10 +33285,10 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="38" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="E7" s="84" t="s">
         <v>1767</v>
@@ -33250,21 +33299,21 @@
       <c r="J7" s="84" t="s">
         <v>2089</v>
       </c>
-      <c r="K7" s="281" t="s">
+      <c r="K7" s="280" t="s">
         <v>524</v>
       </c>
       <c r="L7" s="75"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="38" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>1897</v>
       </c>
       <c r="E8" s="84"/>
       <c r="J8" s="84"/>
-      <c r="L8" s="334"/>
+      <c r="L8" s="332"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="38" t="s">
@@ -33277,14 +33326,14 @@
       <c r="J9" s="84" t="s">
         <v>2090</v>
       </c>
-      <c r="K9" s="281" t="s">
+      <c r="K9" s="280" t="s">
         <v>559</v>
       </c>
       <c r="L9" s="75"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="38" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="E10" s="84"/>
       <c r="J10" s="84"/>
@@ -33292,16 +33341,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="38" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="E11" s="84"/>
       <c r="F11" s="74" t="s">
         <v>413</v>
       </c>
-      <c r="G11" s="337" t="s">
+      <c r="G11" s="335" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="338">
+      <c r="H11" s="336">
         <v>7</v>
       </c>
       <c r="J11" s="84"/>
@@ -33310,10 +33359,10 @@
     <row r="12" spans="1:12">
       <c r="E12" s="84"/>
       <c r="F12" s="74"/>
-      <c r="G12" s="339" t="s">
+      <c r="G12" s="337" t="s">
         <v>190</v>
       </c>
-      <c r="H12" s="340">
+      <c r="H12" s="338">
         <v>1</v>
       </c>
       <c r="J12" s="84"/>
@@ -33321,10 +33370,10 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="38" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>2799</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>2800</v>
       </c>
       <c r="E13" s="84"/>
       <c r="F13" s="74"/>
@@ -33335,7 +33384,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="38" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>1648</v>
@@ -33357,15 +33406,15 @@
     </row>
     <row r="16" spans="1:12">
       <c r="J16" s="38" t="s">
+        <v>2794</v>
+      </c>
+      <c r="L16" s="38" t="s">
         <v>2795</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>2796</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="38" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1">
@@ -33377,7 +33426,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="38" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="E19" s="81" t="s">
         <v>204</v>
@@ -33397,7 +33446,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" s="38" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="E20" s="84" t="s">
         <v>1645</v>
@@ -33410,7 +33459,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="38" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="E21" s="84" t="s">
         <v>1646</v>
@@ -33422,29 +33471,29 @@
       <c r="K21" s="38" t="s">
         <v>1632</v>
       </c>
-      <c r="L21" s="281" t="s">
+      <c r="L21" s="280" t="s">
         <v>1644</v>
       </c>
       <c r="M21" s="75"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="38" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>2810</v>
-      </c>
-      <c r="H22" s="298"/>
+        <v>2809</v>
+      </c>
+      <c r="H22" s="296"/>
       <c r="J22" s="84"/>
       <c r="M22" s="75"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="38" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="C23" s="74"/>
       <c r="E23" s="84" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>1632</v>
@@ -33456,10 +33505,10 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1">
       <c r="A24" s="38" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>2004</v>
@@ -33471,11 +33520,11 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1">
       <c r="A25" s="38" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C25" s="74"/>
       <c r="E25" s="84" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="H25" s="231"/>
       <c r="I25" s="231"/>
@@ -33483,7 +33532,7 @@
       <c r="K25" s="38" t="s">
         <v>2004</v>
       </c>
-      <c r="L25" s="281" t="s">
+      <c r="L25" s="280" t="s">
         <v>2003</v>
       </c>
       <c r="M25" s="75"/>
@@ -33491,7 +33540,7 @@
     <row r="26" spans="1:15">
       <c r="C26" s="74"/>
       <c r="E26" s="84" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>2004</v>
@@ -33503,7 +33552,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1">
       <c r="A27" s="38" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="C27" s="74"/>
       <c r="E27" s="84"/>
@@ -33521,7 +33570,7 @@
       <c r="K28" s="38" t="s">
         <v>2005</v>
       </c>
-      <c r="L28" s="281" t="s">
+      <c r="L28" s="280" t="s">
         <v>1432</v>
       </c>
       <c r="M28" s="75"/>
@@ -33536,7 +33585,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="38" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="C30" s="74"/>
       <c r="E30" s="84"/>
@@ -33547,7 +33596,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="38" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="C31" s="74"/>
       <c r="E31" s="84"/>
@@ -33558,14 +33607,14 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1">
       <c r="A32" s="38" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="C32" s="74"/>
       <c r="E32" s="85"/>
       <c r="F32" s="86"/>
       <c r="G32" s="86"/>
-      <c r="H32" s="341"/>
-      <c r="I32" s="341"/>
+      <c r="H32" s="339"/>
+      <c r="I32" s="339"/>
       <c r="J32" s="85"/>
       <c r="K32" s="86"/>
       <c r="L32" s="86"/>
@@ -33576,7 +33625,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="38" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="E34" s="81" t="s">
         <v>204</v>
@@ -33596,12 +33645,12 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="A35" s="38" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="E35" s="84" t="s">
         <v>402</v>
       </c>
-      <c r="F35" s="298" t="s">
+      <c r="F35" s="296" t="s">
         <v>1632</v>
       </c>
       <c r="J35" s="84"/>
@@ -33609,7 +33658,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1">
       <c r="A36" s="38" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="E36" s="84" t="s">
         <v>403</v>
@@ -33621,25 +33670,25 @@
       <c r="K36" s="38" t="s">
         <v>1632</v>
       </c>
-      <c r="L36" s="281" t="s">
+      <c r="L36" s="280" t="s">
         <v>412</v>
       </c>
       <c r="M36" s="75"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="38" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="E37" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="F37" s="298" t="s">
+      <c r="F37" s="296" t="s">
         <v>2351</v>
       </c>
       <c r="J37" s="84"/>
       <c r="K37" s="168"/>
       <c r="L37" s="168"/>
-      <c r="M37" s="334"/>
+      <c r="M37" s="332"/>
       <c r="N37" s="168"/>
       <c r="O37" s="168"/>
     </row>
@@ -33677,15 +33726,15 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" thickBot="1">
       <c r="A41" s="38" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="E41" s="342" t="s">
+      <c r="E41" s="340" t="s">
         <v>2351</v>
       </c>
-      <c r="F41" s="281" t="s">
+      <c r="F41" s="280" t="s">
         <v>412</v>
       </c>
       <c r="J41" s="84"/>
@@ -33693,7 +33742,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" thickBot="1">
       <c r="A42" s="38" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>412</v>
@@ -33704,12 +33753,12 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" thickBot="1">
       <c r="B43" s="38" t="s">
-        <v>2827</v>
-      </c>
-      <c r="E43" s="342" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E43" s="340" t="s">
         <v>2352</v>
       </c>
-      <c r="F43" s="281" t="s">
+      <c r="F43" s="280" t="s">
         <v>412</v>
       </c>
       <c r="J43" s="84"/>
@@ -33717,7 +33766,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="38" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="C44" s="38" t="b">
         <v>1</v>
@@ -33728,7 +33777,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" thickBot="1">
       <c r="B45" s="38" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="E45" s="85"/>
       <c r="F45" s="86"/>
@@ -33747,7 +33796,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" thickBot="1">
       <c r="B47" s="38" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -33769,10 +33818,10 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="38" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="E49" s="84" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="F49" s="38" t="s">
         <v>2090</v>
@@ -33782,16 +33831,16 @@
         <v>1632</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="M49" s="75"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="38" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="E50" s="84"/>
       <c r="J50" s="84"/>
@@ -33799,16 +33848,16 @@
         <v>2004</v>
       </c>
       <c r="L50" s="38" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="M50" s="75"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="38" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="E51" s="84"/>
       <c r="J51" s="84"/>
@@ -33816,13 +33865,13 @@
         <v>2005</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="M51" s="75"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="38" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="E52" s="84"/>
       <c r="J52" s="84"/>
@@ -33830,26 +33879,26 @@
         <v>2006</v>
       </c>
       <c r="L52" s="38" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="M52" s="75"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="38" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E53" s="84" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="J53" s="84"/>
       <c r="K53" s="38" t="s">
         <v>2090</v>
       </c>
       <c r="L53" s="38" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="M53" s="75"/>
     </row>
@@ -33860,7 +33909,7 @@
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
       <c r="A55" s="38" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="E55" s="84"/>
       <c r="J55" s="84"/>
@@ -33868,20 +33917,20 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
       <c r="A56" s="38" t="s">
-        <v>2842</v>
-      </c>
-      <c r="E56" s="326" t="s">
-        <v>2847</v>
-      </c>
-      <c r="F56" s="281" t="s">
-        <v>2838</v>
+        <v>2841</v>
+      </c>
+      <c r="E56" s="324" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F56" s="280" t="s">
+        <v>2837</v>
       </c>
       <c r="J56" s="84"/>
       <c r="M56" s="75"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="38" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="E57" s="84"/>
       <c r="J57" s="84"/>
@@ -33889,7 +33938,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="38" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="E58" s="84"/>
       <c r="J58" s="84"/>
@@ -33897,7 +33946,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
       <c r="A59" s="38" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="E59" s="85"/>
       <c r="F59" s="86"/>
@@ -33911,12 +33960,12 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="38" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="38" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>1649</v>
@@ -33929,7 +33978,7 @@
     </row>
     <row r="65" spans="4:8">
       <c r="D65" s="38" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="G65" s="129">
         <v>0</v>
@@ -33943,7 +33992,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="129" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="67" spans="4:8">
@@ -33951,7 +34000,7 @@
         <v>2</v>
       </c>
       <c r="H67" s="129" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="68" spans="4:8">
@@ -33959,7 +34008,7 @@
         <v>3</v>
       </c>
       <c r="H68" s="129" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="82" spans="6:7">
@@ -34137,7 +34186,7 @@
       <c r="N229" s="74"/>
     </row>
     <row r="240" spans="7:14">
-      <c r="I240" s="333"/>
+      <c r="I240" s="331"/>
     </row>
     <row r="246" spans="4:9">
       <c r="D246" s="168"/>
@@ -34172,26 +34221,26 @@
       <c r="G275" s="74"/>
     </row>
     <row r="283" spans="4:7">
-      <c r="D283" s="298"/>
+      <c r="D283" s="296"/>
     </row>
     <row r="284" spans="4:7">
-      <c r="D284" s="298"/>
+      <c r="D284" s="296"/>
     </row>
     <row r="285" spans="4:7">
-      <c r="D285" s="298"/>
+      <c r="D285" s="296"/>
       <c r="G285" s="74"/>
     </row>
     <row r="286" spans="4:7">
       <c r="G286" s="74"/>
     </row>
     <row r="304" spans="4:4">
-      <c r="D304" s="298"/>
+      <c r="D304" s="296"/>
     </row>
     <row r="305" spans="4:7">
-      <c r="D305" s="298"/>
+      <c r="D305" s="296"/>
     </row>
     <row r="306" spans="4:7">
-      <c r="D306" s="298"/>
+      <c r="D306" s="296"/>
       <c r="G306" s="74"/>
     </row>
     <row r="307" spans="4:7">
@@ -34277,7 +34326,7 @@
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
@@ -34310,7 +34359,7 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
@@ -34338,7 +34387,7 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
@@ -34351,7 +34400,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="L16" s="29" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="29"/>
@@ -35520,7 +35569,7 @@
     <row r="203" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="204" spans="1:20">
       <c r="A204" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="F204" s="30" t="s">
         <v>204</v>
@@ -35537,7 +35586,7 @@
         <v>356</v>
       </c>
       <c r="F205" s="33" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="G205" s="27" t="s">
         <v>413</v>
@@ -35551,7 +35600,7 @@
         <v>1547</v>
       </c>
       <c r="F206" s="33" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="G206" s="27" t="s">
         <v>417</v>
@@ -35562,7 +35611,7 @@
     </row>
     <row r="207" spans="1:20">
       <c r="B207" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="27"/>
@@ -35572,7 +35621,7 @@
     </row>
     <row r="208" spans="1:20" ht="15.75" thickBot="1">
       <c r="B208" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="F208" s="33"/>
       <c r="G208" s="27"/>
@@ -35609,7 +35658,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="27"/>
@@ -35623,15 +35672,15 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" thickBot="1">
       <c r="A212" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="27"/>
       <c r="H212" s="27"/>
       <c r="I212" s="156" t="s">
-        <v>2726</v>
-      </c>
-      <c r="J212" s="317" t="s">
+        <v>2725</v>
+      </c>
+      <c r="J212" s="315" t="s">
         <v>417</v>
       </c>
     </row>
@@ -35644,7 +35693,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="D214" t="s">
         <v>412</v>
@@ -35657,10 +35706,10 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D215" t="s">
         <v>2778</v>
-      </c>
-      <c r="D215" t="s">
-        <v>2779</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="27"/>
@@ -35670,7 +35719,7 @@
     </row>
     <row r="216" spans="1:10" ht="15.75" thickBot="1">
       <c r="A216" s="123" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="F216" s="35"/>
       <c r="G216" s="36"/>
@@ -35680,15 +35729,15 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="D217" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B218" t="s">
         <v>575</v>
@@ -35696,7 +35745,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="D219" t="s">
         <v>1834</v>
@@ -36615,14 +36664,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -36633,12 +36682,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="D2" s="381" t="s">
-        <v>2866</v>
-      </c>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
+      <c r="D2" s="375" t="s">
+        <v>2865</v>
+      </c>
+      <c r="E2" s="375"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
     </row>
     <row r="3" spans="2:13">
       <c r="D3" s="43" t="s">
@@ -36656,19 +36705,19 @@
     </row>
     <row r="4" spans="2:13">
       <c r="C4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>2873</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>2867</v>
       </c>
-      <c r="D4" s="129" t="s">
-        <v>2873</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>2874</v>
-      </c>
-      <c r="F4" s="43" t="s">
+      <c r="G4" s="43" t="s">
         <v>2868</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>2869</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -36689,12 +36738,12 @@
     </row>
     <row r="7" spans="2:13">
       <c r="D7" s="129" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="D8" s="43" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="K8" t="s">
         <v>2355</v>
@@ -36713,7 +36762,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="D10" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="K10" t="s">
         <v>1781</v>
@@ -36744,26 +36793,37 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="108" customFormat="1"/>
+    <row r="19" spans="1:14">
+      <c r="C19" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="B21" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1100</v>
+      </c>
+    </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
       <c r="B22" s="376" t="s">
-        <v>1101</v>
+        <v>2875</v>
       </c>
       <c r="C22" s="376"/>
       <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="376" t="s">
+      <c r="E22" s="376" t="s">
         <v>1204</v>
       </c>
+      <c r="F22" s="376"/>
       <c r="G22" s="376"/>
-      <c r="H22" s="376"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="376" t="s">
-        <v>1103</v>
-      </c>
-      <c r="L22" s="376"/>
-      <c r="M22" s="376"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="376" t="s">
+        <v>2876</v>
+      </c>
+      <c r="J22" s="376"/>
+      <c r="K22" s="376"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -36771,15 +36831,15 @@
       <c r="B23" s="81"/>
       <c r="C23" s="83"/>
       <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="83"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82" t="s">
+        <v>2888</v>
+      </c>
+      <c r="G23" s="83"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="83"/>
       <c r="N23" s="106"/>
     </row>
     <row r="24" spans="1:14">
@@ -36789,151 +36849,147 @@
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="38">
+      <c r="E24" s="84"/>
+      <c r="F24" s="38">
         <v>10</v>
       </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="38" t="s">
-        <v>1788</v>
-      </c>
-      <c r="M24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="107" t="s">
+        <v>2889</v>
+      </c>
+      <c r="I24" s="84"/>
+      <c r="J24" s="38" t="s">
+        <v>2881</v>
+      </c>
+      <c r="K24" s="75"/>
       <c r="N24" s="106"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="106"/>
       <c r="B25" s="84" t="s">
-        <v>1106</v>
+        <v>2362</v>
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="38">
-        <v>5</v>
-      </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="38" t="s">
-        <v>2031</v>
-      </c>
-      <c r="M25" s="75"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="38">
+        <v>8</v>
+      </c>
+      <c r="G25" s="75"/>
+      <c r="H25" s="106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="84"/>
+      <c r="J25" s="38" t="s">
+        <v>2361</v>
+      </c>
+      <c r="K25" s="75"/>
       <c r="N25" s="106"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="106"/>
       <c r="B26" s="84" t="s">
-        <v>2030</v>
+        <v>2884</v>
       </c>
       <c r="C26" s="75"/>
       <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="38">
-        <v>1</v>
-      </c>
-      <c r="H26" s="75"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="168" t="s">
-        <v>2361</v>
-      </c>
-      <c r="M26" s="75"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="38">
+        <v>5</v>
+      </c>
+      <c r="G26" s="75"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="38" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K26" s="75"/>
       <c r="N26" s="106"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="106"/>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="381" t="s">
         <v>2360</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="38">
-        <v>11</v>
-      </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="168" t="s">
-        <v>2362</v>
-      </c>
-      <c r="M27" s="75"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="38">
+        <v>1</v>
+      </c>
+      <c r="G27" s="75"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="38" t="s">
+        <v>2877</v>
+      </c>
+      <c r="K27" s="75"/>
       <c r="N27" s="106"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="106"/>
-      <c r="B28" s="283" t="s">
-        <v>2362</v>
+      <c r="B28" s="382" t="s">
+        <v>2885</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="38">
-        <v>8</v>
-      </c>
-      <c r="H28" s="75"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="168" t="s">
-        <v>2363</v>
-      </c>
-      <c r="M28" s="75"/>
+      <c r="E28" s="84" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F28" s="168">
+        <v>0</v>
+      </c>
+      <c r="G28" s="75"/>
+      <c r="H28" s="107" t="s">
+        <v>2889</v>
+      </c>
+      <c r="I28" s="84"/>
+      <c r="J28" s="308" t="s">
+        <v>2883</v>
+      </c>
+      <c r="K28" s="75"/>
       <c r="N28" s="106"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="106"/>
-      <c r="B29" s="283" t="s">
-        <v>2363</v>
+      <c r="B29" s="382" t="s">
+        <v>2362</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="38">
-        <v>4</v>
-      </c>
-      <c r="H29" s="75"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="231" t="s">
-        <v>2030</v>
-      </c>
-      <c r="M29" s="75"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="38">
+        <v>10</v>
+      </c>
+      <c r="G29" s="75"/>
+      <c r="H29" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="84"/>
+      <c r="J29" s="38" t="s">
+        <v>2886</v>
+      </c>
+      <c r="K29" s="75"/>
       <c r="N29" s="106"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="106"/>
       <c r="B30" s="84" t="s">
-        <v>2030</v>
+        <v>2884</v>
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="38">
-        <v>1</v>
-      </c>
-      <c r="H30" s="75"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="231" t="s">
-        <v>2361</v>
-      </c>
-      <c r="M30" s="75"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="38">
+        <v>8</v>
+      </c>
+      <c r="G30" s="75"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="38" t="s">
+        <v>2890</v>
+      </c>
+      <c r="K30" s="75"/>
       <c r="N30" s="106"/>
     </row>
     <row r="31" spans="1:14" s="108" customFormat="1">
@@ -36943,53 +36999,59 @@
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="231" t="s">
-        <v>2031</v>
-      </c>
-      <c r="M31" s="75"/>
+      <c r="E31" s="84" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F31" s="38">
+        <v>2</v>
+      </c>
+      <c r="G31" s="75"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="38" t="s">
+        <v>2887</v>
+      </c>
+      <c r="K31" s="75"/>
       <c r="N31" s="106"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="106"/>
-      <c r="B32" s="84"/>
+      <c r="B32" s="84" t="s">
+        <v>2885</v>
+      </c>
       <c r="C32" s="75"/>
       <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="231" t="s">
-        <v>2361</v>
-      </c>
-      <c r="M32" s="75"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="38">
+        <v>12</v>
+      </c>
+      <c r="G32" s="75"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="313" t="s">
+        <v>2883</v>
+      </c>
+      <c r="K32" s="75"/>
       <c r="N32" s="106"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="106"/>
-      <c r="B33" s="84"/>
+      <c r="B33" s="84" t="s">
+        <v>2362</v>
+      </c>
       <c r="C33" s="75"/>
       <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="168" t="s">
-        <v>1788</v>
-      </c>
-      <c r="M33" s="75"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="38">
+        <v>8</v>
+      </c>
+      <c r="G33" s="75"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="313" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K33" s="75"/>
       <c r="N33" s="106"/>
     </row>
     <row r="34" spans="1:16">
@@ -36997,17 +37059,15 @@
       <c r="B34" s="84"/>
       <c r="C34" s="75"/>
       <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="168" t="s">
-        <v>2362</v>
-      </c>
-      <c r="M34" s="75"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="303" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K34" s="75"/>
       <c r="N34" s="106"/>
     </row>
     <row r="35" spans="1:16">
@@ -37015,17 +37075,15 @@
       <c r="B35" s="84"/>
       <c r="C35" s="75"/>
       <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="168" t="s">
-        <v>2363</v>
-      </c>
-      <c r="M35" s="75"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="313" t="s">
+        <v>2886</v>
+      </c>
+      <c r="K35" s="75"/>
       <c r="N35" s="106"/>
     </row>
     <row r="36" spans="1:16">
@@ -37033,70 +37091,97 @@
       <c r="B36" s="84"/>
       <c r="C36" s="75"/>
       <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="231"/>
-      <c r="M36" s="75"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="313" t="s">
+        <v>2362</v>
+      </c>
+      <c r="K36" s="75"/>
       <c r="N36" s="106"/>
     </row>
     <row r="37" spans="1:16">
       <c r="B37" s="33"/>
       <c r="C37" s="34"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="34"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="232"/>
-      <c r="M37" s="34"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="34"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="38" t="s">
+        <v>2887</v>
+      </c>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" spans="1:16">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="34"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="232"/>
-      <c r="M38" s="34"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="167">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="34"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="38" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K38" s="34"/>
     </row>
     <row r="39" spans="1:16" ht="15.75" thickBot="1">
       <c r="B39" s="35"/>
       <c r="C39" s="37"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="280"/>
-      <c r="M39" s="37"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="198" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G39" s="37"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="380"/>
+      <c r="K39" s="37"/>
       <c r="P39" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="F40" t="s">
+      <c r="A40" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G40" t="s">
         <v>2364</v>
       </c>
-      <c r="H40" t="s">
-        <v>2365</v>
-      </c>
-      <c r="L40" s="230"/>
+      <c r="I40" t="s">
+        <v>2880</v>
+      </c>
+      <c r="J40" s="230"/>
       <c r="P40" t="s">
         <v>1107</v>
       </c>
     </row>
+    <row r="42" spans="1:16">
+      <c r="B42" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="E43" s="10" t="s">
+        <v>1107</v>
+      </c>
+    </row>
     <row r="49" spans="1:13">
       <c r="B49" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="D50" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
@@ -37104,7 +37189,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="B51" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="G51" t="s">
         <v>1173</v>
@@ -37141,7 +37226,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="D54" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="G54" t="s">
         <v>1174</v>
@@ -37157,7 +37242,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="D55" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="I55" s="186" t="s">
         <v>1772</v>
@@ -37166,10 +37251,10 @@
       <c r="K55" s="29"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="B56" s="380" t="s">
-        <v>2856</v>
-      </c>
-      <c r="C56" s="380"/>
+      <c r="B56" s="374" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C56" s="374"/>
       <c r="I56" s="186" t="s">
         <v>1773</v>
       </c>
@@ -37178,13 +37263,13 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B57" s="43" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C57" s="375" t="s">
         <v>2852</v>
-      </c>
-      <c r="C57" s="381" t="s">
-        <v>2853</v>
       </c>
       <c r="I57" s="187" t="s">
         <v>1774</v>
@@ -37194,24 +37279,24 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>2854</v>
-      </c>
-      <c r="C58" s="381"/>
+        <v>2853</v>
+      </c>
+      <c r="C58" s="375"/>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>2855</v>
-      </c>
-      <c r="C59" s="381"/>
+        <v>2854</v>
+      </c>
+      <c r="C59" s="375"/>
       <c r="G59" t="s">
         <v>1175</v>
       </c>
@@ -37229,10 +37314,10 @@
       <c r="K60" s="29"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="B61" s="380" t="s">
-        <v>2856</v>
-      </c>
-      <c r="C61" s="380"/>
+      <c r="B61" s="374" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C61" s="374"/>
       <c r="I61" s="186" t="s">
         <v>1773</v>
       </c>
@@ -37241,9 +37326,9 @@
     </row>
     <row r="62" spans="1:13">
       <c r="B62" s="43" t="s">
-        <v>2858</v>
-      </c>
-      <c r="C62" s="381" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C62" s="375" t="s">
         <v>15</v>
       </c>
       <c r="I62" s="186" t="s">
@@ -37254,11 +37339,11 @@
     </row>
     <row r="63" spans="1:13">
       <c r="B63" s="43" t="s">
-        <v>2859</v>
-      </c>
-      <c r="C63" s="381"/>
+        <v>2858</v>
+      </c>
+      <c r="C63" s="375"/>
       <c r="D63" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
@@ -37266,9 +37351,9 @@
     </row>
     <row r="64" spans="1:13">
       <c r="B64" s="43" t="s">
-        <v>2860</v>
-      </c>
-      <c r="C64" s="381"/>
+        <v>2859</v>
+      </c>
+      <c r="C64" s="375"/>
       <c r="G64" t="s">
         <v>1098</v>
       </c>
@@ -39203,14 +39288,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="C62:C64"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="F22:H22"/>
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39238,13 +39323,13 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="B1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C1" t="s">
         <v>1909</v>
       </c>
       <c r="F1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="G1" t="s">
         <v>1909</v>
@@ -39258,7 +39343,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B2" s="279">
         <v>0</v>
@@ -39384,7 +39469,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="M7" s="233" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="O7">
         <v>50</v>
@@ -39392,44 +39477,44 @@
     </row>
     <row r="8" spans="1:31">
       <c r="B8" s="378" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="C8" s="378"/>
       <c r="F8" s="378" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="G8" s="378"/>
       <c r="I8" s="378" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="J8" s="378"/>
       <c r="M8" s="233" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="F9" s="378" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="G9" s="378"/>
       <c r="I9" s="378" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="J9" s="378"/>
       <c r="M9" s="379" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="N9" s="379"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="M10" s="288" t="s">
-        <v>2372</v>
-      </c>
-      <c r="N10" s="288"/>
+      <c r="M10" s="286" t="s">
+        <v>2371</v>
+      </c>
+      <c r="N10" s="286"/>
     </row>
     <row r="11" spans="1:31">
       <c r="E11" s="377" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="F11" s="377"/>
       <c r="G11" s="377"/>
@@ -39444,24 +39529,24 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F13" t="s">
         <v>2375</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>2376</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>2377</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>2378</v>
-      </c>
-      <c r="L13" t="s">
-        <v>2379</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -39481,7 +39566,7 @@
       <c r="J14" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="L14" s="285" t="s">
+      <c r="L14" s="283" t="s">
         <v>412</v>
       </c>
       <c r="M14" s="43" t="s">
@@ -39503,7 +39588,7 @@
       <c r="J15" s="43" t="s">
         <v>524</v>
       </c>
-      <c r="L15" s="285" t="s">
+      <c r="L15" s="283" t="s">
         <v>524</v>
       </c>
       <c r="M15" s="43" t="s">
@@ -39523,7 +39608,7 @@
       <c r="J16" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="L16" s="285" t="s">
+      <c r="L16" s="283" t="s">
         <v>559</v>
       </c>
       <c r="M16" s="43" t="s">
@@ -39593,10 +39678,10 @@
     </row>
     <row r="19" spans="1:32">
       <c r="C19" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F19" t="s">
         <v>2380</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2381</v>
       </c>
       <c r="L19" s="27"/>
       <c r="M19" s="43"/>
@@ -39619,7 +39704,7 @@
       <c r="AE19" s="27"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="C20" s="284" t="s">
+      <c r="C20" s="282" t="s">
         <v>412</v>
       </c>
       <c r="D20" s="43" t="s">
@@ -39635,7 +39720,7 @@
         <v>412</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="M20" s="167"/>
       <c r="N20" s="27"/>
@@ -39658,7 +39743,7 @@
       <c r="AE20" s="27"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="C21" s="284" t="s">
+      <c r="C21" s="282" t="s">
         <v>524</v>
       </c>
       <c r="D21" s="43" t="s">
@@ -39694,7 +39779,7 @@
       <c r="AE21" s="27"/>
     </row>
     <row r="22" spans="1:32">
-      <c r="C22" s="284" t="s">
+      <c r="C22" s="282" t="s">
         <v>559</v>
       </c>
       <c r="D22" s="43" t="s">
@@ -39804,7 +39889,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="F26" s="56" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="G26" s="56"/>
       <c r="M26" s="27"/>
@@ -39829,7 +39914,7 @@
     </row>
     <row r="27" spans="1:32">
       <c r="H27" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
@@ -39853,10 +39938,10 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" t="s">
+        <v>2383</v>
+      </c>
+      <c r="G28" s="43" t="s">
         <v>2384</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>2385</v>
       </c>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -39880,7 +39965,7 @@
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="43" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
@@ -39904,16 +39989,16 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1">
       <c r="E30" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="G30" s="157" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="I30" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="K30" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -39938,7 +40023,7 @@
     <row r="31" spans="1:32">
       <c r="E31" s="26"/>
       <c r="G31" s="43" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="I31" s="26"/>
       <c r="K31" s="26"/>
@@ -39963,16 +40048,16 @@
       <c r="AE31" s="27"/>
     </row>
     <row r="32" spans="1:32">
-      <c r="E32" s="286" t="s">
-        <v>2387</v>
+      <c r="E32" s="284" t="s">
+        <v>2386</v>
       </c>
       <c r="G32" s="43" t="s">
-        <v>2389</v>
-      </c>
-      <c r="I32" s="286" t="s">
-        <v>2387</v>
-      </c>
-      <c r="K32" s="286"/>
+        <v>2388</v>
+      </c>
+      <c r="I32" s="284" t="s">
+        <v>2386</v>
+      </c>
+      <c r="K32" s="284"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
@@ -39997,12 +40082,12 @@
       </c>
     </row>
     <row r="33" spans="1:32">
-      <c r="E33" s="286"/>
+      <c r="E33" s="284"/>
       <c r="G33" s="43" t="s">
-        <v>2390</v>
-      </c>
-      <c r="I33" s="286"/>
-      <c r="K33" s="286"/>
+        <v>2389</v>
+      </c>
+      <c r="I33" s="284"/>
+      <c r="K33" s="284"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
       <c r="O33" s="27"/>
@@ -40027,12 +40112,12 @@
       </c>
     </row>
     <row r="34" spans="1:32">
-      <c r="E34" s="286"/>
+      <c r="E34" s="284"/>
       <c r="G34" s="43" t="s">
-        <v>2391</v>
-      </c>
-      <c r="I34" s="286"/>
-      <c r="K34" s="286"/>
+        <v>2390</v>
+      </c>
+      <c r="I34" s="284"/>
+      <c r="K34" s="284"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
@@ -40056,7 +40141,7 @@
     <row r="35" spans="1:32" ht="15.75" thickBot="1">
       <c r="E35" s="202"/>
       <c r="G35" s="43" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="I35" s="202"/>
       <c r="K35" s="202"/>
@@ -40103,7 +40188,7 @@
     </row>
     <row r="37" spans="1:32">
       <c r="C37" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -40127,12 +40212,12 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="40" spans="1:32">
       <c r="M40" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -40210,7 +40295,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -40250,7 +40335,7 @@
         <v>99999999</v>
       </c>
       <c r="E45" s="129" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="G45">
         <v>99999999</v>
@@ -40270,7 +40355,7 @@
         <v>10000000</v>
       </c>
       <c r="C46" s="129" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D46">
         <v>10000000</v>
@@ -40279,7 +40364,7 @@
         <v>10000000</v>
       </c>
       <c r="H46" s="129" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="I46">
         <v>10000000</v>
@@ -40290,15 +40375,15 @@
     </row>
     <row r="47" spans="1:32">
       <c r="J47" s="129" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="48" spans="1:32">
       <c r="C48" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="H48" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -40462,7 +40547,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="56" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B62" s="56"/>
       <c r="N62" s="27"/>
@@ -40584,7 +40669,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="56" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B69" s="56"/>
       <c r="N69" s="27"/>
@@ -40713,72 +40798,72 @@
     </row>
     <row r="77" spans="1:18">
       <c r="B77" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="C77" t="s">
         <v>1902</v>
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="B78" s="282" t="s">
+      <c r="B78" s="281" t="s">
         <v>412</v>
       </c>
-      <c r="C78" s="282">
+      <c r="C78" s="281">
         <v>50</v>
       </c>
       <c r="F78" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="B79" s="281" t="s">
+        <v>524</v>
+      </c>
+      <c r="C79" s="281">
+        <v>80</v>
+      </c>
+      <c r="F79" t="s">
         <v>2428</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
-      <c r="B79" s="282" t="s">
-        <v>524</v>
-      </c>
-      <c r="C79" s="282">
-        <v>80</v>
-      </c>
-      <c r="F79" t="s">
-        <v>2429</v>
-      </c>
-    </row>
     <row r="80" spans="1:18">
-      <c r="B80" s="282" t="s">
+      <c r="B80" s="281" t="s">
         <v>559</v>
       </c>
-      <c r="C80" s="282">
+      <c r="C80" s="281">
         <v>20</v>
       </c>
       <c r="L80" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="81" spans="2:12">
-      <c r="B81" s="282" t="s">
+      <c r="B81" s="281" t="s">
         <v>1535</v>
       </c>
-      <c r="C81" s="282">
+      <c r="C81" s="281">
         <v>80</v>
       </c>
       <c r="E81" s="123" t="s">
         <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="K81" t="s">
         <v>48</v>
       </c>
-      <c r="L81" s="282" t="s">
+      <c r="L81" s="281" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="82" spans="2:12">
-      <c r="B82" s="282"/>
-      <c r="C82" s="282"/>
+      <c r="B82" s="281"/>
+      <c r="C82" s="281"/>
       <c r="F82" t="s">
-        <v>2431</v>
-      </c>
-      <c r="L82" s="282" t="s">
+        <v>2430</v>
+      </c>
+      <c r="L82" s="281" t="s">
         <v>524</v>
       </c>
     </row>
@@ -40786,15 +40871,15 @@
       <c r="F83" t="s">
         <v>366</v>
       </c>
-      <c r="L83" s="282" t="s">
+      <c r="L83" s="281" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="84" spans="2:12">
       <c r="G84" t="s">
-        <v>2432</v>
-      </c>
-      <c r="L84" s="282" t="s">
+        <v>2431</v>
+      </c>
+      <c r="L84" s="281" t="s">
         <v>1535</v>
       </c>
     </row>
@@ -40803,7 +40888,7 @@
         <v>49</v>
       </c>
       <c r="G85" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="L85">
         <v>50</v>
@@ -42759,7 +42844,7 @@
   <sheetData>
     <row r="2" spans="1:21">
       <c r="A2" s="27" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="E2" s="119" t="s">
         <v>549</v>
@@ -42771,11 +42856,11 @@
       <c r="H2" s="239"/>
       <c r="I2" s="239"/>
       <c r="J2" s="239"/>
-      <c r="K2" s="287" t="s">
+      <c r="K2" s="285" t="s">
         <v>413</v>
       </c>
       <c r="L2" s="119" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="M2" s="120" t="s">
         <v>1056</v>
@@ -42783,7 +42868,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="27" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="E3" s="177" t="s">
         <v>550</v>
@@ -42801,7 +42886,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="27" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="E4" s="177" t="s">
         <v>706</v>
@@ -42814,7 +42899,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="115" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="177" t="s">
@@ -42829,10 +42914,10 @@
         <v>1650</v>
       </c>
       <c r="L5" s="119" t="s">
+        <v>2408</v>
+      </c>
+      <c r="M5" s="120" t="s">
         <v>2409</v>
-      </c>
-      <c r="M5" s="120" t="s">
-        <v>2410</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -42854,7 +42939,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="27" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E7" s="177"/>
       <c r="K7" s="115"/>
@@ -42872,10 +42957,10 @@
         <v>2089</v>
       </c>
       <c r="L8" s="119" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="M8" s="120" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -42914,7 +42999,7 @@
         <v>2088</v>
       </c>
       <c r="L11" s="119" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="M11" s="120" t="s">
         <v>1056</v>
@@ -42923,7 +43008,7 @@
     <row r="12" spans="1:21">
       <c r="E12" s="177"/>
       <c r="G12" s="27" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="K12" s="115"/>
       <c r="L12" s="121" t="s">
@@ -42935,45 +43020,45 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="38" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E13" s="177" t="s">
         <v>1987</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="G13" s="130">
         <v>1</v>
       </c>
       <c r="H13" s="43" t="s">
+        <v>2421</v>
+      </c>
+      <c r="I13" s="43" t="s">
         <v>2422</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>2423</v>
       </c>
       <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="38" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="C14" s="255" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E14" s="177"/>
       <c r="G14" s="130">
         <v>2</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="I14" s="43"/>
       <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="38" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E15" s="177"/>
       <c r="G15" s="130"/>
@@ -42983,7 +43068,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="38" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E16" s="121"/>
       <c r="F16" s="240"/>
@@ -42997,7 +43082,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="38" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="C17" s="27">
         <f>1</f>
@@ -43006,7 +43091,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="38" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -43200,11 +43285,11 @@
       <c r="L6" s="43" t="s">
         <v>1374</v>
       </c>
-      <c r="M6" s="380" t="s">
+      <c r="M6" s="374" t="s">
         <v>1375</v>
       </c>
-      <c r="N6" s="380"/>
-      <c r="O6" s="380"/>
+      <c r="N6" s="374"/>
+      <c r="O6" s="374"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -44019,36 +44104,36 @@
     <row r="91" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="92" spans="1:16">
       <c r="B92" s="30" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="C92" s="31"/>
       <c r="D92" s="32"/>
       <c r="F92" s="30" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G92" s="31"/>
       <c r="H92" s="32"/>
       <c r="J92" s="30" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="K92" s="31"/>
       <c r="L92" s="32"/>
       <c r="N92" s="30" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="O92" s="31"/>
       <c r="P92" s="32"/>
     </row>
     <row r="93" spans="1:16">
       <c r="B93" s="33" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D93" s="34"/>
       <c r="F93" s="33" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G93" s="27" t="s">
         <v>180</v>
@@ -44065,7 +44150,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>180</v>
@@ -44075,7 +44160,7 @@
       </c>
       <c r="D94" s="34"/>
       <c r="F94" s="33" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G94" s="27" t="s">
         <v>184</v>
@@ -44084,7 +44169,7 @@
         <v>200</v>
       </c>
       <c r="J94" s="33" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="K94" s="27" t="s">
         <v>180</v>
@@ -44093,7 +44178,7 @@
         <v>58</v>
       </c>
       <c r="N94" s="33" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="O94" s="27" t="s">
         <v>180</v>
@@ -44104,38 +44189,38 @@
     </row>
     <row r="95" spans="1:16">
       <c r="B95" s="33" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="C95" s="27" t="s">
         <v>1782</v>
       </c>
       <c r="D95" s="34"/>
       <c r="F95" s="33" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G95" s="27" t="s">
         <v>180</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="J95" s="33" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="K95" s="27" t="s">
         <v>180</v>
       </c>
       <c r="L95" s="34" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="N95" s="33" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="O95" s="27" t="s">
         <v>188</v>
       </c>
       <c r="P95" s="34" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -44143,14 +44228,14 @@
         <v>180</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D96" s="34"/>
       <c r="F96" s="33"/>
       <c r="G96" s="27"/>
       <c r="H96" s="34"/>
       <c r="J96" s="33" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="K96" s="27" t="s">
         <v>185</v>
@@ -44159,10 +44244,10 @@
         <v>59</v>
       </c>
       <c r="N96" s="33" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="O96" s="27" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="P96" s="34" t="s">
         <v>2122</v>
@@ -44170,27 +44255,27 @@
     </row>
     <row r="97" spans="1:16">
       <c r="B97" s="33" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="C97" s="38" t="s">
         <v>199</v>
       </c>
       <c r="D97" s="34"/>
       <c r="F97" s="33" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="H97" s="34"/>
       <c r="J97" s="33"/>
       <c r="K97" s="27"/>
       <c r="L97" s="34"/>
       <c r="N97" s="33" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="O97" s="38" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="P97" s="34" t="s">
         <v>183</v>
@@ -44198,17 +44283,17 @@
     </row>
     <row r="98" spans="1:16" ht="15.75" thickBot="1">
       <c r="B98" s="35" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="C98" s="36" t="s">
         <v>183</v>
       </c>
       <c r="D98" s="37"/>
       <c r="F98" s="35" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="H98" s="37"/>
       <c r="J98" s="35"/>
@@ -44220,43 +44305,43 @@
     </row>
     <row r="99" spans="1:16" ht="15.75" thickBot="1">
       <c r="N99" s="84" t="s">
+        <v>2534</v>
+      </c>
+      <c r="O99" s="38" t="s">
         <v>2535</v>
-      </c>
-      <c r="O99" s="38" t="s">
-        <v>2536</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="G100" s="31"/>
       <c r="H100" s="32"/>
       <c r="J100" s="30" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K100" s="31"/>
       <c r="L100" s="32"/>
       <c r="N100" s="84" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="O100" s="38" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="27" t="s">
         <v>188</v>
       </c>
       <c r="H101" s="34" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="27" t="s">
@@ -44271,14 +44356,14 @@
         <v>1861</v>
       </c>
       <c r="C102" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="27" t="s">
         <v>180</v>
       </c>
       <c r="H102" s="34" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="I102" s="40"/>
       <c r="J102" s="33"/>
@@ -44286,12 +44371,12 @@
         <v>184</v>
       </c>
       <c r="L102" s="34" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="15.75" thickBot="1">
       <c r="B103" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="36" t="s">
@@ -44328,38 +44413,38 @@
     </row>
     <row r="106" spans="1:16">
       <c r="B106" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="B107" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="B110" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="B111" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="C112" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="119" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="120" spans="2:13" ht="15.75" thickBot="1">
       <c r="E120" s="30" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="F120" s="31"/>
       <c r="G120" s="31"/>
@@ -44377,11 +44462,11 @@
       </c>
       <c r="G121" s="30"/>
       <c r="H121" s="31"/>
-      <c r="I121" s="359" t="s">
-        <v>2543</v>
-      </c>
-      <c r="J121" s="359" t="s">
-        <v>2547</v>
+      <c r="I121" s="357" t="s">
+        <v>2542</v>
+      </c>
+      <c r="J121" s="357" t="s">
+        <v>2546</v>
       </c>
       <c r="K121" s="27"/>
       <c r="L121" s="27"/>
@@ -44396,8 +44481,8 @@
       <c r="H122" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="I122" s="360"/>
-      <c r="J122" s="360"/>
+      <c r="I122" s="358"/>
+      <c r="J122" s="358"/>
       <c r="K122" s="27"/>
       <c r="L122" s="27"/>
       <c r="M122" s="34"/>
@@ -44411,8 +44496,8 @@
       <c r="H123" s="27">
         <v>19</v>
       </c>
-      <c r="I123" s="360"/>
-      <c r="J123" s="360"/>
+      <c r="I123" s="358"/>
+      <c r="J123" s="358"/>
       <c r="K123" s="27"/>
       <c r="L123" s="27"/>
       <c r="M123" s="34"/>
@@ -44426,8 +44511,8 @@
       <c r="H124" s="36" t="s">
         <v>1769</v>
       </c>
-      <c r="I124" s="360"/>
-      <c r="J124" s="360"/>
+      <c r="I124" s="358"/>
+      <c r="J124" s="358"/>
       <c r="K124" s="27"/>
       <c r="L124" s="27"/>
       <c r="M124" s="34"/>
@@ -44437,22 +44522,22 @@
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
-      <c r="I125" s="360"/>
-      <c r="J125" s="360"/>
+      <c r="I125" s="358"/>
+      <c r="J125" s="358"/>
       <c r="K125" s="27"/>
       <c r="L125" s="27"/>
       <c r="M125" s="34"/>
     </row>
     <row r="126" spans="2:13" ht="15.75" thickBot="1">
       <c r="B126" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="E126" s="33"/>
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
-      <c r="I126" s="360"/>
-      <c r="J126" s="360"/>
+      <c r="I126" s="358"/>
+      <c r="J126" s="358"/>
       <c r="K126" s="27"/>
       <c r="L126" s="27"/>
       <c r="M126" s="34"/>
@@ -44460,12 +44545,12 @@
     <row r="127" spans="2:13">
       <c r="E127" s="33"/>
       <c r="F127" s="27" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="G127" s="30"/>
       <c r="H127" s="31"/>
-      <c r="I127" s="360"/>
-      <c r="J127" s="360"/>
+      <c r="I127" s="358"/>
+      <c r="J127" s="358"/>
       <c r="K127" s="27"/>
       <c r="L127" s="27"/>
       <c r="M127" s="34"/>
@@ -44479,8 +44564,8 @@
       <c r="H128" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I128" s="360"/>
-      <c r="J128" s="360"/>
+      <c r="I128" s="358"/>
+      <c r="J128" s="358"/>
       <c r="K128" s="27"/>
       <c r="L128" s="27"/>
       <c r="M128" s="34"/>
@@ -44494,8 +44579,8 @@
       <c r="H129" s="27">
         <v>20</v>
       </c>
-      <c r="I129" s="360"/>
-      <c r="J129" s="360"/>
+      <c r="I129" s="358"/>
+      <c r="J129" s="358"/>
       <c r="K129" s="27"/>
       <c r="L129" s="27"/>
       <c r="M129" s="34"/>
@@ -44507,10 +44592,10 @@
         <v>194</v>
       </c>
       <c r="H130" s="36" t="s">
-        <v>2539</v>
-      </c>
-      <c r="I130" s="360"/>
-      <c r="J130" s="360"/>
+        <v>2538</v>
+      </c>
+      <c r="I130" s="358"/>
+      <c r="J130" s="358"/>
       <c r="K130" s="27"/>
       <c r="L130" s="27"/>
       <c r="M130" s="34"/>
@@ -44520,8 +44605,8 @@
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
-      <c r="I131" s="360"/>
-      <c r="J131" s="360"/>
+      <c r="I131" s="358"/>
+      <c r="J131" s="358"/>
       <c r="K131" s="27"/>
       <c r="L131" s="27"/>
       <c r="M131" s="34"/>
@@ -44529,12 +44614,12 @@
     <row r="132" spans="5:13">
       <c r="E132" s="33"/>
       <c r="F132" s="27" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="G132" s="30"/>
       <c r="H132" s="31"/>
-      <c r="I132" s="360"/>
-      <c r="J132" s="360"/>
+      <c r="I132" s="358"/>
+      <c r="J132" s="358"/>
       <c r="K132" s="27"/>
       <c r="L132" s="27"/>
       <c r="M132" s="34"/>
@@ -44548,8 +44633,8 @@
       <c r="H133" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I133" s="360"/>
-      <c r="J133" s="360"/>
+      <c r="I133" s="358"/>
+      <c r="J133" s="358"/>
       <c r="K133" s="27"/>
       <c r="L133" s="27"/>
       <c r="M133" s="34"/>
@@ -44563,8 +44648,8 @@
       <c r="H134" s="27">
         <v>18</v>
       </c>
-      <c r="I134" s="360"/>
-      <c r="J134" s="360"/>
+      <c r="I134" s="358"/>
+      <c r="J134" s="358"/>
       <c r="K134" s="27"/>
       <c r="L134" s="27"/>
       <c r="M134" s="34"/>
@@ -44576,10 +44661,10 @@
         <v>194</v>
       </c>
       <c r="H135" s="36" t="s">
-        <v>2540</v>
-      </c>
-      <c r="I135" s="361"/>
-      <c r="J135" s="361"/>
+        <v>2539</v>
+      </c>
+      <c r="I135" s="359"/>
+      <c r="J135" s="359"/>
       <c r="K135" s="27"/>
       <c r="L135" s="27"/>
       <c r="M135" s="34"/>
@@ -44598,14 +44683,14 @@
     <row r="137" spans="5:13">
       <c r="E137" s="33"/>
       <c r="F137" s="27" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="G137" s="38" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="27" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="J137" s="27"/>
       <c r="K137" s="27"/>
@@ -44637,7 +44722,7 @@
     <row r="145" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="146" spans="2:13" ht="15.75" thickBot="1">
       <c r="E146" s="30" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="F146" s="31"/>
       <c r="G146" s="31"/>
@@ -44657,10 +44742,10 @@
         <v>1969</v>
       </c>
       <c r="H147" s="31" t="s">
-        <v>2546</v>
-      </c>
-      <c r="I147" s="362"/>
-      <c r="J147" s="362"/>
+        <v>2545</v>
+      </c>
+      <c r="I147" s="360"/>
+      <c r="J147" s="360"/>
       <c r="K147" s="27"/>
       <c r="L147" s="27"/>
       <c r="M147" s="34"/>
@@ -44674,8 +44759,8 @@
       <c r="H148" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I148" s="363"/>
-      <c r="J148" s="363"/>
+      <c r="I148" s="361"/>
+      <c r="J148" s="361"/>
       <c r="K148" s="27"/>
       <c r="L148" s="27"/>
       <c r="M148" s="34"/>
@@ -44689,8 +44774,8 @@
       <c r="H149" s="27">
         <v>19</v>
       </c>
-      <c r="I149" s="363"/>
-      <c r="J149" s="363"/>
+      <c r="I149" s="361"/>
+      <c r="J149" s="361"/>
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
       <c r="M149" s="34"/>
@@ -44704,8 +44789,8 @@
       <c r="H150" s="36" t="s">
         <v>1769</v>
       </c>
-      <c r="I150" s="363"/>
-      <c r="J150" s="363"/>
+      <c r="I150" s="361"/>
+      <c r="J150" s="361"/>
       <c r="K150" s="27"/>
       <c r="L150" s="27"/>
       <c r="M150" s="34"/>
@@ -44715,8 +44800,8 @@
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
-      <c r="I151" s="363"/>
-      <c r="J151" s="363"/>
+      <c r="I151" s="361"/>
+      <c r="J151" s="361"/>
       <c r="K151" s="27"/>
       <c r="L151" s="27"/>
       <c r="M151" s="34"/>
@@ -44726,8 +44811,8 @@
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
-      <c r="I152" s="363"/>
-      <c r="J152" s="363"/>
+      <c r="I152" s="361"/>
+      <c r="J152" s="361"/>
       <c r="K152" s="27"/>
       <c r="L152" s="27"/>
       <c r="M152" s="34"/>
@@ -44735,23 +44820,23 @@
     <row r="153" spans="2:13">
       <c r="E153" s="33"/>
       <c r="F153" s="27" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="G153" s="30" t="s">
         <v>1969</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>2546</v>
-      </c>
-      <c r="I153" s="363"/>
-      <c r="J153" s="363"/>
+        <v>2545</v>
+      </c>
+      <c r="I153" s="361"/>
+      <c r="J153" s="361"/>
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
       <c r="M153" s="34"/>
     </row>
     <row r="154" spans="2:13">
       <c r="B154" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="E154" s="33"/>
       <c r="F154" s="27"/>
@@ -44761,8 +44846,8 @@
       <c r="H154" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I154" s="363"/>
-      <c r="J154" s="363"/>
+      <c r="I154" s="361"/>
+      <c r="J154" s="361"/>
       <c r="K154" s="27"/>
       <c r="L154" s="27"/>
       <c r="M154" s="34"/>
@@ -44776,8 +44861,8 @@
       <c r="H155" s="27">
         <v>20</v>
       </c>
-      <c r="I155" s="363"/>
-      <c r="J155" s="363"/>
+      <c r="I155" s="361"/>
+      <c r="J155" s="361"/>
       <c r="K155" s="27"/>
       <c r="L155" s="27"/>
       <c r="M155" s="34"/>
@@ -44789,10 +44874,10 @@
         <v>194</v>
       </c>
       <c r="H156" s="36" t="s">
-        <v>2539</v>
-      </c>
-      <c r="I156" s="363"/>
-      <c r="J156" s="363"/>
+        <v>2538</v>
+      </c>
+      <c r="I156" s="361"/>
+      <c r="J156" s="361"/>
       <c r="K156" s="27"/>
       <c r="L156" s="27"/>
       <c r="M156" s="34"/>
@@ -44802,8 +44887,8 @@
       <c r="F157" s="27"/>
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
-      <c r="I157" s="363"/>
-      <c r="J157" s="363"/>
+      <c r="I157" s="361"/>
+      <c r="J157" s="361"/>
       <c r="K157" s="27"/>
       <c r="L157" s="27"/>
       <c r="M157" s="34"/>
@@ -44811,16 +44896,16 @@
     <row r="158" spans="2:13">
       <c r="E158" s="33"/>
       <c r="F158" s="27" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="G158" s="30" t="s">
         <v>1969</v>
       </c>
       <c r="H158" s="31" t="s">
-        <v>2546</v>
-      </c>
-      <c r="I158" s="363"/>
-      <c r="J158" s="363"/>
+        <v>2545</v>
+      </c>
+      <c r="I158" s="361"/>
+      <c r="J158" s="361"/>
       <c r="K158" s="27"/>
       <c r="L158" s="27"/>
       <c r="M158" s="34"/>
@@ -44834,8 +44919,8 @@
       <c r="H159" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I159" s="363"/>
-      <c r="J159" s="363"/>
+      <c r="I159" s="361"/>
+      <c r="J159" s="361"/>
       <c r="K159" s="27"/>
       <c r="L159" s="27"/>
       <c r="M159" s="34"/>
@@ -44849,8 +44934,8 @@
       <c r="H160" s="27">
         <v>18</v>
       </c>
-      <c r="I160" s="363"/>
-      <c r="J160" s="363"/>
+      <c r="I160" s="361"/>
+      <c r="J160" s="361"/>
       <c r="K160" s="27"/>
       <c r="L160" s="27"/>
       <c r="M160" s="34"/>
@@ -44862,10 +44947,10 @@
         <v>194</v>
       </c>
       <c r="H161" s="36" t="s">
-        <v>2540</v>
-      </c>
-      <c r="I161" s="364"/>
-      <c r="J161" s="364"/>
+        <v>2539</v>
+      </c>
+      <c r="I161" s="362"/>
+      <c r="J161" s="362"/>
       <c r="K161" s="27"/>
       <c r="L161" s="27"/>
       <c r="M161" s="34"/>
@@ -44884,10 +44969,10 @@
     <row r="163" spans="5:13">
       <c r="E163" s="33"/>
       <c r="F163" s="27" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="G163" s="38" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
@@ -45824,7 +45909,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="357" t="s">
+      <c r="G269" s="355" t="s">
         <v>2192</v>
       </c>
       <c r="I269" s="56" t="s">
@@ -45845,7 +45930,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="358"/>
+      <c r="G270" s="356"/>
       <c r="I270" s="163" t="s">
         <v>2188</v>
       </c>
@@ -46866,7 +46951,7 @@
     <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>1859</v>
@@ -46881,7 +46966,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="B31" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="27" t="s">
@@ -46906,7 +46991,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="B32" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="27" t="s">
@@ -46931,7 +47016,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="C33" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="27" t="s">
@@ -46956,7 +47041,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="C34" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D34" t="s">
         <v>366</v>
@@ -46981,7 +47066,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="D35" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="36"/>
@@ -46999,23 +47084,23 @@
     </row>
     <row r="36" spans="1:15">
       <c r="D36" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C37" t="s">
         <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="B39" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="C39" s="40"/>
     </row>
@@ -47781,28 +47866,28 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2574</v>
-      </c>
-      <c r="E2" s="355" t="s">
-        <v>2582</v>
-      </c>
-      <c r="F2" s="365"/>
-      <c r="G2" s="365"/>
-      <c r="H2" s="365"/>
-      <c r="I2" s="365"/>
-      <c r="J2" s="365"/>
-      <c r="K2" s="365"/>
-      <c r="L2" s="365"/>
-      <c r="M2" s="356"/>
+        <v>2573</v>
+      </c>
+      <c r="E2" s="353" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F2" s="363"/>
+      <c r="G2" s="363"/>
+      <c r="H2" s="363"/>
+      <c r="I2" s="363"/>
+      <c r="J2" s="363"/>
+      <c r="K2" s="363"/>
+      <c r="L2" s="363"/>
+      <c r="M2" s="354"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -47811,10 +47896,10 @@
       <c r="C3" t="s">
         <v>2187</v>
       </c>
-      <c r="E3" s="297" t="s">
+      <c r="E3" s="295" t="s">
         <v>1458</v>
       </c>
-      <c r="F3" s="298" t="s">
+      <c r="F3" s="296" t="s">
         <v>1902</v>
       </c>
       <c r="G3" s="27"/>
@@ -47827,7 +47912,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>402</v>
@@ -47864,7 +47949,7 @@
         <v>1644</v>
       </c>
       <c r="K5" s="115" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="L5" s="51"/>
       <c r="M5" s="52"/>
@@ -47885,7 +47970,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="115" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="L6" s="51"/>
       <c r="M6" s="52"/>
@@ -47909,10 +47994,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D8" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="51"/>
@@ -47928,7 +48013,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
@@ -47946,10 +48031,10 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="C10" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="51"/>
@@ -47967,7 +48052,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="51"/>
@@ -47981,7 +48066,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="51"/>
@@ -47995,13 +48080,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>402</v>
       </c>
       <c r="F13" s="115" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
@@ -48013,10 +48098,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="E14" s="50" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F14" s="115" t="s">
         <v>2592</v>
-      </c>
-      <c r="F14" s="115" t="s">
-        <v>2593</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
@@ -48039,7 +48124,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="E16" s="114" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -48052,10 +48137,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -48071,7 +48156,7 @@
         <v>430</v>
       </c>
       <c r="B18" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
@@ -48086,19 +48171,19 @@
     <row r="22" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>2574</v>
-      </c>
-      <c r="E23" s="355" t="s">
-        <v>2582</v>
-      </c>
-      <c r="F23" s="365"/>
-      <c r="G23" s="365"/>
-      <c r="H23" s="365"/>
-      <c r="I23" s="365"/>
-      <c r="J23" s="365"/>
-      <c r="K23" s="365"/>
-      <c r="L23" s="365"/>
-      <c r="M23" s="356"/>
+        <v>2573</v>
+      </c>
+      <c r="E23" s="353" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F23" s="363"/>
+      <c r="G23" s="363"/>
+      <c r="H23" s="363"/>
+      <c r="I23" s="363"/>
+      <c r="J23" s="363"/>
+      <c r="K23" s="363"/>
+      <c r="L23" s="363"/>
+      <c r="M23" s="354"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="B24" t="s">
@@ -48107,10 +48192,10 @@
       <c r="C24" t="s">
         <v>2187</v>
       </c>
-      <c r="E24" s="297" t="s">
+      <c r="E24" s="295" t="s">
         <v>1458</v>
       </c>
-      <c r="F24" s="298" t="s">
+      <c r="F24" s="296" t="s">
         <v>1902</v>
       </c>
       <c r="G24" s="27"/>
@@ -48123,7 +48208,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="B25" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="E25" s="50" t="s">
         <v>402</v>
@@ -48138,7 +48223,7 @@
       <c r="I25" s="169"/>
       <c r="J25" s="170"/>
       <c r="K25" s="51" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="L25" s="51"/>
       <c r="M25" s="52"/>
@@ -48162,7 +48247,7 @@
         <v>1464</v>
       </c>
       <c r="K26" s="115" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="L26" s="51"/>
       <c r="M26" s="52"/>
@@ -48183,7 +48268,7 @@
         <v>5</v>
       </c>
       <c r="K27" s="115" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="L27" s="51"/>
       <c r="M27" s="52"/>
@@ -48204,7 +48289,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="E29" s="50"/>
       <c r="F29" s="51"/>
@@ -48222,7 +48307,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="E30" s="50"/>
       <c r="F30" s="51"/>
@@ -48236,13 +48321,13 @@
       </c>
       <c r="K30" s="51"/>
       <c r="L30" s="51" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="M30" s="52"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
       <c r="A31" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31" s="51"/>
@@ -48256,7 +48341,7 @@
       </c>
       <c r="K31" s="51"/>
       <c r="L31" s="51" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="M31" s="52"/>
     </row>
@@ -48273,7 +48358,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -48287,7 +48372,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="115"/>
@@ -48301,15 +48386,15 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E35" s="50"/>
       <c r="F35" s="115" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="G35" s="51"/>
       <c r="H35" s="115" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="I35" s="51"/>
       <c r="J35" s="51"/>
@@ -48330,11 +48415,11 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="E37" s="114"/>
       <c r="F37" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
@@ -48345,7 +48430,7 @@
     <row r="38" spans="1:13">
       <c r="E38" s="33"/>
       <c r="F38" s="27" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -48372,19 +48457,19 @@
     <row r="41" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>2574</v>
-      </c>
-      <c r="E42" s="355" t="s">
-        <v>2582</v>
-      </c>
-      <c r="F42" s="365"/>
-      <c r="G42" s="365"/>
-      <c r="H42" s="365"/>
-      <c r="I42" s="365"/>
-      <c r="J42" s="365"/>
-      <c r="K42" s="365"/>
-      <c r="L42" s="365"/>
-      <c r="M42" s="356"/>
+        <v>2573</v>
+      </c>
+      <c r="E42" s="353" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F42" s="363"/>
+      <c r="G42" s="363"/>
+      <c r="H42" s="363"/>
+      <c r="I42" s="363"/>
+      <c r="J42" s="363"/>
+      <c r="K42" s="363"/>
+      <c r="L42" s="363"/>
+      <c r="M42" s="354"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -48393,10 +48478,10 @@
       <c r="C43" t="s">
         <v>2187</v>
       </c>
-      <c r="E43" s="297" t="s">
+      <c r="E43" s="295" t="s">
         <v>1458</v>
       </c>
-      <c r="F43" s="298" t="s">
+      <c r="F43" s="296" t="s">
         <v>1902</v>
       </c>
       <c r="G43" s="27"/>
@@ -48409,7 +48494,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="B44" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="E44" s="50" t="s">
         <v>402</v>
@@ -48473,7 +48558,7 @@
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1">
       <c r="A47" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="E47" s="50"/>
       <c r="F47" s="51"/>
@@ -48487,7 +48572,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="E48" s="50"/>
       <c r="F48" s="51"/>
@@ -48503,7 +48588,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="E49" s="50"/>
       <c r="F49" s="51"/>
@@ -48521,7 +48606,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1">
       <c r="A50" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="E50" s="50"/>
       <c r="F50" s="51"/>
@@ -48539,7 +48624,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" thickBot="1">
       <c r="A51" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="51"/>
@@ -48553,7 +48638,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E52" s="50"/>
       <c r="F52" s="51"/>
@@ -48587,7 +48672,7 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" thickBot="1">
       <c r="A54" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="E54" s="50"/>
       <c r="F54" s="115"/>
@@ -48605,7 +48690,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="E55" s="50"/>
       <c r="F55" s="51"/>
@@ -48627,7 +48712,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C57" t="s">
         <v>1464</v>
@@ -48644,7 +48729,7 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" thickBot="1">
       <c r="A58" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C58" t="s">
         <v>417</v>
@@ -48661,18 +48746,18 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -48680,32 +48765,32 @@
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="64" spans="1:15" ht="23.25">
-      <c r="A64" s="311" t="s">
-        <v>2613</v>
-      </c>
-      <c r="B64" s="311"/>
-      <c r="C64" s="311"/>
-      <c r="D64" s="311"/>
-      <c r="G64" s="355" t="s">
-        <v>2582</v>
-      </c>
-      <c r="H64" s="365"/>
-      <c r="I64" s="365"/>
-      <c r="J64" s="365"/>
-      <c r="K64" s="365"/>
-      <c r="L64" s="365"/>
-      <c r="M64" s="365"/>
-      <c r="N64" s="365"/>
-      <c r="O64" s="356"/>
+      <c r="A64" s="309" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B64" s="309"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="309"/>
+      <c r="G64" s="353" t="s">
+        <v>2581</v>
+      </c>
+      <c r="H64" s="363"/>
+      <c r="I64" s="363"/>
+      <c r="J64" s="363"/>
+      <c r="K64" s="363"/>
+      <c r="L64" s="363"/>
+      <c r="M64" s="363"/>
+      <c r="N64" s="363"/>
+      <c r="O64" s="354"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" thickBot="1">
       <c r="B65" t="s">
         <v>1500</v>
       </c>
-      <c r="G65" s="297" t="s">
+      <c r="G65" s="295" t="s">
         <v>1458</v>
       </c>
-      <c r="H65" s="310" t="s">
+      <c r="H65" s="308" t="s">
         <v>1902</v>
       </c>
       <c r="I65" s="27"/>
@@ -48718,7 +48803,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="B66" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="G66" s="50" t="s">
         <v>1110</v>
@@ -48727,23 +48812,23 @@
         <v>1632</v>
       </c>
       <c r="I66" s="115"/>
-      <c r="J66" s="299" t="s">
+      <c r="J66" s="297" t="s">
         <v>1632</v>
       </c>
-      <c r="K66" s="300"/>
-      <c r="L66" s="301"/>
-      <c r="M66" s="299"/>
+      <c r="K66" s="298"/>
+      <c r="L66" s="299"/>
+      <c r="M66" s="297"/>
       <c r="N66" s="51"/>
       <c r="O66" s="52"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="313"/>
-      <c r="B67" s="313" t="s">
-        <v>2614</v>
-      </c>
-      <c r="C67" s="313"/>
-      <c r="D67" s="313" t="s">
-        <v>2625</v>
+      <c r="A67" s="311"/>
+      <c r="B67" s="311" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C67" s="311"/>
+      <c r="D67" s="311" t="s">
+        <v>2624</v>
       </c>
       <c r="G67" s="50" t="s">
         <v>536</v>
@@ -48752,24 +48837,24 @@
         <v>20</v>
       </c>
       <c r="I67" s="115"/>
-      <c r="J67" s="299"/>
+      <c r="J67" s="297"/>
       <c r="K67" s="50" t="s">
         <v>58</v>
       </c>
       <c r="L67" s="52" t="s">
         <v>1644</v>
       </c>
-      <c r="M67" s="307"/>
+      <c r="M67" s="305"/>
       <c r="N67" s="51"/>
       <c r="O67" s="52"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="313" t="s">
+      <c r="A68" s="311" t="s">
         <v>144</v>
       </c>
-      <c r="B68" s="313"/>
-      <c r="C68" s="313"/>
-      <c r="D68" s="313"/>
+      <c r="B68" s="311"/>
+      <c r="C68" s="311"/>
+      <c r="D68" s="311"/>
       <c r="G68" s="50" t="s">
         <v>1569</v>
       </c>
@@ -48777,24 +48862,24 @@
         <v>1632</v>
       </c>
       <c r="I68" s="51"/>
-      <c r="J68" s="299"/>
+      <c r="J68" s="297"/>
       <c r="K68" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="L68" s="302">
+      <c r="L68" s="300">
         <v>0</v>
       </c>
-      <c r="M68" s="307"/>
+      <c r="M68" s="305"/>
       <c r="N68" s="51"/>
       <c r="O68" s="52"/>
     </row>
     <row r="69" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A69" s="313" t="s">
-        <v>2615</v>
-      </c>
-      <c r="B69" s="313"/>
-      <c r="C69" s="313"/>
-      <c r="D69" s="313"/>
+      <c r="A69" s="311" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B69" s="311"/>
+      <c r="C69" s="311"/>
+      <c r="D69" s="311"/>
       <c r="E69" t="s">
         <v>2022</v>
       </c>
@@ -48805,10 +48890,10 @@
         <v>20</v>
       </c>
       <c r="I69" s="51"/>
-      <c r="J69" s="299"/>
-      <c r="K69" s="303"/>
-      <c r="L69" s="308"/>
-      <c r="M69" s="309"/>
+      <c r="J69" s="297"/>
+      <c r="K69" s="301"/>
+      <c r="L69" s="306"/>
+      <c r="M69" s="307"/>
       <c r="N69" s="27"/>
       <c r="O69" s="52"/>
     </row>
@@ -48823,16 +48908,16 @@
         <v>2004</v>
       </c>
       <c r="I70" s="51"/>
-      <c r="J70" s="299"/>
-      <c r="K70" s="299"/>
-      <c r="L70" s="299"/>
-      <c r="M70" s="299"/>
+      <c r="J70" s="297"/>
+      <c r="K70" s="297"/>
+      <c r="L70" s="297"/>
+      <c r="M70" s="297"/>
       <c r="N70" s="51"/>
       <c r="O70" s="52"/>
     </row>
     <row r="71" spans="1:15">
       <c r="B71" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="G71" s="50" t="s">
         <v>403</v>
@@ -48844,15 +48929,15 @@
       <c r="J71" s="51" t="s">
         <v>2004</v>
       </c>
-      <c r="K71" s="300"/>
-      <c r="L71" s="301"/>
-      <c r="M71" s="299"/>
+      <c r="K71" s="298"/>
+      <c r="L71" s="299"/>
+      <c r="M71" s="297"/>
       <c r="N71" s="51"/>
       <c r="O71" s="52"/>
     </row>
     <row r="72" spans="1:15">
       <c r="B72" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="G72" s="50" t="s">
         <v>1937</v>
@@ -48861,24 +48946,24 @@
         <v>2004</v>
       </c>
       <c r="I72" s="51"/>
-      <c r="J72" s="299"/>
+      <c r="J72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>58</v>
       </c>
       <c r="L72" s="52" t="s">
         <v>1644</v>
       </c>
-      <c r="M72" s="299"/>
+      <c r="M72" s="297"/>
       <c r="N72" s="51"/>
       <c r="O72" s="52"/>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" s="56" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="C73" s="56"/>
       <c r="E73" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="G73" s="50" t="s">
         <v>405</v>
@@ -48887,14 +48972,14 @@
         <v>30</v>
       </c>
       <c r="I73" s="51"/>
-      <c r="J73" s="299"/>
+      <c r="J73" s="297"/>
       <c r="K73" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="L73" s="302">
+      <c r="L73" s="300">
         <v>0</v>
       </c>
-      <c r="M73" s="299"/>
+      <c r="M73" s="297"/>
       <c r="N73" s="51"/>
       <c r="O73" s="52"/>
     </row>
@@ -48906,15 +48991,15 @@
       <c r="H74" s="51"/>
       <c r="I74" s="51"/>
       <c r="J74" s="51"/>
-      <c r="K74" s="303"/>
-      <c r="L74" s="308"/>
+      <c r="K74" s="301"/>
+      <c r="L74" s="306"/>
       <c r="M74" s="51"/>
       <c r="N74" s="51"/>
       <c r="O74" s="52"/>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="56" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -48937,7 +49022,7 @@
       </c>
       <c r="G76" s="50"/>
       <c r="H76" s="115" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="I76" s="51"/>
       <c r="J76" s="115"/>
@@ -48949,11 +49034,11 @@
     </row>
     <row r="77" spans="1:15">
       <c r="B77" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="G77" s="50"/>
       <c r="H77" s="115" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="I77" s="51"/>
       <c r="J77" s="51"/>
@@ -48978,7 +49063,7 @@
     <row r="79" spans="1:15">
       <c r="G79" s="33"/>
       <c r="H79" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="I79" s="27"/>
       <c r="J79" s="27"/>
@@ -48990,10 +49075,10 @@
     </row>
     <row r="80" spans="1:15" ht="15.75" thickBot="1">
       <c r="A80" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="D80" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -49001,7 +49086,7 @@
       <c r="F80" s="51"/>
       <c r="G80" s="243"/>
       <c r="H80" s="36" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
@@ -49022,16 +49107,16 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="28.5">
+      <c r="A82" s="310" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B82" s="310"/>
+      <c r="D82" t="s">
         <v>2631</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="28.5">
-      <c r="A82" s="312" t="s">
-        <v>2620</v>
-      </c>
-      <c r="B82" s="312"/>
-      <c r="D82" t="s">
-        <v>2632</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -49039,7 +49124,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C83" t="s">
         <v>1644</v>
@@ -49056,7 +49141,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -49127,7 +49212,7 @@
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="L89" s="27"/>
       <c r="M89" s="27"/>
@@ -49184,7 +49269,7 @@
       </c>
       <c r="H92" s="33"/>
       <c r="I92" s="27" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="J92" s="27"/>
       <c r="K92" s="34"/>
@@ -49206,7 +49291,7 @@
       <c r="J93" s="27"/>
       <c r="K93" s="34"/>
       <c r="L93" s="27"/>
-      <c r="M93" s="304"/>
+      <c r="M93" s="302"/>
       <c r="N93" s="27"/>
       <c r="O93" s="27"/>
     </row>
@@ -49257,7 +49342,7 @@
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
-      <c r="I96" s="304"/>
+      <c r="I96" s="302"/>
       <c r="J96" s="27"/>
       <c r="K96" s="27"/>
       <c r="L96" s="27"/>
@@ -50643,8 +50728,8 @@
       <c r="O177" s="27"/>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="305"/>
-      <c r="B178" s="305"/>
+      <c r="A178" s="303"/>
+      <c r="B178" s="303"/>
       <c r="C178" s="167"/>
       <c r="D178" s="27"/>
       <c r="E178" s="27"/>
@@ -50660,8 +50745,8 @@
       <c r="O178" s="27"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="305"/>
-      <c r="B179" s="305"/>
+      <c r="A179" s="303"/>
+      <c r="B179" s="303"/>
       <c r="C179" s="27"/>
       <c r="D179" s="27"/>
       <c r="E179" s="27"/>
@@ -51035,7 +51120,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="167"/>
-      <c r="B201" s="306"/>
+      <c r="B201" s="304"/>
       <c r="C201" s="27"/>
       <c r="D201" s="27"/>
       <c r="E201" s="51"/>
@@ -51051,7 +51136,7 @@
       <c r="O201" s="27"/>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="306"/>
+      <c r="A202" s="304"/>
       <c r="B202" s="27"/>
       <c r="C202" s="27"/>
       <c r="D202" s="27"/>
@@ -51460,7 +51545,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="167"/>
-      <c r="B226" s="306"/>
+      <c r="B226" s="304"/>
       <c r="C226" s="27"/>
       <c r="D226" s="27"/>
       <c r="E226" s="51"/>
@@ -51493,7 +51578,7 @@
       <c r="O227" s="27"/>
     </row>
     <row r="228" spans="1:15">
-      <c r="A228" s="306"/>
+      <c r="A228" s="304"/>
       <c r="B228" s="27"/>
       <c r="C228" s="27"/>
       <c r="D228" s="27"/>
@@ -51641,49 +51726,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="364" t="s">
         <v>2029</v>
       </c>
-      <c r="C2" s="367"/>
-      <c r="D2" s="368"/>
-      <c r="F2" s="366" t="s">
-        <v>2549</v>
-      </c>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
-      <c r="I2" s="368"/>
-      <c r="K2" s="366" t="s">
-        <v>2551</v>
-      </c>
-      <c r="L2" s="367"/>
-      <c r="M2" s="368"/>
+      <c r="C2" s="365"/>
+      <c r="D2" s="366"/>
+      <c r="F2" s="364" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G2" s="365"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="366"/>
+      <c r="K2" s="364" t="s">
+        <v>2550</v>
+      </c>
+      <c r="L2" s="365"/>
+      <c r="M2" s="366"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="369"/>
-      <c r="C3" s="370"/>
-      <c r="D3" s="371"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="370"/>
-      <c r="H3" s="370"/>
-      <c r="I3" s="371"/>
-      <c r="K3" s="369"/>
-      <c r="L3" s="370"/>
-      <c r="M3" s="371"/>
+      <c r="B3" s="367"/>
+      <c r="C3" s="368"/>
+      <c r="D3" s="369"/>
+      <c r="F3" s="367"/>
+      <c r="G3" s="368"/>
+      <c r="H3" s="368"/>
+      <c r="I3" s="369"/>
+      <c r="K3" s="367"/>
+      <c r="L3" s="368"/>
+      <c r="M3" s="369"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="369"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="371"/>
-      <c r="F4" s="369"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="371"/>
-      <c r="K4" s="369"/>
-      <c r="L4" s="370"/>
-      <c r="M4" s="371"/>
+      <c r="B4" s="367"/>
+      <c r="C4" s="368"/>
+      <c r="D4" s="369"/>
+      <c r="F4" s="367"/>
+      <c r="G4" s="368"/>
+      <c r="H4" s="368"/>
+      <c r="I4" s="369"/>
+      <c r="K4" s="367"/>
+      <c r="L4" s="368"/>
+      <c r="M4" s="369"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="372" t="s">
+      <c r="A5" s="370" t="s">
         <v>1908</v>
       </c>
       <c r="B5" s="80"/>
@@ -51710,7 +51795,7 @@
       <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="372"/>
+      <c r="A6" s="370"/>
       <c r="B6" s="80"/>
       <c r="C6" s="39" t="s">
         <v>58</v>
@@ -51720,25 +51805,25 @@
       </c>
       <c r="F6" s="80"/>
       <c r="G6" s="39" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="I6" s="41"/>
       <c r="K6" s="80" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="372"/>
+      <c r="A7" s="370"/>
       <c r="B7" s="80"/>
       <c r="C7" s="39" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D7" s="41">
         <v>750</v>
@@ -51748,7 +51833,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="34"/>
       <c r="K7" s="80" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="L7" s="39">
         <v>50000</v>
@@ -51768,80 +51853,80 @@
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="372" t="s">
+      <c r="A9" s="370" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="292" t="s">
-        <v>2548</v>
+      <c r="B9" s="290" t="s">
+        <v>2547</v>
       </c>
       <c r="C9" s="141"/>
       <c r="D9" s="242"/>
-      <c r="F9" s="292" t="s">
-        <v>2556</v>
+      <c r="F9" s="290" t="s">
+        <v>2555</v>
       </c>
       <c r="G9" s="141"/>
       <c r="H9" s="141"/>
       <c r="I9" s="242"/>
-      <c r="K9" s="292" t="s">
-        <v>2555</v>
+      <c r="K9" s="290" t="s">
+        <v>2554</v>
       </c>
       <c r="L9" s="141"/>
       <c r="M9" s="242"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="372"/>
-      <c r="B10" s="292"/>
-      <c r="C10" s="293" t="s">
-        <v>2558</v>
+      <c r="A10" s="370"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="291" t="s">
+        <v>2557</v>
       </c>
       <c r="D10" s="242"/>
       <c r="E10" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F10" s="290"/>
+      <c r="G10" s="141" t="s">
         <v>2560</v>
-      </c>
-      <c r="F10" s="292"/>
-      <c r="G10" s="141" t="s">
-        <v>2561</v>
       </c>
       <c r="H10" s="242"/>
       <c r="I10" s="242"/>
-      <c r="K10" s="292"/>
+      <c r="K10" s="290"/>
       <c r="L10" s="141" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="M10" s="242"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="372"/>
-      <c r="B11" s="292"/>
+      <c r="A11" s="370"/>
+      <c r="B11" s="290"/>
       <c r="C11" s="141"/>
       <c r="D11" s="242"/>
-      <c r="F11" s="292"/>
+      <c r="F11" s="290"/>
       <c r="G11" s="141"/>
       <c r="H11" s="242" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="I11" s="242"/>
       <c r="J11" t="s">
-        <v>2559</v>
-      </c>
-      <c r="K11" s="292"/>
+        <v>2558</v>
+      </c>
+      <c r="K11" s="290"/>
       <c r="L11" s="141"/>
       <c r="M11" s="242" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="372"/>
-      <c r="B12" s="292"/>
+      <c r="A12" s="370"/>
+      <c r="B12" s="290"/>
       <c r="C12" s="141"/>
       <c r="D12" s="242"/>
-      <c r="F12" s="292"/>
+      <c r="F12" s="290"/>
       <c r="G12" s="141" t="s">
         <v>137</v>
       </c>
       <c r="H12" s="242"/>
       <c r="I12" s="242"/>
-      <c r="K12" s="292"/>
+      <c r="K12" s="290"/>
       <c r="L12" s="141" t="s">
         <v>137</v>
       </c>
@@ -51851,13 +51936,13 @@
       <c r="B13" s="33"/>
       <c r="C13" s="27"/>
       <c r="D13" s="34"/>
-      <c r="F13" s="292"/>
+      <c r="F13" s="290"/>
       <c r="G13" s="141"/>
       <c r="H13" s="242" t="s">
         <v>1805</v>
       </c>
       <c r="I13" s="242"/>
-      <c r="K13" s="292"/>
+      <c r="K13" s="290"/>
       <c r="L13" s="141"/>
       <c r="M13" s="242" t="s">
         <v>1805</v>
@@ -51877,49 +51962,49 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="F18" t="s">
+        <v>2568</v>
+      </c>
+      <c r="H18" t="s">
         <v>2569</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2570</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="H19" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="H20" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="H21" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1">
@@ -51946,21 +52031,21 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="B28" s="43"/>
-      <c r="D28" s="294"/>
-      <c r="E28" s="295"/>
-      <c r="F28" s="296"/>
+      <c r="D28" s="292"/>
+      <c r="E28" s="293"/>
+      <c r="F28" s="294"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="B29" s="43"/>
-      <c r="D29" s="294"/>
-      <c r="E29" s="295"/>
-      <c r="F29" s="296"/>
+      <c r="D29" s="292"/>
+      <c r="E29" s="293"/>
+      <c r="F29" s="294"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="B30" s="43"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="295"/>
-      <c r="F30" s="296"/>
+      <c r="D30" s="292"/>
+      <c r="E30" s="293"/>
+      <c r="F30" s="294"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="43"/>
@@ -52011,23 +52096,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="372" t="s">
         <v>2199</v>
       </c>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="I1" s="374" t="s">
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="372"/>
+      <c r="I1" s="372" t="s">
         <v>2211</v>
       </c>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
-      <c r="N1" s="374"/>
-      <c r="O1" s="374"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
+      <c r="M1" s="372"/>
+      <c r="N1" s="372"/>
+      <c r="O1" s="372"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -52183,28 +52268,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="353" t="s">
+      <c r="A12" s="351" t="s">
         <v>2213</v>
       </c>
-      <c r="B12" s="373"/>
-      <c r="C12" s="373"/>
-      <c r="D12" s="373"/>
-      <c r="E12" s="373"/>
-      <c r="F12" s="373"/>
-      <c r="G12" s="373"/>
-      <c r="H12" s="354"/>
-      <c r="I12" s="353" t="s">
+      <c r="B12" s="371"/>
+      <c r="C12" s="371"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="371"/>
+      <c r="F12" s="371"/>
+      <c r="G12" s="371"/>
+      <c r="H12" s="352"/>
+      <c r="I12" s="351" t="s">
         <v>2213</v>
       </c>
-      <c r="J12" s="373"/>
-      <c r="K12" s="373"/>
-      <c r="L12" s="373"/>
-      <c r="M12" s="373"/>
-      <c r="N12" s="373"/>
-      <c r="O12" s="373"/>
-      <c r="P12" s="373"/>
-      <c r="Q12" s="373"/>
-      <c r="R12" s="354"/>
+      <c r="J12" s="371"/>
+      <c r="K12" s="371"/>
+      <c r="L12" s="371"/>
+      <c r="M12" s="371"/>
+      <c r="N12" s="371"/>
+      <c r="O12" s="371"/>
+      <c r="P12" s="371"/>
+      <c r="Q12" s="371"/>
+      <c r="R12" s="352"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -52432,14 +52517,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="374" t="s">
+      <c r="A24" s="372" t="s">
         <v>2199</v>
       </c>
-      <c r="B24" s="374"/>
-      <c r="C24" s="374"/>
-      <c r="D24" s="374"/>
-      <c r="E24" s="374"/>
-      <c r="F24" s="374"/>
+      <c r="B24" s="372"/>
+      <c r="C24" s="372"/>
+      <c r="D24" s="372"/>
+      <c r="E24" s="372"/>
+      <c r="F24" s="372"/>
       <c r="H24" s="251" t="s">
         <v>2211</v>
       </c>
@@ -52449,11 +52534,11 @@
       <c r="L24" s="251"/>
       <c r="M24" s="251"/>
       <c r="N24" s="251"/>
-      <c r="P24" s="374" t="s">
+      <c r="P24" s="372" t="s">
         <v>2252</v>
       </c>
-      <c r="Q24" s="374"/>
-      <c r="R24" s="374"/>
+      <c r="Q24" s="372"/>
+      <c r="R24" s="372"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -52693,28 +52778,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="353" t="s">
+      <c r="A35" s="351" t="s">
         <v>2253</v>
       </c>
-      <c r="B35" s="373"/>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
-      <c r="F35" s="373"/>
-      <c r="G35" s="373"/>
-      <c r="H35" s="354"/>
-      <c r="I35" s="353" t="s">
+      <c r="B35" s="371"/>
+      <c r="C35" s="371"/>
+      <c r="D35" s="371"/>
+      <c r="E35" s="371"/>
+      <c r="F35" s="371"/>
+      <c r="G35" s="371"/>
+      <c r="H35" s="352"/>
+      <c r="I35" s="351" t="s">
         <v>1048</v>
       </c>
-      <c r="J35" s="373"/>
-      <c r="K35" s="373"/>
-      <c r="L35" s="373"/>
-      <c r="M35" s="373"/>
-      <c r="N35" s="373"/>
-      <c r="O35" s="373"/>
-      <c r="P35" s="373"/>
-      <c r="Q35" s="373"/>
-      <c r="R35" s="354"/>
+      <c r="J35" s="371"/>
+      <c r="K35" s="371"/>
+      <c r="L35" s="371"/>
+      <c r="M35" s="371"/>
+      <c r="N35" s="371"/>
+      <c r="O35" s="371"/>
+      <c r="P35" s="371"/>
+      <c r="Q35" s="371"/>
+      <c r="R35" s="352"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5445" uniqueCount="2930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5466" uniqueCount="2943">
   <si>
     <t>USER</t>
   </si>
@@ -9077,6 +9077,45 @@
   </si>
   <si>
     <t>toy</t>
+  </si>
+  <si>
+    <t>Iterator&lt;String&gt; readStudentsCollection=studentsCollection.iterator();</t>
+  </si>
+  <si>
+    <t>while(readStudentsCollection.hasNext())</t>
+  </si>
+  <si>
+    <t>String studentName=readStudentsCollection.next();</t>
+  </si>
+  <si>
+    <t>studentsCollection</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>iterate = repeat cycle</t>
+  </si>
+  <si>
+    <t>readStudentsCollection</t>
+  </si>
+  <si>
+    <t>while(true)</t>
+  </si>
+  <si>
+    <t>String studentName="mike";</t>
+  </si>
+  <si>
+    <t>System.out.println(studentName);</t>
+  </si>
+  <si>
+    <t>hasNext</t>
+  </si>
+  <si>
+    <t>true/false based upon if there are more items to read from current location</t>
+  </si>
+  <si>
+    <t>move cursor to the next line… read result from the pointer</t>
   </si>
 </sst>
 </file>
@@ -10387,6 +10426,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10502,12 +10547,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10841,13 +10880,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="351" t="s">
+      <c r="H3" s="357" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="352"/>
-      <c r="J3" s="352"/>
-      <c r="K3" s="352"/>
-      <c r="L3" s="353"/>
+      <c r="I3" s="358"/>
+      <c r="J3" s="358"/>
+      <c r="K3" s="358"/>
+      <c r="L3" s="359"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
@@ -10868,20 +10907,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="354" t="s">
+      <c r="G6" s="360" t="s">
         <v>1437</v>
       </c>
-      <c r="H6" s="355"/>
+      <c r="H6" s="361"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="354" t="s">
+      <c r="J6" s="360" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="355"/>
+      <c r="K6" s="361"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="354" t="s">
+      <c r="M6" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="355"/>
+      <c r="N6" s="361"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="123" t="s">
@@ -10899,20 +10938,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="356" t="s">
+      <c r="G8" s="362" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="357"/>
+      <c r="H8" s="363"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="356" t="s">
+      <c r="J8" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="357"/>
+      <c r="K8" s="363"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="356" t="s">
+      <c r="M8" s="362" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="357"/>
+      <c r="N8" s="363"/>
       <c r="Q8" s="140"/>
     </row>
     <row r="9" spans="1:18">
@@ -10928,29 +10967,29 @@
       <c r="Q9" s="140"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="347" t="s">
+      <c r="F10" s="353" t="s">
         <v>2108</v>
       </c>
-      <c r="G10" s="348"/>
-      <c r="H10" s="348"/>
-      <c r="I10" s="348"/>
-      <c r="J10" s="348"/>
-      <c r="K10" s="348"/>
-      <c r="L10" s="348"/>
-      <c r="M10" s="348"/>
-      <c r="N10" s="348"/>
+      <c r="G10" s="354"/>
+      <c r="H10" s="354"/>
+      <c r="I10" s="354"/>
+      <c r="J10" s="354"/>
+      <c r="K10" s="354"/>
+      <c r="L10" s="354"/>
+      <c r="M10" s="354"/>
+      <c r="N10" s="354"/>
       <c r="Q10" s="140"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="349"/>
-      <c r="G11" s="350"/>
-      <c r="H11" s="350"/>
-      <c r="I11" s="350"/>
-      <c r="J11" s="350"/>
-      <c r="K11" s="350"/>
-      <c r="L11" s="350"/>
-      <c r="M11" s="350"/>
-      <c r="N11" s="350"/>
+      <c r="F11" s="355"/>
+      <c r="G11" s="356"/>
+      <c r="H11" s="356"/>
+      <c r="I11" s="356"/>
+      <c r="J11" s="356"/>
+      <c r="K11" s="356"/>
+      <c r="L11" s="356"/>
+      <c r="M11" s="356"/>
+      <c r="N11" s="356"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -10992,17 +11031,17 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
       <c r="D14" s="123"/>
-      <c r="F14" s="344" t="s">
+      <c r="F14" s="350" t="s">
         <v>2441</v>
       </c>
-      <c r="G14" s="345"/>
-      <c r="H14" s="345"/>
-      <c r="I14" s="345"/>
-      <c r="J14" s="345"/>
-      <c r="K14" s="345"/>
-      <c r="L14" s="345"/>
-      <c r="M14" s="345"/>
-      <c r="N14" s="346"/>
+      <c r="G14" s="351"/>
+      <c r="H14" s="351"/>
+      <c r="I14" s="351"/>
+      <c r="J14" s="351"/>
+      <c r="K14" s="351"/>
+      <c r="L14" s="351"/>
+      <c r="M14" s="351"/>
+      <c r="N14" s="352"/>
     </row>
     <row r="15" spans="1:18">
       <c r="F15" s="137"/>
@@ -24145,7 +24184,7 @@
       <c r="K3" s="99"/>
       <c r="L3" s="322"/>
       <c r="M3" s="100"/>
-      <c r="N3" s="376" t="s">
+      <c r="N3" s="382" t="s">
         <v>2694</v>
       </c>
       <c r="O3" s="51"/>
@@ -24178,7 +24217,7 @@
         <v>1008</v>
       </c>
       <c r="M4" s="216"/>
-      <c r="N4" s="376"/>
+      <c r="N4" s="382"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -24195,7 +24234,7 @@
         <v>12345</v>
       </c>
       <c r="M5" s="326"/>
-      <c r="N5" s="376"/>
+      <c r="N5" s="382"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -24213,7 +24252,7 @@
       <c r="K6" s="74"/>
       <c r="L6" s="74"/>
       <c r="M6" s="74"/>
-      <c r="N6" s="376"/>
+      <c r="N6" s="382"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -24237,7 +24276,7 @@
       <c r="K7" s="99"/>
       <c r="L7" s="322"/>
       <c r="M7" s="100"/>
-      <c r="N7" s="376"/>
+      <c r="N7" s="382"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -24259,7 +24298,7 @@
         <v>524</v>
       </c>
       <c r="M8" s="216"/>
-      <c r="N8" s="376"/>
+      <c r="N8" s="382"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -24281,7 +24320,7 @@
         <v>12346</v>
       </c>
       <c r="M9" s="326"/>
-      <c r="N9" s="376"/>
+      <c r="N9" s="382"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -24299,7 +24338,7 @@
       <c r="K10" s="74"/>
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
-      <c r="N10" s="376"/>
+      <c r="N10" s="382"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
@@ -24317,7 +24356,7 @@
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
       <c r="M11" s="74"/>
-      <c r="N11" s="376"/>
+      <c r="N11" s="382"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
@@ -24333,7 +24372,7 @@
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
       <c r="M12" s="74"/>
-      <c r="N12" s="376"/>
+      <c r="N12" s="382"/>
       <c r="O12" s="51"/>
       <c r="P12" s="51"/>
       <c r="Q12" s="52"/>
@@ -24346,7 +24385,7 @@
       <c r="K13" s="51"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
-      <c r="N13" s="376"/>
+      <c r="N13" s="382"/>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
       <c r="Q13" s="52"/>
@@ -24367,7 +24406,7 @@
       <c r="K14" s="99"/>
       <c r="L14" s="322"/>
       <c r="M14" s="100"/>
-      <c r="N14" s="376"/>
+      <c r="N14" s="382"/>
       <c r="O14" s="51"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="52"/>
@@ -24390,7 +24429,7 @@
         <v>559</v>
       </c>
       <c r="M15" s="216"/>
-      <c r="N15" s="376"/>
+      <c r="N15" s="382"/>
       <c r="O15" s="51"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="52"/>
@@ -24410,7 +24449,7 @@
         <v>123123</v>
       </c>
       <c r="M16" s="326"/>
-      <c r="N16" s="376"/>
+      <c r="N16" s="382"/>
       <c r="O16" s="51"/>
       <c r="P16" s="51"/>
       <c r="Q16" s="52"/>
@@ -36807,12 +36846,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="D2" s="379" t="s">
+      <c r="D2" s="385" t="s">
         <v>2862</v>
       </c>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
+      <c r="E2" s="385"/>
+      <c r="F2" s="385"/>
+      <c r="G2" s="385"/>
     </row>
     <row r="3" spans="2:13">
       <c r="D3" s="43" t="s">
@@ -36933,22 +36972,22 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="377" t="s">
+      <c r="B22" s="383" t="s">
         <v>2872</v>
       </c>
-      <c r="C22" s="377"/>
+      <c r="C22" s="383"/>
       <c r="D22" s="106"/>
-      <c r="E22" s="377" t="s">
+      <c r="E22" s="383" t="s">
         <v>1204</v>
       </c>
-      <c r="F22" s="377"/>
-      <c r="G22" s="377"/>
+      <c r="F22" s="383"/>
+      <c r="G22" s="383"/>
       <c r="H22" s="106"/>
-      <c r="I22" s="377" t="s">
+      <c r="I22" s="383" t="s">
         <v>2873</v>
       </c>
-      <c r="J22" s="377"/>
-      <c r="K22" s="377"/>
+      <c r="J22" s="383"/>
+      <c r="K22" s="383"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -37406,10 +37445,10 @@
       <c r="K55" s="29"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="B56" s="378" t="s">
+      <c r="B56" s="384" t="s">
         <v>2852</v>
       </c>
-      <c r="C56" s="378"/>
+      <c r="C56" s="384"/>
       <c r="I56" s="186" t="s">
         <v>1773</v>
       </c>
@@ -37423,7 +37462,7 @@
       <c r="B57" s="43" t="s">
         <v>2848</v>
       </c>
-      <c r="C57" s="379" t="s">
+      <c r="C57" s="385" t="s">
         <v>2849</v>
       </c>
       <c r="I57" s="187" t="s">
@@ -37439,7 +37478,7 @@
       <c r="B58" s="43" t="s">
         <v>2850</v>
       </c>
-      <c r="C58" s="379"/>
+      <c r="C58" s="385"/>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
@@ -37451,7 +37490,7 @@
       <c r="B59" s="43" t="s">
         <v>2851</v>
       </c>
-      <c r="C59" s="379"/>
+      <c r="C59" s="385"/>
       <c r="G59" t="s">
         <v>1175</v>
       </c>
@@ -37469,10 +37508,10 @@
       <c r="K60" s="29"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="B61" s="378" t="s">
+      <c r="B61" s="384" t="s">
         <v>2852</v>
       </c>
-      <c r="C61" s="378"/>
+      <c r="C61" s="384"/>
       <c r="I61" s="186" t="s">
         <v>1773</v>
       </c>
@@ -37483,7 +37522,7 @@
       <c r="B62" s="43" t="s">
         <v>2854</v>
       </c>
-      <c r="C62" s="379" t="s">
+      <c r="C62" s="385" t="s">
         <v>15</v>
       </c>
       <c r="I62" s="186" t="s">
@@ -37496,7 +37535,7 @@
       <c r="B63" s="43" t="s">
         <v>2855</v>
       </c>
-      <c r="C63" s="379"/>
+      <c r="C63" s="385"/>
       <c r="D63" t="s">
         <v>2853</v>
       </c>
@@ -37508,7 +37547,7 @@
       <c r="B64" s="43" t="s">
         <v>2856</v>
       </c>
-      <c r="C64" s="379"/>
+      <c r="C64" s="385"/>
       <c r="G64" t="s">
         <v>1098</v>
       </c>
@@ -39459,10 +39498,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF310"/>
+  <dimension ref="A1:AF327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39519,7 +39558,7 @@
       <c r="I2" t="s">
         <v>1255</v>
       </c>
-      <c r="J2" s="383" t="s">
+      <c r="J2" s="344" t="s">
         <v>412</v>
       </c>
       <c r="K2" s="43"/>
@@ -39546,7 +39585,7 @@
       <c r="G3" s="130" t="s">
         <v>524</v>
       </c>
-      <c r="J3" s="383" t="s">
+      <c r="J3" s="344" t="s">
         <v>524</v>
       </c>
       <c r="K3" s="43"/>
@@ -39573,7 +39612,7 @@
       <c r="G4" s="130" t="s">
         <v>559</v>
       </c>
-      <c r="J4" s="383" t="s">
+      <c r="J4" s="344" t="s">
         <v>559</v>
       </c>
       <c r="K4" s="43"/>
@@ -39597,7 +39636,7 @@
       <c r="G5" s="130" t="s">
         <v>412</v>
       </c>
-      <c r="J5" s="383" t="s">
+      <c r="J5" s="344" t="s">
         <v>1535</v>
       </c>
       <c r="K5" s="43"/>
@@ -39621,7 +39660,7 @@
       <c r="G6" s="130" t="s">
         <v>1535</v>
       </c>
-      <c r="J6" s="383"/>
+      <c r="J6" s="344"/>
       <c r="K6" s="43"/>
       <c r="M6" s="340" t="s">
         <v>2388</v>
@@ -39642,35 +39681,35 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="381" t="s">
+      <c r="B8" s="387" t="s">
         <v>2366</v>
       </c>
-      <c r="C8" s="381"/>
-      <c r="F8" s="381" t="s">
+      <c r="C8" s="387"/>
+      <c r="F8" s="387" t="s">
         <v>2367</v>
       </c>
-      <c r="G8" s="381"/>
-      <c r="I8" s="381" t="s">
+      <c r="G8" s="387"/>
+      <c r="I8" s="387" t="s">
         <v>2367</v>
       </c>
-      <c r="J8" s="381"/>
+      <c r="J8" s="387"/>
       <c r="M8" s="233" t="s">
         <v>2422</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="381" t="s">
+      <c r="F9" s="387" t="s">
         <v>2368</v>
       </c>
-      <c r="G9" s="381"/>
-      <c r="I9" s="381" t="s">
+      <c r="G9" s="387"/>
+      <c r="I9" s="387" t="s">
         <v>2369</v>
       </c>
-      <c r="J9" s="381"/>
-      <c r="M9" s="382" t="s">
+      <c r="J9" s="387"/>
+      <c r="M9" s="388" t="s">
         <v>2367</v>
       </c>
-      <c r="N9" s="382"/>
+      <c r="N9" s="388"/>
     </row>
     <row r="10" spans="1:31">
       <c r="F10" t="s">
@@ -39685,19 +39724,19 @@
       </c>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="380" t="s">
+      <c r="E11" s="386" t="s">
         <v>2371</v>
       </c>
-      <c r="F11" s="380"/>
-      <c r="G11" s="380"/>
-      <c r="H11" s="380"/>
-      <c r="I11" s="380"/>
-      <c r="J11" s="380"/>
-      <c r="K11" s="380"/>
-      <c r="L11" s="380"/>
-      <c r="M11" s="380"/>
-      <c r="N11" s="380"/>
-      <c r="O11" s="380"/>
+      <c r="F11" s="386"/>
+      <c r="G11" s="386"/>
+      <c r="H11" s="386"/>
+      <c r="I11" s="386"/>
+      <c r="J11" s="386"/>
+      <c r="K11" s="386"/>
+      <c r="L11" s="386"/>
+      <c r="M11" s="386"/>
+      <c r="N11" s="386"/>
+      <c r="O11" s="386"/>
       <c r="R11" t="s">
         <v>2900</v>
       </c>
@@ -40181,7 +40220,7 @@
       <c r="B26" t="s">
         <v>2891</v>
       </c>
-      <c r="C26" s="384" t="s">
+      <c r="C26" s="345" t="s">
         <v>559</v>
       </c>
       <c r="F26" s="56" t="s">
@@ -40869,7 +40908,7 @@
       <c r="C59" s="38"/>
       <c r="D59" s="27"/>
       <c r="E59" s="167"/>
-      <c r="F59" s="385" t="s">
+      <c r="F59" s="346" t="s">
         <v>524</v>
       </c>
       <c r="G59" s="168"/>
@@ -41157,7 +41196,7 @@
       <c r="C70" s="38"/>
       <c r="D70" s="27"/>
       <c r="E70" s="232"/>
-      <c r="F70" s="387" t="s">
+      <c r="F70" s="348" t="s">
         <v>524</v>
       </c>
       <c r="G70" s="231"/>
@@ -41243,7 +41282,7 @@
       <c r="G72" s="230" t="s">
         <v>1017</v>
       </c>
-      <c r="I72" s="388" t="s">
+      <c r="I72" s="349" t="s">
         <v>517</v>
       </c>
       <c r="K72" s="27" t="s">
@@ -41266,13 +41305,13 @@
     </row>
     <row r="73" spans="1:19">
       <c r="B73" s="106"/>
-      <c r="C73" s="386"/>
+      <c r="C73" s="347"/>
       <c r="D73" s="106"/>
-      <c r="E73" s="386"/>
-      <c r="F73" s="386"/>
-      <c r="G73" s="386"/>
+      <c r="E73" s="347"/>
+      <c r="F73" s="347"/>
+      <c r="G73" s="347"/>
       <c r="H73" s="106"/>
-      <c r="I73" s="386"/>
+      <c r="I73" s="347"/>
       <c r="J73" s="106"/>
       <c r="K73" s="27"/>
       <c r="L73" s="38"/>
@@ -41282,15 +41321,15 @@
     </row>
     <row r="74" spans="1:19">
       <c r="B74" s="106"/>
-      <c r="C74" s="386"/>
+      <c r="C74" s="347"/>
       <c r="D74" s="106" t="s">
         <v>2924</v>
       </c>
-      <c r="E74" s="386"/>
-      <c r="F74" s="386"/>
-      <c r="G74" s="386"/>
+      <c r="E74" s="347"/>
+      <c r="F74" s="347"/>
+      <c r="G74" s="347"/>
       <c r="H74" s="106"/>
-      <c r="I74" s="386"/>
+      <c r="I74" s="347"/>
       <c r="J74" s="106"/>
       <c r="K74" s="27"/>
       <c r="L74" s="38"/>
@@ -41300,13 +41339,13 @@
     </row>
     <row r="75" spans="1:19">
       <c r="B75" s="106"/>
-      <c r="C75" s="386"/>
+      <c r="C75" s="347"/>
       <c r="D75" s="106"/>
-      <c r="E75" s="386"/>
-      <c r="F75" s="386"/>
-      <c r="G75" s="386"/>
+      <c r="E75" s="347"/>
+      <c r="F75" s="347"/>
+      <c r="G75" s="347"/>
       <c r="H75" s="106"/>
-      <c r="I75" s="386"/>
+      <c r="I75" s="347"/>
       <c r="J75" s="106"/>
       <c r="K75" s="27"/>
       <c r="L75" s="38"/>
@@ -41316,13 +41355,13 @@
     </row>
     <row r="76" spans="1:19" ht="15.75" thickBot="1">
       <c r="B76" s="106"/>
-      <c r="C76" s="386"/>
+      <c r="C76" s="347"/>
       <c r="D76" s="106"/>
-      <c r="E76" s="386"/>
-      <c r="F76" s="386"/>
-      <c r="G76" s="386"/>
+      <c r="E76" s="347"/>
+      <c r="F76" s="347"/>
+      <c r="G76" s="347"/>
       <c r="H76" s="106"/>
-      <c r="I76" s="386"/>
+      <c r="I76" s="347"/>
       <c r="J76" s="106"/>
       <c r="K76" s="27"/>
       <c r="L76" s="38"/>
@@ -41332,15 +41371,15 @@
     </row>
     <row r="77" spans="1:19" ht="15.75" thickBot="1">
       <c r="B77" s="106"/>
-      <c r="C77" s="386"/>
+      <c r="C77" s="347"/>
       <c r="D77" s="280" t="s">
         <v>1535</v>
       </c>
-      <c r="E77" s="386"/>
-      <c r="F77" s="386"/>
-      <c r="G77" s="386"/>
+      <c r="E77" s="347"/>
+      <c r="F77" s="347"/>
+      <c r="G77" s="347"/>
       <c r="H77" s="106"/>
-      <c r="I77" s="386"/>
+      <c r="I77" s="347"/>
       <c r="J77" s="106"/>
       <c r="K77" s="27"/>
       <c r="L77" s="38"/>
@@ -41350,19 +41389,19 @@
     </row>
     <row r="78" spans="1:19">
       <c r="B78" s="106"/>
-      <c r="C78" s="386" t="s">
+      <c r="C78" s="347" t="s">
         <v>1665</v>
       </c>
       <c r="D78" s="106" t="s">
         <v>2925</v>
       </c>
-      <c r="E78" s="386" t="s">
+      <c r="E78" s="347" t="s">
         <v>1266</v>
       </c>
-      <c r="F78" s="386"/>
-      <c r="G78" s="386"/>
+      <c r="F78" s="347"/>
+      <c r="G78" s="347"/>
       <c r="H78" s="106"/>
-      <c r="I78" s="386"/>
+      <c r="I78" s="347"/>
       <c r="J78" s="106"/>
       <c r="K78" s="27"/>
       <c r="L78" s="38"/>
@@ -41379,10 +41418,10 @@
       <c r="E79" s="186" t="s">
         <v>1057</v>
       </c>
-      <c r="F79" s="386"/>
-      <c r="G79" s="386"/>
+      <c r="F79" s="347"/>
+      <c r="G79" s="347"/>
       <c r="H79" s="106"/>
-      <c r="I79" s="386"/>
+      <c r="I79" s="347"/>
       <c r="J79" s="106"/>
       <c r="K79" s="27"/>
       <c r="L79" s="38"/>
@@ -41395,13 +41434,13 @@
         <v>1429</v>
       </c>
       <c r="B80" s="106"/>
-      <c r="C80" s="386"/>
+      <c r="C80" s="347"/>
       <c r="D80" s="106"/>
-      <c r="E80" s="386"/>
-      <c r="F80" s="386"/>
-      <c r="G80" s="386"/>
+      <c r="E80" s="347"/>
+      <c r="F80" s="347"/>
+      <c r="G80" s="347"/>
       <c r="H80" s="106"/>
-      <c r="I80" s="386"/>
+      <c r="I80" s="347"/>
       <c r="J80" s="106"/>
       <c r="K80" s="27"/>
       <c r="L80" s="38"/>
@@ -41411,13 +41450,13 @@
     </row>
     <row r="81" spans="1:19">
       <c r="B81" s="106"/>
-      <c r="C81" s="386"/>
+      <c r="C81" s="347"/>
       <c r="D81" s="106"/>
-      <c r="E81" s="386"/>
-      <c r="F81" s="386"/>
-      <c r="G81" s="386"/>
+      <c r="E81" s="347"/>
+      <c r="F81" s="347"/>
+      <c r="G81" s="347"/>
       <c r="H81" s="106"/>
-      <c r="I81" s="386"/>
+      <c r="I81" s="347"/>
       <c r="J81" s="106"/>
       <c r="K81" s="27"/>
       <c r="L81" s="38"/>
@@ -43390,7 +43429,7 @@
       <c r="M304" s="27"/>
       <c r="N304" s="34"/>
     </row>
-    <row r="305" spans="6:14">
+    <row r="305" spans="2:14">
       <c r="F305" s="33"/>
       <c r="G305" s="27"/>
       <c r="H305" s="27"/>
@@ -43401,7 +43440,7 @@
       <c r="M305" s="27"/>
       <c r="N305" s="34"/>
     </row>
-    <row r="306" spans="6:14">
+    <row r="306" spans="2:14">
       <c r="F306" s="33"/>
       <c r="G306" s="27"/>
       <c r="H306" s="27"/>
@@ -43412,7 +43451,7 @@
       <c r="M306" s="27"/>
       <c r="N306" s="34"/>
     </row>
-    <row r="307" spans="6:14">
+    <row r="307" spans="2:14">
       <c r="F307" s="33"/>
       <c r="G307" s="27"/>
       <c r="H307" s="27"/>
@@ -43423,7 +43462,7 @@
       <c r="M307" s="27"/>
       <c r="N307" s="34"/>
     </row>
-    <row r="308" spans="6:14">
+    <row r="308" spans="2:14">
       <c r="F308" s="33"/>
       <c r="G308" s="27"/>
       <c r="H308" s="27"/>
@@ -43434,7 +43473,7 @@
       <c r="M308" s="27"/>
       <c r="N308" s="34"/>
     </row>
-    <row r="309" spans="6:14">
+    <row r="309" spans="2:14">
       <c r="F309" s="33"/>
       <c r="G309" s="27"/>
       <c r="H309" s="27"/>
@@ -43445,7 +43484,7 @@
       <c r="M309" s="27"/>
       <c r="N309" s="34"/>
     </row>
-    <row r="310" spans="6:14" ht="15.75" thickBot="1">
+    <row r="310" spans="2:14" ht="15.75" thickBot="1">
       <c r="F310" s="35"/>
       <c r="G310" s="36"/>
       <c r="H310" s="36"/>
@@ -43455,6 +43494,89 @@
       <c r="L310" s="36"/>
       <c r="M310" s="36"/>
       <c r="N310" s="37"/>
+    </row>
+    <row r="318" spans="2:14">
+      <c r="C318" t="s">
+        <v>2935</v>
+      </c>
+      <c r="K318" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="319" spans="2:14">
+      <c r="B319" t="s">
+        <v>2930</v>
+      </c>
+      <c r="K319" s="43" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="320" spans="2:14">
+      <c r="B320" t="s">
+        <v>2931</v>
+      </c>
+      <c r="F320" t="s">
+        <v>2937</v>
+      </c>
+      <c r="K320" s="43" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="321" spans="2:11">
+      <c r="B321" t="s">
+        <v>366</v>
+      </c>
+      <c r="K321" s="43" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="322" spans="2:11">
+      <c r="C322" t="s">
+        <v>2932</v>
+      </c>
+      <c r="K322" s="43" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="323" spans="2:11">
+      <c r="C323" t="s">
+        <v>2938</v>
+      </c>
+      <c r="H323" s="10" t="s">
+        <v>2936</v>
+      </c>
+      <c r="J323" t="s">
+        <v>2934</v>
+      </c>
+      <c r="K323" s="43" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="324" spans="2:11">
+      <c r="C324" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="325" spans="2:11">
+      <c r="B325" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="326" spans="2:11">
+      <c r="D326" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E326" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="327" spans="2:11">
+      <c r="D327" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E327" t="s">
+        <v>2942</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -43931,11 +44053,11 @@
       <c r="L6" s="43" t="s">
         <v>1374</v>
       </c>
-      <c r="M6" s="378" t="s">
+      <c r="M6" s="384" t="s">
         <v>1375</v>
       </c>
-      <c r="N6" s="378"/>
-      <c r="O6" s="378"/>
+      <c r="N6" s="384"/>
+      <c r="O6" s="384"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -45108,10 +45230,10 @@
       </c>
       <c r="G121" s="30"/>
       <c r="H121" s="31"/>
-      <c r="I121" s="360" t="s">
+      <c r="I121" s="366" t="s">
         <v>2539</v>
       </c>
-      <c r="J121" s="360" t="s">
+      <c r="J121" s="366" t="s">
         <v>2543</v>
       </c>
       <c r="K121" s="27"/>
@@ -45127,8 +45249,8 @@
       <c r="H122" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="I122" s="361"/>
-      <c r="J122" s="361"/>
+      <c r="I122" s="367"/>
+      <c r="J122" s="367"/>
       <c r="K122" s="27"/>
       <c r="L122" s="27"/>
       <c r="M122" s="34"/>
@@ -45142,8 +45264,8 @@
       <c r="H123" s="27">
         <v>19</v>
       </c>
-      <c r="I123" s="361"/>
-      <c r="J123" s="361"/>
+      <c r="I123" s="367"/>
+      <c r="J123" s="367"/>
       <c r="K123" s="27"/>
       <c r="L123" s="27"/>
       <c r="M123" s="34"/>
@@ -45157,8 +45279,8 @@
       <c r="H124" s="36" t="s">
         <v>1769</v>
       </c>
-      <c r="I124" s="361"/>
-      <c r="J124" s="361"/>
+      <c r="I124" s="367"/>
+      <c r="J124" s="367"/>
       <c r="K124" s="27"/>
       <c r="L124" s="27"/>
       <c r="M124" s="34"/>
@@ -45168,8 +45290,8 @@
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
-      <c r="I125" s="361"/>
-      <c r="J125" s="361"/>
+      <c r="I125" s="367"/>
+      <c r="J125" s="367"/>
       <c r="K125" s="27"/>
       <c r="L125" s="27"/>
       <c r="M125" s="34"/>
@@ -45182,8 +45304,8 @@
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
-      <c r="I126" s="361"/>
-      <c r="J126" s="361"/>
+      <c r="I126" s="367"/>
+      <c r="J126" s="367"/>
       <c r="K126" s="27"/>
       <c r="L126" s="27"/>
       <c r="M126" s="34"/>
@@ -45195,8 +45317,8 @@
       </c>
       <c r="G127" s="30"/>
       <c r="H127" s="31"/>
-      <c r="I127" s="361"/>
-      <c r="J127" s="361"/>
+      <c r="I127" s="367"/>
+      <c r="J127" s="367"/>
       <c r="K127" s="27"/>
       <c r="L127" s="27"/>
       <c r="M127" s="34"/>
@@ -45210,8 +45332,8 @@
       <c r="H128" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I128" s="361"/>
-      <c r="J128" s="361"/>
+      <c r="I128" s="367"/>
+      <c r="J128" s="367"/>
       <c r="K128" s="27"/>
       <c r="L128" s="27"/>
       <c r="M128" s="34"/>
@@ -45225,8 +45347,8 @@
       <c r="H129" s="27">
         <v>20</v>
       </c>
-      <c r="I129" s="361"/>
-      <c r="J129" s="361"/>
+      <c r="I129" s="367"/>
+      <c r="J129" s="367"/>
       <c r="K129" s="27"/>
       <c r="L129" s="27"/>
       <c r="M129" s="34"/>
@@ -45240,8 +45362,8 @@
       <c r="H130" s="36" t="s">
         <v>2535</v>
       </c>
-      <c r="I130" s="361"/>
-      <c r="J130" s="361"/>
+      <c r="I130" s="367"/>
+      <c r="J130" s="367"/>
       <c r="K130" s="27"/>
       <c r="L130" s="27"/>
       <c r="M130" s="34"/>
@@ -45251,8 +45373,8 @@
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
-      <c r="I131" s="361"/>
-      <c r="J131" s="361"/>
+      <c r="I131" s="367"/>
+      <c r="J131" s="367"/>
       <c r="K131" s="27"/>
       <c r="L131" s="27"/>
       <c r="M131" s="34"/>
@@ -45264,8 +45386,8 @@
       </c>
       <c r="G132" s="30"/>
       <c r="H132" s="31"/>
-      <c r="I132" s="361"/>
-      <c r="J132" s="361"/>
+      <c r="I132" s="367"/>
+      <c r="J132" s="367"/>
       <c r="K132" s="27"/>
       <c r="L132" s="27"/>
       <c r="M132" s="34"/>
@@ -45279,8 +45401,8 @@
       <c r="H133" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I133" s="361"/>
-      <c r="J133" s="361"/>
+      <c r="I133" s="367"/>
+      <c r="J133" s="367"/>
       <c r="K133" s="27"/>
       <c r="L133" s="27"/>
       <c r="M133" s="34"/>
@@ -45294,8 +45416,8 @@
       <c r="H134" s="27">
         <v>18</v>
       </c>
-      <c r="I134" s="361"/>
-      <c r="J134" s="361"/>
+      <c r="I134" s="367"/>
+      <c r="J134" s="367"/>
       <c r="K134" s="27"/>
       <c r="L134" s="27"/>
       <c r="M134" s="34"/>
@@ -45309,8 +45431,8 @@
       <c r="H135" s="36" t="s">
         <v>2536</v>
       </c>
-      <c r="I135" s="362"/>
-      <c r="J135" s="362"/>
+      <c r="I135" s="368"/>
+      <c r="J135" s="368"/>
       <c r="K135" s="27"/>
       <c r="L135" s="27"/>
       <c r="M135" s="34"/>
@@ -45390,8 +45512,8 @@
       <c r="H147" s="31" t="s">
         <v>2542</v>
       </c>
-      <c r="I147" s="363"/>
-      <c r="J147" s="363"/>
+      <c r="I147" s="369"/>
+      <c r="J147" s="369"/>
       <c r="K147" s="27"/>
       <c r="L147" s="27"/>
       <c r="M147" s="34"/>
@@ -45405,8 +45527,8 @@
       <c r="H148" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I148" s="364"/>
-      <c r="J148" s="364"/>
+      <c r="I148" s="370"/>
+      <c r="J148" s="370"/>
       <c r="K148" s="27"/>
       <c r="L148" s="27"/>
       <c r="M148" s="34"/>
@@ -45420,8 +45542,8 @@
       <c r="H149" s="27">
         <v>19</v>
       </c>
-      <c r="I149" s="364"/>
-      <c r="J149" s="364"/>
+      <c r="I149" s="370"/>
+      <c r="J149" s="370"/>
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
       <c r="M149" s="34"/>
@@ -45435,8 +45557,8 @@
       <c r="H150" s="36" t="s">
         <v>1769</v>
       </c>
-      <c r="I150" s="364"/>
-      <c r="J150" s="364"/>
+      <c r="I150" s="370"/>
+      <c r="J150" s="370"/>
       <c r="K150" s="27"/>
       <c r="L150" s="27"/>
       <c r="M150" s="34"/>
@@ -45446,8 +45568,8 @@
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
-      <c r="I151" s="364"/>
-      <c r="J151" s="364"/>
+      <c r="I151" s="370"/>
+      <c r="J151" s="370"/>
       <c r="K151" s="27"/>
       <c r="L151" s="27"/>
       <c r="M151" s="34"/>
@@ -45457,8 +45579,8 @@
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
-      <c r="I152" s="364"/>
-      <c r="J152" s="364"/>
+      <c r="I152" s="370"/>
+      <c r="J152" s="370"/>
       <c r="K152" s="27"/>
       <c r="L152" s="27"/>
       <c r="M152" s="34"/>
@@ -45474,8 +45596,8 @@
       <c r="H153" s="31" t="s">
         <v>2542</v>
       </c>
-      <c r="I153" s="364"/>
-      <c r="J153" s="364"/>
+      <c r="I153" s="370"/>
+      <c r="J153" s="370"/>
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
       <c r="M153" s="34"/>
@@ -45492,8 +45614,8 @@
       <c r="H154" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I154" s="364"/>
-      <c r="J154" s="364"/>
+      <c r="I154" s="370"/>
+      <c r="J154" s="370"/>
       <c r="K154" s="27"/>
       <c r="L154" s="27"/>
       <c r="M154" s="34"/>
@@ -45507,8 +45629,8 @@
       <c r="H155" s="27">
         <v>20</v>
       </c>
-      <c r="I155" s="364"/>
-      <c r="J155" s="364"/>
+      <c r="I155" s="370"/>
+      <c r="J155" s="370"/>
       <c r="K155" s="27"/>
       <c r="L155" s="27"/>
       <c r="M155" s="34"/>
@@ -45522,8 +45644,8 @@
       <c r="H156" s="36" t="s">
         <v>2535</v>
       </c>
-      <c r="I156" s="364"/>
-      <c r="J156" s="364"/>
+      <c r="I156" s="370"/>
+      <c r="J156" s="370"/>
       <c r="K156" s="27"/>
       <c r="L156" s="27"/>
       <c r="M156" s="34"/>
@@ -45533,8 +45655,8 @@
       <c r="F157" s="27"/>
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
-      <c r="I157" s="364"/>
-      <c r="J157" s="364"/>
+      <c r="I157" s="370"/>
+      <c r="J157" s="370"/>
       <c r="K157" s="27"/>
       <c r="L157" s="27"/>
       <c r="M157" s="34"/>
@@ -45550,8 +45672,8 @@
       <c r="H158" s="31" t="s">
         <v>2542</v>
       </c>
-      <c r="I158" s="364"/>
-      <c r="J158" s="364"/>
+      <c r="I158" s="370"/>
+      <c r="J158" s="370"/>
       <c r="K158" s="27"/>
       <c r="L158" s="27"/>
       <c r="M158" s="34"/>
@@ -45565,8 +45687,8 @@
       <c r="H159" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I159" s="364"/>
-      <c r="J159" s="364"/>
+      <c r="I159" s="370"/>
+      <c r="J159" s="370"/>
       <c r="K159" s="27"/>
       <c r="L159" s="27"/>
       <c r="M159" s="34"/>
@@ -45580,8 +45702,8 @@
       <c r="H160" s="27">
         <v>18</v>
       </c>
-      <c r="I160" s="364"/>
-      <c r="J160" s="364"/>
+      <c r="I160" s="370"/>
+      <c r="J160" s="370"/>
       <c r="K160" s="27"/>
       <c r="L160" s="27"/>
       <c r="M160" s="34"/>
@@ -45595,8 +45717,8 @@
       <c r="H161" s="36" t="s">
         <v>2536</v>
       </c>
-      <c r="I161" s="365"/>
-      <c r="J161" s="365"/>
+      <c r="I161" s="371"/>
+      <c r="J161" s="371"/>
       <c r="K161" s="27"/>
       <c r="L161" s="27"/>
       <c r="M161" s="34"/>
@@ -46555,7 +46677,7 @@
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="358" t="s">
+      <c r="G269" s="364" t="s">
         <v>2192</v>
       </c>
       <c r="I269" s="56" t="s">
@@ -46576,7 +46698,7 @@
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="359"/>
+      <c r="G270" s="365"/>
       <c r="I270" s="163" t="s">
         <v>2188</v>
       </c>
@@ -48523,17 +48645,17 @@
       <c r="A2" t="s">
         <v>2570</v>
       </c>
-      <c r="E2" s="356" t="s">
+      <c r="E2" s="362" t="s">
         <v>2578</v>
       </c>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
-      <c r="I2" s="366"/>
-      <c r="J2" s="366"/>
-      <c r="K2" s="366"/>
-      <c r="L2" s="366"/>
-      <c r="M2" s="357"/>
+      <c r="F2" s="372"/>
+      <c r="G2" s="372"/>
+      <c r="H2" s="372"/>
+      <c r="I2" s="372"/>
+      <c r="J2" s="372"/>
+      <c r="K2" s="372"/>
+      <c r="L2" s="372"/>
+      <c r="M2" s="363"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -48819,17 +48941,17 @@
       <c r="A23" t="s">
         <v>2570</v>
       </c>
-      <c r="E23" s="356" t="s">
+      <c r="E23" s="362" t="s">
         <v>2578</v>
       </c>
-      <c r="F23" s="366"/>
-      <c r="G23" s="366"/>
-      <c r="H23" s="366"/>
-      <c r="I23" s="366"/>
-      <c r="J23" s="366"/>
-      <c r="K23" s="366"/>
-      <c r="L23" s="366"/>
-      <c r="M23" s="357"/>
+      <c r="F23" s="372"/>
+      <c r="G23" s="372"/>
+      <c r="H23" s="372"/>
+      <c r="I23" s="372"/>
+      <c r="J23" s="372"/>
+      <c r="K23" s="372"/>
+      <c r="L23" s="372"/>
+      <c r="M23" s="363"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="B24" t="s">
@@ -49105,17 +49227,17 @@
       <c r="A42" t="s">
         <v>2570</v>
       </c>
-      <c r="E42" s="356" t="s">
+      <c r="E42" s="362" t="s">
         <v>2578</v>
       </c>
-      <c r="F42" s="366"/>
-      <c r="G42" s="366"/>
-      <c r="H42" s="366"/>
-      <c r="I42" s="366"/>
-      <c r="J42" s="366"/>
-      <c r="K42" s="366"/>
-      <c r="L42" s="366"/>
-      <c r="M42" s="357"/>
+      <c r="F42" s="372"/>
+      <c r="G42" s="372"/>
+      <c r="H42" s="372"/>
+      <c r="I42" s="372"/>
+      <c r="J42" s="372"/>
+      <c r="K42" s="372"/>
+      <c r="L42" s="372"/>
+      <c r="M42" s="363"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
@@ -49417,17 +49539,17 @@
       <c r="B64" s="308"/>
       <c r="C64" s="308"/>
       <c r="D64" s="308"/>
-      <c r="G64" s="356" t="s">
+      <c r="G64" s="362" t="s">
         <v>2578</v>
       </c>
-      <c r="H64" s="366"/>
-      <c r="I64" s="366"/>
-      <c r="J64" s="366"/>
-      <c r="K64" s="366"/>
-      <c r="L64" s="366"/>
-      <c r="M64" s="366"/>
-      <c r="N64" s="366"/>
-      <c r="O64" s="357"/>
+      <c r="H64" s="372"/>
+      <c r="I64" s="372"/>
+      <c r="J64" s="372"/>
+      <c r="K64" s="372"/>
+      <c r="L64" s="372"/>
+      <c r="M64" s="372"/>
+      <c r="N64" s="372"/>
+      <c r="O64" s="363"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" thickBot="1">
       <c r="B65" t="s">
@@ -52372,49 +52494,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="367" t="s">
+      <c r="B2" s="373" t="s">
         <v>2029</v>
       </c>
-      <c r="C2" s="368"/>
-      <c r="D2" s="369"/>
-      <c r="F2" s="367" t="s">
+      <c r="C2" s="374"/>
+      <c r="D2" s="375"/>
+      <c r="F2" s="373" t="s">
         <v>2545</v>
       </c>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="369"/>
-      <c r="K2" s="367" t="s">
+      <c r="G2" s="374"/>
+      <c r="H2" s="374"/>
+      <c r="I2" s="375"/>
+      <c r="K2" s="373" t="s">
         <v>2547</v>
       </c>
-      <c r="L2" s="368"/>
-      <c r="M2" s="369"/>
+      <c r="L2" s="374"/>
+      <c r="M2" s="375"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="370"/>
-      <c r="C3" s="371"/>
-      <c r="D3" s="372"/>
-      <c r="F3" s="370"/>
-      <c r="G3" s="371"/>
-      <c r="H3" s="371"/>
-      <c r="I3" s="372"/>
-      <c r="K3" s="370"/>
-      <c r="L3" s="371"/>
-      <c r="M3" s="372"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="377"/>
+      <c r="D3" s="378"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="378"/>
+      <c r="K3" s="376"/>
+      <c r="L3" s="377"/>
+      <c r="M3" s="378"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="370"/>
-      <c r="C4" s="371"/>
-      <c r="D4" s="372"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="371"/>
-      <c r="H4" s="371"/>
-      <c r="I4" s="372"/>
-      <c r="K4" s="370"/>
-      <c r="L4" s="371"/>
-      <c r="M4" s="372"/>
+      <c r="B4" s="376"/>
+      <c r="C4" s="377"/>
+      <c r="D4" s="378"/>
+      <c r="F4" s="376"/>
+      <c r="G4" s="377"/>
+      <c r="H4" s="377"/>
+      <c r="I4" s="378"/>
+      <c r="K4" s="376"/>
+      <c r="L4" s="377"/>
+      <c r="M4" s="378"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="373" t="s">
+      <c r="A5" s="379" t="s">
         <v>1908</v>
       </c>
       <c r="B5" s="80"/>
@@ -52441,7 +52563,7 @@
       <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="373"/>
+      <c r="A6" s="379"/>
       <c r="B6" s="80"/>
       <c r="C6" s="39" t="s">
         <v>58</v>
@@ -52466,7 +52588,7 @@
       <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="373"/>
+      <c r="A7" s="379"/>
       <c r="B7" s="80"/>
       <c r="C7" s="39" t="s">
         <v>2549</v>
@@ -52499,7 +52621,7 @@
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="373" t="s">
+      <c r="A9" s="379" t="s">
         <v>203</v>
       </c>
       <c r="B9" s="289" t="s">
@@ -52520,7 +52642,7 @@
       <c r="M9" s="242"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="373"/>
+      <c r="A10" s="379"/>
       <c r="B10" s="289"/>
       <c r="C10" s="290" t="s">
         <v>2554</v>
@@ -52542,7 +52664,7 @@
       <c r="M10" s="242"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="373"/>
+      <c r="A11" s="379"/>
       <c r="B11" s="289"/>
       <c r="C11" s="141"/>
       <c r="D11" s="242"/>
@@ -52562,7 +52684,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="373"/>
+      <c r="A12" s="379"/>
       <c r="B12" s="289"/>
       <c r="C12" s="141"/>
       <c r="D12" s="242"/>
@@ -52742,23 +52864,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="375" t="s">
+      <c r="A1" s="381" t="s">
         <v>2199</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="375"/>
-      <c r="D1" s="375"/>
-      <c r="E1" s="375"/>
-      <c r="F1" s="375"/>
-      <c r="I1" s="375" t="s">
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
+      <c r="I1" s="381" t="s">
         <v>2211</v>
       </c>
-      <c r="J1" s="375"/>
-      <c r="K1" s="375"/>
-      <c r="L1" s="375"/>
-      <c r="M1" s="375"/>
-      <c r="N1" s="375"/>
-      <c r="O1" s="375"/>
+      <c r="J1" s="381"/>
+      <c r="K1" s="381"/>
+      <c r="L1" s="381"/>
+      <c r="M1" s="381"/>
+      <c r="N1" s="381"/>
+      <c r="O1" s="381"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -52914,28 +53036,28 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="354" t="s">
+      <c r="A12" s="360" t="s">
         <v>2213</v>
       </c>
-      <c r="B12" s="374"/>
-      <c r="C12" s="374"/>
-      <c r="D12" s="374"/>
-      <c r="E12" s="374"/>
-      <c r="F12" s="374"/>
-      <c r="G12" s="374"/>
-      <c r="H12" s="355"/>
-      <c r="I12" s="354" t="s">
+      <c r="B12" s="380"/>
+      <c r="C12" s="380"/>
+      <c r="D12" s="380"/>
+      <c r="E12" s="380"/>
+      <c r="F12" s="380"/>
+      <c r="G12" s="380"/>
+      <c r="H12" s="361"/>
+      <c r="I12" s="360" t="s">
         <v>2213</v>
       </c>
-      <c r="J12" s="374"/>
-      <c r="K12" s="374"/>
-      <c r="L12" s="374"/>
-      <c r="M12" s="374"/>
-      <c r="N12" s="374"/>
-      <c r="O12" s="374"/>
-      <c r="P12" s="374"/>
-      <c r="Q12" s="374"/>
-      <c r="R12" s="355"/>
+      <c r="J12" s="380"/>
+      <c r="K12" s="380"/>
+      <c r="L12" s="380"/>
+      <c r="M12" s="380"/>
+      <c r="N12" s="380"/>
+      <c r="O12" s="380"/>
+      <c r="P12" s="380"/>
+      <c r="Q12" s="380"/>
+      <c r="R12" s="361"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
@@ -53163,14 +53285,14 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="375" t="s">
+      <c r="A24" s="381" t="s">
         <v>2199</v>
       </c>
-      <c r="B24" s="375"/>
-      <c r="C24" s="375"/>
-      <c r="D24" s="375"/>
-      <c r="E24" s="375"/>
-      <c r="F24" s="375"/>
+      <c r="B24" s="381"/>
+      <c r="C24" s="381"/>
+      <c r="D24" s="381"/>
+      <c r="E24" s="381"/>
+      <c r="F24" s="381"/>
       <c r="H24" s="251" t="s">
         <v>2211</v>
       </c>
@@ -53180,11 +53302,11 @@
       <c r="L24" s="251"/>
       <c r="M24" s="251"/>
       <c r="N24" s="251"/>
-      <c r="P24" s="375" t="s">
+      <c r="P24" s="381" t="s">
         <v>2252</v>
       </c>
-      <c r="Q24" s="375"/>
-      <c r="R24" s="375"/>
+      <c r="Q24" s="381"/>
+      <c r="R24" s="381"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
@@ -53424,28 +53546,28 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="354" t="s">
+      <c r="A35" s="360" t="s">
         <v>2253</v>
       </c>
-      <c r="B35" s="374"/>
-      <c r="C35" s="374"/>
-      <c r="D35" s="374"/>
-      <c r="E35" s="374"/>
-      <c r="F35" s="374"/>
-      <c r="G35" s="374"/>
-      <c r="H35" s="355"/>
-      <c r="I35" s="354" t="s">
+      <c r="B35" s="380"/>
+      <c r="C35" s="380"/>
+      <c r="D35" s="380"/>
+      <c r="E35" s="380"/>
+      <c r="F35" s="380"/>
+      <c r="G35" s="380"/>
+      <c r="H35" s="361"/>
+      <c r="I35" s="360" t="s">
         <v>1048</v>
       </c>
-      <c r="J35" s="374"/>
-      <c r="K35" s="374"/>
-      <c r="L35" s="374"/>
-      <c r="M35" s="374"/>
-      <c r="N35" s="374"/>
-      <c r="O35" s="374"/>
-      <c r="P35" s="374"/>
-      <c r="Q35" s="374"/>
-      <c r="R35" s="355"/>
+      <c r="J35" s="380"/>
+      <c r="K35" s="380"/>
+      <c r="L35" s="380"/>
+      <c r="M35" s="380"/>
+      <c r="N35" s="380"/>
+      <c r="O35" s="380"/>
+      <c r="P35" s="380"/>
+      <c r="Q35" s="380"/>
+      <c r="R35" s="361"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">

--- a/java_latest_st.xlsx
+++ b/java_latest_st.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5466" uniqueCount="2943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5502" uniqueCount="2968">
   <si>
     <t>USER</t>
   </si>
@@ -6384,18 +6384,6 @@
     <t>arraylist, vector,linkedlist</t>
   </si>
   <si>
-    <t>hashcode()</t>
-  </si>
-  <si>
-    <t>compare</t>
-  </si>
-  <si>
-    <t>equals()</t>
-  </si>
-  <si>
-    <t>Student s4=new Student("john", 1);</t>
-  </si>
-  <si>
     <t>school.add(s1);</t>
   </si>
   <si>
@@ -6406,9 +6394,6 @@
   </si>
   <si>
     <t>school.add(s4);</t>
-  </si>
-  <si>
-    <t>HashSet&lt;StudentCol&gt; school=new HashSet&lt;StudentCol&gt; ();</t>
   </si>
   <si>
     <t>School</t>
@@ -9116,6 +9101,96 @@
   </si>
   <si>
     <t>move cursor to the next line… read result from the pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HashMap&lt;String,Integer&gt; studentScore=new HashMap&lt;String,Integer&gt; (); </t>
+  </si>
+  <si>
+    <t>studentScore.put("john", 55);</t>
+  </si>
+  <si>
+    <t>studentScore</t>
+  </si>
+  <si>
+    <t>studentScore.put("jane", 75);</t>
+  </si>
+  <si>
+    <t>studentScore.put("john", 65);</t>
+  </si>
+  <si>
+    <t>1) find category</t>
+  </si>
+  <si>
+    <t>2) search for the item in its category</t>
+  </si>
+  <si>
+    <t>MEMORY -</t>
+  </si>
+  <si>
+    <t>HashSet&lt;Student&gt; school=new HashSet&lt;Student&gt; ();</t>
+  </si>
+  <si>
+    <t>hashcode</t>
+  </si>
+  <si>
+    <t>Student s4=new Student("mike", 1);</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>compare items in category 1</t>
+  </si>
+  <si>
+    <t>with s3 variable</t>
+  </si>
+  <si>
+    <t>1) what is the category of s4 = 1</t>
+  </si>
+  <si>
+    <t>2) if s4 Is a duplicate</t>
+  </si>
+  <si>
+    <t>mike moe</t>
+  </si>
+  <si>
+    <t>Set&lt;Integer&gt; allKeys=school.keySet();</t>
+  </si>
+  <si>
+    <t>for(Integer key:allKeys){</t>
+  </si>
+  <si>
+    <t>sysout(key)</t>
+  </si>
+  <si>
+    <t>sysout( school.get (key) );</t>
+  </si>
+  <si>
+    <t>loop 1</t>
+  </si>
+  <si>
+    <t>key=123</t>
+  </si>
+  <si>
+    <t>get = return value for a given key</t>
+  </si>
+  <si>
+    <t>loop2</t>
+  </si>
+  <si>
+    <t>key=222</t>
+  </si>
+  <si>
+    <t>sysout( school.get (222) );</t>
+  </si>
+  <si>
+    <t>loop 3</t>
+  </si>
+  <si>
+    <t>key=456</t>
+  </si>
+  <si>
+    <t>print 456</t>
   </si>
 </sst>
 </file>
@@ -9741,7 +9816,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="389">
+  <cellXfs count="390">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10432,6 +10507,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10859,7 +10937,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1">
       <c r="E1" t="s">
-        <v>2447</v>
+        <v>2442</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -10880,18 +10958,18 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="H3" s="357" t="s">
+      <c r="H3" s="358" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="358"/>
-      <c r="J3" s="358"/>
-      <c r="K3" s="358"/>
-      <c r="L3" s="359"/>
+      <c r="I3" s="359"/>
+      <c r="J3" s="359"/>
+      <c r="K3" s="359"/>
+      <c r="L3" s="360"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
       <c r="E5" t="s">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -10907,20 +10985,20 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="F6" s="4"/>
-      <c r="G6" s="360" t="s">
+      <c r="G6" s="361" t="s">
         <v>1437</v>
       </c>
-      <c r="H6" s="361"/>
+      <c r="H6" s="362"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="360" t="s">
+      <c r="J6" s="361" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="361"/>
+      <c r="K6" s="362"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="360" t="s">
+      <c r="M6" s="361" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="361"/>
+      <c r="N6" s="362"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7" s="123" t="s">
@@ -10938,20 +11016,20 @@
     </row>
     <row r="8" spans="1:18">
       <c r="F8" s="4"/>
-      <c r="G8" s="362" t="s">
+      <c r="G8" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="363"/>
+      <c r="H8" s="364"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="362" t="s">
+      <c r="J8" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="363"/>
+      <c r="K8" s="364"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="362" t="s">
+      <c r="M8" s="363" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="363"/>
+      <c r="N8" s="364"/>
       <c r="Q8" s="140"/>
     </row>
     <row r="9" spans="1:18">
@@ -10967,33 +11045,33 @@
       <c r="Q9" s="140"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="353" t="s">
-        <v>2108</v>
-      </c>
-      <c r="G10" s="354"/>
-      <c r="H10" s="354"/>
-      <c r="I10" s="354"/>
-      <c r="J10" s="354"/>
-      <c r="K10" s="354"/>
-      <c r="L10" s="354"/>
-      <c r="M10" s="354"/>
-      <c r="N10" s="354"/>
+      <c r="F10" s="354" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G10" s="355"/>
+      <c r="H10" s="355"/>
+      <c r="I10" s="355"/>
+      <c r="J10" s="355"/>
+      <c r="K10" s="355"/>
+      <c r="L10" s="355"/>
+      <c r="M10" s="355"/>
+      <c r="N10" s="355"/>
       <c r="Q10" s="140"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F11" s="355"/>
-      <c r="G11" s="356"/>
-      <c r="H11" s="356"/>
-      <c r="I11" s="356"/>
-      <c r="J11" s="356"/>
-      <c r="K11" s="356"/>
-      <c r="L11" s="356"/>
-      <c r="M11" s="356"/>
-      <c r="N11" s="356"/>
+      <c r="F11" s="356"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="357"/>
+      <c r="K11" s="357"/>
+      <c r="L11" s="357"/>
+      <c r="M11" s="357"/>
+      <c r="N11" s="357"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="D12" s="123" t="s">
         <v>1436</v>
@@ -11031,17 +11109,17 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1">
       <c r="D14" s="123"/>
-      <c r="F14" s="350" t="s">
-        <v>2441</v>
-      </c>
-      <c r="G14" s="351"/>
-      <c r="H14" s="351"/>
-      <c r="I14" s="351"/>
-      <c r="J14" s="351"/>
-      <c r="K14" s="351"/>
-      <c r="L14" s="351"/>
-      <c r="M14" s="351"/>
-      <c r="N14" s="352"/>
+      <c r="F14" s="351" t="s">
+        <v>2436</v>
+      </c>
+      <c r="G14" s="352"/>
+      <c r="H14" s="352"/>
+      <c r="I14" s="352"/>
+      <c r="J14" s="352"/>
+      <c r="K14" s="352"/>
+      <c r="L14" s="352"/>
+      <c r="M14" s="352"/>
+      <c r="N14" s="353"/>
     </row>
     <row r="15" spans="1:18">
       <c r="F15" s="137"/>
@@ -11076,10 +11154,10 @@
       <c r="M16" s="134"/>
       <c r="N16" s="18"/>
       <c r="P16" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
       <c r="Q16" t="s">
-        <v>2444</v>
+        <v>2439</v>
       </c>
       <c r="R16" t="s">
         <v>1048</v>
@@ -11131,10 +11209,10 @@
       </c>
       <c r="N19" s="18"/>
       <c r="P19" t="s">
-        <v>2443</v>
+        <v>2438</v>
       </c>
       <c r="Q19" s="140" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
       <c r="R19" t="s">
         <v>15</v>
@@ -11171,7 +11249,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
       <c r="P21" t="s">
-        <v>2446</v>
+        <v>2441</v>
       </c>
       <c r="Q21" t="s">
         <v>1729</v>
@@ -11180,12 +11258,12 @@
     <row r="22" spans="1:18">
       <c r="F22" s="138"/>
       <c r="G22" s="17" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
       <c r="J22" s="16" t="s">
-        <v>2469</v>
+        <v>2464</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="17"/>
@@ -11205,7 +11283,7 @@
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
       <c r="J23" s="16" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="17"/>
@@ -11218,7 +11296,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
       <c r="J24" s="20" t="s">
-        <v>2471</v>
+        <v>2466</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="21"/>
@@ -11227,58 +11305,58 @@
     </row>
     <row r="25" spans="1:18">
       <c r="J25" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="F27" t="s">
-        <v>2450</v>
+        <v>2445</v>
       </c>
       <c r="G27" t="s">
         <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="I27" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="J27" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
       <c r="K27" t="s">
-        <v>2458</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="F28" s="140" t="s">
-        <v>2451</v>
+        <v>2446</v>
       </c>
       <c r="G28" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="H28" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="I28" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="J28" t="s">
-        <v>2457</v>
+        <v>2452</v>
       </c>
       <c r="K28" t="s">
-        <v>2459</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="G29" s="27" t="s">
-        <v>2467</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="G30" s="27"/>
       <c r="K30" t="s">
-        <v>2460</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -11345,34 +11423,34 @@
       <c r="E33" s="74"/>
       <c r="F33" s="74"/>
       <c r="G33" s="287" t="s">
+        <v>2456</v>
+      </c>
+      <c r="H33" s="130" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I33" s="130" t="s">
+        <v>2458</v>
+      </c>
+      <c r="J33" s="130" t="s">
+        <v>2459</v>
+      </c>
+      <c r="K33" s="130" t="s">
+        <v>2460</v>
+      </c>
+      <c r="L33" s="130" t="s">
         <v>2461</v>
       </c>
-      <c r="H33" s="130" t="s">
-        <v>2462</v>
-      </c>
-      <c r="I33" s="130" t="s">
-        <v>2463</v>
-      </c>
-      <c r="J33" s="130" t="s">
-        <v>2464</v>
-      </c>
-      <c r="K33" s="130" t="s">
-        <v>2465</v>
-      </c>
-      <c r="L33" s="130" t="s">
-        <v>2466</v>
-      </c>
       <c r="M33" s="130" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="N33" s="130" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="P33" s="160"/>
     </row>
     <row r="34" spans="1:17 16384:16384">
       <c r="E34" t="s">
-        <v>2498</v>
+        <v>2493</v>
       </c>
       <c r="G34" s="143">
         <v>0</v>
@@ -11399,15 +11477,15 @@
         <v>1</v>
       </c>
       <c r="P34" s="286" t="s">
-        <v>2497</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="35" spans="1:17 16384:16384">
       <c r="C35" t="s">
-        <v>2468</v>
+        <v>2463</v>
       </c>
       <c r="G35" s="181" t="s">
-        <v>2499</v>
+        <v>2494</v>
       </c>
       <c r="H35" s="181"/>
       <c r="I35" s="181"/>
@@ -11422,7 +11500,7 @@
     </row>
     <row r="36" spans="1:17 16384:16384">
       <c r="G36" s="181" t="s">
-        <v>2500</v>
+        <v>2495</v>
       </c>
       <c r="H36" s="181"/>
       <c r="I36" s="181"/>
@@ -11437,7 +11515,7 @@
     </row>
     <row r="37" spans="1:17 16384:16384">
       <c r="G37" s="181" t="s">
-        <v>2501</v>
+        <v>2496</v>
       </c>
       <c r="H37" s="181"/>
       <c r="I37" s="181"/>
@@ -11552,7 +11630,7 @@
     </row>
     <row r="44" spans="1:17 16384:16384">
       <c r="B44" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="141"/>
@@ -11568,7 +11646,7 @@
     </row>
     <row r="45" spans="1:17 16384:16384">
       <c r="B45" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="141"/>
@@ -11587,7 +11665,7 @@
         <v>1575</v>
       </c>
       <c r="B46" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="141"/>
@@ -11808,30 +11886,30 @@
     </row>
     <row r="68" spans="1:15">
       <c r="C68" t="s">
-        <v>2475</v>
+        <v>2470</v>
       </c>
       <c r="G68" t="s">
-        <v>2474</v>
+        <v>2469</v>
       </c>
       <c r="K68" t="s">
-        <v>2473</v>
+        <v>2468</v>
       </c>
       <c r="O68" t="s">
-        <v>2472</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="C69" t="s">
-        <v>2476</v>
+        <v>2471</v>
       </c>
       <c r="G69" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
       <c r="K69" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
       <c r="O69" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -11851,7 +11929,7 @@
     <row r="71" spans="1:15">
       <c r="A71" s="177"/>
       <c r="B71" s="27" t="s">
-        <v>2478</v>
+        <v>2473</v>
       </c>
       <c r="C71" s="76"/>
       <c r="E71" s="177"/>
@@ -11883,25 +11961,25 @@
     <row r="73" spans="1:15">
       <c r="A73" s="177"/>
       <c r="B73" s="27" t="s">
-        <v>2479</v>
+        <v>2474</v>
       </c>
       <c r="C73" s="76"/>
       <c r="E73" s="177" t="s">
-        <v>2486</v>
+        <v>2481</v>
       </c>
       <c r="F73" s="27" t="s">
         <v>1451</v>
       </c>
       <c r="G73" s="76"/>
       <c r="I73" s="177" t="s">
-        <v>2486</v>
+        <v>2481</v>
       </c>
       <c r="J73" s="27" t="s">
         <v>1451</v>
       </c>
       <c r="K73" s="76"/>
       <c r="M73" s="177" t="s">
-        <v>2486</v>
+        <v>2481</v>
       </c>
       <c r="N73" s="27" t="s">
         <v>1451</v>
@@ -11911,25 +11989,25 @@
     <row r="74" spans="1:15">
       <c r="A74" s="177"/>
       <c r="B74" s="39" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="C74" s="76"/>
       <c r="E74" s="177" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="G74" s="76"/>
       <c r="I74" s="177" t="s">
-        <v>2488</v>
+        <v>2483</v>
       </c>
       <c r="J74" s="39" t="s">
         <v>1608</v>
       </c>
       <c r="K74" s="76"/>
       <c r="M74" s="177" t="s">
-        <v>2493</v>
+        <v>2488</v>
       </c>
       <c r="N74" s="39" t="s">
         <v>1607</v>
@@ -11941,21 +12019,21 @@
       <c r="B75" s="27"/>
       <c r="C75" s="76"/>
       <c r="E75" s="177" t="s">
-        <v>2487</v>
+        <v>2482</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="G75" s="76"/>
       <c r="I75" s="177" t="s">
-        <v>2489</v>
+        <v>2484</v>
       </c>
       <c r="J75" s="27" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="K75" s="76"/>
       <c r="M75" s="177" t="s">
-        <v>2492</v>
+        <v>2487</v>
       </c>
       <c r="N75" s="27" t="s">
         <v>1603</v>
@@ -11965,28 +12043,28 @@
     <row r="76" spans="1:15">
       <c r="A76" s="177"/>
       <c r="B76" s="38" t="s">
-        <v>2480</v>
+        <v>2475</v>
       </c>
       <c r="C76" s="76"/>
       <c r="E76" s="177" t="s">
-        <v>2485</v>
+        <v>2480</v>
       </c>
       <c r="F76" s="27" t="s">
         <v>1597</v>
       </c>
       <c r="G76" s="76"/>
       <c r="I76" s="177" t="s">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>2481</v>
+        <v>2476</v>
       </c>
       <c r="K76" s="76"/>
       <c r="M76" s="177" t="s">
-        <v>2491</v>
+        <v>2486</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>2482</v>
+        <v>2477</v>
       </c>
       <c r="O76" s="76"/>
     </row>
@@ -12006,23 +12084,23 @@
     </row>
     <row r="79" spans="1:15">
       <c r="E79" t="s">
-        <v>2483</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="83" spans="2:17">
       <c r="C83" t="s">
-        <v>2494</v>
+        <v>2489</v>
       </c>
       <c r="E83" t="s">
         <v>1599</v>
       </c>
       <c r="G83" t="s">
-        <v>2496</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="84" spans="2:17">
       <c r="C84" t="s">
-        <v>2495</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="86" spans="2:17">
@@ -12033,7 +12111,7 @@
         <v>1599</v>
       </c>
       <c r="G86" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="89" spans="2:17">
@@ -14799,7 +14877,7 @@
     </row>
     <row r="179" spans="1:18" ht="15.75" thickBot="1">
       <c r="B179" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="27" t="s">
@@ -14821,11 +14899,11 @@
     </row>
     <row r="180" spans="1:18">
       <c r="B180" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="51" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="H180" s="51" t="s">
         <v>1650</v>
@@ -14871,7 +14949,7 @@
     </row>
     <row r="182" spans="1:18" ht="15.75" thickBot="1">
       <c r="B182" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
       <c r="F182" s="33"/>
       <c r="G182" s="51" t="s">
@@ -14893,7 +14971,7 @@
     </row>
     <row r="183" spans="1:18">
       <c r="B183" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="51" t="s">
@@ -14951,7 +15029,7 @@
     </row>
     <row r="186" spans="1:18">
       <c r="A186" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="51"/>
@@ -14993,7 +15071,7 @@
     </row>
     <row r="188" spans="1:18" ht="15.75" thickBot="1">
       <c r="B188" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="27"/>
@@ -15015,7 +15093,7 @@
       </c>
       <c r="F189" s="33"/>
       <c r="G189" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
@@ -15031,7 +15109,7 @@
     </row>
     <row r="190" spans="1:18">
       <c r="B190" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="27"/>
@@ -15067,7 +15145,7 @@
     </row>
     <row r="192" spans="1:18">
       <c r="A192" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="27"/>
@@ -15103,11 +15181,11 @@
     </row>
     <row r="194" spans="1:18">
       <c r="B194" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="27" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
@@ -15127,7 +15205,7 @@
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="27" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
@@ -15143,7 +15221,7 @@
     </row>
     <row r="196" spans="1:18">
       <c r="A196" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
       <c r="F196" s="33"/>
       <c r="G196" s="38"/>
@@ -15161,7 +15239,7 @@
     </row>
     <row r="197" spans="1:18">
       <c r="B197" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="27"/>
@@ -17590,7 +17668,7 @@
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
@@ -17612,7 +17690,7 @@
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
       <c r="E4" s="125" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="57"/>
@@ -17676,7 +17754,7 @@
         <v>576</v>
       </c>
       <c r="E7" s="125" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>589</v>
@@ -17693,7 +17771,7 @@
       </c>
       <c r="N7" s="57"/>
       <c r="O7" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -17702,7 +17780,7 @@
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
       <c r="E8" s="125" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>590</v>
@@ -17767,7 +17845,7 @@
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="125" t="s">
-        <v>2310</v>
+        <v>2305</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="61" t="s">
@@ -17785,7 +17863,7 @@
         <v>635</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
@@ -17886,7 +17964,7 @@
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="125" t="s">
-        <v>2315</v>
+        <v>2310</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>581</v>
@@ -17946,7 +18024,7 @@
         <v>1462</v>
       </c>
       <c r="I18" s="267" t="s">
-        <v>2314</v>
+        <v>2309</v>
       </c>
       <c r="J18" s="57"/>
       <c r="K18" s="57" t="s">
@@ -17974,7 +18052,7 @@
       <c r="G19" s="144"/>
       <c r="H19" s="147"/>
       <c r="I19" s="267" t="s">
-        <v>2313</v>
+        <v>2308</v>
       </c>
       <c r="J19" s="57"/>
       <c r="K19" s="67" t="s">
@@ -17999,7 +18077,7 @@
         <v>585</v>
       </c>
       <c r="F20" s="125" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="64" t="s">
@@ -18023,7 +18101,7 @@
         <v>586</v>
       </c>
       <c r="F21" s="125" t="s">
-        <v>2313</v>
+        <v>2308</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="65" t="s">
@@ -18047,7 +18125,7 @@
         <v>586</v>
       </c>
       <c r="D22" s="266" t="s">
-        <v>2311</v>
+        <v>2306</v>
       </c>
       <c r="E22" s="57" t="s">
         <v>575</v>
@@ -18066,7 +18144,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="125" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="B23" s="57"/>
       <c r="C23" s="57" t="s">
@@ -18176,10 +18254,10 @@
         <v>642</v>
       </c>
       <c r="H32" t="s">
-        <v>2634</v>
+        <v>2629</v>
       </c>
       <c r="I32" s="311" t="s">
-        <v>2640</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -18187,10 +18265,10 @@
         <v>643</v>
       </c>
       <c r="H33" t="s">
-        <v>2635</v>
+        <v>2630</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>2639</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -18198,7 +18276,7 @@
         <v>644</v>
       </c>
       <c r="I34" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -18216,7 +18294,7 @@
         <v>646</v>
       </c>
       <c r="H37" t="s">
-        <v>2636</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -18224,7 +18302,7 @@
         <v>647</v>
       </c>
       <c r="H38" s="57" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -18240,7 +18318,7 @@
         <v>649</v>
       </c>
       <c r="H40" t="s">
-        <v>2638</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -18918,7 +18996,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="27" t="s">
-        <v>2641</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1">
@@ -18941,7 +19019,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="27" t="s">
-        <v>2642</v>
+        <v>2637</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>1645</v>
@@ -18963,7 +19041,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="27" t="s">
-        <v>2643</v>
+        <v>2638</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>1646</v>
@@ -18991,14 +19069,14 @@
         <v>1987</v>
       </c>
       <c r="K5" s="313" t="s">
-        <v>2655</v>
+        <v>2650</v>
       </c>
       <c r="L5" s="314"/>
       <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="B6" s="27" t="s">
-        <v>2647</v>
+        <v>2642</v>
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="38"/>
@@ -19023,7 +19101,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="C8" s="27" t="s">
-        <v>2648</v>
+        <v>2643</v>
       </c>
       <c r="F8" s="33"/>
       <c r="J8" s="114" t="s">
@@ -19037,14 +19115,14 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="C9" s="27" t="s">
-        <v>2649</v>
+        <v>2644</v>
       </c>
       <c r="F9" s="33"/>
       <c r="J9" s="156" t="s">
         <v>1987</v>
       </c>
       <c r="K9" s="313" t="s">
-        <v>2656</v>
+        <v>2651</v>
       </c>
       <c r="L9" s="314"/>
       <c r="N9" s="34"/>
@@ -19058,7 +19136,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="27" t="s">
-        <v>2650</v>
+        <v>2645</v>
       </c>
       <c r="F11" s="33"/>
       <c r="I11" s="27" t="s">
@@ -19089,14 +19167,14 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="C13" s="27" t="s">
-        <v>2648</v>
+        <v>2643</v>
       </c>
       <c r="F13" s="33"/>
       <c r="J13" s="156" t="s">
         <v>1987</v>
       </c>
       <c r="K13" s="313" t="s">
-        <v>2656</v>
+        <v>2651</v>
       </c>
       <c r="L13" s="314"/>
       <c r="N13" s="34"/>
@@ -19110,7 +19188,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="27" t="s">
-        <v>2651</v>
+        <v>2646</v>
       </c>
       <c r="F15" s="33"/>
       <c r="N15" s="34"/>
@@ -19138,7 +19216,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1">
       <c r="A19" s="27" t="s">
-        <v>2652</v>
+        <v>2647</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="36"/>
@@ -19152,25 +19230,25 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="27" t="s">
-        <v>2653</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="27" t="s">
-        <v>2654</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="27" t="s">
-        <v>2644</v>
+        <v>2639</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>2645</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="D27" s="27" t="s">
-        <v>2646</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="119" spans="6:12">
@@ -19583,13 +19661,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="D5" s="33" t="s">
-        <v>2668</v>
+        <v>2663</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="34"/>
       <c r="K5" s="195" t="s">
-        <v>2668</v>
+        <v>2663</v>
       </c>
       <c r="L5" s="167"/>
       <c r="M5" s="167"/>
@@ -19598,20 +19676,20 @@
     <row r="6" spans="1:14">
       <c r="D6" s="33"/>
       <c r="E6" s="27" t="s">
-        <v>2670</v>
+        <v>2665</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="34"/>
       <c r="K6" s="195"/>
       <c r="L6" s="167" t="s">
-        <v>2669</v>
+        <v>2664</v>
       </c>
       <c r="M6" s="167"/>
       <c r="N6" s="196"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>2666</v>
+        <v>2661</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="27"/>
@@ -19624,7 +19702,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>2667</v>
+        <v>2662</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="27"/>
@@ -19647,17 +19725,17 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>2658</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="H12" t="s">
-        <v>2671</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>2661</v>
+        <v>2656</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>713</v>
@@ -19676,10 +19754,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" t="s">
-        <v>2659</v>
+        <v>2654</v>
       </c>
       <c r="D15" t="s">
-        <v>2662</v>
+        <v>2657</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>933</v>
@@ -19691,7 +19769,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="D16" t="s">
-        <v>2663</v>
+        <v>2658</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="27"/>
@@ -19699,15 +19777,15 @@
       <c r="J16" s="27"/>
       <c r="K16" s="34"/>
       <c r="N16" t="s">
-        <v>2657</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" t="s">
-        <v>2660</v>
+        <v>2655</v>
       </c>
       <c r="D17" t="s">
-        <v>2664</v>
+        <v>2659</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="27"/>
@@ -19738,12 +19816,12 @@
     </row>
     <row r="24" spans="1:11">
       <c r="D24" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>2665</v>
+        <v>2660</v>
       </c>
       <c r="D26" t="s">
         <v>1989</v>
@@ -19772,10 +19850,10 @@
   <sheetData>
     <row r="2" spans="2:18">
       <c r="H2" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
       <c r="I2" t="s">
-        <v>2319</v>
+        <v>2314</v>
       </c>
       <c r="J2" t="s">
         <v>743</v>
@@ -19783,29 +19861,29 @@
     </row>
     <row r="4" spans="2:18">
       <c r="H4" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="5" spans="2:18">
       <c r="H5" t="s">
-        <v>2321</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="6" spans="2:18">
       <c r="H6" s="56" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
     </row>
     <row r="7" spans="2:18">
       <c r="Q7" t="s">
-        <v>2673</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1">
       <c r="Q8" t="s">
-        <v>2672</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -19814,17 +19892,17 @@
       <c r="D9" s="277"/>
       <c r="F9" s="30"/>
       <c r="G9" s="79" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="H9" s="32"/>
       <c r="K9" s="316"/>
       <c r="L9" s="317" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="M9" s="318"/>
       <c r="P9" s="81"/>
       <c r="Q9" s="315" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="R9" s="83"/>
     </row>
@@ -19875,13 +19953,13 @@
       <c r="C13" s="27"/>
       <c r="D13" s="34"/>
       <c r="E13" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="27"/>
       <c r="H13" s="34"/>
       <c r="J13" s="268" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="27"/>
@@ -19892,32 +19970,32 @@
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="33" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="34" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="34" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="34" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="34" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="15" spans="2:18">
@@ -19937,22 +20015,22 @@
     <row r="16" spans="2:18">
       <c r="B16" s="33"/>
       <c r="C16" s="27" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="D16" s="34"/>
       <c r="F16" s="33"/>
       <c r="G16" s="27" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="H16" s="34"/>
       <c r="K16" s="33"/>
       <c r="L16" s="27" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="M16" s="34"/>
       <c r="P16" s="33"/>
       <c r="Q16" s="27" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="R16" s="34"/>
     </row>
@@ -20044,7 +20122,7 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="27" t="s">
@@ -20327,16 +20405,16 @@
     </row>
     <row r="78" spans="2:21">
       <c r="B78" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
       <c r="C78" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
       <c r="D78" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
       <c r="E78" t="s">
-        <v>2330</v>
+        <v>2325</v>
       </c>
       <c r="F78" t="s">
         <v>223</v>
@@ -20353,7 +20431,7 @@
     </row>
     <row r="79" spans="2:21">
       <c r="F79" t="s">
-        <v>2331</v>
+        <v>2326</v>
       </c>
       <c r="I79" t="s">
         <v>144</v>
@@ -20364,16 +20442,16 @@
     </row>
     <row r="80" spans="2:21">
       <c r="B80" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
       <c r="C80" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
       <c r="D80" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
       <c r="E80" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
       <c r="N80" t="s">
         <v>144</v>
@@ -20381,12 +20459,12 @@
     </row>
     <row r="81" spans="2:10">
       <c r="F81" t="s">
-        <v>2332</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="F82" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
       <c r="J82" t="s">
         <v>732</v>
@@ -20394,31 +20472,31 @@
     </row>
     <row r="83" spans="2:10">
       <c r="B83" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
       <c r="C83" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
       <c r="D83" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
       <c r="E83" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="84" spans="2:10">
       <c r="F84" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="85" spans="2:10">
       <c r="F85" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
       <c r="J87" t="s">
         <v>735</v>
@@ -22800,29 +22878,29 @@
     </row>
     <row r="139" spans="2:16">
       <c r="D139" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="J139" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="P139" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="141" spans="2:16">
       <c r="D141" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="J141" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="P141" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="142" spans="2:16">
       <c r="D142" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="J142" t="s">
         <v>1810</v>
@@ -22833,7 +22911,7 @@
     </row>
     <row r="143" spans="2:16">
       <c r="D143" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="G143" t="s">
         <v>1601</v>
@@ -22846,28 +22924,28 @@
     </row>
     <row r="145" spans="2:19">
       <c r="B145" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="D145" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="G145" t="s">
         <v>1451</v>
       </c>
       <c r="J145" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="P145" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="148" spans="2:19">
       <c r="D148" s="186" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="E148" s="29"/>
       <c r="J148" s="186" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="K148" s="186"/>
       <c r="P148" s="186" t="s">
@@ -22877,10 +22955,10 @@
     </row>
     <row r="150" spans="2:19">
       <c r="D150" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="J150" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="P150" t="s">
         <v>1603</v>
@@ -22888,19 +22966,19 @@
     </row>
     <row r="151" spans="2:19">
       <c r="D151" s="108" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="E151" s="108"/>
       <c r="F151" s="108"/>
       <c r="G151" s="108"/>
       <c r="J151" s="108" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="K151" s="108"/>
       <c r="L151" s="108"/>
       <c r="M151" s="108"/>
       <c r="P151" s="108" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="Q151" s="108"/>
       <c r="R151" s="108"/>
@@ -22911,15 +22989,15 @@
         <v>1583</v>
       </c>
       <c r="C153" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="154" spans="2:19">
       <c r="B154" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="D154" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="155" spans="2:19">
@@ -22927,7 +23005,7 @@
         <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="156" spans="2:19">
@@ -22935,7 +23013,7 @@
         <v>43</v>
       </c>
       <c r="D156" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="207" spans="4:11">
@@ -22992,20 +23070,20 @@
     </row>
     <row r="209" spans="4:14">
       <c r="D209" s="130" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="E209" s="130" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="F209" s="130"/>
       <c r="G209" s="130"/>
       <c r="H209" s="130"/>
       <c r="I209" s="130"/>
       <c r="J209" s="130" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="K209" s="130" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="210" spans="4:14">
@@ -23059,10 +23137,10 @@
         <v>1</v>
       </c>
       <c r="L212" t="s">
-        <v>2629</v>
+        <v>2624</v>
       </c>
       <c r="M212" s="161" t="s">
-        <v>2631</v>
+        <v>2626</v>
       </c>
       <c r="N212" s="74"/>
     </row>
@@ -23078,10 +23156,10 @@
         <v>1</v>
       </c>
       <c r="L213" t="s">
-        <v>2630</v>
+        <v>2625</v>
       </c>
       <c r="M213" s="161" t="s">
-        <v>2632</v>
+        <v>2627</v>
       </c>
       <c r="N213" s="74"/>
     </row>
@@ -23097,7 +23175,7 @@
         <v>0</v>
       </c>
       <c r="L214" t="s">
-        <v>2633</v>
+        <v>2628</v>
       </c>
       <c r="M214">
         <f>2</f>
@@ -24130,7 +24208,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1" s="96" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
@@ -24138,11 +24216,11 @@
         <v>986</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>2674</v>
+        <v>2669</v>
       </c>
       <c r="C2" s="96"/>
       <c r="E2" s="57" t="s">
-        <v>2681</v>
+        <v>2676</v>
       </c>
       <c r="G2" s="319" t="s">
         <v>204</v>
@@ -24162,17 +24240,17 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="96" t="s">
-        <v>2686</v>
+        <v>2681</v>
       </c>
       <c r="B3" s="96" t="s">
         <v>460</v>
       </c>
       <c r="C3" s="96"/>
       <c r="E3" s="57" t="s">
-        <v>2680</v>
+        <v>2675</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>2676</v>
+        <v>2671</v>
       </c>
       <c r="H3" s="74" t="s">
         <v>413</v>
@@ -24184,8 +24262,8 @@
       <c r="K3" s="99"/>
       <c r="L3" s="322"/>
       <c r="M3" s="100"/>
-      <c r="N3" s="382" t="s">
-        <v>2694</v>
+      <c r="N3" s="383" t="s">
+        <v>2689</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
@@ -24193,17 +24271,17 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="96" t="s">
-        <v>2686</v>
+        <v>2681</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="C4" s="96"/>
       <c r="E4" s="57" t="s">
-        <v>2680</v>
+        <v>2675</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>2677</v>
+        <v>2672</v>
       </c>
       <c r="H4" s="74" t="s">
         <v>1650</v>
@@ -24217,7 +24295,7 @@
         <v>1008</v>
       </c>
       <c r="M4" s="216"/>
-      <c r="N4" s="382"/>
+      <c r="N4" s="383"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="52"/>
@@ -24228,13 +24306,13 @@
       <c r="I5" s="74"/>
       <c r="J5" s="74"/>
       <c r="K5" s="324" t="s">
-        <v>2675</v>
+        <v>2670</v>
       </c>
       <c r="L5" s="325">
         <v>12345</v>
       </c>
       <c r="M5" s="326"/>
-      <c r="N5" s="382"/>
+      <c r="N5" s="383"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="52"/>
@@ -24242,7 +24320,7 @@
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="A6" s="96"/>
       <c r="B6" s="96" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="C6" s="96"/>
       <c r="G6" s="50"/>
@@ -24252,7 +24330,7 @@
       <c r="K6" s="74"/>
       <c r="L6" s="74"/>
       <c r="M6" s="74"/>
-      <c r="N6" s="382"/>
+      <c r="N6" s="383"/>
       <c r="O6" s="51"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="52"/>
@@ -24264,10 +24342,10 @@
         <v>1322</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>2679</v>
+        <v>2674</v>
       </c>
       <c r="H7" s="74" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="I7" s="74"/>
       <c r="J7" s="74" t="s">
@@ -24276,7 +24354,7 @@
       <c r="K7" s="99"/>
       <c r="L7" s="322"/>
       <c r="M7" s="100"/>
-      <c r="N7" s="382"/>
+      <c r="N7" s="383"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="52"/>
@@ -24285,7 +24363,7 @@
       <c r="A8" s="96"/>
       <c r="B8" s="96"/>
       <c r="C8" s="96" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="74"/>
@@ -24298,7 +24376,7 @@
         <v>524</v>
       </c>
       <c r="M8" s="216"/>
-      <c r="N8" s="382"/>
+      <c r="N8" s="383"/>
       <c r="O8" s="51"/>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
@@ -24314,13 +24392,13 @@
       <c r="I9" s="74"/>
       <c r="J9" s="74"/>
       <c r="K9" s="324" t="s">
-        <v>2675</v>
+        <v>2670</v>
       </c>
       <c r="L9" s="325">
         <v>12346</v>
       </c>
       <c r="M9" s="326"/>
-      <c r="N9" s="382"/>
+      <c r="N9" s="383"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="Q9" s="52"/>
@@ -24338,32 +24416,32 @@
       <c r="K10" s="74"/>
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
-      <c r="N10" s="382"/>
+      <c r="N10" s="383"/>
       <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="52"/>
     </row>
     <row r="11" spans="1:17">
       <c r="C11" s="57" t="s">
-        <v>2343</v>
+        <v>2338</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="74"/>
       <c r="I11" s="74"/>
       <c r="J11" s="74" t="s">
-        <v>2678</v>
+        <v>2673</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
       <c r="M11" s="74"/>
-      <c r="N11" s="382"/>
+      <c r="N11" s="383"/>
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
       <c r="Q11" s="52"/>
     </row>
     <row r="12" spans="1:17">
       <c r="C12" s="57" t="s">
-        <v>2344</v>
+        <v>2339</v>
       </c>
       <c r="G12" s="50"/>
       <c r="H12" s="74"/>
@@ -24372,7 +24450,7 @@
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
       <c r="M12" s="74"/>
-      <c r="N12" s="382"/>
+      <c r="N12" s="383"/>
       <c r="O12" s="51"/>
       <c r="P12" s="51"/>
       <c r="Q12" s="52"/>
@@ -24385,38 +24463,38 @@
       <c r="K13" s="51"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
-      <c r="N13" s="382"/>
+      <c r="N13" s="383"/>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
       <c r="Q13" s="52"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="96" t="s">
-        <v>2687</v>
+        <v>2682</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>2696</v>
+        <v>2691</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
       <c r="J14" s="74" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="K14" s="99"/>
       <c r="L14" s="322"/>
       <c r="M14" s="100"/>
-      <c r="N14" s="382"/>
+      <c r="N14" s="383"/>
       <c r="O14" s="51"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="52"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="96" t="s">
-        <v>2688</v>
+        <v>2683</v>
       </c>
       <c r="C15" s="96" t="s">
-        <v>2695</v>
+        <v>2690</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="51"/>
@@ -24429,27 +24507,27 @@
         <v>559</v>
       </c>
       <c r="M15" s="216"/>
-      <c r="N15" s="382"/>
+      <c r="N15" s="383"/>
       <c r="O15" s="51"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
       <c r="A16" s="96" t="s">
-        <v>2697</v>
+        <v>2692</v>
       </c>
       <c r="G16" s="50"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
       <c r="J16" s="74"/>
       <c r="K16" s="324" t="s">
-        <v>2675</v>
+        <v>2670</v>
       </c>
       <c r="L16" s="325">
         <v>123123</v>
       </c>
       <c r="M16" s="326"/>
-      <c r="N16" s="382"/>
+      <c r="N16" s="383"/>
       <c r="O16" s="51"/>
       <c r="P16" s="51"/>
       <c r="Q16" s="52"/>
@@ -24469,7 +24547,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="96" t="s">
-        <v>2689</v>
+        <v>2684</v>
       </c>
       <c r="D18" s="57" t="s">
         <v>1008</v>
@@ -24488,7 +24566,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="96" t="s">
-        <v>2690</v>
+        <v>2685</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>524</v>
@@ -24507,10 +24585,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="96" t="s">
-        <v>2691</v>
+        <v>2686</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>2693</v>
+        <v>2688</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="51"/>
@@ -24526,10 +24604,10 @@
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1">
       <c r="A21" s="96" t="s">
-        <v>2692</v>
+        <v>2687</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>2693</v>
+        <v>2688</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="54"/>
@@ -24545,32 +24623,32 @@
     </row>
     <row r="23" spans="1:17">
       <c r="C23" s="57" t="s">
-        <v>2682</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="C24" s="57" t="s">
-        <v>2683</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="57" t="s">
-        <v>2684</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="C27" s="57" t="s">
-        <v>2685</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1">
       <c r="C28" s="57" t="s">
-        <v>2704</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1">
       <c r="A29" s="57" t="s">
-        <v>2703</v>
+        <v>2698</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="48"/>
@@ -24583,7 +24661,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="96" t="s">
-        <v>2698</v>
+        <v>2693</v>
       </c>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -24604,7 +24682,7 @@
     <row r="31" spans="1:17">
       <c r="A31" s="96"/>
       <c r="B31" s="96" t="s">
-        <v>2705</v>
+        <v>2700</v>
       </c>
       <c r="C31" s="96"/>
       <c r="D31" s="96"/>
@@ -24621,7 +24699,7 @@
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96" t="s">
-        <v>2699</v>
+        <v>2694</v>
       </c>
       <c r="D32" s="96"/>
       <c r="G32" s="50"/>
@@ -24652,7 +24730,7 @@
     <row r="34" spans="1:14" ht="15.75" thickBot="1">
       <c r="A34" s="96"/>
       <c r="B34" s="96" t="s">
-        <v>2706</v>
+        <v>2701</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
@@ -24669,7 +24747,7 @@
       <c r="A35" s="96"/>
       <c r="B35" s="96"/>
       <c r="C35" s="96" t="s">
-        <v>2700</v>
+        <v>2695</v>
       </c>
       <c r="D35" s="96"/>
       <c r="G35" s="50"/>
@@ -24712,7 +24790,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="96" t="s">
-        <v>2701</v>
+        <v>2696</v>
       </c>
       <c r="B38" s="96"/>
       <c r="C38" s="96"/>
@@ -24760,7 +24838,7 @@
       <c r="A41" s="96"/>
       <c r="B41" s="96"/>
       <c r="C41" s="96" t="s">
-        <v>2707</v>
+        <v>2702</v>
       </c>
       <c r="D41" s="96"/>
       <c r="G41" s="50"/>
@@ -24790,7 +24868,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="96" t="s">
-        <v>2702</v>
+        <v>2697</v>
       </c>
       <c r="B43" s="96"/>
       <c r="C43" s="96"/>
@@ -24838,7 +24916,7 @@
       <c r="A46" s="96"/>
       <c r="B46" s="96"/>
       <c r="C46" s="96" t="s">
-        <v>2708</v>
+        <v>2703</v>
       </c>
       <c r="D46" s="96"/>
       <c r="G46" s="50"/>
@@ -27805,22 +27883,22 @@
     </row>
     <row r="284" spans="1:17">
       <c r="A284" s="96" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="B284" s="96"/>
       <c r="C284" s="96"/>
       <c r="D284" s="96"/>
       <c r="G284" s="50" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="H284" s="51" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="I284" s="51"/>
       <c r="J284" s="51"/>
       <c r="K284" s="51"/>
       <c r="L284" s="51" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="M284" s="47" t="s">
         <v>178</v>
@@ -27829,7 +27907,7 @@
         <v>10</v>
       </c>
       <c r="O284" s="278" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="P284" s="51"/>
       <c r="Q284" s="52"/>
@@ -27842,10 +27920,10 @@
       <c r="C285" s="96"/>
       <c r="D285" s="96"/>
       <c r="G285" s="50" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="H285" s="51" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="I285" s="51"/>
       <c r="J285" s="51"/>
@@ -27860,15 +27938,15 @@
     <row r="286" spans="1:17" ht="15.75" thickBot="1">
       <c r="A286" s="96"/>
       <c r="B286" s="96" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="C286" s="96"/>
       <c r="D286" s="96"/>
       <c r="G286" s="50" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="H286" s="51" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="I286" s="51"/>
       <c r="J286" s="51"/>
@@ -27891,7 +27969,7 @@
       <c r="J287" s="51"/>
       <c r="K287" s="51"/>
       <c r="L287" s="51" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="M287" s="47" t="s">
         <v>178</v>
@@ -27922,7 +28000,7 @@
     </row>
     <row r="289" spans="1:17" ht="15.75" thickBot="1">
       <c r="A289" s="96" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="B289" s="96"/>
       <c r="C289" s="96"/>
@@ -27941,7 +28019,7 @@
     </row>
     <row r="290" spans="1:17">
       <c r="A290" s="96" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="B290" s="96"/>
       <c r="C290" s="96"/>
@@ -27952,7 +28030,7 @@
       <c r="J290" s="51"/>
       <c r="K290" s="51"/>
       <c r="L290" s="51" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="M290" s="47" t="s">
         <v>178</v>
@@ -27966,7 +28044,7 @@
     </row>
     <row r="291" spans="1:17" ht="15.75" thickBot="1">
       <c r="A291" s="96" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="B291" s="96"/>
       <c r="C291" s="96"/>
@@ -28017,7 +28095,7 @@
     <row r="318" spans="2:12">
       <c r="B318" s="47"/>
       <c r="C318" s="48" t="s">
-        <v>2710</v>
+        <v>2705</v>
       </c>
       <c r="D318" s="48"/>
       <c r="E318" s="48"/>
@@ -28025,7 +28103,7 @@
       <c r="G318" s="48"/>
       <c r="H318" s="48"/>
       <c r="I318" s="48" t="s">
-        <v>2578</v>
+        <v>2573</v>
       </c>
       <c r="J318" s="48"/>
       <c r="K318" s="48"/>
@@ -28179,11 +28257,11 @@
       <c r="C330" s="51"/>
       <c r="D330" s="51"/>
       <c r="E330" s="51" t="s">
-        <v>2709</v>
+        <v>2704</v>
       </c>
       <c r="F330" s="51"/>
       <c r="G330" s="51" t="s">
-        <v>2711</v>
+        <v>2706</v>
       </c>
       <c r="H330" s="51"/>
       <c r="I330" s="51"/>
@@ -28211,7 +28289,7 @@
       <c r="E332" s="54"/>
       <c r="F332" s="54"/>
       <c r="G332" s="54" t="s">
-        <v>2712</v>
+        <v>2707</v>
       </c>
       <c r="H332" s="54"/>
       <c r="I332" s="54"/>
@@ -28221,7 +28299,7 @@
     </row>
     <row r="333" spans="2:12">
       <c r="G333" s="57" t="s">
-        <v>2713</v>
+        <v>2708</v>
       </c>
     </row>
   </sheetData>
@@ -28250,7 +28328,7 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2727</v>
+        <v>2722</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
@@ -28262,7 +28340,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>2345</v>
+        <v>2340</v>
       </c>
       <c r="G3" s="80" t="s">
         <v>204</v>
@@ -28284,7 +28362,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="G4" s="33" t="s">
-        <v>2714</v>
+        <v>2709</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>413</v>
@@ -28301,7 +28379,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2721</v>
+        <v>2716</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="38"/>
@@ -28317,7 +28395,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>2715</v>
+        <v>2710</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="27"/>
@@ -28327,13 +28405,13 @@
         <v>3</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2716</v>
+        <v>2711</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="51"/>
@@ -28349,7 +28427,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2717</v>
+        <v>2712</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="51"/>
@@ -28361,7 +28439,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2718</v>
+        <v>2713</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="51"/>
@@ -28382,10 +28460,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>2719</v>
+        <v>2714</v>
       </c>
       <c r="D11" t="s">
-        <v>2720</v>
+        <v>2715</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="51"/>
@@ -28403,7 +28481,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2346</v>
+        <v>2341</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="27"/>
@@ -28419,10 +28497,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2719</v>
+        <v>2714</v>
       </c>
       <c r="D13" t="s">
-        <v>2723</v>
+        <v>2718</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="27"/>
@@ -28438,17 +28516,17 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" t="s">
-        <v>2724</v>
+        <v>2719</v>
       </c>
       <c r="D14" t="s">
-        <v>2720</v>
+        <v>2715</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="35" t="s">
-        <v>2722</v>
+        <v>2717</v>
       </c>
       <c r="L14" s="37" t="s">
         <v>417</v>
@@ -28457,10 +28535,10 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" t="s">
-        <v>2725</v>
+        <v>2720</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>2726</v>
+        <v>2721</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="27"/>
@@ -28475,7 +28553,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>58</v>
@@ -28487,7 +28565,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>2728</v>
+        <v>2723</v>
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="27"/>
@@ -28520,7 +28598,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="35" t="s">
-        <v>2722</v>
+        <v>2717</v>
       </c>
       <c r="L19" s="37" t="s">
         <v>417</v>
@@ -28530,23 +28608,23 @@
     <row r="23" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>2727</v>
+        <v>2722</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>2518</v>
+        <v>2513</v>
       </c>
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>2345</v>
+        <v>2340</v>
       </c>
       <c r="G25" s="80" t="s">
         <v>204</v>
@@ -28568,7 +28646,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="G26" s="33" t="s">
-        <v>2714</v>
+        <v>2709</v>
       </c>
       <c r="H26" s="27" t="s">
         <v>413</v>
@@ -28585,7 +28663,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>2729</v>
+        <v>2724</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="38"/>
@@ -28601,7 +28679,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="B28" t="s">
-        <v>2730</v>
+        <v>2725</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="27"/>
@@ -28633,7 +28711,7 @@
         <v>1018</v>
       </c>
       <c r="B30" t="s">
-        <v>2731</v>
+        <v>2726</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="51"/>
@@ -28666,7 +28744,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="B33" t="s">
-        <v>2346</v>
+        <v>2341</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="51"/>
@@ -28697,7 +28775,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="B35" t="s">
-        <v>2732</v>
+        <v>2727</v>
       </c>
       <c r="D35" t="s">
         <v>683</v>
@@ -28723,7 +28801,7 @@
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="35" t="s">
-        <v>2722</v>
+        <v>2717</v>
       </c>
       <c r="L36" s="37" t="s">
         <v>417</v>
@@ -28742,7 +28820,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="B38" t="s">
-        <v>2733</v>
+        <v>2728</v>
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="27"/>
@@ -28790,7 +28868,7 @@
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="35" t="s">
-        <v>2722</v>
+        <v>2717</v>
       </c>
       <c r="L41" s="37" t="s">
         <v>417</v>
@@ -28853,7 +28931,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="38" t="s">
-        <v>2734</v>
+        <v>2729</v>
       </c>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
@@ -28895,13 +28973,13 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="38" t="s">
-        <v>2736</v>
+        <v>2731</v>
       </c>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="84" t="s">
-        <v>2735</v>
+        <v>2730</v>
       </c>
       <c r="F48" s="38" t="s">
         <v>413</v>
@@ -28919,7 +28997,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="38" t="s">
-        <v>2737</v>
+        <v>2732</v>
       </c>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
@@ -29215,7 +29293,7 @@
     </row>
     <row r="64" spans="1:16" ht="15.75" thickBot="1">
       <c r="A64" s="38" t="s">
-        <v>2743</v>
+        <v>2738</v>
       </c>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -29236,7 +29314,7 @@
     <row r="65" spans="1:16">
       <c r="A65" s="38"/>
       <c r="B65" s="38" t="s">
-        <v>2748</v>
+        <v>2743</v>
       </c>
       <c r="D65" s="74"/>
       <c r="E65" s="38"/>
@@ -29249,7 +29327,7 @@
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
       <c r="K65" s="38" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="L65" s="81" t="s">
         <v>58</v>
@@ -29266,11 +29344,11 @@
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
       <c r="D66" s="74" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="E66" s="38"/>
       <c r="G66" s="84" t="s">
-        <v>2741</v>
+        <v>2736</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>413</v>
@@ -29292,7 +29370,7 @@
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38" t="s">
-        <v>2740</v>
+        <v>2735</v>
       </c>
       <c r="D67" s="74"/>
       <c r="G67" s="84"/>
@@ -29354,7 +29432,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="38" t="s">
-        <v>2748</v>
+        <v>2743</v>
       </c>
       <c r="C70" s="74"/>
       <c r="D70" s="38"/>
@@ -29364,14 +29442,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="129" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="I70" s="129" t="s">
-        <v>2751</v>
+        <v>2746</v>
       </c>
       <c r="J70" s="38"/>
       <c r="K70" s="38" t="s">
-        <v>2751</v>
+        <v>2746</v>
       </c>
       <c r="L70" s="81" t="s">
         <v>58</v>
@@ -29385,7 +29463,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="38" t="s">
-        <v>2738</v>
+        <v>2733</v>
       </c>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
@@ -29411,7 +29489,7 @@
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1">
       <c r="A72" s="38" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
@@ -29440,7 +29518,7 @@
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
       <c r="D73" s="74" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
       <c r="E73" s="38"/>
       <c r="G73" s="84"/>
@@ -29459,7 +29537,7 @@
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
       <c r="D74" s="74" t="s">
-        <v>2747</v>
+        <v>2742</v>
       </c>
       <c r="E74" s="38"/>
       <c r="G74" s="84"/>
@@ -29478,7 +29556,7 @@
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
       <c r="D75" s="74" t="s">
-        <v>2739</v>
+        <v>2734</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
@@ -29502,22 +29580,22 @@
       <c r="F76" s="38"/>
       <c r="G76" s="84"/>
       <c r="H76" s="38" t="s">
+        <v>2748</v>
+      </c>
+      <c r="I76" s="38" t="s">
+        <v>2749</v>
+      </c>
+      <c r="J76" s="38" t="s">
+        <v>2750</v>
+      </c>
+      <c r="K76" s="38" t="s">
+        <v>2751</v>
+      </c>
+      <c r="L76" s="38" t="s">
+        <v>2752</v>
+      </c>
+      <c r="M76" s="38" t="s">
         <v>2753</v>
-      </c>
-      <c r="I76" s="38" t="s">
-        <v>2754</v>
-      </c>
-      <c r="J76" s="38" t="s">
-        <v>2755</v>
-      </c>
-      <c r="K76" s="38" t="s">
-        <v>2756</v>
-      </c>
-      <c r="L76" s="38" t="s">
-        <v>2757</v>
-      </c>
-      <c r="M76" s="38" t="s">
-        <v>2758</v>
       </c>
       <c r="N76" s="38"/>
       <c r="O76" s="38"/>
@@ -29528,7 +29606,7 @@
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
       <c r="D77" s="74" t="s">
-        <v>2744</v>
+        <v>2739</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
@@ -29565,7 +29643,7 @@
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38" t="s">
-        <v>2745</v>
+        <v>2740</v>
       </c>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -29604,7 +29682,7 @@
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
       <c r="D81" s="38" t="s">
-        <v>2749</v>
+        <v>2744</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
@@ -29641,7 +29719,7 @@
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38" t="s">
-        <v>2750</v>
+        <v>2745</v>
       </c>
       <c r="D83" s="38"/>
       <c r="E83" s="38"/>
@@ -29662,7 +29740,7 @@
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
       <c r="D84" s="38" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
@@ -29720,12 +29798,12 @@
       <c r="D87" s="38"/>
       <c r="E87" s="38"/>
       <c r="F87" s="39" t="s">
-        <v>2762</v>
+        <v>2757</v>
       </c>
       <c r="G87" s="38"/>
       <c r="H87" s="38"/>
       <c r="I87" s="141" t="s">
-        <v>2763</v>
+        <v>2758</v>
       </c>
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
@@ -29737,7 +29815,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="39" t="s">
-        <v>2759</v>
+        <v>2754</v>
       </c>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
@@ -29765,7 +29843,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="141" t="s">
-        <v>2760</v>
+        <v>2755</v>
       </c>
       <c r="B89" s="38"/>
       <c r="D89" s="38"/>
@@ -29792,7 +29870,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="38" t="s">
-        <v>2761</v>
+        <v>2756</v>
       </c>
       <c r="B90" s="38"/>
       <c r="D90" s="38"/>
@@ -29833,7 +29911,7 @@
         <v>18</v>
       </c>
       <c r="J91" s="38" t="s">
-        <v>2726</v>
+        <v>2721</v>
       </c>
       <c r="K91" s="38"/>
       <c r="L91" s="38"/>
@@ -29869,7 +29947,7 @@
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
       <c r="D93" s="38" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
@@ -29889,7 +29967,7 @@
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
       <c r="D94" s="38" t="s">
-        <v>2764</v>
+        <v>2759</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
@@ -33370,12 +33448,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="E1" s="38" t="s">
-        <v>2783</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="38" t="s">
-        <v>2785</v>
+        <v>2780</v>
       </c>
       <c r="E2" s="332" t="s">
         <v>1458</v>
@@ -33387,14 +33465,14 @@
       <c r="H2" s="82"/>
       <c r="I2" s="82"/>
       <c r="J2" s="81" t="s">
-        <v>2784</v>
+        <v>2779</v>
       </c>
       <c r="K2" s="82"/>
       <c r="L2" s="83"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="B3" s="38" t="s">
-        <v>2787</v>
+        <v>2782</v>
       </c>
       <c r="E3" s="84" t="s">
         <v>1868</v>
@@ -33408,7 +33486,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="B4" s="38" t="s">
-        <v>2786</v>
+        <v>2781</v>
       </c>
       <c r="E4" s="84" t="s">
         <v>466</v>
@@ -33417,7 +33495,7 @@
         <v>413</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="K4" s="280" t="s">
         <v>412</v>
@@ -33432,7 +33510,7 @@
         <v>58</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="J5" s="84"/>
       <c r="L5" s="331"/>
@@ -33442,26 +33520,26 @@
         <v>1766</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="J6" s="84"/>
       <c r="L6" s="75"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="38" t="s">
-        <v>2788</v>
+        <v>2783</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>2790</v>
+        <v>2785</v>
       </c>
       <c r="E7" s="84" t="s">
         <v>1767</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="J7" s="84" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="K7" s="280" t="s">
         <v>524</v>
@@ -33470,7 +33548,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="38" t="s">
-        <v>2789</v>
+        <v>2784</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>1897</v>
@@ -33488,7 +33566,7 @@
       </c>
       <c r="E9" s="84"/>
       <c r="J9" s="84" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="K9" s="280" t="s">
         <v>559</v>
@@ -33497,7 +33575,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="38" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="E10" s="84"/>
       <c r="J10" s="84"/>
@@ -33505,7 +33583,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="38" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="E11" s="84"/>
       <c r="F11" s="74" t="s">
@@ -33534,10 +33612,10 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="38" t="s">
-        <v>2795</v>
+        <v>2790</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>2796</v>
+        <v>2791</v>
       </c>
       <c r="E13" s="84"/>
       <c r="F13" s="74"/>
@@ -33548,7 +33626,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="38" t="s">
-        <v>2797</v>
+        <v>2792</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>1648</v>
@@ -33570,15 +33648,15 @@
     </row>
     <row r="16" spans="1:12">
       <c r="J16" s="38" t="s">
-        <v>2791</v>
+        <v>2786</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="38" t="s">
-        <v>2798</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1">
@@ -33590,7 +33668,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="38" t="s">
-        <v>2799</v>
+        <v>2794</v>
       </c>
       <c r="E19" s="81" t="s">
         <v>204</v>
@@ -33610,7 +33688,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" s="38" t="s">
-        <v>2800</v>
+        <v>2795</v>
       </c>
       <c r="E20" s="84" t="s">
         <v>1645</v>
@@ -33623,7 +33701,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="38" t="s">
-        <v>2801</v>
+        <v>2796</v>
       </c>
       <c r="E21" s="84" t="s">
         <v>1646</v>
@@ -33642,10 +33720,10 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="38" t="s">
-        <v>2802</v>
+        <v>2797</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>2806</v>
+        <v>2801</v>
       </c>
       <c r="H22" s="295"/>
       <c r="J22" s="84"/>
@@ -33653,11 +33731,11 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="38" t="s">
-        <v>2803</v>
+        <v>2798</v>
       </c>
       <c r="C23" s="74"/>
       <c r="E23" s="84" t="s">
-        <v>2807</v>
+        <v>2802</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>1632</v>
@@ -33669,10 +33747,10 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1">
       <c r="A24" s="38" t="s">
-        <v>2804</v>
+        <v>2799</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>2808</v>
+        <v>2803</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>2004</v>
@@ -33684,11 +33762,11 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1">
       <c r="A25" s="38" t="s">
-        <v>2805</v>
+        <v>2800</v>
       </c>
       <c r="C25" s="74"/>
       <c r="E25" s="84" t="s">
-        <v>2806</v>
+        <v>2801</v>
       </c>
       <c r="H25" s="231"/>
       <c r="I25" s="231"/>
@@ -33704,7 +33782,7 @@
     <row r="26" spans="1:15">
       <c r="C26" s="74"/>
       <c r="E26" s="84" t="s">
-        <v>2809</v>
+        <v>2804</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>2004</v>
@@ -33716,7 +33794,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1">
       <c r="A27" s="38" t="s">
-        <v>2810</v>
+        <v>2805</v>
       </c>
       <c r="C27" s="74"/>
       <c r="E27" s="84"/>
@@ -33749,7 +33827,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="38" t="s">
-        <v>2811</v>
+        <v>2806</v>
       </c>
       <c r="C30" s="74"/>
       <c r="E30" s="84"/>
@@ -33760,7 +33838,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="38" t="s">
-        <v>2812</v>
+        <v>2807</v>
       </c>
       <c r="C31" s="74"/>
       <c r="E31" s="84"/>
@@ -33771,7 +33849,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1">
       <c r="A32" s="38" t="s">
-        <v>2813</v>
+        <v>2808</v>
       </c>
       <c r="C32" s="74"/>
       <c r="E32" s="85"/>
@@ -33789,7 +33867,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="38" t="s">
-        <v>2814</v>
+        <v>2809</v>
       </c>
       <c r="E34" s="81" t="s">
         <v>204</v>
@@ -33809,7 +33887,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="A35" s="38" t="s">
-        <v>2815</v>
+        <v>2810</v>
       </c>
       <c r="E35" s="84" t="s">
         <v>402</v>
@@ -33822,7 +33900,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1">
       <c r="A36" s="38" t="s">
-        <v>2816</v>
+        <v>2811</v>
       </c>
       <c r="E36" s="84" t="s">
         <v>403</v>
@@ -33841,13 +33919,13 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="38" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="E37" s="84" t="s">
         <v>405</v>
       </c>
       <c r="F37" s="295" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="J37" s="84"/>
       <c r="K37" s="168"/>
@@ -33861,7 +33939,7 @@
         <v>415</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
       <c r="J38" s="84"/>
       <c r="M38" s="75"/>
@@ -33890,13 +33968,13 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" thickBot="1">
       <c r="A41" s="38" t="s">
-        <v>2818</v>
+        <v>2813</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>412</v>
       </c>
       <c r="E41" s="339" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="F41" s="280" t="s">
         <v>412</v>
@@ -33906,7 +33984,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" thickBot="1">
       <c r="A42" s="38" t="s">
-        <v>2819</v>
+        <v>2814</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>412</v>
@@ -33917,10 +33995,10 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" thickBot="1">
       <c r="B43" s="38" t="s">
-        <v>2823</v>
+        <v>2818</v>
       </c>
       <c r="E43" s="339" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
       <c r="F43" s="280" t="s">
         <v>412</v>
@@ -33930,7 +34008,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="38" t="s">
-        <v>2822</v>
+        <v>2817</v>
       </c>
       <c r="C44" s="38" t="b">
         <v>1</v>
@@ -33941,7 +34019,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" thickBot="1">
       <c r="B45" s="38" t="s">
-        <v>2821</v>
+        <v>2816</v>
       </c>
       <c r="E45" s="85"/>
       <c r="F45" s="86"/>
@@ -33960,7 +34038,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" thickBot="1">
       <c r="B47" s="38" t="s">
-        <v>2820</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -33982,29 +34060,29 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="38" t="s">
-        <v>2824</v>
+        <v>2819</v>
       </c>
       <c r="E49" s="84" t="s">
-        <v>2634</v>
+        <v>2629</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="J49" s="84"/>
       <c r="K49" s="38" t="s">
         <v>1632</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>2830</v>
+        <v>2825</v>
       </c>
       <c r="M49" s="75"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="38" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C50" s="38" t="s">
         <v>2826</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>2831</v>
       </c>
       <c r="E50" s="84"/>
       <c r="J50" s="84"/>
@@ -34012,16 +34090,16 @@
         <v>2004</v>
       </c>
       <c r="L50" s="38" t="s">
-        <v>2831</v>
+        <v>2826</v>
       </c>
       <c r="M50" s="75"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="38" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C51" s="38" t="s">
         <v>2827</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>2832</v>
       </c>
       <c r="E51" s="84"/>
       <c r="J51" s="84"/>
@@ -34029,13 +34107,13 @@
         <v>2005</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>2832</v>
+        <v>2827</v>
       </c>
       <c r="M51" s="75"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="38" t="s">
-        <v>2828</v>
+        <v>2823</v>
       </c>
       <c r="E52" s="84"/>
       <c r="J52" s="84"/>
@@ -34043,26 +34121,26 @@
         <v>2006</v>
       </c>
       <c r="L52" s="38" t="s">
-        <v>2833</v>
+        <v>2828</v>
       </c>
       <c r="M52" s="75"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="38" t="s">
-        <v>2829</v>
+        <v>2824</v>
       </c>
       <c r="E53" s="84" t="s">
-        <v>2634</v>
+        <v>2629</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
       <c r="J53" s="84"/>
       <c r="K53" s="38" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="L53" s="38" t="s">
-        <v>2834</v>
+        <v>2829</v>
       </c>
       <c r="M53" s="75"/>
     </row>
@@ -34073,7 +34151,7 @@
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1">
       <c r="A55" s="38" t="s">
-        <v>2837</v>
+        <v>2832</v>
       </c>
       <c r="E55" s="84"/>
       <c r="J55" s="84"/>
@@ -34081,20 +34159,20 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
       <c r="A56" s="38" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E56" s="323" t="s">
         <v>2838</v>
       </c>
-      <c r="E56" s="323" t="s">
-        <v>2843</v>
-      </c>
       <c r="F56" s="280" t="s">
-        <v>2834</v>
+        <v>2829</v>
       </c>
       <c r="J56" s="84"/>
       <c r="M56" s="75"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="38" t="s">
-        <v>2839</v>
+        <v>2834</v>
       </c>
       <c r="E57" s="84"/>
       <c r="J57" s="84"/>
@@ -34102,7 +34180,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="38" t="s">
-        <v>2840</v>
+        <v>2835</v>
       </c>
       <c r="E58" s="84"/>
       <c r="J58" s="84"/>
@@ -34110,7 +34188,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1">
       <c r="A59" s="38" t="s">
-        <v>2841</v>
+        <v>2836</v>
       </c>
       <c r="E59" s="85"/>
       <c r="F59" s="86"/>
@@ -34124,12 +34202,12 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="38" t="s">
-        <v>2835</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="38" t="s">
-        <v>2836</v>
+        <v>2831</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>1649</v>
@@ -34142,13 +34220,13 @@
     </row>
     <row r="65" spans="4:8">
       <c r="D65" s="38" t="s">
-        <v>2825</v>
+        <v>2820</v>
       </c>
       <c r="G65" s="129">
         <v>0</v>
       </c>
       <c r="H65" s="129" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="66" spans="4:8">
@@ -34156,7 +34234,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="129" t="s">
-        <v>2844</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="67" spans="4:8">
@@ -34164,7 +34242,7 @@
         <v>2</v>
       </c>
       <c r="H67" s="129" t="s">
-        <v>2845</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="68" spans="4:8">
@@ -34172,7 +34250,7 @@
         <v>3</v>
       </c>
       <c r="H68" s="129" t="s">
-        <v>2846</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="82" spans="6:7">
@@ -34490,7 +34568,7 @@
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29" t="s">
-        <v>2780</v>
+        <v>2775</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
@@ -34523,7 +34601,7 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>2726</v>
+        <v>2721</v>
       </c>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
@@ -34551,7 +34629,7 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29" t="s">
-        <v>2781</v>
+        <v>2776</v>
       </c>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
@@ -34564,7 +34642,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="L16" s="29" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="29"/>
@@ -35733,7 +35811,7 @@
     <row r="203" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="204" spans="1:20">
       <c r="A204" t="s">
-        <v>2766</v>
+        <v>2761</v>
       </c>
       <c r="F204" s="30" t="s">
         <v>204</v>
@@ -35750,7 +35828,7 @@
         <v>356</v>
       </c>
       <c r="F205" s="33" t="s">
-        <v>2771</v>
+        <v>2766</v>
       </c>
       <c r="G205" s="27" t="s">
         <v>413</v>
@@ -35764,7 +35842,7 @@
         <v>1547</v>
       </c>
       <c r="F206" s="33" t="s">
-        <v>2772</v>
+        <v>2767</v>
       </c>
       <c r="G206" s="27" t="s">
         <v>417</v>
@@ -35775,7 +35853,7 @@
     </row>
     <row r="207" spans="1:20">
       <c r="B207" t="s">
-        <v>2767</v>
+        <v>2762</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="27"/>
@@ -35785,7 +35863,7 @@
     </row>
     <row r="208" spans="1:20" ht="15.75" thickBot="1">
       <c r="B208" t="s">
-        <v>2768</v>
+        <v>2763</v>
       </c>
       <c r="F208" s="33"/>
       <c r="G208" s="27"/>
@@ -35822,7 +35900,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>2769</v>
+        <v>2764</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="27"/>
@@ -35836,13 +35914,13 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" thickBot="1">
       <c r="A212" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="27"/>
       <c r="H212" s="27"/>
       <c r="I212" s="156" t="s">
-        <v>2722</v>
+        <v>2717</v>
       </c>
       <c r="J212" s="314" t="s">
         <v>417</v>
@@ -35857,7 +35935,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>2773</v>
+        <v>2768</v>
       </c>
       <c r="D214" t="s">
         <v>412</v>
@@ -35870,10 +35948,10 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>2774</v>
+        <v>2769</v>
       </c>
       <c r="D215" t="s">
-        <v>2775</v>
+        <v>2770</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="27"/>
@@ -35883,7 +35961,7 @@
     </row>
     <row r="216" spans="1:10" ht="15.75" thickBot="1">
       <c r="A216" s="123" t="s">
-        <v>2776</v>
+        <v>2771</v>
       </c>
       <c r="F216" s="35"/>
       <c r="G216" s="36"/>
@@ -35893,15 +35971,15 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>2777</v>
+        <v>2772</v>
       </c>
       <c r="D217" t="s">
-        <v>2775</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>2778</v>
+        <v>2773</v>
       </c>
       <c r="B218" t="s">
         <v>575</v>
@@ -35909,7 +35987,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>2779</v>
+        <v>2774</v>
       </c>
       <c r="D219" t="s">
         <v>1834</v>
@@ -36691,7 +36769,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="B333" t="s">
-        <v>2347</v>
+        <v>2342</v>
       </c>
       <c r="F333" s="33"/>
       <c r="G333" s="27" t="s">
@@ -36774,7 +36852,7 @@
     </row>
     <row r="340" spans="2:12">
       <c r="B340" t="s">
-        <v>2348</v>
+        <v>2343</v>
       </c>
       <c r="D340" t="s">
         <v>412</v>
@@ -36789,7 +36867,7 @@
     </row>
     <row r="341" spans="2:12">
       <c r="B341" t="s">
-        <v>2349</v>
+        <v>2344</v>
       </c>
       <c r="F341" s="33"/>
       <c r="G341" s="27"/>
@@ -36810,7 +36888,7 @@
     </row>
     <row r="352" spans="2:12">
       <c r="C352" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="353" spans="2:2">
@@ -36846,12 +36924,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="D2" s="385" t="s">
-        <v>2862</v>
-      </c>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
+      <c r="D2" s="386" t="s">
+        <v>2857</v>
+      </c>
+      <c r="E2" s="386"/>
+      <c r="F2" s="386"/>
+      <c r="G2" s="386"/>
     </row>
     <row r="3" spans="2:13">
       <c r="D3" s="43" t="s">
@@ -36869,48 +36947,48 @@
     </row>
     <row r="4" spans="2:13">
       <c r="C4" t="s">
-        <v>2863</v>
+        <v>2858</v>
       </c>
       <c r="D4" s="129" t="s">
-        <v>2869</v>
+        <v>2864</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>2870</v>
+        <v>2865</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>2864</v>
+        <v>2859</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>2865</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="C5" t="s">
-        <v>2353</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="D6" t="s">
-        <v>2357</v>
+        <v>2352</v>
       </c>
       <c r="F6" t="s">
-        <v>2358</v>
+        <v>2353</v>
       </c>
       <c r="K6" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="D7" s="129" t="s">
-        <v>2866</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="D8" s="43" t="s">
-        <v>2867</v>
+        <v>2862</v>
       </c>
       <c r="K8" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -36918,7 +36996,7 @@
     </row>
     <row r="9" spans="2:13">
       <c r="K9" t="s">
-        <v>2355</v>
+        <v>2350</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -36926,7 +37004,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="D10" t="s">
-        <v>2868</v>
+        <v>2863</v>
       </c>
       <c r="K10" t="s">
         <v>1781</v>
@@ -36953,13 +37031,13 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" t="s">
-        <v>2352</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="108" customFormat="1"/>
     <row r="19" spans="1:14">
       <c r="C19" t="s">
-        <v>2871</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -36972,22 +37050,22 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1">
       <c r="A22" s="106"/>
-      <c r="B22" s="383" t="s">
-        <v>2872</v>
-      </c>
-      <c r="C22" s="383"/>
+      <c r="B22" s="384" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C22" s="384"/>
       <c r="D22" s="106"/>
-      <c r="E22" s="383" t="s">
+      <c r="E22" s="384" t="s">
         <v>1204</v>
       </c>
-      <c r="F22" s="383"/>
-      <c r="G22" s="383"/>
+      <c r="F22" s="384"/>
+      <c r="G22" s="384"/>
       <c r="H22" s="106"/>
-      <c r="I22" s="383" t="s">
-        <v>2873</v>
-      </c>
-      <c r="J22" s="383"/>
-      <c r="K22" s="383"/>
+      <c r="I22" s="384" t="s">
+        <v>2868</v>
+      </c>
+      <c r="J22" s="384"/>
+      <c r="K22" s="384"/>
       <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:14">
@@ -36997,7 +37075,7 @@
       <c r="D23" s="106"/>
       <c r="E23" s="81"/>
       <c r="F23" s="82" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="G23" s="83"/>
       <c r="H23" s="106"/>
@@ -37009,7 +37087,7 @@
     <row r="24" spans="1:14">
       <c r="A24" s="106"/>
       <c r="B24" s="84" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="106"/>
@@ -37019,11 +37097,11 @@
       </c>
       <c r="G24" s="75"/>
       <c r="H24" s="107" t="s">
-        <v>2886</v>
+        <v>2881</v>
       </c>
       <c r="I24" s="84"/>
       <c r="J24" s="38" t="s">
-        <v>2878</v>
+        <v>2873</v>
       </c>
       <c r="K24" s="75"/>
       <c r="N24" s="106"/>
@@ -37031,7 +37109,7 @@
     <row r="25" spans="1:14">
       <c r="A25" s="106"/>
       <c r="B25" s="84" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="106"/>
@@ -37045,7 +37123,7 @@
       </c>
       <c r="I25" s="84"/>
       <c r="J25" s="38" t="s">
-        <v>2360</v>
+        <v>2355</v>
       </c>
       <c r="K25" s="75"/>
       <c r="N25" s="106"/>
@@ -37053,7 +37131,7 @@
     <row r="26" spans="1:14">
       <c r="A26" s="106"/>
       <c r="B26" s="84" t="s">
-        <v>2881</v>
+        <v>2876</v>
       </c>
       <c r="C26" s="75"/>
       <c r="D26" s="106"/>
@@ -37073,7 +37151,7 @@
     <row r="27" spans="1:14">
       <c r="A27" s="106"/>
       <c r="B27" s="342" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="106"/>
@@ -37085,7 +37163,7 @@
       <c r="H27" s="106"/>
       <c r="I27" s="84"/>
       <c r="J27" s="38" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="K27" s="75"/>
       <c r="N27" s="106"/>
@@ -37093,23 +37171,23 @@
     <row r="28" spans="1:14">
       <c r="A28" s="106"/>
       <c r="B28" s="343" t="s">
-        <v>2882</v>
+        <v>2877</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="106"/>
       <c r="E28" s="84" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="F28" s="168">
         <v>0</v>
       </c>
       <c r="G28" s="75"/>
       <c r="H28" s="107" t="s">
-        <v>2886</v>
+        <v>2881</v>
       </c>
       <c r="I28" s="84"/>
       <c r="J28" s="307" t="s">
-        <v>2880</v>
+        <v>2875</v>
       </c>
       <c r="K28" s="75"/>
       <c r="N28" s="106"/>
@@ -37117,7 +37195,7 @@
     <row r="29" spans="1:14">
       <c r="A29" s="106"/>
       <c r="B29" s="343" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="106"/>
@@ -37131,7 +37209,7 @@
       </c>
       <c r="I29" s="84"/>
       <c r="J29" s="38" t="s">
-        <v>2883</v>
+        <v>2878</v>
       </c>
       <c r="K29" s="75"/>
       <c r="N29" s="106"/>
@@ -37139,7 +37217,7 @@
     <row r="30" spans="1:14">
       <c r="A30" s="106"/>
       <c r="B30" s="84" t="s">
-        <v>2881</v>
+        <v>2876</v>
       </c>
       <c r="C30" s="75"/>
       <c r="D30" s="106"/>
@@ -37151,7 +37229,7 @@
       <c r="H30" s="106"/>
       <c r="I30" s="84"/>
       <c r="J30" s="38" t="s">
-        <v>2887</v>
+        <v>2882</v>
       </c>
       <c r="K30" s="75"/>
       <c r="N30" s="106"/>
@@ -37159,12 +37237,12 @@
     <row r="31" spans="1:14" s="108" customFormat="1">
       <c r="A31" s="106"/>
       <c r="B31" s="84" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
       <c r="C31" s="75"/>
       <c r="D31" s="106"/>
       <c r="E31" s="84" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="F31" s="38">
         <v>2</v>
@@ -37173,7 +37251,7 @@
       <c r="H31" s="106"/>
       <c r="I31" s="84"/>
       <c r="J31" s="38" t="s">
-        <v>2884</v>
+        <v>2879</v>
       </c>
       <c r="K31" s="75"/>
       <c r="N31" s="106"/>
@@ -37181,7 +37259,7 @@
     <row r="32" spans="1:14">
       <c r="A32" s="106"/>
       <c r="B32" s="84" t="s">
-        <v>2882</v>
+        <v>2877</v>
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="106"/>
@@ -37193,7 +37271,7 @@
       <c r="H32" s="106"/>
       <c r="I32" s="84"/>
       <c r="J32" s="312" t="s">
-        <v>2880</v>
+        <v>2875</v>
       </c>
       <c r="K32" s="75"/>
       <c r="N32" s="106"/>
@@ -37201,7 +37279,7 @@
     <row r="33" spans="1:16">
       <c r="A33" s="106"/>
       <c r="B33" s="84" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="C33" s="75"/>
       <c r="D33" s="106"/>
@@ -37245,7 +37323,7 @@
       <c r="H35" s="106"/>
       <c r="I35" s="84"/>
       <c r="J35" s="312" t="s">
-        <v>2883</v>
+        <v>2878</v>
       </c>
       <c r="K35" s="75"/>
       <c r="N35" s="106"/>
@@ -37261,7 +37339,7 @@
       <c r="H36" s="106"/>
       <c r="I36" s="84"/>
       <c r="J36" s="312" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="K36" s="75"/>
       <c r="N36" s="106"/>
@@ -37274,7 +37352,7 @@
       <c r="G37" s="34"/>
       <c r="I37" s="33"/>
       <c r="J37" s="38" t="s">
-        <v>2884</v>
+        <v>2879</v>
       </c>
       <c r="K37" s="34"/>
     </row>
@@ -37309,16 +37387,16 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>2875</v>
+        <v>2870</v>
       </c>
       <c r="E40" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="G40" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
       <c r="I40" t="s">
-        <v>2877</v>
+        <v>2872</v>
       </c>
       <c r="J40" s="230"/>
       <c r="P40" t="s">
@@ -37327,7 +37405,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="B42" t="s">
-        <v>2876</v>
+        <v>2871</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>1106</v>
@@ -37340,42 +37418,42 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>2895</v>
+        <v>2890</v>
       </c>
       <c r="C45" t="s">
-        <v>2896</v>
+        <v>2891</v>
       </c>
       <c r="D45" t="s">
-        <v>2892</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="B46" s="43" t="s">
-        <v>2897</v>
+        <v>2892</v>
       </c>
       <c r="D46" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="E46" t="s">
-        <v>2894</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="D47" t="s">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="E47" t="s">
-        <v>2899</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="B49" t="s">
-        <v>2860</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="D50" t="s">
-        <v>2861</v>
+        <v>2856</v>
       </c>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
@@ -37383,7 +37461,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="B51" t="s">
-        <v>2847</v>
+        <v>2842</v>
       </c>
       <c r="G51" t="s">
         <v>1173</v>
@@ -37420,7 +37498,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="D54" t="s">
-        <v>2857</v>
+        <v>2852</v>
       </c>
       <c r="G54" t="s">
         <v>1174</v>
@@ -37436,7 +37514,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="D55" t="s">
-        <v>2858</v>
+        <v>2853</v>
       </c>
       <c r="I55" s="186" t="s">
         <v>1772</v>
@@ -37445,10 +37523,10 @@
       <c r="K55" s="29"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="B56" s="384" t="s">
-        <v>2852</v>
-      </c>
-      <c r="C56" s="384"/>
+      <c r="B56" s="385" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C56" s="385"/>
       <c r="I56" s="186" t="s">
         <v>1773</v>
       </c>
@@ -37457,13 +37535,13 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>2859</v>
+        <v>2854</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>2848</v>
-      </c>
-      <c r="C57" s="385" t="s">
-        <v>2849</v>
+        <v>2843</v>
+      </c>
+      <c r="C57" s="386" t="s">
+        <v>2844</v>
       </c>
       <c r="I57" s="187" t="s">
         <v>1774</v>
@@ -37473,24 +37551,24 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>2859</v>
+        <v>2854</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>2850</v>
-      </c>
-      <c r="C58" s="385"/>
+        <v>2845</v>
+      </c>
+      <c r="C58" s="386"/>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>2859</v>
+        <v>2854</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>2851</v>
-      </c>
-      <c r="C59" s="385"/>
+        <v>2846</v>
+      </c>
+      <c r="C59" s="386"/>
       <c r="G59" t="s">
         <v>1175</v>
       </c>
@@ -37508,10 +37586,10 @@
       <c r="K60" s="29"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="B61" s="384" t="s">
-        <v>2852</v>
-      </c>
-      <c r="C61" s="384"/>
+      <c r="B61" s="385" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C61" s="385"/>
       <c r="I61" s="186" t="s">
         <v>1773</v>
       </c>
@@ -37520,9 +37598,9 @@
     </row>
     <row r="62" spans="1:13">
       <c r="B62" s="43" t="s">
-        <v>2854</v>
-      </c>
-      <c r="C62" s="385" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C62" s="386" t="s">
         <v>15</v>
       </c>
       <c r="I62" s="186" t="s">
@@ -37533,11 +37611,11 @@
     </row>
     <row r="63" spans="1:13">
       <c r="B63" s="43" t="s">
-        <v>2855</v>
-      </c>
-      <c r="C63" s="385"/>
+        <v>2850</v>
+      </c>
+      <c r="C63" s="386"/>
       <c r="D63" t="s">
-        <v>2853</v>
+        <v>2848</v>
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
@@ -37545,9 +37623,9 @@
     </row>
     <row r="64" spans="1:13">
       <c r="B64" s="43" t="s">
-        <v>2856</v>
-      </c>
-      <c r="C64" s="385"/>
+        <v>2851</v>
+      </c>
+      <c r="C64" s="386"/>
       <c r="G64" t="s">
         <v>1098</v>
       </c>
@@ -39498,10 +39576,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF327"/>
+  <dimension ref="A1:AF339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B328" sqref="B328"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C333" sqref="C333:D335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39510,6 +39588,7 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="11.140625" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -39518,13 +39597,13 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="B1" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="C1" t="s">
         <v>1909</v>
       </c>
       <c r="F1" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="G1" t="s">
         <v>1909</v>
@@ -39535,10 +39614,13 @@
       <c r="N1" t="s">
         <v>1282</v>
       </c>
+      <c r="Q1" t="s">
+        <v>2938</v>
+      </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>2364</v>
+        <v>2359</v>
       </c>
       <c r="B2" s="279">
         <v>0</v>
@@ -39566,10 +39648,13 @@
         <v>1271</v>
       </c>
       <c r="M2" s="130" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="N2" s="130" t="s">
         <v>412</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2939</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -39590,10 +39675,16 @@
       </c>
       <c r="K3" s="43"/>
       <c r="M3" s="130" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="N3" s="130" t="s">
         <v>524</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2941</v>
+      </c>
+      <c r="T3" t="s">
+        <v>2940</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -39604,7 +39695,7 @@
         <v>559</v>
       </c>
       <c r="E4" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="F4" s="279">
         <v>2</v>
@@ -39617,10 +39708,19 @@
       </c>
       <c r="K4" s="43"/>
       <c r="M4" s="130" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="N4" s="130" t="s">
         <v>559</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2942</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>1281</v>
+      </c>
+      <c r="U4" s="43" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -39641,10 +39741,16 @@
       </c>
       <c r="K5" s="43"/>
       <c r="M5" s="130" t="s">
-        <v>2387</v>
+        <v>2382</v>
       </c>
       <c r="N5" s="130" t="s">
         <v>1008</v>
+      </c>
+      <c r="T5" s="350" t="s">
+        <v>412</v>
+      </c>
+      <c r="U5" s="350">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -39663,87 +39769,95 @@
       <c r="J6" s="344"/>
       <c r="K6" s="43"/>
       <c r="M6" s="340" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
       <c r="N6" s="340" t="s">
         <v>412</v>
       </c>
+      <c r="T6" s="350" t="s">
+        <v>524</v>
+      </c>
+      <c r="U6" s="350">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:31">
       <c r="E7" t="s">
-        <v>2889</v>
+        <v>2884</v>
       </c>
       <c r="M7" s="233" t="s">
-        <v>2421</v>
+        <v>2416</v>
       </c>
       <c r="O7">
         <v>50</v>
       </c>
+      <c r="T7" s="127"/>
+      <c r="U7" s="350"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="B8" s="387" t="s">
-        <v>2366</v>
-      </c>
-      <c r="C8" s="387"/>
-      <c r="F8" s="387" t="s">
-        <v>2367</v>
-      </c>
-      <c r="G8" s="387"/>
-      <c r="I8" s="387" t="s">
-        <v>2367</v>
-      </c>
-      <c r="J8" s="387"/>
+      <c r="B8" s="388" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C8" s="388"/>
+      <c r="F8" s="388" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G8" s="388"/>
+      <c r="I8" s="388" t="s">
+        <v>2362</v>
+      </c>
+      <c r="J8" s="388"/>
       <c r="M8" s="233" t="s">
-        <v>2422</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="F9" s="387" t="s">
-        <v>2368</v>
-      </c>
-      <c r="G9" s="387"/>
-      <c r="I9" s="387" t="s">
-        <v>2369</v>
-      </c>
-      <c r="J9" s="387"/>
-      <c r="M9" s="388" t="s">
-        <v>2367</v>
-      </c>
-      <c r="N9" s="388"/>
+      <c r="F9" s="388" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G9" s="388"/>
+      <c r="I9" s="388" t="s">
+        <v>2364</v>
+      </c>
+      <c r="J9" s="388"/>
+      <c r="M9" s="389" t="s">
+        <v>2362</v>
+      </c>
+      <c r="N9" s="389"/>
     </row>
     <row r="10" spans="1:31">
       <c r="F10" t="s">
-        <v>2890</v>
+        <v>2885</v>
       </c>
       <c r="M10" s="285" t="s">
-        <v>2370</v>
+        <v>2365</v>
       </c>
       <c r="N10" s="285"/>
       <c r="R10" t="s">
-        <v>2901</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="11" spans="1:31">
-      <c r="E11" s="386" t="s">
-        <v>2371</v>
-      </c>
-      <c r="F11" s="386"/>
-      <c r="G11" s="386"/>
-      <c r="H11" s="386"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="386"/>
-      <c r="K11" s="386"/>
-      <c r="L11" s="386"/>
-      <c r="M11" s="386"/>
-      <c r="N11" s="386"/>
-      <c r="O11" s="386"/>
+      <c r="E11" s="387" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F11" s="387"/>
+      <c r="G11" s="387"/>
+      <c r="H11" s="387"/>
+      <c r="I11" s="387"/>
+      <c r="J11" s="387"/>
+      <c r="K11" s="387"/>
+      <c r="L11" s="387"/>
+      <c r="M11" s="387"/>
+      <c r="N11" s="387"/>
+      <c r="O11" s="387"/>
       <c r="R11" t="s">
-        <v>2900</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -39760,19 +39874,19 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="F13" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="H13" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="J13" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
       <c r="L13" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -39814,13 +39928,13 @@
         <v>2</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>2912</v>
+        <v>2907</v>
       </c>
       <c r="W14">
         <v>2</v>
       </c>
       <c r="X14" s="39" t="s">
-        <v>2929</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -39851,7 +39965,7 @@
         <v>1535</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>2927</v>
+        <v>2922</v>
       </c>
       <c r="W15">
         <v>3</v>
@@ -39860,7 +39974,7 @@
         <v>1535</v>
       </c>
       <c r="Y15" s="29" t="s">
-        <v>2928</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -39888,7 +40002,7 @@
         <v>4</v>
       </c>
       <c r="R16" s="43" t="s">
-        <v>2902</v>
+        <v>2897</v>
       </c>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
@@ -39898,7 +40012,7 @@
         <v>4</v>
       </c>
       <c r="X16" s="43" t="s">
-        <v>2902</v>
+        <v>2897</v>
       </c>
       <c r="Y16" s="27"/>
       <c r="Z16" s="27"/>
@@ -39919,7 +40033,7 @@
         <v>5</v>
       </c>
       <c r="R17" s="43" t="s">
-        <v>2908</v>
+        <v>2903</v>
       </c>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
@@ -39929,7 +40043,7 @@
         <v>5</v>
       </c>
       <c r="X17" s="43" t="s">
-        <v>2908</v>
+        <v>2903</v>
       </c>
       <c r="Y17" s="27"/>
       <c r="Z17" s="27"/>
@@ -39946,7 +40060,7 @@
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="43" t="s">
-        <v>2907</v>
+        <v>2902</v>
       </c>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
@@ -39954,7 +40068,7 @@
       <c r="V18" s="27"/>
       <c r="W18" s="27"/>
       <c r="X18" s="43" t="s">
-        <v>2907</v>
+        <v>2902</v>
       </c>
       <c r="Y18" s="27"/>
       <c r="Z18" s="27"/>
@@ -39966,21 +40080,21 @@
     </row>
     <row r="19" spans="1:32">
       <c r="C19" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="F19" t="s">
-        <v>2379</v>
+        <v>2374</v>
       </c>
       <c r="L19" s="27"/>
       <c r="M19" s="43"/>
       <c r="N19" s="27"/>
       <c r="O19" t="s">
-        <v>2911</v>
+        <v>2906</v>
       </c>
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="43" t="s">
-        <v>2906</v>
+        <v>2901</v>
       </c>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
@@ -39988,7 +40102,7 @@
       <c r="V19" s="27"/>
       <c r="W19" s="27"/>
       <c r="X19" s="43" t="s">
-        <v>2906</v>
+        <v>2901</v>
       </c>
       <c r="Y19" s="27"/>
       <c r="Z19" s="27"/>
@@ -40016,7 +40130,7 @@
         <v>412</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="M20" s="167"/>
       <c r="N20" s="27"/>
@@ -40024,7 +40138,7 @@
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="43" t="s">
-        <v>2905</v>
+        <v>2900</v>
       </c>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
@@ -40032,7 +40146,7 @@
       <c r="V20" s="27"/>
       <c r="W20" s="27"/>
       <c r="X20" s="43" t="s">
-        <v>2905</v>
+        <v>2900</v>
       </c>
       <c r="Y20" s="27"/>
       <c r="Z20" s="27"/>
@@ -40065,7 +40179,7 @@
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="43" t="s">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
@@ -40073,7 +40187,7 @@
       <c r="V21" s="27"/>
       <c r="W21" s="27"/>
       <c r="X21" s="43" t="s">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="Y21" s="27"/>
       <c r="Z21" s="27"/>
@@ -40104,7 +40218,7 @@
         <v>20000000</v>
       </c>
       <c r="R22" s="124" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
@@ -40114,7 +40228,7 @@
         <v>20000000</v>
       </c>
       <c r="X22" s="124" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="Y22" s="27"/>
       <c r="Z22" s="27"/>
@@ -40191,16 +40305,16 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
       <c r="O25" s="212" t="s">
-        <v>2916</v>
+        <v>2911</v>
       </c>
       <c r="P25" s="212" t="s">
-        <v>2910</v>
+        <v>2905</v>
       </c>
       <c r="Q25" s="212">
         <v>1999999997</v>
       </c>
       <c r="R25" s="212" t="s">
-        <v>2909</v>
+        <v>2904</v>
       </c>
       <c r="S25" s="212"/>
       <c r="T25" s="212"/>
@@ -40218,19 +40332,19 @@
     </row>
     <row r="26" spans="1:32">
       <c r="B26" t="s">
-        <v>2891</v>
+        <v>2886</v>
       </c>
       <c r="C26" s="345" t="s">
         <v>559</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="G26" s="56"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
       <c r="O26" s="212" t="s">
-        <v>2913</v>
+        <v>2908</v>
       </c>
       <c r="P26" s="212"/>
       <c r="Q26" s="212"/>
@@ -40251,27 +40365,27 @@
     </row>
     <row r="27" spans="1:32">
       <c r="B27" t="s">
-        <v>2891</v>
+        <v>2886</v>
       </c>
       <c r="C27" t="s">
         <v>1008</v>
       </c>
       <c r="H27" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
       <c r="O27" s="212" t="s">
-        <v>2917</v>
+        <v>2912</v>
       </c>
       <c r="P27" s="212" t="s">
-        <v>2910</v>
+        <v>2905</v>
       </c>
       <c r="Q27" s="212">
         <v>1999999997</v>
       </c>
       <c r="R27" s="212" t="s">
-        <v>2918</v>
+        <v>2913</v>
       </c>
       <c r="S27" s="212"/>
       <c r="T27" s="212"/>
@@ -40289,10 +40403,10 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -40316,7 +40430,7 @@
     </row>
     <row r="29" spans="1:32">
       <c r="G29" s="43" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
@@ -40340,16 +40454,16 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1">
       <c r="E30" t="s">
-        <v>2393</v>
+        <v>2388</v>
       </c>
       <c r="G30" s="157" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="I30" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
       <c r="K30" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -40374,7 +40488,7 @@
     <row r="31" spans="1:32">
       <c r="E31" s="26"/>
       <c r="G31" s="43" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="I31" s="26"/>
       <c r="K31" s="26"/>
@@ -40400,13 +40514,13 @@
     </row>
     <row r="32" spans="1:32">
       <c r="E32" s="283" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="G32" s="43" t="s">
-        <v>2387</v>
+        <v>2382</v>
       </c>
       <c r="I32" s="283" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="K32" s="283"/>
       <c r="M32" s="27"/>
@@ -40435,7 +40549,7 @@
     <row r="33" spans="1:32">
       <c r="E33" s="283"/>
       <c r="G33" s="43" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
       <c r="I33" s="283"/>
       <c r="K33" s="283"/>
@@ -40465,7 +40579,7 @@
     <row r="34" spans="1:32">
       <c r="E34" s="283"/>
       <c r="G34" s="43" t="s">
-        <v>2389</v>
+        <v>2384</v>
       </c>
       <c r="I34" s="283"/>
       <c r="K34" s="283"/>
@@ -40492,7 +40606,7 @@
     <row r="35" spans="1:32" ht="15.75" thickBot="1">
       <c r="E35" s="202"/>
       <c r="G35" s="43" t="s">
-        <v>2390</v>
+        <v>2385</v>
       </c>
       <c r="I35" s="202"/>
       <c r="K35" s="202"/>
@@ -40539,7 +40653,7 @@
     </row>
     <row r="37" spans="1:32">
       <c r="C37" t="s">
-        <v>2394</v>
+        <v>2389</v>
       </c>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -40563,12 +40677,12 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>2396</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="40" spans="1:32">
       <c r="M40" t="s">
-        <v>2400</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -40646,7 +40760,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>2399</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -40686,7 +40800,7 @@
         <v>99999999</v>
       </c>
       <c r="E45" s="129" t="s">
-        <v>2397</v>
+        <v>2392</v>
       </c>
       <c r="G45">
         <v>99999999</v>
@@ -40706,7 +40820,7 @@
         <v>10000000</v>
       </c>
       <c r="C46" s="129" t="s">
-        <v>2397</v>
+        <v>2392</v>
       </c>
       <c r="D46">
         <v>10000000</v>
@@ -40715,7 +40829,7 @@
         <v>10000000</v>
       </c>
       <c r="H46" s="129" t="s">
-        <v>2397</v>
+        <v>2392</v>
       </c>
       <c r="I46">
         <v>10000000</v>
@@ -40726,15 +40840,15 @@
     </row>
     <row r="47" spans="1:32">
       <c r="J47" s="129" t="s">
-        <v>2397</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="48" spans="1:32">
       <c r="C48" t="s">
-        <v>2379</v>
+        <v>2374</v>
       </c>
       <c r="H48" t="s">
-        <v>2398</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -40746,16 +40860,16 @@
     </row>
     <row r="51" spans="1:19" ht="15.75" thickBot="1">
       <c r="A51" t="s">
-        <v>2914</v>
+        <v>2909</v>
       </c>
       <c r="F51" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="J51" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="N51" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="R51" s="27"/>
     </row>
@@ -40853,52 +40967,52 @@
     <row r="57" spans="1:19">
       <c r="A57" s="168"/>
       <c r="B57" s="168" t="s">
-        <v>2919</v>
+        <v>2914</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>2920</v>
+        <v>2915</v>
       </c>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
       <c r="J57" s="38" t="s">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="K57" s="38"/>
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
       <c r="N57" s="38" t="s">
-        <v>2922</v>
+        <v>2917</v>
       </c>
       <c r="O57" s="295"/>
       <c r="P57" s="51"/>
       <c r="Q57" s="27"/>
       <c r="R57" s="27" t="s">
-        <v>2923</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15.75" thickBot="1">
       <c r="B58" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="E58" s="56"/>
       <c r="F58" s="56" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="G58" s="56"/>
       <c r="J58" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="L58" s="38"/>
       <c r="N58" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="P58" s="51"/>
       <c r="R58" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="15.75" thickBot="1">
@@ -41042,7 +41156,7 @@
       <c r="D63" s="38"/>
       <c r="E63" s="38"/>
       <c r="F63" s="168" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
@@ -41098,7 +41212,7 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="38" t="s">
-        <v>2926</v>
+        <v>2921</v>
       </c>
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
@@ -41141,52 +41255,52 @@
     <row r="68" spans="1:19">
       <c r="A68" s="168"/>
       <c r="B68" s="168" t="s">
-        <v>2919</v>
+        <v>2914</v>
       </c>
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>2920</v>
+        <v>2915</v>
       </c>
       <c r="G68" s="38"/>
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
       <c r="J68" s="38" t="s">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="K68" s="38"/>
       <c r="L68" s="38"/>
       <c r="M68" s="38"/>
       <c r="N68" s="38" t="s">
-        <v>2922</v>
+        <v>2917</v>
       </c>
       <c r="O68" s="295"/>
       <c r="P68" s="51"/>
       <c r="Q68" s="27"/>
       <c r="R68" s="27" t="s">
-        <v>2923</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15.75" thickBot="1">
       <c r="B69" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="E69" s="230"/>
       <c r="F69" s="230" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="G69" s="230"/>
       <c r="J69" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="L69" s="38"/>
       <c r="N69" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="P69" s="51"/>
       <c r="R69" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="15.75" thickBot="1">
@@ -41273,10 +41387,10 @@
         <v>417</v>
       </c>
       <c r="C72" s="186" t="s">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="E72" s="186" t="s">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="F72" s="230"/>
       <c r="G72" s="230" t="s">
@@ -41323,7 +41437,7 @@
       <c r="B74" s="106"/>
       <c r="C74" s="347"/>
       <c r="D74" s="106" t="s">
-        <v>2924</v>
+        <v>2919</v>
       </c>
       <c r="E74" s="347"/>
       <c r="F74" s="347"/>
@@ -41393,7 +41507,7 @@
         <v>1665</v>
       </c>
       <c r="D78" s="106" t="s">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="E78" s="347" t="s">
         <v>1266</v>
@@ -41483,7 +41597,7 @@
     </row>
     <row r="83" spans="1:19">
       <c r="B83" t="s">
-        <v>2423</v>
+        <v>2418</v>
       </c>
       <c r="C83" t="s">
         <v>1902</v>
@@ -41497,7 +41611,7 @@
         <v>50</v>
       </c>
       <c r="F84" t="s">
-        <v>2424</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -41508,7 +41622,7 @@
         <v>80</v>
       </c>
       <c r="F85" t="s">
-        <v>2425</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -41519,7 +41633,7 @@
         <v>20</v>
       </c>
       <c r="L86" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -41533,7 +41647,7 @@
         <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>2426</v>
+        <v>2421</v>
       </c>
       <c r="K87" t="s">
         <v>48</v>
@@ -41546,7 +41660,7 @@
       <c r="B88" s="281"/>
       <c r="C88" s="281"/>
       <c r="F88" t="s">
-        <v>2427</v>
+        <v>2422</v>
       </c>
       <c r="L88" s="281" t="s">
         <v>524</v>
@@ -41562,7 +41676,7 @@
     </row>
     <row r="90" spans="1:19">
       <c r="G90" t="s">
-        <v>2428</v>
+        <v>2423</v>
       </c>
       <c r="L90" s="281" t="s">
         <v>1535</v>
@@ -41573,7 +41687,7 @@
         <v>49</v>
       </c>
       <c r="G91" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
       <c r="L91">
         <v>50</v>
@@ -42151,7 +42265,9 @@
       <c r="E170" s="31"/>
       <c r="F170" s="31"/>
       <c r="G170" s="31"/>
-      <c r="H170" s="31"/>
+      <c r="H170" s="31" t="s">
+        <v>2943</v>
+      </c>
       <c r="I170" s="31"/>
       <c r="J170" s="32"/>
     </row>
@@ -42162,7 +42278,9 @@
       <c r="E171" s="27"/>
       <c r="F171" s="27"/>
       <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
+      <c r="H171" s="27" t="s">
+        <v>2944</v>
+      </c>
       <c r="I171" s="27"/>
       <c r="J171" s="34"/>
       <c r="L171" t="s">
@@ -42187,12 +42305,8 @@
       <c r="G172" s="168" t="s">
         <v>1307</v>
       </c>
-      <c r="H172" s="168" t="s">
-        <v>2052</v>
-      </c>
-      <c r="I172" s="168" t="s">
-        <v>1376</v>
-      </c>
+      <c r="H172" s="168"/>
+      <c r="I172" s="168"/>
       <c r="J172" s="34"/>
     </row>
     <row r="173" spans="1:14">
@@ -42203,12 +42317,8 @@
       <c r="E173" s="167"/>
       <c r="F173" s="167"/>
       <c r="G173" s="167"/>
-      <c r="H173" s="27" t="s">
-        <v>2054</v>
-      </c>
-      <c r="I173" s="27" t="s">
-        <v>2053</v>
-      </c>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
       <c r="J173" s="34"/>
       <c r="L173" t="s">
         <v>48</v>
@@ -42347,7 +42457,11 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="182" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A182" t="s">
+        <v>2945</v>
+      </c>
+    </row>
     <row r="183" spans="1:13" ht="15.75" thickBot="1">
       <c r="A183" s="30"/>
       <c r="B183" s="31"/>
@@ -42382,12 +42496,12 @@
         <v>58</v>
       </c>
       <c r="H184" s="207" t="s">
-        <v>412</v>
+        <v>559</v>
       </c>
       <c r="I184" s="27"/>
       <c r="J184" s="27"/>
-      <c r="K184" s="47"/>
-      <c r="L184" s="49"/>
+      <c r="K184" s="51"/>
+      <c r="L184" s="51"/>
       <c r="M184" s="34"/>
     </row>
     <row r="185" spans="1:13" ht="15.75" thickBot="1">
@@ -42409,8 +42523,8 @@
       </c>
       <c r="I185" s="27"/>
       <c r="J185" s="27"/>
-      <c r="K185" s="53"/>
-      <c r="L185" s="55"/>
+      <c r="K185" s="51"/>
+      <c r="L185" s="51"/>
       <c r="M185" s="34"/>
     </row>
     <row r="186" spans="1:13">
@@ -42425,7 +42539,7 @@
       <c r="I186" s="27"/>
       <c r="J186" s="27"/>
       <c r="K186" s="27" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="L186" s="27"/>
       <c r="M186" s="34"/>
@@ -42444,10 +42558,10 @@
         <v>1359</v>
       </c>
       <c r="K187" s="227" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="L187" s="43" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="M187" s="34"/>
     </row>
@@ -42477,10 +42591,10 @@
         <v>1</v>
       </c>
       <c r="K188" s="127" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="L188" s="43" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="M188" s="34"/>
     </row>
@@ -42506,7 +42620,7 @@
         <v>2</v>
       </c>
       <c r="K189" s="127" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="L189" s="43"/>
       <c r="M189" s="34"/>
@@ -42552,7 +42666,9 @@
       <c r="H192" s="27"/>
       <c r="I192" s="27"/>
       <c r="J192" s="27"/>
-      <c r="K192" s="27"/>
+      <c r="K192" t="s">
+        <v>1800</v>
+      </c>
       <c r="L192" s="27"/>
       <c r="M192" s="27"/>
     </row>
@@ -42561,7 +42677,7 @@
         <v>1359</v>
       </c>
       <c r="K193" t="s">
-        <v>2060</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -42572,7 +42688,7 @@
         <v>1323</v>
       </c>
       <c r="K194" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -42583,16 +42699,13 @@
         <v>1324</v>
       </c>
       <c r="K195" t="s">
-        <v>1801</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="196" spans="1:14">
       <c r="E196" t="s">
         <v>144</v>
       </c>
-      <c r="K196" t="s">
-        <v>1802</v>
-      </c>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" t="s">
@@ -42602,7 +42715,7 @@
         <v>1360</v>
       </c>
       <c r="K197" t="s">
-        <v>2055</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -42613,7 +42726,10 @@
         <v>1325</v>
       </c>
       <c r="K198" t="s">
-        <v>2056</v>
+        <v>2052</v>
+      </c>
+      <c r="M198" t="s">
+        <v>2952</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -42624,9 +42740,11 @@
         <v>1326</v>
       </c>
       <c r="K199" s="96" t="s">
-        <v>2057</v>
-      </c>
-      <c r="N199" s="57"/>
+        <v>2053</v>
+      </c>
+      <c r="N199" s="57" t="s">
+        <v>2947</v>
+      </c>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" t="s">
@@ -42636,7 +42754,10 @@
         <v>1803</v>
       </c>
       <c r="K200" s="96" t="s">
-        <v>2058</v>
+        <v>2054</v>
+      </c>
+      <c r="M200" t="s">
+        <v>2953</v>
       </c>
       <c r="N200" s="57"/>
     </row>
@@ -42648,7 +42769,10 @@
         <v>1804</v>
       </c>
       <c r="K201" s="96" t="s">
-        <v>2059</v>
+        <v>2055</v>
+      </c>
+      <c r="N201" t="s">
+        <v>2949</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -42658,6 +42782,9 @@
       <c r="G202" t="s">
         <v>253</v>
       </c>
+      <c r="M202" t="s">
+        <v>2950</v>
+      </c>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" t="s">
@@ -42665,6 +42792,9 @@
       </c>
       <c r="F203" t="s">
         <v>137</v>
+      </c>
+      <c r="M203" t="s">
+        <v>2951</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -43497,15 +43627,15 @@
     </row>
     <row r="318" spans="2:14">
       <c r="C318" t="s">
-        <v>2935</v>
+        <v>2930</v>
       </c>
       <c r="K318" t="s">
-        <v>2933</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="319" spans="2:14">
       <c r="B319" t="s">
-        <v>2930</v>
+        <v>2925</v>
       </c>
       <c r="K319" s="43" t="s">
         <v>559</v>
@@ -43513,10 +43643,10 @@
     </row>
     <row r="320" spans="2:14">
       <c r="B320" t="s">
-        <v>2931</v>
+        <v>2926</v>
       </c>
       <c r="F320" t="s">
-        <v>2937</v>
+        <v>2932</v>
       </c>
       <c r="K320" s="43" t="s">
         <v>1008</v>
@@ -43532,7 +43662,7 @@
     </row>
     <row r="322" spans="2:11">
       <c r="C322" t="s">
-        <v>2932</v>
+        <v>2927</v>
       </c>
       <c r="K322" s="43" t="s">
         <v>524</v>
@@ -43540,13 +43670,13 @@
     </row>
     <row r="323" spans="2:11">
       <c r="C323" t="s">
-        <v>2938</v>
+        <v>2933</v>
       </c>
       <c r="H323" s="10" t="s">
-        <v>2936</v>
+        <v>2931</v>
       </c>
       <c r="J323" t="s">
-        <v>2934</v>
+        <v>2929</v>
       </c>
       <c r="K323" s="43" t="s">
         <v>1535</v>
@@ -43554,7 +43684,7 @@
     </row>
     <row r="324" spans="2:11">
       <c r="C324" t="s">
-        <v>2939</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="325" spans="2:11">
@@ -43564,10 +43694,10 @@
     </row>
     <row r="326" spans="2:11">
       <c r="D326" t="s">
-        <v>2940</v>
+        <v>2935</v>
       </c>
       <c r="E326" t="s">
-        <v>2941</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="327" spans="2:11">
@@ -43575,11 +43705,116 @@
         <v>1266</v>
       </c>
       <c r="E327" t="s">
-        <v>2942</v>
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="331" spans="2:11">
+      <c r="C331" s="385" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D331" s="385"/>
+      <c r="G331" t="s">
+        <v>2955</v>
+      </c>
+      <c r="K331" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="332" spans="2:11">
+      <c r="C332" s="130" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D332" s="130" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G332" t="s">
+        <v>2956</v>
+      </c>
+      <c r="K332" s="350">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="333" spans="2:11">
+      <c r="C333" s="350">
+        <v>123</v>
+      </c>
+      <c r="D333" s="350" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H333" t="s">
+        <v>2957</v>
+      </c>
+      <c r="I333" t="s">
+        <v>2967</v>
+      </c>
+      <c r="K333" s="350">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="334" spans="2:11">
+      <c r="C334" s="350">
+        <v>222</v>
+      </c>
+      <c r="D334" s="350" t="s">
+        <v>2401</v>
+      </c>
+      <c r="H334" t="s">
+        <v>2958</v>
+      </c>
+      <c r="J334" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K334" s="350">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="335" spans="2:11">
+      <c r="C335" s="350">
+        <v>456</v>
+      </c>
+      <c r="D335" s="350" t="s">
+        <v>2954</v>
+      </c>
+      <c r="H335" t="s">
+        <v>2964</v>
+      </c>
+      <c r="K335" s="350"/>
+    </row>
+    <row r="336" spans="2:11">
+      <c r="G336" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="337" spans="6:9">
+      <c r="F337" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G337" t="s">
+        <v>2960</v>
+      </c>
+      <c r="I337" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="338" spans="6:9">
+      <c r="F338" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G338" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="339" spans="6:9">
+      <c r="F339" t="s">
+        <v>2965</v>
+      </c>
+      <c r="G339" t="s">
+        <v>2966</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C331:D331"/>
     <mergeCell ref="E11:O11"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="F8:G8"/>
@@ -43612,7 +43847,7 @@
   <sheetData>
     <row r="2" spans="1:21">
       <c r="A2" s="27" t="s">
-        <v>2401</v>
+        <v>2396</v>
       </c>
       <c r="E2" s="119" t="s">
         <v>549</v>
@@ -43628,7 +43863,7 @@
         <v>413</v>
       </c>
       <c r="L2" s="119" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
       <c r="M2" s="120" t="s">
         <v>1056</v>
@@ -43636,7 +43871,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="27" t="s">
-        <v>2402</v>
+        <v>2397</v>
       </c>
       <c r="E3" s="177" t="s">
         <v>550</v>
@@ -43654,27 +43889,27 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="27" t="s">
-        <v>2403</v>
+        <v>2398</v>
       </c>
       <c r="E4" s="177" t="s">
         <v>706</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="K4" s="115"/>
       <c r="M4" s="76"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="115" t="s">
-        <v>2404</v>
+        <v>2399</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="177" t="s">
         <v>1054</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
@@ -43682,10 +43917,10 @@
         <v>1650</v>
       </c>
       <c r="L5" s="119" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
       <c r="M5" s="120" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -43707,7 +43942,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="27" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="E7" s="177"/>
       <c r="K7" s="115"/>
@@ -43715,25 +43950,25 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="27" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>412</v>
       </c>
       <c r="E8" s="177"/>
       <c r="K8" s="115" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="L8" s="119" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
       <c r="M8" s="120" t="s">
-        <v>2407</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="27" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>524</v>
@@ -43749,7 +43984,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="27" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>559</v>
@@ -43760,14 +43995,14 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="27" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="E11" s="177"/>
       <c r="K11" s="115" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="L11" s="119" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
       <c r="M11" s="120" t="s">
         <v>1056</v>
@@ -43776,7 +44011,7 @@
     <row r="12" spans="1:21">
       <c r="E12" s="177"/>
       <c r="G12" s="27" t="s">
-        <v>2411</v>
+        <v>2406</v>
       </c>
       <c r="K12" s="115"/>
       <c r="L12" s="121" t="s">
@@ -43788,45 +44023,45 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="38" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="E13" s="177" t="s">
         <v>1987</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="G13" s="130">
         <v>1</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>2419</v>
+        <v>2414</v>
       </c>
       <c r="M13" s="76"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="38" t="s">
-        <v>2413</v>
+        <v>2408</v>
       </c>
       <c r="C14" s="255" t="s">
-        <v>2412</v>
+        <v>2407</v>
       </c>
       <c r="E14" s="177"/>
       <c r="G14" s="130">
         <v>2</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>2420</v>
+        <v>2415</v>
       </c>
       <c r="I14" s="43"/>
       <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="38" t="s">
-        <v>2414</v>
+        <v>2409</v>
       </c>
       <c r="E15" s="177"/>
       <c r="G15" s="130"/>
@@ -43836,7 +44071,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="38" t="s">
-        <v>2415</v>
+        <v>2410</v>
       </c>
       <c r="E16" s="121"/>
       <c r="F16" s="240"/>
@@ -43850,7 +44085,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="38" t="s">
-        <v>2416</v>
+        <v>2411</v>
       </c>
       <c r="C17" s="27">
         <f>1</f>
@@ -43859,7 +44094,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="38" t="s">
-        <v>2417</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -44053,11 +44288,11 @@
       <c r="L6" s="43" t="s">
         <v>1374</v>
       </c>
-      <c r="M6" s="384" t="s">
+      <c r="M6" s="385" t="s">
         <v>1375</v>
       </c>
-      <c r="N6" s="384"/>
-      <c r="O6" s="384"/>
+      <c r="N6" s="385"/>
+      <c r="O6" s="385"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -44326,7 +44561,7 @@
     </row>
     <row r="40" spans="2:13">
       <c r="C40" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="L40" s="43" t="s">
         <v>412</v>
@@ -44337,24 +44572,24 @@
     </row>
     <row r="41" spans="2:13">
       <c r="E41" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="L41" s="43" t="s">
         <v>524</v>
       </c>
       <c r="M41" s="43" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="42" spans="2:13">
       <c r="E42" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="I42" t="s">
         <v>559</v>
       </c>
       <c r="J42" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="L42" s="43" t="s">
         <v>559</v>
@@ -44365,7 +44600,7 @@
     </row>
     <row r="43" spans="2:13">
       <c r="E43" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="L43" s="43"/>
       <c r="M43" s="43"/>
@@ -44375,12 +44610,12 @@
         <v>1689</v>
       </c>
       <c r="J45" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="J46" t="s">
         <v>1281</v>
@@ -44391,7 +44626,7 @@
     </row>
     <row r="47" spans="2:13">
       <c r="C47" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="H47" s="43" t="s">
         <v>412</v>
@@ -44411,12 +44646,12 @@
         <v>524</v>
       </c>
       <c r="K48" s="43" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="H49" s="43" t="s">
         <v>559</v>
@@ -44430,7 +44665,7 @@
     </row>
     <row r="50" spans="2:11">
       <c r="C50" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="H50" s="43"/>
       <c r="J50" s="43"/>
@@ -44443,12 +44678,12 @@
     </row>
     <row r="52" spans="2:11">
       <c r="D52" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="D53" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -44872,36 +45107,36 @@
     <row r="91" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="92" spans="1:16">
       <c r="B92" s="30" t="s">
-        <v>2502</v>
+        <v>2497</v>
       </c>
       <c r="C92" s="31"/>
       <c r="D92" s="32"/>
       <c r="F92" s="30" t="s">
-        <v>2515</v>
+        <v>2510</v>
       </c>
       <c r="G92" s="31"/>
       <c r="H92" s="32"/>
       <c r="J92" s="30" t="s">
-        <v>2518</v>
+        <v>2513</v>
       </c>
       <c r="K92" s="31"/>
       <c r="L92" s="32"/>
       <c r="N92" s="30" t="s">
-        <v>2520</v>
+        <v>2515</v>
       </c>
       <c r="O92" s="31"/>
       <c r="P92" s="32"/>
     </row>
     <row r="93" spans="1:16">
       <c r="B93" s="33" t="s">
-        <v>2515</v>
+        <v>2510</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>2505</v>
+        <v>2500</v>
       </c>
       <c r="D93" s="34"/>
       <c r="F93" s="33" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="G93" s="27" t="s">
         <v>180</v>
@@ -44918,7 +45153,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>2503</v>
+        <v>2498</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>180</v>
@@ -44928,7 +45163,7 @@
       </c>
       <c r="D94" s="34"/>
       <c r="F94" s="33" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="G94" s="27" t="s">
         <v>184</v>
@@ -44937,7 +45172,7 @@
         <v>200</v>
       </c>
       <c r="J94" s="33" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="K94" s="27" t="s">
         <v>180</v>
@@ -44946,7 +45181,7 @@
         <v>58</v>
       </c>
       <c r="N94" s="33" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="O94" s="27" t="s">
         <v>180</v>
@@ -44957,38 +45192,38 @@
     </row>
     <row r="95" spans="1:16">
       <c r="B95" s="33" t="s">
-        <v>2518</v>
+        <v>2513</v>
       </c>
       <c r="C95" s="27" t="s">
         <v>1782</v>
       </c>
       <c r="D95" s="34"/>
       <c r="F95" s="33" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="G95" s="27" t="s">
         <v>180</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>2516</v>
+        <v>2511</v>
       </c>
       <c r="J95" s="33" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="K95" s="27" t="s">
         <v>180</v>
       </c>
       <c r="L95" s="34" t="s">
-        <v>2519</v>
+        <v>2514</v>
       </c>
       <c r="N95" s="33" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="O95" s="27" t="s">
         <v>188</v>
       </c>
       <c r="P95" s="34" t="s">
-        <v>2521</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -44996,14 +45231,14 @@
         <v>180</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>2504</v>
+        <v>2499</v>
       </c>
       <c r="D96" s="34"/>
       <c r="F96" s="33"/>
       <c r="G96" s="27"/>
       <c r="H96" s="34"/>
       <c r="J96" s="33" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="K96" s="27" t="s">
         <v>185</v>
@@ -45012,38 +45247,38 @@
         <v>59</v>
       </c>
       <c r="N96" s="33" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="O96" s="27" t="s">
-        <v>2522</v>
+        <v>2517</v>
       </c>
       <c r="P96" s="34" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="97" spans="1:16">
       <c r="B97" s="33" t="s">
-        <v>2520</v>
+        <v>2515</v>
       </c>
       <c r="C97" s="38" t="s">
         <v>199</v>
       </c>
       <c r="D97" s="34"/>
       <c r="F97" s="33" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>2528</v>
+        <v>2523</v>
       </c>
       <c r="H97" s="34"/>
       <c r="J97" s="33"/>
       <c r="K97" s="27"/>
       <c r="L97" s="34"/>
       <c r="N97" s="33" t="s">
-        <v>2529</v>
+        <v>2524</v>
       </c>
       <c r="O97" s="38" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="P97" s="34" t="s">
         <v>183</v>
@@ -45051,17 +45286,17 @@
     </row>
     <row r="98" spans="1:16" ht="15.75" thickBot="1">
       <c r="B98" s="35" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="C98" s="36" t="s">
         <v>183</v>
       </c>
       <c r="D98" s="37"/>
       <c r="F98" s="35" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>2527</v>
+        <v>2522</v>
       </c>
       <c r="H98" s="37"/>
       <c r="J98" s="35"/>
@@ -45073,50 +45308,50 @@
     </row>
     <row r="99" spans="1:16" ht="15.75" thickBot="1">
       <c r="N99" s="84" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="O99" s="38" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>2506</v>
+        <v>2501</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>2522</v>
+        <v>2517</v>
       </c>
       <c r="G100" s="31"/>
       <c r="H100" s="32"/>
       <c r="J100" s="30" t="s">
-        <v>2525</v>
+        <v>2520</v>
       </c>
       <c r="K100" s="31"/>
       <c r="L100" s="32"/>
       <c r="N100" s="84" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="O100" s="38" t="s">
-        <v>2533</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>2507</v>
+        <v>2502</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="27" t="s">
         <v>188</v>
       </c>
       <c r="H101" s="34" t="s">
-        <v>2523</v>
+        <v>2518</v>
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="27" t="s">
         <v>180</v>
       </c>
       <c r="L101" s="34" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -45124,14 +45359,14 @@
         <v>1861</v>
       </c>
       <c r="C102" t="s">
-        <v>2517</v>
+        <v>2512</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="27" t="s">
         <v>180</v>
       </c>
       <c r="H102" s="34" t="s">
-        <v>2524</v>
+        <v>2519</v>
       </c>
       <c r="I102" s="40"/>
       <c r="J102" s="33"/>
@@ -45139,19 +45374,19 @@
         <v>184</v>
       </c>
       <c r="L102" s="34" t="s">
-        <v>2526</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="15.75" thickBot="1">
       <c r="B103" t="s">
-        <v>2508</v>
+        <v>2503</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="36" t="s">
         <v>187</v>
       </c>
       <c r="H103" s="37" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="J103" s="33"/>
       <c r="K103" s="27" t="s">
@@ -45181,38 +45416,38 @@
     </row>
     <row r="106" spans="1:16">
       <c r="B106" t="s">
-        <v>2509</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="B107" t="s">
-        <v>2510</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>2511</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="B110" t="s">
-        <v>2512</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="B111" t="s">
-        <v>2513</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="C112" t="s">
-        <v>2514</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="119" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="120" spans="2:13" ht="15.75" thickBot="1">
       <c r="E120" s="30" t="s">
-        <v>2534</v>
+        <v>2529</v>
       </c>
       <c r="F120" s="31"/>
       <c r="G120" s="31"/>
@@ -45230,11 +45465,11 @@
       </c>
       <c r="G121" s="30"/>
       <c r="H121" s="31"/>
-      <c r="I121" s="366" t="s">
-        <v>2539</v>
-      </c>
-      <c r="J121" s="366" t="s">
-        <v>2543</v>
+      <c r="I121" s="367" t="s">
+        <v>2534</v>
+      </c>
+      <c r="J121" s="367" t="s">
+        <v>2538</v>
       </c>
       <c r="K121" s="27"/>
       <c r="L121" s="27"/>
@@ -45249,8 +45484,8 @@
       <c r="H122" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="I122" s="367"/>
-      <c r="J122" s="367"/>
+      <c r="I122" s="368"/>
+      <c r="J122" s="368"/>
       <c r="K122" s="27"/>
       <c r="L122" s="27"/>
       <c r="M122" s="34"/>
@@ -45264,8 +45499,8 @@
       <c r="H123" s="27">
         <v>19</v>
       </c>
-      <c r="I123" s="367"/>
-      <c r="J123" s="367"/>
+      <c r="I123" s="368"/>
+      <c r="J123" s="368"/>
       <c r="K123" s="27"/>
       <c r="L123" s="27"/>
       <c r="M123" s="34"/>
@@ -45279,8 +45514,8 @@
       <c r="H124" s="36" t="s">
         <v>1769</v>
       </c>
-      <c r="I124" s="367"/>
-      <c r="J124" s="367"/>
+      <c r="I124" s="368"/>
+      <c r="J124" s="368"/>
       <c r="K124" s="27"/>
       <c r="L124" s="27"/>
       <c r="M124" s="34"/>
@@ -45290,22 +45525,22 @@
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
-      <c r="I125" s="367"/>
-      <c r="J125" s="367"/>
+      <c r="I125" s="368"/>
+      <c r="J125" s="368"/>
       <c r="K125" s="27"/>
       <c r="L125" s="27"/>
       <c r="M125" s="34"/>
     </row>
     <row r="126" spans="2:13" ht="15.75" thickBot="1">
       <c r="B126" t="s">
-        <v>2541</v>
+        <v>2536</v>
       </c>
       <c r="E126" s="33"/>
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
-      <c r="I126" s="367"/>
-      <c r="J126" s="367"/>
+      <c r="I126" s="368"/>
+      <c r="J126" s="368"/>
       <c r="K126" s="27"/>
       <c r="L126" s="27"/>
       <c r="M126" s="34"/>
@@ -45313,12 +45548,12 @@
     <row r="127" spans="2:13">
       <c r="E127" s="33"/>
       <c r="F127" s="27" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
       <c r="G127" s="30"/>
       <c r="H127" s="31"/>
-      <c r="I127" s="367"/>
-      <c r="J127" s="367"/>
+      <c r="I127" s="368"/>
+      <c r="J127" s="368"/>
       <c r="K127" s="27"/>
       <c r="L127" s="27"/>
       <c r="M127" s="34"/>
@@ -45332,8 +45567,8 @@
       <c r="H128" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I128" s="367"/>
-      <c r="J128" s="367"/>
+      <c r="I128" s="368"/>
+      <c r="J128" s="368"/>
       <c r="K128" s="27"/>
       <c r="L128" s="27"/>
       <c r="M128" s="34"/>
@@ -45347,8 +45582,8 @@
       <c r="H129" s="27">
         <v>20</v>
       </c>
-      <c r="I129" s="367"/>
-      <c r="J129" s="367"/>
+      <c r="I129" s="368"/>
+      <c r="J129" s="368"/>
       <c r="K129" s="27"/>
       <c r="L129" s="27"/>
       <c r="M129" s="34"/>
@@ -45360,10 +45595,10 @@
         <v>194</v>
       </c>
       <c r="H130" s="36" t="s">
-        <v>2535</v>
-      </c>
-      <c r="I130" s="367"/>
-      <c r="J130" s="367"/>
+        <v>2530</v>
+      </c>
+      <c r="I130" s="368"/>
+      <c r="J130" s="368"/>
       <c r="K130" s="27"/>
       <c r="L130" s="27"/>
       <c r="M130" s="34"/>
@@ -45373,8 +45608,8 @@
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
-      <c r="I131" s="367"/>
-      <c r="J131" s="367"/>
+      <c r="I131" s="368"/>
+      <c r="J131" s="368"/>
       <c r="K131" s="27"/>
       <c r="L131" s="27"/>
       <c r="M131" s="34"/>
@@ -45382,12 +45617,12 @@
     <row r="132" spans="5:13">
       <c r="E132" s="33"/>
       <c r="F132" s="27" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
       <c r="G132" s="30"/>
       <c r="H132" s="31"/>
-      <c r="I132" s="367"/>
-      <c r="J132" s="367"/>
+      <c r="I132" s="368"/>
+      <c r="J132" s="368"/>
       <c r="K132" s="27"/>
       <c r="L132" s="27"/>
       <c r="M132" s="34"/>
@@ -45401,8 +45636,8 @@
       <c r="H133" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I133" s="367"/>
-      <c r="J133" s="367"/>
+      <c r="I133" s="368"/>
+      <c r="J133" s="368"/>
       <c r="K133" s="27"/>
       <c r="L133" s="27"/>
       <c r="M133" s="34"/>
@@ -45416,8 +45651,8 @@
       <c r="H134" s="27">
         <v>18</v>
       </c>
-      <c r="I134" s="367"/>
-      <c r="J134" s="367"/>
+      <c r="I134" s="368"/>
+      <c r="J134" s="368"/>
       <c r="K134" s="27"/>
       <c r="L134" s="27"/>
       <c r="M134" s="34"/>
@@ -45429,10 +45664,10 @@
         <v>194</v>
       </c>
       <c r="H135" s="36" t="s">
-        <v>2536</v>
-      </c>
-      <c r="I135" s="368"/>
-      <c r="J135" s="368"/>
+        <v>2531</v>
+      </c>
+      <c r="I135" s="369"/>
+      <c r="J135" s="369"/>
       <c r="K135" s="27"/>
       <c r="L135" s="27"/>
       <c r="M135" s="34"/>
@@ -45451,14 +45686,14 @@
     <row r="137" spans="5:13">
       <c r="E137" s="33"/>
       <c r="F137" s="27" t="s">
-        <v>2538</v>
+        <v>2533</v>
       </c>
       <c r="G137" s="38" t="s">
-        <v>2537</v>
+        <v>2532</v>
       </c>
       <c r="H137" s="27"/>
       <c r="I137" s="27" t="s">
-        <v>2540</v>
+        <v>2535</v>
       </c>
       <c r="J137" s="27"/>
       <c r="K137" s="27"/>
@@ -45490,7 +45725,7 @@
     <row r="145" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="146" spans="2:13" ht="15.75" thickBot="1">
       <c r="E146" s="30" t="s">
-        <v>2534</v>
+        <v>2529</v>
       </c>
       <c r="F146" s="31"/>
       <c r="G146" s="31"/>
@@ -45510,10 +45745,10 @@
         <v>1969</v>
       </c>
       <c r="H147" s="31" t="s">
-        <v>2542</v>
-      </c>
-      <c r="I147" s="369"/>
-      <c r="J147" s="369"/>
+        <v>2537</v>
+      </c>
+      <c r="I147" s="370"/>
+      <c r="J147" s="370"/>
       <c r="K147" s="27"/>
       <c r="L147" s="27"/>
       <c r="M147" s="34"/>
@@ -45527,8 +45762,8 @@
       <c r="H148" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I148" s="370"/>
-      <c r="J148" s="370"/>
+      <c r="I148" s="371"/>
+      <c r="J148" s="371"/>
       <c r="K148" s="27"/>
       <c r="L148" s="27"/>
       <c r="M148" s="34"/>
@@ -45542,8 +45777,8 @@
       <c r="H149" s="27">
         <v>19</v>
       </c>
-      <c r="I149" s="370"/>
-      <c r="J149" s="370"/>
+      <c r="I149" s="371"/>
+      <c r="J149" s="371"/>
       <c r="K149" s="27"/>
       <c r="L149" s="27"/>
       <c r="M149" s="34"/>
@@ -45557,8 +45792,8 @@
       <c r="H150" s="36" t="s">
         <v>1769</v>
       </c>
-      <c r="I150" s="370"/>
-      <c r="J150" s="370"/>
+      <c r="I150" s="371"/>
+      <c r="J150" s="371"/>
       <c r="K150" s="27"/>
       <c r="L150" s="27"/>
       <c r="M150" s="34"/>
@@ -45568,8 +45803,8 @@
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
-      <c r="I151" s="370"/>
-      <c r="J151" s="370"/>
+      <c r="I151" s="371"/>
+      <c r="J151" s="371"/>
       <c r="K151" s="27"/>
       <c r="L151" s="27"/>
       <c r="M151" s="34"/>
@@ -45579,8 +45814,8 @@
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
-      <c r="I152" s="370"/>
-      <c r="J152" s="370"/>
+      <c r="I152" s="371"/>
+      <c r="J152" s="371"/>
       <c r="K152" s="27"/>
       <c r="L152" s="27"/>
       <c r="M152" s="34"/>
@@ -45588,23 +45823,23 @@
     <row r="153" spans="2:13">
       <c r="E153" s="33"/>
       <c r="F153" s="27" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
       <c r="G153" s="30" t="s">
         <v>1969</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>2542</v>
-      </c>
-      <c r="I153" s="370"/>
-      <c r="J153" s="370"/>
+        <v>2537</v>
+      </c>
+      <c r="I153" s="371"/>
+      <c r="J153" s="371"/>
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
       <c r="M153" s="34"/>
     </row>
     <row r="154" spans="2:13">
       <c r="B154" t="s">
-        <v>2541</v>
+        <v>2536</v>
       </c>
       <c r="E154" s="33"/>
       <c r="F154" s="27"/>
@@ -45614,8 +45849,8 @@
       <c r="H154" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="I154" s="370"/>
-      <c r="J154" s="370"/>
+      <c r="I154" s="371"/>
+      <c r="J154" s="371"/>
       <c r="K154" s="27"/>
       <c r="L154" s="27"/>
       <c r="M154" s="34"/>
@@ -45629,8 +45864,8 @@
       <c r="H155" s="27">
         <v>20</v>
       </c>
-      <c r="I155" s="370"/>
-      <c r="J155" s="370"/>
+      <c r="I155" s="371"/>
+      <c r="J155" s="371"/>
       <c r="K155" s="27"/>
       <c r="L155" s="27"/>
       <c r="M155" s="34"/>
@@ -45642,10 +45877,10 @@
         <v>194</v>
       </c>
       <c r="H156" s="36" t="s">
-        <v>2535</v>
-      </c>
-      <c r="I156" s="370"/>
-      <c r="J156" s="370"/>
+        <v>2530</v>
+      </c>
+      <c r="I156" s="371"/>
+      <c r="J156" s="371"/>
       <c r="K156" s="27"/>
       <c r="L156" s="27"/>
       <c r="M156" s="34"/>
@@ -45655,8 +45890,8 @@
       <c r="F157" s="27"/>
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
-      <c r="I157" s="370"/>
-      <c r="J157" s="370"/>
+      <c r="I157" s="371"/>
+      <c r="J157" s="371"/>
       <c r="K157" s="27"/>
       <c r="L157" s="27"/>
       <c r="M157" s="34"/>
@@ -45664,16 +45899,16 @@
     <row r="158" spans="2:13">
       <c r="E158" s="33"/>
       <c r="F158" s="27" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
       <c r="G158" s="30" t="s">
         <v>1969</v>
       </c>
       <c r="H158" s="31" t="s">
-        <v>2542</v>
-      </c>
-      <c r="I158" s="370"/>
-      <c r="J158" s="370"/>
+        <v>2537</v>
+      </c>
+      <c r="I158" s="371"/>
+      <c r="J158" s="371"/>
       <c r="K158" s="27"/>
       <c r="L158" s="27"/>
       <c r="M158" s="34"/>
@@ -45687,8 +45922,8 @@
       <c r="H159" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="I159" s="370"/>
-      <c r="J159" s="370"/>
+      <c r="I159" s="371"/>
+      <c r="J159" s="371"/>
       <c r="K159" s="27"/>
       <c r="L159" s="27"/>
       <c r="M159" s="34"/>
@@ -45702,8 +45937,8 @@
       <c r="H160" s="27">
         <v>18</v>
       </c>
-      <c r="I160" s="370"/>
-      <c r="J160" s="370"/>
+      <c r="I160" s="371"/>
+      <c r="J160" s="371"/>
       <c r="K160" s="27"/>
       <c r="L160" s="27"/>
       <c r="M160" s="34"/>
@@ -45715,10 +45950,10 @@
         <v>194</v>
       </c>
       <c r="H161" s="36" t="s">
-        <v>2536</v>
-      </c>
-      <c r="I161" s="371"/>
-      <c r="J161" s="371"/>
+        <v>2531</v>
+      </c>
+      <c r="I161" s="372"/>
+      <c r="J161" s="372"/>
       <c r="K161" s="27"/>
       <c r="L161" s="27"/>
       <c r="M161" s="34"/>
@@ -45737,10 +45972,10 @@
     <row r="163" spans="5:13">
       <c r="E163" s="33"/>
       <c r="F163" s="27" t="s">
-        <v>2538</v>
+        <v>2533</v>
       </c>
       <c r="G163" s="38" t="s">
-        <v>2537</v>
+        <v>2532</v>
       </c>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
@@ -45773,28 +46008,28 @@
     </row>
     <row r="184" spans="3:14">
       <c r="C184" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="185" spans="3:14">
       <c r="D185" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="186" spans="3:14">
       <c r="D186" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="187" spans="3:14">
       <c r="D187" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="188" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="189" spans="3:14">
       <c r="C189" s="30" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="D189" s="31"/>
       <c r="E189" s="32"/>
@@ -45822,7 +46057,7 @@
         <v>187</v>
       </c>
       <c r="J190" s="34" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="L190" s="33"/>
       <c r="M190" s="27" t="s">
@@ -45838,7 +46073,7 @@
         <v>1853</v>
       </c>
       <c r="E191" s="34" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="H191" s="33"/>
       <c r="I191" s="27" t="s">
@@ -45852,7 +46087,7 @@
         <v>177</v>
       </c>
       <c r="N191" s="34" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="192" spans="3:14">
@@ -45861,7 +46096,7 @@
         <v>188</v>
       </c>
       <c r="E192" s="34" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="F192" t="s">
         <v>1861</v>
@@ -45878,16 +46113,16 @@
         <v>187</v>
       </c>
       <c r="N192" s="34" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="193" spans="3:14">
       <c r="C193" s="33"/>
       <c r="D193" s="38" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="E193" s="34" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="H193" s="33"/>
       <c r="I193" s="38" t="s">
@@ -45901,7 +46136,7 @@
         <v>187</v>
       </c>
       <c r="N193" s="34" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="194" spans="3:14">
@@ -45955,7 +46190,7 @@
     <row r="199" spans="3:14" ht="15.75" thickBot="1"/>
     <row r="200" spans="3:14">
       <c r="C200" s="30" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="D200" s="31"/>
       <c r="E200" s="32"/>
@@ -45971,14 +46206,14 @@
       <c r="C202" s="33"/>
       <c r="D202" s="38"/>
       <c r="E202" s="34" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="203" spans="3:14">
       <c r="C203" s="33"/>
       <c r="D203" s="27"/>
       <c r="E203" s="34" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="204" spans="3:14">
@@ -46008,37 +46243,37 @@
     </row>
     <row r="211" spans="2:15">
       <c r="B211" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="C211" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="212" spans="2:15">
       <c r="E212" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="J212" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="O212" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="213" spans="2:15">
       <c r="E213" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="J213" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="O213" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="214" spans="2:15">
       <c r="E214" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="J214" t="s">
         <v>1305</v>
@@ -46052,44 +46287,44 @@
         <v>1601</v>
       </c>
       <c r="E215" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="217" spans="2:15">
       <c r="E217" s="238" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="F217" s="238"/>
     </row>
     <row r="218" spans="2:15">
       <c r="B218" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="D218" t="s">
         <v>1451</v>
       </c>
       <c r="E218" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="I218" t="s">
         <v>1451</v>
       </c>
       <c r="J218" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="N218" t="s">
         <v>1451</v>
       </c>
       <c r="O218" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="221" spans="2:15">
       <c r="B221" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
       <c r="E221" s="238" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="F221" s="238"/>
       <c r="J221" s="238" t="s">
@@ -46101,7 +46336,7 @@
     </row>
     <row r="222" spans="2:15">
       <c r="E222" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="223" spans="2:15">
@@ -46109,7 +46344,7 @@
         <v>1602</v>
       </c>
       <c r="J223" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="O223" t="s">
         <v>1603</v>
@@ -46117,22 +46352,22 @@
     </row>
     <row r="225" spans="2:12">
       <c r="B225" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="226" spans="2:12">
       <c r="B226" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="227" spans="2:12">
       <c r="B227" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="228" spans="2:12">
       <c r="B228" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="230" spans="2:12">
@@ -46142,34 +46377,34 @@
     </row>
     <row r="231" spans="2:12">
       <c r="E231" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="J231" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="232" spans="2:12">
       <c r="E232" t="s">
+        <v>2143</v>
+      </c>
+      <c r="K232" t="s">
         <v>2148</v>
-      </c>
-      <c r="K232" t="s">
-        <v>2153</v>
       </c>
     </row>
     <row r="233" spans="2:12">
       <c r="E233" t="s">
+        <v>2144</v>
+      </c>
+      <c r="K233" t="s">
         <v>2149</v>
-      </c>
-      <c r="K233" t="s">
-        <v>2154</v>
       </c>
     </row>
     <row r="234" spans="2:12">
       <c r="E234" t="s">
+        <v>2145</v>
+      </c>
+      <c r="K234" t="s">
         <v>2150</v>
-      </c>
-      <c r="K234" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="236" spans="2:12">
@@ -46179,17 +46414,17 @@
     </row>
     <row r="237" spans="2:12">
       <c r="E237" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="238" spans="2:12">
       <c r="E238" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="240" spans="2:12">
       <c r="B240" s="119" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="C240" s="239"/>
       <c r="D240" s="120"/>
@@ -46217,7 +46452,7 @@
         <v>180</v>
       </c>
       <c r="H241" s="76" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="J241" s="177"/>
       <c r="K241" s="27" t="s">
@@ -46233,21 +46468,21 @@
         <v>188</v>
       </c>
       <c r="D242" s="76" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="F242" s="177"/>
       <c r="G242" s="27" t="s">
         <v>184</v>
       </c>
       <c r="H242" s="76" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="J242" s="177"/>
       <c r="K242" s="27" t="s">
         <v>177</v>
       </c>
       <c r="L242" s="76" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="M242" s="40"/>
       <c r="N242">
@@ -46260,7 +46495,7 @@
         <v>180</v>
       </c>
       <c r="D243" s="76" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="F243" s="177"/>
       <c r="G243" s="27" t="s">
@@ -46274,7 +46509,7 @@
         <v>187</v>
       </c>
       <c r="L243" s="76" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="N243">
         <v>32767</v>
@@ -46286,7 +46521,7 @@
         <v>186</v>
       </c>
       <c r="D244" s="76" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="F244" s="177"/>
       <c r="G244" s="38" t="s">
@@ -46300,7 +46535,7 @@
         <v>187</v>
       </c>
       <c r="L244" s="76" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -46309,7 +46544,7 @@
         <v>1853</v>
       </c>
       <c r="D245" s="76" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
       <c r="F245" s="177"/>
       <c r="G245" s="38" t="s">
@@ -46331,7 +46566,7 @@
         <v>1748</v>
       </c>
       <c r="D246" s="76" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="F246" s="177"/>
       <c r="G246" s="38" t="s">
@@ -46347,10 +46582,10 @@
         <v>177</v>
       </c>
       <c r="P246" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="Q246" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="R246">
         <v>127</v>
@@ -46370,13 +46605,13 @@
         <v>187</v>
       </c>
       <c r="P247" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="Q247" t="s">
+        <v>2170</v>
+      </c>
+      <c r="R247" t="s">
         <v>2175</v>
-      </c>
-      <c r="R247" t="s">
-        <v>2180</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -46387,13 +46622,13 @@
         <v>184</v>
       </c>
       <c r="P248" t="s">
+        <v>2167</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>2171</v>
+      </c>
+      <c r="R248" t="s">
         <v>2172</v>
-      </c>
-      <c r="Q248" t="s">
-        <v>2176</v>
-      </c>
-      <c r="R248" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -46404,13 +46639,13 @@
         <v>188</v>
       </c>
       <c r="P249" t="s">
+        <v>2168</v>
+      </c>
+      <c r="Q249" t="s">
         <v>2173</v>
       </c>
-      <c r="Q249" t="s">
-        <v>2178</v>
-      </c>
       <c r="R249" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -46441,7 +46676,7 @@
     </row>
     <row r="251" spans="1:18">
       <c r="A251" s="27" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="F251" s="27" t="s">
         <v>35</v>
@@ -46473,20 +46708,20 @@
     </row>
     <row r="252" spans="1:18">
       <c r="G252" s="130" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="H252" s="130" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="I252" s="130"/>
       <c r="J252" s="130"/>
       <c r="K252" s="130"/>
       <c r="L252" s="130"/>
       <c r="M252" s="130" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="N252" s="130" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -46519,39 +46754,39 @@
       </c>
       <c r="O253" s="233"/>
       <c r="P253" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="255" spans="1:18">
       <c r="G255" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="J255" t="s">
         <v>177</v>
       </c>
       <c r="K255" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="256" spans="1:18">
       <c r="G256" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="J256" t="s">
         <v>177</v>
       </c>
       <c r="K256" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="257" spans="3:16">
       <c r="G257" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="258" spans="3:16">
       <c r="J258" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="N258">
         <v>127</v>
@@ -46560,7 +46795,7 @@
     <row r="261" spans="3:16" ht="15.75" thickBot="1"/>
     <row r="262" spans="3:16">
       <c r="C262" s="30" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="D262" s="31"/>
       <c r="E262" s="31"/>
@@ -46595,7 +46830,7 @@
         <v>412</v>
       </c>
       <c r="F264" s="167" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="G264" s="196"/>
       <c r="H264" s="163"/>
@@ -46615,7 +46850,7 @@
       <c r="D265" s="27"/>
       <c r="E265" s="27"/>
       <c r="F265" s="141" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="G265" s="242"/>
       <c r="L265" s="33"/>
@@ -46640,7 +46875,7 @@
       <c r="C267" s="33"/>
       <c r="D267" s="27"/>
       <c r="E267" s="27" t="s">
-        <v>2194</v>
+        <v>2189</v>
       </c>
       <c r="F267" s="27"/>
       <c r="G267" s="34"/>
@@ -46657,7 +46892,7 @@
       <c r="F268" s="27"/>
       <c r="G268" s="34"/>
       <c r="H268" s="29" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="I268" s="29"/>
       <c r="J268" s="29"/>
@@ -46672,16 +46907,16 @@
       <c r="C269" s="33"/>
       <c r="D269" s="27"/>
       <c r="E269" s="27" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="F269" s="39">
         <v>9</v>
       </c>
-      <c r="G269" s="364" t="s">
-        <v>2192</v>
+      <c r="G269" s="365" t="s">
+        <v>2187</v>
       </c>
       <c r="I269" s="56" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="L269" s="33"/>
       <c r="M269" s="27"/>
@@ -46693,14 +46928,14 @@
       <c r="C270" s="33"/>
       <c r="D270" s="27"/>
       <c r="E270" s="27" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="F270" s="39">
         <v>15</v>
       </c>
-      <c r="G270" s="365"/>
+      <c r="G270" s="366"/>
       <c r="I270" s="163" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
       <c r="J270" s="163"/>
       <c r="L270" s="33"/>
@@ -46715,10 +46950,10 @@
       <c r="E271" s="27"/>
       <c r="F271" s="27"/>
       <c r="G271" s="242" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="I271" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
       <c r="L271" s="33"/>
       <c r="M271" s="27"/>
@@ -46733,7 +46968,7 @@
       <c r="F272" s="27"/>
       <c r="G272" s="34"/>
       <c r="I272" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="L272" s="33"/>
       <c r="M272" s="27"/>
@@ -46748,7 +46983,7 @@
       <c r="F273" s="27"/>
       <c r="G273" s="34"/>
       <c r="I273" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="L273" s="33"/>
       <c r="M273" s="27"/>
@@ -46782,23 +47017,23 @@
     </row>
     <row r="282" spans="3:16" ht="18">
       <c r="C282" s="261" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="283" spans="3:16" ht="18">
       <c r="D283" s="261" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="N283" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="284" spans="3:16" ht="18">
       <c r="D284" s="262" t="s">
+        <v>2281</v>
+      </c>
+      <c r="N284" t="s">
         <v>2286</v>
-      </c>
-      <c r="N284" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="286" spans="3:16">
@@ -46855,20 +47090,20 @@
     </row>
     <row r="288" spans="3:16">
       <c r="C288" s="130" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="D288" s="130" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="E288" s="130"/>
       <c r="F288" s="130"/>
       <c r="G288" s="130"/>
       <c r="H288" s="130"/>
       <c r="I288" s="130" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="J288" s="130" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="289" spans="3:14">
@@ -46936,10 +47171,10 @@
         <v>0</v>
       </c>
       <c r="K292" s="57" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
       <c r="L292" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
       <c r="N292">
         <v>4</v>
@@ -46961,7 +47196,7 @@
         <v>1</v>
       </c>
       <c r="K293" s="57" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="N293">
         <v>5</v>
@@ -46983,7 +47218,7 @@
         <v>1</v>
       </c>
       <c r="K294" s="57" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
       <c r="N294">
         <v>1</v>
@@ -47719,7 +47954,7 @@
     <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>2431</v>
+        <v>2426</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>1859</v>
@@ -47734,7 +47969,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="B31" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="27" t="s">
@@ -47759,7 +47994,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="B32" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="27" t="s">
@@ -47784,7 +48019,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="C33" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="27" t="s">
@@ -47809,7 +48044,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="C34" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="D34" t="s">
         <v>366</v>
@@ -47834,7 +48069,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="D35" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="36"/>
@@ -47852,23 +48087,23 @@
     </row>
     <row r="36" spans="1:15">
       <c r="D36" t="s">
-        <v>2438</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="C37" t="s">
         <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="B39" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
       <c r="C39" s="40"/>
     </row>
@@ -48634,35 +48869,35 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="29" t="s">
-        <v>2579</v>
+        <v>2574</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" t="s">
-        <v>2581</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2570</v>
-      </c>
-      <c r="E2" s="362" t="s">
-        <v>2578</v>
-      </c>
-      <c r="F2" s="372"/>
-      <c r="G2" s="372"/>
-      <c r="H2" s="372"/>
-      <c r="I2" s="372"/>
-      <c r="J2" s="372"/>
-      <c r="K2" s="372"/>
-      <c r="L2" s="372"/>
-      <c r="M2" s="363"/>
+        <v>2565</v>
+      </c>
+      <c r="E2" s="363" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="373"/>
+      <c r="I2" s="373"/>
+      <c r="J2" s="373"/>
+      <c r="K2" s="373"/>
+      <c r="L2" s="373"/>
+      <c r="M2" s="364"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="B3" t="s">
         <v>460</v>
       </c>
       <c r="C3" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="E3" s="294" t="s">
         <v>1458</v>
@@ -48680,7 +48915,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" t="s">
-        <v>2571</v>
+        <v>2566</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>402</v>
@@ -48717,7 +48952,7 @@
         <v>1644</v>
       </c>
       <c r="K5" s="115" t="s">
-        <v>2582</v>
+        <v>2577</v>
       </c>
       <c r="L5" s="51"/>
       <c r="M5" s="52"/>
@@ -48738,7 +48973,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="115" t="s">
-        <v>2583</v>
+        <v>2578</v>
       </c>
       <c r="L6" s="51"/>
       <c r="M6" s="52"/>
@@ -48762,10 +48997,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2572</v>
+        <v>2567</v>
       </c>
       <c r="D8" t="s">
-        <v>2580</v>
+        <v>2575</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="51"/>
@@ -48781,7 +49016,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2573</v>
+        <v>2568</v>
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
@@ -48799,10 +49034,10 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="C10" t="s">
-        <v>2591</v>
+        <v>2586</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="51"/>
@@ -48820,7 +49055,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="51"/>
@@ -48834,7 +49069,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2576</v>
+        <v>2571</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="51"/>
@@ -48848,13 +49083,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2577</v>
+        <v>2572</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>402</v>
       </c>
       <c r="F13" s="115" t="s">
-        <v>2590</v>
+        <v>2585</v>
       </c>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
@@ -48866,10 +49101,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="E14" s="50" t="s">
-        <v>2588</v>
+        <v>2583</v>
       </c>
       <c r="F14" s="115" t="s">
-        <v>2589</v>
+        <v>2584</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
@@ -48892,7 +49127,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="E16" s="114" t="s">
-        <v>2584</v>
+        <v>2579</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
@@ -48905,10 +49140,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>2586</v>
+        <v>2581</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>2585</v>
+        <v>2580</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -48924,7 +49159,7 @@
         <v>430</v>
       </c>
       <c r="B18" t="s">
-        <v>2587</v>
+        <v>2582</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
@@ -48939,26 +49174,26 @@
     <row r="22" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>2570</v>
-      </c>
-      <c r="E23" s="362" t="s">
-        <v>2578</v>
-      </c>
-      <c r="F23" s="372"/>
-      <c r="G23" s="372"/>
-      <c r="H23" s="372"/>
-      <c r="I23" s="372"/>
-      <c r="J23" s="372"/>
-      <c r="K23" s="372"/>
-      <c r="L23" s="372"/>
-      <c r="M23" s="363"/>
+        <v>2565</v>
+      </c>
+      <c r="E23" s="363" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F23" s="373"/>
+      <c r="G23" s="373"/>
+      <c r="H23" s="373"/>
+      <c r="I23" s="373"/>
+      <c r="J23" s="373"/>
+      <c r="K23" s="373"/>
+      <c r="L23" s="373"/>
+      <c r="M23" s="364"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
       <c r="B24" t="s">
         <v>460</v>
       </c>
       <c r="C24" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="E24" s="294" t="s">
         <v>1458</v>
@@ -48976,7 +49211,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="B25" t="s">
-        <v>2571</v>
+        <v>2566</v>
       </c>
       <c r="E25" s="50" t="s">
         <v>402</v>
@@ -48991,7 +49226,7 @@
       <c r="I25" s="169"/>
       <c r="J25" s="170"/>
       <c r="K25" s="51" t="s">
-        <v>2597</v>
+        <v>2592</v>
       </c>
       <c r="L25" s="51"/>
       <c r="M25" s="52"/>
@@ -49015,7 +49250,7 @@
         <v>1464</v>
       </c>
       <c r="K26" s="115" t="s">
-        <v>2598</v>
+        <v>2593</v>
       </c>
       <c r="L26" s="51"/>
       <c r="M26" s="52"/>
@@ -49036,7 +49271,7 @@
         <v>5</v>
       </c>
       <c r="K27" s="115" t="s">
-        <v>2599</v>
+        <v>2594</v>
       </c>
       <c r="L27" s="51"/>
       <c r="M27" s="52"/>
@@ -49057,7 +49292,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>2572</v>
+        <v>2567</v>
       </c>
       <c r="E29" s="50"/>
       <c r="F29" s="51"/>
@@ -49069,13 +49304,13 @@
       <c r="J29" s="49"/>
       <c r="K29" s="51"/>
       <c r="L29" s="51" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
       <c r="M29" s="52"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="E30" s="50"/>
       <c r="F30" s="51"/>
@@ -49089,13 +49324,13 @@
       </c>
       <c r="K30" s="51"/>
       <c r="L30" s="51" t="s">
-        <v>2600</v>
+        <v>2595</v>
       </c>
       <c r="M30" s="52"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1">
       <c r="A31" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31" s="51"/>
@@ -49109,7 +49344,7 @@
       </c>
       <c r="K31" s="51"/>
       <c r="L31" s="51" t="s">
-        <v>2601</v>
+        <v>2596</v>
       </c>
       <c r="M31" s="52"/>
     </row>
@@ -49126,7 +49361,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>2573</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -49140,7 +49375,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>2576</v>
+        <v>2571</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="115"/>
@@ -49154,15 +49389,15 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>2595</v>
+        <v>2590</v>
       </c>
       <c r="E35" s="50"/>
       <c r="F35" s="115" t="s">
-        <v>2593</v>
+        <v>2588</v>
       </c>
       <c r="G35" s="51"/>
       <c r="H35" s="115" t="s">
-        <v>2594</v>
+        <v>2589</v>
       </c>
       <c r="I35" s="51"/>
       <c r="J35" s="51"/>
@@ -49183,11 +49418,11 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>2592</v>
+        <v>2587</v>
       </c>
       <c r="E37" s="114"/>
       <c r="F37" t="s">
-        <v>2595</v>
+        <v>2590</v>
       </c>
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
@@ -49198,7 +49433,7 @@
     <row r="38" spans="1:13">
       <c r="E38" s="33"/>
       <c r="F38" s="27" t="s">
-        <v>2596</v>
+        <v>2591</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -49225,26 +49460,26 @@
     <row r="41" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>2570</v>
-      </c>
-      <c r="E42" s="362" t="s">
-        <v>2578</v>
-      </c>
-      <c r="F42" s="372"/>
-      <c r="G42" s="372"/>
-      <c r="H42" s="372"/>
-      <c r="I42" s="372"/>
-      <c r="J42" s="372"/>
-      <c r="K42" s="372"/>
-      <c r="L42" s="372"/>
-      <c r="M42" s="363"/>
+        <v>2565</v>
+      </c>
+      <c r="E42" s="363" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F42" s="373"/>
+      <c r="G42" s="373"/>
+      <c r="H42" s="373"/>
+      <c r="I42" s="373"/>
+      <c r="J42" s="373"/>
+      <c r="K42" s="373"/>
+      <c r="L42" s="373"/>
+      <c r="M42" s="364"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1">
       <c r="B43" t="s">
         <v>460</v>
       </c>
       <c r="C43" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="E43" s="294" t="s">
         <v>1458</v>
@@ -49262,7 +49497,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="B44" t="s">
-        <v>2571</v>
+        <v>2566</v>
       </c>
       <c r="E44" s="50" t="s">
         <v>402</v>
@@ -49326,7 +49561,7 @@
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1">
       <c r="A47" t="s">
-        <v>2572</v>
+        <v>2567</v>
       </c>
       <c r="E47" s="50"/>
       <c r="F47" s="51"/>
@@ -49340,7 +49575,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="E48" s="50"/>
       <c r="F48" s="51"/>
@@ -49356,7 +49591,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="E49" s="50"/>
       <c r="F49" s="51"/>
@@ -49374,7 +49609,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1">
       <c r="A50" t="s">
-        <v>2573</v>
+        <v>2568</v>
       </c>
       <c r="E50" s="50"/>
       <c r="F50" s="51"/>
@@ -49392,7 +49627,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" thickBot="1">
       <c r="A51" t="s">
-        <v>2576</v>
+        <v>2571</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="51"/>
@@ -49406,7 +49641,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>2595</v>
+        <v>2590</v>
       </c>
       <c r="E52" s="50"/>
       <c r="F52" s="51"/>
@@ -49440,7 +49675,7 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" thickBot="1">
       <c r="A54" t="s">
-        <v>2602</v>
+        <v>2597</v>
       </c>
       <c r="E54" s="50"/>
       <c r="F54" s="115"/>
@@ -49458,7 +49693,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>2608</v>
+        <v>2603</v>
       </c>
       <c r="E55" s="50"/>
       <c r="F55" s="51"/>
@@ -49480,7 +49715,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>2603</v>
+        <v>2598</v>
       </c>
       <c r="C57" t="s">
         <v>1464</v>
@@ -49497,7 +49732,7 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" thickBot="1">
       <c r="A58" t="s">
-        <v>2604</v>
+        <v>2599</v>
       </c>
       <c r="C58" t="s">
         <v>417</v>
@@ -49514,18 +49749,18 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>2605</v>
+        <v>2600</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>2607</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>2606</v>
+        <v>2601</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -49534,22 +49769,22 @@
     <row r="63" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="64" spans="1:15" ht="23.25">
       <c r="A64" s="308" t="s">
-        <v>2609</v>
+        <v>2604</v>
       </c>
       <c r="B64" s="308"/>
       <c r="C64" s="308"/>
       <c r="D64" s="308"/>
-      <c r="G64" s="362" t="s">
-        <v>2578</v>
-      </c>
-      <c r="H64" s="372"/>
-      <c r="I64" s="372"/>
-      <c r="J64" s="372"/>
-      <c r="K64" s="372"/>
-      <c r="L64" s="372"/>
-      <c r="M64" s="372"/>
-      <c r="N64" s="372"/>
-      <c r="O64" s="363"/>
+      <c r="G64" s="363" t="s">
+        <v>2573</v>
+      </c>
+      <c r="H64" s="373"/>
+      <c r="I64" s="373"/>
+      <c r="J64" s="373"/>
+      <c r="K64" s="373"/>
+      <c r="L64" s="373"/>
+      <c r="M64" s="373"/>
+      <c r="N64" s="373"/>
+      <c r="O64" s="364"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" thickBot="1">
       <c r="B65" t="s">
@@ -49571,7 +49806,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="B66" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="G66" s="50" t="s">
         <v>1110</v>
@@ -49592,11 +49827,11 @@
     <row r="67" spans="1:15">
       <c r="A67" s="310"/>
       <c r="B67" s="310" t="s">
-        <v>2610</v>
+        <v>2605</v>
       </c>
       <c r="C67" s="310"/>
       <c r="D67" s="310" t="s">
-        <v>2621</v>
+        <v>2616</v>
       </c>
       <c r="G67" s="50" t="s">
         <v>536</v>
@@ -49643,7 +49878,7 @@
     </row>
     <row r="69" spans="1:15" ht="15.75" thickBot="1">
       <c r="A69" s="310" t="s">
-        <v>2611</v>
+        <v>2606</v>
       </c>
       <c r="B69" s="310"/>
       <c r="C69" s="310"/>
@@ -49685,7 +49920,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="B71" t="s">
-        <v>2602</v>
+        <v>2597</v>
       </c>
       <c r="G71" s="50" t="s">
         <v>403</v>
@@ -49705,7 +49940,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="B72" t="s">
-        <v>2576</v>
+        <v>2571</v>
       </c>
       <c r="G72" s="50" t="s">
         <v>1937</v>
@@ -49727,11 +49962,11 @@
     </row>
     <row r="73" spans="1:15">
       <c r="B73" s="56" t="s">
-        <v>2612</v>
+        <v>2607</v>
       </c>
       <c r="C73" s="56"/>
       <c r="E73" t="s">
-        <v>2621</v>
+        <v>2616</v>
       </c>
       <c r="G73" s="50" t="s">
         <v>405</v>
@@ -49767,7 +50002,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="56" t="s">
-        <v>2613</v>
+        <v>2608</v>
       </c>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -49790,7 +50025,7 @@
       </c>
       <c r="G76" s="50"/>
       <c r="H76" s="115" t="s">
-        <v>2617</v>
+        <v>2612</v>
       </c>
       <c r="I76" s="51"/>
       <c r="J76" s="115"/>
@@ -49802,11 +50037,11 @@
     </row>
     <row r="77" spans="1:15">
       <c r="B77" t="s">
-        <v>2614</v>
+        <v>2609</v>
       </c>
       <c r="G77" s="50"/>
       <c r="H77" s="115" t="s">
-        <v>2618</v>
+        <v>2613</v>
       </c>
       <c r="I77" s="51"/>
       <c r="J77" s="51"/>
@@ -49831,7 +50066,7 @@
     <row r="79" spans="1:15">
       <c r="G79" s="33"/>
       <c r="H79" t="s">
-        <v>2619</v>
+        <v>2614</v>
       </c>
       <c r="I79" s="27"/>
       <c r="J79" s="27"/>
@@ -49843,10 +50078,10 @@
     </row>
     <row r="80" spans="1:15" ht="15.75" thickBot="1">
       <c r="A80" t="s">
-        <v>2615</v>
+        <v>2610</v>
       </c>
       <c r="D80" t="s">
-        <v>2626</v>
+        <v>2621</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -49854,7 +50089,7 @@
       <c r="F80" s="51"/>
       <c r="G80" s="243"/>
       <c r="H80" s="36" t="s">
-        <v>2620</v>
+        <v>2615</v>
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
@@ -49875,16 +50110,16 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>2627</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="28.5">
       <c r="A82" s="309" t="s">
-        <v>2616</v>
+        <v>2611</v>
       </c>
       <c r="B82" s="309"/>
       <c r="D82" t="s">
-        <v>2628</v>
+        <v>2623</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -49892,7 +50127,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>2622</v>
+        <v>2617</v>
       </c>
       <c r="C83" t="s">
         <v>1644</v>
@@ -49909,7 +50144,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>2623</v>
+        <v>2618</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -49980,7 +50215,7 @@
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" t="s">
-        <v>2625</v>
+        <v>2620</v>
       </c>
       <c r="L89" s="27"/>
       <c r="M89" s="27"/>
@@ -50037,7 +50272,7 @@
       </c>
       <c r="H92" s="33"/>
       <c r="I92" s="27" t="s">
-        <v>2624</v>
+        <v>2619</v>
       </c>
       <c r="J92" s="27"/>
       <c r="K92" s="34"/>
@@ -52494,49 +52729,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="373" t="s">
+      <c r="B2" s="374" t="s">
         <v>2029</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="375"/>
-      <c r="F2" s="373" t="s">
-        <v>2545</v>
-      </c>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374"/>
-      <c r="I2" s="375"/>
-      <c r="K2" s="373" t="s">
-        <v>2547</v>
-      </c>
-      <c r="L2" s="374"/>
-      <c r="M2" s="375"/>
+      <c r="C2" s="375"/>
+      <c r="D2" s="376"/>
+      <c r="F2" s="374" t="s">
+        <v>2540</v>
+      </c>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375"/>
+      <c r="I2" s="376"/>
+      <c r="K2" s="374" t="s">
+        <v>2542</v>
+      </c>
+      <c r="L2" s="375"/>
+      <c r="M2" s="376"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="376"/>
-      <c r="C3" s="377"/>
-      <c r="D3" s="378"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="377"/>
-      <c r="H3" s="377"/>
-      <c r="I3" s="378"/>
-      <c r="K3" s="376"/>
-      <c r="L3" s="377"/>
-      <c r="M3" s="378"/>
+      <c r="B3" s="377"/>
+      <c r="C3" s="378"/>
+      <c r="D3" s="379"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="378"/>
+      <c r="H3" s="378"/>
+      <c r="I3" s="379"/>
+      <c r="K3" s="377"/>
+      <c r="L3" s="378"/>
+      <c r="M3" s="379"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="376"/>
-      <c r="C4" s="377"/>
-      <c r="D4" s="378"/>
-      <c r="F4" s="376"/>
-      <c r="G4" s="377"/>
-      <c r="H4" s="377"/>
-      <c r="I4" s="378"/>
-      <c r="K4" s="376"/>
-      <c r="L4" s="377"/>
-      <c r="M4" s="378"/>
+      <c r="B4" s="377"/>
+      <c r="C4" s="378"/>
+      <c r="D4" s="379"/>
+      <c r="F4" s="377"/>
+      <c r="G4" s="378"/>
+      <c r="H4" s="378"/>
+      <c r="I4" s="379"/>
+      <c r="K4" s="377"/>
+      <c r="L4" s="378"/>
+      <c r="M4" s="379"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="379" t="s">
+      <c r="A5" s="380" t="s">
         <v>1908</v>
       </c>
       <c r="B5" s="80"/>
@@ -52563,7 +52798,7 @@
       <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="379"/>
+      <c r="A6" s="380"/>
       <c r="B6" s="80"/>
       <c r="C6" s="39" t="s">
         <v>58</v>
@@ -52573,25 +52808,25 @@
       </c>
       <c r="F6" s="80"/>
       <c r="G6" s="39" t="s">
-        <v>2516</v>
+        <v>2511</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>2546</v>
+        <v>2541</v>
       </c>
       <c r="I6" s="41"/>
       <c r="K6" s="80" t="s">
-        <v>2516</v>
+        <v>2511</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>2548</v>
+        <v>2543</v>
       </c>
       <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="379"/>
+      <c r="A7" s="380"/>
       <c r="B7" s="80"/>
       <c r="C7" s="39" t="s">
-        <v>2549</v>
+        <v>2544</v>
       </c>
       <c r="D7" s="41">
         <v>750</v>
@@ -52601,7 +52836,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="34"/>
       <c r="K7" s="80" t="s">
-        <v>2558</v>
+        <v>2553</v>
       </c>
       <c r="L7" s="39">
         <v>50000</v>
@@ -52621,61 +52856,61 @@
       <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="379" t="s">
+      <c r="A9" s="380" t="s">
         <v>203</v>
       </c>
       <c r="B9" s="289" t="s">
-        <v>2544</v>
+        <v>2539</v>
       </c>
       <c r="C9" s="141"/>
       <c r="D9" s="242"/>
       <c r="F9" s="289" t="s">
-        <v>2552</v>
+        <v>2547</v>
       </c>
       <c r="G9" s="141"/>
       <c r="H9" s="141"/>
       <c r="I9" s="242"/>
       <c r="K9" s="289" t="s">
-        <v>2551</v>
+        <v>2546</v>
       </c>
       <c r="L9" s="141"/>
       <c r="M9" s="242"/>
     </row>
     <row r="10" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A10" s="379"/>
+      <c r="A10" s="380"/>
       <c r="B10" s="289"/>
       <c r="C10" s="290" t="s">
-        <v>2554</v>
+        <v>2549</v>
       </c>
       <c r="D10" s="242"/>
       <c r="E10" t="s">
-        <v>2556</v>
+        <v>2551</v>
       </c>
       <c r="F10" s="289"/>
       <c r="G10" s="141" t="s">
-        <v>2557</v>
+        <v>2552</v>
       </c>
       <c r="H10" s="242"/>
       <c r="I10" s="242"/>
       <c r="K10" s="289"/>
       <c r="L10" s="141" t="s">
-        <v>2550</v>
+        <v>2545</v>
       </c>
       <c r="M10" s="242"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="379"/>
+      <c r="A11" s="380"/>
       <c r="B11" s="289"/>
       <c r="C11" s="141"/>
       <c r="D11" s="242"/>
       <c r="F11" s="289"/>
       <c r="G11" s="141"/>
       <c r="H11" s="242" t="s">
-        <v>2553</v>
+        <v>2548</v>
       </c>
       <c r="I11" s="242"/>
       <c r="J11" t="s">
-        <v>2555</v>
+        <v>2550</v>
       </c>
       <c r="K11" s="289"/>
       <c r="L11" s="141"/>
@@ -52684,7 +52919,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="379"/>
+      <c r="A12" s="380"/>
       <c r="B12" s="289"/>
       <c r="C12" s="141"/>
       <c r="D12" s="242"/>
@@ -52730,49 +52965,49 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>2559</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>2560</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2560</v>
+      </c>
+      <c r="H18" t="s">
         <v>2561</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2565</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2566</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="H19" t="s">
-        <v>2567</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>2562</v>
+        <v>2557</v>
       </c>
       <c r="H20" t="s">
-        <v>2568</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>2563</v>
+        <v>2558</v>
       </c>
       <c r="H21" t="s">
-        <v>2569</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>2564</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1">
@@ -52864,27 +53099,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="381" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B1" s="381"/>
-      <c r="C1" s="381"/>
-      <c r="D1" s="381"/>
-      <c r="E1" s="381"/>
-      <c r="F1" s="381"/>
-      <c r="I1" s="381" t="s">
-        <v>2211</v>
-      </c>
-      <c r="J1" s="381"/>
-      <c r="K1" s="381"/>
-      <c r="L1" s="381"/>
-      <c r="M1" s="381"/>
-      <c r="N1" s="381"/>
-      <c r="O1" s="381"/>
+      <c r="A1" s="382" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B1" s="382"/>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="382"/>
+      <c r="F1" s="382"/>
+      <c r="I1" s="382" t="s">
+        <v>2206</v>
+      </c>
+      <c r="J1" s="382"/>
+      <c r="K1" s="382"/>
+      <c r="L1" s="382"/>
+      <c r="M1" s="382"/>
+      <c r="N1" s="382"/>
+      <c r="O1" s="382"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
       <c r="I2" t="s">
         <v>362</v>
@@ -52895,16 +53130,16 @@
         <v>366</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>2212</v>
+        <v>2207</v>
       </c>
       <c r="J3" t="s">
         <v>217</v>
       </c>
       <c r="K3" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="L3" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -52918,13 +53153,13 @@
         <v>223</v>
       </c>
       <c r="E4" s="109" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
       <c r="F4" s="149" t="s">
-        <v>2214</v>
+        <v>2209</v>
       </c>
       <c r="G4" s="245" t="s">
-        <v>2215</v>
+        <v>2210</v>
       </c>
       <c r="J4" t="s">
         <v>366</v>
@@ -52938,7 +53173,7 @@
         <v>378</v>
       </c>
       <c r="K5" t="s">
-        <v>2202</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -52946,16 +53181,16 @@
         <v>1502</v>
       </c>
       <c r="F6" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
       <c r="K6" s="159" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>293</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -52964,10 +53199,10 @@
       </c>
       <c r="D7" s="108"/>
       <c r="F7" t="s">
-        <v>2263</v>
+        <v>2258</v>
       </c>
       <c r="K7" s="244" t="s">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="L7" s="57" t="s">
         <v>293</v>
@@ -52981,16 +53216,16 @@
         <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
       <c r="K8" s="246" t="s">
-        <v>2216</v>
+        <v>2211</v>
       </c>
       <c r="L8" s="57" t="s">
         <v>293</v>
       </c>
       <c r="M8" s="57" t="s">
-        <v>2217</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -52998,28 +53233,28 @@
         <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>2206</v>
+        <v>2201</v>
       </c>
       <c r="L9" s="57" t="s">
         <v>293</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>2207</v>
+        <v>2202</v>
       </c>
       <c r="N9" s="159" t="s">
-        <v>2208</v>
+        <v>2203</v>
       </c>
       <c r="O9" s="244" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="P9" s="246" t="s">
         <v>1110</v>
       </c>
       <c r="Q9" s="57" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -53027,7 +53262,7 @@
         <v>144</v>
       </c>
       <c r="M10" s="123" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
@@ -53036,32 +53271,32 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="360" t="s">
-        <v>2213</v>
-      </c>
-      <c r="B12" s="380"/>
-      <c r="C12" s="380"/>
-      <c r="D12" s="380"/>
-      <c r="E12" s="380"/>
-      <c r="F12" s="380"/>
-      <c r="G12" s="380"/>
-      <c r="H12" s="361"/>
-      <c r="I12" s="360" t="s">
-        <v>2213</v>
-      </c>
-      <c r="J12" s="380"/>
-      <c r="K12" s="380"/>
-      <c r="L12" s="380"/>
-      <c r="M12" s="380"/>
-      <c r="N12" s="380"/>
-      <c r="O12" s="380"/>
-      <c r="P12" s="380"/>
-      <c r="Q12" s="380"/>
-      <c r="R12" s="361"/>
+      <c r="A12" s="361" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B12" s="381"/>
+      <c r="C12" s="381"/>
+      <c r="D12" s="381"/>
+      <c r="E12" s="381"/>
+      <c r="F12" s="381"/>
+      <c r="G12" s="381"/>
+      <c r="H12" s="362"/>
+      <c r="I12" s="361" t="s">
+        <v>2208</v>
+      </c>
+      <c r="J12" s="381"/>
+      <c r="K12" s="381"/>
+      <c r="L12" s="381"/>
+      <c r="M12" s="381"/>
+      <c r="N12" s="381"/>
+      <c r="O12" s="381"/>
+      <c r="P12" s="381"/>
+      <c r="Q12" s="381"/>
+      <c r="R12" s="362"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -53071,13 +53306,13 @@
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
       <c r="I13" s="33" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27" t="s">
-        <v>2220</v>
+        <v>2215</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
@@ -53088,24 +53323,24 @@
     <row r="14" spans="1:18">
       <c r="A14" s="33"/>
       <c r="B14" s="27" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="34"/>
       <c r="I14" s="33" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27" t="s">
-        <v>2218</v>
+        <v>2213</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
@@ -53119,18 +53354,18 @@
         <v>1456</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27" t="s">
-        <v>2234</v>
+        <v>2229</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="34"/>
       <c r="I15" s="33"/>
       <c r="J15" s="27" t="s">
-        <v>2221</v>
+        <v>2216</v>
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
@@ -53144,21 +53379,21 @@
     <row r="16" spans="1:18">
       <c r="A16" s="33"/>
       <c r="B16" s="27" t="s">
-        <v>2214</v>
+        <v>2209</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>2235</v>
+        <v>2230</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>2236</v>
+        <v>2231</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="34"/>
       <c r="I16" s="33"/>
       <c r="J16" s="27" t="s">
-        <v>2222</v>
+        <v>2217</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
@@ -53172,26 +53407,26 @@
     <row r="17" spans="1:18">
       <c r="A17" s="33"/>
       <c r="B17" s="38" t="s">
-        <v>2237</v>
+        <v>2232</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>2238</v>
+        <v>2233</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="38" t="s">
-        <v>2239</v>
+        <v>2234</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="34"/>
       <c r="I17" s="33" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27" t="s">
-        <v>2219</v>
+        <v>2214</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
@@ -53201,7 +53436,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="33" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -53211,7 +53446,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="34"/>
       <c r="I18" s="33" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -53226,7 +53461,7 @@
     <row r="19" spans="1:18">
       <c r="A19" s="33"/>
       <c r="B19" s="27" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -53236,7 +53471,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="33"/>
       <c r="J19" s="27" t="s">
-        <v>2224</v>
+        <v>2219</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -53249,7 +53484,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="33" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -53265,7 +53500,7 @@
     <row r="21" spans="1:18" ht="15.75" thickBot="1">
       <c r="A21" s="35"/>
       <c r="B21" s="36" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -53285,16 +53520,16 @@
       <c r="R21" s="37"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="381" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B24" s="381"/>
-      <c r="C24" s="381"/>
-      <c r="D24" s="381"/>
-      <c r="E24" s="381"/>
-      <c r="F24" s="381"/>
+      <c r="A24" s="382" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B24" s="382"/>
+      <c r="C24" s="382"/>
+      <c r="D24" s="382"/>
+      <c r="E24" s="382"/>
+      <c r="F24" s="382"/>
       <c r="H24" s="251" t="s">
-        <v>2211</v>
+        <v>2206</v>
       </c>
       <c r="I24" s="251"/>
       <c r="J24" s="251"/>
@@ -53302,15 +53537,15 @@
       <c r="L24" s="251"/>
       <c r="M24" s="251"/>
       <c r="N24" s="251"/>
-      <c r="P24" s="381" t="s">
-        <v>2252</v>
-      </c>
-      <c r="Q24" s="381"/>
-      <c r="R24" s="381"/>
+      <c r="P24" s="382" t="s">
+        <v>2247</v>
+      </c>
+      <c r="Q24" s="382"/>
+      <c r="R24" s="382"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="106" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="B25" s="106"/>
       <c r="C25" s="106"/>
@@ -53319,7 +53554,7 @@
       <c r="F25" s="106"/>
       <c r="G25" s="106"/>
       <c r="H25" s="106" t="s">
-        <v>2242</v>
+        <v>2237</v>
       </c>
       <c r="I25" s="106"/>
       <c r="J25" s="106"/>
@@ -53367,13 +53602,13 @@
         <v>180</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>2240</v>
+        <v>2235</v>
       </c>
       <c r="E27" s="249"/>
       <c r="F27" s="248"/>
       <c r="G27" s="106"/>
       <c r="H27" s="106" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
       <c r="I27" s="106"/>
       <c r="J27" s="106"/>
@@ -53398,10 +53633,10 @@
       <c r="F28" s="106"/>
       <c r="G28" s="106"/>
       <c r="H28" s="106" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
       <c r="I28" s="258" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
       <c r="J28" s="107" t="s">
         <v>293</v>
@@ -53428,13 +53663,13 @@
       <c r="G29" s="106"/>
       <c r="H29" s="106"/>
       <c r="I29" s="150" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
       <c r="J29" s="107" t="s">
         <v>293</v>
       </c>
       <c r="K29" s="107" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
       <c r="L29" s="107"/>
       <c r="M29" s="256"/>
@@ -53450,7 +53685,7 @@
       <c r="G30" s="106"/>
       <c r="H30" s="106"/>
       <c r="I30" s="106" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
       <c r="J30" s="57"/>
       <c r="L30" s="107"/>
@@ -53464,7 +53699,7 @@
       <c r="A31" s="106"/>
       <c r="B31" s="106"/>
       <c r="C31" s="106" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
       <c r="D31" s="163"/>
       <c r="E31" s="106"/>
@@ -53472,22 +53707,22 @@
       <c r="G31" s="106"/>
       <c r="H31" s="106"/>
       <c r="I31" s="253" t="s">
-        <v>2248</v>
+        <v>2243</v>
       </c>
       <c r="J31" s="107" t="s">
         <v>293</v>
       </c>
       <c r="K31" s="107" t="s">
+        <v>2244</v>
+      </c>
+      <c r="L31" s="252" t="s">
+        <v>2245</v>
+      </c>
+      <c r="M31" s="181" t="s">
+        <v>2246</v>
+      </c>
+      <c r="N31" s="259" t="s">
         <v>2249</v>
-      </c>
-      <c r="L31" s="252" t="s">
-        <v>2250</v>
-      </c>
-      <c r="M31" s="181" t="s">
-        <v>2251</v>
-      </c>
-      <c r="N31" s="259" t="s">
-        <v>2254</v>
       </c>
       <c r="O31" s="106"/>
       <c r="P31" s="106"/>
@@ -53505,7 +53740,7 @@
       <c r="G32" s="106"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
       <c r="L32" t="s">
         <v>524</v>
@@ -53527,7 +53762,7 @@
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
       <c r="I33" s="106" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="J33" s="106"/>
       <c r="K33" s="106"/>
@@ -53546,32 +53781,32 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A35" s="360" t="s">
-        <v>2253</v>
-      </c>
-      <c r="B35" s="380"/>
-      <c r="C35" s="380"/>
-      <c r="D35" s="380"/>
-      <c r="E35" s="380"/>
-      <c r="F35" s="380"/>
-      <c r="G35" s="380"/>
-      <c r="H35" s="361"/>
-      <c r="I35" s="360" t="s">
+      <c r="A35" s="361" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B35" s="381"/>
+      <c r="C35" s="381"/>
+      <c r="D35" s="381"/>
+      <c r="E35" s="381"/>
+      <c r="F35" s="381"/>
+      <c r="G35" s="381"/>
+      <c r="H35" s="362"/>
+      <c r="I35" s="361" t="s">
         <v>1048</v>
       </c>
-      <c r="J35" s="380"/>
-      <c r="K35" s="380"/>
-      <c r="L35" s="380"/>
-      <c r="M35" s="380"/>
-      <c r="N35" s="380"/>
-      <c r="O35" s="380"/>
-      <c r="P35" s="380"/>
-      <c r="Q35" s="380"/>
-      <c r="R35" s="361"/>
+      <c r="J35" s="381"/>
+      <c r="K35" s="381"/>
+      <c r="L35" s="381"/>
+      <c r="M35" s="381"/>
+      <c r="N35" s="381"/>
+      <c r="O35" s="381"/>
+      <c r="P35" s="381"/>
+      <c r="Q35" s="381"/>
+      <c r="R35" s="362"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" thickBot="1">
       <c r="A36" s="30" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -53598,19 +53833,19 @@
     <row r="37" spans="1:18">
       <c r="A37" s="33"/>
       <c r="B37" s="27" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="34"/>
       <c r="I37" s="33"/>
       <c r="J37" s="51" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="K37" s="51" t="s">
         <v>413</v>
@@ -53630,15 +53865,15 @@
     <row r="38" spans="1:18">
       <c r="A38" s="33"/>
       <c r="B38" s="255" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="34"/>
@@ -53650,7 +53885,7 @@
         <v>10</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
@@ -53669,12 +53904,12 @@
         <v>1456</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="34"/>
@@ -53728,10 +53963,10 @@
       <c r="H41" s="34"/>
       <c r="I41" s="33"/>
       <c r="J41" s="74" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="K41" s="74" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
@@ -53804,7 +54039,7 @@
     <row r="45" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="46" spans="1:18" ht="15.75" thickBot="1">
       <c r="B46" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="G46" s="30"/>
       <c r="H46" s="31"/>
@@ -53821,7 +54056,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="C47" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="51" t="s">
@@ -53844,11 +54079,11 @@
     </row>
     <row r="48" spans="1:18">
       <c r="C48" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
       <c r="G48" s="33"/>
       <c r="H48" s="57" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="I48" s="51" t="s">
         <v>1650</v>
@@ -53869,7 +54104,7 @@
     </row>
     <row r="49" spans="2:18" ht="15.75" thickBot="1">
       <c r="C49" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="51" t="s">
@@ -53911,7 +54146,7 @@
     </row>
     <row r="51" spans="2:18" ht="15.75" thickBot="1">
       <c r="B51" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="74" t="s">
@@ -53972,7 +54207,7 @@
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1">
       <c r="C54" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="27"/>
@@ -54009,7 +54244,7 @@
         <v>1890</v>
       </c>
       <c r="C56" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
       <c r="G56" s="33"/>
       <c r="H56" s="27"/>
@@ -54026,7 +54261,7 @@
     </row>
     <row r="57" spans="2:18">
       <c r="C57" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="27"/>
@@ -54043,7 +54278,7 @@
     </row>
     <row r="58" spans="2:18">
       <c r="C58" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="G58" s="33"/>
       <c r="H58" s="27"/>
@@ -54060,7 +54295,7 @@
     </row>
     <row r="59" spans="2:18">
       <c r="C59" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="G59" s="33"/>
       <c r="H59" s="27"/>
